--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0445948</v>
+        <v>0.05234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0423358</v>
+        <v>0.0554773</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0447729</v>
+        <v>0.0558979</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0447108</v>
+        <v>0.0523441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0425151</v>
+        <v>0.0548541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0449273</v>
+        <v>0.0558434</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0450324</v>
+        <v>0.0525137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0426344</v>
+        <v>0.0552302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0449275</v>
+        <v>0.0564615</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0451615</v>
+        <v>0.0525868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0428206</v>
+        <v>0.0554868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0452804</v>
+        <v>0.0567145</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0454995</v>
+        <v>0.0526809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0429923</v>
+        <v>0.0560557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0457445</v>
+        <v>0.0569269</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0457367</v>
+        <v>0.0528328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0432423</v>
+        <v>0.0567413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0468406</v>
+        <v>0.057633</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0464837</v>
+        <v>0.0534106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0441781</v>
+        <v>0.0588348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0485739</v>
+        <v>0.0586866</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0474264</v>
+        <v>0.0539011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0464517</v>
+        <v>0.0559061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.050276</v>
+        <v>0.0555032</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0509192</v>
+        <v>0.0536739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.046959</v>
+        <v>0.055844</v>
       </c>
       <c r="D10" t="n">
-        <v>0.050684</v>
+        <v>0.055315</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0510884</v>
+        <v>0.0537777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471483</v>
+        <v>0.0562282</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05101</v>
+        <v>0.0557788</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0509771</v>
+        <v>0.0539077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0474836</v>
+        <v>0.056636</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0513595</v>
+        <v>0.0560762</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0508302</v>
+        <v>0.0541322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0477662</v>
+        <v>0.0570111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0516582</v>
+        <v>0.0568674</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0511865</v>
+        <v>0.054177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0481034</v>
+        <v>0.0574891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0520371</v>
+        <v>0.0566813</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0513299</v>
+        <v>0.0545526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0484595</v>
+        <v>0.0578341</v>
       </c>
       <c r="D15" t="n">
-        <v>0.052303</v>
+        <v>0.0569378</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0512173</v>
+        <v>0.0545299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0487148</v>
+        <v>0.0581863</v>
       </c>
       <c r="D16" t="n">
-        <v>0.052592</v>
+        <v>0.0578843</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0516006</v>
+        <v>0.0545692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0491038</v>
+        <v>0.0584532</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0529324</v>
+        <v>0.057555</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0517459</v>
+        <v>0.0547821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0494531</v>
+        <v>0.0588369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0533304</v>
+        <v>0.0579834</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0520417</v>
+        <v>0.0550344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0498018</v>
+        <v>0.0592823</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0537934</v>
+        <v>0.0589872</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0524054</v>
+        <v>0.0551579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0502467</v>
+        <v>0.0603636</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05446</v>
+        <v>0.0597027</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0525647</v>
+        <v>0.0553255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0509233</v>
+        <v>0.0618901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05595</v>
+        <v>0.0612554</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0532244</v>
+        <v>0.0562159</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0531083</v>
+        <v>0.066387</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0591145</v>
+        <v>0.0656337</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0547703</v>
+        <v>0.0574202</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0578734</v>
+        <v>0.06537270000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0539042</v>
+        <v>0.0596318</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548987</v>
+        <v>0.0626063</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0518863</v>
+        <v>0.0644653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544655</v>
+        <v>0.0596219</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548333</v>
+        <v>0.0623244</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0523405</v>
+        <v>0.0649054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0549057</v>
+        <v>0.0596303</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549234</v>
+        <v>0.0623351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.052585</v>
+        <v>0.065347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0547809</v>
+        <v>0.0602794</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0549593</v>
+        <v>0.0623634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0528935</v>
+        <v>0.06587079999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0555159</v>
+        <v>0.0609648</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0551129</v>
+        <v>0.0625879</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0528357</v>
+        <v>0.0663516</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0560826</v>
+        <v>0.0601531</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0551979</v>
+        <v>0.0624151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0533616</v>
+        <v>0.066899</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0561011</v>
+        <v>0.0614557</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0553636</v>
+        <v>0.0626862</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538901</v>
+        <v>0.06743150000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0568176</v>
+        <v>0.0621163</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0555617</v>
+        <v>0.062719</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0539588</v>
+        <v>0.0680002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0572318</v>
+        <v>0.0618655</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558489</v>
+        <v>0.06293219999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0546864</v>
+        <v>0.0686341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0575526</v>
+        <v>0.0620252</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0561365</v>
+        <v>0.0632109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0551369</v>
+        <v>0.0693539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0581985</v>
+        <v>0.06308080000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564206</v>
+        <v>0.0633929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0563718</v>
+        <v>0.07072340000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0596777</v>
+        <v>0.0643711</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0568419</v>
+        <v>0.0637916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058361</v>
+        <v>0.0741859</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06287089999999999</v>
+        <v>0.0686959</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0576546</v>
+        <v>0.0645187</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0624124</v>
+        <v>0.0811167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0690403</v>
+        <v>0.07419829999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0608862</v>
+        <v>0.0672331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06833839999999999</v>
+        <v>0.0613812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0586003</v>
+        <v>0.0621839</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0616239</v>
+        <v>0.0618484</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0569791</v>
+        <v>0.0604653</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0591355</v>
+        <v>0.0620294</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0601897</v>
+        <v>0.0619157</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0573662</v>
+        <v>0.0608365</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0586429</v>
+        <v>0.0636888</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0602304</v>
+        <v>0.0620063</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0577331</v>
+        <v>0.0612063</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0599765</v>
+        <v>0.0641197</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0603779</v>
+        <v>0.0620433</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0582185</v>
+        <v>0.0615725</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0604429</v>
+        <v>0.0633687</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0605271</v>
+        <v>0.0621781</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0586354</v>
+        <v>0.0619459</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0597002</v>
+        <v>0.0641499</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0605166</v>
+        <v>0.0622947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0590197</v>
+        <v>0.062356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0615139</v>
+        <v>0.0654259</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0606478</v>
+        <v>0.062452</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0595093</v>
+        <v>0.06288539999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0610438</v>
+        <v>0.06458560000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0609051</v>
+        <v>0.0626019</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0602128</v>
+        <v>0.0634058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0619842</v>
+        <v>0.06526990000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0612443</v>
+        <v>0.0628797</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0609721</v>
+        <v>0.0641578</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0628837</v>
+        <v>0.0660457</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0615682</v>
+        <v>0.06321209999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0612117</v>
+        <v>0.0653837</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06466040000000001</v>
+        <v>0.0679366</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0620264</v>
+        <v>0.06359239999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0636203</v>
+        <v>0.0679107</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0671438</v>
+        <v>0.0699944</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0629243</v>
+        <v>0.0643273</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0655444</v>
+        <v>0.0714345</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0704023</v>
+        <v>0.0755738</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.064515</v>
+        <v>0.0660544</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06935769999999999</v>
+        <v>0.07636759999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0753051</v>
+        <v>0.0808701</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06834519999999999</v>
+        <v>0.0694052</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07351539999999999</v>
+        <v>0.0634575</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0639547</v>
+        <v>0.06691510000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0740184</v>
+        <v>0.0745799</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0801065</v>
+        <v>0.0638035</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06281059999999999</v>
+        <v>0.06706280000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0677894</v>
+        <v>0.069202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0580688</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0643493</v>
+        <v>0.06738479999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673084</v>
+        <v>0.06922730000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0583698</v>
+        <v>0.0645651</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0635593</v>
+        <v>0.0678243</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0674139</v>
+        <v>0.06930989999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0591032</v>
+        <v>0.0649613</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06455329999999999</v>
+        <v>0.0681266</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0674607</v>
+        <v>0.06945519999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0591586</v>
+        <v>0.06544999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0648657</v>
+        <v>0.06864389999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0676272</v>
+        <v>0.0695991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0604583</v>
+        <v>0.06599729999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06543789999999999</v>
+        <v>0.0691889</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06775109999999999</v>
+        <v>0.06975530000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0607749</v>
+        <v>0.0665737</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06689059999999999</v>
+        <v>0.0699756</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06800100000000001</v>
+        <v>0.0700419</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0614117</v>
+        <v>0.0673767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0659882</v>
+        <v>0.0705414</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0682714</v>
+        <v>0.07025670000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0627533</v>
+        <v>0.0685572</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0689497</v>
+        <v>0.0716671</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0686562</v>
+        <v>0.0706217</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0634699</v>
+        <v>0.07032380000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0705523</v>
+        <v>0.0733608</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06920709999999999</v>
+        <v>0.07121950000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0650041</v>
+        <v>0.0726716</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0714161</v>
+        <v>0.0758987</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701565</v>
+        <v>0.0721883</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0676957</v>
+        <v>0.075835</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0755236</v>
+        <v>0.0790544</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0719037</v>
+        <v>0.0741821</v>
       </c>
       <c r="C64" t="n">
-        <v>0.070274</v>
+        <v>0.08013190000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0782597</v>
+        <v>0.0836809</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0746771</v>
+        <v>0.0769282</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0744523</v>
+        <v>0.0867566</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0852082</v>
+        <v>0.09058910000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0787587</v>
+        <v>0.0811622</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0798006</v>
+        <v>0.0990267</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06676799999999999</v>
+        <v>0.0878766</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07876900000000001</v>
+        <v>0.143792</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0644936</v>
+        <v>0.101238</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0671968</v>
+        <v>0.0895755</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0788317</v>
+        <v>0.144533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0648821</v>
+        <v>0.103604</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0675645</v>
+        <v>0.0911718</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0789204</v>
+        <v>0.145222</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0653019</v>
+        <v>0.106066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0679429</v>
+        <v>0.09308900000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07897560000000001</v>
+        <v>0.145992</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06581389999999999</v>
+        <v>0.108451</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06843349999999999</v>
+        <v>0.0951721</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0791724</v>
+        <v>0.14691</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0663434</v>
+        <v>0.110812</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0689331</v>
+        <v>0.0970695</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0793476</v>
+        <v>0.147928</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0671322</v>
+        <v>0.113799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0695688</v>
+        <v>0.09968349999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0800869</v>
+        <v>0.148884</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06804010000000001</v>
+        <v>0.116604</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0704161</v>
+        <v>0.101843</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0802817</v>
+        <v>0.149798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0691592</v>
+        <v>0.119491</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07174</v>
+        <v>0.104162</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0808608</v>
+        <v>0.150518</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0705649</v>
+        <v>0.122327</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07333779999999999</v>
+        <v>0.106936</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08181960000000001</v>
+        <v>0.150795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07205689999999999</v>
+        <v>0.124719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0753626</v>
+        <v>0.109159</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0832952</v>
+        <v>0.151195</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0740919</v>
+        <v>0.127735</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0780479</v>
+        <v>0.112055</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08500779999999999</v>
+        <v>0.152446</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0768035</v>
+        <v>0.131489</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0817962</v>
+        <v>0.115808</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08753759999999999</v>
+        <v>0.154325</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0803598</v>
+        <v>0.136833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.087501</v>
+        <v>0.121672</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0909471</v>
+        <v>0.157302</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0854389</v>
+        <v>0.1134</v>
       </c>
       <c r="D80" t="n">
-        <v>0.112583</v>
+        <v>0.121541</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.179307</v>
+        <v>0.170524</v>
       </c>
       <c r="C81" t="n">
-        <v>0.156167</v>
+        <v>0.127428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.115001</v>
+        <v>0.123537</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182708</v>
+        <v>0.185327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156997</v>
+        <v>0.114002</v>
       </c>
       <c r="D82" t="n">
-        <v>0.116388</v>
+        <v>0.106277</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.185075</v>
+        <v>0.180678</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157462</v>
+        <v>0.11239</v>
       </c>
       <c r="D83" t="n">
-        <v>0.118912</v>
+        <v>0.113091</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.185083</v>
+        <v>0.179025</v>
       </c>
       <c r="C84" t="n">
-        <v>0.157826</v>
+        <v>0.129287</v>
       </c>
       <c r="D84" t="n">
-        <v>0.121837</v>
+        <v>0.119252</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.185934</v>
+        <v>0.184755</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156302</v>
+        <v>0.123242</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123376</v>
+        <v>0.11876</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18655</v>
+        <v>0.183028</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157123</v>
+        <v>0.132458</v>
       </c>
       <c r="D86" t="n">
-        <v>0.125357</v>
+        <v>0.123924</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18618</v>
+        <v>0.184911</v>
       </c>
       <c r="C87" t="n">
-        <v>0.158997</v>
+        <v>0.127966</v>
       </c>
       <c r="D87" t="n">
-        <v>0.127234</v>
+        <v>0.124434</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.187018</v>
+        <v>0.183655</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160394</v>
+        <v>0.137365</v>
       </c>
       <c r="D88" t="n">
-        <v>0.130374</v>
+        <v>0.126626</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187036</v>
+        <v>0.185661</v>
       </c>
       <c r="C89" t="n">
-        <v>0.162328</v>
+        <v>0.134603</v>
       </c>
       <c r="D89" t="n">
-        <v>0.131265</v>
+        <v>0.132481</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188878</v>
+        <v>0.186784</v>
       </c>
       <c r="C90" t="n">
-        <v>0.160648</v>
+        <v>0.139618</v>
       </c>
       <c r="D90" t="n">
-        <v>0.132511</v>
+        <v>0.126353</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188279</v>
+        <v>0.18899</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163536</v>
+        <v>0.141894</v>
       </c>
       <c r="D91" t="n">
-        <v>0.13766</v>
+        <v>0.133077</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190374</v>
+        <v>0.188061</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164884</v>
+        <v>0.14805</v>
       </c>
       <c r="D92" t="n">
-        <v>0.142367</v>
+        <v>0.141456</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.191686</v>
+        <v>0.194848</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168026</v>
+        <v>0.154512</v>
       </c>
       <c r="D93" t="n">
-        <v>0.147021</v>
+        <v>0.140919</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193393</v>
+        <v>0.193813</v>
       </c>
       <c r="C94" t="n">
-        <v>0.172591</v>
+        <v>0.231318</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21651</v>
+        <v>0.211327</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25377</v>
+        <v>0.253445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229902</v>
+        <v>0.237421</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219113</v>
+        <v>0.222723</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.252006</v>
+        <v>0.25389</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230887</v>
+        <v>0.239539</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212573</v>
+        <v>0.226023</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254038</v>
+        <v>0.253947</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224826</v>
+        <v>0.241896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.222123</v>
+        <v>0.227361</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252968</v>
+        <v>0.25655</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226412</v>
+        <v>0.247265</v>
       </c>
       <c r="D98" t="n">
-        <v>0.223766</v>
+        <v>0.230971</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.254071</v>
+        <v>0.256992</v>
       </c>
       <c r="C99" t="n">
-        <v>0.23509</v>
+        <v>0.247057</v>
       </c>
       <c r="D99" t="n">
-        <v>0.225853</v>
+        <v>0.232779</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254161</v>
+        <v>0.256896</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231183</v>
+        <v>0.252852</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223196</v>
+        <v>0.229765</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254196</v>
+        <v>0.25723</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238212</v>
+        <v>0.251379</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230102</v>
+        <v>0.237412</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.254721</v>
+        <v>0.257105</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23428</v>
+        <v>0.257717</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227501</v>
+        <v>0.235298</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.254813</v>
+        <v>0.254775</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236377</v>
+        <v>0.255162</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230214</v>
+        <v>0.242748</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255054</v>
+        <v>0.255131</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24402</v>
+        <v>0.257473</v>
       </c>
       <c r="D104" t="n">
-        <v>0.238131</v>
+        <v>0.246107</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25553</v>
+        <v>0.258296</v>
       </c>
       <c r="C105" t="n">
-        <v>0.246318</v>
+        <v>0.260735</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24174</v>
+        <v>0.249626</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257059</v>
+        <v>0.25959</v>
       </c>
       <c r="C106" t="n">
-        <v>0.248987</v>
+        <v>0.262147</v>
       </c>
       <c r="D106" t="n">
-        <v>0.240427</v>
+        <v>0.254265</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258235</v>
+        <v>0.260695</v>
       </c>
       <c r="C107" t="n">
-        <v>0.252122</v>
+        <v>0.267496</v>
       </c>
       <c r="D107" t="n">
-        <v>0.248593</v>
+        <v>0.258215</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.261016</v>
+        <v>0.263253</v>
       </c>
       <c r="C108" t="n">
-        <v>0.257192</v>
+        <v>0.294898</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269175</v>
+        <v>0.27714</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265528</v>
+        <v>0.26828</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263084</v>
+        <v>0.296836</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2707</v>
+        <v>0.279096</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.292423</v>
+        <v>0.288733</v>
       </c>
       <c r="C110" t="n">
-        <v>0.262385</v>
+        <v>0.298908</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27342</v>
+        <v>0.279814</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292588</v>
+        <v>0.288859</v>
       </c>
       <c r="C111" t="n">
-        <v>0.263634</v>
+        <v>0.301012</v>
       </c>
       <c r="D111" t="n">
-        <v>0.272507</v>
+        <v>0.28393</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289557</v>
+        <v>0.289304</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261511</v>
+        <v>0.303374</v>
       </c>
       <c r="D112" t="n">
-        <v>0.276367</v>
+        <v>0.286382</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.29275</v>
+        <v>0.289102</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260317</v>
+        <v>0.305523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.270734</v>
+        <v>0.289268</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293912</v>
+        <v>0.289429</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265721</v>
+        <v>0.308358</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274588</v>
+        <v>0.286616</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291937</v>
+        <v>0.289441</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267774</v>
+        <v>0.314821</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276712</v>
+        <v>0.293875</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290546</v>
+        <v>0.289457</v>
       </c>
       <c r="C116" t="n">
-        <v>0.270582</v>
+        <v>0.317157</v>
       </c>
       <c r="D116" t="n">
-        <v>0.280278</v>
+        <v>0.29324</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293645</v>
+        <v>0.290051</v>
       </c>
       <c r="C117" t="n">
-        <v>0.273665</v>
+        <v>0.320518</v>
       </c>
       <c r="D117" t="n">
-        <v>0.282858</v>
+        <v>0.296038</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28539</v>
+        <v>0.29051</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278286</v>
+        <v>0.323487</v>
       </c>
       <c r="D118" t="n">
-        <v>0.286788</v>
+        <v>0.29859</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.295722</v>
+        <v>0.285541</v>
       </c>
       <c r="C119" t="n">
-        <v>0.280605</v>
+        <v>0.325435</v>
       </c>
       <c r="D119" t="n">
-        <v>0.289782</v>
+        <v>0.301285</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.287504</v>
+        <v>0.292876</v>
       </c>
       <c r="C120" t="n">
-        <v>0.284869</v>
+        <v>0.32733</v>
       </c>
       <c r="D120" t="n">
-        <v>0.294772</v>
+        <v>0.306611</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.297323</v>
+        <v>0.294483</v>
       </c>
       <c r="C121" t="n">
-        <v>0.288373</v>
+        <v>0.333613</v>
       </c>
       <c r="D121" t="n">
-        <v>0.298845</v>
+        <v>0.311433</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.298137</v>
+        <v>0.297074</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294748</v>
+        <v>0.341108</v>
       </c>
       <c r="D122" t="n">
-        <v>0.305976</v>
+        <v>0.318225</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.305193</v>
+        <v>0.301552</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3012</v>
+        <v>0.331192</v>
       </c>
       <c r="D123" t="n">
-        <v>0.292498</v>
+        <v>0.307418</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.37312</v>
+        <v>0.377447</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276435</v>
+        <v>0.325719</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294835</v>
+        <v>0.305964</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.374343</v>
+        <v>0.376315</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279233</v>
+        <v>0.326594</v>
       </c>
       <c r="D125" t="n">
-        <v>0.297655</v>
+        <v>0.308863</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.373383</v>
+        <v>0.377514</v>
       </c>
       <c r="C126" t="n">
-        <v>0.282564</v>
+        <v>0.329405</v>
       </c>
       <c r="D126" t="n">
-        <v>0.300173</v>
+        <v>0.311915</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373371</v>
+        <v>0.372328</v>
       </c>
       <c r="C127" t="n">
-        <v>0.285937</v>
+        <v>0.33283</v>
       </c>
       <c r="D127" t="n">
-        <v>0.303434</v>
+        <v>0.315243</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.372148</v>
+        <v>0.373058</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289496</v>
+        <v>0.333861</v>
       </c>
       <c r="D128" t="n">
-        <v>0.306107</v>
+        <v>0.318676</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.372844</v>
+        <v>0.374318</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293015</v>
+        <v>0.339075</v>
       </c>
       <c r="D129" t="n">
-        <v>0.309547</v>
+        <v>0.321465</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372719</v>
+        <v>0.376775</v>
       </c>
       <c r="C130" t="n">
-        <v>0.296913</v>
+        <v>0.342525</v>
       </c>
       <c r="D130" t="n">
-        <v>0.312941</v>
+        <v>0.325283</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.373689</v>
+        <v>0.379889</v>
       </c>
       <c r="C131" t="n">
-        <v>0.300587</v>
+        <v>0.346477</v>
       </c>
       <c r="D131" t="n">
-        <v>0.31673</v>
+        <v>0.329569</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.372681</v>
+        <v>0.37429</v>
       </c>
       <c r="C132" t="n">
-        <v>0.305248</v>
+        <v>0.350854</v>
       </c>
       <c r="D132" t="n">
-        <v>0.321063</v>
+        <v>0.334715</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374148</v>
+        <v>0.373984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.309786</v>
+        <v>0.355155</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326232</v>
+        <v>0.339823</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.373277</v>
+        <v>0.376012</v>
       </c>
       <c r="C134" t="n">
-        <v>0.314571</v>
+        <v>0.358132</v>
       </c>
       <c r="D134" t="n">
-        <v>0.331296</v>
+        <v>0.345886</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.376988</v>
+        <v>0.37576</v>
       </c>
       <c r="C135" t="n">
-        <v>0.319557</v>
+        <v>0.364489</v>
       </c>
       <c r="D135" t="n">
-        <v>0.338095</v>
+        <v>0.352347</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.376695</v>
+        <v>0.381609</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326477</v>
+        <v>0.373428</v>
       </c>
       <c r="D136" t="n">
-        <v>0.347969</v>
+        <v>0.36215</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.381971</v>
+        <v>0.386724</v>
       </c>
       <c r="C137" t="n">
-        <v>0.335668</v>
+        <v>0.34138</v>
       </c>
       <c r="D137" t="n">
-        <v>0.318213</v>
+        <v>0.328624</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.442379</v>
+        <v>0.444236</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300977</v>
+        <v>0.346939</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320858</v>
+        <v>0.331368</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.442872</v>
+        <v>0.443742</v>
       </c>
       <c r="C139" t="n">
-        <v>0.303644</v>
+        <v>0.348643</v>
       </c>
       <c r="D139" t="n">
-        <v>0.322888</v>
+        <v>0.333137</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.442787</v>
+        <v>0.443911</v>
       </c>
       <c r="C140" t="n">
-        <v>0.307129</v>
+        <v>0.351257</v>
       </c>
       <c r="D140" t="n">
-        <v>0.325384</v>
+        <v>0.335496</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.443229</v>
+        <v>0.443946</v>
       </c>
       <c r="C141" t="n">
-        <v>0.310217</v>
+        <v>0.352911</v>
       </c>
       <c r="D141" t="n">
-        <v>0.328071</v>
+        <v>0.338096</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.443606</v>
+        <v>0.444261</v>
       </c>
       <c r="C142" t="n">
-        <v>0.31323</v>
+        <v>0.356144</v>
       </c>
       <c r="D142" t="n">
-        <v>0.329712</v>
+        <v>0.340129</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.443466</v>
+        <v>0.439644</v>
       </c>
       <c r="C143" t="n">
-        <v>0.315815</v>
+        <v>0.355407</v>
       </c>
       <c r="D143" t="n">
-        <v>0.332331</v>
+        <v>0.343473</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05234</v>
+        <v>0.0523727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0554773</v>
+        <v>0.0556016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0558979</v>
+        <v>0.055897</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0523441</v>
+        <v>0.0524267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0548541</v>
+        <v>0.0549987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0558434</v>
+        <v>0.055768</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0525137</v>
+        <v>0.052594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0552302</v>
+        <v>0.0553053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0564615</v>
+        <v>0.0560329</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525868</v>
+        <v>0.0526576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0554868</v>
+        <v>0.0556261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0567145</v>
+        <v>0.0566143</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0526809</v>
+        <v>0.0529039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0560557</v>
+        <v>0.0561084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0569269</v>
+        <v>0.0570071</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0528328</v>
+        <v>0.0531142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0567413</v>
+        <v>0.0572254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.057633</v>
+        <v>0.057674</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0534106</v>
+        <v>0.0534807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0588348</v>
+        <v>0.0584442</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0586866</v>
+        <v>0.0588373</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0539011</v>
+        <v>0.0539871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0559061</v>
+        <v>0.0557639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0555032</v>
+        <v>0.0526706</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0536739</v>
+        <v>0.0528172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.055844</v>
+        <v>0.056559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.055315</v>
+        <v>0.0531685</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0537777</v>
+        <v>0.0528548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0562282</v>
+        <v>0.0569266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0557788</v>
+        <v>0.0535337</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0539077</v>
+        <v>0.0529657</v>
       </c>
       <c r="C12" t="n">
-        <v>0.056636</v>
+        <v>0.0572823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0560762</v>
+        <v>0.0536189</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0541322</v>
+        <v>0.0531654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0570111</v>
+        <v>0.0576665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0568674</v>
+        <v>0.0539644</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.054177</v>
+        <v>0.0533138</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0574891</v>
+        <v>0.0582083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0566813</v>
+        <v>0.0544225</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0545526</v>
+        <v>0.0533114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0578341</v>
+        <v>0.0585459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0569378</v>
+        <v>0.054569</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0545299</v>
+        <v>0.0534756</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0581863</v>
+        <v>0.0588466</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0578843</v>
+        <v>0.0550618</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0545692</v>
+        <v>0.0535963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0584532</v>
+        <v>0.0591257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.057555</v>
+        <v>0.0551905</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0547821</v>
+        <v>0.053703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0588369</v>
+        <v>0.0594399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0579834</v>
+        <v>0.0555834</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0550344</v>
+        <v>0.0539506</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0592823</v>
+        <v>0.0598535</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0589872</v>
+        <v>0.0559124</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0551579</v>
+        <v>0.0540828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0603636</v>
+        <v>0.0605018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0597027</v>
+        <v>0.0566309</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0553255</v>
+        <v>0.0543754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0618901</v>
+        <v>0.0617053</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0612554</v>
+        <v>0.058202</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0562159</v>
+        <v>0.0551948</v>
       </c>
       <c r="C22" t="n">
-        <v>0.066387</v>
+        <v>0.0662909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0656337</v>
+        <v>0.0623455</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0574202</v>
+        <v>0.0566397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06537270000000001</v>
+        <v>0.057624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0596318</v>
+        <v>0.0573229</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0626063</v>
+        <v>0.0560178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644653</v>
+        <v>0.0577767</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0596219</v>
+        <v>0.058047</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0623244</v>
+        <v>0.0560385</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0649054</v>
+        <v>0.0582433</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0596303</v>
+        <v>0.0579991</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0623351</v>
+        <v>0.0561365</v>
       </c>
       <c r="C26" t="n">
-        <v>0.065347</v>
+        <v>0.05849</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0602794</v>
+        <v>0.0585584</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0623634</v>
+        <v>0.0561397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06587079999999999</v>
+        <v>0.0589025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0609648</v>
+        <v>0.0589828</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0625879</v>
+        <v>0.0562224</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0663516</v>
+        <v>0.0592886</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0601531</v>
+        <v>0.0595159</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0624151</v>
+        <v>0.0563102</v>
       </c>
       <c r="C29" t="n">
-        <v>0.066899</v>
+        <v>0.0596487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0614557</v>
+        <v>0.0591142</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0626862</v>
+        <v>0.0564921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06743150000000001</v>
+        <v>0.0600378</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0621163</v>
+        <v>0.0602341</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.062719</v>
+        <v>0.0566457</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0680002</v>
+        <v>0.0604249</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0618655</v>
+        <v>0.0601679</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06293219999999999</v>
+        <v>0.056854</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0686341</v>
+        <v>0.0610483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0620252</v>
+        <v>0.0606748</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0632109</v>
+        <v>0.0571102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0693539</v>
+        <v>0.0616909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06308080000000001</v>
+        <v>0.0620453</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0633929</v>
+        <v>0.0572878</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07072340000000001</v>
+        <v>0.06345050000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0643711</v>
+        <v>0.0632055</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0637916</v>
+        <v>0.0577667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0741859</v>
+        <v>0.0665028</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0686959</v>
+        <v>0.0665326</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0645187</v>
+        <v>0.0587137</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0811167</v>
+        <v>0.07286189999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07419829999999999</v>
+        <v>0.0728063</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0672331</v>
+        <v>0.0610181</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0613812</v>
+        <v>0.0628292</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0621839</v>
+        <v>0.0619959</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0618484</v>
+        <v>0.06472990000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0604653</v>
+        <v>0.06257210000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0620294</v>
+        <v>0.0612266</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0619157</v>
+        <v>0.0643744</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0608365</v>
+        <v>0.0629373</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0636888</v>
+        <v>0.0618038</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0620063</v>
+        <v>0.0644424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0612063</v>
+        <v>0.06328499999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0641197</v>
+        <v>0.0627687</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0620433</v>
+        <v>0.0644962</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0615725</v>
+        <v>0.06371250000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0633687</v>
+        <v>0.063044</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0621781</v>
+        <v>0.06456190000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0619459</v>
+        <v>0.0641477</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0641499</v>
+        <v>0.0631756</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0622947</v>
+        <v>0.0646634</v>
       </c>
       <c r="C43" t="n">
-        <v>0.062356</v>
+        <v>0.064557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0654259</v>
+        <v>0.0631017</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.062452</v>
+        <v>0.0648238</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06288539999999999</v>
+        <v>0.0651152</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06458560000000001</v>
+        <v>0.06385970000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0626019</v>
+        <v>0.0649405</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0634058</v>
+        <v>0.0657324</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06526990000000001</v>
+        <v>0.06575499999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0628797</v>
+        <v>0.0652491</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0641578</v>
+        <v>0.06647930000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0660457</v>
+        <v>0.0655992</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06321209999999999</v>
+        <v>0.0654864</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0653837</v>
+        <v>0.0677961</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0679366</v>
+        <v>0.0663571</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06359239999999999</v>
+        <v>0.06584719999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0679107</v>
+        <v>0.0702994</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0699944</v>
+        <v>0.0697932</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0643273</v>
+        <v>0.0666679</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0714345</v>
+        <v>0.0740735</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0755738</v>
+        <v>0.0738645</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0660544</v>
+        <v>0.0683397</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07636759999999999</v>
+        <v>0.0792036</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0808701</v>
+        <v>0.078555</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0694052</v>
+        <v>0.07170550000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0634575</v>
+        <v>0.0646916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06691510000000001</v>
+        <v>0.06637170000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0745799</v>
+        <v>0.0768938</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0638035</v>
+        <v>0.0648183</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06706280000000001</v>
+        <v>0.06663520000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.069202</v>
+        <v>0.0678974</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0652293</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06738479999999999</v>
+        <v>0.06717430000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06922730000000001</v>
+        <v>0.0679251</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0645651</v>
+        <v>0.06562220000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0678243</v>
+        <v>0.0677722</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06930989999999999</v>
+        <v>0.06800730000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0649613</v>
+        <v>0.0660598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0681266</v>
+        <v>0.06798849999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06945519999999999</v>
+        <v>0.06814389999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06544999999999999</v>
+        <v>0.0665987</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06864389999999999</v>
+        <v>0.0681368</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0695991</v>
+        <v>0.0682816</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06599729999999999</v>
+        <v>0.06719319999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0691889</v>
+        <v>0.06904250000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06975530000000001</v>
+        <v>0.0684168</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0665737</v>
+        <v>0.0677956</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0699756</v>
+        <v>0.0695216</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0700419</v>
+        <v>0.0686146</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0673767</v>
+        <v>0.0686214</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0705414</v>
+        <v>0.0699709</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07025670000000001</v>
+        <v>0.06887939999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0685572</v>
+        <v>0.0698009</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0716671</v>
+        <v>0.0711773</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0706217</v>
+        <v>0.0692128</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07032380000000001</v>
+        <v>0.07155980000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0733608</v>
+        <v>0.07293760000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07121950000000001</v>
+        <v>0.0697498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0726716</v>
+        <v>0.07402019999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0758987</v>
+        <v>0.0753824</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0721883</v>
+        <v>0.07074510000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.075835</v>
+        <v>0.07727299999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0790544</v>
+        <v>0.0784884</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0741821</v>
+        <v>0.072689</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08013190000000001</v>
+        <v>0.0815727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0836809</v>
+        <v>0.0830478</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0769282</v>
+        <v>0.0755165</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0867566</v>
+        <v>0.08833969999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09058910000000001</v>
+        <v>0.0899768</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0811622</v>
+        <v>0.0797311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0990267</v>
+        <v>0.07352210000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0878766</v>
+        <v>0.0736178</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.143792</v>
+        <v>0.0975478</v>
       </c>
       <c r="C67" t="n">
-        <v>0.101238</v>
+        <v>0.0745518</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0895755</v>
+        <v>0.0747278</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.144533</v>
+        <v>0.0982408</v>
       </c>
       <c r="C68" t="n">
-        <v>0.103604</v>
+        <v>0.07580820000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0911718</v>
+        <v>0.0759591</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.145222</v>
+        <v>0.0989805</v>
       </c>
       <c r="C69" t="n">
-        <v>0.106066</v>
+        <v>0.0771399</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09308900000000001</v>
+        <v>0.07736179999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.145992</v>
+        <v>0.09954880000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.108451</v>
+        <v>0.0784198</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0951721</v>
+        <v>0.0785855</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14691</v>
+        <v>0.099827</v>
       </c>
       <c r="C71" t="n">
-        <v>0.110812</v>
+        <v>0.0796451</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0970695</v>
+        <v>0.0797057</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.147928</v>
+        <v>0.100441</v>
       </c>
       <c r="C72" t="n">
-        <v>0.113799</v>
+        <v>0.08105080000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09968349999999999</v>
+        <v>0.0813025</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.148884</v>
+        <v>0.100945</v>
       </c>
       <c r="C73" t="n">
-        <v>0.116604</v>
+        <v>0.0826496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.101843</v>
+        <v>0.08285389999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.149798</v>
+        <v>0.10135</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119491</v>
+        <v>0.08429830000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.104162</v>
+        <v>0.08431</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.150518</v>
+        <v>0.101496</v>
       </c>
       <c r="C75" t="n">
-        <v>0.122327</v>
+        <v>0.08611199999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.106936</v>
+        <v>0.0862647</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.150795</v>
+        <v>0.10232</v>
       </c>
       <c r="C76" t="n">
-        <v>0.124719</v>
+        <v>0.0886397</v>
       </c>
       <c r="D76" t="n">
-        <v>0.109159</v>
+        <v>0.08884930000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.151195</v>
+        <v>0.103418</v>
       </c>
       <c r="C77" t="n">
-        <v>0.127735</v>
+        <v>0.0917454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112055</v>
+        <v>0.0918572</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.152446</v>
+        <v>0.105055</v>
       </c>
       <c r="C78" t="n">
-        <v>0.131489</v>
+        <v>0.0956857</v>
       </c>
       <c r="D78" t="n">
-        <v>0.115808</v>
+        <v>0.0958397</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.154325</v>
+        <v>0.107085</v>
       </c>
       <c r="C79" t="n">
-        <v>0.136833</v>
+        <v>0.101727</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121672</v>
+        <v>0.102009</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.157302</v>
+        <v>0.111066</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1134</v>
+        <v>0.110554</v>
       </c>
       <c r="D80" t="n">
-        <v>0.121541</v>
+        <v>0.112911</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.170524</v>
+        <v>0.184928</v>
       </c>
       <c r="C81" t="n">
-        <v>0.127428</v>
+        <v>0.118858</v>
       </c>
       <c r="D81" t="n">
-        <v>0.123537</v>
+        <v>0.115287</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185327</v>
+        <v>0.179297</v>
       </c>
       <c r="C82" t="n">
-        <v>0.114002</v>
+        <v>0.125045</v>
       </c>
       <c r="D82" t="n">
-        <v>0.106277</v>
+        <v>0.120272</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.180678</v>
+        <v>0.183184</v>
       </c>
       <c r="C83" t="n">
-        <v>0.11239</v>
+        <v>0.1193</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113091</v>
+        <v>0.114727</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.179025</v>
+        <v>0.173935</v>
       </c>
       <c r="C84" t="n">
-        <v>0.129287</v>
+        <v>0.135544</v>
       </c>
       <c r="D84" t="n">
-        <v>0.119252</v>
+        <v>0.133851</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184755</v>
+        <v>0.187864</v>
       </c>
       <c r="C85" t="n">
-        <v>0.123242</v>
+        <v>0.139667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.11876</v>
+        <v>0.134732</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.183028</v>
+        <v>0.190684</v>
       </c>
       <c r="C86" t="n">
-        <v>0.132458</v>
+        <v>0.131771</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123924</v>
+        <v>0.130795</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184911</v>
+        <v>0.181106</v>
       </c>
       <c r="C87" t="n">
-        <v>0.127966</v>
+        <v>0.130952</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124434</v>
+        <v>0.127658</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183655</v>
+        <v>0.178574</v>
       </c>
       <c r="C88" t="n">
-        <v>0.137365</v>
+        <v>0.145709</v>
       </c>
       <c r="D88" t="n">
-        <v>0.126626</v>
+        <v>0.13668</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185661</v>
+        <v>0.189432</v>
       </c>
       <c r="C89" t="n">
-        <v>0.134603</v>
+        <v>0.15256</v>
       </c>
       <c r="D89" t="n">
-        <v>0.132481</v>
+        <v>0.143275</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186784</v>
+        <v>0.191918</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139618</v>
+        <v>0.154133</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126353</v>
+        <v>0.144529</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18899</v>
+        <v>0.194489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.141894</v>
+        <v>0.149827</v>
       </c>
       <c r="D91" t="n">
-        <v>0.133077</v>
+        <v>0.142977</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188061</v>
+        <v>0.186437</v>
       </c>
       <c r="C92" t="n">
-        <v>0.14805</v>
+        <v>0.155704</v>
       </c>
       <c r="D92" t="n">
-        <v>0.141456</v>
+        <v>0.143435</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.194848</v>
+        <v>0.189419</v>
       </c>
       <c r="C93" t="n">
-        <v>0.154512</v>
+        <v>0.167457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.140919</v>
+        <v>0.157356</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193813</v>
+        <v>0.199179</v>
       </c>
       <c r="C94" t="n">
-        <v>0.231318</v>
+        <v>0.23657</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211327</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.253445</v>
+        <v>0.256236</v>
       </c>
       <c r="C95" t="n">
-        <v>0.237421</v>
+        <v>0.240996</v>
       </c>
       <c r="D95" t="n">
-        <v>0.222723</v>
+        <v>0.224273</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.25389</v>
+        <v>0.253991</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239539</v>
+        <v>0.245372</v>
       </c>
       <c r="D96" t="n">
-        <v>0.226023</v>
+        <v>0.22693</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253947</v>
+        <v>0.256956</v>
       </c>
       <c r="C97" t="n">
-        <v>0.241896</v>
+        <v>0.244435</v>
       </c>
       <c r="D97" t="n">
-        <v>0.227361</v>
+        <v>0.229457</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25655</v>
+        <v>0.254022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.247265</v>
+        <v>0.247754</v>
       </c>
       <c r="D98" t="n">
-        <v>0.230971</v>
+        <v>0.231222</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.256992</v>
+        <v>0.25711</v>
       </c>
       <c r="C99" t="n">
-        <v>0.247057</v>
+        <v>0.252825</v>
       </c>
       <c r="D99" t="n">
-        <v>0.232779</v>
+        <v>0.233981</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.256896</v>
+        <v>0.257056</v>
       </c>
       <c r="C100" t="n">
-        <v>0.252852</v>
+        <v>0.249957</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229765</v>
+        <v>0.235855</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.25723</v>
+        <v>0.257269</v>
       </c>
       <c r="C101" t="n">
-        <v>0.251379</v>
+        <v>0.255847</v>
       </c>
       <c r="D101" t="n">
-        <v>0.237412</v>
+        <v>0.233058</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257105</v>
+        <v>0.257453</v>
       </c>
       <c r="C102" t="n">
-        <v>0.257717</v>
+        <v>0.258475</v>
       </c>
       <c r="D102" t="n">
-        <v>0.235298</v>
+        <v>0.240546</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.254775</v>
+        <v>0.255347</v>
       </c>
       <c r="C103" t="n">
-        <v>0.255162</v>
+        <v>0.262448</v>
       </c>
       <c r="D103" t="n">
-        <v>0.242748</v>
+        <v>0.243614</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255131</v>
+        <v>0.25836</v>
       </c>
       <c r="C104" t="n">
-        <v>0.257473</v>
+        <v>0.262392</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246107</v>
+        <v>0.240482</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258296</v>
+        <v>0.258794</v>
       </c>
       <c r="C105" t="n">
-        <v>0.260735</v>
+        <v>0.262383</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249626</v>
+        <v>0.249284</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25959</v>
+        <v>0.259952</v>
       </c>
       <c r="C106" t="n">
-        <v>0.262147</v>
+        <v>0.26948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254265</v>
+        <v>0.247671</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.260695</v>
+        <v>0.261335</v>
       </c>
       <c r="C107" t="n">
-        <v>0.267496</v>
+        <v>0.269669</v>
       </c>
       <c r="D107" t="n">
-        <v>0.258215</v>
+        <v>0.252238</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263253</v>
+        <v>0.263643</v>
       </c>
       <c r="C108" t="n">
-        <v>0.294898</v>
+        <v>0.299628</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27714</v>
+        <v>0.276769</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26828</v>
+        <v>0.265901</v>
       </c>
       <c r="C109" t="n">
-        <v>0.296836</v>
+        <v>0.302951</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279096</v>
+        <v>0.277785</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.288733</v>
+        <v>0.291664</v>
       </c>
       <c r="C110" t="n">
-        <v>0.298908</v>
+        <v>0.302783</v>
       </c>
       <c r="D110" t="n">
-        <v>0.279814</v>
+        <v>0.281621</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.288859</v>
+        <v>0.29452</v>
       </c>
       <c r="C111" t="n">
-        <v>0.301012</v>
+        <v>0.305982</v>
       </c>
       <c r="D111" t="n">
-        <v>0.28393</v>
+        <v>0.283761</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289304</v>
+        <v>0.294767</v>
       </c>
       <c r="C112" t="n">
-        <v>0.303374</v>
+        <v>0.304096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.286382</v>
+        <v>0.285195</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.289102</v>
+        <v>0.287518</v>
       </c>
       <c r="C113" t="n">
-        <v>0.305523</v>
+        <v>0.31095</v>
       </c>
       <c r="D113" t="n">
-        <v>0.289268</v>
+        <v>0.288664</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.289429</v>
+        <v>0.292476</v>
       </c>
       <c r="C114" t="n">
-        <v>0.308358</v>
+        <v>0.312083</v>
       </c>
       <c r="D114" t="n">
-        <v>0.286616</v>
+        <v>0.284082</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289441</v>
+        <v>0.292016</v>
       </c>
       <c r="C115" t="n">
-        <v>0.314821</v>
+        <v>0.315278</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293875</v>
+        <v>0.287023</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289457</v>
+        <v>0.291995</v>
       </c>
       <c r="C116" t="n">
-        <v>0.317157</v>
+        <v>0.318169</v>
       </c>
       <c r="D116" t="n">
-        <v>0.29324</v>
+        <v>0.289812</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.290051</v>
+        <v>0.294866</v>
       </c>
       <c r="C117" t="n">
-        <v>0.320518</v>
+        <v>0.320567</v>
       </c>
       <c r="D117" t="n">
-        <v>0.296038</v>
+        <v>0.293322</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29051</v>
+        <v>0.293008</v>
       </c>
       <c r="C118" t="n">
-        <v>0.323487</v>
+        <v>0.320513</v>
       </c>
       <c r="D118" t="n">
-        <v>0.29859</v>
+        <v>0.296978</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.285541</v>
+        <v>0.294052</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325435</v>
+        <v>0.327524</v>
       </c>
       <c r="D119" t="n">
-        <v>0.301285</v>
+        <v>0.300995</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292876</v>
+        <v>0.29215</v>
       </c>
       <c r="C120" t="n">
-        <v>0.32733</v>
+        <v>0.328263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306611</v>
+        <v>0.306199</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.294483</v>
+        <v>0.297502</v>
       </c>
       <c r="C121" t="n">
-        <v>0.333613</v>
+        <v>0.337629</v>
       </c>
       <c r="D121" t="n">
-        <v>0.311433</v>
+        <v>0.310863</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.297074</v>
+        <v>0.301655</v>
       </c>
       <c r="C122" t="n">
-        <v>0.341108</v>
+        <v>0.34512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.318225</v>
+        <v>0.317716</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.301552</v>
+        <v>0.303692</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331192</v>
+        <v>0.332266</v>
       </c>
       <c r="D123" t="n">
-        <v>0.307418</v>
+        <v>0.30389</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.377447</v>
+        <v>0.378059</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325719</v>
+        <v>0.326284</v>
       </c>
       <c r="D124" t="n">
-        <v>0.305964</v>
+        <v>0.305894</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376315</v>
+        <v>0.378541</v>
       </c>
       <c r="C125" t="n">
-        <v>0.326594</v>
+        <v>0.327103</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308863</v>
+        <v>0.308992</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.377514</v>
+        <v>0.372741</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329405</v>
+        <v>0.329948</v>
       </c>
       <c r="D126" t="n">
-        <v>0.311915</v>
+        <v>0.312351</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.372328</v>
+        <v>0.378672</v>
       </c>
       <c r="C127" t="n">
-        <v>0.33283</v>
+        <v>0.33296</v>
       </c>
       <c r="D127" t="n">
-        <v>0.315243</v>
+        <v>0.315311</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373058</v>
+        <v>0.377511</v>
       </c>
       <c r="C128" t="n">
-        <v>0.333861</v>
+        <v>0.335886</v>
       </c>
       <c r="D128" t="n">
-        <v>0.318676</v>
+        <v>0.318137</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.374318</v>
+        <v>0.374773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339075</v>
+        <v>0.337329</v>
       </c>
       <c r="D129" t="n">
-        <v>0.321465</v>
+        <v>0.321851</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.376775</v>
+        <v>0.379058</v>
       </c>
       <c r="C130" t="n">
-        <v>0.342525</v>
+        <v>0.341144</v>
       </c>
       <c r="D130" t="n">
-        <v>0.325283</v>
+        <v>0.326134</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.379889</v>
+        <v>0.379288</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346477</v>
+        <v>0.346468</v>
       </c>
       <c r="D131" t="n">
-        <v>0.329569</v>
+        <v>0.330336</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37429</v>
+        <v>0.379816</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350854</v>
+        <v>0.350587</v>
       </c>
       <c r="D132" t="n">
-        <v>0.334715</v>
+        <v>0.334758</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.373984</v>
+        <v>0.381569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355155</v>
+        <v>0.355827</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339823</v>
+        <v>0.339139</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376012</v>
+        <v>0.38263</v>
       </c>
       <c r="C134" t="n">
-        <v>0.358132</v>
+        <v>0.36204</v>
       </c>
       <c r="D134" t="n">
-        <v>0.345886</v>
+        <v>0.344843</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.37576</v>
+        <v>0.384928</v>
       </c>
       <c r="C135" t="n">
-        <v>0.364489</v>
+        <v>0.364622</v>
       </c>
       <c r="D135" t="n">
-        <v>0.352347</v>
+        <v>0.353622</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381609</v>
+        <v>0.38457</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373428</v>
+        <v>0.374181</v>
       </c>
       <c r="D136" t="n">
-        <v>0.36215</v>
+        <v>0.362613</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.386724</v>
+        <v>0.387954</v>
       </c>
       <c r="C137" t="n">
-        <v>0.34138</v>
+        <v>0.343741</v>
       </c>
       <c r="D137" t="n">
-        <v>0.328624</v>
+        <v>0.328468</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444236</v>
+        <v>0.444562</v>
       </c>
       <c r="C138" t="n">
-        <v>0.346939</v>
+        <v>0.343806</v>
       </c>
       <c r="D138" t="n">
-        <v>0.331368</v>
+        <v>0.330873</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443742</v>
+        <v>0.44439</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348643</v>
+        <v>0.348788</v>
       </c>
       <c r="D139" t="n">
-        <v>0.333137</v>
+        <v>0.333471</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.443911</v>
+        <v>0.43973</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351257</v>
+        <v>0.351335</v>
       </c>
       <c r="D140" t="n">
-        <v>0.335496</v>
+        <v>0.335843</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.443946</v>
+        <v>0.444778</v>
       </c>
       <c r="C141" t="n">
-        <v>0.352911</v>
+        <v>0.354122</v>
       </c>
       <c r="D141" t="n">
-        <v>0.338096</v>
+        <v>0.339141</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444261</v>
+        <v>0.444458</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356144</v>
+        <v>0.356179</v>
       </c>
       <c r="D142" t="n">
-        <v>0.340129</v>
+        <v>0.340408</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.439644</v>
+        <v>0.43978</v>
       </c>
       <c r="C143" t="n">
-        <v>0.355407</v>
+        <v>0.35922</v>
       </c>
       <c r="D143" t="n">
-        <v>0.343473</v>
+        <v>0.343989</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0523727</v>
+        <v>0.0515849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0556016</v>
+        <v>0.0557691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.055897</v>
+        <v>0.0533508</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0524267</v>
+        <v>0.0516322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0549987</v>
+        <v>0.0565302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.055768</v>
+        <v>0.0542234</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.052594</v>
+        <v>0.0514599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0553053</v>
+        <v>0.0555925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0560329</v>
+        <v>0.0537932</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0526576</v>
+        <v>0.0515404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0556261</v>
+        <v>0.055902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0566143</v>
+        <v>0.0543578</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0529039</v>
+        <v>0.051801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0561084</v>
+        <v>0.0565049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0570071</v>
+        <v>0.0548859</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0531142</v>
+        <v>0.0523528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0572254</v>
+        <v>0.0580975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.057674</v>
+        <v>0.0553462</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0534807</v>
+        <v>0.053108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0584442</v>
+        <v>0.0597374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0588373</v>
+        <v>0.0576516</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0539871</v>
+        <v>0.0536836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0557639</v>
+        <v>0.0558664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0526706</v>
+        <v>0.053955</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0528172</v>
+        <v>0.0529985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.056559</v>
+        <v>0.0565939</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0531685</v>
+        <v>0.0538118</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0528548</v>
+        <v>0.0530456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0569266</v>
+        <v>0.056985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0535337</v>
+        <v>0.0541303</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0529657</v>
+        <v>0.0532125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0572823</v>
+        <v>0.0573311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0536189</v>
+        <v>0.0544252</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0531654</v>
+        <v>0.0533859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0576665</v>
+        <v>0.0576704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0539644</v>
+        <v>0.0548743</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0533138</v>
+        <v>0.0534816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0582083</v>
+        <v>0.0581422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0544225</v>
+        <v>0.0551442</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0533114</v>
+        <v>0.0535617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0585459</v>
+        <v>0.058488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.054569</v>
+        <v>0.0554277</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0534756</v>
+        <v>0.0536509</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0588466</v>
+        <v>0.0587147</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0550618</v>
+        <v>0.0558165</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0535963</v>
+        <v>0.0537674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0591257</v>
+        <v>0.059048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0551905</v>
+        <v>0.0561363</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.053703</v>
+        <v>0.0539203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0594399</v>
+        <v>0.0593906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0555834</v>
+        <v>0.0564878</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0539506</v>
+        <v>0.054115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0598535</v>
+        <v>0.0597645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0559124</v>
+        <v>0.0568658</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0540828</v>
+        <v>0.0543338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0605018</v>
+        <v>0.0602649</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0566309</v>
+        <v>0.057389</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0543754</v>
+        <v>0.0546472</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0617053</v>
+        <v>0.0616117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.058202</v>
+        <v>0.0590339</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0551948</v>
+        <v>0.0553503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0662909</v>
+        <v>0.0660482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623455</v>
+        <v>0.0637749</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0566397</v>
+        <v>0.0569467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.057624</v>
+        <v>0.0579567</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0573229</v>
+        <v>0.0585841</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0560178</v>
+        <v>0.0565622</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0577767</v>
+        <v>0.0586766</v>
       </c>
       <c r="D24" t="n">
-        <v>0.058047</v>
+        <v>0.0580179</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0560385</v>
+        <v>0.0558763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0582433</v>
+        <v>0.0580884</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0579991</v>
+        <v>0.0583318</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561365</v>
+        <v>0.0559332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05849</v>
+        <v>0.0584892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0585584</v>
+        <v>0.0586699</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0561397</v>
+        <v>0.0559157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0589025</v>
+        <v>0.058831</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0589828</v>
+        <v>0.0590213</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0562224</v>
+        <v>0.0560139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0592886</v>
+        <v>0.0592432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0595159</v>
+        <v>0.0594179</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0563102</v>
+        <v>0.0561157</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0596487</v>
+        <v>0.0595759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0591142</v>
+        <v>0.0598627</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0564921</v>
+        <v>0.0563339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0600378</v>
+        <v>0.060014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0602341</v>
+        <v>0.0602842</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0566457</v>
+        <v>0.056479</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0604249</v>
+        <v>0.0604003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0601679</v>
+        <v>0.060708</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056854</v>
+        <v>0.056691</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0610483</v>
+        <v>0.061047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0606748</v>
+        <v>0.0611897</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0571102</v>
+        <v>0.0569008</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0616909</v>
+        <v>0.0618848</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0620453</v>
+        <v>0.0618931</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0572878</v>
+        <v>0.0571641</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06345050000000001</v>
+        <v>0.0634608</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0632055</v>
+        <v>0.0636193</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0577667</v>
+        <v>0.0577723</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0665028</v>
+        <v>0.06655709999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0665326</v>
+        <v>0.0670458</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0587137</v>
+        <v>0.0585984</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07286189999999999</v>
+        <v>0.072778</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0728063</v>
+        <v>0.0733505</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0610181</v>
+        <v>0.060935</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0628292</v>
+        <v>0.0661926</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0619959</v>
+        <v>0.0613405</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06472990000000001</v>
+        <v>0.0647161</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06257210000000001</v>
+        <v>0.0643426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0612266</v>
+        <v>0.0614835</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0643744</v>
+        <v>0.0656153</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0629373</v>
+        <v>0.06461799999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0618038</v>
+        <v>0.0602663</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0644424</v>
+        <v>0.0648397</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06328499999999999</v>
+        <v>0.0649318</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0627687</v>
+        <v>0.0606882</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0644962</v>
+        <v>0.06486069999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06371250000000001</v>
+        <v>0.0653547</v>
       </c>
       <c r="D41" t="n">
-        <v>0.063044</v>
+        <v>0.0610725</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06456190000000001</v>
+        <v>0.0649501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0641477</v>
+        <v>0.065799</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0631756</v>
+        <v>0.0614525</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0646634</v>
+        <v>0.0650703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.064557</v>
+        <v>0.0661757</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0631017</v>
+        <v>0.0618875</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0648238</v>
+        <v>0.06522500000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0651152</v>
+        <v>0.06663139999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06385970000000001</v>
+        <v>0.0623621</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0649405</v>
+        <v>0.0654068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0657324</v>
+        <v>0.0672466</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06575499999999999</v>
+        <v>0.0629859</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0652491</v>
+        <v>0.0656641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06647930000000001</v>
+        <v>0.06798700000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0655992</v>
+        <v>0.0637682</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0654864</v>
+        <v>0.0659478</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0677961</v>
+        <v>0.0693835</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0663571</v>
+        <v>0.0652127</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06584719999999999</v>
+        <v>0.0663173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0702994</v>
+        <v>0.07180540000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0697932</v>
+        <v>0.06774959999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0666679</v>
+        <v>0.0671416</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0740735</v>
+        <v>0.0755671</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0738645</v>
+        <v>0.0717182</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0683397</v>
+        <v>0.0688595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0792036</v>
+        <v>0.0808474</v>
       </c>
       <c r="D50" t="n">
-        <v>0.078555</v>
+        <v>0.07691530000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07170550000000001</v>
+        <v>0.07227210000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0646916</v>
+        <v>0.06639780000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06637170000000001</v>
+        <v>0.067619</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0768938</v>
+        <v>0.0781848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0648183</v>
+        <v>0.0644057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06663520000000001</v>
+        <v>0.0655646</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0678974</v>
+        <v>0.0679278</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0652293</v>
+        <v>0.06482309999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06717430000000001</v>
+        <v>0.06552910000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0679251</v>
+        <v>0.0674477</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06562220000000001</v>
+        <v>0.06522799999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0677722</v>
+        <v>0.0688573</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06800730000000001</v>
+        <v>0.0673451</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0660598</v>
+        <v>0.0656646</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06798849999999999</v>
+        <v>0.0681731</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06814389999999999</v>
+        <v>0.06752420000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0665987</v>
+        <v>0.0662367</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0681368</v>
+        <v>0.06978570000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0682816</v>
+        <v>0.0676042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06719319999999999</v>
+        <v>0.06680369999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06904250000000001</v>
+        <v>0.06717720000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0684168</v>
+        <v>0.0677603</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0677956</v>
+        <v>0.0674252</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0695216</v>
+        <v>0.07033730000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0686146</v>
+        <v>0.0679382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0686214</v>
+        <v>0.0682717</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0699709</v>
+        <v>0.07171719999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06887939999999999</v>
+        <v>0.0681958</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0698009</v>
+        <v>0.069408</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0711773</v>
+        <v>0.0729032</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0692128</v>
+        <v>0.0685553</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07155980000000001</v>
+        <v>0.07119250000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07293760000000001</v>
+        <v>0.0746218</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0697498</v>
+        <v>0.0691215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07402019999999999</v>
+        <v>0.0736367</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0753824</v>
+        <v>0.0770315</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07074510000000001</v>
+        <v>0.0701357</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07727299999999999</v>
+        <v>0.0769056</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0784884</v>
+        <v>0.0801277</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072689</v>
+        <v>0.0720219</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0815727</v>
+        <v>0.0812002</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0830478</v>
+        <v>0.08463080000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0755165</v>
+        <v>0.0748819</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08833969999999999</v>
+        <v>0.0879245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0899768</v>
+        <v>0.0915468</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0797311</v>
+        <v>0.0790921</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07352210000000001</v>
+        <v>0.0778607</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0736178</v>
+        <v>0.0757032</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0975478</v>
+        <v>0.109023</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0745518</v>
+        <v>0.0791391</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0747278</v>
+        <v>0.07706259999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0982408</v>
+        <v>0.109565</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07580820000000001</v>
+        <v>0.08111119999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0759591</v>
+        <v>0.0786594</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0989805</v>
+        <v>0.110273</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0771399</v>
+        <v>0.0828029</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07736179999999999</v>
+        <v>0.0799248</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09954880000000001</v>
+        <v>0.110925</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0784198</v>
+        <v>0.0841068</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0785855</v>
+        <v>0.0811414</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.099827</v>
+        <v>0.111413</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0796451</v>
+        <v>0.085828</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0797057</v>
+        <v>0.0824805</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100441</v>
+        <v>0.112068</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08105080000000001</v>
+        <v>0.08737929999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0813025</v>
+        <v>0.08400299999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.100945</v>
+        <v>0.112636</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0826496</v>
+        <v>0.0891221</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08285389999999999</v>
+        <v>0.0856339</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10135</v>
+        <v>0.113534</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08429830000000001</v>
+        <v>0.09122959999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08431</v>
+        <v>0.0875296</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.101496</v>
+        <v>0.11396</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08611199999999999</v>
+        <v>0.09330430000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0862647</v>
+        <v>0.0896657</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.10232</v>
+        <v>0.114745</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0886397</v>
+        <v>0.0957694</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08884930000000001</v>
+        <v>0.091949</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103418</v>
+        <v>0.115564</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0917454</v>
+        <v>0.0987623</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0918572</v>
+        <v>0.094884</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.105055</v>
+        <v>0.116866</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0956857</v>
+        <v>0.102596</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0958397</v>
+        <v>0.09869609999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.107085</v>
+        <v>0.118685</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101727</v>
+        <v>0.10844</v>
       </c>
       <c r="D79" t="n">
-        <v>0.102009</v>
+        <v>0.104694</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.111066</v>
+        <v>0.12196</v>
       </c>
       <c r="C80" t="n">
-        <v>0.110554</v>
+        <v>0.113639</v>
       </c>
       <c r="D80" t="n">
-        <v>0.112911</v>
+        <v>0.113552</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.184928</v>
+        <v>0.180149</v>
       </c>
       <c r="C81" t="n">
-        <v>0.118858</v>
+        <v>0.11926</v>
       </c>
       <c r="D81" t="n">
-        <v>0.115287</v>
+        <v>0.115992</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.179297</v>
+        <v>0.184529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.125045</v>
+        <v>0.126273</v>
       </c>
       <c r="D82" t="n">
-        <v>0.120272</v>
+        <v>0.117996</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183184</v>
+        <v>0.182828</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1193</v>
+        <v>0.118853</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114727</v>
+        <v>0.115404</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.173935</v>
+        <v>0.183418</v>
       </c>
       <c r="C84" t="n">
-        <v>0.135544</v>
+        <v>0.132043</v>
       </c>
       <c r="D84" t="n">
-        <v>0.133851</v>
+        <v>0.127917</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.187864</v>
+        <v>0.183179</v>
       </c>
       <c r="C85" t="n">
-        <v>0.139667</v>
+        <v>0.129652</v>
       </c>
       <c r="D85" t="n">
-        <v>0.134732</v>
+        <v>0.122656</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.190684</v>
+        <v>0.185975</v>
       </c>
       <c r="C86" t="n">
-        <v>0.131771</v>
+        <v>0.136371</v>
       </c>
       <c r="D86" t="n">
-        <v>0.130795</v>
+        <v>0.130151</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.181106</v>
+        <v>0.184701</v>
       </c>
       <c r="C87" t="n">
-        <v>0.130952</v>
+        <v>0.122534</v>
       </c>
       <c r="D87" t="n">
-        <v>0.127658</v>
+        <v>0.118114</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178574</v>
+        <v>0.175191</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145709</v>
+        <v>0.139349</v>
       </c>
       <c r="D88" t="n">
-        <v>0.13668</v>
+        <v>0.133354</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.189432</v>
+        <v>0.18692</v>
       </c>
       <c r="C89" t="n">
-        <v>0.15256</v>
+        <v>0.127854</v>
       </c>
       <c r="D89" t="n">
-        <v>0.143275</v>
+        <v>0.127326</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.191918</v>
+        <v>0.176615</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154133</v>
+        <v>0.144515</v>
       </c>
       <c r="D90" t="n">
-        <v>0.144529</v>
+        <v>0.14158</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194489</v>
+        <v>0.189936</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149827</v>
+        <v>0.149822</v>
       </c>
       <c r="D91" t="n">
-        <v>0.142977</v>
+        <v>0.140041</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.186437</v>
+        <v>0.190152</v>
       </c>
       <c r="C92" t="n">
-        <v>0.155704</v>
+        <v>0.149068</v>
       </c>
       <c r="D92" t="n">
-        <v>0.143435</v>
+        <v>0.145044</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189419</v>
+        <v>0.193015</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167457</v>
+        <v>0.153258</v>
       </c>
       <c r="D93" t="n">
-        <v>0.157356</v>
+        <v>0.149291</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199179</v>
+        <v>0.192239</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23657</v>
+        <v>0.23507</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2235</v>
+        <v>0.222768</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256236</v>
+        <v>0.256915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240996</v>
+        <v>0.240582</v>
       </c>
       <c r="D95" t="n">
-        <v>0.224273</v>
+        <v>0.223955</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253991</v>
+        <v>0.253778</v>
       </c>
       <c r="C96" t="n">
-        <v>0.245372</v>
+        <v>0.240924</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22693</v>
+        <v>0.226267</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.256956</v>
+        <v>0.253858</v>
       </c>
       <c r="C97" t="n">
-        <v>0.244435</v>
+        <v>0.243747</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229457</v>
+        <v>0.228158</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254022</v>
+        <v>0.254851</v>
       </c>
       <c r="C98" t="n">
-        <v>0.247754</v>
+        <v>0.245254</v>
       </c>
       <c r="D98" t="n">
-        <v>0.231222</v>
+        <v>0.230864</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25711</v>
+        <v>0.256962</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252825</v>
+        <v>0.248663</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233981</v>
+        <v>0.232827</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.257056</v>
+        <v>0.253973</v>
       </c>
       <c r="C100" t="n">
-        <v>0.249957</v>
+        <v>0.250195</v>
       </c>
       <c r="D100" t="n">
-        <v>0.235855</v>
+        <v>0.23554</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257269</v>
+        <v>0.254929</v>
       </c>
       <c r="C101" t="n">
-        <v>0.255847</v>
+        <v>0.253399</v>
       </c>
       <c r="D101" t="n">
-        <v>0.233058</v>
+        <v>0.237798</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257453</v>
+        <v>0.25437</v>
       </c>
       <c r="C102" t="n">
-        <v>0.258475</v>
+        <v>0.255556</v>
       </c>
       <c r="D102" t="n">
-        <v>0.240546</v>
+        <v>0.234907</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255347</v>
+        <v>0.257375</v>
       </c>
       <c r="C103" t="n">
-        <v>0.262448</v>
+        <v>0.260621</v>
       </c>
       <c r="D103" t="n">
-        <v>0.243614</v>
+        <v>0.237187</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.25836</v>
+        <v>0.257975</v>
       </c>
       <c r="C104" t="n">
-        <v>0.262392</v>
+        <v>0.262818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240482</v>
+        <v>0.24029</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258794</v>
+        <v>0.258735</v>
       </c>
       <c r="C105" t="n">
-        <v>0.262383</v>
+        <v>0.265129</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249284</v>
+        <v>0.243332</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259952</v>
+        <v>0.25951</v>
       </c>
       <c r="C106" t="n">
-        <v>0.26948</v>
+        <v>0.269061</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247671</v>
+        <v>0.247391</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.261335</v>
+        <v>0.258739</v>
       </c>
       <c r="C107" t="n">
-        <v>0.269669</v>
+        <v>0.273416</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252238</v>
+        <v>0.252026</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263643</v>
+        <v>0.263359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299628</v>
+        <v>0.299922</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276769</v>
+        <v>0.276809</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265901</v>
+        <v>0.26841</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302951</v>
+        <v>0.301925</v>
       </c>
       <c r="D109" t="n">
-        <v>0.277785</v>
+        <v>0.277149</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.291664</v>
+        <v>0.285257</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302783</v>
+        <v>0.303802</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281621</v>
+        <v>0.280811</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.29452</v>
+        <v>0.285573</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305982</v>
+        <v>0.301611</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283761</v>
+        <v>0.283626</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.294767</v>
+        <v>0.292177</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304096</v>
+        <v>0.304471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285195</v>
+        <v>0.284778</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287518</v>
+        <v>0.296599</v>
       </c>
       <c r="C113" t="n">
-        <v>0.31095</v>
+        <v>0.306866</v>
       </c>
       <c r="D113" t="n">
-        <v>0.288664</v>
+        <v>0.288273</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292476</v>
+        <v>0.291052</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312083</v>
+        <v>0.312782</v>
       </c>
       <c r="D114" t="n">
-        <v>0.284082</v>
+        <v>0.283346</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.292016</v>
+        <v>0.286624</v>
       </c>
       <c r="C115" t="n">
-        <v>0.315278</v>
+        <v>0.311628</v>
       </c>
       <c r="D115" t="n">
-        <v>0.287023</v>
+        <v>0.286418</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.291995</v>
+        <v>0.294731</v>
       </c>
       <c r="C116" t="n">
-        <v>0.318169</v>
+        <v>0.317761</v>
       </c>
       <c r="D116" t="n">
-        <v>0.289812</v>
+        <v>0.289778</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294866</v>
+        <v>0.287584</v>
       </c>
       <c r="C117" t="n">
-        <v>0.320567</v>
+        <v>0.321371</v>
       </c>
       <c r="D117" t="n">
-        <v>0.293322</v>
+        <v>0.293694</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293008</v>
+        <v>0.289112</v>
       </c>
       <c r="C118" t="n">
-        <v>0.320513</v>
+        <v>0.318556</v>
       </c>
       <c r="D118" t="n">
-        <v>0.296978</v>
+        <v>0.297518</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.294052</v>
+        <v>0.299738</v>
       </c>
       <c r="C119" t="n">
-        <v>0.327524</v>
+        <v>0.323704</v>
       </c>
       <c r="D119" t="n">
-        <v>0.300995</v>
+        <v>0.300834</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29215</v>
+        <v>0.298417</v>
       </c>
       <c r="C120" t="n">
-        <v>0.328263</v>
+        <v>0.327649</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306199</v>
+        <v>0.305789</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.297502</v>
+        <v>0.28999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.337629</v>
+        <v>0.333306</v>
       </c>
       <c r="D121" t="n">
-        <v>0.310863</v>
+        <v>0.310476</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.301655</v>
+        <v>0.303119</v>
       </c>
       <c r="C122" t="n">
-        <v>0.34512</v>
+        <v>0.344973</v>
       </c>
       <c r="D122" t="n">
-        <v>0.317716</v>
+        <v>0.317149</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.303692</v>
+        <v>0.304291</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332266</v>
+        <v>0.331454</v>
       </c>
       <c r="D123" t="n">
-        <v>0.30389</v>
+        <v>0.306461</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.378059</v>
+        <v>0.373725</v>
       </c>
       <c r="C124" t="n">
-        <v>0.326284</v>
+        <v>0.323452</v>
       </c>
       <c r="D124" t="n">
-        <v>0.305894</v>
+        <v>0.305731</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.378541</v>
+        <v>0.377687</v>
       </c>
       <c r="C125" t="n">
-        <v>0.327103</v>
+        <v>0.327361</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308992</v>
+        <v>0.308969</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.372741</v>
+        <v>0.378995</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329948</v>
+        <v>0.329822</v>
       </c>
       <c r="D126" t="n">
-        <v>0.312351</v>
+        <v>0.311769</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378672</v>
+        <v>0.377104</v>
       </c>
       <c r="C127" t="n">
-        <v>0.33296</v>
+        <v>0.333241</v>
       </c>
       <c r="D127" t="n">
-        <v>0.315311</v>
+        <v>0.314584</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.377511</v>
+        <v>0.37979</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335886</v>
+        <v>0.335609</v>
       </c>
       <c r="D128" t="n">
-        <v>0.318137</v>
+        <v>0.317997</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.374773</v>
+        <v>0.377697</v>
       </c>
       <c r="C129" t="n">
-        <v>0.337329</v>
+        <v>0.339381</v>
       </c>
       <c r="D129" t="n">
-        <v>0.321851</v>
+        <v>0.322206</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.379058</v>
+        <v>0.377021</v>
       </c>
       <c r="C130" t="n">
-        <v>0.341144</v>
+        <v>0.342522</v>
       </c>
       <c r="D130" t="n">
-        <v>0.326134</v>
+        <v>0.325408</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.379288</v>
+        <v>0.376414</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346468</v>
+        <v>0.346506</v>
       </c>
       <c r="D131" t="n">
-        <v>0.330336</v>
+        <v>0.329538</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.379816</v>
+        <v>0.38019</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350587</v>
+        <v>0.350897</v>
       </c>
       <c r="D132" t="n">
-        <v>0.334758</v>
+        <v>0.333918</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.381569</v>
+        <v>0.379606</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355827</v>
+        <v>0.355723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339139</v>
+        <v>0.339285</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.38263</v>
+        <v>0.381009</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36204</v>
+        <v>0.360936</v>
       </c>
       <c r="D134" t="n">
-        <v>0.344843</v>
+        <v>0.3464</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.384928</v>
+        <v>0.375321</v>
       </c>
       <c r="C135" t="n">
-        <v>0.364622</v>
+        <v>0.365107</v>
       </c>
       <c r="D135" t="n">
-        <v>0.353622</v>
+        <v>0.351864</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.38457</v>
+        <v>0.383326</v>
       </c>
       <c r="C136" t="n">
-        <v>0.374181</v>
+        <v>0.374074</v>
       </c>
       <c r="D136" t="n">
-        <v>0.362613</v>
+        <v>0.362462</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387954</v>
+        <v>0.385669</v>
       </c>
       <c r="C137" t="n">
-        <v>0.343741</v>
+        <v>0.341634</v>
       </c>
       <c r="D137" t="n">
-        <v>0.328468</v>
+        <v>0.328145</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444562</v>
+        <v>0.443953</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343806</v>
+        <v>0.343603</v>
       </c>
       <c r="D138" t="n">
-        <v>0.330873</v>
+        <v>0.330594</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.44439</v>
+        <v>0.444449</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348788</v>
+        <v>0.34947</v>
       </c>
       <c r="D139" t="n">
-        <v>0.333471</v>
+        <v>0.333057</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43973</v>
+        <v>0.444156</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351335</v>
+        <v>0.351118</v>
       </c>
       <c r="D140" t="n">
-        <v>0.335843</v>
+        <v>0.335036</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444778</v>
+        <v>0.444149</v>
       </c>
       <c r="C141" t="n">
-        <v>0.354122</v>
+        <v>0.354563</v>
       </c>
       <c r="D141" t="n">
-        <v>0.339141</v>
+        <v>0.337537</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444458</v>
+        <v>0.444611</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356179</v>
+        <v>0.356477</v>
       </c>
       <c r="D142" t="n">
-        <v>0.340408</v>
+        <v>0.341806</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.43978</v>
+        <v>0.4451</v>
       </c>
       <c r="C143" t="n">
-        <v>0.35922</v>
+        <v>0.359544</v>
       </c>
       <c r="D143" t="n">
-        <v>0.343989</v>
+        <v>0.343479</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0515849</v>
+        <v>0.0511529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0557691</v>
+        <v>0.0576502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0533508</v>
+        <v>0.106452</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0516322</v>
+        <v>0.0518475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0565302</v>
+        <v>0.0574773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0542234</v>
+        <v>0.106108</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0514599</v>
+        <v>0.050146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0555925</v>
+        <v>0.0563863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0537932</v>
+        <v>0.11159</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0515404</v>
+        <v>0.0492828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.055902</v>
+        <v>0.0560271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0543578</v>
+        <v>0.113551</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.051801</v>
+        <v>0.0486228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0565049</v>
+        <v>0.0552442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548859</v>
+        <v>0.120947</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0523528</v>
+        <v>0.0520474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0580975</v>
+        <v>0.0590528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0553462</v>
+        <v>0.0876088</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.053108</v>
+        <v>0.0512611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0597374</v>
+        <v>0.0605171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0576516</v>
+        <v>0.0902292</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0536836</v>
+        <v>0.0515863</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0558664</v>
+        <v>0.0520977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.053955</v>
+        <v>0.0933747</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0529985</v>
+        <v>0.0501575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0565939</v>
+        <v>0.0519597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0538118</v>
+        <v>0.0957307</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0530456</v>
+        <v>0.0503796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.056985</v>
+        <v>0.0533245</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0541303</v>
+        <v>0.0979486</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0532125</v>
+        <v>0.0504611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0573311</v>
+        <v>0.052849</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0544252</v>
+        <v>0.102707</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0533859</v>
+        <v>0.0505265</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0576704</v>
+        <v>0.0530864</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0548743</v>
+        <v>0.106268</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0534816</v>
+        <v>0.0510692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0581422</v>
+        <v>0.054612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0551442</v>
+        <v>0.109581</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0535617</v>
+        <v>0.0509073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.058488</v>
+        <v>0.0536484</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0554277</v>
+        <v>0.111873</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0536509</v>
+        <v>0.0511554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0587147</v>
+        <v>0.0541258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558165</v>
+        <v>0.115276</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0537674</v>
+        <v>0.0513687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059048</v>
+        <v>0.0553301</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0561363</v>
+        <v>0.116588</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0539203</v>
+        <v>0.0514734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0593906</v>
+        <v>0.0544762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0564878</v>
+        <v>0.1211</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.054115</v>
+        <v>0.0516522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0597645</v>
+        <v>0.0551141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0568658</v>
+        <v>0.124573</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0543338</v>
+        <v>0.0519186</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602649</v>
+        <v>0.0557596</v>
       </c>
       <c r="D20" t="n">
-        <v>0.057389</v>
+        <v>0.126848</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0546472</v>
+        <v>0.0527681</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0616117</v>
+        <v>0.0580985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0590339</v>
+        <v>0.0897139</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0553503</v>
+        <v>0.053605</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0660482</v>
+        <v>0.0622759</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0637749</v>
+        <v>0.0920699</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0569467</v>
+        <v>0.0540784</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0579567</v>
+        <v>0.058314</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0585841</v>
+        <v>0.0944929</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0565622</v>
+        <v>0.0556621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0586766</v>
+        <v>0.0578673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0580179</v>
+        <v>0.09790749999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0558763</v>
+        <v>0.0550576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0580884</v>
+        <v>0.0581442</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0583318</v>
+        <v>0.101072</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0559332</v>
+        <v>0.0562082</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0584892</v>
+        <v>0.0586229</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586699</v>
+        <v>0.10398</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0559157</v>
+        <v>0.0551128</v>
       </c>
       <c r="C27" t="n">
-        <v>0.058831</v>
+        <v>0.0577465</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0590213</v>
+        <v>0.107612</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0560139</v>
+        <v>0.055214</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0592432</v>
+        <v>0.0581998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0594179</v>
+        <v>0.111476</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0561157</v>
+        <v>0.0554405</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0595759</v>
+        <v>0.0585374</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0598627</v>
+        <v>0.114924</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0563339</v>
+        <v>0.0556268</v>
       </c>
       <c r="C30" t="n">
-        <v>0.060014</v>
+        <v>0.0588497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0602842</v>
+        <v>0.118725</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.056479</v>
+        <v>0.055785</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0604003</v>
+        <v>0.0591889</v>
       </c>
       <c r="D31" t="n">
-        <v>0.060708</v>
+        <v>0.122881</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056691</v>
+        <v>0.0561464</v>
       </c>
       <c r="C32" t="n">
-        <v>0.061047</v>
+        <v>0.059657</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0611897</v>
+        <v>0.125863</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0569008</v>
+        <v>0.0576029</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0618848</v>
+        <v>0.0609088</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0618931</v>
+        <v>0.129149</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0571641</v>
+        <v>0.058601</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0634608</v>
+        <v>0.0630299</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0636193</v>
+        <v>0.132215</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0577723</v>
+        <v>0.0569887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06655709999999999</v>
+        <v>0.0653224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0670458</v>
+        <v>0.0936794</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0585984</v>
+        <v>0.0578764</v>
       </c>
       <c r="C36" t="n">
-        <v>0.072778</v>
+        <v>0.0719298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0733505</v>
+        <v>0.09562569999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.060935</v>
+        <v>0.0602432</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0661926</v>
+        <v>0.0616154</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0613405</v>
+        <v>0.0980026</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0647161</v>
+        <v>0.0621345</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0643426</v>
+        <v>0.0621739</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0614835</v>
+        <v>0.10109</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0656153</v>
+        <v>0.0622159</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06461799999999999</v>
+        <v>0.06351900000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0602663</v>
+        <v>0.103882</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0648397</v>
+        <v>0.0602004</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0649318</v>
+        <v>0.0615423</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0606882</v>
+        <v>0.107281</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06486069999999999</v>
+        <v>0.0611954</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0653547</v>
+        <v>0.0616732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0610725</v>
+        <v>0.110843</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0649501</v>
+        <v>0.0609018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.065799</v>
+        <v>0.0623587</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0614525</v>
+        <v>0.11426</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0650703</v>
+        <v>0.0614943</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0661757</v>
+        <v>0.0634575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0618875</v>
+        <v>0.117929</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06522500000000001</v>
+        <v>0.0616852</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06663139999999999</v>
+        <v>0.0638968</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0623621</v>
+        <v>0.121907</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0654068</v>
+        <v>0.0617984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0672466</v>
+        <v>0.063704</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0629859</v>
+        <v>0.125873</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0656641</v>
+        <v>0.0608429</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06798700000000001</v>
+        <v>0.0654759</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0637682</v>
+        <v>0.129057</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0659478</v>
+        <v>0.0631593</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0693835</v>
+        <v>0.0682102</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0652127</v>
+        <v>0.132025</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0663173</v>
+        <v>0.0640169</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07180540000000001</v>
+        <v>0.0716981</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06774959999999999</v>
+        <v>0.135865</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0671416</v>
+        <v>0.0622883</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0755671</v>
+        <v>0.07450560000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0717182</v>
+        <v>0.138999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0688595</v>
+        <v>0.0636708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0808474</v>
+        <v>0.0795911</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07691530000000001</v>
+        <v>0.097785</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07227210000000001</v>
+        <v>0.0668044</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06639780000000001</v>
+        <v>0.0667403</v>
       </c>
       <c r="D51" t="n">
-        <v>0.067619</v>
+        <v>0.0997565</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0781848</v>
+        <v>0.0742612</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0644057</v>
+        <v>0.0675577</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0655646</v>
+        <v>0.102515</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0679278</v>
+        <v>0.06767239999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06482309999999999</v>
+        <v>0.065215</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06552910000000001</v>
+        <v>0.106071</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674477</v>
+        <v>0.0680354</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06522799999999999</v>
+        <v>0.0683874</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0688573</v>
+        <v>0.108903</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0673451</v>
+        <v>0.0686218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0656646</v>
+        <v>0.06608550000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0681731</v>
+        <v>0.112374</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06752420000000001</v>
+        <v>0.07071520000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0662367</v>
+        <v>0.06819450000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06978570000000001</v>
+        <v>0.116242</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0676042</v>
+        <v>0.06898600000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06680369999999999</v>
+        <v>0.067551</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06717720000000001</v>
+        <v>0.120033</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0677603</v>
+        <v>0.0706818</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0674252</v>
+        <v>0.0677364</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07033730000000001</v>
+        <v>0.123363</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0679382</v>
+        <v>0.0688897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0682717</v>
+        <v>0.0688575</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07171719999999999</v>
+        <v>0.12726</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0681958</v>
+        <v>0.0696893</v>
       </c>
       <c r="C60" t="n">
-        <v>0.069408</v>
+        <v>0.069761</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0729032</v>
+        <v>0.131407</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0685553</v>
+        <v>0.06934559999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07119250000000001</v>
+        <v>0.0716073</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0746218</v>
+        <v>0.135158</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0691215</v>
+        <v>0.07090539999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0736367</v>
+        <v>0.0741927</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0770315</v>
+        <v>0.138893</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701357</v>
+        <v>0.0704722</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0769056</v>
+        <v>0.0774171</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0801277</v>
+        <v>0.142953</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720219</v>
+        <v>0.0723679</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0812002</v>
+        <v>0.0816865</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08463080000000001</v>
+        <v>0.106944</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0748819</v>
+        <v>0.0759198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0879245</v>
+        <v>0.0882019</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0915468</v>
+        <v>0.110748</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790921</v>
+        <v>0.0797726</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0778607</v>
+        <v>0.0686237</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0757032</v>
+        <v>0.116596</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109023</v>
+        <v>0.0830106</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0791391</v>
+        <v>0.0691546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07706259999999999</v>
+        <v>0.120046</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109565</v>
+        <v>0.0885152</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08111119999999999</v>
+        <v>0.06912509999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0786594</v>
+        <v>0.124677</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110273</v>
+        <v>0.08355890000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0828029</v>
+        <v>0.0702648</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0799248</v>
+        <v>0.130645</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.110925</v>
+        <v>0.0842376</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0841068</v>
+        <v>0.0708389</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0811414</v>
+        <v>0.137945</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.111413</v>
+        <v>0.0856879</v>
       </c>
       <c r="C71" t="n">
-        <v>0.085828</v>
+        <v>0.0720605</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0824805</v>
+        <v>0.143019</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.112068</v>
+        <v>0.0903419</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08737929999999999</v>
+        <v>0.0754061</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08400299999999999</v>
+        <v>0.150167</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.112636</v>
+        <v>0.09056309999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0891221</v>
+        <v>0.0763537</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0856339</v>
+        <v>0.159886</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.113534</v>
+        <v>0.09039850000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09122959999999999</v>
+        <v>0.0777487</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0875296</v>
+        <v>0.168673</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.11396</v>
+        <v>0.08606370000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09330430000000001</v>
+        <v>0.0768255</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0896657</v>
+        <v>0.179987</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.114745</v>
+        <v>0.088892</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0957694</v>
+        <v>0.0789614</v>
       </c>
       <c r="D76" t="n">
-        <v>0.091949</v>
+        <v>0.184926</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115564</v>
+        <v>0.08895459999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0987623</v>
+        <v>0.0828159</v>
       </c>
       <c r="D77" t="n">
-        <v>0.094884</v>
+        <v>0.192173</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116866</v>
+        <v>0.0902459</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102596</v>
+        <v>0.08607960000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09869609999999999</v>
+        <v>0.191196</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118685</v>
+        <v>0.0921888</v>
       </c>
       <c r="C79" t="n">
-        <v>0.10844</v>
+        <v>0.0925975</v>
       </c>
       <c r="D79" t="n">
-        <v>0.104694</v>
+        <v>0.199458</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.12196</v>
+        <v>0.0959194</v>
       </c>
       <c r="C80" t="n">
-        <v>0.113639</v>
+        <v>0.113978</v>
       </c>
       <c r="D80" t="n">
-        <v>0.113552</v>
+        <v>0.20651</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180149</v>
+        <v>0.181994</v>
       </c>
       <c r="C81" t="n">
-        <v>0.11926</v>
+        <v>0.115368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.115992</v>
+        <v>0.215547</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.184529</v>
+        <v>0.182484</v>
       </c>
       <c r="C82" t="n">
-        <v>0.126273</v>
+        <v>0.1201</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117996</v>
+        <v>0.22473</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182828</v>
+        <v>0.182667</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118853</v>
+        <v>0.119296</v>
       </c>
       <c r="D83" t="n">
-        <v>0.115404</v>
+        <v>0.230167</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183418</v>
+        <v>0.182958</v>
       </c>
       <c r="C84" t="n">
-        <v>0.132043</v>
+        <v>0.123617</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127917</v>
+        <v>0.242337</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183179</v>
+        <v>0.183708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.129652</v>
+        <v>0.123778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.122656</v>
+        <v>0.253441</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185975</v>
+        <v>0.182477</v>
       </c>
       <c r="C86" t="n">
-        <v>0.136371</v>
+        <v>0.124524</v>
       </c>
       <c r="D86" t="n">
-        <v>0.130151</v>
+        <v>0.262663</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184701</v>
+        <v>0.183919</v>
       </c>
       <c r="C87" t="n">
-        <v>0.122534</v>
+        <v>0.127026</v>
       </c>
       <c r="D87" t="n">
-        <v>0.118114</v>
+        <v>0.273541</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175191</v>
+        <v>0.184076</v>
       </c>
       <c r="C88" t="n">
-        <v>0.139349</v>
+        <v>0.130081</v>
       </c>
       <c r="D88" t="n">
-        <v>0.133354</v>
+        <v>0.279651</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18692</v>
+        <v>0.186758</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127854</v>
+        <v>0.134644</v>
       </c>
       <c r="D89" t="n">
-        <v>0.127326</v>
+        <v>0.293738</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176615</v>
+        <v>0.18743</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144515</v>
+        <v>0.137793</v>
       </c>
       <c r="D90" t="n">
-        <v>0.14158</v>
+        <v>0.304219</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189936</v>
+        <v>0.187992</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149822</v>
+        <v>0.142601</v>
       </c>
       <c r="D91" t="n">
-        <v>0.140041</v>
+        <v>0.314653</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190152</v>
+        <v>0.18938</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149068</v>
+        <v>0.143973</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145044</v>
+        <v>0.290349</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193015</v>
+        <v>0.192256</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153258</v>
+        <v>0.150145</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149291</v>
+        <v>0.299565</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192239</v>
+        <v>0.193661</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23507</v>
+        <v>0.241593</v>
       </c>
       <c r="D94" t="n">
-        <v>0.222768</v>
+        <v>0.306454</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256915</v>
+        <v>0.256232</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240582</v>
+        <v>0.240481</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223955</v>
+        <v>0.315187</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253778</v>
+        <v>0.256746</v>
       </c>
       <c r="C96" t="n">
-        <v>0.240924</v>
+        <v>0.246084</v>
       </c>
       <c r="D96" t="n">
-        <v>0.226267</v>
+        <v>0.32492</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253858</v>
+        <v>0.254712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.243747</v>
+        <v>0.247198</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228158</v>
+        <v>0.331263</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254851</v>
+        <v>0.256829</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245254</v>
+        <v>0.24864</v>
       </c>
       <c r="D98" t="n">
-        <v>0.230864</v>
+        <v>0.340651</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.256962</v>
+        <v>0.25746</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248663</v>
+        <v>0.25222</v>
       </c>
       <c r="D99" t="n">
-        <v>0.232827</v>
+        <v>0.348353</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.253973</v>
+        <v>0.256769</v>
       </c>
       <c r="C100" t="n">
-        <v>0.250195</v>
+        <v>0.25172</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23554</v>
+        <v>0.357942</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254929</v>
+        <v>0.257404</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253399</v>
+        <v>0.251923</v>
       </c>
       <c r="D101" t="n">
-        <v>0.237798</v>
+        <v>0.366288</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.25437</v>
+        <v>0.257466</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255556</v>
+        <v>0.254038</v>
       </c>
       <c r="D102" t="n">
-        <v>0.234907</v>
+        <v>0.374674</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257375</v>
+        <v>0.257459</v>
       </c>
       <c r="C103" t="n">
-        <v>0.260621</v>
+        <v>0.260842</v>
       </c>
       <c r="D103" t="n">
-        <v>0.237187</v>
+        <v>0.386748</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257975</v>
+        <v>0.255371</v>
       </c>
       <c r="C104" t="n">
-        <v>0.262818</v>
+        <v>0.260718</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24029</v>
+        <v>0.396102</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258735</v>
+        <v>0.258942</v>
       </c>
       <c r="C105" t="n">
-        <v>0.265129</v>
+        <v>0.266602</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243332</v>
+        <v>0.405168</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25951</v>
+        <v>0.259887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.269061</v>
+        <v>0.26679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247391</v>
+        <v>0.416209</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258739</v>
+        <v>0.260659</v>
       </c>
       <c r="C107" t="n">
-        <v>0.273416</v>
+        <v>0.273387</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252026</v>
+        <v>0.355056</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263359</v>
+        <v>0.264156</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299922</v>
+        <v>0.299735</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276809</v>
+        <v>0.355229</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26841</v>
+        <v>0.268168</v>
       </c>
       <c r="C109" t="n">
-        <v>0.301925</v>
+        <v>0.297309</v>
       </c>
       <c r="D109" t="n">
-        <v>0.277149</v>
+        <v>0.36505</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285257</v>
+        <v>0.292349</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303802</v>
+        <v>0.302808</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280811</v>
+        <v>0.370325</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285573</v>
+        <v>0.290618</v>
       </c>
       <c r="C111" t="n">
-        <v>0.301611</v>
+        <v>0.305607</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283626</v>
+        <v>0.377154</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292177</v>
+        <v>0.295457</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304471</v>
+        <v>0.307889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284778</v>
+        <v>0.388457</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.296599</v>
+        <v>0.294431</v>
       </c>
       <c r="C113" t="n">
-        <v>0.306866</v>
+        <v>0.310358</v>
       </c>
       <c r="D113" t="n">
-        <v>0.288273</v>
+        <v>0.397139</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.291052</v>
+        <v>0.290618</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312782</v>
+        <v>0.312632</v>
       </c>
       <c r="D114" t="n">
-        <v>0.283346</v>
+        <v>0.412364</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286624</v>
+        <v>0.286798</v>
       </c>
       <c r="C115" t="n">
-        <v>0.311628</v>
+        <v>0.314651</v>
       </c>
       <c r="D115" t="n">
-        <v>0.286418</v>
+        <v>0.42211</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.294731</v>
+        <v>0.29152</v>
       </c>
       <c r="C116" t="n">
-        <v>0.317761</v>
+        <v>0.317988</v>
       </c>
       <c r="D116" t="n">
-        <v>0.289778</v>
+        <v>0.430627</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287584</v>
+        <v>0.299006</v>
       </c>
       <c r="C117" t="n">
-        <v>0.321371</v>
+        <v>0.320416</v>
       </c>
       <c r="D117" t="n">
-        <v>0.293694</v>
+        <v>0.436913</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289112</v>
+        <v>0.294362</v>
       </c>
       <c r="C118" t="n">
-        <v>0.318556</v>
+        <v>0.324033</v>
       </c>
       <c r="D118" t="n">
-        <v>0.297518</v>
+        <v>0.443122</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.299738</v>
+        <v>0.298693</v>
       </c>
       <c r="C119" t="n">
-        <v>0.323704</v>
+        <v>0.327511</v>
       </c>
       <c r="D119" t="n">
-        <v>0.300834</v>
+        <v>0.455539</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298417</v>
+        <v>0.296105</v>
       </c>
       <c r="C120" t="n">
-        <v>0.327649</v>
+        <v>0.332364</v>
       </c>
       <c r="D120" t="n">
-        <v>0.305789</v>
+        <v>0.465059</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28999</v>
+        <v>0.292468</v>
       </c>
       <c r="C121" t="n">
-        <v>0.333306</v>
+        <v>0.338048</v>
       </c>
       <c r="D121" t="n">
-        <v>0.310476</v>
+        <v>0.383776</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.303119</v>
+        <v>0.299267</v>
       </c>
       <c r="C122" t="n">
-        <v>0.344973</v>
+        <v>0.344566</v>
       </c>
       <c r="D122" t="n">
-        <v>0.317149</v>
+        <v>0.394302</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.304291</v>
+        <v>0.306687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331454</v>
+        <v>0.329285</v>
       </c>
       <c r="D123" t="n">
-        <v>0.306461</v>
+        <v>0.395907</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373725</v>
+        <v>0.379108</v>
       </c>
       <c r="C124" t="n">
-        <v>0.323452</v>
+        <v>0.326269</v>
       </c>
       <c r="D124" t="n">
-        <v>0.305731</v>
+        <v>0.406186</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377687</v>
+        <v>0.379896</v>
       </c>
       <c r="C125" t="n">
-        <v>0.327361</v>
+        <v>0.326975</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308969</v>
+        <v>0.407744</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.378995</v>
+        <v>0.380718</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329822</v>
+        <v>0.330324</v>
       </c>
       <c r="D126" t="n">
-        <v>0.311769</v>
+        <v>0.422442</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.377104</v>
+        <v>0.368852</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333241</v>
+        <v>0.329879</v>
       </c>
       <c r="D127" t="n">
-        <v>0.314584</v>
+        <v>0.425489</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37979</v>
+        <v>0.377524</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335609</v>
+        <v>0.336501</v>
       </c>
       <c r="D128" t="n">
-        <v>0.317997</v>
+        <v>0.43992</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.377697</v>
+        <v>0.380024</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339381</v>
+        <v>0.339607</v>
       </c>
       <c r="D129" t="n">
-        <v>0.322206</v>
+        <v>0.446925</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377021</v>
+        <v>0.379042</v>
       </c>
       <c r="C130" t="n">
-        <v>0.342522</v>
+        <v>0.342675</v>
       </c>
       <c r="D130" t="n">
-        <v>0.325408</v>
+        <v>0.456362</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.376414</v>
+        <v>0.373703</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346506</v>
+        <v>0.346688</v>
       </c>
       <c r="D131" t="n">
-        <v>0.329538</v>
+        <v>0.462267</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.38019</v>
+        <v>0.37543</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350897</v>
+        <v>0.350633</v>
       </c>
       <c r="D132" t="n">
-        <v>0.333918</v>
+        <v>0.47366</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.379606</v>
+        <v>0.382938</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355723</v>
+        <v>0.355863</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339285</v>
+        <v>0.485038</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.381009</v>
+        <v>0.374607</v>
       </c>
       <c r="C134" t="n">
-        <v>0.360936</v>
+        <v>0.36201</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3464</v>
+        <v>0.49366</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.375321</v>
+        <v>0.379866</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365107</v>
+        <v>0.367604</v>
       </c>
       <c r="D135" t="n">
-        <v>0.351864</v>
+        <v>0.403126</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383326</v>
+        <v>0.371243</v>
       </c>
       <c r="C136" t="n">
-        <v>0.374074</v>
+        <v>0.373366</v>
       </c>
       <c r="D136" t="n">
-        <v>0.362462</v>
+        <v>0.409751</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.385669</v>
+        <v>0.380884</v>
       </c>
       <c r="C137" t="n">
-        <v>0.341634</v>
+        <v>0.344103</v>
       </c>
       <c r="D137" t="n">
-        <v>0.328145</v>
+        <v>0.417518</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.443953</v>
+        <v>0.44456</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343603</v>
+        <v>0.343964</v>
       </c>
       <c r="D138" t="n">
-        <v>0.330594</v>
+        <v>0.417192</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444449</v>
+        <v>0.443847</v>
       </c>
       <c r="C139" t="n">
-        <v>0.34947</v>
+        <v>0.348494</v>
       </c>
       <c r="D139" t="n">
-        <v>0.333057</v>
+        <v>0.422589</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.444156</v>
+        <v>0.44417</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351118</v>
+        <v>0.350908</v>
       </c>
       <c r="D140" t="n">
-        <v>0.335036</v>
+        <v>0.437763</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444149</v>
+        <v>0.444309</v>
       </c>
       <c r="C141" t="n">
-        <v>0.354563</v>
+        <v>0.351965</v>
       </c>
       <c r="D141" t="n">
-        <v>0.337537</v>
+        <v>0.444005</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444611</v>
+        <v>0.444085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356477</v>
+        <v>0.356164</v>
       </c>
       <c r="D142" t="n">
-        <v>0.341806</v>
+        <v>0.449578</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4451</v>
+        <v>0.44462</v>
       </c>
       <c r="C143" t="n">
-        <v>0.359544</v>
+        <v>0.360049</v>
       </c>
       <c r="D143" t="n">
-        <v>0.343479</v>
+        <v>0.464749</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0515849</v>
+        <v>0.0520906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0557691</v>
+        <v>0.0566607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0533508</v>
+        <v>0.0535921</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0516322</v>
+        <v>0.0516778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0565302</v>
+        <v>0.0569134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0542234</v>
+        <v>0.0537894</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0514599</v>
+        <v>0.0517544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0555925</v>
+        <v>0.0572668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0537932</v>
+        <v>0.0542463</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0515404</v>
+        <v>0.0518978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.055902</v>
+        <v>0.0574542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0543578</v>
+        <v>0.054578</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.051801</v>
+        <v>0.0520573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0565049</v>
+        <v>0.0578867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548859</v>
+        <v>0.0552792</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0523528</v>
+        <v>0.0521311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0580975</v>
+        <v>0.0586361</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0553462</v>
+        <v>0.0562122</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.053108</v>
+        <v>0.0524588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0597374</v>
+        <v>0.0600593</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0576516</v>
+        <v>0.0584184</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0536836</v>
+        <v>0.0535386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0558664</v>
+        <v>0.0550765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.053955</v>
+        <v>0.0533578</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0529985</v>
+        <v>0.0529608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0565939</v>
+        <v>0.0558955</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0538118</v>
+        <v>0.0536765</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0530456</v>
+        <v>0.052418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.056985</v>
+        <v>0.0558893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0541303</v>
+        <v>0.0537006</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0532125</v>
+        <v>0.0522734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0573311</v>
+        <v>0.0562805</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0544252</v>
+        <v>0.054028</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0533859</v>
+        <v>0.0527449</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0576704</v>
+        <v>0.0567234</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0548743</v>
+        <v>0.0543956</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0534816</v>
+        <v>0.0528657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0581422</v>
+        <v>0.057143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0551442</v>
+        <v>0.0548978</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0535617</v>
+        <v>0.0527816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.058488</v>
+        <v>0.0575746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0554277</v>
+        <v>0.0550881</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0536509</v>
+        <v>0.0529332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0587147</v>
+        <v>0.0579301</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558165</v>
+        <v>0.055359</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0537674</v>
+        <v>0.0530456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059048</v>
+        <v>0.0581799</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0561363</v>
+        <v>0.0558118</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0539203</v>
+        <v>0.0532382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0593906</v>
+        <v>0.0585289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0564878</v>
+        <v>0.0561862</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.054115</v>
+        <v>0.0534717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0597645</v>
+        <v>0.0588701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0568658</v>
+        <v>0.056604</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0543338</v>
+        <v>0.0534466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602649</v>
+        <v>0.0594701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.057389</v>
+        <v>0.0573257</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0546472</v>
+        <v>0.0538943</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0616117</v>
+        <v>0.0611593</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0590339</v>
+        <v>0.0592185</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0553503</v>
+        <v>0.0544652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0660482</v>
+        <v>0.0653796</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0637749</v>
+        <v>0.0642819</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0569467</v>
+        <v>0.0558845</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0579567</v>
+        <v>0.0567724</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0585841</v>
+        <v>0.0560157</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0565622</v>
+        <v>0.0550452</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0586766</v>
+        <v>0.0571618</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0580179</v>
+        <v>0.0559475</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0558763</v>
+        <v>0.0548433</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0580884</v>
+        <v>0.0570232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0583318</v>
+        <v>0.0562032</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0559332</v>
+        <v>0.0550427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0584892</v>
+        <v>0.0573443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586699</v>
+        <v>0.0566392</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0559157</v>
+        <v>0.0549413</v>
       </c>
       <c r="C27" t="n">
-        <v>0.058831</v>
+        <v>0.057693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0590213</v>
+        <v>0.0569101</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0560139</v>
+        <v>0.055091</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0592432</v>
+        <v>0.0581245</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0594179</v>
+        <v>0.057273</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0561157</v>
+        <v>0.0551186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0595759</v>
+        <v>0.0585547</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0598627</v>
+        <v>0.0577205</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0563339</v>
+        <v>0.0554355</v>
       </c>
       <c r="C30" t="n">
-        <v>0.060014</v>
+        <v>0.058939</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0602842</v>
+        <v>0.0581308</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.056479</v>
+        <v>0.0554382</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0604003</v>
+        <v>0.0593878</v>
       </c>
       <c r="D31" t="n">
-        <v>0.060708</v>
+        <v>0.058513</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056691</v>
+        <v>0.0557011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.061047</v>
+        <v>0.0599258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0611897</v>
+        <v>0.0591274</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0569008</v>
+        <v>0.055889</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0618848</v>
+        <v>0.060752</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0618931</v>
+        <v>0.0598857</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0571641</v>
+        <v>0.0562369</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0634608</v>
+        <v>0.0624294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0636193</v>
+        <v>0.0619185</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0577723</v>
+        <v>0.0567197</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06655709999999999</v>
+        <v>0.0654932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0670458</v>
+        <v>0.0663183</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0585984</v>
+        <v>0.0575415</v>
       </c>
       <c r="C36" t="n">
-        <v>0.072778</v>
+        <v>0.07176639999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0733505</v>
+        <v>0.0731858</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.060935</v>
+        <v>0.060119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0661926</v>
+        <v>0.0617325</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0613405</v>
+        <v>0.0619127</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0647161</v>
+        <v>0.0608861</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0643426</v>
+        <v>0.0610722</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0614835</v>
+        <v>0.0620603</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0656153</v>
+        <v>0.0604352</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06461799999999999</v>
+        <v>0.0614568</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0602663</v>
+        <v>0.0615997</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0648397</v>
+        <v>0.060547</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0649318</v>
+        <v>0.0617776</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0606882</v>
+        <v>0.0633013</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06486069999999999</v>
+        <v>0.0605702</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0653547</v>
+        <v>0.0622475</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0610725</v>
+        <v>0.0622116</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0649501</v>
+        <v>0.0607385</v>
       </c>
       <c r="C42" t="n">
-        <v>0.065799</v>
+        <v>0.062683</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0614525</v>
+        <v>0.0629535</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0650703</v>
+        <v>0.0608257</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0661757</v>
+        <v>0.0631558</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0618875</v>
+        <v>0.06401370000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06522500000000001</v>
+        <v>0.0610108</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06663139999999999</v>
+        <v>0.06368559999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0623621</v>
+        <v>0.0641607</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0654068</v>
+        <v>0.0611417</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0672466</v>
+        <v>0.0642431</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0629859</v>
+        <v>0.0649271</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0656641</v>
+        <v>0.0614538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06798700000000001</v>
+        <v>0.06500880000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0637682</v>
+        <v>0.0651738</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0659478</v>
+        <v>0.0617594</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0693835</v>
+        <v>0.06633940000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0652127</v>
+        <v>0.06718</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0663173</v>
+        <v>0.0621912</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07180540000000001</v>
+        <v>0.06873659999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06774959999999999</v>
+        <v>0.07024950000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0671416</v>
+        <v>0.06295770000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0755671</v>
+        <v>0.0723777</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0717182</v>
+        <v>0.07373150000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0688595</v>
+        <v>0.06464499999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0808474</v>
+        <v>0.0774562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07691530000000001</v>
+        <v>0.078821</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07227210000000001</v>
+        <v>0.06810910000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06639780000000001</v>
+        <v>0.0651166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.067619</v>
+        <v>0.0650828</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0781848</v>
+        <v>0.07316599999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0644057</v>
+        <v>0.06444510000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0655646</v>
+        <v>0.0655671</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0679278</v>
+        <v>0.0685262</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06482309999999999</v>
+        <v>0.0648667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06552910000000001</v>
+        <v>0.0657544</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674477</v>
+        <v>0.0685547</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06522799999999999</v>
+        <v>0.0652133</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0688573</v>
+        <v>0.0661104</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0673451</v>
+        <v>0.0686896</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0656646</v>
+        <v>0.0656214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0681731</v>
+        <v>0.0665471</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06752420000000001</v>
+        <v>0.0688182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0662367</v>
+        <v>0.0661717</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06978570000000001</v>
+        <v>0.06693540000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0676042</v>
+        <v>0.0690402</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06680369999999999</v>
+        <v>0.06674620000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06717720000000001</v>
+        <v>0.06740930000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0677603</v>
+        <v>0.0691466</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0674252</v>
+        <v>0.0673161</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07033730000000001</v>
+        <v>0.06879879999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0679382</v>
+        <v>0.0694236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0682717</v>
+        <v>0.06812559999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07171719999999999</v>
+        <v>0.0699386</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0681958</v>
+        <v>0.0696836</v>
       </c>
       <c r="C60" t="n">
-        <v>0.069408</v>
+        <v>0.0692656</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0729032</v>
+        <v>0.0702545</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0685553</v>
+        <v>0.07004680000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07119250000000001</v>
+        <v>0.07102260000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0746218</v>
+        <v>0.07226680000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0691215</v>
+        <v>0.0705639</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0736367</v>
+        <v>0.0734337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0770315</v>
+        <v>0.0753364</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701357</v>
+        <v>0.0715884</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0769056</v>
+        <v>0.07669289999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0801277</v>
+        <v>0.0782858</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720219</v>
+        <v>0.0734765</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0812002</v>
+        <v>0.081028</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08463080000000001</v>
+        <v>0.083771</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0748819</v>
+        <v>0.0762328</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0879245</v>
+        <v>0.0876704</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0915468</v>
+        <v>0.0894457</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790921</v>
+        <v>0.08038099999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0778607</v>
+        <v>0.06840880000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0757032</v>
+        <v>0.0697661</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109023</v>
+        <v>0.0816448</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0791391</v>
+        <v>0.06908590000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07706259999999999</v>
+        <v>0.07035089999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109565</v>
+        <v>0.0817862</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08111119999999999</v>
+        <v>0.0695696</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0786594</v>
+        <v>0.07089139999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110273</v>
+        <v>0.0818127</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0828029</v>
+        <v>0.0699949</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0799248</v>
+        <v>0.0713033</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.110925</v>
+        <v>0.08328480000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0841068</v>
+        <v>0.070855</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0811414</v>
+        <v>0.0720712</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.111413</v>
+        <v>0.0835997</v>
       </c>
       <c r="C71" t="n">
-        <v>0.085828</v>
+        <v>0.07151739999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0824805</v>
+        <v>0.0728169</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.112068</v>
+        <v>0.0833762</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08737929999999999</v>
+        <v>0.0721188</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08400299999999999</v>
+        <v>0.0733939</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.112636</v>
+        <v>0.08328430000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0891221</v>
+        <v>0.0729255</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0856339</v>
+        <v>0.0742438</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.113534</v>
+        <v>0.0832666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09122959999999999</v>
+        <v>0.0742376</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0875296</v>
+        <v>0.0755987</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.11396</v>
+        <v>0.0835101</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09330430000000001</v>
+        <v>0.075823</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0896657</v>
+        <v>0.0773341</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.114745</v>
+        <v>0.0838328</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0957694</v>
+        <v>0.0778843</v>
       </c>
       <c r="D76" t="n">
-        <v>0.091949</v>
+        <v>0.0795613</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115564</v>
+        <v>0.0846396</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0987623</v>
+        <v>0.0806996</v>
       </c>
       <c r="D77" t="n">
-        <v>0.094884</v>
+        <v>0.0822457</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116866</v>
+        <v>0.0858728</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102596</v>
+        <v>0.0845216</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09869609999999999</v>
+        <v>0.0864316</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118685</v>
+        <v>0.0892661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.10844</v>
+        <v>0.09082560000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.104694</v>
+        <v>0.0926409</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.12196</v>
+        <v>0.092456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.113639</v>
+        <v>0.115697</v>
       </c>
       <c r="D80" t="n">
-        <v>0.113552</v>
+        <v>0.115221</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180149</v>
+        <v>0.183052</v>
       </c>
       <c r="C81" t="n">
-        <v>0.11926</v>
+        <v>0.109032</v>
       </c>
       <c r="D81" t="n">
-        <v>0.115992</v>
+        <v>0.117605</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.184529</v>
+        <v>0.176916</v>
       </c>
       <c r="C82" t="n">
-        <v>0.126273</v>
+        <v>0.12887</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117996</v>
+        <v>0.123696</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182828</v>
+        <v>0.185622</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118853</v>
+        <v>0.130879</v>
       </c>
       <c r="D83" t="n">
-        <v>0.115404</v>
+        <v>0.128408</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183418</v>
+        <v>0.188926</v>
       </c>
       <c r="C84" t="n">
-        <v>0.132043</v>
+        <v>0.127123</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127917</v>
+        <v>0.11864</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183179</v>
+        <v>0.176689</v>
       </c>
       <c r="C85" t="n">
-        <v>0.129652</v>
+        <v>0.120211</v>
       </c>
       <c r="D85" t="n">
-        <v>0.122656</v>
+        <v>0.122098</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185975</v>
+        <v>0.177857</v>
       </c>
       <c r="C86" t="n">
-        <v>0.136371</v>
+        <v>0.135009</v>
       </c>
       <c r="D86" t="n">
-        <v>0.130151</v>
+        <v>0.134726</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184701</v>
+        <v>0.18796</v>
       </c>
       <c r="C87" t="n">
-        <v>0.122534</v>
+        <v>0.138759</v>
       </c>
       <c r="D87" t="n">
-        <v>0.118114</v>
+        <v>0.142001</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175191</v>
+        <v>0.189787</v>
       </c>
       <c r="C88" t="n">
-        <v>0.139349</v>
+        <v>0.139215</v>
       </c>
       <c r="D88" t="n">
-        <v>0.133354</v>
+        <v>0.137897</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18692</v>
+        <v>0.190571</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127854</v>
+        <v>0.146068</v>
       </c>
       <c r="D89" t="n">
-        <v>0.127326</v>
+        <v>0.146357</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176615</v>
+        <v>0.19183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144515</v>
+        <v>0.15067</v>
       </c>
       <c r="D90" t="n">
-        <v>0.14158</v>
+        <v>0.145363</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189936</v>
+        <v>0.193183</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149822</v>
+        <v>0.148674</v>
       </c>
       <c r="D91" t="n">
-        <v>0.140041</v>
+        <v>0.151628</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190152</v>
+        <v>0.191016</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149068</v>
+        <v>0.153386</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145044</v>
+        <v>0.151622</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193015</v>
+        <v>0.194215</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153258</v>
+        <v>0.159031</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149291</v>
+        <v>0.15658</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192239</v>
+        <v>0.196393</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23507</v>
+        <v>0.24051</v>
       </c>
       <c r="D94" t="n">
-        <v>0.222768</v>
+        <v>0.239819</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256915</v>
+        <v>0.25628</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240582</v>
+        <v>0.243344</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223955</v>
+        <v>0.235035</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253778</v>
+        <v>0.254348</v>
       </c>
       <c r="C96" t="n">
-        <v>0.240924</v>
+        <v>0.241484</v>
       </c>
       <c r="D96" t="n">
-        <v>0.226267</v>
+        <v>0.244489</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253858</v>
+        <v>0.25686</v>
       </c>
       <c r="C97" t="n">
-        <v>0.243747</v>
+        <v>0.244204</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228158</v>
+        <v>0.246938</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254851</v>
+        <v>0.257033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245254</v>
+        <v>0.246492</v>
       </c>
       <c r="D98" t="n">
-        <v>0.230864</v>
+        <v>0.24935</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.256962</v>
+        <v>0.257239</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248663</v>
+        <v>0.252185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.232827</v>
+        <v>0.251396</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.253973</v>
+        <v>0.257001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.250195</v>
+        <v>0.250801</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23554</v>
+        <v>0.246382</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254929</v>
+        <v>0.257426</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253399</v>
+        <v>0.255072</v>
       </c>
       <c r="D101" t="n">
-        <v>0.237798</v>
+        <v>0.248407</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.25437</v>
+        <v>0.257235</v>
       </c>
       <c r="C102" t="n">
-        <v>0.255556</v>
+        <v>0.254179</v>
       </c>
       <c r="D102" t="n">
-        <v>0.234907</v>
+        <v>0.251794</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257375</v>
+        <v>0.257631</v>
       </c>
       <c r="C103" t="n">
-        <v>0.260621</v>
+        <v>0.258255</v>
       </c>
       <c r="D103" t="n">
-        <v>0.237187</v>
+        <v>0.260572</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257975</v>
+        <v>0.258274</v>
       </c>
       <c r="C104" t="n">
-        <v>0.262818</v>
+        <v>0.259679</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24029</v>
+        <v>0.263404</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258735</v>
+        <v>0.258931</v>
       </c>
       <c r="C105" t="n">
-        <v>0.265129</v>
+        <v>0.26501</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243332</v>
+        <v>0.259386</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25951</v>
+        <v>0.259668</v>
       </c>
       <c r="C106" t="n">
-        <v>0.269061</v>
+        <v>0.265419</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247391</v>
+        <v>0.269838</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258739</v>
+        <v>0.258883</v>
       </c>
       <c r="C107" t="n">
-        <v>0.273416</v>
+        <v>0.269918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252026</v>
+        <v>0.273906</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263359</v>
+        <v>0.264112</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299922</v>
+        <v>0.300623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276809</v>
+        <v>0.299916</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26841</v>
+        <v>0.268278</v>
       </c>
       <c r="C109" t="n">
-        <v>0.301925</v>
+        <v>0.302264</v>
       </c>
       <c r="D109" t="n">
-        <v>0.277149</v>
+        <v>0.299112</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285257</v>
+        <v>0.295706</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303802</v>
+        <v>0.299981</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280811</v>
+        <v>0.303859</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285573</v>
+        <v>0.292699</v>
       </c>
       <c r="C111" t="n">
-        <v>0.301611</v>
+        <v>0.305036</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283626</v>
+        <v>0.30595</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292177</v>
+        <v>0.293474</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304471</v>
+        <v>0.30443</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284778</v>
+        <v>0.308048</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.296599</v>
+        <v>0.289714</v>
       </c>
       <c r="C113" t="n">
-        <v>0.306866</v>
+        <v>0.311141</v>
       </c>
       <c r="D113" t="n">
-        <v>0.288273</v>
+        <v>0.31095</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.291052</v>
+        <v>0.294533</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312782</v>
+        <v>0.313159</v>
       </c>
       <c r="D114" t="n">
-        <v>0.283346</v>
+        <v>0.312766</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286624</v>
+        <v>0.297951</v>
       </c>
       <c r="C115" t="n">
-        <v>0.311628</v>
+        <v>0.315453</v>
       </c>
       <c r="D115" t="n">
-        <v>0.286418</v>
+        <v>0.315584</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.294731</v>
+        <v>0.292809</v>
       </c>
       <c r="C116" t="n">
-        <v>0.317761</v>
+        <v>0.317566</v>
       </c>
       <c r="D116" t="n">
-        <v>0.289778</v>
+        <v>0.318976</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287584</v>
+        <v>0.294741</v>
       </c>
       <c r="C117" t="n">
-        <v>0.321371</v>
+        <v>0.321056</v>
       </c>
       <c r="D117" t="n">
-        <v>0.293694</v>
+        <v>0.321561</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289112</v>
+        <v>0.293427</v>
       </c>
       <c r="C118" t="n">
-        <v>0.318556</v>
+        <v>0.324796</v>
       </c>
       <c r="D118" t="n">
-        <v>0.297518</v>
+        <v>0.323177</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.299738</v>
+        <v>0.290246</v>
       </c>
       <c r="C119" t="n">
-        <v>0.323704</v>
+        <v>0.322207</v>
       </c>
       <c r="D119" t="n">
-        <v>0.300834</v>
+        <v>0.324365</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298417</v>
+        <v>0.29763</v>
       </c>
       <c r="C120" t="n">
-        <v>0.327649</v>
+        <v>0.332829</v>
       </c>
       <c r="D120" t="n">
-        <v>0.305789</v>
+        <v>0.333656</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28999</v>
+        <v>0.300841</v>
       </c>
       <c r="C121" t="n">
-        <v>0.333306</v>
+        <v>0.338744</v>
       </c>
       <c r="D121" t="n">
-        <v>0.310476</v>
+        <v>0.339048</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.303119</v>
+        <v>0.296983</v>
       </c>
       <c r="C122" t="n">
-        <v>0.344973</v>
+        <v>0.345785</v>
       </c>
       <c r="D122" t="n">
-        <v>0.317149</v>
+        <v>0.342826</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.304291</v>
+        <v>0.306164</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331454</v>
+        <v>0.332319</v>
       </c>
       <c r="D123" t="n">
-        <v>0.306461</v>
+        <v>0.331209</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373725</v>
+        <v>0.376853</v>
       </c>
       <c r="C124" t="n">
-        <v>0.323452</v>
+        <v>0.325166</v>
       </c>
       <c r="D124" t="n">
-        <v>0.305731</v>
+        <v>0.324491</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377687</v>
+        <v>0.377518</v>
       </c>
       <c r="C125" t="n">
-        <v>0.327361</v>
+        <v>0.326357</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308969</v>
+        <v>0.326419</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.378995</v>
+        <v>0.376804</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329822</v>
+        <v>0.330384</v>
       </c>
       <c r="D126" t="n">
-        <v>0.311769</v>
+        <v>0.329722</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.377104</v>
+        <v>0.375089</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333241</v>
+        <v>0.331574</v>
       </c>
       <c r="D127" t="n">
-        <v>0.314584</v>
+        <v>0.332729</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37979</v>
+        <v>0.377064</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335609</v>
+        <v>0.334627</v>
       </c>
       <c r="D128" t="n">
-        <v>0.317997</v>
+        <v>0.335965</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.377697</v>
+        <v>0.379263</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339381</v>
+        <v>0.339149</v>
       </c>
       <c r="D129" t="n">
-        <v>0.322206</v>
+        <v>0.33936</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377021</v>
+        <v>0.378259</v>
       </c>
       <c r="C130" t="n">
-        <v>0.342522</v>
+        <v>0.342824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.325408</v>
+        <v>0.342833</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.376414</v>
+        <v>0.378713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346506</v>
+        <v>0.346874</v>
       </c>
       <c r="D131" t="n">
-        <v>0.329538</v>
+        <v>0.34681</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.38019</v>
+        <v>0.378239</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350897</v>
+        <v>0.3511</v>
       </c>
       <c r="D132" t="n">
-        <v>0.333918</v>
+        <v>0.351364</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.379606</v>
+        <v>0.375491</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355723</v>
+        <v>0.355754</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339285</v>
+        <v>0.356239</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.381009</v>
+        <v>0.377965</v>
       </c>
       <c r="C134" t="n">
-        <v>0.360936</v>
+        <v>0.359188</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3464</v>
+        <v>0.362184</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.375321</v>
+        <v>0.380512</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365107</v>
+        <v>0.3675</v>
       </c>
       <c r="D135" t="n">
-        <v>0.351864</v>
+        <v>0.368978</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383326</v>
+        <v>0.379581</v>
       </c>
       <c r="C136" t="n">
-        <v>0.374074</v>
+        <v>0.374238</v>
       </c>
       <c r="D136" t="n">
-        <v>0.362462</v>
+        <v>0.378176</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.385669</v>
+        <v>0.387076</v>
       </c>
       <c r="C137" t="n">
-        <v>0.341634</v>
+        <v>0.341978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.328145</v>
+        <v>0.344454</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.443953</v>
+        <v>0.44455</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343603</v>
+        <v>0.347209</v>
       </c>
       <c r="D138" t="n">
-        <v>0.330594</v>
+        <v>0.346883</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444449</v>
+        <v>0.444334</v>
       </c>
       <c r="C139" t="n">
-        <v>0.34947</v>
+        <v>0.349362</v>
       </c>
       <c r="D139" t="n">
-        <v>0.333057</v>
+        <v>0.349061</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.444156</v>
+        <v>0.444712</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351118</v>
+        <v>0.351789</v>
       </c>
       <c r="D140" t="n">
-        <v>0.335036</v>
+        <v>0.351167</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444149</v>
+        <v>0.440432</v>
       </c>
       <c r="C141" t="n">
-        <v>0.354563</v>
+        <v>0.354152</v>
       </c>
       <c r="D141" t="n">
-        <v>0.337537</v>
+        <v>0.353597</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444611</v>
+        <v>0.445217</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356477</v>
+        <v>0.354241</v>
       </c>
       <c r="D142" t="n">
-        <v>0.341806</v>
+        <v>0.356554</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4451</v>
+        <v>0.445527</v>
       </c>
       <c r="C143" t="n">
-        <v>0.359544</v>
+        <v>0.356904</v>
       </c>
       <c r="D143" t="n">
-        <v>0.343479</v>
+        <v>0.358753</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0520906</v>
+        <v>0.0535573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0566607</v>
+        <v>0.055495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0535921</v>
+        <v>0.0545933</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0516778</v>
+        <v>0.0529121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0569134</v>
+        <v>0.0550226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0537894</v>
+        <v>0.054584</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0517544</v>
+        <v>0.0529525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0572668</v>
+        <v>0.0553721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0542463</v>
+        <v>0.0547368</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0518978</v>
+        <v>0.053034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0574542</v>
+        <v>0.0555476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.054578</v>
+        <v>0.0552192</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0520573</v>
+        <v>0.0530871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0578867</v>
+        <v>0.0559487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0552792</v>
+        <v>0.0557837</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0521311</v>
+        <v>0.0533223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0586361</v>
+        <v>0.0569352</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0562122</v>
+        <v>0.0566105</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0524588</v>
+        <v>0.0537208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0600593</v>
+        <v>0.0589867</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0584184</v>
+        <v>0.0588271</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0535386</v>
+        <v>0.0544677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0550765</v>
+        <v>0.0523787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0533578</v>
+        <v>0.0527611</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0529608</v>
+        <v>0.0524002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0558955</v>
+        <v>0.0528985</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0536765</v>
+        <v>0.0529999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.052418</v>
+        <v>0.0520875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0558893</v>
+        <v>0.0531293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0537006</v>
+        <v>0.0534179</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0522734</v>
+        <v>0.0522514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0562805</v>
+        <v>0.0536227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.054028</v>
+        <v>0.0537731</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0527449</v>
+        <v>0.0526059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0567234</v>
+        <v>0.0537888</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0543956</v>
+        <v>0.0542251</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0528657</v>
+        <v>0.0527946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.057143</v>
+        <v>0.0544619</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0548978</v>
+        <v>0.0545043</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0527816</v>
+        <v>0.0528898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0575746</v>
+        <v>0.0546797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0550881</v>
+        <v>0.0549353</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0529332</v>
+        <v>0.053044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0579301</v>
+        <v>0.0550151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.055359</v>
+        <v>0.0551328</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0530456</v>
+        <v>0.0531061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0581799</v>
+        <v>0.0551857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0558118</v>
+        <v>0.0556072</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0532382</v>
+        <v>0.053258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0585289</v>
+        <v>0.0555258</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0561862</v>
+        <v>0.0561141</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0534717</v>
+        <v>0.053393</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0588701</v>
+        <v>0.0560314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.056604</v>
+        <v>0.0568028</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0534466</v>
+        <v>0.0535054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0594701</v>
+        <v>0.0568634</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0573257</v>
+        <v>0.0575409</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0538943</v>
+        <v>0.0538618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0611593</v>
+        <v>0.0581746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0592185</v>
+        <v>0.0592107</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0544652</v>
+        <v>0.0545602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0653796</v>
+        <v>0.0629923</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0642819</v>
+        <v>0.0636178</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0558845</v>
+        <v>0.0560302</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0567724</v>
+        <v>0.0613639</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0560157</v>
+        <v>0.0576388</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550452</v>
+        <v>0.0591284</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0571618</v>
+        <v>0.062161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0559475</v>
+        <v>0.0582721</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548433</v>
+        <v>0.0575545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0570232</v>
+        <v>0.0610623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0562032</v>
+        <v>0.0580988</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0550427</v>
+        <v>0.0577158</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0573443</v>
+        <v>0.0615023</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0566392</v>
+        <v>0.0584079</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0549413</v>
+        <v>0.0576514</v>
       </c>
       <c r="C27" t="n">
-        <v>0.057693</v>
+        <v>0.0619056</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0569101</v>
+        <v>0.058861</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055091</v>
+        <v>0.0578002</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0581245</v>
+        <v>0.0623637</v>
       </c>
       <c r="D28" t="n">
-        <v>0.057273</v>
+        <v>0.0591931</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0551186</v>
+        <v>0.057904</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0585547</v>
+        <v>0.0628204</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0577205</v>
+        <v>0.0596711</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0554355</v>
+        <v>0.0581192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.058939</v>
+        <v>0.0632336</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0581308</v>
+        <v>0.0600266</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0554382</v>
+        <v>0.0582474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0593878</v>
+        <v>0.0636973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.058513</v>
+        <v>0.0604929</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0557011</v>
+        <v>0.0584963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0599258</v>
+        <v>0.0643232</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0591274</v>
+        <v>0.0610467</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.055889</v>
+        <v>0.0587072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.060752</v>
+        <v>0.0651264</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0598857</v>
+        <v>0.0617878</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0562369</v>
+        <v>0.0590119</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0624294</v>
+        <v>0.0668469</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0619185</v>
+        <v>0.0634739</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567197</v>
+        <v>0.0594507</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0654932</v>
+        <v>0.06992859999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0663183</v>
+        <v>0.0668931</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0575415</v>
+        <v>0.0601756</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07176639999999999</v>
+        <v>0.0765565</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0731858</v>
+        <v>0.07303709999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.060119</v>
+        <v>0.0628741</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0617325</v>
+        <v>0.0620227</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0619127</v>
+        <v>0.0617181</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0608861</v>
+        <v>0.0619893</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0610722</v>
+        <v>0.0624639</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0620603</v>
+        <v>0.0607187</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0604352</v>
+        <v>0.0605012</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0614568</v>
+        <v>0.0611959</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0615997</v>
+        <v>0.0609934</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.060547</v>
+        <v>0.0606</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0617776</v>
+        <v>0.0615695</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0633013</v>
+        <v>0.061357</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605702</v>
+        <v>0.0605934</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0622475</v>
+        <v>0.0620574</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0622116</v>
+        <v>0.0618102</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0607385</v>
+        <v>0.0607443</v>
       </c>
       <c r="C42" t="n">
-        <v>0.062683</v>
+        <v>0.0624978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0629535</v>
+        <v>0.0622501</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0608257</v>
+        <v>0.0608548</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0631558</v>
+        <v>0.0629373</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06401370000000001</v>
+        <v>0.06278880000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0610108</v>
+        <v>0.0610021</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06368559999999999</v>
+        <v>0.06346010000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0641607</v>
+        <v>0.06329990000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0611417</v>
+        <v>0.061136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0642431</v>
+        <v>0.0641091</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0649271</v>
+        <v>0.06396010000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0614538</v>
+        <v>0.0615094</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06500880000000001</v>
+        <v>0.0647957</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0651738</v>
+        <v>0.06471059999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0617594</v>
+        <v>0.061741</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06633940000000001</v>
+        <v>0.0661858</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06718</v>
+        <v>0.0659694</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0621912</v>
+        <v>0.0621642</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06873659999999999</v>
+        <v>0.0685977</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07024950000000001</v>
+        <v>0.0683584</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06295770000000001</v>
+        <v>0.0629316</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0723777</v>
+        <v>0.07232329999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07373150000000001</v>
+        <v>0.0720543</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06464499999999999</v>
+        <v>0.0645989</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0774562</v>
+        <v>0.0774775</v>
       </c>
       <c r="D50" t="n">
-        <v>0.078821</v>
+        <v>0.07711369999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06810910000000001</v>
+        <v>0.06805890000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0651166</v>
+        <v>0.0663752</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0650828</v>
+        <v>0.0682784</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07316599999999999</v>
+        <v>0.07320309999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06444510000000001</v>
+        <v>0.0641552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0655671</v>
+        <v>0.06593889999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0685262</v>
+        <v>0.06797309999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0648667</v>
+        <v>0.06455900000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0657544</v>
+        <v>0.06911539999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0685547</v>
+        <v>0.0671587</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0652133</v>
+        <v>0.064956</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0661104</v>
+        <v>0.0695173</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0686896</v>
+        <v>0.06733020000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0656214</v>
+        <v>0.06542530000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0665471</v>
+        <v>0.0669983</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0688182</v>
+        <v>0.0674337</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0661717</v>
+        <v>0.0659081</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06693540000000001</v>
+        <v>0.06745370000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0690402</v>
+        <v>0.06758740000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06674620000000001</v>
+        <v>0.0692493</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06740930000000001</v>
+        <v>0.0700942</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0691466</v>
+        <v>0.0677074</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0673161</v>
+        <v>0.06712079999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06879879999999999</v>
+        <v>0.0692837</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0694236</v>
+        <v>0.06847399999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06812559999999999</v>
+        <v>0.0686959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0699386</v>
+        <v>0.07268040000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0696836</v>
+        <v>0.06892470000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0692656</v>
+        <v>0.070425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0702545</v>
+        <v>0.07384449999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07004680000000001</v>
+        <v>0.0690953</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07102260000000001</v>
+        <v>0.0717386</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07226680000000001</v>
+        <v>0.07550800000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0705639</v>
+        <v>0.0695535</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0734337</v>
+        <v>0.07594679999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0753364</v>
+        <v>0.0778773</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0715884</v>
+        <v>0.07039289999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07669289999999999</v>
+        <v>0.0791052</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0782858</v>
+        <v>0.08122310000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0734765</v>
+        <v>0.0720141</v>
       </c>
       <c r="C64" t="n">
-        <v>0.081028</v>
+        <v>0.0808526</v>
       </c>
       <c r="D64" t="n">
-        <v>0.083771</v>
+        <v>0.0826445</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0762328</v>
+        <v>0.0751797</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0876704</v>
+        <v>0.0900725</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0894457</v>
+        <v>0.09258280000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08038099999999999</v>
+        <v>0.0788507</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06840880000000001</v>
+        <v>0.0702499</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0697661</v>
+        <v>0.07231460000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0816448</v>
+        <v>0.0850752</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06908590000000001</v>
+        <v>0.0707155</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07035089999999999</v>
+        <v>0.0727502</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817862</v>
+        <v>0.0853804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0695696</v>
+        <v>0.0713304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07089139999999999</v>
+        <v>0.0732534</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0818127</v>
+        <v>0.0858955</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0699949</v>
+        <v>0.0720181</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0713033</v>
+        <v>0.07392550000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08328480000000001</v>
+        <v>0.0861613</v>
       </c>
       <c r="C70" t="n">
-        <v>0.070855</v>
+        <v>0.0727199</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0720712</v>
+        <v>0.07460310000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0835997</v>
+        <v>0.08653470000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07151739999999999</v>
+        <v>0.0734513</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0728169</v>
+        <v>0.0753379</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0833762</v>
+        <v>0.0869722</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0721188</v>
+        <v>0.0742488</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0733939</v>
+        <v>0.076088</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08328430000000001</v>
+        <v>0.08735130000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0729255</v>
+        <v>0.07531259999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0742438</v>
+        <v>0.0770121</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0832666</v>
+        <v>0.08779579999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0742376</v>
+        <v>0.0767254</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0755987</v>
+        <v>0.0783364</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0835101</v>
+        <v>0.088436</v>
       </c>
       <c r="C75" t="n">
-        <v>0.075823</v>
+        <v>0.0785918</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0773341</v>
+        <v>0.0801526</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0838328</v>
+        <v>0.08896220000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0778843</v>
+        <v>0.08071589999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0795613</v>
+        <v>0.0822213</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0846396</v>
+        <v>0.0901376</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0806996</v>
+        <v>0.08358210000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0822457</v>
+        <v>0.0849863</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0858728</v>
+        <v>0.0918253</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0845216</v>
+        <v>0.08764130000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0864316</v>
+        <v>0.0889939</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0892661</v>
+        <v>0.0941152</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09082560000000001</v>
+        <v>0.0936664</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0926409</v>
+        <v>0.0949387</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.092456</v>
+        <v>0.0978686</v>
       </c>
       <c r="C80" t="n">
-        <v>0.115697</v>
+        <v>0.101806</v>
       </c>
       <c r="D80" t="n">
-        <v>0.115221</v>
+        <v>0.115736</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183052</v>
+        <v>0.18079</v>
       </c>
       <c r="C81" t="n">
-        <v>0.109032</v>
+        <v>0.116355</v>
       </c>
       <c r="D81" t="n">
-        <v>0.117605</v>
+        <v>0.118416</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.176916</v>
+        <v>0.183074</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12887</v>
+        <v>0.121538</v>
       </c>
       <c r="D82" t="n">
-        <v>0.123696</v>
+        <v>0.124211</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.185622</v>
+        <v>0.184227</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130879</v>
+        <v>0.111965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.128408</v>
+        <v>0.112732</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.188926</v>
+        <v>0.173923</v>
       </c>
       <c r="C84" t="n">
-        <v>0.127123</v>
+        <v>0.120496</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11864</v>
+        <v>0.121773</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176689</v>
+        <v>0.176936</v>
       </c>
       <c r="C85" t="n">
-        <v>0.120211</v>
+        <v>0.124831</v>
       </c>
       <c r="D85" t="n">
-        <v>0.122098</v>
+        <v>0.126207</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177857</v>
+        <v>0.180467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.135009</v>
+        <v>0.136602</v>
       </c>
       <c r="D86" t="n">
-        <v>0.134726</v>
+        <v>0.134661</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18796</v>
+        <v>0.188784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.138759</v>
+        <v>0.142738</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142001</v>
+        <v>0.140334</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.189787</v>
+        <v>0.18813</v>
       </c>
       <c r="C88" t="n">
-        <v>0.139215</v>
+        <v>0.141918</v>
       </c>
       <c r="D88" t="n">
-        <v>0.137897</v>
+        <v>0.13885</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.190571</v>
+        <v>0.188739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.146068</v>
+        <v>0.145217</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146357</v>
+        <v>0.143172</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19183</v>
+        <v>0.190167</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15067</v>
+        <v>0.149075</v>
       </c>
       <c r="D90" t="n">
-        <v>0.145363</v>
+        <v>0.144815</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193183</v>
+        <v>0.190988</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148674</v>
+        <v>0.149701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.151628</v>
+        <v>0.150921</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191016</v>
+        <v>0.191837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.153386</v>
+        <v>0.149902</v>
       </c>
       <c r="D92" t="n">
-        <v>0.151622</v>
+        <v>0.145559</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.194215</v>
+        <v>0.189348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.159031</v>
+        <v>0.151809</v>
       </c>
       <c r="D93" t="n">
-        <v>0.15658</v>
+        <v>0.148995</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196393</v>
+        <v>0.188852</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24051</v>
+        <v>0.237197</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239819</v>
+        <v>0.240589</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25628</v>
+        <v>0.256664</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243344</v>
+        <v>0.239607</v>
       </c>
       <c r="D95" t="n">
-        <v>0.235035</v>
+        <v>0.243598</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254348</v>
+        <v>0.257051</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241484</v>
+        <v>0.24555</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244489</v>
+        <v>0.245621</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25686</v>
+        <v>0.25674</v>
       </c>
       <c r="C97" t="n">
-        <v>0.244204</v>
+        <v>0.248969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246938</v>
+        <v>0.247062</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.257033</v>
+        <v>0.257197</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246492</v>
+        <v>0.246305</v>
       </c>
       <c r="D98" t="n">
-        <v>0.24935</v>
+        <v>0.249849</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.257239</v>
+        <v>0.254718</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252185</v>
+        <v>0.251925</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251396</v>
+        <v>0.251687</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.257001</v>
+        <v>0.257106</v>
       </c>
       <c r="C100" t="n">
-        <v>0.250801</v>
+        <v>0.254769</v>
       </c>
       <c r="D100" t="n">
-        <v>0.246382</v>
+        <v>0.253735</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257426</v>
+        <v>0.257464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.255072</v>
+        <v>0.252911</v>
       </c>
       <c r="D101" t="n">
-        <v>0.248407</v>
+        <v>0.256323</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257235</v>
+        <v>0.257497</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254179</v>
+        <v>0.258131</v>
       </c>
       <c r="D102" t="n">
-        <v>0.251794</v>
+        <v>0.258795</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257631</v>
+        <v>0.257705</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258255</v>
+        <v>0.261478</v>
       </c>
       <c r="D103" t="n">
-        <v>0.260572</v>
+        <v>0.254175</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258274</v>
+        <v>0.258451</v>
       </c>
       <c r="C104" t="n">
-        <v>0.259679</v>
+        <v>0.259282</v>
       </c>
       <c r="D104" t="n">
-        <v>0.263404</v>
+        <v>0.263012</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258931</v>
+        <v>0.255869</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26501</v>
+        <v>0.262667</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259386</v>
+        <v>0.266068</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259668</v>
+        <v>0.259799</v>
       </c>
       <c r="C106" t="n">
-        <v>0.265419</v>
+        <v>0.266307</v>
       </c>
       <c r="D106" t="n">
-        <v>0.269838</v>
+        <v>0.268612</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258883</v>
+        <v>0.261308</v>
       </c>
       <c r="C107" t="n">
-        <v>0.269918</v>
+        <v>0.270857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.273906</v>
+        <v>0.273799</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.264112</v>
+        <v>0.263808</v>
       </c>
       <c r="C108" t="n">
-        <v>0.300623</v>
+        <v>0.299894</v>
       </c>
       <c r="D108" t="n">
-        <v>0.299916</v>
+        <v>0.299774</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268278</v>
+        <v>0.267941</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302264</v>
+        <v>0.302074</v>
       </c>
       <c r="D109" t="n">
-        <v>0.299112</v>
+        <v>0.301698</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295706</v>
+        <v>0.296254</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299981</v>
+        <v>0.304194</v>
       </c>
       <c r="D110" t="n">
-        <v>0.303859</v>
+        <v>0.300753</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292699</v>
+        <v>0.292921</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305036</v>
+        <v>0.30589</v>
       </c>
       <c r="D111" t="n">
-        <v>0.30595</v>
+        <v>0.306103</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.293474</v>
+        <v>0.29424</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30443</v>
+        <v>0.304742</v>
       </c>
       <c r="D112" t="n">
-        <v>0.308048</v>
+        <v>0.308501</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.289714</v>
+        <v>0.293965</v>
       </c>
       <c r="C113" t="n">
-        <v>0.311141</v>
+        <v>0.310862</v>
       </c>
       <c r="D113" t="n">
-        <v>0.31095</v>
+        <v>0.310459</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.294533</v>
+        <v>0.295397</v>
       </c>
       <c r="C114" t="n">
-        <v>0.313159</v>
+        <v>0.312461</v>
       </c>
       <c r="D114" t="n">
-        <v>0.312766</v>
+        <v>0.312938</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.297951</v>
+        <v>0.290976</v>
       </c>
       <c r="C115" t="n">
-        <v>0.315453</v>
+        <v>0.317438</v>
       </c>
       <c r="D115" t="n">
-        <v>0.315584</v>
+        <v>0.316218</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.292809</v>
+        <v>0.299706</v>
       </c>
       <c r="C116" t="n">
-        <v>0.317566</v>
+        <v>0.319488</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318976</v>
+        <v>0.31848</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294741</v>
+        <v>0.29363</v>
       </c>
       <c r="C117" t="n">
-        <v>0.321056</v>
+        <v>0.320194</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321561</v>
+        <v>0.321088</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293427</v>
+        <v>0.298037</v>
       </c>
       <c r="C118" t="n">
-        <v>0.324796</v>
+        <v>0.324995</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323177</v>
+        <v>0.324172</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.290246</v>
+        <v>0.291656</v>
       </c>
       <c r="C119" t="n">
-        <v>0.322207</v>
+        <v>0.328522</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324365</v>
+        <v>0.327834</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29763</v>
+        <v>0.292098</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332829</v>
+        <v>0.331296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.333656</v>
+        <v>0.332353</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.300841</v>
+        <v>0.295608</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338744</v>
+        <v>0.339232</v>
       </c>
       <c r="D121" t="n">
-        <v>0.339048</v>
+        <v>0.338058</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.296983</v>
+        <v>0.30269</v>
       </c>
       <c r="C122" t="n">
-        <v>0.345785</v>
+        <v>0.341226</v>
       </c>
       <c r="D122" t="n">
-        <v>0.342826</v>
+        <v>0.344746</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.306164</v>
+        <v>0.305299</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332319</v>
+        <v>0.33239</v>
       </c>
       <c r="D123" t="n">
-        <v>0.331209</v>
+        <v>0.331032</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.376853</v>
+        <v>0.37837</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325166</v>
+        <v>0.326128</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324491</v>
+        <v>0.32726</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377518</v>
+        <v>0.377067</v>
       </c>
       <c r="C125" t="n">
-        <v>0.326357</v>
+        <v>0.327181</v>
       </c>
       <c r="D125" t="n">
-        <v>0.326419</v>
+        <v>0.327309</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376804</v>
+        <v>0.377847</v>
       </c>
       <c r="C126" t="n">
-        <v>0.330384</v>
+        <v>0.33039</v>
       </c>
       <c r="D126" t="n">
-        <v>0.329722</v>
+        <v>0.330251</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.375089</v>
+        <v>0.378839</v>
       </c>
       <c r="C127" t="n">
-        <v>0.331574</v>
+        <v>0.332991</v>
       </c>
       <c r="D127" t="n">
-        <v>0.332729</v>
+        <v>0.333007</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.377064</v>
+        <v>0.378995</v>
       </c>
       <c r="C128" t="n">
-        <v>0.334627</v>
+        <v>0.336158</v>
       </c>
       <c r="D128" t="n">
-        <v>0.335965</v>
+        <v>0.335983</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379263</v>
+        <v>0.379141</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339149</v>
+        <v>0.339792</v>
       </c>
       <c r="D129" t="n">
-        <v>0.33936</v>
+        <v>0.339625</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.378259</v>
+        <v>0.379693</v>
       </c>
       <c r="C130" t="n">
-        <v>0.342824</v>
+        <v>0.343076</v>
       </c>
       <c r="D130" t="n">
-        <v>0.342833</v>
+        <v>0.343163</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378713</v>
+        <v>0.378011</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346874</v>
+        <v>0.346928</v>
       </c>
       <c r="D131" t="n">
-        <v>0.34681</v>
+        <v>0.346626</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.378239</v>
+        <v>0.379701</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3511</v>
+        <v>0.350936</v>
       </c>
       <c r="D132" t="n">
-        <v>0.351364</v>
+        <v>0.350657</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.375491</v>
+        <v>0.379183</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355754</v>
+        <v>0.355493</v>
       </c>
       <c r="D133" t="n">
-        <v>0.356239</v>
+        <v>0.356017</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.377965</v>
+        <v>0.380368</v>
       </c>
       <c r="C134" t="n">
-        <v>0.359188</v>
+        <v>0.361165</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362184</v>
+        <v>0.361044</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380512</v>
+        <v>0.382084</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3675</v>
+        <v>0.363444</v>
       </c>
       <c r="D135" t="n">
-        <v>0.368978</v>
+        <v>0.36806</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.379581</v>
+        <v>0.38207</v>
       </c>
       <c r="C136" t="n">
-        <v>0.374238</v>
+        <v>0.373984</v>
       </c>
       <c r="D136" t="n">
-        <v>0.378176</v>
+        <v>0.377855</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387076</v>
+        <v>0.386442</v>
       </c>
       <c r="C137" t="n">
-        <v>0.341978</v>
+        <v>0.34444</v>
       </c>
       <c r="D137" t="n">
-        <v>0.344454</v>
+        <v>0.344516</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44455</v>
+        <v>0.440031</v>
       </c>
       <c r="C138" t="n">
-        <v>0.347209</v>
+        <v>0.344671</v>
       </c>
       <c r="D138" t="n">
-        <v>0.346883</v>
+        <v>0.346776</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444334</v>
+        <v>0.444708</v>
       </c>
       <c r="C139" t="n">
-        <v>0.349362</v>
+        <v>0.349297</v>
       </c>
       <c r="D139" t="n">
-        <v>0.349061</v>
+        <v>0.349274</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.444712</v>
+        <v>0.444668</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351789</v>
+        <v>0.349425</v>
       </c>
       <c r="D140" t="n">
-        <v>0.351167</v>
+        <v>0.351911</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440432</v>
+        <v>0.445505</v>
       </c>
       <c r="C141" t="n">
-        <v>0.354152</v>
+        <v>0.354639</v>
       </c>
       <c r="D141" t="n">
-        <v>0.353597</v>
+        <v>0.354258</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.445217</v>
+        <v>0.440549</v>
       </c>
       <c r="C142" t="n">
-        <v>0.354241</v>
+        <v>0.353793</v>
       </c>
       <c r="D142" t="n">
-        <v>0.356554</v>
+        <v>0.356947</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.445527</v>
+        <v>0.440595</v>
       </c>
       <c r="C143" t="n">
-        <v>0.356904</v>
+        <v>0.360203</v>
       </c>
       <c r="D143" t="n">
-        <v>0.358753</v>
+        <v>0.359622</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0535573</v>
+        <v>0.0517972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.055495</v>
+        <v>0.056104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0545933</v>
+        <v>0.0534834</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0529121</v>
+        <v>0.0518715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0550226</v>
+        <v>0.0562495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.054584</v>
+        <v>0.0543594</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0529525</v>
+        <v>0.0518982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0553721</v>
+        <v>0.0567136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0547368</v>
+        <v>0.0545976</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.053034</v>
+        <v>0.0520823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0555476</v>
+        <v>0.0557387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0552192</v>
+        <v>0.0548589</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0530871</v>
+        <v>0.0520291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559487</v>
+        <v>0.0560249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0557837</v>
+        <v>0.0549125</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0533223</v>
+        <v>0.0519658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0569352</v>
+        <v>0.0571281</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0566105</v>
+        <v>0.0559628</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0537208</v>
+        <v>0.0522815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0589867</v>
+        <v>0.058741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0588271</v>
+        <v>0.0581884</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0544677</v>
+        <v>0.053398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0523787</v>
+        <v>0.0512099</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0527611</v>
+        <v>0.050718</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0524002</v>
+        <v>0.0511876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0528985</v>
+        <v>0.0515869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0529999</v>
+        <v>0.0511262</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0520875</v>
+        <v>0.0512556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0531293</v>
+        <v>0.0519195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0534179</v>
+        <v>0.0515249</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0522514</v>
+        <v>0.0513875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0536227</v>
+        <v>0.0522534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0537731</v>
+        <v>0.0517807</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0526059</v>
+        <v>0.0516485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0537888</v>
+        <v>0.0526652</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0542251</v>
+        <v>0.0522688</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0527946</v>
+        <v>0.0518467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0544619</v>
+        <v>0.0530737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0545043</v>
+        <v>0.0526234</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0528898</v>
+        <v>0.051989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0546797</v>
+        <v>0.0536037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0549353</v>
+        <v>0.0528653</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.053044</v>
+        <v>0.0521736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0550151</v>
+        <v>0.0538942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0551328</v>
+        <v>0.053379</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0531061</v>
+        <v>0.0522795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0551857</v>
+        <v>0.054167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0556072</v>
+        <v>0.0537247</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.053258</v>
+        <v>0.0523944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0555258</v>
+        <v>0.0542999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0561141</v>
+        <v>0.0539489</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.053393</v>
+        <v>0.0525942</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0560314</v>
+        <v>0.0549417</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0568028</v>
+        <v>0.0546651</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0535054</v>
+        <v>0.0527332</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0568634</v>
+        <v>0.0556403</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0575409</v>
+        <v>0.0556879</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0538618</v>
+        <v>0.0530048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0581746</v>
+        <v>0.056977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0592107</v>
+        <v>0.0572411</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0545602</v>
+        <v>0.0535111</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0629923</v>
+        <v>0.0614621</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0636178</v>
+        <v>0.0619567</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0560302</v>
+        <v>0.0550274</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0613639</v>
+        <v>0.058841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0576388</v>
+        <v>0.0569196</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0591284</v>
+        <v>0.0561182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.062161</v>
+        <v>0.0580385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0582721</v>
+        <v>0.0569313</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0575545</v>
+        <v>0.0561197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0610623</v>
+        <v>0.0583242</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0580988</v>
+        <v>0.0576034</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0577158</v>
+        <v>0.0562615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0615023</v>
+        <v>0.0586504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0584079</v>
+        <v>0.0578779</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0576514</v>
+        <v>0.0561793</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0619056</v>
+        <v>0.0589679</v>
       </c>
       <c r="D27" t="n">
-        <v>0.058861</v>
+        <v>0.0584959</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0578002</v>
+        <v>0.0563317</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0623637</v>
+        <v>0.0593501</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0591931</v>
+        <v>0.0586229</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.057904</v>
+        <v>0.0564695</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0628204</v>
+        <v>0.0597734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0596711</v>
+        <v>0.0588174</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0581192</v>
+        <v>0.0567002</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0632336</v>
+        <v>0.0601613</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0600266</v>
+        <v>0.0595445</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0582474</v>
+        <v>0.0567395</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0636973</v>
+        <v>0.0605908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0604929</v>
+        <v>0.0599314</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0584963</v>
+        <v>0.0569244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0643232</v>
+        <v>0.061149</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0610467</v>
+        <v>0.060397</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0587072</v>
+        <v>0.0571584</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0651264</v>
+        <v>0.0618782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0617878</v>
+        <v>0.0607205</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0590119</v>
+        <v>0.0574254</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0668469</v>
+        <v>0.06358460000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0634739</v>
+        <v>0.062932</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0594507</v>
+        <v>0.0579639</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06992859999999999</v>
+        <v>0.0668333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0668931</v>
+        <v>0.06615269999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0601756</v>
+        <v>0.0587906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0765565</v>
+        <v>0.07306260000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07303709999999999</v>
+        <v>0.07223110000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0628741</v>
+        <v>0.0613478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0620227</v>
+        <v>0.06487320000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0617181</v>
+        <v>0.0621854</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0619893</v>
+        <v>0.0672049</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0624639</v>
+        <v>0.06298769999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0607187</v>
+        <v>0.0628947</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0605012</v>
+        <v>0.0671394</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0611959</v>
+        <v>0.06331870000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0609934</v>
+        <v>0.0639324</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0606</v>
+        <v>0.06726840000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0615695</v>
+        <v>0.063651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.061357</v>
+        <v>0.063176</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605934</v>
+        <v>0.0672725</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0620574</v>
+        <v>0.0640802</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0618102</v>
+        <v>0.0636491</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0607443</v>
+        <v>0.06736929999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0624978</v>
+        <v>0.0645362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0622501</v>
+        <v>0.06489929999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0608548</v>
+        <v>0.06751219999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0629373</v>
+        <v>0.06493500000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06278880000000001</v>
+        <v>0.0657432</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0610021</v>
+        <v>0.0676631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06346010000000001</v>
+        <v>0.06544</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06329990000000001</v>
+        <v>0.06423479999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061136</v>
+        <v>0.06777909999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0641091</v>
+        <v>0.0659848</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06396010000000001</v>
+        <v>0.0665985</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0615094</v>
+        <v>0.0680322</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0647957</v>
+        <v>0.06678820000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06471059999999999</v>
+        <v>0.06572169999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061741</v>
+        <v>0.06831669999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0661858</v>
+        <v>0.06818630000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0659694</v>
+        <v>0.0670707</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0621642</v>
+        <v>0.0687441</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0685977</v>
+        <v>0.0706461</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0683584</v>
+        <v>0.07004680000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0629316</v>
+        <v>0.06952560000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07232329999999999</v>
+        <v>0.0744394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0720543</v>
+        <v>0.07429570000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645989</v>
+        <v>0.0711383</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0774775</v>
+        <v>0.0796861</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07711369999999999</v>
+        <v>0.0793407</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06805890000000001</v>
+        <v>0.0745581</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0663752</v>
+        <v>0.0661597</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0682784</v>
+        <v>0.0657441</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07320309999999999</v>
+        <v>0.0796216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0641552</v>
+        <v>0.06437370000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06593889999999999</v>
+        <v>0.06603299999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06797309999999999</v>
+        <v>0.0674076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06455900000000001</v>
+        <v>0.0647621</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06911539999999999</v>
+        <v>0.0662864</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0671587</v>
+        <v>0.06744550000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.064956</v>
+        <v>0.06518119999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0695173</v>
+        <v>0.06668200000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06733020000000001</v>
+        <v>0.0675659</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06542530000000001</v>
+        <v>0.0656451</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0669983</v>
+        <v>0.0670931</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0674337</v>
+        <v>0.0676939</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0659081</v>
+        <v>0.0661407</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06745370000000001</v>
+        <v>0.06769029999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06758740000000001</v>
+        <v>0.0678544</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0692493</v>
+        <v>0.0667663</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0700942</v>
+        <v>0.0680804</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0677074</v>
+        <v>0.06797209999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06712079999999999</v>
+        <v>0.0673525</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0692837</v>
+        <v>0.0687762</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06847399999999999</v>
+        <v>0.06828389999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0686959</v>
+        <v>0.06818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07268040000000001</v>
+        <v>0.06951739999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06892470000000001</v>
+        <v>0.06851359999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.070425</v>
+        <v>0.06935379999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07384449999999999</v>
+        <v>0.07083639999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0690953</v>
+        <v>0.0688846</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0717386</v>
+        <v>0.07114520000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07550800000000001</v>
+        <v>0.0724911</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0695535</v>
+        <v>0.0694471</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07594679999999999</v>
+        <v>0.0735616</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0778773</v>
+        <v>0.0748055</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07039289999999999</v>
+        <v>0.0703835</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0791052</v>
+        <v>0.076751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08122310000000001</v>
+        <v>0.0782731</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720141</v>
+        <v>0.0722781</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0808526</v>
+        <v>0.0810477</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0826445</v>
+        <v>0.0827753</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0751797</v>
+        <v>0.0750136</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0900725</v>
+        <v>0.0878065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09258280000000001</v>
+        <v>0.0894682</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0788507</v>
+        <v>0.0790901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0702499</v>
+        <v>0.08136599999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07231460000000001</v>
+        <v>0.07990120000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0850752</v>
+        <v>0.125745</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0707155</v>
+        <v>0.0828892</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0727502</v>
+        <v>0.08151360000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0853804</v>
+        <v>0.126636</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0713304</v>
+        <v>0.0845212</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0732534</v>
+        <v>0.0829428</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0858955</v>
+        <v>0.127356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0720181</v>
+        <v>0.0858956</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07392550000000001</v>
+        <v>0.0841105</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0861613</v>
+        <v>0.127953</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0727199</v>
+        <v>0.0874543</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07460310000000001</v>
+        <v>0.0857723</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08653470000000001</v>
+        <v>0.128546</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734513</v>
+        <v>0.08889370000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0753379</v>
+        <v>0.0871753</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0869722</v>
+        <v>0.12894</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0742488</v>
+        <v>0.0902633</v>
       </c>
       <c r="D72" t="n">
-        <v>0.076088</v>
+        <v>0.088658</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08735130000000001</v>
+        <v>0.129244</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07531259999999999</v>
+        <v>0.0918524</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0770121</v>
+        <v>0.090196</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08779579999999999</v>
+        <v>0.129997</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0767254</v>
+        <v>0.0938581</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0783364</v>
+        <v>0.0922173</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.088436</v>
+        <v>0.130206</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0785918</v>
+        <v>0.0960313</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0801526</v>
+        <v>0.0940564</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08896220000000001</v>
+        <v>0.130722</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08071589999999999</v>
+        <v>0.09826219999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0822213</v>
+        <v>0.0963471</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0901376</v>
+        <v>0.131834</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08358210000000001</v>
+        <v>0.101174</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0849863</v>
+        <v>0.0993343</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0918253</v>
+        <v>0.133365</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08764130000000001</v>
+        <v>0.105397</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0889939</v>
+        <v>0.10348</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0941152</v>
+        <v>0.135011</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0936664</v>
+        <v>0.111</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0949387</v>
+        <v>0.108885</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0978686</v>
+        <v>0.137824</v>
       </c>
       <c r="C80" t="n">
-        <v>0.101806</v>
+        <v>0.120113</v>
       </c>
       <c r="D80" t="n">
-        <v>0.115736</v>
+        <v>0.117514</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18079</v>
+        <v>0.182737</v>
       </c>
       <c r="C81" t="n">
-        <v>0.116355</v>
+        <v>0.123372</v>
       </c>
       <c r="D81" t="n">
-        <v>0.118416</v>
+        <v>0.120014</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183074</v>
+        <v>0.184928</v>
       </c>
       <c r="C82" t="n">
-        <v>0.121538</v>
+        <v>0.114864</v>
       </c>
       <c r="D82" t="n">
-        <v>0.124211</v>
+        <v>0.113262</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.184227</v>
+        <v>0.176738</v>
       </c>
       <c r="C83" t="n">
-        <v>0.111965</v>
+        <v>0.117945</v>
       </c>
       <c r="D83" t="n">
-        <v>0.112732</v>
+        <v>0.115673</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.173923</v>
+        <v>0.175832</v>
       </c>
       <c r="C84" t="n">
-        <v>0.120496</v>
+        <v>0.132661</v>
       </c>
       <c r="D84" t="n">
-        <v>0.121773</v>
+        <v>0.127498</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176936</v>
+        <v>0.186241</v>
       </c>
       <c r="C85" t="n">
-        <v>0.124831</v>
+        <v>0.135298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.126207</v>
+        <v>0.131536</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.180467</v>
+        <v>0.188531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.136602</v>
+        <v>0.137729</v>
       </c>
       <c r="D86" t="n">
-        <v>0.134661</v>
+        <v>0.133937</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.188784</v>
+        <v>0.188115</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142738</v>
+        <v>0.141115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140334</v>
+        <v>0.134591</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18813</v>
+        <v>0.190025</v>
       </c>
       <c r="C88" t="n">
-        <v>0.141918</v>
+        <v>0.140868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.13885</v>
+        <v>0.141614</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188739</v>
+        <v>0.189141</v>
       </c>
       <c r="C89" t="n">
-        <v>0.145217</v>
+        <v>0.145391</v>
       </c>
       <c r="D89" t="n">
-        <v>0.143172</v>
+        <v>0.140377</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.190167</v>
+        <v>0.189437</v>
       </c>
       <c r="C90" t="n">
-        <v>0.149075</v>
+        <v>0.146598</v>
       </c>
       <c r="D90" t="n">
-        <v>0.144815</v>
+        <v>0.146029</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190988</v>
+        <v>0.191402</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149701</v>
+        <v>0.150264</v>
       </c>
       <c r="D91" t="n">
-        <v>0.150921</v>
+        <v>0.149756</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191837</v>
+        <v>0.192509</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149902</v>
+        <v>0.153039</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145559</v>
+        <v>0.148793</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189348</v>
+        <v>0.193144</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151809</v>
+        <v>0.148038</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148995</v>
+        <v>0.146655</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188852</v>
+        <v>0.187584</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237197</v>
+        <v>0.242445</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240589</v>
+        <v>0.242273</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256664</v>
+        <v>0.257912</v>
       </c>
       <c r="C95" t="n">
-        <v>0.239607</v>
+        <v>0.243732</v>
       </c>
       <c r="D95" t="n">
-        <v>0.243598</v>
+        <v>0.235268</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257051</v>
+        <v>0.257654</v>
       </c>
       <c r="C96" t="n">
-        <v>0.24555</v>
+        <v>0.246002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.245621</v>
+        <v>0.238085</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25674</v>
+        <v>0.257676</v>
       </c>
       <c r="C97" t="n">
-        <v>0.248969</v>
+        <v>0.248202</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247062</v>
+        <v>0.240366</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.257197</v>
+        <v>0.257911</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246305</v>
+        <v>0.246507</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249849</v>
+        <v>0.251563</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.254718</v>
+        <v>0.258151</v>
       </c>
       <c r="C99" t="n">
-        <v>0.251925</v>
+        <v>0.248908</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251687</v>
+        <v>0.252741</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.257106</v>
+        <v>0.258416</v>
       </c>
       <c r="C100" t="n">
-        <v>0.254769</v>
+        <v>0.254475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.253735</v>
+        <v>0.254944</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257464</v>
+        <v>0.258169</v>
       </c>
       <c r="C101" t="n">
-        <v>0.252911</v>
+        <v>0.253358</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256323</v>
+        <v>0.257619</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257497</v>
+        <v>0.258328</v>
       </c>
       <c r="C102" t="n">
-        <v>0.258131</v>
+        <v>0.256374</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258795</v>
+        <v>0.252868</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257705</v>
+        <v>0.255794</v>
       </c>
       <c r="C103" t="n">
-        <v>0.261478</v>
+        <v>0.259008</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254175</v>
+        <v>0.254943</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258451</v>
+        <v>0.256573</v>
       </c>
       <c r="C104" t="n">
-        <v>0.259282</v>
+        <v>0.261172</v>
       </c>
       <c r="D104" t="n">
-        <v>0.263012</v>
+        <v>0.265072</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255869</v>
+        <v>0.257279</v>
       </c>
       <c r="C105" t="n">
-        <v>0.262667</v>
+        <v>0.264028</v>
       </c>
       <c r="D105" t="n">
-        <v>0.266068</v>
+        <v>0.267245</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259799</v>
+        <v>0.257708</v>
       </c>
       <c r="C106" t="n">
-        <v>0.266307</v>
+        <v>0.267143</v>
       </c>
       <c r="D106" t="n">
-        <v>0.268612</v>
+        <v>0.263059</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.261308</v>
+        <v>0.259596</v>
       </c>
       <c r="C107" t="n">
-        <v>0.270857</v>
+        <v>0.275319</v>
       </c>
       <c r="D107" t="n">
-        <v>0.273799</v>
+        <v>0.274735</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263808</v>
+        <v>0.261916</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299894</v>
+        <v>0.297624</v>
       </c>
       <c r="D108" t="n">
-        <v>0.299774</v>
+        <v>0.301131</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.267941</v>
+        <v>0.269874</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302074</v>
+        <v>0.301957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.301698</v>
+        <v>0.304036</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.296254</v>
+        <v>0.300914</v>
       </c>
       <c r="C110" t="n">
-        <v>0.304194</v>
+        <v>0.304375</v>
       </c>
       <c r="D110" t="n">
-        <v>0.300753</v>
+        <v>0.30557</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292921</v>
+        <v>0.294674</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30589</v>
+        <v>0.307495</v>
       </c>
       <c r="D111" t="n">
-        <v>0.306103</v>
+        <v>0.307074</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.29424</v>
+        <v>0.295772</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304742</v>
+        <v>0.305881</v>
       </c>
       <c r="D112" t="n">
-        <v>0.308501</v>
+        <v>0.309791</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.293965</v>
+        <v>0.295243</v>
       </c>
       <c r="C113" t="n">
-        <v>0.310862</v>
+        <v>0.312003</v>
       </c>
       <c r="D113" t="n">
-        <v>0.310459</v>
+        <v>0.311959</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295397</v>
+        <v>0.294451</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312461</v>
+        <v>0.310649</v>
       </c>
       <c r="D114" t="n">
-        <v>0.312938</v>
+        <v>0.31394</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.290976</v>
+        <v>0.298354</v>
       </c>
       <c r="C115" t="n">
-        <v>0.317438</v>
+        <v>0.317257</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316218</v>
+        <v>0.316343</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.299706</v>
+        <v>0.294458</v>
       </c>
       <c r="C116" t="n">
-        <v>0.319488</v>
+        <v>0.320113</v>
       </c>
       <c r="D116" t="n">
-        <v>0.31848</v>
+        <v>0.316864</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29363</v>
+        <v>0.296595</v>
       </c>
       <c r="C117" t="n">
-        <v>0.320194</v>
+        <v>0.322054</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321088</v>
+        <v>0.32038</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.298037</v>
+        <v>0.298044</v>
       </c>
       <c r="C118" t="n">
-        <v>0.324995</v>
+        <v>0.326324</v>
       </c>
       <c r="D118" t="n">
-        <v>0.324172</v>
+        <v>0.323631</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.291656</v>
+        <v>0.290767</v>
       </c>
       <c r="C119" t="n">
-        <v>0.328522</v>
+        <v>0.329394</v>
       </c>
       <c r="D119" t="n">
-        <v>0.327834</v>
+        <v>0.329217</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292098</v>
+        <v>0.300985</v>
       </c>
       <c r="C120" t="n">
-        <v>0.331296</v>
+        <v>0.333114</v>
       </c>
       <c r="D120" t="n">
-        <v>0.332353</v>
+        <v>0.333542</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.295608</v>
+        <v>0.301443</v>
       </c>
       <c r="C121" t="n">
-        <v>0.339232</v>
+        <v>0.33551</v>
       </c>
       <c r="D121" t="n">
-        <v>0.338058</v>
+        <v>0.339366</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.30269</v>
+        <v>0.308179</v>
       </c>
       <c r="C122" t="n">
-        <v>0.341226</v>
+        <v>0.346375</v>
       </c>
       <c r="D122" t="n">
-        <v>0.344746</v>
+        <v>0.346527</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.305299</v>
+        <v>0.305745</v>
       </c>
       <c r="C123" t="n">
-        <v>0.33239</v>
+        <v>0.331705</v>
       </c>
       <c r="D123" t="n">
-        <v>0.331032</v>
+        <v>0.332909</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.37837</v>
+        <v>0.376549</v>
       </c>
       <c r="C124" t="n">
-        <v>0.326128</v>
+        <v>0.330975</v>
       </c>
       <c r="D124" t="n">
-        <v>0.32726</v>
+        <v>0.328358</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377067</v>
+        <v>0.374339</v>
       </c>
       <c r="C125" t="n">
-        <v>0.327181</v>
+        <v>0.329049</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327309</v>
+        <v>0.328442</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.377847</v>
+        <v>0.37993</v>
       </c>
       <c r="C126" t="n">
-        <v>0.33039</v>
+        <v>0.331549</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330251</v>
+        <v>0.331243</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378839</v>
+        <v>0.375241</v>
       </c>
       <c r="C127" t="n">
-        <v>0.332991</v>
+        <v>0.334494</v>
       </c>
       <c r="D127" t="n">
-        <v>0.333007</v>
+        <v>0.334743</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.378995</v>
+        <v>0.379269</v>
       </c>
       <c r="C128" t="n">
-        <v>0.336158</v>
+        <v>0.337635</v>
       </c>
       <c r="D128" t="n">
-        <v>0.335983</v>
+        <v>0.337115</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379141</v>
+        <v>0.378731</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339792</v>
+        <v>0.340858</v>
       </c>
       <c r="D129" t="n">
-        <v>0.339625</v>
+        <v>0.340176</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.379693</v>
+        <v>0.375125</v>
       </c>
       <c r="C130" t="n">
-        <v>0.343076</v>
+        <v>0.344299</v>
       </c>
       <c r="D130" t="n">
-        <v>0.343163</v>
+        <v>0.343847</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378011</v>
+        <v>0.378828</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346928</v>
+        <v>0.348191</v>
       </c>
       <c r="D131" t="n">
-        <v>0.346626</v>
+        <v>0.348126</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.379701</v>
+        <v>0.379576</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350936</v>
+        <v>0.352427</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350657</v>
+        <v>0.351814</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.379183</v>
+        <v>0.377142</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355493</v>
+        <v>0.35467</v>
       </c>
       <c r="D133" t="n">
-        <v>0.356017</v>
+        <v>0.356859</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.380368</v>
+        <v>0.376956</v>
       </c>
       <c r="C134" t="n">
-        <v>0.361165</v>
+        <v>0.359384</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361044</v>
+        <v>0.361801</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.382084</v>
+        <v>0.384136</v>
       </c>
       <c r="C135" t="n">
-        <v>0.363444</v>
+        <v>0.36665</v>
       </c>
       <c r="D135" t="n">
-        <v>0.36806</v>
+        <v>0.369538</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.38207</v>
+        <v>0.381992</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373984</v>
+        <v>0.372052</v>
       </c>
       <c r="D136" t="n">
-        <v>0.377855</v>
+        <v>0.37894</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.386442</v>
+        <v>0.385169</v>
       </c>
       <c r="C137" t="n">
-        <v>0.34444</v>
+        <v>0.346258</v>
       </c>
       <c r="D137" t="n">
-        <v>0.344516</v>
+        <v>0.345604</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.440031</v>
+        <v>0.441382</v>
       </c>
       <c r="C138" t="n">
-        <v>0.344671</v>
+        <v>0.348148</v>
       </c>
       <c r="D138" t="n">
-        <v>0.346776</v>
+        <v>0.347514</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444708</v>
+        <v>0.447032</v>
       </c>
       <c r="C139" t="n">
-        <v>0.349297</v>
+        <v>0.3507</v>
       </c>
       <c r="D139" t="n">
-        <v>0.349274</v>
+        <v>0.350473</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.444668</v>
+        <v>0.447072</v>
       </c>
       <c r="C140" t="n">
-        <v>0.349425</v>
+        <v>0.350142</v>
       </c>
       <c r="D140" t="n">
-        <v>0.351911</v>
+        <v>0.352646</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.445505</v>
+        <v>0.442339</v>
       </c>
       <c r="C141" t="n">
-        <v>0.354639</v>
+        <v>0.35524</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354258</v>
+        <v>0.35582</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.440549</v>
+        <v>0.446755</v>
       </c>
       <c r="C142" t="n">
-        <v>0.353793</v>
+        <v>0.358223</v>
       </c>
       <c r="D142" t="n">
-        <v>0.356947</v>
+        <v>0.357281</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.440595</v>
+        <v>0.442765</v>
       </c>
       <c r="C143" t="n">
-        <v>0.360203</v>
+        <v>0.361272</v>
       </c>
       <c r="D143" t="n">
-        <v>0.359622</v>
+        <v>0.359696</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0511529</v>
+        <v>0.0532515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0576502</v>
+        <v>0.0559936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106452</v>
+        <v>0.10722</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0518475</v>
+        <v>0.0531266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0574773</v>
+        <v>0.0559611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106108</v>
+        <v>0.106825</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.050146</v>
+        <v>0.0501002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0563863</v>
+        <v>0.0536921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11159</v>
+        <v>0.111497</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0492828</v>
+        <v>0.0489702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0560271</v>
+        <v>0.0521708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.113551</v>
+        <v>0.114263</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0486228</v>
+        <v>0.0478838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0552442</v>
+        <v>0.0513685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120947</v>
+        <v>0.120167</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0520474</v>
+        <v>0.0536246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0590528</v>
+        <v>0.0575008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0876088</v>
+        <v>0.0878304</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0512611</v>
+        <v>0.0522844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0605171</v>
+        <v>0.0578065</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0902292</v>
+        <v>0.0900171</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0515863</v>
+        <v>0.0514665</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0520977</v>
+        <v>0.0560042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0933747</v>
+        <v>0.09333379999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501575</v>
+        <v>0.0512662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0519597</v>
+        <v>0.0550701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0957307</v>
+        <v>0.0956153</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0503796</v>
+        <v>0.0513937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0533245</v>
+        <v>0.0540992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0979486</v>
+        <v>0.0977555</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0504611</v>
+        <v>0.0515484</v>
       </c>
       <c r="C12" t="n">
-        <v>0.052849</v>
+        <v>0.0563294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102707</v>
+        <v>0.102373</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0505265</v>
+        <v>0.0516698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0530864</v>
+        <v>0.0565854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.106268</v>
+        <v>0.105878</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0510692</v>
+        <v>0.0512576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.054612</v>
+        <v>0.0553029</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109581</v>
+        <v>0.109105</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0509073</v>
+        <v>0.0519705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0536484</v>
+        <v>0.0569563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111873</v>
+        <v>0.111206</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0511554</v>
+        <v>0.052136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0541258</v>
+        <v>0.0577791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115276</v>
+        <v>0.114626</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0513687</v>
+        <v>0.0523002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0553301</v>
+        <v>0.0560133</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116588</v>
+        <v>0.116494</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0514734</v>
+        <v>0.0525327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0544762</v>
+        <v>0.0578514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1211</v>
+        <v>0.120953</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0516522</v>
+        <v>0.0530191</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0551141</v>
+        <v>0.05749</v>
       </c>
       <c r="D19" t="n">
-        <v>0.124573</v>
+        <v>0.124783</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0519186</v>
+        <v>0.053281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0557596</v>
+        <v>0.0580865</v>
       </c>
       <c r="D20" t="n">
-        <v>0.126848</v>
+        <v>0.127941</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0527681</v>
+        <v>0.051863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0580985</v>
+        <v>0.0569539</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0897139</v>
+        <v>0.0896671</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.053605</v>
+        <v>0.0528053</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0622759</v>
+        <v>0.0611164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0920699</v>
+        <v>0.0922992</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0540784</v>
+        <v>0.0535939</v>
       </c>
       <c r="C23" t="n">
-        <v>0.058314</v>
+        <v>0.0573698</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0944929</v>
+        <v>0.0948256</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0556621</v>
+        <v>0.0556504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0578673</v>
+        <v>0.0564564</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09790749999999999</v>
+        <v>0.09787510000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550576</v>
+        <v>0.0550595</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0581442</v>
+        <v>0.0569522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101072</v>
+        <v>0.101097</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0562082</v>
+        <v>0.0561102</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0586229</v>
+        <v>0.0573308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.10398</v>
+        <v>0.103849</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0551128</v>
+        <v>0.0554934</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0577465</v>
+        <v>0.0584242</v>
       </c>
       <c r="D27" t="n">
-        <v>0.107612</v>
+        <v>0.107859</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055214</v>
+        <v>0.055671</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0581998</v>
+        <v>0.0587324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111476</v>
+        <v>0.111218</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554405</v>
+        <v>0.0558849</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0585374</v>
+        <v>0.0588326</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114924</v>
+        <v>0.114999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556268</v>
+        <v>0.0558857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0588497</v>
+        <v>0.059452</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118725</v>
+        <v>0.118287</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.055785</v>
+        <v>0.0560891</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0591889</v>
+        <v>0.0598606</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122881</v>
+        <v>0.122703</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0561464</v>
+        <v>0.056511</v>
       </c>
       <c r="C32" t="n">
-        <v>0.059657</v>
+        <v>0.0596493</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125863</v>
+        <v>0.125427</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0576029</v>
+        <v>0.0561427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0609088</v>
+        <v>0.0598854</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129149</v>
+        <v>0.128869</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.058601</v>
+        <v>0.0570647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0630299</v>
+        <v>0.0614988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132215</v>
+        <v>0.132224</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569887</v>
+        <v>0.0573934</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0653224</v>
+        <v>0.0653503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0936794</v>
+        <v>0.0934576</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578764</v>
+        <v>0.0582031</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0719298</v>
+        <v>0.072129</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09562569999999999</v>
+        <v>0.0956605</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0602432</v>
+        <v>0.0609753</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0616154</v>
+        <v>0.0599131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0980026</v>
+        <v>0.0979299</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0621345</v>
+        <v>0.063384</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0621739</v>
+        <v>0.0600085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10109</v>
+        <v>0.10085</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0622159</v>
+        <v>0.0624619</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06351900000000001</v>
+        <v>0.060519</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103882</v>
+        <v>0.103606</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0602004</v>
+        <v>0.0613613</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0615423</v>
+        <v>0.061221</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107281</v>
+        <v>0.107109</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0611954</v>
+        <v>0.0632312</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0616732</v>
+        <v>0.061061</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110843</v>
+        <v>0.11073</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0609018</v>
+        <v>0.0641157</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0623587</v>
+        <v>0.0617087</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11426</v>
+        <v>0.11405</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0614943</v>
+        <v>0.06261079999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0634575</v>
+        <v>0.0621766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117929</v>
+        <v>0.117775</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0616852</v>
+        <v>0.0627453</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0638968</v>
+        <v>0.06263920000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121907</v>
+        <v>0.121781</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0617984</v>
+        <v>0.0629073</v>
       </c>
       <c r="C45" t="n">
-        <v>0.063704</v>
+        <v>0.0629802</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125873</v>
+        <v>0.125656</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0608429</v>
+        <v>0.06561839999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0654759</v>
+        <v>0.0642081</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129057</v>
+        <v>0.128987</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0631593</v>
+        <v>0.0681529</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0682102</v>
+        <v>0.065307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132025</v>
+        <v>0.131878</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0640169</v>
+        <v>0.06363290000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0716981</v>
+        <v>0.0680429</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135865</v>
+        <v>0.135728</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0622883</v>
+        <v>0.0642026</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07450560000000001</v>
+        <v>0.072047</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138999</v>
+        <v>0.138912</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0636708</v>
+        <v>0.0661214</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0795911</v>
+        <v>0.0769735</v>
       </c>
       <c r="D50" t="n">
-        <v>0.097785</v>
+        <v>0.0979724</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0668044</v>
+        <v>0.0679791</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0667403</v>
+        <v>0.0644421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0997565</v>
+        <v>0.100181</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0742612</v>
+        <v>0.0742791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0675577</v>
+        <v>0.06619940000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102515</v>
+        <v>0.102888</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06767239999999999</v>
+        <v>0.06813429999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.065215</v>
+        <v>0.06508650000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.106071</v>
+        <v>0.105859</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0680354</v>
+        <v>0.0665756</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0683874</v>
+        <v>0.06776799999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108903</v>
+        <v>0.109048</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0686218</v>
+        <v>0.06838039999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06608550000000001</v>
+        <v>0.0658763</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112374</v>
+        <v>0.112864</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07071520000000001</v>
+        <v>0.07077509999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06819450000000001</v>
+        <v>0.0669739</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116242</v>
+        <v>0.116736</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06898600000000001</v>
+        <v>0.06857389999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.067551</v>
+        <v>0.0685071</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120033</v>
+        <v>0.120737</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0706818</v>
+        <v>0.0710099</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0677364</v>
+        <v>0.06801980000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123363</v>
+        <v>0.124359</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0688897</v>
+        <v>0.0687841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0688575</v>
+        <v>0.0703331</v>
       </c>
       <c r="D59" t="n">
-        <v>0.12726</v>
+        <v>0.128588</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0696893</v>
+        <v>0.0711377</v>
       </c>
       <c r="C60" t="n">
-        <v>0.069761</v>
+        <v>0.071884</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131407</v>
+        <v>0.132623</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06934559999999999</v>
+        <v>0.0681881</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0716073</v>
+        <v>0.0738292</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135158</v>
+        <v>0.137416</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07090539999999999</v>
+        <v>0.07172820000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0741927</v>
+        <v>0.074738</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138893</v>
+        <v>0.141153</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704722</v>
+        <v>0.0695972</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0774171</v>
+        <v>0.07964690000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142953</v>
+        <v>0.145337</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0723679</v>
+        <v>0.072626</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0816865</v>
+        <v>0.0823484</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106944</v>
+        <v>0.106684</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0759198</v>
+        <v>0.0764233</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0882019</v>
+        <v>0.0905362</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110748</v>
+        <v>0.111711</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0797726</v>
+        <v>0.0790603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0686237</v>
+        <v>0.0756646</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116596</v>
+        <v>0.115139</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0830106</v>
+        <v>0.106502</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0691546</v>
+        <v>0.0760038</v>
       </c>
       <c r="D67" t="n">
-        <v>0.120046</v>
+        <v>0.119521</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0885152</v>
+        <v>0.100962</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06912509999999999</v>
+        <v>0.0795976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.124677</v>
+        <v>0.125886</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08355890000000001</v>
+        <v>0.108612</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0702648</v>
+        <v>0.0773451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.130645</v>
+        <v>0.131298</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0842376</v>
+        <v>0.109208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0708389</v>
+        <v>0.0785849</v>
       </c>
       <c r="D70" t="n">
-        <v>0.137945</v>
+        <v>0.138363</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0856879</v>
+        <v>0.101884</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0720605</v>
+        <v>0.07786079999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.143019</v>
+        <v>0.146435</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0903419</v>
+        <v>0.103082</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0754061</v>
+        <v>0.079578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.150167</v>
+        <v>0.154199</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09056309999999999</v>
+        <v>0.10326</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0763537</v>
+        <v>0.0808991</v>
       </c>
       <c r="D73" t="n">
-        <v>0.159886</v>
+        <v>0.161252</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09039850000000001</v>
+        <v>0.104635</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0777487</v>
+        <v>0.0822399</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168673</v>
+        <v>0.170665</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08606370000000001</v>
+        <v>0.105045</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0768255</v>
+        <v>0.0868157</v>
       </c>
       <c r="D75" t="n">
-        <v>0.179987</v>
+        <v>0.181372</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.088892</v>
+        <v>0.106276</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0789614</v>
+        <v>0.0891372</v>
       </c>
       <c r="D76" t="n">
-        <v>0.184926</v>
+        <v>0.19147</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08895459999999999</v>
+        <v>0.0982367</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0828159</v>
+        <v>0.086228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192173</v>
+        <v>0.201675</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0902459</v>
+        <v>0.107693</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08607960000000001</v>
+        <v>0.09504890000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.191196</v>
+        <v>0.200152</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0921888</v>
+        <v>0.10528</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0925975</v>
+        <v>0.09773950000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.199458</v>
+        <v>0.214466</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0959194</v>
+        <v>0.113379</v>
       </c>
       <c r="C80" t="n">
-        <v>0.113978</v>
+        <v>0.116807</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20651</v>
+        <v>0.218407</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181994</v>
+        <v>0.185883</v>
       </c>
       <c r="C81" t="n">
-        <v>0.115368</v>
+        <v>0.121446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.215547</v>
+        <v>0.219291</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182484</v>
+        <v>0.185979</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1201</v>
+        <v>0.120852</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22473</v>
+        <v>0.232035</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182667</v>
+        <v>0.183437</v>
       </c>
       <c r="C83" t="n">
-        <v>0.119296</v>
+        <v>0.122928</v>
       </c>
       <c r="D83" t="n">
-        <v>0.230167</v>
+        <v>0.240664</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182958</v>
+        <v>0.18362</v>
       </c>
       <c r="C84" t="n">
-        <v>0.123617</v>
+        <v>0.12683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242337</v>
+        <v>0.252766</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183708</v>
+        <v>0.184971</v>
       </c>
       <c r="C85" t="n">
-        <v>0.123778</v>
+        <v>0.127509</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253441</v>
+        <v>0.257173</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182477</v>
+        <v>0.187891</v>
       </c>
       <c r="C86" t="n">
-        <v>0.124524</v>
+        <v>0.130904</v>
       </c>
       <c r="D86" t="n">
-        <v>0.262663</v>
+        <v>0.272353</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183919</v>
+        <v>0.18761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.127026</v>
+        <v>0.131221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.273541</v>
+        <v>0.274078</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.184076</v>
+        <v>0.189394</v>
       </c>
       <c r="C88" t="n">
-        <v>0.130081</v>
+        <v>0.136307</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279651</v>
+        <v>0.286852</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186758</v>
+        <v>0.190597</v>
       </c>
       <c r="C89" t="n">
-        <v>0.134644</v>
+        <v>0.144075</v>
       </c>
       <c r="D89" t="n">
-        <v>0.293738</v>
+        <v>0.299631</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.18743</v>
+        <v>0.190966</v>
       </c>
       <c r="C90" t="n">
-        <v>0.137793</v>
+        <v>0.146142</v>
       </c>
       <c r="D90" t="n">
-        <v>0.304219</v>
+        <v>0.312314</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187992</v>
+        <v>0.191137</v>
       </c>
       <c r="C91" t="n">
-        <v>0.142601</v>
+        <v>0.14874</v>
       </c>
       <c r="D91" t="n">
-        <v>0.314653</v>
+        <v>0.312828</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18938</v>
+        <v>0.190977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.143973</v>
+        <v>0.152235</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290349</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.192256</v>
+        <v>0.193348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150145</v>
+        <v>0.153397</v>
       </c>
       <c r="D93" t="n">
-        <v>0.299565</v>
+        <v>0.300331</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193661</v>
+        <v>0.196505</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241593</v>
+        <v>0.237025</v>
       </c>
       <c r="D94" t="n">
-        <v>0.306454</v>
+        <v>0.307427</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256232</v>
+        <v>0.256571</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240481</v>
+        <v>0.240263</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315187</v>
+        <v>0.315636</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256746</v>
+        <v>0.256772</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246084</v>
+        <v>0.241771</v>
       </c>
       <c r="D96" t="n">
-        <v>0.32492</v>
+        <v>0.324997</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254712</v>
+        <v>0.257375</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247198</v>
+        <v>0.247792</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331263</v>
+        <v>0.331398</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.256829</v>
+        <v>0.25737</v>
       </c>
       <c r="C98" t="n">
-        <v>0.24864</v>
+        <v>0.249813</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340651</v>
+        <v>0.341335</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25746</v>
+        <v>0.257299</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25222</v>
+        <v>0.248571</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348353</v>
+        <v>0.348024</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.256769</v>
+        <v>0.254978</v>
       </c>
       <c r="C100" t="n">
-        <v>0.25172</v>
+        <v>0.251042</v>
       </c>
       <c r="D100" t="n">
-        <v>0.357942</v>
+        <v>0.358045</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257404</v>
+        <v>0.257168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.251923</v>
+        <v>0.25219</v>
       </c>
       <c r="D101" t="n">
-        <v>0.366288</v>
+        <v>0.365211</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257466</v>
+        <v>0.257408</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254038</v>
+        <v>0.254901</v>
       </c>
       <c r="D102" t="n">
-        <v>0.374674</v>
+        <v>0.373928</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257459</v>
+        <v>0.257445</v>
       </c>
       <c r="C103" t="n">
-        <v>0.260842</v>
+        <v>0.257564</v>
       </c>
       <c r="D103" t="n">
-        <v>0.386748</v>
+        <v>0.385858</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255371</v>
+        <v>0.258092</v>
       </c>
       <c r="C104" t="n">
-        <v>0.260718</v>
+        <v>0.261715</v>
       </c>
       <c r="D104" t="n">
-        <v>0.396102</v>
+        <v>0.395417</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258942</v>
+        <v>0.25813</v>
       </c>
       <c r="C105" t="n">
-        <v>0.266602</v>
+        <v>0.263753</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405168</v>
+        <v>0.404147</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259887</v>
+        <v>0.259721</v>
       </c>
       <c r="C106" t="n">
-        <v>0.26679</v>
+        <v>0.268741</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416209</v>
+        <v>0.414644</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.260659</v>
+        <v>0.26148</v>
       </c>
       <c r="C107" t="n">
-        <v>0.273387</v>
+        <v>0.274441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.355056</v>
+        <v>0.35448</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.264156</v>
+        <v>0.263423</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299735</v>
+        <v>0.296361</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355229</v>
+        <v>0.355366</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268168</v>
+        <v>0.268369</v>
       </c>
       <c r="C109" t="n">
-        <v>0.297309</v>
+        <v>0.297517</v>
       </c>
       <c r="D109" t="n">
-        <v>0.36505</v>
+        <v>0.365214</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.292349</v>
+        <v>0.29428</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302808</v>
+        <v>0.303239</v>
       </c>
       <c r="D110" t="n">
-        <v>0.370325</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.290618</v>
+        <v>0.287735</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305607</v>
+        <v>0.305677</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377154</v>
+        <v>0.377359</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.295457</v>
+        <v>0.287389</v>
       </c>
       <c r="C112" t="n">
-        <v>0.307889</v>
+        <v>0.307325</v>
       </c>
       <c r="D112" t="n">
-        <v>0.388457</v>
+        <v>0.388646</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.294431</v>
+        <v>0.297046</v>
       </c>
       <c r="C113" t="n">
-        <v>0.310358</v>
+        <v>0.310919</v>
       </c>
       <c r="D113" t="n">
-        <v>0.397139</v>
+        <v>0.397208</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.290618</v>
+        <v>0.295404</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312632</v>
+        <v>0.312511</v>
       </c>
       <c r="D114" t="n">
-        <v>0.412364</v>
+        <v>0.412009</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286798</v>
+        <v>0.288983</v>
       </c>
       <c r="C115" t="n">
-        <v>0.314651</v>
+        <v>0.315976</v>
       </c>
       <c r="D115" t="n">
-        <v>0.42211</v>
+        <v>0.421386</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.29152</v>
+        <v>0.289937</v>
       </c>
       <c r="C116" t="n">
-        <v>0.317988</v>
+        <v>0.314147</v>
       </c>
       <c r="D116" t="n">
-        <v>0.430627</v>
+        <v>0.429936</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.299006</v>
+        <v>0.293778</v>
       </c>
       <c r="C117" t="n">
-        <v>0.320416</v>
+        <v>0.317789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.436913</v>
+        <v>0.436389</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294362</v>
+        <v>0.294106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.324033</v>
+        <v>0.323936</v>
       </c>
       <c r="D118" t="n">
-        <v>0.443122</v>
+        <v>0.442591</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.298693</v>
+        <v>0.29628</v>
       </c>
       <c r="C119" t="n">
-        <v>0.327511</v>
+        <v>0.328239</v>
       </c>
       <c r="D119" t="n">
-        <v>0.455539</v>
+        <v>0.455506</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.296105</v>
+        <v>0.298533</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332364</v>
+        <v>0.332829</v>
       </c>
       <c r="D120" t="n">
-        <v>0.465059</v>
+        <v>0.464767</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292468</v>
+        <v>0.29225</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338048</v>
+        <v>0.338008</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383776</v>
+        <v>0.383632</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.299267</v>
+        <v>0.302274</v>
       </c>
       <c r="C122" t="n">
-        <v>0.344566</v>
+        <v>0.345265</v>
       </c>
       <c r="D122" t="n">
-        <v>0.394302</v>
+        <v>0.394148</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.306687</v>
+        <v>0.307266</v>
       </c>
       <c r="C123" t="n">
-        <v>0.329285</v>
+        <v>0.332043</v>
       </c>
       <c r="D123" t="n">
-        <v>0.395907</v>
+        <v>0.396138</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.379108</v>
+        <v>0.369666</v>
       </c>
       <c r="C124" t="n">
-        <v>0.326269</v>
+        <v>0.325662</v>
       </c>
       <c r="D124" t="n">
-        <v>0.406186</v>
+        <v>0.406214</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.379896</v>
+        <v>0.376762</v>
       </c>
       <c r="C125" t="n">
-        <v>0.326975</v>
+        <v>0.324401</v>
       </c>
       <c r="D125" t="n">
-        <v>0.407744</v>
+        <v>0.407623</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.380718</v>
+        <v>0.368956</v>
       </c>
       <c r="C126" t="n">
-        <v>0.330324</v>
+        <v>0.330148</v>
       </c>
       <c r="D126" t="n">
-        <v>0.422442</v>
+        <v>0.42287</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368852</v>
+        <v>0.379343</v>
       </c>
       <c r="C127" t="n">
-        <v>0.329879</v>
+        <v>0.333541</v>
       </c>
       <c r="D127" t="n">
-        <v>0.425489</v>
+        <v>0.425516</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.377524</v>
+        <v>0.376103</v>
       </c>
       <c r="C128" t="n">
-        <v>0.336501</v>
+        <v>0.335749</v>
       </c>
       <c r="D128" t="n">
-        <v>0.43992</v>
+        <v>0.439771</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.380024</v>
+        <v>0.376294</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339607</v>
+        <v>0.339346</v>
       </c>
       <c r="D129" t="n">
-        <v>0.446925</v>
+        <v>0.446309</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.379042</v>
+        <v>0.377155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.342675</v>
+        <v>0.339006</v>
       </c>
       <c r="D130" t="n">
-        <v>0.456362</v>
+        <v>0.456472</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.373703</v>
+        <v>0.378516</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346688</v>
+        <v>0.346725</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462267</v>
+        <v>0.462414</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37543</v>
+        <v>0.37903</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350633</v>
+        <v>0.350881</v>
       </c>
       <c r="D132" t="n">
-        <v>0.47366</v>
+        <v>0.473735</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.382938</v>
+        <v>0.378683</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355863</v>
+        <v>0.355454</v>
       </c>
       <c r="D133" t="n">
-        <v>0.485038</v>
+        <v>0.484909</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374607</v>
+        <v>0.376216</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36201</v>
+        <v>0.360813</v>
       </c>
       <c r="D134" t="n">
-        <v>0.49366</v>
+        <v>0.494171</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.379866</v>
+        <v>0.380957</v>
       </c>
       <c r="C135" t="n">
-        <v>0.367604</v>
+        <v>0.364875</v>
       </c>
       <c r="D135" t="n">
-        <v>0.403126</v>
+        <v>0.403774</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371243</v>
+        <v>0.381732</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373366</v>
+        <v>0.373907</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409751</v>
+        <v>0.410067</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.380884</v>
+        <v>0.387728</v>
       </c>
       <c r="C137" t="n">
-        <v>0.344103</v>
+        <v>0.344426</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417518</v>
+        <v>0.417466</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44456</v>
+        <v>0.444323</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343964</v>
+        <v>0.346315</v>
       </c>
       <c r="D138" t="n">
-        <v>0.417192</v>
+        <v>0.41767</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443847</v>
+        <v>0.443689</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348494</v>
+        <v>0.348781</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422589</v>
+        <v>0.424837</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44417</v>
+        <v>0.44468</v>
       </c>
       <c r="C140" t="n">
-        <v>0.350908</v>
+        <v>0.351777</v>
       </c>
       <c r="D140" t="n">
-        <v>0.437763</v>
+        <v>0.438094</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444309</v>
+        <v>0.439114</v>
       </c>
       <c r="C141" t="n">
-        <v>0.351965</v>
+        <v>0.350263</v>
       </c>
       <c r="D141" t="n">
-        <v>0.444005</v>
+        <v>0.445906</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444085</v>
+        <v>0.444211</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356164</v>
+        <v>0.356614</v>
       </c>
       <c r="D142" t="n">
-        <v>0.449578</v>
+        <v>0.447731</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.44462</v>
+        <v>0.444773</v>
       </c>
       <c r="C143" t="n">
-        <v>0.360049</v>
+        <v>0.359614</v>
       </c>
       <c r="D143" t="n">
-        <v>0.464749</v>
+        <v>0.464795</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0532515</v>
+        <v>0.0440346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0559936</v>
+        <v>0.0513007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10722</v>
+        <v>0.0682666</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0531266</v>
+        <v>0.0443366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0559611</v>
+        <v>0.0514971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106825</v>
+        <v>0.0763342</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0501002</v>
+        <v>0.0429664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536921</v>
+        <v>0.0505838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111497</v>
+        <v>0.0834164</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0489702</v>
+        <v>0.0431465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0521708</v>
+        <v>0.0508036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114263</v>
+        <v>0.0911619</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0478838</v>
+        <v>0.0431152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0513685</v>
+        <v>0.0516643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120167</v>
+        <v>0.0966682</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0536246</v>
+        <v>0.0438254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0575008</v>
+        <v>0.0525227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0878304</v>
+        <v>0.0611498</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0522844</v>
+        <v>0.0439344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0578065</v>
+        <v>0.0542135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0900171</v>
+        <v>0.06435390000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0514665</v>
+        <v>0.0448082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0560042</v>
+        <v>0.0594731</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09333379999999999</v>
+        <v>0.0690361</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0512662</v>
+        <v>0.0538633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0550701</v>
+        <v>0.0616033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0956153</v>
+        <v>0.0732434</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0513937</v>
+        <v>0.055107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0540992</v>
+        <v>0.0599716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0977555</v>
+        <v>0.0786039</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0515484</v>
+        <v>0.0542502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0563294</v>
+        <v>0.0609482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102373</v>
+        <v>0.0841812</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0516698</v>
+        <v>0.0541681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0565854</v>
+        <v>0.0613744</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105878</v>
+        <v>0.0894739</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0512576</v>
+        <v>0.0534583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0553029</v>
+        <v>0.0610321</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109105</v>
+        <v>0.0945613</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0519705</v>
+        <v>0.0543076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0569563</v>
+        <v>0.0634806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111206</v>
+        <v>0.0995429</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.052136</v>
+        <v>0.0552916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577791</v>
+        <v>0.0617943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114626</v>
+        <v>0.103999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0523002</v>
+        <v>0.0555457</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0560133</v>
+        <v>0.0619608</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116494</v>
+        <v>0.108285</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525327</v>
+        <v>0.0550951</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0578514</v>
+        <v>0.0648995</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120953</v>
+        <v>0.113102</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0530191</v>
+        <v>0.0549774</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05749</v>
+        <v>0.0650188</v>
       </c>
       <c r="D19" t="n">
-        <v>0.124783</v>
+        <v>0.117575</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.053281</v>
+        <v>0.0551691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0580865</v>
+        <v>0.0657523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.127941</v>
+        <v>0.121305</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.051863</v>
+        <v>0.0557874</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0569539</v>
+        <v>0.0662329</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0896671</v>
+        <v>0.0861806</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0528053</v>
+        <v>0.0548982</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0611164</v>
+        <v>0.0677069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0922992</v>
+        <v>0.089072</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0535939</v>
+        <v>0.0590931</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0573698</v>
+        <v>0.0606272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0948256</v>
+        <v>0.0926009</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0556504</v>
+        <v>0.0553235</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564564</v>
+        <v>0.0601958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09787510000000001</v>
+        <v>0.0959892</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550595</v>
+        <v>0.0550695</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0569522</v>
+        <v>0.0608104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101097</v>
+        <v>0.09971670000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561102</v>
+        <v>0.0554884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0573308</v>
+        <v>0.05988</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103849</v>
+        <v>0.103316</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554934</v>
+        <v>0.0549578</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0584242</v>
+        <v>0.0599153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.107859</v>
+        <v>0.107262</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055671</v>
+        <v>0.0550241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0587324</v>
+        <v>0.0603383</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111218</v>
+        <v>0.11147</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0558849</v>
+        <v>0.0553275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0588326</v>
+        <v>0.0603709</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114999</v>
+        <v>0.115417</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558857</v>
+        <v>0.0553021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.059452</v>
+        <v>0.0610515</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118287</v>
+        <v>0.119429</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0560891</v>
+        <v>0.055587</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0598606</v>
+        <v>0.0615417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122703</v>
+        <v>0.123594</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056511</v>
+        <v>0.0558911</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0596493</v>
+        <v>0.062125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125427</v>
+        <v>0.125563</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0561427</v>
+        <v>0.0562903</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0598854</v>
+        <v>0.0627427</v>
       </c>
       <c r="D33" t="n">
-        <v>0.128869</v>
+        <v>0.129637</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0570647</v>
+        <v>0.0565886</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0614988</v>
+        <v>0.0648169</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132224</v>
+        <v>0.133146</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573934</v>
+        <v>0.0568109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0653503</v>
+        <v>0.0687133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0934576</v>
+        <v>0.0927771</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0582031</v>
+        <v>0.0578625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.072129</v>
+        <v>0.0750816</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0956605</v>
+        <v>0.0949786</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609753</v>
+        <v>0.0605793</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0599131</v>
+        <v>0.065335</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0979299</v>
+        <v>0.0973441</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.063384</v>
+        <v>0.0609173</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0600085</v>
+        <v>0.0659179</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10085</v>
+        <v>0.100318</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0624619</v>
+        <v>0.0626771</v>
       </c>
       <c r="C39" t="n">
-        <v>0.060519</v>
+        <v>0.0660819</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103606</v>
+        <v>0.103314</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0613613</v>
+        <v>0.0621409</v>
       </c>
       <c r="C40" t="n">
-        <v>0.061221</v>
+        <v>0.0653663</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107109</v>
+        <v>0.106654</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0632312</v>
+        <v>0.0597359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.061061</v>
+        <v>0.0645472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11073</v>
+        <v>0.110235</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0641157</v>
+        <v>0.060156</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0617087</v>
+        <v>0.0648196</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11405</v>
+        <v>0.113723</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06261079999999999</v>
+        <v>0.0617989</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0621766</v>
+        <v>0.0652461</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117775</v>
+        <v>0.117483</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0627453</v>
+        <v>0.0619287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06263920000000001</v>
+        <v>0.06575590000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121781</v>
+        <v>0.121614</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0629073</v>
+        <v>0.0621131</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0629802</v>
+        <v>0.0667348</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125656</v>
+        <v>0.125405</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06561839999999999</v>
+        <v>0.0616624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0642081</v>
+        <v>0.0673262</v>
       </c>
       <c r="D46" t="n">
-        <v>0.128987</v>
+        <v>0.128945</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0681529</v>
+        <v>0.0622936</v>
       </c>
       <c r="C47" t="n">
-        <v>0.065307</v>
+        <v>0.0716355</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131878</v>
+        <v>0.132008</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06363290000000001</v>
+        <v>0.0631781</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0680429</v>
+        <v>0.07442</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135728</v>
+        <v>0.135652</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0642026</v>
+        <v>0.0628831</v>
       </c>
       <c r="C49" t="n">
-        <v>0.072047</v>
+        <v>0.0759894</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138912</v>
+        <v>0.138662</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0661214</v>
+        <v>0.064549</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0769735</v>
+        <v>0.0813268</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0979724</v>
+        <v>0.09711930000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0679791</v>
+        <v>0.0684631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0644421</v>
+        <v>0.0716552</v>
       </c>
       <c r="D51" t="n">
-        <v>0.100181</v>
+        <v>0.0993496</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0742791</v>
+        <v>0.0750304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06619940000000001</v>
+        <v>0.0718723</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102888</v>
+        <v>0.102062</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06813429999999999</v>
+        <v>0.0675441</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0685848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105859</v>
+        <v>0.10521</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0665756</v>
+        <v>0.0686175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06776799999999999</v>
+        <v>0.0687977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.109048</v>
+        <v>0.108128</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06838039999999999</v>
+        <v>0.06767140000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0658763</v>
+        <v>0.0694028</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112864</v>
+        <v>0.111861</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07077509999999999</v>
+        <v>0.06852</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0669739</v>
+        <v>0.0732207</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116736</v>
+        <v>0.115706</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06857389999999999</v>
+        <v>0.0679525</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0685071</v>
+        <v>0.07019499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120737</v>
+        <v>0.119585</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0710099</v>
+        <v>0.068129</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06801980000000001</v>
+        <v>0.07092809999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.124359</v>
+        <v>0.123309</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0687841</v>
+        <v>0.0682236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0703331</v>
+        <v>0.072584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.128588</v>
+        <v>0.127005</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0711377</v>
+        <v>0.0689712</v>
       </c>
       <c r="C60" t="n">
-        <v>0.071884</v>
+        <v>0.0733944</v>
       </c>
       <c r="D60" t="n">
-        <v>0.132623</v>
+        <v>0.130788</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0681881</v>
+        <v>0.0689992</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0738292</v>
+        <v>0.0750041</v>
       </c>
       <c r="D61" t="n">
-        <v>0.137416</v>
+        <v>0.134694</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07172820000000001</v>
+        <v>0.0701373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.074738</v>
+        <v>0.0814436</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141153</v>
+        <v>0.138684</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0695972</v>
+        <v>0.06922399999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07964690000000001</v>
+        <v>0.0842846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145337</v>
+        <v>0.142446</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072626</v>
+        <v>0.07321660000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0823484</v>
+        <v>0.08922430000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106684</v>
+        <v>0.107017</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0764233</v>
+        <v>0.0758611</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0905362</v>
+        <v>0.0969626</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111711</v>
+        <v>0.111326</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790603</v>
+        <v>0.07910150000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0756646</v>
+        <v>0.0716412</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115139</v>
+        <v>0.114138</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106502</v>
+        <v>0.08503529999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0760038</v>
+        <v>0.0719587</v>
       </c>
       <c r="D67" t="n">
-        <v>0.119521</v>
+        <v>0.119412</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.100962</v>
+        <v>0.0936833</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0795976</v>
+        <v>0.0726212</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125886</v>
+        <v>0.123308</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.108612</v>
+        <v>0.0874188</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0773451</v>
+        <v>0.0736547</v>
       </c>
       <c r="D69" t="n">
-        <v>0.131298</v>
+        <v>0.128343</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.109208</v>
+        <v>0.08819929999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0785849</v>
+        <v>0.07422579999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138363</v>
+        <v>0.134661</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.101884</v>
+        <v>0.0931152</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07786079999999999</v>
+        <v>0.07496460000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.146435</v>
+        <v>0.141682</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103082</v>
+        <v>0.103818</v>
       </c>
       <c r="C72" t="n">
-        <v>0.079578</v>
+        <v>0.08046399999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.154199</v>
+        <v>0.147515</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10326</v>
+        <v>0.10399</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0808991</v>
+        <v>0.0820563</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161252</v>
+        <v>0.153549</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104635</v>
+        <v>0.104256</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0822399</v>
+        <v>0.0837137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.170665</v>
+        <v>0.161017</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.105045</v>
+        <v>0.102867</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0868157</v>
+        <v>0.0847059</v>
       </c>
       <c r="D75" t="n">
-        <v>0.181372</v>
+        <v>0.171774</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.106276</v>
+        <v>0.101163</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0891372</v>
+        <v>0.0870467</v>
       </c>
       <c r="D76" t="n">
-        <v>0.19147</v>
+        <v>0.178501</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0982367</v>
+        <v>0.105456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.086228</v>
+        <v>0.09125759999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.201675</v>
+        <v>0.186506</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107693</v>
+        <v>0.103489</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09504890000000001</v>
+        <v>0.0940545</v>
       </c>
       <c r="D78" t="n">
-        <v>0.200152</v>
+        <v>0.199439</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10528</v>
+        <v>0.10988</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09773950000000001</v>
+        <v>0.101646</v>
       </c>
       <c r="D79" t="n">
-        <v>0.214466</v>
+        <v>0.207323</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.113379</v>
+        <v>0.110215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.116807</v>
+        <v>0.118045</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218407</v>
+        <v>0.213088</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.185883</v>
+        <v>0.180875</v>
       </c>
       <c r="C81" t="n">
-        <v>0.121446</v>
+        <v>0.126152</v>
       </c>
       <c r="D81" t="n">
-        <v>0.219291</v>
+        <v>0.218529</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185979</v>
+        <v>0.181521</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120852</v>
+        <v>0.124445</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232035</v>
+        <v>0.228921</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183437</v>
+        <v>0.183412</v>
       </c>
       <c r="C83" t="n">
-        <v>0.122928</v>
+        <v>0.12674</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240664</v>
+        <v>0.236068</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18362</v>
+        <v>0.183808</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12683</v>
+        <v>0.128489</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252766</v>
+        <v>0.247693</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184971</v>
+        <v>0.184867</v>
       </c>
       <c r="C85" t="n">
-        <v>0.127509</v>
+        <v>0.131894</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257173</v>
+        <v>0.25653</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.187891</v>
+        <v>0.183743</v>
       </c>
       <c r="C86" t="n">
-        <v>0.130904</v>
+        <v>0.134278</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272353</v>
+        <v>0.266907</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18761</v>
+        <v>0.185302</v>
       </c>
       <c r="C87" t="n">
-        <v>0.131221</v>
+        <v>0.136644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274078</v>
+        <v>0.275359</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.189394</v>
+        <v>0.186473</v>
       </c>
       <c r="C88" t="n">
-        <v>0.136307</v>
+        <v>0.140748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.286852</v>
+        <v>0.284165</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.190597</v>
+        <v>0.186128</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144075</v>
+        <v>0.146082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.299631</v>
+        <v>0.296819</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.190966</v>
+        <v>0.186853</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146142</v>
+        <v>0.148332</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312314</v>
+        <v>0.304414</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191137</v>
+        <v>0.187529</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14874</v>
+        <v>0.147097</v>
       </c>
       <c r="D91" t="n">
-        <v>0.312828</v>
+        <v>0.312699</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190977</v>
+        <v>0.188649</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152235</v>
+        <v>0.155406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2911</v>
+        <v>0.290193</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193348</v>
+        <v>0.189667</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153397</v>
+        <v>0.158455</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300331</v>
+        <v>0.299216</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196505</v>
+        <v>0.192732</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237025</v>
+        <v>0.258083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307427</v>
+        <v>0.306153</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256571</v>
+        <v>0.255724</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240263</v>
+        <v>0.261387</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315636</v>
+        <v>0.314826</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256772</v>
+        <v>0.256054</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241771</v>
+        <v>0.261703</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324997</v>
+        <v>0.324435</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257375</v>
+        <v>0.256262</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247792</v>
+        <v>0.263695</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331398</v>
+        <v>0.330583</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25737</v>
+        <v>0.256292</v>
       </c>
       <c r="C98" t="n">
-        <v>0.249813</v>
+        <v>0.265668</v>
       </c>
       <c r="D98" t="n">
-        <v>0.341335</v>
+        <v>0.339858</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.257299</v>
+        <v>0.256395</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248571</v>
+        <v>0.267431</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348024</v>
+        <v>0.347476</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254978</v>
+        <v>0.257132</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251042</v>
+        <v>0.268032</v>
       </c>
       <c r="D100" t="n">
-        <v>0.358045</v>
+        <v>0.358117</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257168</v>
+        <v>0.257158</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25219</v>
+        <v>0.27219</v>
       </c>
       <c r="D101" t="n">
-        <v>0.365211</v>
+        <v>0.364641</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257408</v>
+        <v>0.256851</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254901</v>
+        <v>0.274596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373928</v>
+        <v>0.373469</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257445</v>
+        <v>0.25677</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257564</v>
+        <v>0.276729</v>
       </c>
       <c r="D103" t="n">
-        <v>0.385858</v>
+        <v>0.385106</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258092</v>
+        <v>0.257392</v>
       </c>
       <c r="C104" t="n">
-        <v>0.261715</v>
+        <v>0.279267</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395417</v>
+        <v>0.394737</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25813</v>
+        <v>0.257251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.263753</v>
+        <v>0.281269</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404147</v>
+        <v>0.403491</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259721</v>
+        <v>0.258893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268741</v>
+        <v>0.284288</v>
       </c>
       <c r="D106" t="n">
-        <v>0.414644</v>
+        <v>0.414374</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.26148</v>
+        <v>0.260297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.274441</v>
+        <v>0.288626</v>
       </c>
       <c r="D107" t="n">
-        <v>0.35448</v>
+        <v>0.349529</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263423</v>
+        <v>0.26289</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296361</v>
+        <v>0.314257</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355366</v>
+        <v>0.360439</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268369</v>
+        <v>0.267563</v>
       </c>
       <c r="C109" t="n">
-        <v>0.297517</v>
+        <v>0.315632</v>
       </c>
       <c r="D109" t="n">
-        <v>0.365214</v>
+        <v>0.37006</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29428</v>
+        <v>0.291739</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303239</v>
+        <v>0.319183</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3705</v>
+        <v>0.375299</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287735</v>
+        <v>0.291342</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305677</v>
+        <v>0.32006</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377359</v>
+        <v>0.382142</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.287389</v>
+        <v>0.290029</v>
       </c>
       <c r="C112" t="n">
-        <v>0.307325</v>
+        <v>0.319601</v>
       </c>
       <c r="D112" t="n">
-        <v>0.388646</v>
+        <v>0.393011</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.297046</v>
+        <v>0.294316</v>
       </c>
       <c r="C113" t="n">
-        <v>0.310919</v>
+        <v>0.324579</v>
       </c>
       <c r="D113" t="n">
-        <v>0.397208</v>
+        <v>0.401822</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295404</v>
+        <v>0.294236</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312511</v>
+        <v>0.326264</v>
       </c>
       <c r="D114" t="n">
-        <v>0.412009</v>
+        <v>0.412068</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288983</v>
+        <v>0.291747</v>
       </c>
       <c r="C115" t="n">
-        <v>0.315976</v>
+        <v>0.327951</v>
       </c>
       <c r="D115" t="n">
-        <v>0.421386</v>
+        <v>0.4215</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289937</v>
+        <v>0.291527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.314147</v>
+        <v>0.332702</v>
       </c>
       <c r="D116" t="n">
-        <v>0.429936</v>
+        <v>0.430023</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293778</v>
+        <v>0.293879</v>
       </c>
       <c r="C117" t="n">
-        <v>0.317789</v>
+        <v>0.333317</v>
       </c>
       <c r="D117" t="n">
-        <v>0.436389</v>
+        <v>0.43593</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294106</v>
+        <v>0.305341</v>
       </c>
       <c r="C118" t="n">
-        <v>0.323936</v>
+        <v>0.337262</v>
       </c>
       <c r="D118" t="n">
-        <v>0.442591</v>
+        <v>0.442042</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.29628</v>
+        <v>0.296189</v>
       </c>
       <c r="C119" t="n">
-        <v>0.328239</v>
+        <v>0.344248</v>
       </c>
       <c r="D119" t="n">
-        <v>0.455506</v>
+        <v>0.449766</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298533</v>
+        <v>0.299063</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332829</v>
+        <v>0.346123</v>
       </c>
       <c r="D120" t="n">
-        <v>0.464767</v>
+        <v>0.459473</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29225</v>
+        <v>0.296748</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338008</v>
+        <v>0.35456</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383632</v>
+        <v>0.383907</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.302274</v>
+        <v>0.301412</v>
       </c>
       <c r="C122" t="n">
-        <v>0.345265</v>
+        <v>0.361432</v>
       </c>
       <c r="D122" t="n">
-        <v>0.394148</v>
+        <v>0.394348</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.307266</v>
+        <v>0.306293</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332043</v>
+        <v>0.352557</v>
       </c>
       <c r="D123" t="n">
-        <v>0.396138</v>
+        <v>0.396315</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.369666</v>
+        <v>0.38113</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325662</v>
+        <v>0.354516</v>
       </c>
       <c r="D124" t="n">
-        <v>0.406214</v>
+        <v>0.403067</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376762</v>
+        <v>0.366435</v>
       </c>
       <c r="C125" t="n">
-        <v>0.324401</v>
+        <v>0.352966</v>
       </c>
       <c r="D125" t="n">
-        <v>0.407623</v>
+        <v>0.404451</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368956</v>
+        <v>0.371773</v>
       </c>
       <c r="C126" t="n">
-        <v>0.330148</v>
+        <v>0.349693</v>
       </c>
       <c r="D126" t="n">
-        <v>0.42287</v>
+        <v>0.422726</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.379343</v>
+        <v>0.36469</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333541</v>
+        <v>0.352672</v>
       </c>
       <c r="D127" t="n">
-        <v>0.425516</v>
+        <v>0.425055</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376103</v>
+        <v>0.374101</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335749</v>
+        <v>0.355609</v>
       </c>
       <c r="D128" t="n">
-        <v>0.439771</v>
+        <v>0.439976</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.376294</v>
+        <v>0.379161</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339346</v>
+        <v>0.355706</v>
       </c>
       <c r="D129" t="n">
-        <v>0.446309</v>
+        <v>0.446338</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377155</v>
+        <v>0.369019</v>
       </c>
       <c r="C130" t="n">
-        <v>0.339006</v>
+        <v>0.363121</v>
       </c>
       <c r="D130" t="n">
-        <v>0.456472</v>
+        <v>0.456277</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378516</v>
+        <v>0.375808</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346725</v>
+        <v>0.362401</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462414</v>
+        <v>0.459313</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37903</v>
+        <v>0.367272</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350881</v>
+        <v>0.370615</v>
       </c>
       <c r="D132" t="n">
-        <v>0.473735</v>
+        <v>0.470357</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.378683</v>
+        <v>0.376643</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355454</v>
+        <v>0.375904</v>
       </c>
       <c r="D133" t="n">
-        <v>0.484909</v>
+        <v>0.481791</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376216</v>
+        <v>0.376182</v>
       </c>
       <c r="C134" t="n">
-        <v>0.360813</v>
+        <v>0.380554</v>
       </c>
       <c r="D134" t="n">
-        <v>0.494171</v>
+        <v>0.494131</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380957</v>
+        <v>0.386772</v>
       </c>
       <c r="C135" t="n">
-        <v>0.364875</v>
+        <v>0.383107</v>
       </c>
       <c r="D135" t="n">
-        <v>0.403774</v>
+        <v>0.404072</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381732</v>
+        <v>0.369809</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373907</v>
+        <v>0.395126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.410067</v>
+        <v>0.409875</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387728</v>
+        <v>0.388615</v>
       </c>
       <c r="C137" t="n">
-        <v>0.344426</v>
+        <v>0.367832</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417466</v>
+        <v>0.417563</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444323</v>
+        <v>0.437559</v>
       </c>
       <c r="C138" t="n">
-        <v>0.346315</v>
+        <v>0.370008</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41767</v>
+        <v>0.415333</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443689</v>
+        <v>0.443775</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348781</v>
+        <v>0.368712</v>
       </c>
       <c r="D139" t="n">
-        <v>0.424837</v>
+        <v>0.42484</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44468</v>
+        <v>0.437357</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351777</v>
+        <v>0.374398</v>
       </c>
       <c r="D140" t="n">
-        <v>0.438094</v>
+        <v>0.43779</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439114</v>
+        <v>0.443881</v>
       </c>
       <c r="C141" t="n">
-        <v>0.350263</v>
+        <v>0.373481</v>
       </c>
       <c r="D141" t="n">
-        <v>0.445906</v>
+        <v>0.445677</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444211</v>
+        <v>0.437372</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356614</v>
+        <v>0.379291</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447731</v>
+        <v>0.449756</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.444773</v>
+        <v>0.437581</v>
       </c>
       <c r="C143" t="n">
-        <v>0.359614</v>
+        <v>0.381405</v>
       </c>
       <c r="D143" t="n">
-        <v>0.464795</v>
+        <v>0.464376</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0532515</v>
+        <v>0.0426868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0559936</v>
+        <v>0.0485306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10722</v>
+        <v>0.07012110000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0531266</v>
+        <v>0.0429063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0559611</v>
+        <v>0.0488354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106825</v>
+        <v>0.07670680000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0501002</v>
+        <v>0.042785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536921</v>
+        <v>0.0485138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111497</v>
+        <v>0.0834459</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0489702</v>
+        <v>0.0430113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0521708</v>
+        <v>0.0490764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114263</v>
+        <v>0.0889519</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0478838</v>
+        <v>0.0431013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0513685</v>
+        <v>0.0494895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120167</v>
+        <v>0.09507939999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0536246</v>
+        <v>0.0434355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0575008</v>
+        <v>0.0502782</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0878304</v>
+        <v>0.0656972</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0522844</v>
+        <v>0.0437617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0578065</v>
+        <v>0.0515375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0900171</v>
+        <v>0.0673265</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0514665</v>
+        <v>0.0442107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0560042</v>
+        <v>0.0503934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09333379999999999</v>
+        <v>0.071612</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0512662</v>
+        <v>0.0495619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0550701</v>
+        <v>0.0506577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0956153</v>
+        <v>0.0747215</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0513937</v>
+        <v>0.0500919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0540992</v>
+        <v>0.0507283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0977555</v>
+        <v>0.0784876</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0515484</v>
+        <v>0.050276</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0563294</v>
+        <v>0.052003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102373</v>
+        <v>0.0835587</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0516698</v>
+        <v>0.0502156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0565854</v>
+        <v>0.0522221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105878</v>
+        <v>0.0875527</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0512576</v>
+        <v>0.0499884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0553029</v>
+        <v>0.0522033</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109105</v>
+        <v>0.0925517</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0519705</v>
+        <v>0.0505799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0569563</v>
+        <v>0.0529254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111206</v>
+        <v>0.0971173</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.052136</v>
+        <v>0.0509021</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577791</v>
+        <v>0.0534959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114626</v>
+        <v>0.102186</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0523002</v>
+        <v>0.0513633</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0560133</v>
+        <v>0.05313</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116494</v>
+        <v>0.107957</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525327</v>
+        <v>0.0512562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0578514</v>
+        <v>0.0538883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120953</v>
+        <v>0.112219</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0530191</v>
+        <v>0.0512394</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05749</v>
+        <v>0.05405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.124783</v>
+        <v>0.116792</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.053281</v>
+        <v>0.0514298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0580865</v>
+        <v>0.0546945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.127941</v>
+        <v>0.120429</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.051863</v>
+        <v>0.0521454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0569539</v>
+        <v>0.0567698</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0896671</v>
+        <v>0.0845085</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0528053</v>
+        <v>0.0523866</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0611164</v>
+        <v>0.0608645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0922992</v>
+        <v>0.0871908</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0535939</v>
+        <v>0.053991</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0573698</v>
+        <v>0.0563537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0948256</v>
+        <v>0.09017310000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0556504</v>
+        <v>0.0555879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564564</v>
+        <v>0.056147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09787510000000001</v>
+        <v>0.0937994</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550595</v>
+        <v>0.0549608</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0569522</v>
+        <v>0.0564673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101097</v>
+        <v>0.09721689999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561102</v>
+        <v>0.0551824</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0573308</v>
+        <v>0.0569353</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103849</v>
+        <v>0.101175</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554934</v>
+        <v>0.0559531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0584242</v>
+        <v>0.0575834</v>
       </c>
       <c r="D27" t="n">
-        <v>0.107859</v>
+        <v>0.105249</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055671</v>
+        <v>0.0560227</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0587324</v>
+        <v>0.0579802</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111218</v>
+        <v>0.1097</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0558849</v>
+        <v>0.0556928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0588326</v>
+        <v>0.058399</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114999</v>
+        <v>0.11376</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558857</v>
+        <v>0.0562549</v>
       </c>
       <c r="C30" t="n">
-        <v>0.059452</v>
+        <v>0.0589698</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118287</v>
+        <v>0.11807</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0560891</v>
+        <v>0.0564315</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0598606</v>
+        <v>0.059403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122703</v>
+        <v>0.122237</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056511</v>
+        <v>0.0561175</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0596493</v>
+        <v>0.0597811</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125427</v>
+        <v>0.125139</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0561427</v>
+        <v>0.0563785</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0598854</v>
+        <v>0.0604166</v>
       </c>
       <c r="D33" t="n">
-        <v>0.128869</v>
+        <v>0.129035</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0570647</v>
+        <v>0.0564464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0614988</v>
+        <v>0.061965</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132224</v>
+        <v>0.132134</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573934</v>
+        <v>0.0569355</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0653503</v>
+        <v>0.0649378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0934576</v>
+        <v>0.0924307</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0582031</v>
+        <v>0.0579089</v>
       </c>
       <c r="C36" t="n">
-        <v>0.072129</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0956605</v>
+        <v>0.0947238</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609753</v>
+        <v>0.0604453</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0599131</v>
+        <v>0.0616693</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0979299</v>
+        <v>0.0968572</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.063384</v>
+        <v>0.0600171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0600085</v>
+        <v>0.0605054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10085</v>
+        <v>0.0999322</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0624619</v>
+        <v>0.0615749</v>
       </c>
       <c r="C39" t="n">
-        <v>0.060519</v>
+        <v>0.0617244</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103606</v>
+        <v>0.103074</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0613613</v>
+        <v>0.0604104</v>
       </c>
       <c r="C40" t="n">
-        <v>0.061221</v>
+        <v>0.0614004</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107109</v>
+        <v>0.106446</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0632312</v>
+        <v>0.0602964</v>
       </c>
       <c r="C41" t="n">
-        <v>0.061061</v>
+        <v>0.0618941</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11073</v>
+        <v>0.109996</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0641157</v>
+        <v>0.060658</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0617087</v>
+        <v>0.0623585</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11405</v>
+        <v>0.113571</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06261079999999999</v>
+        <v>0.0604099</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0621766</v>
+        <v>0.0637226</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117775</v>
+        <v>0.117372</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0627453</v>
+        <v>0.0604749</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06263920000000001</v>
+        <v>0.0642514</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121781</v>
+        <v>0.121615</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0629073</v>
+        <v>0.0607584</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0629802</v>
+        <v>0.06425350000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125656</v>
+        <v>0.125501</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06561839999999999</v>
+        <v>0.0611006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0642081</v>
+        <v>0.0650401</v>
       </c>
       <c r="D46" t="n">
-        <v>0.128987</v>
+        <v>0.128936</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0681529</v>
+        <v>0.0623541</v>
       </c>
       <c r="C47" t="n">
-        <v>0.065307</v>
+        <v>0.0660133</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131878</v>
+        <v>0.131969</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06363290000000001</v>
+        <v>0.0619033</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0680429</v>
+        <v>0.0690378</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135728</v>
+        <v>0.135667</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0642026</v>
+        <v>0.0621424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.072047</v>
+        <v>0.072826</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138912</v>
+        <v>0.138601</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0661214</v>
+        <v>0.0642437</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0769735</v>
+        <v>0.077987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0979724</v>
+        <v>0.09728390000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0679791</v>
+        <v>0.0689158</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0644421</v>
+        <v>0.066577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.100181</v>
+        <v>0.09935389999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0742791</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06619940000000001</v>
+        <v>0.06633409999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102888</v>
+        <v>0.101963</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06813429999999999</v>
+        <v>0.0674111</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0650013</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105859</v>
+        <v>0.105293</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0665756</v>
+        <v>0.06753770000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06776799999999999</v>
+        <v>0.0652525</v>
       </c>
       <c r="D54" t="n">
-        <v>0.109048</v>
+        <v>0.108089</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06838039999999999</v>
+        <v>0.06733119999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0658763</v>
+        <v>0.06590459999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112864</v>
+        <v>0.11158</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07077509999999999</v>
+        <v>0.0675781</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0669739</v>
+        <v>0.0661373</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116736</v>
+        <v>0.115417</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06857389999999999</v>
+        <v>0.0675259</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0685071</v>
+        <v>0.0668103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120737</v>
+        <v>0.119431</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0710099</v>
+        <v>0.0677999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06801980000000001</v>
+        <v>0.0673967</v>
       </c>
       <c r="D58" t="n">
-        <v>0.124359</v>
+        <v>0.123128</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0687841</v>
+        <v>0.06818490000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0703331</v>
+        <v>0.0683937</v>
       </c>
       <c r="D59" t="n">
-        <v>0.128588</v>
+        <v>0.126937</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0711377</v>
+        <v>0.0689212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.071884</v>
+        <v>0.0692865</v>
       </c>
       <c r="D60" t="n">
-        <v>0.132623</v>
+        <v>0.130876</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0681881</v>
+        <v>0.0694287</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0738292</v>
+        <v>0.0708599</v>
       </c>
       <c r="D61" t="n">
-        <v>0.137416</v>
+        <v>0.134807</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07172820000000001</v>
+        <v>0.06954200000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.074738</v>
+        <v>0.07347480000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141153</v>
+        <v>0.138267</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0695972</v>
+        <v>0.0704461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07964690000000001</v>
+        <v>0.07669860000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145337</v>
+        <v>0.141677</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072626</v>
+        <v>0.0719192</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0823484</v>
+        <v>0.0810618</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106684</v>
+        <v>0.104642</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0764233</v>
+        <v>0.0752483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0905362</v>
+        <v>0.0876217</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111711</v>
+        <v>0.107799</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790603</v>
+        <v>0.07915750000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0756646</v>
+        <v>0.0682695</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115139</v>
+        <v>0.112026</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106502</v>
+        <v>0.0799855</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0760038</v>
+        <v>0.068675</v>
       </c>
       <c r="D67" t="n">
-        <v>0.119521</v>
+        <v>0.116314</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.100962</v>
+        <v>0.0796398</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0795976</v>
+        <v>0.0690669</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125886</v>
+        <v>0.120625</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.108612</v>
+        <v>0.0802797</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0773451</v>
+        <v>0.0697632</v>
       </c>
       <c r="D69" t="n">
-        <v>0.131298</v>
+        <v>0.126618</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.109208</v>
+        <v>0.0805004</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0785849</v>
+        <v>0.0703091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138363</v>
+        <v>0.132845</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.101884</v>
+        <v>0.07909910000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07786079999999999</v>
+        <v>0.071093</v>
       </c>
       <c r="D71" t="n">
-        <v>0.146435</v>
+        <v>0.138768</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103082</v>
+        <v>0.0787741</v>
       </c>
       <c r="C72" t="n">
-        <v>0.079578</v>
+        <v>0.07140730000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.154199</v>
+        <v>0.146057</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10326</v>
+        <v>0.0789516</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0808991</v>
+        <v>0.0722597</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161252</v>
+        <v>0.153346</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104635</v>
+        <v>0.0797909</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0822399</v>
+        <v>0.07367310000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.170665</v>
+        <v>0.162988</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.105045</v>
+        <v>0.0793745</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0868157</v>
+        <v>0.07500329999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.181372</v>
+        <v>0.17222</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.106276</v>
+        <v>0.0801578</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0891372</v>
+        <v>0.07712919999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.19147</v>
+        <v>0.179713</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0982367</v>
+        <v>0.0818736</v>
       </c>
       <c r="C77" t="n">
-        <v>0.086228</v>
+        <v>0.0801277</v>
       </c>
       <c r="D77" t="n">
-        <v>0.201675</v>
+        <v>0.188995</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107693</v>
+        <v>0.08284850000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09504890000000001</v>
+        <v>0.0838936</v>
       </c>
       <c r="D78" t="n">
-        <v>0.200152</v>
+        <v>0.190474</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10528</v>
+        <v>0.08611679999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09773950000000001</v>
+        <v>0.0898325</v>
       </c>
       <c r="D79" t="n">
-        <v>0.214466</v>
+        <v>0.198084</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.113379</v>
+        <v>0.0888716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.116807</v>
+        <v>0.116561</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218407</v>
+        <v>0.205738</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.185883</v>
+        <v>0.188724</v>
       </c>
       <c r="C81" t="n">
-        <v>0.121446</v>
+        <v>0.116971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.219291</v>
+        <v>0.215977</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185979</v>
+        <v>0.188696</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120852</v>
+        <v>0.123251</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232035</v>
+        <v>0.225424</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183437</v>
+        <v>0.190867</v>
       </c>
       <c r="C83" t="n">
-        <v>0.122928</v>
+        <v>0.126848</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240664</v>
+        <v>0.230828</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18362</v>
+        <v>0.190772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12683</v>
+        <v>0.127668</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252766</v>
+        <v>0.244295</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184971</v>
+        <v>0.192465</v>
       </c>
       <c r="C85" t="n">
-        <v>0.127509</v>
+        <v>0.131854</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257173</v>
+        <v>0.256009</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.187891</v>
+        <v>0.193227</v>
       </c>
       <c r="C86" t="n">
-        <v>0.130904</v>
+        <v>0.133582</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272353</v>
+        <v>0.266077</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18761</v>
+        <v>0.193735</v>
       </c>
       <c r="C87" t="n">
-        <v>0.131221</v>
+        <v>0.1362</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274078</v>
+        <v>0.275959</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.189394</v>
+        <v>0.193379</v>
       </c>
       <c r="C88" t="n">
-        <v>0.136307</v>
+        <v>0.138759</v>
       </c>
       <c r="D88" t="n">
-        <v>0.286852</v>
+        <v>0.283456</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.190597</v>
+        <v>0.193768</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144075</v>
+        <v>0.137026</v>
       </c>
       <c r="D89" t="n">
-        <v>0.299631</v>
+        <v>0.295793</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.190966</v>
+        <v>0.19436</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146142</v>
+        <v>0.139571</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312314</v>
+        <v>0.307729</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191137</v>
+        <v>0.195352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14874</v>
+        <v>0.14429</v>
       </c>
       <c r="D91" t="n">
-        <v>0.312828</v>
+        <v>0.318318</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190977</v>
+        <v>0.197252</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152235</v>
+        <v>0.145916</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2911</v>
+        <v>0.299592</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193348</v>
+        <v>0.198258</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153397</v>
+        <v>0.154189</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300331</v>
+        <v>0.309484</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196505</v>
+        <v>0.200029</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237025</v>
+        <v>0.252225</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307427</v>
+        <v>0.316129</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256571</v>
+        <v>0.273765</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240263</v>
+        <v>0.254964</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315636</v>
+        <v>0.325194</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256772</v>
+        <v>0.273923</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241771</v>
+        <v>0.257584</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324997</v>
+        <v>0.33496</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257375</v>
+        <v>0.273958</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247792</v>
+        <v>0.25962</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331398</v>
+        <v>0.341405</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25737</v>
+        <v>0.274202</v>
       </c>
       <c r="C98" t="n">
-        <v>0.249813</v>
+        <v>0.262179</v>
       </c>
       <c r="D98" t="n">
-        <v>0.341335</v>
+        <v>0.350932</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.257299</v>
+        <v>0.273988</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248571</v>
+        <v>0.264533</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348024</v>
+        <v>0.358958</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254978</v>
+        <v>0.273983</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251042</v>
+        <v>0.266869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.358045</v>
+        <v>0.368684</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257168</v>
+        <v>0.274013</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25219</v>
+        <v>0.268917</v>
       </c>
       <c r="D101" t="n">
-        <v>0.365211</v>
+        <v>0.374766</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257408</v>
+        <v>0.275167</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254901</v>
+        <v>0.271102</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373928</v>
+        <v>0.383795</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257445</v>
+        <v>0.275262</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257564</v>
+        <v>0.273591</v>
       </c>
       <c r="D103" t="n">
-        <v>0.385858</v>
+        <v>0.395699</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258092</v>
+        <v>0.274868</v>
       </c>
       <c r="C104" t="n">
-        <v>0.261715</v>
+        <v>0.276227</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395417</v>
+        <v>0.405225</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25813</v>
+        <v>0.274922</v>
       </c>
       <c r="C105" t="n">
-        <v>0.263753</v>
+        <v>0.279549</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404147</v>
+        <v>0.41467</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259721</v>
+        <v>0.275641</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268741</v>
+        <v>0.282562</v>
       </c>
       <c r="D106" t="n">
-        <v>0.414644</v>
+        <v>0.425702</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.26148</v>
+        <v>0.277031</v>
       </c>
       <c r="C107" t="n">
-        <v>0.274441</v>
+        <v>0.286972</v>
       </c>
       <c r="D107" t="n">
-        <v>0.35448</v>
+        <v>0.366233</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263423</v>
+        <v>0.27982</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296361</v>
+        <v>0.324684</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355366</v>
+        <v>0.372759</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268369</v>
+        <v>0.283753</v>
       </c>
       <c r="C109" t="n">
-        <v>0.297517</v>
+        <v>0.328493</v>
       </c>
       <c r="D109" t="n">
-        <v>0.365214</v>
+        <v>0.381523</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29428</v>
+        <v>0.315616</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303239</v>
+        <v>0.330469</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3705</v>
+        <v>0.38738</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287735</v>
+        <v>0.316695</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305677</v>
+        <v>0.332899</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377359</v>
+        <v>0.394644</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.287389</v>
+        <v>0.31676</v>
       </c>
       <c r="C112" t="n">
-        <v>0.307325</v>
+        <v>0.335488</v>
       </c>
       <c r="D112" t="n">
-        <v>0.388646</v>
+        <v>0.405309</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.297046</v>
+        <v>0.315956</v>
       </c>
       <c r="C113" t="n">
-        <v>0.310919</v>
+        <v>0.336179</v>
       </c>
       <c r="D113" t="n">
-        <v>0.397208</v>
+        <v>0.414081</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295404</v>
+        <v>0.316741</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312511</v>
+        <v>0.338801</v>
       </c>
       <c r="D114" t="n">
-        <v>0.412009</v>
+        <v>0.423891</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288983</v>
+        <v>0.318765</v>
       </c>
       <c r="C115" t="n">
-        <v>0.315976</v>
+        <v>0.344242</v>
       </c>
       <c r="D115" t="n">
-        <v>0.421386</v>
+        <v>0.432903</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289937</v>
+        <v>0.318591</v>
       </c>
       <c r="C116" t="n">
-        <v>0.314147</v>
+        <v>0.347385</v>
       </c>
       <c r="D116" t="n">
-        <v>0.429936</v>
+        <v>0.442161</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293778</v>
+        <v>0.318273</v>
       </c>
       <c r="C117" t="n">
-        <v>0.317789</v>
+        <v>0.347575</v>
       </c>
       <c r="D117" t="n">
-        <v>0.436389</v>
+        <v>0.453193</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294106</v>
+        <v>0.318974</v>
       </c>
       <c r="C118" t="n">
-        <v>0.323936</v>
+        <v>0.354415</v>
       </c>
       <c r="D118" t="n">
-        <v>0.442591</v>
+        <v>0.461125</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.29628</v>
+        <v>0.318542</v>
       </c>
       <c r="C119" t="n">
-        <v>0.328239</v>
+        <v>0.35404</v>
       </c>
       <c r="D119" t="n">
-        <v>0.455506</v>
+        <v>0.469645</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298533</v>
+        <v>0.320534</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332829</v>
+        <v>0.362297</v>
       </c>
       <c r="D120" t="n">
-        <v>0.464767</v>
+        <v>0.479541</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29225</v>
+        <v>0.321943</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338008</v>
+        <v>0.367946</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383632</v>
+        <v>0.397602</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.302274</v>
+        <v>0.326424</v>
       </c>
       <c r="C122" t="n">
-        <v>0.345265</v>
+        <v>0.373902</v>
       </c>
       <c r="D122" t="n">
-        <v>0.394148</v>
+        <v>0.407213</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.307266</v>
+        <v>0.328537</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332043</v>
+        <v>0.370113</v>
       </c>
       <c r="D123" t="n">
-        <v>0.396138</v>
+        <v>0.410747</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.369666</v>
+        <v>0.402035</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325662</v>
+        <v>0.372456</v>
       </c>
       <c r="D124" t="n">
-        <v>0.406214</v>
+        <v>0.418862</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376762</v>
+        <v>0.402068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.324401</v>
+        <v>0.375497</v>
       </c>
       <c r="D125" t="n">
-        <v>0.407623</v>
+        <v>0.423769</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368956</v>
+        <v>0.401844</v>
       </c>
       <c r="C126" t="n">
-        <v>0.330148</v>
+        <v>0.378206</v>
       </c>
       <c r="D126" t="n">
-        <v>0.42287</v>
+        <v>0.435928</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.379343</v>
+        <v>0.402375</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333541</v>
+        <v>0.381306</v>
       </c>
       <c r="D127" t="n">
-        <v>0.425516</v>
+        <v>0.441768</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376103</v>
+        <v>0.401035</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335749</v>
+        <v>0.384574</v>
       </c>
       <c r="D128" t="n">
-        <v>0.439771</v>
+        <v>0.453638</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.376294</v>
+        <v>0.402416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339346</v>
+        <v>0.387941</v>
       </c>
       <c r="D129" t="n">
-        <v>0.446309</v>
+        <v>0.462062</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377155</v>
+        <v>0.402294</v>
       </c>
       <c r="C130" t="n">
-        <v>0.339006</v>
+        <v>0.391888</v>
       </c>
       <c r="D130" t="n">
-        <v>0.456472</v>
+        <v>0.472036</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378516</v>
+        <v>0.403574</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346725</v>
+        <v>0.395359</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462414</v>
+        <v>0.480419</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37903</v>
+        <v>0.404538</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350881</v>
+        <v>0.399364</v>
       </c>
       <c r="D132" t="n">
-        <v>0.473735</v>
+        <v>0.490828</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.378683</v>
+        <v>0.403214</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355454</v>
+        <v>0.40475</v>
       </c>
       <c r="D133" t="n">
-        <v>0.484909</v>
+        <v>0.501772</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376216</v>
+        <v>0.403228</v>
       </c>
       <c r="C134" t="n">
-        <v>0.360813</v>
+        <v>0.408847</v>
       </c>
       <c r="D134" t="n">
-        <v>0.494171</v>
+        <v>0.511695</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380957</v>
+        <v>0.405773</v>
       </c>
       <c r="C135" t="n">
-        <v>0.364875</v>
+        <v>0.419293</v>
       </c>
       <c r="D135" t="n">
-        <v>0.403774</v>
+        <v>0.418221</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381732</v>
+        <v>0.40728</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373907</v>
+        <v>0.428662</v>
       </c>
       <c r="D136" t="n">
-        <v>0.410067</v>
+        <v>0.424084</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387728</v>
+        <v>0.411097</v>
       </c>
       <c r="C137" t="n">
-        <v>0.344426</v>
+        <v>0.392563</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417466</v>
+        <v>0.431954</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444323</v>
+        <v>0.47341</v>
       </c>
       <c r="C138" t="n">
-        <v>0.346315</v>
+        <v>0.394782</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41767</v>
+        <v>0.434437</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443689</v>
+        <v>0.473436</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348781</v>
+        <v>0.39766</v>
       </c>
       <c r="D139" t="n">
-        <v>0.424837</v>
+        <v>0.441982</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44468</v>
+        <v>0.473697</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351777</v>
+        <v>0.400258</v>
       </c>
       <c r="D140" t="n">
-        <v>0.438094</v>
+        <v>0.45304</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439114</v>
+        <v>0.473823</v>
       </c>
       <c r="C141" t="n">
-        <v>0.350263</v>
+        <v>0.404445</v>
       </c>
       <c r="D141" t="n">
-        <v>0.445906</v>
+        <v>0.461188</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444211</v>
+        <v>0.473866</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356614</v>
+        <v>0.406461</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447731</v>
+        <v>0.468114</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.444773</v>
+        <v>0.473928</v>
       </c>
       <c r="C143" t="n">
-        <v>0.359614</v>
+        <v>0.409955</v>
       </c>
       <c r="D143" t="n">
-        <v>0.464795</v>
+        <v>0.480458</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0532515</v>
+        <v>0.0419652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0559936</v>
+        <v>0.044223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10722</v>
+        <v>0.0671817</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0531266</v>
+        <v>0.0438422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0559611</v>
+        <v>0.0455729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106825</v>
+        <v>0.0737225</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0501002</v>
+        <v>0.0453907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536921</v>
+        <v>0.047125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111497</v>
+        <v>0.0811812</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0489702</v>
+        <v>0.04516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0521708</v>
+        <v>0.0474618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114263</v>
+        <v>0.0884754</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0478838</v>
+        <v>0.0440445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0513685</v>
+        <v>0.046845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120167</v>
+        <v>0.0951882</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0536246</v>
+        <v>0.0462145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0575008</v>
+        <v>0.0483941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0878304</v>
+        <v>0.0612075</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0522844</v>
+        <v>0.0462505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0578065</v>
+        <v>0.0496387</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0900171</v>
+        <v>0.0634706</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0514665</v>
+        <v>0.0471132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0560042</v>
+        <v>0.047635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09333379999999999</v>
+        <v>0.0679695</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0512662</v>
+        <v>0.0497794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0550701</v>
+        <v>0.0482144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0956153</v>
+        <v>0.073033</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0513937</v>
+        <v>0.0501632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0540992</v>
+        <v>0.0486419</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0977555</v>
+        <v>0.0787892</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0515484</v>
+        <v>0.0497894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0563294</v>
+        <v>0.0485307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102373</v>
+        <v>0.0845484</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0516698</v>
+        <v>0.0499045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0565854</v>
+        <v>0.0488647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105878</v>
+        <v>0.0894547</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0512576</v>
+        <v>0.0506159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0553029</v>
+        <v>0.0496913</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109105</v>
+        <v>0.0950989</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0519705</v>
+        <v>0.0506171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0569563</v>
+        <v>0.0498823</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111206</v>
+        <v>0.09980899999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.052136</v>
+        <v>0.050888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577791</v>
+        <v>0.0501014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114626</v>
+        <v>0.104931</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0523002</v>
+        <v>0.051087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0560133</v>
+        <v>0.0505517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116494</v>
+        <v>0.109839</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525327</v>
+        <v>0.0512545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0578514</v>
+        <v>0.0507369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120953</v>
+        <v>0.11445</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0530191</v>
+        <v>0.051581</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05749</v>
+        <v>0.0516499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.124783</v>
+        <v>0.118728</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.053281</v>
+        <v>0.0516746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0580865</v>
+        <v>0.0522463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.127941</v>
+        <v>0.122095</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.051863</v>
+        <v>0.0520364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0569539</v>
+        <v>0.0525259</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0896671</v>
+        <v>0.0849261</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0528053</v>
+        <v>0.0524865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0611164</v>
+        <v>0.0565641</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0922992</v>
+        <v>0.08813</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0535939</v>
+        <v>0.0538616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0573698</v>
+        <v>0.0528439</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0948256</v>
+        <v>0.09189460000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0556504</v>
+        <v>0.0552276</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564564</v>
+        <v>0.0526666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09787510000000001</v>
+        <v>0.09536169999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550595</v>
+        <v>0.0549082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0569522</v>
+        <v>0.0529376</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101097</v>
+        <v>0.0995446</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561102</v>
+        <v>0.0550527</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0573308</v>
+        <v>0.0532837</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103849</v>
+        <v>0.103068</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554934</v>
+        <v>0.0552011</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0584242</v>
+        <v>0.0538372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.107859</v>
+        <v>0.106782</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055671</v>
+        <v>0.0551864</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0587324</v>
+        <v>0.0540801</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111218</v>
+        <v>0.111589</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0558849</v>
+        <v>0.0553147</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0588326</v>
+        <v>0.0543702</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114999</v>
+        <v>0.114838</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558857</v>
+        <v>0.0554431</v>
       </c>
       <c r="C30" t="n">
-        <v>0.059452</v>
+        <v>0.0549012</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118287</v>
+        <v>0.118741</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0560891</v>
+        <v>0.0555642</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0598606</v>
+        <v>0.0552086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122703</v>
+        <v>0.123103</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056511</v>
+        <v>0.0559324</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0596493</v>
+        <v>0.0562661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125427</v>
+        <v>0.126186</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0561427</v>
+        <v>0.0562485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0598854</v>
+        <v>0.0563661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.128869</v>
+        <v>0.129613</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0570647</v>
+        <v>0.0563929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0614988</v>
+        <v>0.0577102</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132224</v>
+        <v>0.132917</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573934</v>
+        <v>0.0568443</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0653503</v>
+        <v>0.0606749</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0934576</v>
+        <v>0.0932639</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0582031</v>
+        <v>0.0578212</v>
       </c>
       <c r="C36" t="n">
-        <v>0.072129</v>
+        <v>0.0665684</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0956605</v>
+        <v>0.09539889999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609753</v>
+        <v>0.0605493</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0599131</v>
+        <v>0.0583765</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0979299</v>
+        <v>0.09786540000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.063384</v>
+        <v>0.0597969</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0600085</v>
+        <v>0.0576211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10085</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0624619</v>
+        <v>0.0614561</v>
       </c>
       <c r="C39" t="n">
-        <v>0.060519</v>
+        <v>0.0574578</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103606</v>
+        <v>0.104042</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0613613</v>
+        <v>0.0597995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.061221</v>
+        <v>0.058134</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107109</v>
+        <v>0.107323</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0632312</v>
+        <v>0.0600726</v>
       </c>
       <c r="C41" t="n">
-        <v>0.061061</v>
+        <v>0.0587271</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11073</v>
+        <v>0.110879</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0641157</v>
+        <v>0.0599906</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0617087</v>
+        <v>0.0591829</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11405</v>
+        <v>0.114411</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06261079999999999</v>
+        <v>0.0607147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0621766</v>
+        <v>0.0591081</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117775</v>
+        <v>0.118383</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0627453</v>
+        <v>0.0608065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06263920000000001</v>
+        <v>0.0596601</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121781</v>
+        <v>0.12227</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0629073</v>
+        <v>0.0610037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0629802</v>
+        <v>0.0607724</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125656</v>
+        <v>0.126215</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06561839999999999</v>
+        <v>0.0610244</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0642081</v>
+        <v>0.0611317</v>
       </c>
       <c r="D46" t="n">
-        <v>0.128987</v>
+        <v>0.129843</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0681529</v>
+        <v>0.0613866</v>
       </c>
       <c r="C47" t="n">
-        <v>0.065307</v>
+        <v>0.062526</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131878</v>
+        <v>0.133219</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06363290000000001</v>
+        <v>0.0622322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0680429</v>
+        <v>0.0651144</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135728</v>
+        <v>0.136898</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0642026</v>
+        <v>0.06259339999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.072047</v>
+        <v>0.0686363</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138912</v>
+        <v>0.13965</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0661214</v>
+        <v>0.06461980000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0769735</v>
+        <v>0.0736031</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0979724</v>
+        <v>0.0974227</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0679791</v>
+        <v>0.0685593</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0644421</v>
+        <v>0.0615407</v>
       </c>
       <c r="D51" t="n">
-        <v>0.100181</v>
+        <v>0.09954010000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0742791</v>
+        <v>0.0743733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06619940000000001</v>
+        <v>0.0616576</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102888</v>
+        <v>0.102488</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06813429999999999</v>
+        <v>0.0674367</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06508650000000001</v>
+        <v>0.0614915</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105859</v>
+        <v>0.105463</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0665756</v>
+        <v>0.06752089999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06776799999999999</v>
+        <v>0.0618407</v>
       </c>
       <c r="D54" t="n">
-        <v>0.109048</v>
+        <v>0.108639</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06838039999999999</v>
+        <v>0.067775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0658763</v>
+        <v>0.0623736</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112864</v>
+        <v>0.112291</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07077509999999999</v>
+        <v>0.06807870000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0669739</v>
+        <v>0.0628343</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116736</v>
+        <v>0.116249</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06857389999999999</v>
+        <v>0.0679659</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0685071</v>
+        <v>0.0637653</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120737</v>
+        <v>0.120089</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0710099</v>
+        <v>0.0683634</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06801980000000001</v>
+        <v>0.06398769999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.124359</v>
+        <v>0.123383</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0687841</v>
+        <v>0.06850820000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0703331</v>
+        <v>0.06466429999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.128588</v>
+        <v>0.127407</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0711377</v>
+        <v>0.069036</v>
       </c>
       <c r="C60" t="n">
-        <v>0.071884</v>
+        <v>0.0659951</v>
       </c>
       <c r="D60" t="n">
-        <v>0.132623</v>
+        <v>0.131038</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0681881</v>
+        <v>0.0695119</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0738292</v>
+        <v>0.0675443</v>
       </c>
       <c r="D61" t="n">
-        <v>0.137416</v>
+        <v>0.134751</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07172820000000001</v>
+        <v>0.0695378</v>
       </c>
       <c r="C62" t="n">
-        <v>0.074738</v>
+        <v>0.0702132</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141153</v>
+        <v>0.138399</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0695972</v>
+        <v>0.0704147</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07964690000000001</v>
+        <v>0.07291449999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145337</v>
+        <v>0.142971</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072626</v>
+        <v>0.07238410000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0823484</v>
+        <v>0.0775618</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106684</v>
+        <v>0.104822</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0764233</v>
+        <v>0.07534970000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0905362</v>
+        <v>0.083818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111711</v>
+        <v>0.107233</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790603</v>
+        <v>0.079417</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0756646</v>
+        <v>0.0648939</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115139</v>
+        <v>0.111005</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106502</v>
+        <v>0.07944</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0760038</v>
+        <v>0.0653565</v>
       </c>
       <c r="D67" t="n">
-        <v>0.119521</v>
+        <v>0.116207</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.100962</v>
+        <v>0.0805645</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0795976</v>
+        <v>0.065954</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125886</v>
+        <v>0.120834</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.108612</v>
+        <v>0.0794637</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0773451</v>
+        <v>0.0662379</v>
       </c>
       <c r="D69" t="n">
-        <v>0.131298</v>
+        <v>0.126093</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.109208</v>
+        <v>0.0797047</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0785849</v>
+        <v>0.0668546</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138363</v>
+        <v>0.132395</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.101884</v>
+        <v>0.0809927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07786079999999999</v>
+        <v>0.06749049999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.146435</v>
+        <v>0.139173</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103082</v>
+        <v>0.08272060000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.079578</v>
+        <v>0.06852469999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.154199</v>
+        <v>0.146553</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10326</v>
+        <v>0.0827681</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0808991</v>
+        <v>0.0694237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161252</v>
+        <v>0.154252</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104635</v>
+        <v>0.0834693</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0822399</v>
+        <v>0.0706369</v>
       </c>
       <c r="D74" t="n">
-        <v>0.170665</v>
+        <v>0.163208</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.105045</v>
+        <v>0.0812508</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0868157</v>
+        <v>0.07191110000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.181372</v>
+        <v>0.171324</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.106276</v>
+        <v>0.0819609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0891372</v>
+        <v>0.07399459999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.19147</v>
+        <v>0.179275</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0982367</v>
+        <v>0.0861976</v>
       </c>
       <c r="C77" t="n">
-        <v>0.086228</v>
+        <v>0.0769411</v>
       </c>
       <c r="D77" t="n">
-        <v>0.201675</v>
+        <v>0.188666</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.107693</v>
+        <v>0.0855226</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09504890000000001</v>
+        <v>0.08052579999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.200152</v>
+        <v>0.185562</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10528</v>
+        <v>0.08984780000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09773950000000001</v>
+        <v>0.0862725</v>
       </c>
       <c r="D79" t="n">
-        <v>0.214466</v>
+        <v>0.191296</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.113379</v>
+        <v>0.09149649999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.116807</v>
+        <v>0.11094</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218407</v>
+        <v>0.197663</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.185883</v>
+        <v>0.179385</v>
       </c>
       <c r="C81" t="n">
-        <v>0.121446</v>
+        <v>0.114571</v>
       </c>
       <c r="D81" t="n">
-        <v>0.219291</v>
+        <v>0.208591</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185979</v>
+        <v>0.183115</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120852</v>
+        <v>0.115576</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232035</v>
+        <v>0.217434</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183437</v>
+        <v>0.182419</v>
       </c>
       <c r="C83" t="n">
-        <v>0.122928</v>
+        <v>0.117238</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240664</v>
+        <v>0.223271</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18362</v>
+        <v>0.182481</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12683</v>
+        <v>0.119571</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252766</v>
+        <v>0.234383</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184971</v>
+        <v>0.1837</v>
       </c>
       <c r="C85" t="n">
-        <v>0.127509</v>
+        <v>0.121898</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257173</v>
+        <v>0.246538</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.187891</v>
+        <v>0.18446</v>
       </c>
       <c r="C86" t="n">
-        <v>0.130904</v>
+        <v>0.123871</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272353</v>
+        <v>0.255951</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18761</v>
+        <v>0.184964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.131221</v>
+        <v>0.124867</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274078</v>
+        <v>0.26562</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.189394</v>
+        <v>0.185924</v>
       </c>
       <c r="C88" t="n">
-        <v>0.136307</v>
+        <v>0.129355</v>
       </c>
       <c r="D88" t="n">
-        <v>0.286852</v>
+        <v>0.271518</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.190597</v>
+        <v>0.18702</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144075</v>
+        <v>0.132408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.299631</v>
+        <v>0.28389</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.190966</v>
+        <v>0.187568</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146142</v>
+        <v>0.134677</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312314</v>
+        <v>0.295206</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191137</v>
+        <v>0.187476</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14874</v>
+        <v>0.138406</v>
       </c>
       <c r="D91" t="n">
-        <v>0.312828</v>
+        <v>0.303931</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190977</v>
+        <v>0.187294</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152235</v>
+        <v>0.140954</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2911</v>
+        <v>0.28328</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193348</v>
+        <v>0.190002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153397</v>
+        <v>0.143817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300331</v>
+        <v>0.292234</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196505</v>
+        <v>0.193612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237025</v>
+        <v>0.21293</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307427</v>
+        <v>0.298598</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256571</v>
+        <v>0.250386</v>
       </c>
       <c r="C95" t="n">
-        <v>0.240263</v>
+        <v>0.214711</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315636</v>
+        <v>0.307448</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256772</v>
+        <v>0.250231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241771</v>
+        <v>0.216653</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324997</v>
+        <v>0.316111</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257375</v>
+        <v>0.250321</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247792</v>
+        <v>0.219022</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331398</v>
+        <v>0.322748</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25737</v>
+        <v>0.250434</v>
       </c>
       <c r="C98" t="n">
-        <v>0.249813</v>
+        <v>0.220541</v>
       </c>
       <c r="D98" t="n">
-        <v>0.341335</v>
+        <v>0.331999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.257299</v>
+        <v>0.250667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248571</v>
+        <v>0.222345</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348024</v>
+        <v>0.338832</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254978</v>
+        <v>0.25104</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251042</v>
+        <v>0.2253</v>
       </c>
       <c r="D100" t="n">
-        <v>0.358045</v>
+        <v>0.349188</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257168</v>
+        <v>0.250547</v>
       </c>
       <c r="C101" t="n">
-        <v>0.25219</v>
+        <v>0.226651</v>
       </c>
       <c r="D101" t="n">
-        <v>0.365211</v>
+        <v>0.356163</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.257408</v>
+        <v>0.251197</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254901</v>
+        <v>0.228856</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373928</v>
+        <v>0.364807</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257445</v>
+        <v>0.251339</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257564</v>
+        <v>0.2319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.385858</v>
+        <v>0.375978</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258092</v>
+        <v>0.251675</v>
       </c>
       <c r="C104" t="n">
-        <v>0.261715</v>
+        <v>0.234228</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395417</v>
+        <v>0.385676</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25813</v>
+        <v>0.252126</v>
       </c>
       <c r="C105" t="n">
-        <v>0.263753</v>
+        <v>0.236987</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404147</v>
+        <v>0.394732</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259721</v>
+        <v>0.252936</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268741</v>
+        <v>0.240028</v>
       </c>
       <c r="D106" t="n">
-        <v>0.414644</v>
+        <v>0.4047</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.26148</v>
+        <v>0.254442</v>
       </c>
       <c r="C107" t="n">
-        <v>0.274441</v>
+        <v>0.245212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.35448</v>
+        <v>0.343984</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263423</v>
+        <v>0.257931</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296361</v>
+        <v>0.264201</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355366</v>
+        <v>0.350301</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268369</v>
+        <v>0.26301</v>
       </c>
       <c r="C109" t="n">
-        <v>0.297517</v>
+        <v>0.265798</v>
       </c>
       <c r="D109" t="n">
-        <v>0.365214</v>
+        <v>0.359998</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29428</v>
+        <v>0.288117</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303239</v>
+        <v>0.267813</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3705</v>
+        <v>0.364933</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287735</v>
+        <v>0.288421</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305677</v>
+        <v>0.269668</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377359</v>
+        <v>0.371538</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.287389</v>
+        <v>0.288097</v>
       </c>
       <c r="C112" t="n">
-        <v>0.307325</v>
+        <v>0.266657</v>
       </c>
       <c r="D112" t="n">
-        <v>0.388646</v>
+        <v>0.382899</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.297046</v>
+        <v>0.288234</v>
       </c>
       <c r="C113" t="n">
-        <v>0.310919</v>
+        <v>0.266221</v>
       </c>
       <c r="D113" t="n">
-        <v>0.397208</v>
+        <v>0.391406</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295404</v>
+        <v>0.288159</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312511</v>
+        <v>0.269549</v>
       </c>
       <c r="D114" t="n">
-        <v>0.412009</v>
+        <v>0.400479</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288983</v>
+        <v>0.2877</v>
       </c>
       <c r="C115" t="n">
-        <v>0.315976</v>
+        <v>0.271579</v>
       </c>
       <c r="D115" t="n">
-        <v>0.421386</v>
+        <v>0.409587</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289937</v>
+        <v>0.288559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.314147</v>
+        <v>0.274827</v>
       </c>
       <c r="D116" t="n">
-        <v>0.429936</v>
+        <v>0.418463</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293778</v>
+        <v>0.289603</v>
       </c>
       <c r="C117" t="n">
-        <v>0.317789</v>
+        <v>0.278414</v>
       </c>
       <c r="D117" t="n">
-        <v>0.436389</v>
+        <v>0.429822</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294106</v>
+        <v>0.288381</v>
       </c>
       <c r="C118" t="n">
-        <v>0.323936</v>
+        <v>0.281855</v>
       </c>
       <c r="D118" t="n">
-        <v>0.442591</v>
+        <v>0.436348</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.29628</v>
+        <v>0.291174</v>
       </c>
       <c r="C119" t="n">
-        <v>0.328239</v>
+        <v>0.285732</v>
       </c>
       <c r="D119" t="n">
-        <v>0.455506</v>
+        <v>0.443841</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298533</v>
+        <v>0.292231</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332829</v>
+        <v>0.290146</v>
       </c>
       <c r="D120" t="n">
-        <v>0.464767</v>
+        <v>0.453485</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29225</v>
+        <v>0.292162</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338008</v>
+        <v>0.29505</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383632</v>
+        <v>0.374621</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.302274</v>
+        <v>0.295625</v>
       </c>
       <c r="C122" t="n">
-        <v>0.345265</v>
+        <v>0.30022</v>
       </c>
       <c r="D122" t="n">
-        <v>0.394148</v>
+        <v>0.38333</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.307266</v>
+        <v>0.302152</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332043</v>
+        <v>0.287362</v>
       </c>
       <c r="D123" t="n">
-        <v>0.396138</v>
+        <v>0.386777</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.369666</v>
+        <v>0.367828</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325662</v>
+        <v>0.289565</v>
       </c>
       <c r="D124" t="n">
-        <v>0.406214</v>
+        <v>0.395365</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376762</v>
+        <v>0.367312</v>
       </c>
       <c r="C125" t="n">
-        <v>0.324401</v>
+        <v>0.292148</v>
       </c>
       <c r="D125" t="n">
-        <v>0.407623</v>
+        <v>0.397178</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368956</v>
+        <v>0.368176</v>
       </c>
       <c r="C126" t="n">
-        <v>0.330148</v>
+        <v>0.29502</v>
       </c>
       <c r="D126" t="n">
-        <v>0.42287</v>
+        <v>0.411545</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.379343</v>
+        <v>0.368972</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333541</v>
+        <v>0.297746</v>
       </c>
       <c r="D127" t="n">
-        <v>0.425516</v>
+        <v>0.414889</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376103</v>
+        <v>0.368304</v>
       </c>
       <c r="C128" t="n">
-        <v>0.335749</v>
+        <v>0.300886</v>
       </c>
       <c r="D128" t="n">
-        <v>0.439771</v>
+        <v>0.42856</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.376294</v>
+        <v>0.367289</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339346</v>
+        <v>0.303825</v>
       </c>
       <c r="D129" t="n">
-        <v>0.446309</v>
+        <v>0.436164</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377155</v>
+        <v>0.368848</v>
       </c>
       <c r="C130" t="n">
-        <v>0.339006</v>
+        <v>0.307287</v>
       </c>
       <c r="D130" t="n">
-        <v>0.456472</v>
+        <v>0.445678</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378516</v>
+        <v>0.370592</v>
       </c>
       <c r="C131" t="n">
-        <v>0.346725</v>
+        <v>0.310907</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462414</v>
+        <v>0.452252</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37903</v>
+        <v>0.370213</v>
       </c>
       <c r="C132" t="n">
-        <v>0.350881</v>
+        <v>0.315055</v>
       </c>
       <c r="D132" t="n">
-        <v>0.473735</v>
+        <v>0.462763</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.378683</v>
+        <v>0.370368</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355454</v>
+        <v>0.319565</v>
       </c>
       <c r="D133" t="n">
-        <v>0.484909</v>
+        <v>0.473952</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376216</v>
+        <v>0.373067</v>
       </c>
       <c r="C134" t="n">
-        <v>0.360813</v>
+        <v>0.326267</v>
       </c>
       <c r="D134" t="n">
-        <v>0.494171</v>
+        <v>0.48287</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380957</v>
+        <v>0.371803</v>
       </c>
       <c r="C135" t="n">
-        <v>0.364875</v>
+        <v>0.332452</v>
       </c>
       <c r="D135" t="n">
-        <v>0.403774</v>
+        <v>0.392839</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381732</v>
+        <v>0.374516</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373907</v>
+        <v>0.341482</v>
       </c>
       <c r="D136" t="n">
-        <v>0.410067</v>
+        <v>0.398432</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387728</v>
+        <v>0.37582</v>
       </c>
       <c r="C137" t="n">
-        <v>0.344426</v>
+        <v>0.312277</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417466</v>
+        <v>0.405859</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444323</v>
+        <v>0.430094</v>
       </c>
       <c r="C138" t="n">
-        <v>0.346315</v>
+        <v>0.314755</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41767</v>
+        <v>0.40718</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443689</v>
+        <v>0.433456</v>
       </c>
       <c r="C139" t="n">
-        <v>0.348781</v>
+        <v>0.317257</v>
       </c>
       <c r="D139" t="n">
-        <v>0.424837</v>
+        <v>0.414019</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44468</v>
+        <v>0.433375</v>
       </c>
       <c r="C140" t="n">
-        <v>0.351777</v>
+        <v>0.319803</v>
       </c>
       <c r="D140" t="n">
-        <v>0.438094</v>
+        <v>0.426304</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439114</v>
+        <v>0.43363</v>
       </c>
       <c r="C141" t="n">
-        <v>0.350263</v>
+        <v>0.320683</v>
       </c>
       <c r="D141" t="n">
-        <v>0.445906</v>
+        <v>0.43413</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444211</v>
+        <v>0.427965</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356614</v>
+        <v>0.322723</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447731</v>
+        <v>0.438471</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.444773</v>
+        <v>0.433676</v>
       </c>
       <c r="C143" t="n">
-        <v>0.359614</v>
+        <v>0.32458</v>
       </c>
       <c r="D143" t="n">
-        <v>0.464795</v>
+        <v>0.452552</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0419652</v>
+        <v>0.0424625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.044223</v>
+        <v>0.0441663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0671817</v>
+        <v>0.06983839999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0438422</v>
+        <v>0.043923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0455729</v>
+        <v>0.0446384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0737225</v>
+        <v>0.0762997</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0453907</v>
+        <v>0.0437549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.047125</v>
+        <v>0.0453764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0811812</v>
+        <v>0.08368349999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04516</v>
+        <v>0.0434802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0474618</v>
+        <v>0.0452154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0884754</v>
+        <v>0.09053410000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0440445</v>
+        <v>0.0431096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.046845</v>
+        <v>0.0450546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0951882</v>
+        <v>0.0975965</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0462145</v>
+        <v>0.0450209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0483941</v>
+        <v>0.0463612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0612075</v>
+        <v>0.0616013</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0462505</v>
+        <v>0.0452453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0496387</v>
+        <v>0.0477373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0634706</v>
+        <v>0.0636737</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0471132</v>
+        <v>0.0461024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.047635</v>
+        <v>0.0479378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0679695</v>
+        <v>0.0680475</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0497794</v>
+        <v>0.0498584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0482144</v>
+        <v>0.0474813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073033</v>
+        <v>0.07315580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501632</v>
+        <v>0.0503859</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0486419</v>
+        <v>0.0474285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0787892</v>
+        <v>0.07906680000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0497894</v>
+        <v>0.0504203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0485307</v>
+        <v>0.0485987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0845484</v>
+        <v>0.0836061</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0499045</v>
+        <v>0.0504708</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0488647</v>
+        <v>0.0489807</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0894547</v>
+        <v>0.0888996</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0506159</v>
+        <v>0.0501308</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0496913</v>
+        <v>0.048384</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0950989</v>
+        <v>0.09469420000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506171</v>
+        <v>0.0506578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0498823</v>
+        <v>0.0492414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09980899999999999</v>
+        <v>0.0993015</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.050888</v>
+        <v>0.0510647</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0501014</v>
+        <v>0.0501171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.104931</v>
+        <v>0.103939</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.051087</v>
+        <v>0.0512384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0505517</v>
+        <v>0.0494134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109839</v>
+        <v>0.108716</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0512545</v>
+        <v>0.0513491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507369</v>
+        <v>0.050243</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11445</v>
+        <v>0.113023</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.051581</v>
+        <v>0.0514654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516499</v>
+        <v>0.050557</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118728</v>
+        <v>0.117734</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0516746</v>
+        <v>0.0516304</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0522463</v>
+        <v>0.0510842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122095</v>
+        <v>0.121137</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0520364</v>
+        <v>0.0515823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0525259</v>
+        <v>0.0517025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849261</v>
+        <v>0.08506519999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0524865</v>
+        <v>0.0525277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0565641</v>
+        <v>0.0560068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08813</v>
+        <v>0.0879496</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0538616</v>
+        <v>0.0535799</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0528439</v>
+        <v>0.0529692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09189460000000001</v>
+        <v>0.0916449</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552276</v>
+        <v>0.0551902</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0526666</v>
+        <v>0.0525849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09536169999999999</v>
+        <v>0.0950207</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0549082</v>
+        <v>0.0548531</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0529376</v>
+        <v>0.0528291</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0995446</v>
+        <v>0.0991814</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0550527</v>
+        <v>0.054784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0532837</v>
+        <v>0.0532555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103068</v>
+        <v>0.102466</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0552011</v>
+        <v>0.0548996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0538372</v>
+        <v>0.053715</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106782</v>
+        <v>0.106319</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0551864</v>
+        <v>0.0550583</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0540801</v>
+        <v>0.0540562</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111589</v>
+        <v>0.110728</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553147</v>
+        <v>0.0552978</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0543702</v>
+        <v>0.0543636</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114838</v>
+        <v>0.114292</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0554431</v>
+        <v>0.0552165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0549012</v>
+        <v>0.0547798</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118741</v>
+        <v>0.118734</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0555642</v>
+        <v>0.0554298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0552086</v>
+        <v>0.0552893</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123103</v>
+        <v>0.122524</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559324</v>
+        <v>0.0558619</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0562661</v>
+        <v>0.0556603</v>
       </c>
       <c r="D32" t="n">
-        <v>0.126186</v>
+        <v>0.125786</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562485</v>
+        <v>0.0560124</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563661</v>
+        <v>0.0560073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129613</v>
+        <v>0.129425</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0563929</v>
+        <v>0.0561859</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0577102</v>
+        <v>0.0573425</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132917</v>
+        <v>0.132009</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0568443</v>
+        <v>0.0568244</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0606749</v>
+        <v>0.0598692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0932639</v>
+        <v>0.0931636</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578212</v>
+        <v>0.0576876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0665684</v>
+        <v>0.0664141</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09539889999999999</v>
+        <v>0.09544619999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605493</v>
+        <v>0.0605915</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0583765</v>
+        <v>0.0581862</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09786540000000001</v>
+        <v>0.09771100000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0597969</v>
+        <v>0.0599158</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0576211</v>
+        <v>0.0570701</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1007</v>
+        <v>0.100594</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0614561</v>
+        <v>0.0601676</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0574578</v>
+        <v>0.0575702</v>
       </c>
       <c r="D39" t="n">
-        <v>0.104042</v>
+        <v>0.103832</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0597995</v>
+        <v>0.0606152</v>
       </c>
       <c r="C40" t="n">
-        <v>0.058134</v>
+        <v>0.0581283</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107323</v>
+        <v>0.107178</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0600726</v>
+        <v>0.0600275</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0587271</v>
+        <v>0.0582707</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110879</v>
+        <v>0.110933</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0599906</v>
+        <v>0.0598379</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0591829</v>
+        <v>0.0603498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114411</v>
+        <v>0.114367</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607147</v>
+        <v>0.0598774</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0591081</v>
+        <v>0.0592663</v>
       </c>
       <c r="D43" t="n">
-        <v>0.118383</v>
+        <v>0.118098</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608065</v>
+        <v>0.0599531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0596601</v>
+        <v>0.0597648</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12227</v>
+        <v>0.122023</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0610037</v>
+        <v>0.0600981</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0607724</v>
+        <v>0.0601835</v>
       </c>
       <c r="D45" t="n">
-        <v>0.126215</v>
+        <v>0.125705</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0610244</v>
+        <v>0.0606397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0611317</v>
+        <v>0.0623732</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129843</v>
+        <v>0.1295</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0613866</v>
+        <v>0.0626312</v>
       </c>
       <c r="C47" t="n">
-        <v>0.062526</v>
+        <v>0.0634477</v>
       </c>
       <c r="D47" t="n">
-        <v>0.133219</v>
+        <v>0.132328</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0622322</v>
+        <v>0.0615634</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0651144</v>
+        <v>0.0642971</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136898</v>
+        <v>0.136778</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06259339999999999</v>
+        <v>0.0627554</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0686363</v>
+        <v>0.06811209999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.13965</v>
+        <v>0.139136</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06461980000000001</v>
+        <v>0.0647368</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0736031</v>
+        <v>0.0729672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0974227</v>
+        <v>0.0972404</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0685593</v>
+        <v>0.06869020000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0615407</v>
+        <v>0.0608123</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09954010000000001</v>
+        <v>0.099424</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0743733</v>
+        <v>0.07364</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0616576</v>
+        <v>0.0609469</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102488</v>
+        <v>0.102222</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0674367</v>
+        <v>0.067804</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0614915</v>
+        <v>0.0615572</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105463</v>
+        <v>0.105295</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06752089999999999</v>
+        <v>0.0678159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0618407</v>
+        <v>0.0617749</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108639</v>
+        <v>0.108573</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.067775</v>
+        <v>0.0673053</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0623736</v>
+        <v>0.0623698</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112291</v>
+        <v>0.111896</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06807870000000001</v>
+        <v>0.06753530000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0628343</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116249</v>
+        <v>0.116282</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679659</v>
+        <v>0.0674028</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0637653</v>
+        <v>0.0632239</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120089</v>
+        <v>0.119914</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0683634</v>
+        <v>0.0679009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06398769999999999</v>
+        <v>0.0638145</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123383</v>
+        <v>0.123652</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06850820000000001</v>
+        <v>0.06826309999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06466429999999999</v>
+        <v>0.06467829999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127407</v>
+        <v>0.127897</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.069036</v>
+        <v>0.0686792</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0659951</v>
+        <v>0.0657021</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131038</v>
+        <v>0.131303</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0695119</v>
+        <v>0.0688373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0675443</v>
+        <v>0.0674236</v>
       </c>
       <c r="D61" t="n">
-        <v>0.134751</v>
+        <v>0.134753</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0695378</v>
+        <v>0.0694524</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0702132</v>
+        <v>0.0697733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138399</v>
+        <v>0.138529</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704147</v>
+        <v>0.0706159</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07291449999999999</v>
+        <v>0.07268280000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142971</v>
+        <v>0.141687</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07238410000000001</v>
+        <v>0.0719407</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0775618</v>
+        <v>0.0766993</v>
       </c>
       <c r="D64" t="n">
-        <v>0.104822</v>
+        <v>0.10436</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07534970000000001</v>
+        <v>0.07476579999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.083818</v>
+        <v>0.08297839999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107233</v>
+        <v>0.107151</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.079417</v>
+        <v>0.07936890000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0648939</v>
+        <v>0.0647494</v>
       </c>
       <c r="D66" t="n">
-        <v>0.111005</v>
+        <v>0.111386</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07944</v>
+        <v>0.0787388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0653565</v>
+        <v>0.0651458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.116207</v>
+        <v>0.115344</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0805645</v>
+        <v>0.0799197</v>
       </c>
       <c r="C68" t="n">
-        <v>0.065954</v>
+        <v>0.0653754</v>
       </c>
       <c r="D68" t="n">
-        <v>0.120834</v>
+        <v>0.11952</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0794637</v>
+        <v>0.0817092</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0662379</v>
+        <v>0.06609279999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126093</v>
+        <v>0.12477</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0797047</v>
+        <v>0.08182739999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0668546</v>
+        <v>0.0666612</v>
       </c>
       <c r="D70" t="n">
-        <v>0.132395</v>
+        <v>0.131999</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0809927</v>
+        <v>0.0806521</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06749049999999999</v>
+        <v>0.0673165</v>
       </c>
       <c r="D71" t="n">
-        <v>0.139173</v>
+        <v>0.136911</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08272060000000001</v>
+        <v>0.080164</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06852469999999999</v>
+        <v>0.0682281</v>
       </c>
       <c r="D72" t="n">
-        <v>0.146553</v>
+        <v>0.14444</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0827681</v>
+        <v>0.08026369999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0694237</v>
+        <v>0.06920709999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.154252</v>
+        <v>0.152385</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0834693</v>
+        <v>0.0807379</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0706369</v>
+        <v>0.07045319999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163208</v>
+        <v>0.160857</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0812508</v>
+        <v>0.0804291</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07191110000000001</v>
+        <v>0.0713712</v>
       </c>
       <c r="D75" t="n">
-        <v>0.171324</v>
+        <v>0.170288</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0819609</v>
+        <v>0.08057400000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07399459999999999</v>
+        <v>0.0733207</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179275</v>
+        <v>0.177578</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0861976</v>
+        <v>0.08284030000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0769411</v>
+        <v>0.07586660000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.188666</v>
+        <v>0.186977</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0855226</v>
+        <v>0.08357290000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08052579999999999</v>
+        <v>0.0803431</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185562</v>
+        <v>0.185215</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08984780000000001</v>
+        <v>0.086467</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0862725</v>
+        <v>0.0852034</v>
       </c>
       <c r="D79" t="n">
-        <v>0.191296</v>
+        <v>0.191839</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09149649999999999</v>
+        <v>0.0892872</v>
       </c>
       <c r="C80" t="n">
-        <v>0.11094</v>
+        <v>0.112521</v>
       </c>
       <c r="D80" t="n">
-        <v>0.197663</v>
+        <v>0.198666</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.179385</v>
+        <v>0.18486</v>
       </c>
       <c r="C81" t="n">
-        <v>0.114571</v>
+        <v>0.113926</v>
       </c>
       <c r="D81" t="n">
-        <v>0.208591</v>
+        <v>0.209191</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183115</v>
+        <v>0.182555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115576</v>
+        <v>0.11649</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217434</v>
+        <v>0.217574</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182419</v>
+        <v>0.18344</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117238</v>
+        <v>0.118149</v>
       </c>
       <c r="D83" t="n">
-        <v>0.223271</v>
+        <v>0.223421</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182481</v>
+        <v>0.184561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.119571</v>
+        <v>0.121308</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234383</v>
+        <v>0.235648</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1837</v>
+        <v>0.184679</v>
       </c>
       <c r="C85" t="n">
-        <v>0.121898</v>
+        <v>0.12279</v>
       </c>
       <c r="D85" t="n">
-        <v>0.246538</v>
+        <v>0.245846</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18446</v>
+        <v>0.18464</v>
       </c>
       <c r="C86" t="n">
-        <v>0.123871</v>
+        <v>0.125265</v>
       </c>
       <c r="D86" t="n">
-        <v>0.255951</v>
+        <v>0.256503</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184964</v>
+        <v>0.185223</v>
       </c>
       <c r="C87" t="n">
-        <v>0.124867</v>
+        <v>0.126569</v>
       </c>
       <c r="D87" t="n">
-        <v>0.26562</v>
+        <v>0.265695</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185924</v>
+        <v>0.186059</v>
       </c>
       <c r="C88" t="n">
-        <v>0.129355</v>
+        <v>0.128913</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271518</v>
+        <v>0.272035</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18702</v>
+        <v>0.186273</v>
       </c>
       <c r="C89" t="n">
-        <v>0.132408</v>
+        <v>0.131523</v>
       </c>
       <c r="D89" t="n">
-        <v>0.28389</v>
+        <v>0.28449</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187568</v>
+        <v>0.186943</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134677</v>
+        <v>0.134131</v>
       </c>
       <c r="D90" t="n">
-        <v>0.295206</v>
+        <v>0.295444</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187476</v>
+        <v>0.187161</v>
       </c>
       <c r="C91" t="n">
-        <v>0.138406</v>
+        <v>0.135807</v>
       </c>
       <c r="D91" t="n">
-        <v>0.303931</v>
+        <v>0.305071</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187294</v>
+        <v>0.191474</v>
       </c>
       <c r="C92" t="n">
-        <v>0.140954</v>
+        <v>0.140236</v>
       </c>
       <c r="D92" t="n">
-        <v>0.28328</v>
+        <v>0.284284</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190002</v>
+        <v>0.19055</v>
       </c>
       <c r="C93" t="n">
-        <v>0.143817</v>
+        <v>0.145135</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292234</v>
+        <v>0.292864</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193612</v>
+        <v>0.192379</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21293</v>
+        <v>0.213399</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298598</v>
+        <v>0.299556</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250386</v>
+        <v>0.250939</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214711</v>
+        <v>0.2155</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307448</v>
+        <v>0.308012</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250231</v>
+        <v>0.251035</v>
       </c>
       <c r="C96" t="n">
-        <v>0.216653</v>
+        <v>0.217548</v>
       </c>
       <c r="D96" t="n">
-        <v>0.316111</v>
+        <v>0.316676</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250321</v>
+        <v>0.25098</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219022</v>
+        <v>0.219372</v>
       </c>
       <c r="D97" t="n">
-        <v>0.322748</v>
+        <v>0.323641</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250434</v>
+        <v>0.251126</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220541</v>
+        <v>0.221773</v>
       </c>
       <c r="D98" t="n">
-        <v>0.331999</v>
+        <v>0.332827</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250667</v>
+        <v>0.252519</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222345</v>
+        <v>0.223439</v>
       </c>
       <c r="D99" t="n">
-        <v>0.338832</v>
+        <v>0.340139</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25104</v>
+        <v>0.251884</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2253</v>
+        <v>0.224797</v>
       </c>
       <c r="D100" t="n">
-        <v>0.349188</v>
+        <v>0.350077</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250547</v>
+        <v>0.251578</v>
       </c>
       <c r="C101" t="n">
-        <v>0.226651</v>
+        <v>0.227994</v>
       </c>
       <c r="D101" t="n">
-        <v>0.356163</v>
+        <v>0.35708</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.251197</v>
+        <v>0.251512</v>
       </c>
       <c r="C102" t="n">
-        <v>0.228856</v>
+        <v>0.231135</v>
       </c>
       <c r="D102" t="n">
-        <v>0.364807</v>
+        <v>0.365901</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251339</v>
+        <v>0.251991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2319</v>
+        <v>0.232457</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375978</v>
+        <v>0.376758</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.251675</v>
+        <v>0.252527</v>
       </c>
       <c r="C104" t="n">
-        <v>0.234228</v>
+        <v>0.235115</v>
       </c>
       <c r="D104" t="n">
-        <v>0.385676</v>
+        <v>0.386538</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252126</v>
+        <v>0.252944</v>
       </c>
       <c r="C105" t="n">
-        <v>0.236987</v>
+        <v>0.23829</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394732</v>
+        <v>0.395816</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252936</v>
+        <v>0.253864</v>
       </c>
       <c r="C106" t="n">
-        <v>0.240028</v>
+        <v>0.241514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4047</v>
+        <v>0.405817</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254442</v>
+        <v>0.25526</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245212</v>
+        <v>0.246354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.343984</v>
+        <v>0.344904</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257931</v>
+        <v>0.25847</v>
       </c>
       <c r="C108" t="n">
-        <v>0.264201</v>
+        <v>0.263576</v>
       </c>
       <c r="D108" t="n">
-        <v>0.350301</v>
+        <v>0.350542</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26301</v>
+        <v>0.262652</v>
       </c>
       <c r="C109" t="n">
-        <v>0.265798</v>
+        <v>0.265893</v>
       </c>
       <c r="D109" t="n">
-        <v>0.359998</v>
+        <v>0.360408</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.288117</v>
+        <v>0.287956</v>
       </c>
       <c r="C110" t="n">
-        <v>0.267813</v>
+        <v>0.267148</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364933</v>
+        <v>0.365165</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.288421</v>
+        <v>0.289065</v>
       </c>
       <c r="C111" t="n">
-        <v>0.269668</v>
+        <v>0.269209</v>
       </c>
       <c r="D111" t="n">
-        <v>0.371538</v>
+        <v>0.371594</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.288097</v>
+        <v>0.287449</v>
       </c>
       <c r="C112" t="n">
-        <v>0.266657</v>
+        <v>0.266327</v>
       </c>
       <c r="D112" t="n">
-        <v>0.382899</v>
+        <v>0.383108</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.288234</v>
+        <v>0.288691</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266221</v>
+        <v>0.266205</v>
       </c>
       <c r="D113" t="n">
-        <v>0.391406</v>
+        <v>0.391652</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.288159</v>
+        <v>0.288787</v>
       </c>
       <c r="C114" t="n">
-        <v>0.269549</v>
+        <v>0.268577</v>
       </c>
       <c r="D114" t="n">
-        <v>0.400479</v>
+        <v>0.401556</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2877</v>
+        <v>0.288043</v>
       </c>
       <c r="C115" t="n">
-        <v>0.271579</v>
+        <v>0.271031</v>
       </c>
       <c r="D115" t="n">
-        <v>0.409587</v>
+        <v>0.410895</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.288559</v>
+        <v>0.288338</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274827</v>
+        <v>0.274456</v>
       </c>
       <c r="D116" t="n">
-        <v>0.418463</v>
+        <v>0.419285</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.289603</v>
+        <v>0.288543</v>
       </c>
       <c r="C117" t="n">
-        <v>0.278414</v>
+        <v>0.278356</v>
       </c>
       <c r="D117" t="n">
-        <v>0.429822</v>
+        <v>0.430292</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.288381</v>
+        <v>0.28882</v>
       </c>
       <c r="C118" t="n">
-        <v>0.281855</v>
+        <v>0.281584</v>
       </c>
       <c r="D118" t="n">
-        <v>0.436348</v>
+        <v>0.43693</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.291174</v>
+        <v>0.288985</v>
       </c>
       <c r="C119" t="n">
-        <v>0.285732</v>
+        <v>0.284733</v>
       </c>
       <c r="D119" t="n">
-        <v>0.443841</v>
+        <v>0.444564</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292231</v>
+        <v>0.290731</v>
       </c>
       <c r="C120" t="n">
-        <v>0.290146</v>
+        <v>0.289273</v>
       </c>
       <c r="D120" t="n">
-        <v>0.453485</v>
+        <v>0.453946</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292162</v>
+        <v>0.292098</v>
       </c>
       <c r="C121" t="n">
-        <v>0.29505</v>
+        <v>0.293787</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374621</v>
+        <v>0.374692</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295625</v>
+        <v>0.294941</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30022</v>
+        <v>0.300007</v>
       </c>
       <c r="D122" t="n">
-        <v>0.38333</v>
+        <v>0.38316</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.302152</v>
+        <v>0.298953</v>
       </c>
       <c r="C123" t="n">
-        <v>0.287362</v>
+        <v>0.286913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386777</v>
+        <v>0.387055</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367828</v>
+        <v>0.367178</v>
       </c>
       <c r="C124" t="n">
-        <v>0.289565</v>
+        <v>0.289447</v>
       </c>
       <c r="D124" t="n">
-        <v>0.395365</v>
+        <v>0.395775</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367312</v>
+        <v>0.367996</v>
       </c>
       <c r="C125" t="n">
-        <v>0.292148</v>
+        <v>0.291987</v>
       </c>
       <c r="D125" t="n">
-        <v>0.397178</v>
+        <v>0.39733</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368176</v>
+        <v>0.368554</v>
       </c>
       <c r="C126" t="n">
-        <v>0.29502</v>
+        <v>0.294615</v>
       </c>
       <c r="D126" t="n">
-        <v>0.411545</v>
+        <v>0.411789</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368972</v>
+        <v>0.368413</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297746</v>
+        <v>0.297463</v>
       </c>
       <c r="D127" t="n">
-        <v>0.414889</v>
+        <v>0.414936</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368304</v>
+        <v>0.369057</v>
       </c>
       <c r="C128" t="n">
-        <v>0.300886</v>
+        <v>0.300546</v>
       </c>
       <c r="D128" t="n">
-        <v>0.42856</v>
+        <v>0.428709</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367289</v>
+        <v>0.367755</v>
       </c>
       <c r="C129" t="n">
-        <v>0.303825</v>
+        <v>0.303386</v>
       </c>
       <c r="D129" t="n">
-        <v>0.436164</v>
+        <v>0.436296</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368848</v>
+        <v>0.369807</v>
       </c>
       <c r="C130" t="n">
-        <v>0.307287</v>
+        <v>0.307019</v>
       </c>
       <c r="D130" t="n">
-        <v>0.445678</v>
+        <v>0.44542</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.370592</v>
+        <v>0.370185</v>
       </c>
       <c r="C131" t="n">
-        <v>0.310907</v>
+        <v>0.3108</v>
       </c>
       <c r="D131" t="n">
-        <v>0.452252</v>
+        <v>0.451911</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370213</v>
+        <v>0.36964</v>
       </c>
       <c r="C132" t="n">
-        <v>0.315055</v>
+        <v>0.314556</v>
       </c>
       <c r="D132" t="n">
-        <v>0.462763</v>
+        <v>0.46286</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.370368</v>
+        <v>0.36823</v>
       </c>
       <c r="C133" t="n">
-        <v>0.319565</v>
+        <v>0.319321</v>
       </c>
       <c r="D133" t="n">
-        <v>0.473952</v>
+        <v>0.474559</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.373067</v>
+        <v>0.371003</v>
       </c>
       <c r="C134" t="n">
-        <v>0.326267</v>
+        <v>0.324858</v>
       </c>
       <c r="D134" t="n">
-        <v>0.48287</v>
+        <v>0.482947</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371803</v>
+        <v>0.371678</v>
       </c>
       <c r="C135" t="n">
-        <v>0.332452</v>
+        <v>0.331907</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392839</v>
+        <v>0.393202</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.374516</v>
+        <v>0.373188</v>
       </c>
       <c r="C136" t="n">
-        <v>0.341482</v>
+        <v>0.340788</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398432</v>
+        <v>0.399051</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.37582</v>
+        <v>0.377569</v>
       </c>
       <c r="C137" t="n">
-        <v>0.312277</v>
+        <v>0.311223</v>
       </c>
       <c r="D137" t="n">
-        <v>0.405859</v>
+        <v>0.405987</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430094</v>
+        <v>0.432965</v>
       </c>
       <c r="C138" t="n">
-        <v>0.314755</v>
+        <v>0.313389</v>
       </c>
       <c r="D138" t="n">
-        <v>0.40718</v>
+        <v>0.407069</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.433456</v>
+        <v>0.432882</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317257</v>
+        <v>0.315451</v>
       </c>
       <c r="D139" t="n">
-        <v>0.414019</v>
+        <v>0.413823</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.433375</v>
+        <v>0.432931</v>
       </c>
       <c r="C140" t="n">
-        <v>0.319803</v>
+        <v>0.317905</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426304</v>
+        <v>0.425972</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43363</v>
+        <v>0.433262</v>
       </c>
       <c r="C141" t="n">
-        <v>0.320683</v>
+        <v>0.320351</v>
       </c>
       <c r="D141" t="n">
-        <v>0.43413</v>
+        <v>0.434243</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.427965</v>
+        <v>0.433426</v>
       </c>
       <c r="C142" t="n">
-        <v>0.322723</v>
+        <v>0.322077</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438471</v>
+        <v>0.438621</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.433676</v>
+        <v>0.434274</v>
       </c>
       <c r="C143" t="n">
-        <v>0.32458</v>
+        <v>0.32485</v>
       </c>
       <c r="D143" t="n">
-        <v>0.452552</v>
+        <v>0.452287</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0424625</v>
+        <v>0.0436848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0441663</v>
+        <v>0.06992370000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06983839999999999</v>
+        <v>0.0456667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0428713</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043923</v>
+        <v>0.0429447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0446384</v>
+        <v>0.07621749999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0762997</v>
+        <v>0.045973</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0432559</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0437549</v>
+        <v>0.0435698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0453764</v>
+        <v>0.0845114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08368349999999999</v>
+        <v>0.046248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0433386</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0434802</v>
+        <v>0.0434343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0452154</v>
+        <v>0.09222909999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09053410000000001</v>
+        <v>0.0460279</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0434346</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0431096</v>
+        <v>0.0435213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0450546</v>
+        <v>0.09844</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0975965</v>
+        <v>0.0464113</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.044253</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0450209</v>
+        <v>0.044036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0463612</v>
+        <v>0.0627622</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0616013</v>
+        <v>0.0472014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.044861</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0452453</v>
+        <v>0.0440843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0477373</v>
+        <v>0.0645768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0636737</v>
+        <v>0.0481022</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0467667</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461024</v>
+        <v>0.0442875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0479378</v>
+        <v>0.0692171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0680475</v>
+        <v>0.0475674</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0446082</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0498584</v>
+        <v>0.0500997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0474813</v>
+        <v>0.07423440000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07315580000000001</v>
+        <v>0.0481161</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0443859</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0503859</v>
+        <v>0.0499237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0474285</v>
+        <v>0.0799734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07906680000000001</v>
+        <v>0.0480807</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0449302</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0504203</v>
+        <v>0.050057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0485987</v>
+        <v>0.0840655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0836061</v>
+        <v>0.0484895</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0448099</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0504708</v>
+        <v>0.05014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0489807</v>
+        <v>0.0892183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0888996</v>
+        <v>0.0488728</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0449326</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0501308</v>
+        <v>0.0509394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.048384</v>
+        <v>0.0942146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09469420000000001</v>
+        <v>0.0492216</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0454257</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506578</v>
+        <v>0.0503422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0492414</v>
+        <v>0.098771</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0993015</v>
+        <v>0.0494476</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0459123</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0510647</v>
+        <v>0.051265</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0501171</v>
+        <v>0.103836</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103939</v>
+        <v>0.0499147</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0460446</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0512384</v>
+        <v>0.0511228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0494134</v>
+        <v>0.109117</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108716</v>
+        <v>0.0497525</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0462274</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0513491</v>
+        <v>0.0516088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.050243</v>
+        <v>0.113642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113023</v>
+        <v>0.0504938</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.046626</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0514654</v>
+        <v>0.0514965</v>
       </c>
       <c r="C19" t="n">
-        <v>0.050557</v>
+        <v>0.118179</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117734</v>
+        <v>0.0504048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0469479</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0516304</v>
+        <v>0.0513434</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0510842</v>
+        <v>0.121217</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121137</v>
+        <v>0.0506673</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0479502</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515823</v>
+        <v>0.0515729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0517025</v>
+        <v>0.0849805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08506519999999999</v>
+        <v>0.0523194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.049751</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0525277</v>
+        <v>0.0520027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0560068</v>
+        <v>0.08762300000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0879496</v>
+        <v>0.0565672</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0537593</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0535799</v>
+        <v>0.0526976</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0529692</v>
+        <v>0.0914635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0916449</v>
+        <v>0.0539569</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0496875</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0551902</v>
+        <v>0.0550236</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0525849</v>
+        <v>0.0948126</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0950207</v>
+        <v>0.053515</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0499044</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548531</v>
+        <v>0.0550064</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0528291</v>
+        <v>0.09860380000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0991814</v>
+        <v>0.0540793</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0501411</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.054784</v>
+        <v>0.0551015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0532555</v>
+        <v>0.102013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102466</v>
+        <v>0.0548591</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0504816</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0548996</v>
+        <v>0.0554405</v>
       </c>
       <c r="C27" t="n">
-        <v>0.053715</v>
+        <v>0.106188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106319</v>
+        <v>0.0548159</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0508115</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0550583</v>
+        <v>0.0553341</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0540562</v>
+        <v>0.110558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110728</v>
+        <v>0.0549572</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0510679</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0552978</v>
+        <v>0.0554609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0543636</v>
+        <v>0.114286</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114292</v>
+        <v>0.0552822</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0514091</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0552165</v>
+        <v>0.0558167</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0547798</v>
+        <v>0.118129</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118734</v>
+        <v>0.0560703</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0517543</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0554298</v>
+        <v>0.0559201</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0552893</v>
+        <v>0.12226</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122524</v>
+        <v>0.0561295</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0520883</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558619</v>
+        <v>0.0562185</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0556603</v>
+        <v>0.125681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125786</v>
+        <v>0.0563935</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0526745</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0560124</v>
+        <v>0.0564139</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0560073</v>
+        <v>0.129009</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129425</v>
+        <v>0.0569526</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0530948</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0561859</v>
+        <v>0.0567506</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0573425</v>
+        <v>0.132216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132009</v>
+        <v>0.0580787</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0545839</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0568244</v>
+        <v>0.0570772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0598692</v>
+        <v>0.0933113</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931636</v>
+        <v>0.0609299</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0580367</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0576876</v>
+        <v>0.0580168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0664141</v>
+        <v>0.095397</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09544619999999999</v>
+        <v>0.0672055</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.06501129999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605915</v>
+        <v>0.0606249</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0581862</v>
+        <v>0.0975521</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09771100000000001</v>
+        <v>0.0587233</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0537655</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0599158</v>
+        <v>0.0612822</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0570701</v>
+        <v>0.100277</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100594</v>
+        <v>0.0573324</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0541207</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0601676</v>
+        <v>0.0598503</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0575702</v>
+        <v>0.103502</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103832</v>
+        <v>0.0581937</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0543681</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0606152</v>
+        <v>0.0595739</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0581283</v>
+        <v>0.106624</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107178</v>
+        <v>0.0581819</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0547006</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0600275</v>
+        <v>0.0597933</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0582707</v>
+        <v>0.11045</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110933</v>
+        <v>0.0585526</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0551271</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0598379</v>
+        <v>0.0601942</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0603498</v>
+        <v>0.113678</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114367</v>
+        <v>0.0595704</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.05553</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0598774</v>
+        <v>0.0604067</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0592663</v>
+        <v>0.11813</v>
       </c>
       <c r="D43" t="n">
-        <v>0.118098</v>
+        <v>0.0607845</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0559553</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0599531</v>
+        <v>0.0605328</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0597648</v>
+        <v>0.121952</v>
       </c>
       <c r="D44" t="n">
-        <v>0.122023</v>
+        <v>0.0601087</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0563705</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0600981</v>
+        <v>0.0607994</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0601835</v>
+        <v>0.125504</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125705</v>
+        <v>0.06277679999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0567631</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0606397</v>
+        <v>0.0608114</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0623732</v>
+        <v>0.12907</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1295</v>
+        <v>0.0617743</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0575288</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0626312</v>
+        <v>0.0613075</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0634477</v>
+        <v>0.132374</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132328</v>
+        <v>0.0628997</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0587179</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0615634</v>
+        <v>0.0625291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0642971</v>
+        <v>0.135973</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136778</v>
+        <v>0.0650293</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0613161</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0627554</v>
+        <v>0.0624509</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06811209999999999</v>
+        <v>0.139126</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139136</v>
+        <v>0.06847</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.06512220000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0647368</v>
+        <v>0.0637751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0729672</v>
+        <v>0.0974233</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0972404</v>
+        <v>0.07266010000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0701025</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06869020000000001</v>
+        <v>0.0671616</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0608123</v>
+        <v>0.0997043</v>
       </c>
       <c r="D51" t="n">
-        <v>0.099424</v>
+        <v>0.063233</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.056926</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07364</v>
+        <v>0.0729802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0609469</v>
+        <v>0.102077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102222</v>
+        <v>0.0614511</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0571608</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.067804</v>
+        <v>0.0675519</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0615572</v>
+        <v>0.105181</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105295</v>
+        <v>0.0618826</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0575509</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0678159</v>
+        <v>0.06766179999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0617749</v>
+        <v>0.108317</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108573</v>
+        <v>0.0623983</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0579782</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0673053</v>
+        <v>0.06761880000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0623698</v>
+        <v>0.111996</v>
       </c>
       <c r="D55" t="n">
-        <v>0.111896</v>
+        <v>0.0629683</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0584274</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06753530000000001</v>
+        <v>0.0677334</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06264699999999999</v>
+        <v>0.115712</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116282</v>
+        <v>0.0658576</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0585316</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0674028</v>
+        <v>0.06784610000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0632239</v>
+        <v>0.119738</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119914</v>
+        <v>0.0640324</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0602172</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0679009</v>
+        <v>0.0679685</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0638145</v>
+        <v>0.123486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123652</v>
+        <v>0.0644595</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0614311</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06826309999999999</v>
+        <v>0.06912749999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06467829999999999</v>
+        <v>0.12743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127897</v>
+        <v>0.0652837</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0622618</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0686792</v>
+        <v>0.0684221</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0657021</v>
+        <v>0.131223</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131303</v>
+        <v>0.0665697</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0634913</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0688373</v>
+        <v>0.068868</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0674236</v>
+        <v>0.13488</v>
       </c>
       <c r="D61" t="n">
-        <v>0.134753</v>
+        <v>0.0708823</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.065983</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0694524</v>
+        <v>0.0701743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0697733</v>
+        <v>0.138412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138529</v>
+        <v>0.07317940000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06908350000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0706159</v>
+        <v>0.07042569999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07268280000000001</v>
+        <v>0.14215</v>
       </c>
       <c r="D63" t="n">
-        <v>0.141687</v>
+        <v>0.0758554</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.07220169999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0719407</v>
+        <v>0.0728538</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0766993</v>
+        <v>0.106083</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10436</v>
+        <v>0.0775004</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0763819</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07476579999999999</v>
+        <v>0.0746568</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08297839999999999</v>
+        <v>0.107127</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107151</v>
+        <v>0.0838407</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.08416659999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07936890000000001</v>
+        <v>0.07979559999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0647494</v>
+        <v>0.112105</v>
       </c>
       <c r="D66" t="n">
-        <v>0.111386</v>
+        <v>0.0654486</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.06382839999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0787388</v>
+        <v>0.0803234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0651458</v>
+        <v>0.115769</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115344</v>
+        <v>0.065857</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0639667</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0799197</v>
+        <v>0.0790289</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0653754</v>
+        <v>0.120895</v>
       </c>
       <c r="D68" t="n">
-        <v>0.11952</v>
+        <v>0.06634130000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0651823</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0817092</v>
+        <v>0.0799836</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06609279999999999</v>
+        <v>0.127153</v>
       </c>
       <c r="D69" t="n">
-        <v>0.12477</v>
+        <v>0.0668441</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.06566080000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08182739999999999</v>
+        <v>0.0786261</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0666612</v>
+        <v>0.133334</v>
       </c>
       <c r="D70" t="n">
-        <v>0.131999</v>
+        <v>0.06761</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0669362</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0806521</v>
+        <v>0.0796915</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0673165</v>
+        <v>0.139803</v>
       </c>
       <c r="D71" t="n">
-        <v>0.136911</v>
+        <v>0.06757349999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0683718</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.080164</v>
+        <v>0.08162510000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0682281</v>
+        <v>0.149422</v>
       </c>
       <c r="D72" t="n">
-        <v>0.14444</v>
+        <v>0.068269</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.06977940000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08026369999999999</v>
+        <v>0.0810607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06920709999999999</v>
+        <v>0.154942</v>
       </c>
       <c r="D73" t="n">
-        <v>0.152385</v>
+        <v>0.0692108</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0715807</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0807379</v>
+        <v>0.081397</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07045319999999999</v>
+        <v>0.16532</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160857</v>
+        <v>0.07037259999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.07395069999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0804291</v>
+        <v>0.08214970000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0713712</v>
+        <v>0.17319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170288</v>
+        <v>0.0720823</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0757135</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08057400000000001</v>
+        <v>0.0828938</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0733207</v>
+        <v>0.181077</v>
       </c>
       <c r="D76" t="n">
-        <v>0.177578</v>
+        <v>0.0742685</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0788865</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08284030000000001</v>
+        <v>0.0824093</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07586660000000001</v>
+        <v>0.188101</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186977</v>
+        <v>0.0769779</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0828415</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08357290000000001</v>
+        <v>0.0855136</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0803431</v>
+        <v>0.183631</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185215</v>
+        <v>0.08058029999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0889172</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.086467</v>
+        <v>0.0875017</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0852034</v>
+        <v>0.191358</v>
       </c>
       <c r="D79" t="n">
-        <v>0.191839</v>
+        <v>0.0862622</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0961712</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0892872</v>
+        <v>0.09145490000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.112521</v>
+        <v>0.200689</v>
       </c>
       <c r="D80" t="n">
-        <v>0.198666</v>
+        <v>0.109482</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.10513</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18486</v>
+        <v>0.181589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.113926</v>
+        <v>0.209309</v>
       </c>
       <c r="D81" t="n">
-        <v>0.209191</v>
+        <v>0.111526</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.107175</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182555</v>
+        <v>0.181686</v>
       </c>
       <c r="C82" t="n">
-        <v>0.11649</v>
+        <v>0.215973</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217574</v>
+        <v>0.113923</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.108564</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.18344</v>
+        <v>0.183073</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118149</v>
+        <v>0.227968</v>
       </c>
       <c r="D83" t="n">
-        <v>0.223421</v>
+        <v>0.116418</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.108943</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.184561</v>
+        <v>0.183581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121308</v>
+        <v>0.234311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235648</v>
+        <v>0.118806</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.110504</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184679</v>
+        <v>0.184576</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12279</v>
+        <v>0.243995</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245846</v>
+        <v>0.120889</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.10814</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18464</v>
+        <v>0.185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.125265</v>
+        <v>0.255288</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256503</v>
+        <v>0.123102</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.109601</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185223</v>
+        <v>0.185357</v>
       </c>
       <c r="C87" t="n">
-        <v>0.126569</v>
+        <v>0.263017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265695</v>
+        <v>0.1251</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.110761</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186059</v>
+        <v>0.185296</v>
       </c>
       <c r="C88" t="n">
-        <v>0.128913</v>
+        <v>0.27556</v>
       </c>
       <c r="D88" t="n">
-        <v>0.272035</v>
+        <v>0.127559</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.116544</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186273</v>
+        <v>0.186127</v>
       </c>
       <c r="C89" t="n">
-        <v>0.131523</v>
+        <v>0.283957</v>
       </c>
       <c r="D89" t="n">
-        <v>0.28449</v>
+        <v>0.129661</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.118322</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186943</v>
+        <v>0.187443</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134131</v>
+        <v>0.292857</v>
       </c>
       <c r="D90" t="n">
-        <v>0.295444</v>
+        <v>0.132264</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.121442</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187161</v>
+        <v>0.188878</v>
       </c>
       <c r="C91" t="n">
-        <v>0.135807</v>
+        <v>0.304079</v>
       </c>
       <c r="D91" t="n">
-        <v>0.305071</v>
+        <v>0.135326</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.122487</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191474</v>
+        <v>0.18844</v>
       </c>
       <c r="C92" t="n">
-        <v>0.140236</v>
+        <v>0.288409</v>
       </c>
       <c r="D92" t="n">
-        <v>0.284284</v>
+        <v>0.140182</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.129197</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19055</v>
+        <v>0.189617</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145135</v>
+        <v>0.295814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292864</v>
+        <v>0.14309</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.133198</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192379</v>
+        <v>0.192222</v>
       </c>
       <c r="C94" t="n">
-        <v>0.213399</v>
+        <v>0.303157</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299556</v>
+        <v>0.213915</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.202444</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250939</v>
+        <v>0.251052</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2155</v>
+        <v>0.308203</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308012</v>
+        <v>0.216076</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.203516</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251035</v>
+        <v>0.250831</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217548</v>
+        <v>0.314588</v>
       </c>
       <c r="D96" t="n">
-        <v>0.316676</v>
+        <v>0.218688</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.20423</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25098</v>
+        <v>0.251023</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219372</v>
+        <v>0.325773</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323641</v>
+        <v>0.21943</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.205359</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251126</v>
+        <v>0.251762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221773</v>
+        <v>0.330562</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332827</v>
+        <v>0.222162</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.20622</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.252519</v>
+        <v>0.250938</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223439</v>
+        <v>0.33998</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340139</v>
+        <v>0.223511</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.207813</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251884</v>
+        <v>0.251796</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224797</v>
+        <v>0.348422</v>
       </c>
       <c r="D100" t="n">
-        <v>0.350077</v>
+        <v>0.226773</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.209196</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251578</v>
+        <v>0.251805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227994</v>
+        <v>0.357842</v>
       </c>
       <c r="D101" t="n">
-        <v>0.35708</v>
+        <v>0.227871</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.210633</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.251512</v>
+        <v>0.25156</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231135</v>
+        <v>0.368407</v>
       </c>
       <c r="D102" t="n">
-        <v>0.365901</v>
+        <v>0.231139</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.212032</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251991</v>
+        <v>0.251644</v>
       </c>
       <c r="C103" t="n">
-        <v>0.232457</v>
+        <v>0.377446</v>
       </c>
       <c r="D103" t="n">
-        <v>0.376758</v>
+        <v>0.232887</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.213229</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252527</v>
+        <v>0.2521</v>
       </c>
       <c r="C104" t="n">
-        <v>0.235115</v>
+        <v>0.385912</v>
       </c>
       <c r="D104" t="n">
-        <v>0.386538</v>
+        <v>0.235107</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.215897</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252944</v>
+        <v>0.252613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23829</v>
+        <v>0.393917</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395816</v>
+        <v>0.238508</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.219073</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253864</v>
+        <v>0.253214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.241514</v>
+        <v>0.407275</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405817</v>
+        <v>0.242265</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.223179</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25526</v>
+        <v>0.255805</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246354</v>
+        <v>0.349162</v>
       </c>
       <c r="D107" t="n">
-        <v>0.344904</v>
+        <v>0.245539</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.229169</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.25847</v>
+        <v>0.258104</v>
       </c>
       <c r="C108" t="n">
-        <v>0.263576</v>
+        <v>0.355063</v>
       </c>
       <c r="D108" t="n">
-        <v>0.350542</v>
+        <v>0.263399</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.252013</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262652</v>
+        <v>0.262484</v>
       </c>
       <c r="C109" t="n">
-        <v>0.265893</v>
+        <v>0.360685</v>
       </c>
       <c r="D109" t="n">
-        <v>0.360408</v>
+        <v>0.265433</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.253737</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287956</v>
+        <v>0.287838</v>
       </c>
       <c r="C110" t="n">
-        <v>0.267148</v>
+        <v>0.367395</v>
       </c>
       <c r="D110" t="n">
-        <v>0.365165</v>
+        <v>0.26742</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.255137</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.289065</v>
+        <v>0.287506</v>
       </c>
       <c r="C111" t="n">
-        <v>0.269209</v>
+        <v>0.374934</v>
       </c>
       <c r="D111" t="n">
-        <v>0.371594</v>
+        <v>0.269578</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.257018</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.287449</v>
+        <v>0.288267</v>
       </c>
       <c r="C112" t="n">
-        <v>0.266327</v>
+        <v>0.381827</v>
       </c>
       <c r="D112" t="n">
-        <v>0.383108</v>
+        <v>0.266276</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.258634</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.288691</v>
+        <v>0.28854</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266205</v>
+        <v>0.389824</v>
       </c>
       <c r="D113" t="n">
-        <v>0.391652</v>
+        <v>0.266504</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.260775</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.288787</v>
+        <v>0.288348</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268577</v>
+        <v>0.397563</v>
       </c>
       <c r="D114" t="n">
-        <v>0.401556</v>
+        <v>0.268719</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.262593</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288043</v>
+        <v>0.28769</v>
       </c>
       <c r="C115" t="n">
-        <v>0.271031</v>
+        <v>0.403527</v>
       </c>
       <c r="D115" t="n">
-        <v>0.410895</v>
+        <v>0.271943</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.265276</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.288338</v>
+        <v>0.287847</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274456</v>
+        <v>0.412977</v>
       </c>
       <c r="D116" t="n">
-        <v>0.419285</v>
+        <v>0.274717</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.267968</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288543</v>
+        <v>0.288211</v>
       </c>
       <c r="C117" t="n">
-        <v>0.278356</v>
+        <v>0.422654</v>
       </c>
       <c r="D117" t="n">
-        <v>0.430292</v>
+        <v>0.278704</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.27121</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28882</v>
+        <v>0.289133</v>
       </c>
       <c r="C118" t="n">
-        <v>0.281584</v>
+        <v>0.437162</v>
       </c>
       <c r="D118" t="n">
-        <v>0.43693</v>
+        <v>0.281795</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.27571</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288985</v>
+        <v>0.289824</v>
       </c>
       <c r="C119" t="n">
-        <v>0.284733</v>
+        <v>0.449457</v>
       </c>
       <c r="D119" t="n">
-        <v>0.444564</v>
+        <v>0.28385</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.279397</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290731</v>
+        <v>0.290304</v>
       </c>
       <c r="C120" t="n">
-        <v>0.289273</v>
+        <v>0.458041</v>
       </c>
       <c r="D120" t="n">
-        <v>0.453946</v>
+        <v>0.289281</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.286273</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292098</v>
+        <v>0.29287</v>
       </c>
       <c r="C121" t="n">
-        <v>0.293787</v>
+        <v>0.374813</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374692</v>
+        <v>0.29413</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.294546</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294941</v>
+        <v>0.295137</v>
       </c>
       <c r="C122" t="n">
-        <v>0.300007</v>
+        <v>0.381553</v>
       </c>
       <c r="D122" t="n">
-        <v>0.38316</v>
+        <v>0.299108</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.30624</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298953</v>
+        <v>0.29913</v>
       </c>
       <c r="C123" t="n">
-        <v>0.286913</v>
+        <v>0.384519</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387055</v>
+        <v>0.287057</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.285131</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367178</v>
+        <v>0.367825</v>
       </c>
       <c r="C124" t="n">
-        <v>0.289447</v>
+        <v>0.397372</v>
       </c>
       <c r="D124" t="n">
-        <v>0.395775</v>
+        <v>0.2897</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.286478</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367996</v>
+        <v>0.368396</v>
       </c>
       <c r="C125" t="n">
-        <v>0.291987</v>
+        <v>0.403473</v>
       </c>
       <c r="D125" t="n">
-        <v>0.39733</v>
+        <v>0.292618</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.288844</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368554</v>
+        <v>0.367331</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294615</v>
+        <v>0.406544</v>
       </c>
       <c r="D126" t="n">
-        <v>0.411789</v>
+        <v>0.294648</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.291144</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368413</v>
+        <v>0.367631</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297463</v>
+        <v>0.419288</v>
       </c>
       <c r="D127" t="n">
-        <v>0.414936</v>
+        <v>0.297484</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.293355</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.369057</v>
+        <v>0.368303</v>
       </c>
       <c r="C128" t="n">
-        <v>0.300546</v>
+        <v>0.423045</v>
       </c>
       <c r="D128" t="n">
-        <v>0.428709</v>
+        <v>0.300477</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.296549</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367755</v>
+        <v>0.367951</v>
       </c>
       <c r="C129" t="n">
-        <v>0.303386</v>
+        <v>0.437</v>
       </c>
       <c r="D129" t="n">
-        <v>0.436296</v>
+        <v>0.303641</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.299323</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.369807</v>
+        <v>0.369215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.307019</v>
+        <v>0.442454</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44542</v>
+        <v>0.306801</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.302991</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.370185</v>
+        <v>0.369807</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3108</v>
+        <v>0.45013</v>
       </c>
       <c r="D131" t="n">
-        <v>0.451911</v>
+        <v>0.310606</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.307066</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36964</v>
+        <v>0.370871</v>
       </c>
       <c r="C132" t="n">
-        <v>0.314556</v>
+        <v>0.460424</v>
       </c>
       <c r="D132" t="n">
-        <v>0.46286</v>
+        <v>0.314966</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.306133</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36823</v>
+        <v>0.369048</v>
       </c>
       <c r="C133" t="n">
-        <v>0.319321</v>
+        <v>0.469244</v>
       </c>
       <c r="D133" t="n">
-        <v>0.474559</v>
+        <v>0.319488</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.312482</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.371003</v>
+        <v>0.369935</v>
       </c>
       <c r="C134" t="n">
-        <v>0.324858</v>
+        <v>0.486477</v>
       </c>
       <c r="D134" t="n">
-        <v>0.482947</v>
+        <v>0.32514</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.320746</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371678</v>
+        <v>0.37091</v>
       </c>
       <c r="C135" t="n">
-        <v>0.331907</v>
+        <v>0.392297</v>
       </c>
       <c r="D135" t="n">
-        <v>0.393202</v>
+        <v>0.331552</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.331931</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373188</v>
+        <v>0.373202</v>
       </c>
       <c r="C136" t="n">
-        <v>0.340788</v>
+        <v>0.398302</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399051</v>
+        <v>0.341293</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.346044</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.377569</v>
+        <v>0.378214</v>
       </c>
       <c r="C137" t="n">
-        <v>0.311223</v>
+        <v>0.399442</v>
       </c>
       <c r="D137" t="n">
-        <v>0.405987</v>
+        <v>0.311569</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.305565</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.432965</v>
+        <v>0.432806</v>
       </c>
       <c r="C138" t="n">
-        <v>0.313389</v>
+        <v>0.412635</v>
       </c>
       <c r="D138" t="n">
-        <v>0.407069</v>
+        <v>0.313461</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.307225</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.432882</v>
+        <v>0.432308</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315451</v>
+        <v>0.417975</v>
       </c>
       <c r="D139" t="n">
-        <v>0.413823</v>
+        <v>0.315745</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.309267</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.432931</v>
+        <v>0.43268</v>
       </c>
       <c r="C140" t="n">
-        <v>0.317905</v>
+        <v>0.422096</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425972</v>
+        <v>0.31793</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.311896</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.433262</v>
+        <v>0.432857</v>
       </c>
       <c r="C141" t="n">
-        <v>0.320351</v>
+        <v>0.434751</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434243</v>
+        <v>0.320029</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.314593</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.433426</v>
+        <v>0.433206</v>
       </c>
       <c r="C142" t="n">
-        <v>0.322077</v>
+        <v>0.437376</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438621</v>
+        <v>0.322454</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.317977</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.434274</v>
+        <v>0.433505</v>
       </c>
       <c r="C143" t="n">
-        <v>0.32485</v>
+        <v>0.452212</v>
       </c>
       <c r="D143" t="n">
-        <v>0.452287</v>
+        <v>0.324457</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.320889</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436848</v>
+        <v>0.0426481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06992370000000001</v>
+        <v>0.0433302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0456667</v>
+        <v>0.0456316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0428713</v>
+        <v>0.0425919</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0429447</v>
+        <v>0.0445161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07621749999999999</v>
+        <v>0.0440549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.045973</v>
+        <v>0.045539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0432559</v>
+        <v>0.0427552</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0435698</v>
+        <v>0.0449447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0845114</v>
+        <v>0.0435431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.046248</v>
+        <v>0.0447979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0433386</v>
+        <v>0.0428931</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0434343</v>
+        <v>0.0450567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09222909999999999</v>
+        <v>0.0439442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0460279</v>
+        <v>0.0449855</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0434346</v>
+        <v>0.0430872</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0435213</v>
+        <v>0.0437947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09844</v>
+        <v>0.0440755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0464113</v>
+        <v>0.0450085</v>
       </c>
       <c r="E6" t="n">
-        <v>0.044253</v>
+        <v>0.0436444</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.044036</v>
+        <v>0.0451973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0627622</v>
+        <v>0.0440634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0472014</v>
+        <v>0.0460767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.044861</v>
+        <v>0.04435</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0440843</v>
+        <v>0.0455345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0645768</v>
+        <v>0.0449852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0481022</v>
+        <v>0.0470155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0467667</v>
+        <v>0.0458028</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0442875</v>
+        <v>0.0450146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0692171</v>
+        <v>0.0463834</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0475674</v>
+        <v>0.0463722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0446082</v>
+        <v>0.0447084</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0500997</v>
+        <v>0.0498186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07423440000000001</v>
+        <v>0.0491931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0481161</v>
+        <v>0.046724</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0443859</v>
+        <v>0.0446284</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0499237</v>
+        <v>0.0496552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0799734</v>
+        <v>0.049499</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0480807</v>
+        <v>0.0470109</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0449302</v>
+        <v>0.0448957</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.050057</v>
+        <v>0.0499521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0840655</v>
+        <v>0.0494682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0484895</v>
+        <v>0.047224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0448099</v>
+        <v>0.0450609</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05014</v>
+        <v>0.049884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0892183</v>
+        <v>0.0495548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0488728</v>
+        <v>0.0476256</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0449326</v>
+        <v>0.0454283</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0509394</v>
+        <v>0.0499832</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0942146</v>
+        <v>0.0497467</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0492216</v>
+        <v>0.0479534</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0454257</v>
+        <v>0.0458907</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0503422</v>
+        <v>0.0500185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.098771</v>
+        <v>0.0499678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0494476</v>
+        <v>0.048366</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0459123</v>
+        <v>0.0461993</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.051265</v>
+        <v>0.0502859</v>
       </c>
       <c r="C16" t="n">
-        <v>0.103836</v>
+        <v>0.0501601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0499147</v>
+        <v>0.0486958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0460446</v>
+        <v>0.0464728</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0511228</v>
+        <v>0.0507416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.109117</v>
+        <v>0.0503363</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0497525</v>
+        <v>0.049001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0462274</v>
+        <v>0.0469475</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0516088</v>
+        <v>0.0507055</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113642</v>
+        <v>0.0504899</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0504938</v>
+        <v>0.0493929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.046626</v>
+        <v>0.047188</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0514965</v>
+        <v>0.05089</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118179</v>
+        <v>0.0509733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0504048</v>
+        <v>0.0496394</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0469479</v>
+        <v>0.0478975</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0513434</v>
+        <v>0.0511895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.121217</v>
+        <v>0.0514211</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0506673</v>
+        <v>0.0506245</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0479502</v>
+        <v>0.0489863</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515729</v>
+        <v>0.0512988</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0849805</v>
+        <v>0.0518947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0523194</v>
+        <v>0.0517799</v>
       </c>
       <c r="E21" t="n">
-        <v>0.049751</v>
+        <v>0.0503133</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0520027</v>
+        <v>0.0519416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08762300000000001</v>
+        <v>0.0524496</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0565672</v>
+        <v>0.0561653</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0537593</v>
+        <v>0.0536544</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0526976</v>
+        <v>0.0534278</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0914635</v>
+        <v>0.0545559</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0539569</v>
+        <v>0.0531628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0496875</v>
+        <v>0.0497569</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550236</v>
+        <v>0.0552357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0948126</v>
+        <v>0.0565329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.053515</v>
+        <v>0.0530802</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0499044</v>
+        <v>0.049942</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550064</v>
+        <v>0.0551136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09860380000000001</v>
+        <v>0.0566878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0540793</v>
+        <v>0.0533465</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0501411</v>
+        <v>0.0501208</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551015</v>
+        <v>0.0551273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.102013</v>
+        <v>0.0568607</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0548591</v>
+        <v>0.0539478</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0504816</v>
+        <v>0.0504395</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554405</v>
+        <v>0.0553505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106188</v>
+        <v>0.0568757</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0548159</v>
+        <v>0.0539711</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0508115</v>
+        <v>0.0506951</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0553341</v>
+        <v>0.0553871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110558</v>
+        <v>0.0569649</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0549572</v>
+        <v>0.0546705</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0510679</v>
+        <v>0.0510381</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554609</v>
+        <v>0.0553778</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114286</v>
+        <v>0.0572618</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0552822</v>
+        <v>0.0557914</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0514091</v>
+        <v>0.0519955</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558167</v>
+        <v>0.0555272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.118129</v>
+        <v>0.0573029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0560703</v>
+        <v>0.0549702</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0517543</v>
+        <v>0.0515769</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0559201</v>
+        <v>0.0555992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12226</v>
+        <v>0.0575592</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0561295</v>
+        <v>0.0556764</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0520883</v>
+        <v>0.0519661</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0562185</v>
+        <v>0.0560219</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125681</v>
+        <v>0.0577888</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0563935</v>
+        <v>0.056589</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0526745</v>
+        <v>0.0523695</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564139</v>
+        <v>0.0561106</v>
       </c>
       <c r="C33" t="n">
-        <v>0.129009</v>
+        <v>0.0580897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0569526</v>
+        <v>0.056535</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0530948</v>
+        <v>0.053648</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0567506</v>
+        <v>0.0565295</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132216</v>
+        <v>0.0585815</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0580787</v>
+        <v>0.0576595</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0545839</v>
+        <v>0.0547201</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0570772</v>
+        <v>0.0569882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0933113</v>
+        <v>0.0591823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0609299</v>
+        <v>0.0605816</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0580367</v>
+        <v>0.0576789</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0580168</v>
+        <v>0.0579251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.095397</v>
+        <v>0.0604344</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0672055</v>
+        <v>0.06702900000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06501129999999999</v>
+        <v>0.06439060000000001</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0606249</v>
+        <v>0.0603456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0975521</v>
+        <v>0.06326279999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0587233</v>
+        <v>0.0578367</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0537655</v>
+        <v>0.0538901</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0612822</v>
+        <v>0.0605196</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100277</v>
+        <v>0.0631539</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0573324</v>
+        <v>0.0569318</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0541207</v>
+        <v>0.0538422</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0598503</v>
+        <v>0.06084</v>
       </c>
       <c r="C39" t="n">
-        <v>0.103502</v>
+        <v>0.0631061</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0581937</v>
+        <v>0.0569423</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0543681</v>
+        <v>0.0541769</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0595739</v>
+        <v>0.0608862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.106624</v>
+        <v>0.0634516</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0581819</v>
+        <v>0.0575592</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0547006</v>
+        <v>0.0544986</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0597933</v>
+        <v>0.0609793</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11045</v>
+        <v>0.0636483</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0585526</v>
+        <v>0.0580894</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0551271</v>
+        <v>0.0547802</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0601942</v>
+        <v>0.0610877</v>
       </c>
       <c r="C42" t="n">
-        <v>0.113678</v>
+        <v>0.06358999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0595704</v>
+        <v>0.0584783</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05553</v>
+        <v>0.0551003</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0604067</v>
+        <v>0.0611273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11813</v>
+        <v>0.06373810000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0607845</v>
+        <v>0.0590416</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0559553</v>
+        <v>0.0555709</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0605328</v>
+        <v>0.0614022</v>
       </c>
       <c r="C44" t="n">
-        <v>0.121952</v>
+        <v>0.0641351</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0601087</v>
+        <v>0.0593363</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0563705</v>
+        <v>0.0560671</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0607994</v>
+        <v>0.0615068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125504</v>
+        <v>0.06421200000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06277679999999999</v>
+        <v>0.0600417</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0567631</v>
+        <v>0.0564667</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0608114</v>
+        <v>0.0617526</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12907</v>
+        <v>0.06464789999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0617743</v>
+        <v>0.0609189</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0575288</v>
+        <v>0.0573123</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0613075</v>
+        <v>0.062003</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132374</v>
+        <v>0.064873</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0628997</v>
+        <v>0.062019</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0587179</v>
+        <v>0.0584871</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0625291</v>
+        <v>0.0623635</v>
       </c>
       <c r="C48" t="n">
-        <v>0.135973</v>
+        <v>0.0653435</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0650293</v>
+        <v>0.0641525</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0613161</v>
+        <v>0.0608139</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0624509</v>
+        <v>0.06308279999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.139126</v>
+        <v>0.06632979999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06847</v>
+        <v>0.0675444</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06512220000000001</v>
+        <v>0.06486</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0637751</v>
+        <v>0.06463289999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0974233</v>
+        <v>0.06849769999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07266010000000001</v>
+        <v>0.0723053</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0701025</v>
+        <v>0.07001540000000001</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0671616</v>
+        <v>0.067977</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0997043</v>
+        <v>0.07193919999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.063233</v>
+        <v>0.0631237</v>
       </c>
       <c r="E51" t="n">
-        <v>0.056926</v>
+        <v>0.057207</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0729802</v>
+        <v>0.0734194</v>
       </c>
       <c r="C52" t="n">
-        <v>0.102077</v>
+        <v>0.07831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0614511</v>
+        <v>0.06315750000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0571608</v>
+        <v>0.0575379</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0675519</v>
+        <v>0.06756760000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.105181</v>
+        <v>0.0707217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0618826</v>
+        <v>0.0613102</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0575509</v>
+        <v>0.0577716</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06766179999999999</v>
+        <v>0.06780509999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.108317</v>
+        <v>0.0708018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0623983</v>
+        <v>0.0616933</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0579782</v>
+        <v>0.0580775</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06761880000000001</v>
+        <v>0.06760969999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.111996</v>
+        <v>0.0709881</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0629683</v>
+        <v>0.0620705</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0584274</v>
+        <v>0.0585273</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0677334</v>
+        <v>0.0679971</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115712</v>
+        <v>0.07129489999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0658576</v>
+        <v>0.0625566</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0585316</v>
+        <v>0.0590745</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06784610000000001</v>
+        <v>0.06785629999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.119738</v>
+        <v>0.07152169999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0640324</v>
+        <v>0.0631105</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0602172</v>
+        <v>0.0595213</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0679685</v>
+        <v>0.0684437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.123486</v>
+        <v>0.071619</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0644595</v>
+        <v>0.0637437</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0614311</v>
+        <v>0.0619194</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06912749999999999</v>
+        <v>0.06793730000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.12743</v>
+        <v>0.0719544</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0652837</v>
+        <v>0.0647094</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0622618</v>
+        <v>0.0627211</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684221</v>
+        <v>0.0688672</v>
       </c>
       <c r="C60" t="n">
-        <v>0.131223</v>
+        <v>0.072575</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0665697</v>
+        <v>0.0658382</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0634913</v>
+        <v>0.063914</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.068868</v>
+        <v>0.0690862</v>
       </c>
       <c r="C61" t="n">
-        <v>0.13488</v>
+        <v>0.07268189999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0708823</v>
+        <v>0.0673291</v>
       </c>
       <c r="E61" t="n">
-        <v>0.065983</v>
+        <v>0.06624819999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0701743</v>
+        <v>0.06926690000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.138412</v>
+        <v>0.0735971</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07317940000000001</v>
+        <v>0.0697681</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06908350000000001</v>
+        <v>0.06916310000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07042569999999999</v>
+        <v>0.0702784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.14215</v>
+        <v>0.0755251</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0758554</v>
+        <v>0.07285220000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07220169999999999</v>
+        <v>0.07240249999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0728538</v>
+        <v>0.07221320000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.106083</v>
+        <v>0.07785789999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0775004</v>
+        <v>0.07657070000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0763819</v>
+        <v>0.07715080000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0746568</v>
+        <v>0.0745435</v>
       </c>
       <c r="C65" t="n">
-        <v>0.107127</v>
+        <v>0.0816578</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0838407</v>
+        <v>0.0831194</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08416659999999999</v>
+        <v>0.0850984</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07979559999999999</v>
+        <v>0.0791829</v>
       </c>
       <c r="C66" t="n">
-        <v>0.112105</v>
+        <v>0.0859449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0654486</v>
+        <v>0.06678240000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06382839999999999</v>
+        <v>0.06306539999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0803234</v>
+        <v>0.07819379999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.115769</v>
+        <v>0.0795795</v>
       </c>
       <c r="D67" t="n">
-        <v>0.065857</v>
+        <v>0.0650961</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0639667</v>
+        <v>0.06414010000000001</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0790289</v>
+        <v>0.079779</v>
       </c>
       <c r="C68" t="n">
-        <v>0.120895</v>
+        <v>0.0795438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06634130000000001</v>
+        <v>0.06561699999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0651823</v>
+        <v>0.0647732</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0799836</v>
+        <v>0.0795023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127153</v>
+        <v>0.0798276</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0668441</v>
+        <v>0.06607979999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06566080000000001</v>
+        <v>0.0655702</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0786261</v>
+        <v>0.0791417</v>
       </c>
       <c r="C70" t="n">
-        <v>0.133334</v>
+        <v>0.0810425</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06761</v>
+        <v>0.06655610000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669362</v>
+        <v>0.0669466</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0796915</v>
+        <v>0.07997170000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.139803</v>
+        <v>0.08177329999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.06719079999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0683718</v>
+        <v>0.06806180000000001</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08162510000000001</v>
+        <v>0.0789842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.149422</v>
+        <v>0.0819643</v>
       </c>
       <c r="D72" t="n">
-        <v>0.068269</v>
+        <v>0.0678859</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06977940000000001</v>
+        <v>0.06914579999999999</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0810607</v>
+        <v>0.08056679999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.154942</v>
+        <v>0.0826971</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0692108</v>
+        <v>0.0687963</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0715807</v>
+        <v>0.07081369999999999</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.081397</v>
+        <v>0.080651</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16532</v>
+        <v>0.0823614</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07037259999999999</v>
+        <v>0.07011779999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07395069999999999</v>
+        <v>0.0731142</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08214970000000001</v>
+        <v>0.0812649</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17319</v>
+        <v>0.0849654</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0720823</v>
+        <v>0.07221329999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0757135</v>
+        <v>0.0758229</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0828938</v>
+        <v>0.0805462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.181077</v>
+        <v>0.0863608</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0742685</v>
+        <v>0.0742115</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0788865</v>
+        <v>0.07910200000000001</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0824093</v>
+        <v>0.0815572</v>
       </c>
       <c r="C77" t="n">
-        <v>0.188101</v>
+        <v>0.088411</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0769779</v>
+        <v>0.07681979999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0828415</v>
+        <v>0.08297930000000001</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0855136</v>
+        <v>0.08517280000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.183631</v>
+        <v>0.0907017</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08058029999999999</v>
+        <v>0.0803594</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0889172</v>
+        <v>0.0885397</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0875017</v>
+        <v>0.0886744</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191358</v>
+        <v>0.09503490000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0862622</v>
+        <v>0.085618</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0961712</v>
+        <v>0.0959322</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09145490000000001</v>
+        <v>0.0901957</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200689</v>
+        <v>0.10014</v>
       </c>
       <c r="D80" t="n">
-        <v>0.109482</v>
+        <v>0.110608</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10513</v>
+        <v>0.106664</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181589</v>
+        <v>0.182005</v>
       </c>
       <c r="C81" t="n">
-        <v>0.209309</v>
+        <v>0.15177</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111526</v>
+        <v>0.112532</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107175</v>
+        <v>0.109301</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.181686</v>
+        <v>0.183462</v>
       </c>
       <c r="C82" t="n">
-        <v>0.215973</v>
+        <v>0.152197</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113923</v>
+        <v>0.114695</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108564</v>
+        <v>0.109565</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183073</v>
+        <v>0.183458</v>
       </c>
       <c r="C83" t="n">
-        <v>0.227968</v>
+        <v>0.15286</v>
       </c>
       <c r="D83" t="n">
-        <v>0.116418</v>
+        <v>0.117339</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108943</v>
+        <v>0.110818</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183581</v>
+        <v>0.184922</v>
       </c>
       <c r="C84" t="n">
-        <v>0.234311</v>
+        <v>0.153744</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118806</v>
+        <v>0.119995</v>
       </c>
       <c r="E84" t="n">
-        <v>0.110504</v>
+        <v>0.112072</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184576</v>
+        <v>0.184902</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243995</v>
+        <v>0.153861</v>
       </c>
       <c r="D85" t="n">
-        <v>0.120889</v>
+        <v>0.12188</v>
       </c>
       <c r="E85" t="n">
-        <v>0.10814</v>
+        <v>0.112665</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185</v>
+        <v>0.186144</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255288</v>
+        <v>0.155192</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123102</v>
+        <v>0.123974</v>
       </c>
       <c r="E86" t="n">
-        <v>0.109601</v>
+        <v>0.113642</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185357</v>
+        <v>0.186057</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263017</v>
+        <v>0.155269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1251</v>
+        <v>0.126397</v>
       </c>
       <c r="E87" t="n">
-        <v>0.110761</v>
+        <v>0.115397</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185296</v>
+        <v>0.187103</v>
       </c>
       <c r="C88" t="n">
-        <v>0.27556</v>
+        <v>0.156549</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127559</v>
+        <v>0.128518</v>
       </c>
       <c r="E88" t="n">
-        <v>0.116544</v>
+        <v>0.116829</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186127</v>
+        <v>0.187104</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283957</v>
+        <v>0.157392</v>
       </c>
       <c r="D89" t="n">
-        <v>0.129661</v>
+        <v>0.132746</v>
       </c>
       <c r="E89" t="n">
-        <v>0.118322</v>
+        <v>0.119488</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187443</v>
+        <v>0.18756</v>
       </c>
       <c r="C90" t="n">
-        <v>0.292857</v>
+        <v>0.158694</v>
       </c>
       <c r="D90" t="n">
-        <v>0.132264</v>
+        <v>0.134792</v>
       </c>
       <c r="E90" t="n">
-        <v>0.121442</v>
+        <v>0.122302</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188878</v>
+        <v>0.190352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.304079</v>
+        <v>0.160807</v>
       </c>
       <c r="D91" t="n">
-        <v>0.135326</v>
+        <v>0.135474</v>
       </c>
       <c r="E91" t="n">
-        <v>0.122487</v>
+        <v>0.123864</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18844</v>
+        <v>0.189224</v>
       </c>
       <c r="C92" t="n">
-        <v>0.288409</v>
+        <v>0.163142</v>
       </c>
       <c r="D92" t="n">
-        <v>0.140182</v>
+        <v>0.14097</v>
       </c>
       <c r="E92" t="n">
-        <v>0.129197</v>
+        <v>0.128458</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189617</v>
+        <v>0.1906</v>
       </c>
       <c r="C93" t="n">
-        <v>0.295814</v>
+        <v>0.167108</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14309</v>
+        <v>0.144826</v>
       </c>
       <c r="E93" t="n">
-        <v>0.133198</v>
+        <v>0.135922</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192222</v>
+        <v>0.193739</v>
       </c>
       <c r="C94" t="n">
-        <v>0.303157</v>
+        <v>0.172285</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213915</v>
+        <v>0.214138</v>
       </c>
       <c r="E94" t="n">
-        <v>0.202444</v>
+        <v>0.203186</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251052</v>
+        <v>0.252032</v>
       </c>
       <c r="C95" t="n">
-        <v>0.308203</v>
+        <v>0.23899</v>
       </c>
       <c r="D95" t="n">
-        <v>0.216076</v>
+        <v>0.215512</v>
       </c>
       <c r="E95" t="n">
-        <v>0.203516</v>
+        <v>0.204275</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250831</v>
+        <v>0.251674</v>
       </c>
       <c r="C96" t="n">
-        <v>0.314588</v>
+        <v>0.238778</v>
       </c>
       <c r="D96" t="n">
-        <v>0.218688</v>
+        <v>0.21746</v>
       </c>
       <c r="E96" t="n">
-        <v>0.20423</v>
+        <v>0.205198</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251023</v>
+        <v>0.251722</v>
       </c>
       <c r="C97" t="n">
-        <v>0.325773</v>
+        <v>0.239003</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21943</v>
+        <v>0.219443</v>
       </c>
       <c r="E97" t="n">
-        <v>0.205359</v>
+        <v>0.206094</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251762</v>
+        <v>0.251538</v>
       </c>
       <c r="C98" t="n">
-        <v>0.330562</v>
+        <v>0.239407</v>
       </c>
       <c r="D98" t="n">
-        <v>0.222162</v>
+        <v>0.221356</v>
       </c>
       <c r="E98" t="n">
-        <v>0.20622</v>
+        <v>0.207243</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250938</v>
+        <v>0.251623</v>
       </c>
       <c r="C99" t="n">
-        <v>0.33998</v>
+        <v>0.239956</v>
       </c>
       <c r="D99" t="n">
-        <v>0.223511</v>
+        <v>0.223577</v>
       </c>
       <c r="E99" t="n">
-        <v>0.207813</v>
+        <v>0.20844</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251796</v>
+        <v>0.251676</v>
       </c>
       <c r="C100" t="n">
-        <v>0.348422</v>
+        <v>0.240269</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226773</v>
+        <v>0.225972</v>
       </c>
       <c r="E100" t="n">
-        <v>0.209196</v>
+        <v>0.209576</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251805</v>
+        <v>0.252002</v>
       </c>
       <c r="C101" t="n">
-        <v>0.357842</v>
+        <v>0.240841</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227871</v>
+        <v>0.228277</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210633</v>
+        <v>0.211198</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.25156</v>
+        <v>0.252476</v>
       </c>
       <c r="C102" t="n">
-        <v>0.368407</v>
+        <v>0.241439</v>
       </c>
       <c r="D102" t="n">
-        <v>0.231139</v>
+        <v>0.230196</v>
       </c>
       <c r="E102" t="n">
-        <v>0.212032</v>
+        <v>0.212899</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251644</v>
+        <v>0.252328</v>
       </c>
       <c r="C103" t="n">
-        <v>0.377446</v>
+        <v>0.242283</v>
       </c>
       <c r="D103" t="n">
-        <v>0.232887</v>
+        <v>0.232933</v>
       </c>
       <c r="E103" t="n">
-        <v>0.213229</v>
+        <v>0.215063</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2521</v>
+        <v>0.252798</v>
       </c>
       <c r="C104" t="n">
-        <v>0.385912</v>
+        <v>0.244009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.235107</v>
+        <v>0.235685</v>
       </c>
       <c r="E104" t="n">
-        <v>0.215897</v>
+        <v>0.217445</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252613</v>
+        <v>0.253682</v>
       </c>
       <c r="C105" t="n">
-        <v>0.393917</v>
+        <v>0.245728</v>
       </c>
       <c r="D105" t="n">
-        <v>0.238508</v>
+        <v>0.238412</v>
       </c>
       <c r="E105" t="n">
-        <v>0.219073</v>
+        <v>0.221137</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253214</v>
+        <v>0.255159</v>
       </c>
       <c r="C106" t="n">
-        <v>0.407275</v>
+        <v>0.248139</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242265</v>
+        <v>0.241647</v>
       </c>
       <c r="E106" t="n">
-        <v>0.223179</v>
+        <v>0.22476</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.255805</v>
+        <v>0.255979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.349162</v>
+        <v>0.250989</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245539</v>
+        <v>0.246814</v>
       </c>
       <c r="E107" t="n">
-        <v>0.229169</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.258104</v>
+        <v>0.258905</v>
       </c>
       <c r="C108" t="n">
-        <v>0.355063</v>
+        <v>0.256395</v>
       </c>
       <c r="D108" t="n">
-        <v>0.263399</v>
+        <v>0.264029</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252013</v>
+        <v>0.253251</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262484</v>
+        <v>0.263412</v>
       </c>
       <c r="C109" t="n">
-        <v>0.360685</v>
+        <v>0.264981</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265433</v>
+        <v>0.265515</v>
       </c>
       <c r="E109" t="n">
-        <v>0.253737</v>
+        <v>0.253907</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287838</v>
+        <v>0.288506</v>
       </c>
       <c r="C110" t="n">
-        <v>0.367395</v>
+        <v>0.300134</v>
       </c>
       <c r="D110" t="n">
-        <v>0.26742</v>
+        <v>0.268527</v>
       </c>
       <c r="E110" t="n">
-        <v>0.255137</v>
+        <v>0.255696</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287506</v>
+        <v>0.287627</v>
       </c>
       <c r="C111" t="n">
-        <v>0.374934</v>
+        <v>0.299946</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269578</v>
+        <v>0.270063</v>
       </c>
       <c r="E111" t="n">
-        <v>0.257018</v>
+        <v>0.257425</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.288267</v>
+        <v>0.287967</v>
       </c>
       <c r="C112" t="n">
-        <v>0.381827</v>
+        <v>0.301842</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266276</v>
+        <v>0.267123</v>
       </c>
       <c r="E112" t="n">
-        <v>0.258634</v>
+        <v>0.259111</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28854</v>
+        <v>0.288614</v>
       </c>
       <c r="C113" t="n">
-        <v>0.389824</v>
+        <v>0.303101</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266504</v>
+        <v>0.266414</v>
       </c>
       <c r="E113" t="n">
-        <v>0.260775</v>
+        <v>0.261112</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.288348</v>
+        <v>0.288095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.397563</v>
+        <v>0.302652</v>
       </c>
       <c r="D114" t="n">
-        <v>0.268719</v>
+        <v>0.269799</v>
       </c>
       <c r="E114" t="n">
-        <v>0.262593</v>
+        <v>0.263037</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.28769</v>
+        <v>0.289313</v>
       </c>
       <c r="C115" t="n">
-        <v>0.403527</v>
+        <v>0.302934</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271943</v>
+        <v>0.272264</v>
       </c>
       <c r="E115" t="n">
-        <v>0.265276</v>
+        <v>0.265634</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287847</v>
+        <v>0.288474</v>
       </c>
       <c r="C116" t="n">
-        <v>0.412977</v>
+        <v>0.3038</v>
       </c>
       <c r="D116" t="n">
-        <v>0.274717</v>
+        <v>0.274813</v>
       </c>
       <c r="E116" t="n">
-        <v>0.267968</v>
+        <v>0.268729</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288211</v>
+        <v>0.288863</v>
       </c>
       <c r="C117" t="n">
-        <v>0.422654</v>
+        <v>0.304772</v>
       </c>
       <c r="D117" t="n">
-        <v>0.278704</v>
+        <v>0.278714</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27121</v>
+        <v>0.272172</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289133</v>
+        <v>0.289422</v>
       </c>
       <c r="C118" t="n">
-        <v>0.437162</v>
+        <v>0.306619</v>
       </c>
       <c r="D118" t="n">
-        <v>0.281795</v>
+        <v>0.282026</v>
       </c>
       <c r="E118" t="n">
-        <v>0.27571</v>
+        <v>0.276568</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.289824</v>
+        <v>0.290198</v>
       </c>
       <c r="C119" t="n">
-        <v>0.449457</v>
+        <v>0.308451</v>
       </c>
       <c r="D119" t="n">
-        <v>0.28385</v>
+        <v>0.285649</v>
       </c>
       <c r="E119" t="n">
-        <v>0.279397</v>
+        <v>0.281043</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290304</v>
+        <v>0.292139</v>
       </c>
       <c r="C120" t="n">
-        <v>0.458041</v>
+        <v>0.309739</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289281</v>
+        <v>0.290453</v>
       </c>
       <c r="E120" t="n">
-        <v>0.286273</v>
+        <v>0.286916</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29287</v>
+        <v>0.292922</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374813</v>
+        <v>0.311944</v>
       </c>
       <c r="D121" t="n">
-        <v>0.29413</v>
+        <v>0.295073</v>
       </c>
       <c r="E121" t="n">
-        <v>0.294546</v>
+        <v>0.296093</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295137</v>
+        <v>0.296573</v>
       </c>
       <c r="C122" t="n">
-        <v>0.381553</v>
+        <v>0.317381</v>
       </c>
       <c r="D122" t="n">
-        <v>0.299108</v>
+        <v>0.300099</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30624</v>
+        <v>0.308345</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29913</v>
+        <v>0.299625</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384519</v>
+        <v>0.32539</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287057</v>
+        <v>0.288182</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285131</v>
+        <v>0.285818</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367825</v>
+        <v>0.369641</v>
       </c>
       <c r="C124" t="n">
-        <v>0.397372</v>
+        <v>0.389168</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2897</v>
+        <v>0.290176</v>
       </c>
       <c r="E124" t="n">
-        <v>0.286478</v>
+        <v>0.287367</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368396</v>
+        <v>0.369841</v>
       </c>
       <c r="C125" t="n">
-        <v>0.403473</v>
+        <v>0.390289</v>
       </c>
       <c r="D125" t="n">
-        <v>0.292618</v>
+        <v>0.292795</v>
       </c>
       <c r="E125" t="n">
-        <v>0.288844</v>
+        <v>0.289637</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367331</v>
+        <v>0.368981</v>
       </c>
       <c r="C126" t="n">
-        <v>0.406544</v>
+        <v>0.389978</v>
       </c>
       <c r="D126" t="n">
-        <v>0.294648</v>
+        <v>0.295916</v>
       </c>
       <c r="E126" t="n">
-        <v>0.291144</v>
+        <v>0.292408</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367631</v>
+        <v>0.369315</v>
       </c>
       <c r="C127" t="n">
-        <v>0.419288</v>
+        <v>0.391679</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297484</v>
+        <v>0.298033</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293355</v>
+        <v>0.294747</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368303</v>
+        <v>0.368</v>
       </c>
       <c r="C128" t="n">
-        <v>0.423045</v>
+        <v>0.393086</v>
       </c>
       <c r="D128" t="n">
-        <v>0.300477</v>
+        <v>0.301169</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296549</v>
+        <v>0.297633</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367951</v>
+        <v>0.370945</v>
       </c>
       <c r="C129" t="n">
-        <v>0.437</v>
+        <v>0.393389</v>
       </c>
       <c r="D129" t="n">
-        <v>0.303641</v>
+        <v>0.304709</v>
       </c>
       <c r="E129" t="n">
-        <v>0.299323</v>
+        <v>0.300431</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.369215</v>
+        <v>0.368786</v>
       </c>
       <c r="C130" t="n">
-        <v>0.442454</v>
+        <v>0.393501</v>
       </c>
       <c r="D130" t="n">
-        <v>0.306801</v>
+        <v>0.307819</v>
       </c>
       <c r="E130" t="n">
-        <v>0.302991</v>
+        <v>0.30437</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.369807</v>
+        <v>0.370863</v>
       </c>
       <c r="C131" t="n">
-        <v>0.45013</v>
+        <v>0.393779</v>
       </c>
       <c r="D131" t="n">
-        <v>0.310606</v>
+        <v>0.31136</v>
       </c>
       <c r="E131" t="n">
-        <v>0.307066</v>
+        <v>0.308331</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370871</v>
+        <v>0.370809</v>
       </c>
       <c r="C132" t="n">
-        <v>0.460424</v>
+        <v>0.396155</v>
       </c>
       <c r="D132" t="n">
-        <v>0.314966</v>
+        <v>0.315506</v>
       </c>
       <c r="E132" t="n">
-        <v>0.306133</v>
+        <v>0.313844</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369048</v>
+        <v>0.370916</v>
       </c>
       <c r="C133" t="n">
-        <v>0.469244</v>
+        <v>0.398503</v>
       </c>
       <c r="D133" t="n">
-        <v>0.319488</v>
+        <v>0.32059</v>
       </c>
       <c r="E133" t="n">
-        <v>0.312482</v>
+        <v>0.313581</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369935</v>
+        <v>0.372786</v>
       </c>
       <c r="C134" t="n">
-        <v>0.486477</v>
+        <v>0.400304</v>
       </c>
       <c r="D134" t="n">
-        <v>0.32514</v>
+        <v>0.32566</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320746</v>
+        <v>0.32162</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.37091</v>
+        <v>0.374136</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392297</v>
+        <v>0.404666</v>
       </c>
       <c r="D135" t="n">
-        <v>0.331552</v>
+        <v>0.332947</v>
       </c>
       <c r="E135" t="n">
-        <v>0.331931</v>
+        <v>0.332912</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373202</v>
+        <v>0.374372</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398302</v>
+        <v>0.409505</v>
       </c>
       <c r="D136" t="n">
-        <v>0.341293</v>
+        <v>0.341883</v>
       </c>
       <c r="E136" t="n">
-        <v>0.346044</v>
+        <v>0.34724</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.378214</v>
+        <v>0.378508</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399442</v>
+        <v>0.41606</v>
       </c>
       <c r="D137" t="n">
-        <v>0.311569</v>
+        <v>0.31234</v>
       </c>
       <c r="E137" t="n">
-        <v>0.305565</v>
+        <v>0.30631</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.432806</v>
+        <v>0.434327</v>
       </c>
       <c r="C138" t="n">
-        <v>0.412635</v>
+        <v>0.447016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.313461</v>
+        <v>0.314619</v>
       </c>
       <c r="E138" t="n">
-        <v>0.307225</v>
+        <v>0.308571</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.432308</v>
+        <v>0.434719</v>
       </c>
       <c r="C139" t="n">
-        <v>0.417975</v>
+        <v>0.447381</v>
       </c>
       <c r="D139" t="n">
-        <v>0.315745</v>
+        <v>0.316805</v>
       </c>
       <c r="E139" t="n">
-        <v>0.309267</v>
+        <v>0.310909</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43268</v>
+        <v>0.43461</v>
       </c>
       <c r="C140" t="n">
-        <v>0.422096</v>
+        <v>0.447727</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31793</v>
+        <v>0.319758</v>
       </c>
       <c r="E140" t="n">
-        <v>0.311896</v>
+        <v>0.313299</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.432857</v>
+        <v>0.434879</v>
       </c>
       <c r="C141" t="n">
-        <v>0.434751</v>
+        <v>0.448724</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320029</v>
+        <v>0.320796</v>
       </c>
       <c r="E141" t="n">
-        <v>0.314593</v>
+        <v>0.316012</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.433206</v>
+        <v>0.434842</v>
       </c>
       <c r="C142" t="n">
-        <v>0.437376</v>
+        <v>0.449058</v>
       </c>
       <c r="D142" t="n">
-        <v>0.322454</v>
+        <v>0.322766</v>
       </c>
       <c r="E142" t="n">
-        <v>0.317977</v>
+        <v>0.319137</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.433505</v>
+        <v>0.43517</v>
       </c>
       <c r="C143" t="n">
-        <v>0.452212</v>
+        <v>0.450056</v>
       </c>
       <c r="D143" t="n">
-        <v>0.324457</v>
+        <v>0.325457</v>
       </c>
       <c r="E143" t="n">
-        <v>0.320889</v>
+        <v>0.322708</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436848</v>
+        <v>0.0523334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06992370000000001</v>
+        <v>0.0749546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0456667</v>
+        <v>0.0526243</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0428713</v>
+        <v>0.0494405</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0429447</v>
+        <v>0.0501686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07621749999999999</v>
+        <v>0.0784112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.045973</v>
+        <v>0.0535506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0432559</v>
+        <v>0.0499163</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0435698</v>
+        <v>0.0525178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0845114</v>
+        <v>0.0878871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.046248</v>
+        <v>0.0522659</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0433386</v>
+        <v>0.0438745</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0434343</v>
+        <v>0.0525652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09222909999999999</v>
+        <v>0.0971664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0460279</v>
+        <v>0.0522169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0434346</v>
+        <v>0.0443248</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0435213</v>
+        <v>0.0530857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09844</v>
+        <v>0.102831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0464113</v>
+        <v>0.0529122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.044253</v>
+        <v>0.0447065</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.044036</v>
+        <v>0.0534642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0627622</v>
+        <v>0.0687285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0472014</v>
+        <v>0.0541733</v>
       </c>
       <c r="E7" t="n">
-        <v>0.044861</v>
+        <v>0.0454333</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0440843</v>
+        <v>0.0532979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0645768</v>
+        <v>0.0706483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0481022</v>
+        <v>0.0533843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0467667</v>
+        <v>0.0522316</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0442875</v>
+        <v>0.0513859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0692171</v>
+        <v>0.0740572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0475674</v>
+        <v>0.0500832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0446082</v>
+        <v>0.0493572</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0500997</v>
+        <v>0.0528035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07423440000000001</v>
+        <v>0.0786659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0481161</v>
+        <v>0.0505962</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0443859</v>
+        <v>0.049455</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0499237</v>
+        <v>0.0523095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0799734</v>
+        <v>0.08403339999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0480807</v>
+        <v>0.05103</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0449302</v>
+        <v>0.050014</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.050057</v>
+        <v>0.0520551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0840655</v>
+        <v>0.0888925</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0484895</v>
+        <v>0.0507819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0448099</v>
+        <v>0.0501233</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05014</v>
+        <v>0.0522298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0892183</v>
+        <v>0.09379179999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0488728</v>
+        <v>0.0513653</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0449326</v>
+        <v>0.050424</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0509394</v>
+        <v>0.0524195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0942146</v>
+        <v>0.0986474</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0492216</v>
+        <v>0.0519999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0454257</v>
+        <v>0.0509961</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0503422</v>
+        <v>0.0516825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.098771</v>
+        <v>0.103229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0494476</v>
+        <v>0.0525665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0459123</v>
+        <v>0.0514054</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.051265</v>
+        <v>0.0526014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.103836</v>
+        <v>0.107815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0499147</v>
+        <v>0.0527627</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0460446</v>
+        <v>0.0517125</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0511228</v>
+        <v>0.0527954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.109117</v>
+        <v>0.112594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0497525</v>
+        <v>0.0531221</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0462274</v>
+        <v>0.0521466</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0516088</v>
+        <v>0.0530179</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113642</v>
+        <v>0.117467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0504938</v>
+        <v>0.0526488</v>
       </c>
       <c r="E18" t="n">
-        <v>0.046626</v>
+        <v>0.052244</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0514965</v>
+        <v>0.053173</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118179</v>
+        <v>0.12197</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0504048</v>
+        <v>0.0537785</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0469479</v>
+        <v>0.0526891</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0513434</v>
+        <v>0.0523832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.121217</v>
+        <v>0.1253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0506673</v>
+        <v>0.0529057</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0479502</v>
+        <v>0.0533539</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515729</v>
+        <v>0.0526103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0849805</v>
+        <v>0.08584360000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0523194</v>
+        <v>0.0545554</v>
       </c>
       <c r="E21" t="n">
-        <v>0.049751</v>
+        <v>0.0566778</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0520027</v>
+        <v>0.0530112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08762300000000001</v>
+        <v>0.0884166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0565672</v>
+        <v>0.0575728</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0537593</v>
+        <v>0.0567487</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0526976</v>
+        <v>0.0532454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0914635</v>
+        <v>0.0923279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0539569</v>
+        <v>0.0537796</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0496875</v>
+        <v>0.0513943</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550236</v>
+        <v>0.0552013</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0948126</v>
+        <v>0.0956451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.053515</v>
+        <v>0.0532953</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0499044</v>
+        <v>0.0507833</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550064</v>
+        <v>0.0551594</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09860380000000001</v>
+        <v>0.0995774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0540793</v>
+        <v>0.0537287</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0501411</v>
+        <v>0.0510249</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551015</v>
+        <v>0.0554212</v>
       </c>
       <c r="C26" t="n">
-        <v>0.102013</v>
+        <v>0.102771</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0548591</v>
+        <v>0.0536709</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0504816</v>
+        <v>0.0507868</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554405</v>
+        <v>0.0555088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106188</v>
+        <v>0.10672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0548159</v>
+        <v>0.0545573</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0508115</v>
+        <v>0.0511592</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0553341</v>
+        <v>0.0554838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110558</v>
+        <v>0.110904</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0549572</v>
+        <v>0.0545991</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0510679</v>
+        <v>0.0514639</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554609</v>
+        <v>0.0556528</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114286</v>
+        <v>0.114698</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0552822</v>
+        <v>0.0549185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0514091</v>
+        <v>0.0516546</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558167</v>
+        <v>0.0557991</v>
       </c>
       <c r="C30" t="n">
-        <v>0.118129</v>
+        <v>0.118394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0560703</v>
+        <v>0.0554452</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0517543</v>
+        <v>0.0524555</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0559201</v>
+        <v>0.055911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12226</v>
+        <v>0.122933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0561295</v>
+        <v>0.0555558</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0520883</v>
+        <v>0.0525659</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0562185</v>
+        <v>0.056261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125681</v>
+        <v>0.125847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0563935</v>
+        <v>0.0563075</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0526745</v>
+        <v>0.0534158</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564139</v>
+        <v>0.0564834</v>
       </c>
       <c r="C33" t="n">
-        <v>0.129009</v>
+        <v>0.129677</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0569526</v>
+        <v>0.0564389</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0530948</v>
+        <v>0.0536204</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0567506</v>
+        <v>0.0567536</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132216</v>
+        <v>0.132422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0580787</v>
+        <v>0.0578675</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0545839</v>
+        <v>0.0551957</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0570772</v>
+        <v>0.057211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0933113</v>
+        <v>0.0932038</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0609299</v>
+        <v>0.0607499</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0580367</v>
+        <v>0.0589063</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0580168</v>
+        <v>0.0582274</v>
       </c>
       <c r="C36" t="n">
-        <v>0.095397</v>
+        <v>0.0953412</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0672055</v>
+        <v>0.0667551</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06501129999999999</v>
+        <v>0.0651771</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0606249</v>
+        <v>0.0605656</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0975521</v>
+        <v>0.09741</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0587233</v>
+        <v>0.0591055</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0537655</v>
+        <v>0.0543793</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0612822</v>
+        <v>0.0628711</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100277</v>
+        <v>0.100315</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0573324</v>
+        <v>0.0578067</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0541207</v>
+        <v>0.0547106</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0598503</v>
+        <v>0.0620203</v>
       </c>
       <c r="C39" t="n">
-        <v>0.103502</v>
+        <v>0.10332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0581937</v>
+        <v>0.0581736</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0543681</v>
+        <v>0.0548819</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0595739</v>
+        <v>0.0609046</v>
       </c>
       <c r="C40" t="n">
-        <v>0.106624</v>
+        <v>0.106607</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0581819</v>
+        <v>0.0596053</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0547006</v>
+        <v>0.0552411</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0597933</v>
+        <v>0.0614407</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11045</v>
+        <v>0.109944</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0585526</v>
+        <v>0.0590136</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0551271</v>
+        <v>0.0555888</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0601942</v>
+        <v>0.0622812</v>
       </c>
       <c r="C42" t="n">
-        <v>0.113678</v>
+        <v>0.114049</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0595704</v>
+        <v>0.0591314</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05553</v>
+        <v>0.0559745</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0604067</v>
+        <v>0.0624958</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11813</v>
+        <v>0.117354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0607845</v>
+        <v>0.0599114</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0559553</v>
+        <v>0.0563673</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0605328</v>
+        <v>0.0626432</v>
       </c>
       <c r="C44" t="n">
-        <v>0.121952</v>
+        <v>0.121835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0601087</v>
+        <v>0.0602077</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0563705</v>
+        <v>0.0568172</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0607994</v>
+        <v>0.0628717</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125504</v>
+        <v>0.125816</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06277679999999999</v>
+        <v>0.0631401</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0567631</v>
+        <v>0.0574377</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0608114</v>
+        <v>0.0622193</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12907</v>
+        <v>0.128943</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0617743</v>
+        <v>0.0614689</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0575288</v>
+        <v>0.0581878</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0613075</v>
+        <v>0.0633847</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132374</v>
+        <v>0.132272</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0628997</v>
+        <v>0.0623626</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0587179</v>
+        <v>0.059442</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0625291</v>
+        <v>0.0628306</v>
       </c>
       <c r="C48" t="n">
-        <v>0.135973</v>
+        <v>0.135747</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0650293</v>
+        <v>0.0649284</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0613161</v>
+        <v>0.0613074</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0624509</v>
+        <v>0.0629417</v>
       </c>
       <c r="C49" t="n">
-        <v>0.139126</v>
+        <v>0.138876</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06847</v>
+        <v>0.06831569999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06512220000000001</v>
+        <v>0.06512569999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0637751</v>
+        <v>0.066231</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0974233</v>
+        <v>0.0973329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07266010000000001</v>
+        <v>0.0728347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0701025</v>
+        <v>0.0703662</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0671616</v>
+        <v>0.068841</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0997043</v>
+        <v>0.0996011</v>
       </c>
       <c r="D51" t="n">
-        <v>0.063233</v>
+        <v>0.0634551</v>
       </c>
       <c r="E51" t="n">
-        <v>0.056926</v>
+        <v>0.0573128</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0729802</v>
+        <v>0.07472280000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.102077</v>
+        <v>0.101899</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0614511</v>
+        <v>0.0614398</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0571608</v>
+        <v>0.0588773</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0675519</v>
+        <v>0.0678227</v>
       </c>
       <c r="C53" t="n">
-        <v>0.105181</v>
+        <v>0.105104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0618826</v>
+        <v>0.0616363</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0575509</v>
+        <v>0.0597481</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06766179999999999</v>
+        <v>0.067454</v>
       </c>
       <c r="C54" t="n">
-        <v>0.108317</v>
+        <v>0.108695</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0623983</v>
+        <v>0.0623431</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0579782</v>
+        <v>0.060349</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06761880000000001</v>
+        <v>0.0675139</v>
       </c>
       <c r="C55" t="n">
-        <v>0.111996</v>
+        <v>0.112859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0629683</v>
+        <v>0.0626317</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0584274</v>
+        <v>0.0612471</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0677334</v>
+        <v>0.0676596</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115712</v>
+        <v>0.115985</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0658576</v>
+        <v>0.06331879999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0585316</v>
+        <v>0.0610437</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06784610000000001</v>
+        <v>0.0680905</v>
       </c>
       <c r="C57" t="n">
-        <v>0.119738</v>
+        <v>0.119874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0640324</v>
+        <v>0.0634923</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0602172</v>
+        <v>0.0620979</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0679685</v>
+        <v>0.06776069999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.123486</v>
+        <v>0.124432</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0644595</v>
+        <v>0.0668924</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0614311</v>
+        <v>0.0626457</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06912749999999999</v>
+        <v>0.0682007</v>
       </c>
       <c r="C59" t="n">
-        <v>0.12743</v>
+        <v>0.128819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0652837</v>
+        <v>0.06530710000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0622618</v>
+        <v>0.0632105</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684221</v>
+        <v>0.0683214</v>
       </c>
       <c r="C60" t="n">
-        <v>0.131223</v>
+        <v>0.132433</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0665697</v>
+        <v>0.0662041</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0634913</v>
+        <v>0.0647438</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.068868</v>
+        <v>0.0689205</v>
       </c>
       <c r="C61" t="n">
-        <v>0.13488</v>
+        <v>0.136659</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0708823</v>
+        <v>0.06778430000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.065983</v>
+        <v>0.0674207</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0701743</v>
+        <v>0.06939140000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.138412</v>
+        <v>0.140459</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07317940000000001</v>
+        <v>0.0701087</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06908350000000001</v>
+        <v>0.0700591</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07042569999999999</v>
+        <v>0.070385</v>
       </c>
       <c r="C63" t="n">
-        <v>0.14215</v>
+        <v>0.14449</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0758554</v>
+        <v>0.0731007</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07220169999999999</v>
+        <v>0.0735432</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0728538</v>
+        <v>0.0723471</v>
       </c>
       <c r="C64" t="n">
-        <v>0.106083</v>
+        <v>0.111117</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0775004</v>
+        <v>0.076976</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0763819</v>
+        <v>0.076761</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0746568</v>
+        <v>0.07510070000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.107127</v>
+        <v>0.114335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0838407</v>
+        <v>0.08314290000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08416659999999999</v>
+        <v>0.0845906</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07979559999999999</v>
+        <v>0.0790602</v>
       </c>
       <c r="C66" t="n">
-        <v>0.112105</v>
+        <v>0.118909</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0654486</v>
+        <v>0.06550350000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06382839999999999</v>
+        <v>0.0645157</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0803234</v>
+        <v>0.08021499999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.115769</v>
+        <v>0.122728</v>
       </c>
       <c r="D67" t="n">
-        <v>0.065857</v>
+        <v>0.066009</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0639667</v>
+        <v>0.0649333</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0790289</v>
+        <v>0.07995389999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.120895</v>
+        <v>0.130111</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06634130000000001</v>
+        <v>0.06609569999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0651823</v>
+        <v>0.06600689999999999</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0799836</v>
+        <v>0.0804638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127153</v>
+        <v>0.136572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0668441</v>
+        <v>0.06717099999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06566080000000001</v>
+        <v>0.0668407</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0786261</v>
+        <v>0.0808089</v>
       </c>
       <c r="C70" t="n">
-        <v>0.133334</v>
+        <v>0.142408</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06761</v>
+        <v>0.0672643</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669362</v>
+        <v>0.0679048</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0796915</v>
+        <v>0.0814923</v>
       </c>
       <c r="C71" t="n">
-        <v>0.139803</v>
+        <v>0.149203</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0677497</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0683718</v>
+        <v>0.0684917</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08162510000000001</v>
+        <v>0.0815487</v>
       </c>
       <c r="C72" t="n">
-        <v>0.149422</v>
+        <v>0.157588</v>
       </c>
       <c r="D72" t="n">
-        <v>0.068269</v>
+        <v>0.06843050000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06977940000000001</v>
+        <v>0.0697147</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0810607</v>
+        <v>0.0803435</v>
       </c>
       <c r="C73" t="n">
-        <v>0.154942</v>
+        <v>0.161497</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0692108</v>
+        <v>0.0693607</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0715807</v>
+        <v>0.0715407</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.081397</v>
+        <v>0.0827476</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16532</v>
+        <v>0.171266</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07037259999999999</v>
+        <v>0.0701036</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07395069999999999</v>
+        <v>0.07354769999999999</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08214970000000001</v>
+        <v>0.08338619999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17319</v>
+        <v>0.179222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0720823</v>
+        <v>0.0733458</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0757135</v>
+        <v>0.0771814</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0828938</v>
+        <v>0.08382100000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.181077</v>
+        <v>0.18575</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0742685</v>
+        <v>0.0752409</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0788865</v>
+        <v>0.07962950000000001</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0824093</v>
+        <v>0.084701</v>
       </c>
       <c r="C77" t="n">
-        <v>0.188101</v>
+        <v>0.191077</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0769779</v>
+        <v>0.0779325</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0828415</v>
+        <v>0.0843508</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0855136</v>
+        <v>0.0862522</v>
       </c>
       <c r="C78" t="n">
-        <v>0.183631</v>
+        <v>0.184496</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08058029999999999</v>
+        <v>0.08109719999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0889172</v>
+        <v>0.0901846</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0875017</v>
+        <v>0.08852409999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191358</v>
+        <v>0.192375</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0862622</v>
+        <v>0.08696130000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0961712</v>
+        <v>0.0962803</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09145490000000001</v>
+        <v>0.0919668</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200689</v>
+        <v>0.201301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.109482</v>
+        <v>0.122333</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10513</v>
+        <v>0.104227</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181589</v>
+        <v>0.184061</v>
       </c>
       <c r="C81" t="n">
-        <v>0.209309</v>
+        <v>0.210416</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111526</v>
+        <v>0.117688</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107175</v>
+        <v>0.105125</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.181686</v>
+        <v>0.185176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.215973</v>
+        <v>0.217108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113923</v>
+        <v>0.120154</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108564</v>
+        <v>0.106296</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183073</v>
+        <v>0.186113</v>
       </c>
       <c r="C83" t="n">
-        <v>0.227968</v>
+        <v>0.229112</v>
       </c>
       <c r="D83" t="n">
-        <v>0.116418</v>
+        <v>0.122462</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108943</v>
+        <v>0.106805</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183581</v>
+        <v>0.186847</v>
       </c>
       <c r="C84" t="n">
-        <v>0.234311</v>
+        <v>0.23533</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118806</v>
+        <v>0.124865</v>
       </c>
       <c r="E84" t="n">
-        <v>0.110504</v>
+        <v>0.107751</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184576</v>
+        <v>0.18738</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243995</v>
+        <v>0.244932</v>
       </c>
       <c r="D85" t="n">
-        <v>0.120889</v>
+        <v>0.129137</v>
       </c>
       <c r="E85" t="n">
-        <v>0.10814</v>
+        <v>0.107219</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185</v>
+        <v>0.186583</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255288</v>
+        <v>0.256248</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123102</v>
+        <v>0.131089</v>
       </c>
       <c r="E86" t="n">
-        <v>0.109601</v>
+        <v>0.108602</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185357</v>
+        <v>0.188167</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263017</v>
+        <v>0.263331</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1251</v>
+        <v>0.133231</v>
       </c>
       <c r="E87" t="n">
-        <v>0.110761</v>
+        <v>0.111587</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185296</v>
+        <v>0.188964</v>
       </c>
       <c r="C88" t="n">
-        <v>0.27556</v>
+        <v>0.276414</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127559</v>
+        <v>0.137443</v>
       </c>
       <c r="E88" t="n">
-        <v>0.116544</v>
+        <v>0.114716</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186127</v>
+        <v>0.188893</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283957</v>
+        <v>0.285459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.129661</v>
+        <v>0.139478</v>
       </c>
       <c r="E89" t="n">
-        <v>0.118322</v>
+        <v>0.11602</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187443</v>
+        <v>0.188222</v>
       </c>
       <c r="C90" t="n">
-        <v>0.292857</v>
+        <v>0.293176</v>
       </c>
       <c r="D90" t="n">
-        <v>0.132264</v>
+        <v>0.141811</v>
       </c>
       <c r="E90" t="n">
-        <v>0.121442</v>
+        <v>0.11935</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188878</v>
+        <v>0.190104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.304079</v>
+        <v>0.305869</v>
       </c>
       <c r="D91" t="n">
-        <v>0.135326</v>
+        <v>0.140425</v>
       </c>
       <c r="E91" t="n">
-        <v>0.122487</v>
+        <v>0.119983</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18844</v>
+        <v>0.189659</v>
       </c>
       <c r="C92" t="n">
-        <v>0.288409</v>
+        <v>0.289904</v>
       </c>
       <c r="D92" t="n">
-        <v>0.140182</v>
+        <v>0.141496</v>
       </c>
       <c r="E92" t="n">
-        <v>0.129197</v>
+        <v>0.130124</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189617</v>
+        <v>0.19108</v>
       </c>
       <c r="C93" t="n">
-        <v>0.295814</v>
+        <v>0.296824</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14309</v>
+        <v>0.150977</v>
       </c>
       <c r="E93" t="n">
-        <v>0.133198</v>
+        <v>0.132048</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192222</v>
+        <v>0.193534</v>
       </c>
       <c r="C94" t="n">
-        <v>0.303157</v>
+        <v>0.304211</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213915</v>
+        <v>0.213414</v>
       </c>
       <c r="E94" t="n">
-        <v>0.202444</v>
+        <v>0.202894</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251052</v>
+        <v>0.248693</v>
       </c>
       <c r="C95" t="n">
-        <v>0.308203</v>
+        <v>0.309587</v>
       </c>
       <c r="D95" t="n">
-        <v>0.216076</v>
+        <v>0.204636</v>
       </c>
       <c r="E95" t="n">
-        <v>0.203516</v>
+        <v>0.203723</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250831</v>
+        <v>0.250671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.314588</v>
+        <v>0.315919</v>
       </c>
       <c r="D96" t="n">
-        <v>0.218688</v>
+        <v>0.20982</v>
       </c>
       <c r="E96" t="n">
-        <v>0.20423</v>
+        <v>0.204779</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251023</v>
+        <v>0.252198</v>
       </c>
       <c r="C97" t="n">
-        <v>0.325773</v>
+        <v>0.327283</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21943</v>
+        <v>0.212457</v>
       </c>
       <c r="E97" t="n">
-        <v>0.205359</v>
+        <v>0.205502</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251762</v>
+        <v>0.251623</v>
       </c>
       <c r="C98" t="n">
-        <v>0.330562</v>
+        <v>0.331798</v>
       </c>
       <c r="D98" t="n">
-        <v>0.222162</v>
+        <v>0.221652</v>
       </c>
       <c r="E98" t="n">
-        <v>0.20622</v>
+        <v>0.206682</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250938</v>
+        <v>0.251385</v>
       </c>
       <c r="C99" t="n">
-        <v>0.33998</v>
+        <v>0.340763</v>
       </c>
       <c r="D99" t="n">
-        <v>0.223511</v>
+        <v>0.223747</v>
       </c>
       <c r="E99" t="n">
-        <v>0.207813</v>
+        <v>0.208292</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251796</v>
+        <v>0.250818</v>
       </c>
       <c r="C100" t="n">
-        <v>0.348422</v>
+        <v>0.349993</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226773</v>
+        <v>0.225691</v>
       </c>
       <c r="E100" t="n">
-        <v>0.209196</v>
+        <v>0.20961</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251805</v>
+        <v>0.251229</v>
       </c>
       <c r="C101" t="n">
-        <v>0.357842</v>
+        <v>0.3594</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227871</v>
+        <v>0.222352</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210633</v>
+        <v>0.210957</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.25156</v>
+        <v>0.251554</v>
       </c>
       <c r="C102" t="n">
-        <v>0.368407</v>
+        <v>0.369813</v>
       </c>
       <c r="D102" t="n">
-        <v>0.231139</v>
+        <v>0.229767</v>
       </c>
       <c r="E102" t="n">
-        <v>0.212032</v>
+        <v>0.213035</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251644</v>
+        <v>0.25214</v>
       </c>
       <c r="C103" t="n">
-        <v>0.377446</v>
+        <v>0.378903</v>
       </c>
       <c r="D103" t="n">
-        <v>0.232887</v>
+        <v>0.232776</v>
       </c>
       <c r="E103" t="n">
-        <v>0.213229</v>
+        <v>0.214403</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2521</v>
+        <v>0.252228</v>
       </c>
       <c r="C104" t="n">
-        <v>0.385912</v>
+        <v>0.387868</v>
       </c>
       <c r="D104" t="n">
-        <v>0.235107</v>
+        <v>0.235373</v>
       </c>
       <c r="E104" t="n">
-        <v>0.215897</v>
+        <v>0.216796</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252613</v>
+        <v>0.250706</v>
       </c>
       <c r="C105" t="n">
-        <v>0.393917</v>
+        <v>0.395243</v>
       </c>
       <c r="D105" t="n">
-        <v>0.238508</v>
+        <v>0.239517</v>
       </c>
       <c r="E105" t="n">
-        <v>0.219073</v>
+        <v>0.219334</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253214</v>
+        <v>0.253899</v>
       </c>
       <c r="C106" t="n">
-        <v>0.407275</v>
+        <v>0.408758</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242265</v>
+        <v>0.242595</v>
       </c>
       <c r="E106" t="n">
-        <v>0.223179</v>
+        <v>0.224252</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.255805</v>
+        <v>0.255535</v>
       </c>
       <c r="C107" t="n">
-        <v>0.349162</v>
+        <v>0.344875</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245539</v>
+        <v>0.240027</v>
       </c>
       <c r="E107" t="n">
-        <v>0.229169</v>
+        <v>0.231605</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.258104</v>
+        <v>0.258518</v>
       </c>
       <c r="C108" t="n">
-        <v>0.355063</v>
+        <v>0.355688</v>
       </c>
       <c r="D108" t="n">
-        <v>0.263399</v>
+        <v>0.264184</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252013</v>
+        <v>0.247933</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262484</v>
+        <v>0.262171</v>
       </c>
       <c r="C109" t="n">
-        <v>0.360685</v>
+        <v>0.361414</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265433</v>
+        <v>0.26564</v>
       </c>
       <c r="E109" t="n">
-        <v>0.253737</v>
+        <v>0.250168</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287838</v>
+        <v>0.280343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.367395</v>
+        <v>0.368125</v>
       </c>
       <c r="D110" t="n">
-        <v>0.26742</v>
+        <v>0.266942</v>
       </c>
       <c r="E110" t="n">
-        <v>0.255137</v>
+        <v>0.253804</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287506</v>
+        <v>0.287093</v>
       </c>
       <c r="C111" t="n">
-        <v>0.374934</v>
+        <v>0.375703</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269578</v>
+        <v>0.27026</v>
       </c>
       <c r="E111" t="n">
-        <v>0.257018</v>
+        <v>0.255364</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.288267</v>
+        <v>0.288309</v>
       </c>
       <c r="C112" t="n">
-        <v>0.381827</v>
+        <v>0.382357</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266276</v>
+        <v>0.265479</v>
       </c>
       <c r="E112" t="n">
-        <v>0.258634</v>
+        <v>0.255208</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28854</v>
+        <v>0.287608</v>
       </c>
       <c r="C113" t="n">
-        <v>0.389824</v>
+        <v>0.390565</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266504</v>
+        <v>0.265869</v>
       </c>
       <c r="E113" t="n">
-        <v>0.260775</v>
+        <v>0.259525</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.288348</v>
+        <v>0.290119</v>
       </c>
       <c r="C114" t="n">
-        <v>0.397563</v>
+        <v>0.398026</v>
       </c>
       <c r="D114" t="n">
-        <v>0.268719</v>
+        <v>0.269346</v>
       </c>
       <c r="E114" t="n">
-        <v>0.262593</v>
+        <v>0.261403</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.28769</v>
+        <v>0.28788</v>
       </c>
       <c r="C115" t="n">
-        <v>0.403527</v>
+        <v>0.4042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271943</v>
+        <v>0.27242</v>
       </c>
       <c r="E115" t="n">
-        <v>0.265276</v>
+        <v>0.265746</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287847</v>
+        <v>0.290616</v>
       </c>
       <c r="C116" t="n">
-        <v>0.412977</v>
+        <v>0.413209</v>
       </c>
       <c r="D116" t="n">
-        <v>0.274717</v>
+        <v>0.269245</v>
       </c>
       <c r="E116" t="n">
-        <v>0.267968</v>
+        <v>0.262028</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288211</v>
+        <v>0.288588</v>
       </c>
       <c r="C117" t="n">
-        <v>0.422654</v>
+        <v>0.422885</v>
       </c>
       <c r="D117" t="n">
-        <v>0.278704</v>
+        <v>0.277997</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27121</v>
+        <v>0.271435</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289133</v>
+        <v>0.28813</v>
       </c>
       <c r="C118" t="n">
-        <v>0.437162</v>
+        <v>0.437502</v>
       </c>
       <c r="D118" t="n">
-        <v>0.281795</v>
+        <v>0.281963</v>
       </c>
       <c r="E118" t="n">
-        <v>0.27571</v>
+        <v>0.274922</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.289824</v>
+        <v>0.289717</v>
       </c>
       <c r="C119" t="n">
-        <v>0.449457</v>
+        <v>0.449479</v>
       </c>
       <c r="D119" t="n">
-        <v>0.28385</v>
+        <v>0.284654</v>
       </c>
       <c r="E119" t="n">
-        <v>0.279397</v>
+        <v>0.280229</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290304</v>
+        <v>0.286355</v>
       </c>
       <c r="C120" t="n">
-        <v>0.458041</v>
+        <v>0.456297</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289281</v>
+        <v>0.289118</v>
       </c>
       <c r="E120" t="n">
-        <v>0.286273</v>
+        <v>0.286978</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29287</v>
+        <v>0.292597</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374813</v>
+        <v>0.3757</v>
       </c>
       <c r="D121" t="n">
-        <v>0.29413</v>
+        <v>0.293557</v>
       </c>
       <c r="E121" t="n">
-        <v>0.294546</v>
+        <v>0.291407</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295137</v>
+        <v>0.292825</v>
       </c>
       <c r="C122" t="n">
-        <v>0.381553</v>
+        <v>0.382144</v>
       </c>
       <c r="D122" t="n">
-        <v>0.299108</v>
+        <v>0.300565</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30624</v>
+        <v>0.30244</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29913</v>
+        <v>0.300268</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384519</v>
+        <v>0.384906</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287057</v>
+        <v>0.282979</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285131</v>
+        <v>0.284906</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367825</v>
+        <v>0.368496</v>
       </c>
       <c r="C124" t="n">
-        <v>0.397372</v>
+        <v>0.397693</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2897</v>
+        <v>0.29027</v>
       </c>
       <c r="E124" t="n">
-        <v>0.286478</v>
+        <v>0.286986</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368396</v>
+        <v>0.366658</v>
       </c>
       <c r="C125" t="n">
-        <v>0.403473</v>
+        <v>0.403779</v>
       </c>
       <c r="D125" t="n">
-        <v>0.292618</v>
+        <v>0.292808</v>
       </c>
       <c r="E125" t="n">
-        <v>0.288844</v>
+        <v>0.289766</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367331</v>
+        <v>0.370769</v>
       </c>
       <c r="C126" t="n">
-        <v>0.406544</v>
+        <v>0.407165</v>
       </c>
       <c r="D126" t="n">
-        <v>0.294648</v>
+        <v>0.295454</v>
       </c>
       <c r="E126" t="n">
-        <v>0.291144</v>
+        <v>0.291874</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367631</v>
+        <v>0.364239</v>
       </c>
       <c r="C127" t="n">
-        <v>0.419288</v>
+        <v>0.420218</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297484</v>
+        <v>0.292264</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293355</v>
+        <v>0.294686</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368303</v>
+        <v>0.360722</v>
       </c>
       <c r="C128" t="n">
-        <v>0.423045</v>
+        <v>0.424084</v>
       </c>
       <c r="D128" t="n">
-        <v>0.300477</v>
+        <v>0.295261</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296549</v>
+        <v>0.296896</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367951</v>
+        <v>0.372404</v>
       </c>
       <c r="C129" t="n">
-        <v>0.437</v>
+        <v>0.43773</v>
       </c>
       <c r="D129" t="n">
-        <v>0.303641</v>
+        <v>0.30503</v>
       </c>
       <c r="E129" t="n">
-        <v>0.299323</v>
+        <v>0.29669</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.369215</v>
+        <v>0.367232</v>
       </c>
       <c r="C130" t="n">
-        <v>0.442454</v>
+        <v>0.439228</v>
       </c>
       <c r="D130" t="n">
-        <v>0.306801</v>
+        <v>0.307612</v>
       </c>
       <c r="E130" t="n">
-        <v>0.302991</v>
+        <v>0.304108</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.369807</v>
+        <v>0.368912</v>
       </c>
       <c r="C131" t="n">
-        <v>0.45013</v>
+        <v>0.450116</v>
       </c>
       <c r="D131" t="n">
-        <v>0.310606</v>
+        <v>0.305752</v>
       </c>
       <c r="E131" t="n">
-        <v>0.307066</v>
+        <v>0.305254</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370871</v>
+        <v>0.370725</v>
       </c>
       <c r="C132" t="n">
-        <v>0.460424</v>
+        <v>0.460866</v>
       </c>
       <c r="D132" t="n">
-        <v>0.314966</v>
+        <v>0.316262</v>
       </c>
       <c r="E132" t="n">
-        <v>0.306133</v>
+        <v>0.305839</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369048</v>
+        <v>0.370975</v>
       </c>
       <c r="C133" t="n">
-        <v>0.469244</v>
+        <v>0.466028</v>
       </c>
       <c r="D133" t="n">
-        <v>0.319488</v>
+        <v>0.314033</v>
       </c>
       <c r="E133" t="n">
-        <v>0.312482</v>
+        <v>0.313073</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369935</v>
+        <v>0.366904</v>
       </c>
       <c r="C134" t="n">
-        <v>0.486477</v>
+        <v>0.483043</v>
       </c>
       <c r="D134" t="n">
-        <v>0.32514</v>
+        <v>0.325093</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320746</v>
+        <v>0.320334</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.37091</v>
+        <v>0.373188</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392297</v>
+        <v>0.392783</v>
       </c>
       <c r="D135" t="n">
-        <v>0.331552</v>
+        <v>0.325902</v>
       </c>
       <c r="E135" t="n">
-        <v>0.331931</v>
+        <v>0.33111</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373202</v>
+        <v>0.374812</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398302</v>
+        <v>0.398889</v>
       </c>
       <c r="D136" t="n">
-        <v>0.341293</v>
+        <v>0.335546</v>
       </c>
       <c r="E136" t="n">
-        <v>0.346044</v>
+        <v>0.341935</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.378214</v>
+        <v>0.375014</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399442</v>
+        <v>0.399782</v>
       </c>
       <c r="D137" t="n">
-        <v>0.311569</v>
+        <v>0.312243</v>
       </c>
       <c r="E137" t="n">
-        <v>0.305565</v>
+        <v>0.30176</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.432806</v>
+        <v>0.433626</v>
       </c>
       <c r="C138" t="n">
-        <v>0.412635</v>
+        <v>0.410551</v>
       </c>
       <c r="D138" t="n">
-        <v>0.313461</v>
+        <v>0.31424</v>
       </c>
       <c r="E138" t="n">
-        <v>0.307225</v>
+        <v>0.303819</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.432308</v>
+        <v>0.433585</v>
       </c>
       <c r="C139" t="n">
-        <v>0.417975</v>
+        <v>0.418941</v>
       </c>
       <c r="D139" t="n">
-        <v>0.315745</v>
+        <v>0.316381</v>
       </c>
       <c r="E139" t="n">
-        <v>0.309267</v>
+        <v>0.31007</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43268</v>
+        <v>0.433228</v>
       </c>
       <c r="C140" t="n">
-        <v>0.422096</v>
+        <v>0.422476</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31793</v>
+        <v>0.318932</v>
       </c>
       <c r="E140" t="n">
-        <v>0.311896</v>
+        <v>0.312645</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.432857</v>
+        <v>0.426595</v>
       </c>
       <c r="C141" t="n">
-        <v>0.434751</v>
+        <v>0.435519</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320029</v>
+        <v>0.320774</v>
       </c>
       <c r="E141" t="n">
-        <v>0.314593</v>
+        <v>0.314963</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.433206</v>
+        <v>0.433707</v>
       </c>
       <c r="C142" t="n">
-        <v>0.437376</v>
+        <v>0.435372</v>
       </c>
       <c r="D142" t="n">
-        <v>0.322454</v>
+        <v>0.322574</v>
       </c>
       <c r="E142" t="n">
-        <v>0.317977</v>
+        <v>0.318547</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.433505</v>
+        <v>0.434161</v>
       </c>
       <c r="C143" t="n">
-        <v>0.452212</v>
+        <v>0.450147</v>
       </c>
       <c r="D143" t="n">
-        <v>0.324457</v>
+        <v>0.319461</v>
       </c>
       <c r="E143" t="n">
-        <v>0.320889</v>
+        <v>0.321587</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0523334</v>
+        <v>0.0433054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0749546</v>
+        <v>0.0439858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0526243</v>
+        <v>0.0691532</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0494405</v>
+        <v>0.0452179</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0424963</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0501686</v>
+        <v>0.043433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0784112</v>
+        <v>0.0442695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0535506</v>
+        <v>0.0755266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0499163</v>
+        <v>0.0453557</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0429721</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0525178</v>
+        <v>0.0436177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0878871</v>
+        <v>0.0442646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0522659</v>
+        <v>0.0832439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0438745</v>
+        <v>0.0449459</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0437789</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525652</v>
+        <v>0.0438356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0971664</v>
+        <v>0.0445127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0522169</v>
+        <v>0.09110070000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0443248</v>
+        <v>0.0469221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0434659</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0530857</v>
+        <v>0.0449339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102831</v>
+        <v>0.0444703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0529122</v>
+        <v>0.09741329999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0447065</v>
+        <v>0.0470857</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0436528</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0534642</v>
+        <v>0.0433298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0687285</v>
+        <v>0.0458457</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0541733</v>
+        <v>0.061559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0454333</v>
+        <v>0.0480994</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0447994</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0532979</v>
+        <v>0.0454785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0706483</v>
+        <v>0.0451955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0533843</v>
+        <v>0.06389259999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0522316</v>
+        <v>0.0490252</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0464457</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0513859</v>
+        <v>0.0459551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0740572</v>
+        <v>0.0461203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0500832</v>
+        <v>0.0683539</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0493572</v>
+        <v>0.0482261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0440179</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0528035</v>
+        <v>0.0502475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0786659</v>
+        <v>0.0489502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0505962</v>
+        <v>0.0729185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.049455</v>
+        <v>0.0481629</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0442197</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0523095</v>
+        <v>0.0500489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08403339999999999</v>
+        <v>0.049081</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05103</v>
+        <v>0.07938149999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.050014</v>
+        <v>0.0485334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0444453</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0520551</v>
+        <v>0.0504943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0888925</v>
+        <v>0.0494155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0507819</v>
+        <v>0.08298899999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0501233</v>
+        <v>0.0489247</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0448144</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0522298</v>
+        <v>0.0505364</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09379179999999999</v>
+        <v>0.0495823</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0513653</v>
+        <v>0.0884867</v>
       </c>
       <c r="E13" t="n">
-        <v>0.050424</v>
+        <v>0.0488091</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0449739</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0524195</v>
+        <v>0.0504911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0986474</v>
+        <v>0.0494519</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0519999</v>
+        <v>0.09331100000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0509961</v>
+        <v>0.0492184</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0454231</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0516825</v>
+        <v>0.0506654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103229</v>
+        <v>0.049792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0525665</v>
+        <v>0.0982254</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0514054</v>
+        <v>0.0497939</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.045773</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0526014</v>
+        <v>0.0508841</v>
       </c>
       <c r="C16" t="n">
-        <v>0.107815</v>
+        <v>0.0498784</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0527627</v>
+        <v>0.10329</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0517125</v>
+        <v>0.0499348</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0461687</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0527954</v>
+        <v>0.0509667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112594</v>
+        <v>0.0501688</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0531221</v>
+        <v>0.108524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0521466</v>
+        <v>0.0501692</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0464968</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0530179</v>
+        <v>0.051305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.117467</v>
+        <v>0.0507074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0526488</v>
+        <v>0.113152</v>
       </c>
       <c r="E18" t="n">
-        <v>0.052244</v>
+        <v>0.0503721</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0468379</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.053173</v>
+        <v>0.0511277</v>
       </c>
       <c r="C19" t="n">
-        <v>0.12197</v>
+        <v>0.0503397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0537785</v>
+        <v>0.117669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0526891</v>
+        <v>0.0508467</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0470648</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0523832</v>
+        <v>0.0517476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1253</v>
+        <v>0.0510488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0529057</v>
+        <v>0.121309</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0533539</v>
+        <v>0.051215</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0480566</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0526103</v>
+        <v>0.0519923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08584360000000001</v>
+        <v>0.0514592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0545554</v>
+        <v>0.08532629999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0566778</v>
+        <v>0.052589</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0499423</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0530112</v>
+        <v>0.0523007</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0884166</v>
+        <v>0.052413</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0575728</v>
+        <v>0.0878905</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0567487</v>
+        <v>0.0562376</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0533313</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0532454</v>
+        <v>0.0537102</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0923279</v>
+        <v>0.0532186</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0537796</v>
+        <v>0.09178219999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0513943</v>
+        <v>0.0536375</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.050132</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552013</v>
+        <v>0.0549627</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0956451</v>
+        <v>0.0566705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0532953</v>
+        <v>0.0949242</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0507833</v>
+        <v>0.0532759</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0501058</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551594</v>
+        <v>0.0551062</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0995774</v>
+        <v>0.0570006</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0537287</v>
+        <v>0.0984389</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0510249</v>
+        <v>0.0537433</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0504016</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0554212</v>
+        <v>0.0551671</v>
       </c>
       <c r="C26" t="n">
-        <v>0.102771</v>
+        <v>0.0572371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0536709</v>
+        <v>0.102285</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0507868</v>
+        <v>0.0540962</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.050687</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0555088</v>
+        <v>0.0554145</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10672</v>
+        <v>0.0572906</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0545573</v>
+        <v>0.106572</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0511592</v>
+        <v>0.0543544</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0508501</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554838</v>
+        <v>0.0556544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110904</v>
+        <v>0.0574895</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0545991</v>
+        <v>0.110306</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0514639</v>
+        <v>0.0546616</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0513537</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556528</v>
+        <v>0.0556739</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114698</v>
+        <v>0.0574829</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0549185</v>
+        <v>0.114201</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0516546</v>
+        <v>0.0549387</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0514583</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0557991</v>
+        <v>0.0557196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.118394</v>
+        <v>0.057623</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0554452</v>
+        <v>0.118421</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0524555</v>
+        <v>0.0552993</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0518513</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.055911</v>
+        <v>0.0557604</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122933</v>
+        <v>0.0576735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0555558</v>
+        <v>0.12255</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0525659</v>
+        <v>0.0560861</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0522636</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.056261</v>
+        <v>0.0559814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125847</v>
+        <v>0.0580334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0563075</v>
+        <v>0.125919</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0534158</v>
+        <v>0.0559413</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0526468</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564834</v>
+        <v>0.056303</v>
       </c>
       <c r="C33" t="n">
-        <v>0.129677</v>
+        <v>0.0582197</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0564389</v>
+        <v>0.129343</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0536204</v>
+        <v>0.0566578</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0532038</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0567536</v>
+        <v>0.0565616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132422</v>
+        <v>0.0586728</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0578675</v>
+        <v>0.132714</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0551957</v>
+        <v>0.0576256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0545099</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.057211</v>
+        <v>0.0567208</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0932038</v>
+        <v>0.058811</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0607499</v>
+        <v>0.0932675</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0589063</v>
+        <v>0.0607071</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0577077</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0582274</v>
+        <v>0.0579323</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0953412</v>
+        <v>0.0602207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0667551</v>
+        <v>0.0955025</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0651771</v>
+        <v>0.0669029</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.06466619999999999</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605656</v>
+        <v>0.0606421</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09741</v>
+        <v>0.0632432</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0591055</v>
+        <v>0.097551</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0543793</v>
+        <v>0.0586589</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0543662</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0628711</v>
+        <v>0.0610402</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100315</v>
+        <v>0.0642308</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0578067</v>
+        <v>0.100472</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0547106</v>
+        <v>0.0573951</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0546507</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0620203</v>
+        <v>0.0598678</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10332</v>
+        <v>0.06452670000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0581736</v>
+        <v>0.103361</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0548819</v>
+        <v>0.0582764</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0549025</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0609046</v>
+        <v>0.0602509</v>
       </c>
       <c r="C40" t="n">
-        <v>0.106607</v>
+        <v>0.06449729999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0596053</v>
+        <v>0.106853</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0552411</v>
+        <v>0.0583159</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0553231</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0614407</v>
+        <v>0.0601211</v>
       </c>
       <c r="C41" t="n">
-        <v>0.109944</v>
+        <v>0.064632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0590136</v>
+        <v>0.110217</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0555888</v>
+        <v>0.0588336</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0550033</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0622812</v>
+        <v>0.0605768</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114049</v>
+        <v>0.0645389</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0591314</v>
+        <v>0.113861</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0559745</v>
+        <v>0.0594433</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0559711</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0624958</v>
+        <v>0.06046</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117354</v>
+        <v>0.0645782</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0599114</v>
+        <v>0.117691</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0563673</v>
+        <v>0.0599971</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0564212</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0626432</v>
+        <v>0.060542</v>
       </c>
       <c r="C44" t="n">
-        <v>0.121835</v>
+        <v>0.06486889999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0602077</v>
+        <v>0.121489</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0568172</v>
+        <v>0.060256</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0567758</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0628717</v>
+        <v>0.060716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125816</v>
+        <v>0.06512560000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0631401</v>
+        <v>0.12547</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0574377</v>
+        <v>0.0605053</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0567433</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0622193</v>
+        <v>0.0609377</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128943</v>
+        <v>0.06548760000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0614689</v>
+        <v>0.129309</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0581878</v>
+        <v>0.0619221</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0576977</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0633847</v>
+        <v>0.0612407</v>
       </c>
       <c r="C47" t="n">
-        <v>0.132272</v>
+        <v>0.06574000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0623626</v>
+        <v>0.132516</v>
       </c>
       <c r="E47" t="n">
-        <v>0.059442</v>
+        <v>0.0624825</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0587238</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0628306</v>
+        <v>0.0614821</v>
       </c>
       <c r="C48" t="n">
-        <v>0.135747</v>
+        <v>0.0662427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0649284</v>
+        <v>0.136012</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0613074</v>
+        <v>0.06445819999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0612163</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0629417</v>
+        <v>0.0625173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.138876</v>
+        <v>0.0663654</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06831569999999999</v>
+        <v>0.139088</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06512569999999999</v>
+        <v>0.0678554</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0649864</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.066231</v>
+        <v>0.06385929999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0973329</v>
+        <v>0.06783690000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0728347</v>
+        <v>0.09745189999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0703662</v>
+        <v>0.0729086</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0699936</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.068841</v>
+        <v>0.06770569999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0996011</v>
+        <v>0.0723718</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0634551</v>
+        <v>0.0998105</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0573128</v>
+        <v>0.0624918</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0570053</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07472280000000001</v>
+        <v>0.0725826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.101899</v>
+        <v>0.0776649</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0614398</v>
+        <v>0.101974</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0588773</v>
+        <v>0.0613479</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0573022</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0678227</v>
+        <v>0.0672325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.105104</v>
+        <v>0.07113129999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0616363</v>
+        <v>0.105399</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0597481</v>
+        <v>0.0618898</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0574704</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.067454</v>
+        <v>0.0676829</v>
       </c>
       <c r="C54" t="n">
-        <v>0.108695</v>
+        <v>0.0711991</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0623431</v>
+        <v>0.108367</v>
       </c>
       <c r="E54" t="n">
-        <v>0.060349</v>
+        <v>0.06219</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0579798</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0675139</v>
+        <v>0.0678154</v>
       </c>
       <c r="C55" t="n">
-        <v>0.112859</v>
+        <v>0.07134749999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0626317</v>
+        <v>0.111944</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0612471</v>
+        <v>0.063473</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0600936</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676596</v>
+        <v>0.06847839999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115985</v>
+        <v>0.07150140000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06331879999999999</v>
+        <v>0.115955</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0610437</v>
+        <v>0.0631627</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0602098</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680905</v>
+        <v>0.06779259999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.119874</v>
+        <v>0.07139189999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0634923</v>
+        <v>0.119912</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0620979</v>
+        <v>0.0635529</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0609796</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06776069999999999</v>
+        <v>0.0687688</v>
       </c>
       <c r="C58" t="n">
-        <v>0.124432</v>
+        <v>0.0718452</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0668924</v>
+        <v>0.123365</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0626457</v>
+        <v>0.0644832</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0614438</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0682007</v>
+        <v>0.0684056</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128819</v>
+        <v>0.0721724</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06530710000000001</v>
+        <v>0.127263</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0632105</v>
+        <v>0.0650322</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0626013</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0683214</v>
+        <v>0.0685817</v>
       </c>
       <c r="C60" t="n">
-        <v>0.132433</v>
+        <v>0.0725703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0662041</v>
+        <v>0.131502</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0647438</v>
+        <v>0.066206</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0638365</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0689205</v>
+        <v>0.068896</v>
       </c>
       <c r="C61" t="n">
-        <v>0.136659</v>
+        <v>0.0728023</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06778430000000001</v>
+        <v>0.13508</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0674207</v>
+        <v>0.0679042</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.06622690000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06939140000000001</v>
+        <v>0.06968920000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140459</v>
+        <v>0.0734216</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0701087</v>
+        <v>0.138635</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0700591</v>
+        <v>0.0703664</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.06845759999999999</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.070385</v>
+        <v>0.07046189999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.14449</v>
+        <v>0.07527250000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0731007</v>
+        <v>0.142208</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0735432</v>
+        <v>0.0733029</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0721101</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0723471</v>
+        <v>0.0725362</v>
       </c>
       <c r="C64" t="n">
-        <v>0.111117</v>
+        <v>0.0775163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.076976</v>
+        <v>0.104774</v>
       </c>
       <c r="E64" t="n">
-        <v>0.076761</v>
+        <v>0.0770832</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0768157</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07510070000000001</v>
+        <v>0.07499450000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.114335</v>
+        <v>0.0809595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08314290000000001</v>
+        <v>0.107606</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0845906</v>
+        <v>0.0838594</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.08438619999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790602</v>
+        <v>0.0782688</v>
       </c>
       <c r="C66" t="n">
-        <v>0.118909</v>
+        <v>0.0861277</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06550350000000001</v>
+        <v>0.111698</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0645157</v>
+        <v>0.06503639999999999</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.06347079999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08021499999999999</v>
+        <v>0.0796263</v>
       </c>
       <c r="C67" t="n">
-        <v>0.122728</v>
+        <v>0.0792759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.066009</v>
+        <v>0.114738</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0649333</v>
+        <v>0.06797739999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0637839</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07995389999999999</v>
+        <v>0.0797281</v>
       </c>
       <c r="C68" t="n">
-        <v>0.130111</v>
+        <v>0.0793803</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06609569999999999</v>
+        <v>0.119043</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06600689999999999</v>
+        <v>0.0661984</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0644091</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0804638</v>
+        <v>0.07861</v>
       </c>
       <c r="C69" t="n">
-        <v>0.136572</v>
+        <v>0.07959430000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06717099999999999</v>
+        <v>0.124948</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0668407</v>
+        <v>0.06745039999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0654613</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0808089</v>
+        <v>0.07939309999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.142408</v>
+        <v>0.08014880000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0672643</v>
+        <v>0.131709</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0679048</v>
+        <v>0.06903479999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0665255</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0814923</v>
+        <v>0.0796335</v>
       </c>
       <c r="C71" t="n">
-        <v>0.149203</v>
+        <v>0.08051759999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0677497</v>
+        <v>0.138642</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0684917</v>
+        <v>0.067636</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0674757</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0815487</v>
+        <v>0.0802423</v>
       </c>
       <c r="C72" t="n">
-        <v>0.157588</v>
+        <v>0.0815829</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06843050000000001</v>
+        <v>0.145394</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0697147</v>
+        <v>0.0683933</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0686973</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0803435</v>
+        <v>0.08269319999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.161497</v>
+        <v>0.0822237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0693607</v>
+        <v>0.153386</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0715407</v>
+        <v>0.0693183</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.07079290000000001</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0827476</v>
+        <v>0.08194170000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.171266</v>
+        <v>0.082853</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0701036</v>
+        <v>0.162003</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07354769999999999</v>
+        <v>0.0702859</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0728553</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08338619999999999</v>
+        <v>0.0824246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179222</v>
+        <v>0.0850369</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0733458</v>
+        <v>0.169047</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0771814</v>
+        <v>0.0719682</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.07544820000000001</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08382100000000001</v>
+        <v>0.0828648</v>
       </c>
       <c r="C76" t="n">
-        <v>0.18575</v>
+        <v>0.0868873</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0752409</v>
+        <v>0.179322</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07962950000000001</v>
+        <v>0.0746817</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0786813</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.084701</v>
+        <v>0.0844863</v>
       </c>
       <c r="C77" t="n">
-        <v>0.191077</v>
+        <v>0.0875652</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0779325</v>
+        <v>0.185924</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0843508</v>
+        <v>0.07671699999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.08304640000000001</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0862522</v>
+        <v>0.085769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.184496</v>
+        <v>0.0906194</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08109719999999999</v>
+        <v>0.184567</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0901846</v>
+        <v>0.08057590000000001</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0882367</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08852409999999999</v>
+        <v>0.08599560000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.192375</v>
+        <v>0.09508809999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08696130000000001</v>
+        <v>0.192758</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0962803</v>
+        <v>0.086261</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0957476</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0919668</v>
+        <v>0.08982370000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.201301</v>
+        <v>0.100549</v>
       </c>
       <c r="D80" t="n">
-        <v>0.122333</v>
+        <v>0.201351</v>
       </c>
       <c r="E80" t="n">
-        <v>0.104227</v>
+        <v>0.109091</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.106505</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.184061</v>
+        <v>0.183261</v>
       </c>
       <c r="C81" t="n">
-        <v>0.210416</v>
+        <v>0.151278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.117688</v>
+        <v>0.20683</v>
       </c>
       <c r="E81" t="n">
-        <v>0.105125</v>
+        <v>0.112695</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.106742</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185176</v>
+        <v>0.182902</v>
       </c>
       <c r="C82" t="n">
-        <v>0.217108</v>
+        <v>0.150045</v>
       </c>
       <c r="D82" t="n">
-        <v>0.120154</v>
+        <v>0.216178</v>
       </c>
       <c r="E82" t="n">
-        <v>0.106296</v>
+        <v>0.11632</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.106774</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.186113</v>
+        <v>0.181776</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229112</v>
+        <v>0.150281</v>
       </c>
       <c r="D83" t="n">
-        <v>0.122462</v>
+        <v>0.227883</v>
       </c>
       <c r="E83" t="n">
-        <v>0.106805</v>
+        <v>0.117066</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.106492</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.186847</v>
+        <v>0.183239</v>
       </c>
       <c r="C84" t="n">
-        <v>0.23533</v>
+        <v>0.150983</v>
       </c>
       <c r="D84" t="n">
-        <v>0.124865</v>
+        <v>0.237657</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107751</v>
+        <v>0.118248</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.107293</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18738</v>
+        <v>0.184656</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244932</v>
+        <v>0.151879</v>
       </c>
       <c r="D85" t="n">
-        <v>0.129137</v>
+        <v>0.245426</v>
       </c>
       <c r="E85" t="n">
-        <v>0.107219</v>
+        <v>0.122312</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.110151</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.186583</v>
+        <v>0.185001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256248</v>
+        <v>0.151931</v>
       </c>
       <c r="D86" t="n">
-        <v>0.131089</v>
+        <v>0.257424</v>
       </c>
       <c r="E86" t="n">
-        <v>0.108602</v>
+        <v>0.121626</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.111482</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.188167</v>
+        <v>0.186604</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263331</v>
+        <v>0.154772</v>
       </c>
       <c r="D87" t="n">
-        <v>0.133231</v>
+        <v>0.267334</v>
       </c>
       <c r="E87" t="n">
-        <v>0.111587</v>
+        <v>0.12518</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.113494</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.188964</v>
+        <v>0.186582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.276414</v>
+        <v>0.15626</v>
       </c>
       <c r="D88" t="n">
-        <v>0.137443</v>
+        <v>0.276425</v>
       </c>
       <c r="E88" t="n">
-        <v>0.114716</v>
+        <v>0.125396</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.115584</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188893</v>
+        <v>0.185907</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285459</v>
+        <v>0.157494</v>
       </c>
       <c r="D89" t="n">
-        <v>0.139478</v>
+        <v>0.284712</v>
       </c>
       <c r="E89" t="n">
-        <v>0.11602</v>
+        <v>0.129428</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.117984</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188222</v>
+        <v>0.186719</v>
       </c>
       <c r="C90" t="n">
-        <v>0.293176</v>
+        <v>0.157564</v>
       </c>
       <c r="D90" t="n">
-        <v>0.141811</v>
+        <v>0.295897</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11935</v>
+        <v>0.131273</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.121445</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190104</v>
+        <v>0.188388</v>
       </c>
       <c r="C91" t="n">
-        <v>0.305869</v>
+        <v>0.160179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.140425</v>
+        <v>0.30454</v>
       </c>
       <c r="E91" t="n">
-        <v>0.119983</v>
+        <v>0.135214</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.123784</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189659</v>
+        <v>0.188315</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289904</v>
+        <v>0.163378</v>
       </c>
       <c r="D92" t="n">
-        <v>0.141496</v>
+        <v>0.288117</v>
       </c>
       <c r="E92" t="n">
-        <v>0.130124</v>
+        <v>0.137424</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.12891</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19108</v>
+        <v>0.190451</v>
       </c>
       <c r="C93" t="n">
-        <v>0.296824</v>
+        <v>0.166345</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150977</v>
+        <v>0.29512</v>
       </c>
       <c r="E93" t="n">
-        <v>0.132048</v>
+        <v>0.14158</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.13465</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193534</v>
+        <v>0.192218</v>
       </c>
       <c r="C94" t="n">
-        <v>0.304211</v>
+        <v>0.170447</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213414</v>
+        <v>0.300137</v>
       </c>
       <c r="E94" t="n">
-        <v>0.202894</v>
+        <v>0.212408</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.202609</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248693</v>
+        <v>0.251814</v>
       </c>
       <c r="C95" t="n">
-        <v>0.309587</v>
+        <v>0.237992</v>
       </c>
       <c r="D95" t="n">
-        <v>0.204636</v>
+        <v>0.308837</v>
       </c>
       <c r="E95" t="n">
-        <v>0.203723</v>
+        <v>0.215307</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.202913</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250671</v>
+        <v>0.250721</v>
       </c>
       <c r="C96" t="n">
-        <v>0.315919</v>
+        <v>0.238074</v>
       </c>
       <c r="D96" t="n">
-        <v>0.20982</v>
+        <v>0.315838</v>
       </c>
       <c r="E96" t="n">
-        <v>0.204779</v>
+        <v>0.217184</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.204413</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252198</v>
+        <v>0.250965</v>
       </c>
       <c r="C97" t="n">
-        <v>0.327283</v>
+        <v>0.238493</v>
       </c>
       <c r="D97" t="n">
-        <v>0.212457</v>
+        <v>0.322904</v>
       </c>
       <c r="E97" t="n">
-        <v>0.205502</v>
+        <v>0.219507</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.204931</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251623</v>
+        <v>0.251342</v>
       </c>
       <c r="C98" t="n">
-        <v>0.331798</v>
+        <v>0.238746</v>
       </c>
       <c r="D98" t="n">
-        <v>0.221652</v>
+        <v>0.333924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.206682</v>
+        <v>0.216463</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.20649</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.251385</v>
+        <v>0.252226</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340763</v>
+        <v>0.239237</v>
       </c>
       <c r="D99" t="n">
-        <v>0.223747</v>
+        <v>0.340847</v>
       </c>
       <c r="E99" t="n">
-        <v>0.208292</v>
+        <v>0.222995</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.208101</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.250818</v>
+        <v>0.251864</v>
       </c>
       <c r="C100" t="n">
-        <v>0.349993</v>
+        <v>0.239594</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225691</v>
+        <v>0.348298</v>
       </c>
       <c r="E100" t="n">
-        <v>0.20961</v>
+        <v>0.225899</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.209221</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251229</v>
+        <v>0.251414</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3594</v>
+        <v>0.240099</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222352</v>
+        <v>0.360105</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210957</v>
+        <v>0.22144</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.210545</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.251554</v>
+        <v>0.251567</v>
       </c>
       <c r="C102" t="n">
-        <v>0.369813</v>
+        <v>0.240706</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229767</v>
+        <v>0.368455</v>
       </c>
       <c r="E102" t="n">
-        <v>0.213035</v>
+        <v>0.226373</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.211521</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.25214</v>
+        <v>0.251832</v>
       </c>
       <c r="C103" t="n">
-        <v>0.378903</v>
+        <v>0.241568</v>
       </c>
       <c r="D103" t="n">
-        <v>0.232776</v>
+        <v>0.377853</v>
       </c>
       <c r="E103" t="n">
-        <v>0.214403</v>
+        <v>0.229043</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.213879</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252228</v>
+        <v>0.252409</v>
       </c>
       <c r="C104" t="n">
-        <v>0.387868</v>
+        <v>0.243666</v>
       </c>
       <c r="D104" t="n">
-        <v>0.235373</v>
+        <v>0.388558</v>
       </c>
       <c r="E104" t="n">
-        <v>0.216796</v>
+        <v>0.235636</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.216209</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.250706</v>
+        <v>0.253332</v>
       </c>
       <c r="C105" t="n">
-        <v>0.395243</v>
+        <v>0.246599</v>
       </c>
       <c r="D105" t="n">
-        <v>0.239517</v>
+        <v>0.396413</v>
       </c>
       <c r="E105" t="n">
-        <v>0.219334</v>
+        <v>0.237246</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.219417</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253899</v>
+        <v>0.253801</v>
       </c>
       <c r="C106" t="n">
-        <v>0.408758</v>
+        <v>0.24798</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242595</v>
+        <v>0.408214</v>
       </c>
       <c r="E106" t="n">
-        <v>0.224252</v>
+        <v>0.241249</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.22339</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.255535</v>
+        <v>0.255236</v>
       </c>
       <c r="C107" t="n">
-        <v>0.344875</v>
+        <v>0.250168</v>
       </c>
       <c r="D107" t="n">
-        <v>0.240027</v>
+        <v>0.348926</v>
       </c>
       <c r="E107" t="n">
-        <v>0.231605</v>
+        <v>0.244348</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.229469</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.258518</v>
+        <v>0.256078</v>
       </c>
       <c r="C108" t="n">
-        <v>0.355688</v>
+        <v>0.255333</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264184</v>
+        <v>0.352721</v>
       </c>
       <c r="E108" t="n">
-        <v>0.247933</v>
+        <v>0.263541</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.252047</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262171</v>
+        <v>0.262286</v>
       </c>
       <c r="C109" t="n">
-        <v>0.361414</v>
+        <v>0.264341</v>
       </c>
       <c r="D109" t="n">
-        <v>0.26564</v>
+        <v>0.358196</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250168</v>
+        <v>0.265386</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.248041</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280343</v>
+        <v>0.282772</v>
       </c>
       <c r="C110" t="n">
-        <v>0.368125</v>
+        <v>0.299437</v>
       </c>
       <c r="D110" t="n">
-        <v>0.266942</v>
+        <v>0.367481</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253804</v>
+        <v>0.267827</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.255491</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287093</v>
+        <v>0.289324</v>
       </c>
       <c r="C111" t="n">
-        <v>0.375703</v>
+        <v>0.300481</v>
       </c>
       <c r="D111" t="n">
-        <v>0.27026</v>
+        <v>0.375296</v>
       </c>
       <c r="E111" t="n">
-        <v>0.255364</v>
+        <v>0.265119</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.252175</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.288309</v>
+        <v>0.289836</v>
       </c>
       <c r="C112" t="n">
-        <v>0.382357</v>
+        <v>0.298851</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265479</v>
+        <v>0.38243</v>
       </c>
       <c r="E112" t="n">
-        <v>0.255208</v>
+        <v>0.26633</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.25837</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287608</v>
+        <v>0.288038</v>
       </c>
       <c r="C113" t="n">
-        <v>0.390565</v>
+        <v>0.299256</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265869</v>
+        <v>0.389074</v>
       </c>
       <c r="E113" t="n">
-        <v>0.259525</v>
+        <v>0.266291</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.260347</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.290119</v>
+        <v>0.287898</v>
       </c>
       <c r="C114" t="n">
-        <v>0.398026</v>
+        <v>0.301232</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269346</v>
+        <v>0.39719</v>
       </c>
       <c r="E114" t="n">
-        <v>0.261403</v>
+        <v>0.269396</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.261093</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.28788</v>
+        <v>0.289728</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4042</v>
+        <v>0.301422</v>
       </c>
       <c r="D115" t="n">
-        <v>0.27242</v>
+        <v>0.408839</v>
       </c>
       <c r="E115" t="n">
-        <v>0.265746</v>
+        <v>0.267978</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.265311</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290616</v>
+        <v>0.287732</v>
       </c>
       <c r="C116" t="n">
-        <v>0.413209</v>
+        <v>0.302368</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269245</v>
+        <v>0.41997</v>
       </c>
       <c r="E116" t="n">
-        <v>0.262028</v>
+        <v>0.275141</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.267089</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288588</v>
+        <v>0.288022</v>
       </c>
       <c r="C117" t="n">
-        <v>0.422885</v>
+        <v>0.304297</v>
       </c>
       <c r="D117" t="n">
-        <v>0.277997</v>
+        <v>0.426503</v>
       </c>
       <c r="E117" t="n">
-        <v>0.271435</v>
+        <v>0.273613</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.271529</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28813</v>
+        <v>0.28931</v>
       </c>
       <c r="C118" t="n">
-        <v>0.437502</v>
+        <v>0.306825</v>
       </c>
       <c r="D118" t="n">
-        <v>0.281963</v>
+        <v>0.436822</v>
       </c>
       <c r="E118" t="n">
-        <v>0.274922</v>
+        <v>0.28202</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.276024</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.289717</v>
+        <v>0.290259</v>
       </c>
       <c r="C119" t="n">
-        <v>0.449479</v>
+        <v>0.307807</v>
       </c>
       <c r="D119" t="n">
-        <v>0.284654</v>
+        <v>0.443702</v>
       </c>
       <c r="E119" t="n">
-        <v>0.280229</v>
+        <v>0.284991</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.279135</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.286355</v>
+        <v>0.290866</v>
       </c>
       <c r="C120" t="n">
-        <v>0.456297</v>
+        <v>0.310662</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289118</v>
+        <v>0.459748</v>
       </c>
       <c r="E120" t="n">
-        <v>0.286978</v>
+        <v>0.28919</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.286428</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292597</v>
+        <v>0.292104</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3757</v>
+        <v>0.311554</v>
       </c>
       <c r="D121" t="n">
-        <v>0.293557</v>
+        <v>0.376888</v>
       </c>
       <c r="E121" t="n">
-        <v>0.291407</v>
+        <v>0.291774</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.293469</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292825</v>
+        <v>0.2897</v>
       </c>
       <c r="C122" t="n">
-        <v>0.382144</v>
+        <v>0.317253</v>
       </c>
       <c r="D122" t="n">
-        <v>0.300565</v>
+        <v>0.376455</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30244</v>
+        <v>0.299665</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.306517</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.300268</v>
+        <v>0.299345</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384906</v>
+        <v>0.321031</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282979</v>
+        <v>0.388993</v>
       </c>
       <c r="E123" t="n">
-        <v>0.284906</v>
+        <v>0.287699</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.285223</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368496</v>
+        <v>0.368852</v>
       </c>
       <c r="C124" t="n">
-        <v>0.397693</v>
+        <v>0.382629</v>
       </c>
       <c r="D124" t="n">
-        <v>0.29027</v>
+        <v>0.395902</v>
       </c>
       <c r="E124" t="n">
-        <v>0.286986</v>
+        <v>0.289819</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.286742</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366658</v>
+        <v>0.370265</v>
       </c>
       <c r="C125" t="n">
-        <v>0.403779</v>
+        <v>0.388802</v>
       </c>
       <c r="D125" t="n">
-        <v>0.292808</v>
+        <v>0.403257</v>
       </c>
       <c r="E125" t="n">
-        <v>0.289766</v>
+        <v>0.292511</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.288896</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.370769</v>
+        <v>0.369895</v>
       </c>
       <c r="C126" t="n">
-        <v>0.407165</v>
+        <v>0.390218</v>
       </c>
       <c r="D126" t="n">
-        <v>0.295454</v>
+        <v>0.405359</v>
       </c>
       <c r="E126" t="n">
-        <v>0.291874</v>
+        <v>0.295488</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.290647</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.364239</v>
+        <v>0.360737</v>
       </c>
       <c r="C127" t="n">
-        <v>0.420218</v>
+        <v>0.387166</v>
       </c>
       <c r="D127" t="n">
-        <v>0.292264</v>
+        <v>0.419115</v>
       </c>
       <c r="E127" t="n">
-        <v>0.294686</v>
+        <v>0.297742</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.29398</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.360722</v>
+        <v>0.362814</v>
       </c>
       <c r="C128" t="n">
-        <v>0.424084</v>
+        <v>0.388273</v>
       </c>
       <c r="D128" t="n">
-        <v>0.295261</v>
+        <v>0.426968</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296896</v>
+        <v>0.301652</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.296749</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.372404</v>
+        <v>0.373474</v>
       </c>
       <c r="C129" t="n">
-        <v>0.43773</v>
+        <v>0.391234</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30503</v>
+        <v>0.430627</v>
       </c>
       <c r="E129" t="n">
-        <v>0.29669</v>
+        <v>0.298692</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.298959</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367232</v>
+        <v>0.370315</v>
       </c>
       <c r="C130" t="n">
-        <v>0.439228</v>
+        <v>0.393506</v>
       </c>
       <c r="D130" t="n">
-        <v>0.307612</v>
+        <v>0.443649</v>
       </c>
       <c r="E130" t="n">
-        <v>0.304108</v>
+        <v>0.30789</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.302562</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.368912</v>
+        <v>0.360909</v>
       </c>
       <c r="C131" t="n">
-        <v>0.450116</v>
+        <v>0.387567</v>
       </c>
       <c r="D131" t="n">
-        <v>0.305752</v>
+        <v>0.448946</v>
       </c>
       <c r="E131" t="n">
-        <v>0.305254</v>
+        <v>0.310708</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.303905</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370725</v>
+        <v>0.36222</v>
       </c>
       <c r="C132" t="n">
-        <v>0.460866</v>
+        <v>0.387241</v>
       </c>
       <c r="D132" t="n">
-        <v>0.316262</v>
+        <v>0.462875</v>
       </c>
       <c r="E132" t="n">
-        <v>0.305839</v>
+        <v>0.315441</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.306512</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.370975</v>
+        <v>0.369906</v>
       </c>
       <c r="C133" t="n">
-        <v>0.466028</v>
+        <v>0.397699</v>
       </c>
       <c r="D133" t="n">
-        <v>0.314033</v>
+        <v>0.47174</v>
       </c>
       <c r="E133" t="n">
-        <v>0.313073</v>
+        <v>0.313955</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.311967</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.366904</v>
+        <v>0.373055</v>
       </c>
       <c r="C134" t="n">
-        <v>0.483043</v>
+        <v>0.399458</v>
       </c>
       <c r="D134" t="n">
-        <v>0.325093</v>
+        <v>0.482435</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320334</v>
+        <v>0.319373</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.320658</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.373188</v>
+        <v>0.372292</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392783</v>
+        <v>0.402125</v>
       </c>
       <c r="D135" t="n">
-        <v>0.325902</v>
+        <v>0.389673</v>
       </c>
       <c r="E135" t="n">
-        <v>0.33111</v>
+        <v>0.331734</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.330596</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.374812</v>
+        <v>0.373666</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398889</v>
+        <v>0.409162</v>
       </c>
       <c r="D136" t="n">
-        <v>0.335546</v>
+        <v>0.39413</v>
       </c>
       <c r="E136" t="n">
-        <v>0.341935</v>
+        <v>0.342073</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.345525</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375014</v>
+        <v>0.376464</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399782</v>
+        <v>0.414223</v>
       </c>
       <c r="D137" t="n">
-        <v>0.312243</v>
+        <v>0.402755</v>
       </c>
       <c r="E137" t="n">
-        <v>0.30176</v>
+        <v>0.311809</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.301536</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.433626</v>
+        <v>0.43301</v>
       </c>
       <c r="C138" t="n">
-        <v>0.410551</v>
+        <v>0.439214</v>
       </c>
       <c r="D138" t="n">
-        <v>0.31424</v>
+        <v>0.4083</v>
       </c>
       <c r="E138" t="n">
-        <v>0.303819</v>
+        <v>0.308414</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.307969</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.433585</v>
+        <v>0.433234</v>
       </c>
       <c r="C139" t="n">
-        <v>0.418941</v>
+        <v>0.446265</v>
       </c>
       <c r="D139" t="n">
-        <v>0.316381</v>
+        <v>0.419846</v>
       </c>
       <c r="E139" t="n">
-        <v>0.31007</v>
+        <v>0.316519</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.355385</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.433228</v>
+        <v>0.478201</v>
       </c>
       <c r="C140" t="n">
-        <v>0.422476</v>
+        <v>0.491858</v>
       </c>
       <c r="D140" t="n">
-        <v>0.318932</v>
+        <v>0.4631</v>
       </c>
       <c r="E140" t="n">
-        <v>0.312645</v>
+        <v>0.367819</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.348283</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.426595</v>
+        <v>0.478801</v>
       </c>
       <c r="C141" t="n">
-        <v>0.435519</v>
+        <v>0.492407</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320774</v>
+        <v>0.472082</v>
       </c>
       <c r="E141" t="n">
-        <v>0.314963</v>
+        <v>0.372333</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.351668</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.433707</v>
+        <v>0.47879</v>
       </c>
       <c r="C142" t="n">
-        <v>0.435372</v>
+        <v>0.48765</v>
       </c>
       <c r="D142" t="n">
-        <v>0.322574</v>
+        <v>0.47799</v>
       </c>
       <c r="E142" t="n">
-        <v>0.318547</v>
+        <v>0.375688</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.354712</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.434161</v>
+        <v>0.478875</v>
       </c>
       <c r="C143" t="n">
-        <v>0.450147</v>
+        <v>0.494338</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319461</v>
+        <v>0.48745</v>
       </c>
       <c r="E143" t="n">
-        <v>0.321587</v>
+        <v>0.379494</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.35931</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0433054</v>
+        <v>0.0442261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0439858</v>
+        <v>0.0433395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0691532</v>
+        <v>0.0674421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0452179</v>
+        <v>0.044811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424963</v>
+        <v>0.0424842</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043433</v>
+        <v>0.0428765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0442695</v>
+        <v>0.0439113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0755266</v>
+        <v>0.0745835</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0453557</v>
+        <v>0.0451219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0429721</v>
+        <v>0.0428918</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0436177</v>
+        <v>0.0430063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0442646</v>
+        <v>0.0441392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0832439</v>
+        <v>0.082624</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0449459</v>
+        <v>0.045062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0437789</v>
+        <v>0.0433083</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0438356</v>
+        <v>0.0432025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0445127</v>
+        <v>0.0442308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09110070000000001</v>
+        <v>0.0898258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0469221</v>
+        <v>0.0456372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0434659</v>
+        <v>0.0435502</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0449339</v>
+        <v>0.0443379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0444703</v>
+        <v>0.0445874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09741329999999999</v>
+        <v>0.0971081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0470857</v>
+        <v>0.0464122</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0436528</v>
+        <v>0.0441455</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0433298</v>
+        <v>0.043242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0458457</v>
+        <v>0.0448458</v>
       </c>
       <c r="D7" t="n">
-        <v>0.061559</v>
+        <v>0.0615178</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0480994</v>
+        <v>0.046965</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0447994</v>
+        <v>0.0449868</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0454785</v>
+        <v>0.0448323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451955</v>
+        <v>0.0451777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06389259999999999</v>
+        <v>0.0633457</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0490252</v>
+        <v>0.0483883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0464457</v>
+        <v>0.0466535</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0459551</v>
+        <v>0.0453542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0461203</v>
+        <v>0.0460115</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0683539</v>
+        <v>0.0682676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0482261</v>
+        <v>0.0463742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0440179</v>
+        <v>0.0445529</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0502475</v>
+        <v>0.0501731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0489502</v>
+        <v>0.048742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0729185</v>
+        <v>0.073044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0481629</v>
+        <v>0.0468686</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0442197</v>
+        <v>0.0445993</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0500489</v>
+        <v>0.0501373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.049081</v>
+        <v>0.0489502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07938149999999999</v>
+        <v>0.07894329999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0485334</v>
+        <v>0.0472224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0444453</v>
+        <v>0.044705</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0504943</v>
+        <v>0.0502896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0494155</v>
+        <v>0.0493674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08298899999999999</v>
+        <v>0.0840211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0489247</v>
+        <v>0.0474163</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0448144</v>
+        <v>0.0449327</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0505364</v>
+        <v>0.0501174</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495823</v>
+        <v>0.0495586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0884867</v>
+        <v>0.0885949</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0488091</v>
+        <v>0.0480089</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0449739</v>
+        <v>0.0452642</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0504911</v>
+        <v>0.0500999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494519</v>
+        <v>0.0494627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09331100000000001</v>
+        <v>0.0937648</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0492184</v>
+        <v>0.0485301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0454231</v>
+        <v>0.0456506</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506654</v>
+        <v>0.0506307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.049792</v>
+        <v>0.0497843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0982254</v>
+        <v>0.09862269999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0497939</v>
+        <v>0.048384</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045773</v>
+        <v>0.0460584</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0508841</v>
+        <v>0.0507079</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0498784</v>
+        <v>0.05004</v>
       </c>
       <c r="D16" t="n">
-        <v>0.10329</v>
+        <v>0.103508</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0499348</v>
+        <v>0.0492264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0461687</v>
+        <v>0.0463861</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0509667</v>
+        <v>0.0507012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0501688</v>
+        <v>0.0503345</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108524</v>
+        <v>0.108515</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0501692</v>
+        <v>0.0494649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0464968</v>
+        <v>0.0466076</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.051305</v>
+        <v>0.050956</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507074</v>
+        <v>0.0507402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113152</v>
+        <v>0.113271</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0503721</v>
+        <v>0.0498593</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468379</v>
+        <v>0.0468609</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0511277</v>
+        <v>0.0510159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0503397</v>
+        <v>0.0504641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117669</v>
+        <v>0.117907</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0508467</v>
+        <v>0.0501626</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0470648</v>
+        <v>0.047385</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0517476</v>
+        <v>0.0514044</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0510488</v>
+        <v>0.0508687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121309</v>
+        <v>0.121464</v>
       </c>
       <c r="E20" t="n">
-        <v>0.051215</v>
+        <v>0.0509812</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0480566</v>
+        <v>0.0483732</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0519923</v>
+        <v>0.0516981</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0514592</v>
+        <v>0.0513741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08532629999999999</v>
+        <v>0.0849673</v>
       </c>
       <c r="E21" t="n">
-        <v>0.052589</v>
+        <v>0.0521421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0499423</v>
+        <v>0.0494408</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0523007</v>
+        <v>0.0521486</v>
       </c>
       <c r="C22" t="n">
-        <v>0.052413</v>
+        <v>0.0522376</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0878905</v>
+        <v>0.08790530000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0562376</v>
+        <v>0.0559189</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0533313</v>
+        <v>0.0536981</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0537102</v>
+        <v>0.0534345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0532186</v>
+        <v>0.0536667</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09178219999999999</v>
+        <v>0.0917898</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0536375</v>
+        <v>0.0537226</v>
       </c>
       <c r="F23" t="n">
-        <v>0.050132</v>
+        <v>0.0495406</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0549627</v>
+        <v>0.0548668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0566705</v>
+        <v>0.0564583</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0949242</v>
+        <v>0.09493600000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0532759</v>
+        <v>0.0529843</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0501058</v>
+        <v>0.0498194</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551062</v>
+        <v>0.0552181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0570006</v>
+        <v>0.0565135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984389</v>
+        <v>0.0984009</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0537433</v>
+        <v>0.0533758</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0504016</v>
+        <v>0.0500337</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551671</v>
+        <v>0.0551953</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0572371</v>
+        <v>0.0570501</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102285</v>
+        <v>0.102276</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0540962</v>
+        <v>0.0537835</v>
       </c>
       <c r="F26" t="n">
-        <v>0.050687</v>
+        <v>0.0503463</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554145</v>
+        <v>0.0554485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0572906</v>
+        <v>0.0570172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106572</v>
+        <v>0.106325</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543544</v>
+        <v>0.0543934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0508501</v>
+        <v>0.0510282</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556544</v>
+        <v>0.0556372</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0574895</v>
+        <v>0.0570992</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110306</v>
+        <v>0.110103</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0546616</v>
+        <v>0.0547922</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0513537</v>
+        <v>0.0509818</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556739</v>
+        <v>0.0555719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0574829</v>
+        <v>0.0570917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114201</v>
+        <v>0.114166</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0549387</v>
+        <v>0.054725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514583</v>
+        <v>0.0514247</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0557196</v>
+        <v>0.055618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.057623</v>
+        <v>0.0573126</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118421</v>
+        <v>0.118266</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552993</v>
+        <v>0.0552535</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0518513</v>
+        <v>0.0515957</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557604</v>
+        <v>0.0557051</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0576735</v>
+        <v>0.0577077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12255</v>
+        <v>0.122379</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0560861</v>
+        <v>0.0557179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0522636</v>
+        <v>0.0519822</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559814</v>
+        <v>0.0558719</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0580334</v>
+        <v>0.0581252</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125919</v>
+        <v>0.125829</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559413</v>
+        <v>0.0559483</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0526468</v>
+        <v>0.0523521</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.056303</v>
+        <v>0.0562297</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0582197</v>
+        <v>0.0581537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129343</v>
+        <v>0.12919</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566578</v>
+        <v>0.0566734</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0532038</v>
+        <v>0.0533134</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565616</v>
+        <v>0.0566325</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0586728</v>
+        <v>0.0582222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132714</v>
+        <v>0.132401</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0576256</v>
+        <v>0.0575296</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0545099</v>
+        <v>0.0544527</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567208</v>
+        <v>0.0567244</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058811</v>
+        <v>0.0585812</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0932675</v>
+        <v>0.0931403</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0607071</v>
+        <v>0.0606524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0577077</v>
+        <v>0.0581598</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579323</v>
+        <v>0.0579338</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0602207</v>
+        <v>0.0601447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955025</v>
+        <v>0.0955546</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0669029</v>
+        <v>0.0664445</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06466619999999999</v>
+        <v>0.06445969999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0606421</v>
+        <v>0.0605106</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0632432</v>
+        <v>0.06313680000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.097551</v>
+        <v>0.0976178</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0586589</v>
+        <v>0.0590445</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0543662</v>
+        <v>0.0535276</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0610402</v>
+        <v>0.061463</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0642308</v>
+        <v>0.0636135</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100472</v>
+        <v>0.100446</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0573951</v>
+        <v>0.0574488</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0546507</v>
+        <v>0.0538241</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0598678</v>
+        <v>0.060147</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06452670000000001</v>
+        <v>0.0639787</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103361</v>
+        <v>0.103364</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0582764</v>
+        <v>0.0578294</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0549025</v>
+        <v>0.0540959</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0602509</v>
+        <v>0.0603414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06449729999999999</v>
+        <v>0.06405760000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106853</v>
+        <v>0.106625</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0583159</v>
+        <v>0.0585477</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0553231</v>
+        <v>0.0544441</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0601211</v>
+        <v>0.0605495</v>
       </c>
       <c r="C41" t="n">
-        <v>0.064632</v>
+        <v>0.0642286</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110217</v>
+        <v>0.11031</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0588336</v>
+        <v>0.0591438</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0550033</v>
+        <v>0.0549241</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0605768</v>
+        <v>0.0606603</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0645389</v>
+        <v>0.0640911</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113861</v>
+        <v>0.113872</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0594433</v>
+        <v>0.0597062</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0559711</v>
+        <v>0.0551815</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06046</v>
+        <v>0.0607052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0645782</v>
+        <v>0.06432640000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117691</v>
+        <v>0.117738</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0599971</v>
+        <v>0.0598578</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0564212</v>
+        <v>0.0555353</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.060542</v>
+        <v>0.0608055</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06486889999999999</v>
+        <v>0.0645878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121489</v>
+        <v>0.121387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.060256</v>
+        <v>0.0606236</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0567758</v>
+        <v>0.0559141</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.060716</v>
+        <v>0.061007</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06512560000000001</v>
+        <v>0.0647992</v>
       </c>
       <c r="D45" t="n">
-        <v>0.12547</v>
+        <v>0.125391</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0605053</v>
+        <v>0.0612943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0567433</v>
+        <v>0.0566346</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0609377</v>
+        <v>0.061313</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06548760000000001</v>
+        <v>0.0651297</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129309</v>
+        <v>0.129279</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0619221</v>
+        <v>0.0612577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0576977</v>
+        <v>0.0574873</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0612407</v>
+        <v>0.061551</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06574000000000001</v>
+        <v>0.0655097</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132516</v>
+        <v>0.132363</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0624825</v>
+        <v>0.0623429</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0587238</v>
+        <v>0.0585498</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0614821</v>
+        <v>0.061578</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0662427</v>
+        <v>0.06596100000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136012</v>
+        <v>0.13586</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06445819999999999</v>
+        <v>0.06452040000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612163</v>
+        <v>0.0612556</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0625173</v>
+        <v>0.0621648</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0663654</v>
+        <v>0.0658374</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139088</v>
+        <v>0.139016</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0678554</v>
+        <v>0.0679212</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649864</v>
+        <v>0.0646786</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06385929999999999</v>
+        <v>0.0645255</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06783690000000001</v>
+        <v>0.0684633</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09745189999999999</v>
+        <v>0.0973888</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0729086</v>
+        <v>0.0727101</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0699936</v>
+        <v>0.0700505</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06770569999999999</v>
+        <v>0.0677104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0723718</v>
+        <v>0.07215290000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0998105</v>
+        <v>0.09968929999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0624918</v>
+        <v>0.0617937</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0570053</v>
+        <v>0.0565977</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0725826</v>
+        <v>0.072035</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0776649</v>
+        <v>0.077149</v>
       </c>
       <c r="D52" t="n">
-        <v>0.101974</v>
+        <v>0.102056</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0613479</v>
+        <v>0.0611771</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0573022</v>
+        <v>0.0569705</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0672325</v>
+        <v>0.06757349999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07113129999999999</v>
+        <v>0.0711485</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105399</v>
+        <v>0.105467</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618898</v>
+        <v>0.0618582</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574704</v>
+        <v>0.0574304</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0676829</v>
+        <v>0.0673551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711991</v>
+        <v>0.0711507</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108367</v>
+        <v>0.108418</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06219</v>
+        <v>0.0621909</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579798</v>
+        <v>0.0579579</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678154</v>
+        <v>0.0678165</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07134749999999999</v>
+        <v>0.07125620000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.111944</v>
+        <v>0.11183</v>
       </c>
       <c r="E55" t="n">
-        <v>0.063473</v>
+        <v>0.0626467</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0600936</v>
+        <v>0.0583696</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06847839999999999</v>
+        <v>0.0676182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07150140000000001</v>
+        <v>0.0715219</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115955</v>
+        <v>0.115461</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0631627</v>
+        <v>0.0630502</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0602098</v>
+        <v>0.058718</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06779259999999999</v>
+        <v>0.0679245</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07139189999999999</v>
+        <v>0.0714403</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119912</v>
+        <v>0.119594</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635529</v>
+        <v>0.0635468</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0609796</v>
+        <v>0.0592846</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0687688</v>
+        <v>0.06835529999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0718452</v>
+        <v>0.0715956</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123365</v>
+        <v>0.123225</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0644832</v>
+        <v>0.06438000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614438</v>
+        <v>0.0612002</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0684056</v>
+        <v>0.06824089999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0721724</v>
+        <v>0.0720398</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127263</v>
+        <v>0.127117</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0650322</v>
+        <v>0.06493309999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0626013</v>
+        <v>0.0621119</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0685817</v>
+        <v>0.0684545</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0725703</v>
+        <v>0.07275760000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131502</v>
+        <v>0.131041</v>
       </c>
       <c r="E60" t="n">
-        <v>0.066206</v>
+        <v>0.0662929</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638365</v>
+        <v>0.0638517</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.068896</v>
+        <v>0.06869840000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0728023</v>
+        <v>0.0735697</v>
       </c>
       <c r="D61" t="n">
-        <v>0.13508</v>
+        <v>0.135099</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0679042</v>
+        <v>0.06792570000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06622690000000001</v>
+        <v>0.0657039</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06968920000000001</v>
+        <v>0.06956900000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0734216</v>
+        <v>0.0749084</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138635</v>
+        <v>0.138501</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0703664</v>
+        <v>0.0701854</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06845759999999999</v>
+        <v>0.0686645</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07046189999999999</v>
+        <v>0.0704283</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07527250000000001</v>
+        <v>0.07568709999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142208</v>
+        <v>0.142199</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0733029</v>
+        <v>0.0731004</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0721101</v>
+        <v>0.0724373</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0725362</v>
+        <v>0.0720678</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0775163</v>
+        <v>0.077707</v>
       </c>
       <c r="D64" t="n">
-        <v>0.104774</v>
+        <v>0.105271</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0770832</v>
+        <v>0.0767965</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0768157</v>
+        <v>0.07700600000000001</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07499450000000001</v>
+        <v>0.0747599</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0809595</v>
+        <v>0.08154210000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107606</v>
+        <v>0.109339</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0838594</v>
+        <v>0.0834685</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08438619999999999</v>
+        <v>0.0841364</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0782688</v>
+        <v>0.07876279999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0861277</v>
+        <v>0.0860635</v>
       </c>
       <c r="D66" t="n">
-        <v>0.111698</v>
+        <v>0.113168</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06503639999999999</v>
+        <v>0.0654932</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06347079999999999</v>
+        <v>0.0635366</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0796263</v>
+        <v>0.0806291</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0792759</v>
+        <v>0.0790433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.114738</v>
+        <v>0.117383</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06797739999999999</v>
+        <v>0.0658498</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0637839</v>
+        <v>0.06349390000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0797281</v>
+        <v>0.0817252</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0793803</v>
+        <v>0.0788948</v>
       </c>
       <c r="D68" t="n">
-        <v>0.119043</v>
+        <v>0.121468</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0661984</v>
+        <v>0.0663763</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0644091</v>
+        <v>0.06469179999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07861</v>
+        <v>0.0807778</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07959430000000001</v>
+        <v>0.0802451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.124948</v>
+        <v>0.127426</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06745039999999999</v>
+        <v>0.0665089</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0654613</v>
+        <v>0.0658255</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07939309999999999</v>
+        <v>0.0812206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08014880000000001</v>
+        <v>0.0798971</v>
       </c>
       <c r="D70" t="n">
-        <v>0.131709</v>
+        <v>0.133366</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06903479999999999</v>
+        <v>0.0669299</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0665255</v>
+        <v>0.0668377</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0796335</v>
+        <v>0.0808204</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08051759999999999</v>
+        <v>0.08044030000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.138642</v>
+        <v>0.140357</v>
       </c>
       <c r="E71" t="n">
-        <v>0.067636</v>
+        <v>0.0680009</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0674757</v>
+        <v>0.0675308</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0802423</v>
+        <v>0.0810881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815829</v>
+        <v>0.0815232</v>
       </c>
       <c r="D72" t="n">
-        <v>0.145394</v>
+        <v>0.147978</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0683933</v>
+        <v>0.0687173</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0686973</v>
+        <v>0.0688807</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08269319999999999</v>
+        <v>0.0812137</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0822237</v>
+        <v>0.08229210000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.153386</v>
+        <v>0.156211</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0693183</v>
+        <v>0.0696736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07079290000000001</v>
+        <v>0.0705572</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08194170000000001</v>
+        <v>0.08283219999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.082853</v>
+        <v>0.0832642</v>
       </c>
       <c r="D74" t="n">
-        <v>0.162003</v>
+        <v>0.163893</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0702859</v>
+        <v>0.07122439999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0728553</v>
+        <v>0.0730147</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0824246</v>
+        <v>0.0834811</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0850369</v>
+        <v>0.0845571</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169047</v>
+        <v>0.170038</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0719682</v>
+        <v>0.0730475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07544820000000001</v>
+        <v>0.07569339999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0828648</v>
+        <v>0.0840316</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0868873</v>
+        <v>0.0858091</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179322</v>
+        <v>0.179615</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0746817</v>
+        <v>0.0750516</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0786813</v>
+        <v>0.078754</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0844863</v>
+        <v>0.08393879999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0875652</v>
+        <v>0.0878895</v>
       </c>
       <c r="D77" t="n">
-        <v>0.185924</v>
+        <v>0.186648</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07671699999999999</v>
+        <v>0.0767034</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08304640000000001</v>
+        <v>0.08268540000000001</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.085769</v>
+        <v>0.08592329999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0906194</v>
+        <v>0.090882</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184567</v>
+        <v>0.184715</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08057590000000001</v>
+        <v>0.0814744</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0882367</v>
+        <v>0.08807189999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08599560000000001</v>
+        <v>0.0889548</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09508809999999999</v>
+        <v>0.09526900000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192758</v>
+        <v>0.192422</v>
       </c>
       <c r="E79" t="n">
-        <v>0.086261</v>
+        <v>0.08723599999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0957476</v>
+        <v>0.0958498</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08982370000000001</v>
+        <v>0.0916088</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100549</v>
+        <v>0.100669</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201351</v>
+        <v>0.201096</v>
       </c>
       <c r="E80" t="n">
-        <v>0.109091</v>
+        <v>0.112138</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106505</v>
+        <v>0.103538</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183261</v>
+        <v>0.180858</v>
       </c>
       <c r="C81" t="n">
-        <v>0.151278</v>
+        <v>0.148122</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20683</v>
+        <v>0.20553</v>
       </c>
       <c r="E81" t="n">
-        <v>0.112695</v>
+        <v>0.116196</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106742</v>
+        <v>0.104344</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182902</v>
+        <v>0.183018</v>
       </c>
       <c r="C82" t="n">
-        <v>0.150045</v>
+        <v>0.149595</v>
       </c>
       <c r="D82" t="n">
-        <v>0.216178</v>
+        <v>0.215659</v>
       </c>
       <c r="E82" t="n">
-        <v>0.11632</v>
+        <v>0.118768</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106774</v>
+        <v>0.106831</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.181776</v>
+        <v>0.182621</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150281</v>
+        <v>0.150161</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227883</v>
+        <v>0.227367</v>
       </c>
       <c r="E83" t="n">
-        <v>0.117066</v>
+        <v>0.119456</v>
       </c>
       <c r="F83" t="n">
-        <v>0.106492</v>
+        <v>0.107662</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183239</v>
+        <v>0.183463</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150983</v>
+        <v>0.150971</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237657</v>
+        <v>0.237111</v>
       </c>
       <c r="E84" t="n">
-        <v>0.118248</v>
+        <v>0.121166</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107293</v>
+        <v>0.108529</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184656</v>
+        <v>0.18434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151879</v>
+        <v>0.151937</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245426</v>
+        <v>0.24572</v>
       </c>
       <c r="E85" t="n">
-        <v>0.122312</v>
+        <v>0.123349</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110151</v>
+        <v>0.111698</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185001</v>
+        <v>0.184418</v>
       </c>
       <c r="C86" t="n">
-        <v>0.151931</v>
+        <v>0.152422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257424</v>
+        <v>0.25749</v>
       </c>
       <c r="E86" t="n">
-        <v>0.121626</v>
+        <v>0.124949</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111482</v>
+        <v>0.113112</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.186604</v>
+        <v>0.183416</v>
       </c>
       <c r="C87" t="n">
-        <v>0.154772</v>
+        <v>0.15365</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267334</v>
+        <v>0.267129</v>
       </c>
       <c r="E87" t="n">
-        <v>0.12518</v>
+        <v>0.123333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.113494</v>
+        <v>0.112091</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186582</v>
+        <v>0.183817</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15626</v>
+        <v>0.153242</v>
       </c>
       <c r="D88" t="n">
-        <v>0.276425</v>
+        <v>0.275315</v>
       </c>
       <c r="E88" t="n">
-        <v>0.125396</v>
+        <v>0.12801</v>
       </c>
       <c r="F88" t="n">
-        <v>0.115584</v>
+        <v>0.113268</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185907</v>
+        <v>0.184445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.157494</v>
+        <v>0.154406</v>
       </c>
       <c r="D89" t="n">
-        <v>0.284712</v>
+        <v>0.282332</v>
       </c>
       <c r="E89" t="n">
-        <v>0.129428</v>
+        <v>0.128448</v>
       </c>
       <c r="F89" t="n">
-        <v>0.117984</v>
+        <v>0.115878</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186719</v>
+        <v>0.184638</v>
       </c>
       <c r="C90" t="n">
-        <v>0.157564</v>
+        <v>0.154642</v>
       </c>
       <c r="D90" t="n">
-        <v>0.295897</v>
+        <v>0.294438</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131273</v>
+        <v>0.131486</v>
       </c>
       <c r="F90" t="n">
-        <v>0.121445</v>
+        <v>0.118946</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188388</v>
+        <v>0.186529</v>
       </c>
       <c r="C91" t="n">
-        <v>0.160179</v>
+        <v>0.157982</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30454</v>
+        <v>0.302141</v>
       </c>
       <c r="E91" t="n">
-        <v>0.135214</v>
+        <v>0.133313</v>
       </c>
       <c r="F91" t="n">
-        <v>0.123784</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188315</v>
+        <v>0.187038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163378</v>
+        <v>0.161603</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288117</v>
+        <v>0.286777</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137424</v>
+        <v>0.137441</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12891</v>
+        <v>0.128664</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190451</v>
+        <v>0.188371</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166345</v>
+        <v>0.165988</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29512</v>
+        <v>0.29353</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14158</v>
+        <v>0.142467</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13465</v>
+        <v>0.13495</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192218</v>
+        <v>0.190631</v>
       </c>
       <c r="C94" t="n">
-        <v>0.170447</v>
+        <v>0.171302</v>
       </c>
       <c r="D94" t="n">
-        <v>0.300137</v>
+        <v>0.298656</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212408</v>
+        <v>0.212319</v>
       </c>
       <c r="F94" t="n">
-        <v>0.202609</v>
+        <v>0.201064</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251814</v>
+        <v>0.24915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.237992</v>
+        <v>0.236857</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308837</v>
+        <v>0.307271</v>
       </c>
       <c r="E95" t="n">
-        <v>0.215307</v>
+        <v>0.21519</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202913</v>
+        <v>0.202077</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250721</v>
+        <v>0.250035</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238074</v>
+        <v>0.236908</v>
       </c>
       <c r="D96" t="n">
-        <v>0.315838</v>
+        <v>0.314094</v>
       </c>
       <c r="E96" t="n">
-        <v>0.217184</v>
+        <v>0.216037</v>
       </c>
       <c r="F96" t="n">
-        <v>0.204413</v>
+        <v>0.203116</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250965</v>
+        <v>0.249322</v>
       </c>
       <c r="C97" t="n">
-        <v>0.238493</v>
+        <v>0.237281</v>
       </c>
       <c r="D97" t="n">
-        <v>0.322904</v>
+        <v>0.32133</v>
       </c>
       <c r="E97" t="n">
-        <v>0.219507</v>
+        <v>0.21824</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204931</v>
+        <v>0.204189</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251342</v>
+        <v>0.249604</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238746</v>
+        <v>0.237632</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333924</v>
+        <v>0.33232</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216463</v>
+        <v>0.21981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.20649</v>
+        <v>0.205052</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.252226</v>
+        <v>0.25008</v>
       </c>
       <c r="C99" t="n">
-        <v>0.239237</v>
+        <v>0.238018</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340847</v>
+        <v>0.339219</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222995</v>
+        <v>0.222386</v>
       </c>
       <c r="F99" t="n">
-        <v>0.208101</v>
+        <v>0.20663</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251864</v>
+        <v>0.25102</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239594</v>
+        <v>0.238434</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348298</v>
+        <v>0.346426</v>
       </c>
       <c r="E100" t="n">
-        <v>0.225899</v>
+        <v>0.223902</v>
       </c>
       <c r="F100" t="n">
-        <v>0.209221</v>
+        <v>0.207886</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251414</v>
+        <v>0.249792</v>
       </c>
       <c r="C101" t="n">
-        <v>0.240099</v>
+        <v>0.23881</v>
       </c>
       <c r="D101" t="n">
-        <v>0.360105</v>
+        <v>0.358009</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22144</v>
+        <v>0.227255</v>
       </c>
       <c r="F101" t="n">
-        <v>0.210545</v>
+        <v>0.209254</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.251567</v>
+        <v>0.250257</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240706</v>
+        <v>0.239341</v>
       </c>
       <c r="D102" t="n">
-        <v>0.368455</v>
+        <v>0.366745</v>
       </c>
       <c r="E102" t="n">
-        <v>0.226373</v>
+        <v>0.228804</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211521</v>
+        <v>0.211074</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251832</v>
+        <v>0.249717</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241568</v>
+        <v>0.24053</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377853</v>
+        <v>0.375311</v>
       </c>
       <c r="E103" t="n">
-        <v>0.229043</v>
+        <v>0.231674</v>
       </c>
       <c r="F103" t="n">
-        <v>0.213879</v>
+        <v>0.21249</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252409</v>
+        <v>0.250965</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243666</v>
+        <v>0.24201</v>
       </c>
       <c r="D104" t="n">
-        <v>0.388558</v>
+        <v>0.38574</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235636</v>
+        <v>0.233628</v>
       </c>
       <c r="F104" t="n">
-        <v>0.216209</v>
+        <v>0.214793</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.253332</v>
+        <v>0.251752</v>
       </c>
       <c r="C105" t="n">
-        <v>0.246599</v>
+        <v>0.243934</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396413</v>
+        <v>0.393883</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237246</v>
+        <v>0.236437</v>
       </c>
       <c r="F105" t="n">
-        <v>0.219417</v>
+        <v>0.21829</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253801</v>
+        <v>0.252332</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24798</v>
+        <v>0.246011</v>
       </c>
       <c r="D106" t="n">
-        <v>0.408214</v>
+        <v>0.405546</v>
       </c>
       <c r="E106" t="n">
-        <v>0.241249</v>
+        <v>0.239817</v>
       </c>
       <c r="F106" t="n">
-        <v>0.22339</v>
+        <v>0.222402</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.255236</v>
+        <v>0.254521</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250168</v>
+        <v>0.249125</v>
       </c>
       <c r="D107" t="n">
-        <v>0.348926</v>
+        <v>0.347177</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244348</v>
+        <v>0.244413</v>
       </c>
       <c r="F107" t="n">
-        <v>0.229469</v>
+        <v>0.227499</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256078</v>
+        <v>0.256719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.255333</v>
+        <v>0.254196</v>
       </c>
       <c r="D108" t="n">
-        <v>0.352721</v>
+        <v>0.3512</v>
       </c>
       <c r="E108" t="n">
-        <v>0.263541</v>
+        <v>0.262147</v>
       </c>
       <c r="F108" t="n">
-        <v>0.252047</v>
+        <v>0.250687</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262286</v>
+        <v>0.260667</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264341</v>
+        <v>0.262238</v>
       </c>
       <c r="D109" t="n">
-        <v>0.358196</v>
+        <v>0.356327</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265386</v>
+        <v>0.26383</v>
       </c>
       <c r="F109" t="n">
-        <v>0.248041</v>
+        <v>0.252722</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282772</v>
+        <v>0.285589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299437</v>
+        <v>0.297043</v>
       </c>
       <c r="D110" t="n">
-        <v>0.367481</v>
+        <v>0.366108</v>
       </c>
       <c r="E110" t="n">
-        <v>0.267827</v>
+        <v>0.265997</v>
       </c>
       <c r="F110" t="n">
-        <v>0.255491</v>
+        <v>0.253514</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.289324</v>
+        <v>0.285935</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300481</v>
+        <v>0.297472</v>
       </c>
       <c r="D111" t="n">
-        <v>0.375296</v>
+        <v>0.373984</v>
       </c>
       <c r="E111" t="n">
-        <v>0.265119</v>
+        <v>0.267974</v>
       </c>
       <c r="F111" t="n">
-        <v>0.252175</v>
+        <v>0.255815</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289836</v>
+        <v>0.286208</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298851</v>
+        <v>0.299694</v>
       </c>
       <c r="D112" t="n">
-        <v>0.38243</v>
+        <v>0.381012</v>
       </c>
       <c r="E112" t="n">
-        <v>0.26633</v>
+        <v>0.263853</v>
       </c>
       <c r="F112" t="n">
-        <v>0.25837</v>
+        <v>0.256801</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.288038</v>
+        <v>0.286736</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299256</v>
+        <v>0.298988</v>
       </c>
       <c r="D113" t="n">
-        <v>0.389074</v>
+        <v>0.38723</v>
       </c>
       <c r="E113" t="n">
-        <v>0.266291</v>
+        <v>0.264728</v>
       </c>
       <c r="F113" t="n">
-        <v>0.260347</v>
+        <v>0.258623</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287898</v>
+        <v>0.286038</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301232</v>
+        <v>0.301134</v>
       </c>
       <c r="D114" t="n">
-        <v>0.39719</v>
+        <v>0.394753</v>
       </c>
       <c r="E114" t="n">
-        <v>0.269396</v>
+        <v>0.267436</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261093</v>
+        <v>0.261037</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289728</v>
+        <v>0.286785</v>
       </c>
       <c r="C115" t="n">
-        <v>0.301422</v>
+        <v>0.299851</v>
       </c>
       <c r="D115" t="n">
-        <v>0.408839</v>
+        <v>0.406726</v>
       </c>
       <c r="E115" t="n">
-        <v>0.267978</v>
+        <v>0.269955</v>
       </c>
       <c r="F115" t="n">
-        <v>0.265311</v>
+        <v>0.263984</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287732</v>
+        <v>0.286261</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302368</v>
+        <v>0.302022</v>
       </c>
       <c r="D116" t="n">
-        <v>0.41997</v>
+        <v>0.417659</v>
       </c>
       <c r="E116" t="n">
-        <v>0.275141</v>
+        <v>0.27311</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267089</v>
+        <v>0.265884</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288022</v>
+        <v>0.287732</v>
       </c>
       <c r="C117" t="n">
-        <v>0.304297</v>
+        <v>0.302366</v>
       </c>
       <c r="D117" t="n">
-        <v>0.426503</v>
+        <v>0.424252</v>
       </c>
       <c r="E117" t="n">
-        <v>0.273613</v>
+        <v>0.276374</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271529</v>
+        <v>0.269373</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28931</v>
+        <v>0.287004</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306825</v>
+        <v>0.304029</v>
       </c>
       <c r="D118" t="n">
-        <v>0.436822</v>
+        <v>0.434494</v>
       </c>
       <c r="E118" t="n">
-        <v>0.28202</v>
+        <v>0.279707</v>
       </c>
       <c r="F118" t="n">
-        <v>0.276024</v>
+        <v>0.273631</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.290259</v>
+        <v>0.287258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.307807</v>
+        <v>0.306266</v>
       </c>
       <c r="D119" t="n">
-        <v>0.443702</v>
+        <v>0.441325</v>
       </c>
       <c r="E119" t="n">
-        <v>0.284991</v>
+        <v>0.283317</v>
       </c>
       <c r="F119" t="n">
-        <v>0.279135</v>
+        <v>0.27831</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290866</v>
+        <v>0.288975</v>
       </c>
       <c r="C120" t="n">
-        <v>0.310662</v>
+        <v>0.306358</v>
       </c>
       <c r="D120" t="n">
-        <v>0.459748</v>
+        <v>0.456527</v>
       </c>
       <c r="E120" t="n">
-        <v>0.28919</v>
+        <v>0.287546</v>
       </c>
       <c r="F120" t="n">
-        <v>0.286428</v>
+        <v>0.284356</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292104</v>
+        <v>0.291749</v>
       </c>
       <c r="C121" t="n">
-        <v>0.311554</v>
+        <v>0.310582</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376888</v>
+        <v>0.374766</v>
       </c>
       <c r="E121" t="n">
-        <v>0.291774</v>
+        <v>0.292373</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293469</v>
+        <v>0.293035</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2897</v>
+        <v>0.292928</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317253</v>
+        <v>0.316502</v>
       </c>
       <c r="D122" t="n">
-        <v>0.376455</v>
+        <v>0.37909</v>
       </c>
       <c r="E122" t="n">
-        <v>0.299665</v>
+        <v>0.297789</v>
       </c>
       <c r="F122" t="n">
-        <v>0.306517</v>
+        <v>0.305585</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.299345</v>
+        <v>0.298078</v>
       </c>
       <c r="C123" t="n">
-        <v>0.321031</v>
+        <v>0.323491</v>
       </c>
       <c r="D123" t="n">
-        <v>0.388993</v>
+        <v>0.386739</v>
       </c>
       <c r="E123" t="n">
-        <v>0.287699</v>
+        <v>0.285912</v>
       </c>
       <c r="F123" t="n">
-        <v>0.285223</v>
+        <v>0.283661</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368852</v>
+        <v>0.365714</v>
       </c>
       <c r="C124" t="n">
-        <v>0.382629</v>
+        <v>0.386584</v>
       </c>
       <c r="D124" t="n">
-        <v>0.395902</v>
+        <v>0.393563</v>
       </c>
       <c r="E124" t="n">
-        <v>0.289819</v>
+        <v>0.28802</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286742</v>
+        <v>0.284799</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370265</v>
+        <v>0.366947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.388802</v>
+        <v>0.386448</v>
       </c>
       <c r="D125" t="n">
-        <v>0.403257</v>
+        <v>0.401019</v>
       </c>
       <c r="E125" t="n">
-        <v>0.292511</v>
+        <v>0.290386</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288896</v>
+        <v>0.287006</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.369895</v>
+        <v>0.368039</v>
       </c>
       <c r="C126" t="n">
-        <v>0.390218</v>
+        <v>0.387032</v>
       </c>
       <c r="D126" t="n">
-        <v>0.405359</v>
+        <v>0.406979</v>
       </c>
       <c r="E126" t="n">
-        <v>0.295488</v>
+        <v>0.293443</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290647</v>
+        <v>0.289966</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.360737</v>
+        <v>0.368839</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387166</v>
+        <v>0.387162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.419115</v>
+        <v>0.416836</v>
       </c>
       <c r="E127" t="n">
-        <v>0.297742</v>
+        <v>0.296484</v>
       </c>
       <c r="F127" t="n">
-        <v>0.29398</v>
+        <v>0.292175</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.362814</v>
+        <v>0.367961</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388273</v>
+        <v>0.388779</v>
       </c>
       <c r="D128" t="n">
-        <v>0.426968</v>
+        <v>0.4248</v>
       </c>
       <c r="E128" t="n">
-        <v>0.301652</v>
+        <v>0.299098</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296749</v>
+        <v>0.294956</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.373474</v>
+        <v>0.367294</v>
       </c>
       <c r="C129" t="n">
-        <v>0.391234</v>
+        <v>0.389207</v>
       </c>
       <c r="D129" t="n">
-        <v>0.430627</v>
+        <v>0.43289</v>
       </c>
       <c r="E129" t="n">
-        <v>0.298692</v>
+        <v>0.302277</v>
       </c>
       <c r="F129" t="n">
-        <v>0.298959</v>
+        <v>0.297727</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.370315</v>
+        <v>0.367853</v>
       </c>
       <c r="C130" t="n">
-        <v>0.393506</v>
+        <v>0.390563</v>
       </c>
       <c r="D130" t="n">
-        <v>0.443649</v>
+        <v>0.441179</v>
       </c>
       <c r="E130" t="n">
-        <v>0.30789</v>
+        <v>0.305582</v>
       </c>
       <c r="F130" t="n">
-        <v>0.302562</v>
+        <v>0.30149</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.360909</v>
+        <v>0.366968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.387567</v>
+        <v>0.390905</v>
       </c>
       <c r="D131" t="n">
-        <v>0.448946</v>
+        <v>0.450575</v>
       </c>
       <c r="E131" t="n">
-        <v>0.310708</v>
+        <v>0.309349</v>
       </c>
       <c r="F131" t="n">
-        <v>0.303905</v>
+        <v>0.305945</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36222</v>
+        <v>0.367194</v>
       </c>
       <c r="C132" t="n">
-        <v>0.387241</v>
+        <v>0.391812</v>
       </c>
       <c r="D132" t="n">
-        <v>0.462875</v>
+        <v>0.459705</v>
       </c>
       <c r="E132" t="n">
-        <v>0.315441</v>
+        <v>0.313418</v>
       </c>
       <c r="F132" t="n">
-        <v>0.306512</v>
+        <v>0.304423</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369906</v>
+        <v>0.3678</v>
       </c>
       <c r="C133" t="n">
-        <v>0.397699</v>
+        <v>0.394</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47174</v>
+        <v>0.47334</v>
       </c>
       <c r="E133" t="n">
-        <v>0.313955</v>
+        <v>0.318261</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311967</v>
+        <v>0.311059</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.373055</v>
+        <v>0.370409</v>
       </c>
       <c r="C134" t="n">
-        <v>0.399458</v>
+        <v>0.396976</v>
       </c>
       <c r="D134" t="n">
-        <v>0.482435</v>
+        <v>0.479849</v>
       </c>
       <c r="E134" t="n">
-        <v>0.319373</v>
+        <v>0.323365</v>
       </c>
       <c r="F134" t="n">
-        <v>0.320658</v>
+        <v>0.318466</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.372292</v>
+        <v>0.369477</v>
       </c>
       <c r="C135" t="n">
-        <v>0.402125</v>
+        <v>0.399802</v>
       </c>
       <c r="D135" t="n">
-        <v>0.389673</v>
+        <v>0.390567</v>
       </c>
       <c r="E135" t="n">
-        <v>0.331734</v>
+        <v>0.330082</v>
       </c>
       <c r="F135" t="n">
-        <v>0.330596</v>
+        <v>0.329199</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373666</v>
+        <v>0.371162</v>
       </c>
       <c r="C136" t="n">
-        <v>0.409162</v>
+        <v>0.405467</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39413</v>
+        <v>0.39491</v>
       </c>
       <c r="E136" t="n">
-        <v>0.342073</v>
+        <v>0.339113</v>
       </c>
       <c r="F136" t="n">
-        <v>0.345525</v>
+        <v>0.344001</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.376464</v>
+        <v>0.375096</v>
       </c>
       <c r="C137" t="n">
-        <v>0.414223</v>
+        <v>0.412447</v>
       </c>
       <c r="D137" t="n">
-        <v>0.402755</v>
+        <v>0.400628</v>
       </c>
       <c r="E137" t="n">
-        <v>0.311809</v>
+        <v>0.310079</v>
       </c>
       <c r="F137" t="n">
-        <v>0.301536</v>
+        <v>0.303777</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.43301</v>
+        <v>0.430235</v>
       </c>
       <c r="C138" t="n">
-        <v>0.439214</v>
+        <v>0.443374</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4083</v>
+        <v>0.409041</v>
       </c>
       <c r="E138" t="n">
-        <v>0.308414</v>
+        <v>0.311947</v>
       </c>
       <c r="F138" t="n">
-        <v>0.307969</v>
+        <v>0.305776</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.433234</v>
+        <v>0.430913</v>
       </c>
       <c r="C139" t="n">
-        <v>0.446265</v>
+        <v>0.444188</v>
       </c>
       <c r="D139" t="n">
-        <v>0.419846</v>
+        <v>0.417183</v>
       </c>
       <c r="E139" t="n">
-        <v>0.316519</v>
+        <v>0.313967</v>
       </c>
       <c r="F139" t="n">
-        <v>0.355385</v>
+        <v>0.307955</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.478201</v>
+        <v>0.431058</v>
       </c>
       <c r="C140" t="n">
-        <v>0.491858</v>
+        <v>0.444158</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4631</v>
+        <v>0.423589</v>
       </c>
       <c r="E140" t="n">
-        <v>0.367819</v>
+        <v>0.316332</v>
       </c>
       <c r="F140" t="n">
-        <v>0.348283</v>
+        <v>0.310451</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.478801</v>
+        <v>0.43147</v>
       </c>
       <c r="C141" t="n">
-        <v>0.492407</v>
+        <v>0.445084</v>
       </c>
       <c r="D141" t="n">
-        <v>0.472082</v>
+        <v>0.432597</v>
       </c>
       <c r="E141" t="n">
-        <v>0.372333</v>
+        <v>0.318336</v>
       </c>
       <c r="F141" t="n">
-        <v>0.351668</v>
+        <v>0.313484</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.47879</v>
+        <v>0.431461</v>
       </c>
       <c r="C142" t="n">
-        <v>0.48765</v>
+        <v>0.446073</v>
       </c>
       <c r="D142" t="n">
-        <v>0.47799</v>
+        <v>0.436432</v>
       </c>
       <c r="E142" t="n">
-        <v>0.375688</v>
+        <v>0.320464</v>
       </c>
       <c r="F142" t="n">
-        <v>0.354712</v>
+        <v>0.316285</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478875</v>
+        <v>0.431888</v>
       </c>
       <c r="C143" t="n">
-        <v>0.494338</v>
+        <v>0.446672</v>
       </c>
       <c r="D143" t="n">
-        <v>0.48745</v>
+        <v>0.445038</v>
       </c>
       <c r="E143" t="n">
-        <v>0.379494</v>
+        <v>0.322616</v>
       </c>
       <c r="F143" t="n">
-        <v>0.35931</v>
+        <v>0.319626</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0442261</v>
+        <v>0.0426473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433395</v>
+        <v>0.0442511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674421</v>
+        <v>0.0684251</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044811</v>
+        <v>0.0451451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424842</v>
+        <v>0.0424134</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428765</v>
+        <v>0.043472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439113</v>
+        <v>0.0441514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745835</v>
+        <v>0.07541580000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451219</v>
+        <v>0.0451709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428918</v>
+        <v>0.0427777</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430063</v>
+        <v>0.0434293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0441392</v>
+        <v>0.0440601</v>
       </c>
       <c r="D4" t="n">
-        <v>0.082624</v>
+        <v>0.0834858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.045062</v>
+        <v>0.0452542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433083</v>
+        <v>0.0428822</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432025</v>
+        <v>0.0436464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442308</v>
+        <v>0.0441924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898258</v>
+        <v>0.0903147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0456372</v>
+        <v>0.0455135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0435502</v>
+        <v>0.0432622</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443379</v>
+        <v>0.0433506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0445874</v>
+        <v>0.0444409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0971081</v>
+        <v>0.0970237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0464122</v>
+        <v>0.0456757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0441455</v>
+        <v>0.0436054</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043242</v>
+        <v>0.0438314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448458</v>
+        <v>0.0445864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0615178</v>
+        <v>0.0616556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046965</v>
+        <v>0.0467205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0449868</v>
+        <v>0.0447761</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0448323</v>
+        <v>0.0438201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451777</v>
+        <v>0.0452092</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0633457</v>
+        <v>0.0632397</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483883</v>
+        <v>0.0481609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0466535</v>
+        <v>0.0470851</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0453542</v>
+        <v>0.0442414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460115</v>
+        <v>0.0459445</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682676</v>
+        <v>0.0684126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463742</v>
+        <v>0.0469058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445529</v>
+        <v>0.0443199</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501731</v>
+        <v>0.0498931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.048742</v>
+        <v>0.0492113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073044</v>
+        <v>0.07339909999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0468686</v>
+        <v>0.0471076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0445993</v>
+        <v>0.0443785</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501373</v>
+        <v>0.049802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489502</v>
+        <v>0.0492765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07894329999999999</v>
+        <v>0.0793872</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0472224</v>
+        <v>0.0476034</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044705</v>
+        <v>0.0445328</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502896</v>
+        <v>0.05025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493674</v>
+        <v>0.0501948</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840211</v>
+        <v>0.08392769999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0474163</v>
+        <v>0.0476119</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0449327</v>
+        <v>0.0448119</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0501174</v>
+        <v>0.0502047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495586</v>
+        <v>0.0499167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0885949</v>
+        <v>0.0888111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0480089</v>
+        <v>0.0483603</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0452642</v>
+        <v>0.0450182</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500999</v>
+        <v>0.0501185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494627</v>
+        <v>0.0501027</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0937648</v>
+        <v>0.0939546</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485301</v>
+        <v>0.0485651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0456506</v>
+        <v>0.0455147</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506307</v>
+        <v>0.0503883</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0497843</v>
+        <v>0.0501938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09862269999999999</v>
+        <v>0.09859809999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048384</v>
+        <v>0.048714</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0460584</v>
+        <v>0.0458724</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507079</v>
+        <v>0.0505591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05004</v>
+        <v>0.0503598</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103508</v>
+        <v>0.103637</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492264</v>
+        <v>0.0493406</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0463861</v>
+        <v>0.0461397</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0507012</v>
+        <v>0.0508951</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503345</v>
+        <v>0.0503919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108515</v>
+        <v>0.108504</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0494649</v>
+        <v>0.0497547</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466076</v>
+        <v>0.0464297</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050956</v>
+        <v>0.0509401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507402</v>
+        <v>0.0510493</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113271</v>
+        <v>0.113241</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498593</v>
+        <v>0.049618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468609</v>
+        <v>0.0467392</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0510159</v>
+        <v>0.050953</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504641</v>
+        <v>0.0506548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117907</v>
+        <v>0.117929</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0501626</v>
+        <v>0.0502916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.047385</v>
+        <v>0.0470917</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514044</v>
+        <v>0.0512918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508687</v>
+        <v>0.051228</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121464</v>
+        <v>0.121429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0509812</v>
+        <v>0.0512489</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0483732</v>
+        <v>0.048241</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516981</v>
+        <v>0.0515533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0513741</v>
+        <v>0.0512847</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849673</v>
+        <v>0.0851831</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0521421</v>
+        <v>0.0524654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494408</v>
+        <v>0.0498179</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521486</v>
+        <v>0.0523454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522376</v>
+        <v>0.0522015</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08790530000000001</v>
+        <v>0.0879462</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0559189</v>
+        <v>0.0560632</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0536981</v>
+        <v>0.0540219</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534345</v>
+        <v>0.0532895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0536667</v>
+        <v>0.0535728</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917898</v>
+        <v>0.09167699999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0537226</v>
+        <v>0.053471</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0495406</v>
+        <v>0.0501755</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548668</v>
+        <v>0.0552463</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564583</v>
+        <v>0.056639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09493600000000001</v>
+        <v>0.0948852</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0529843</v>
+        <v>0.0528409</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498194</v>
+        <v>0.0501345</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552181</v>
+        <v>0.0552964</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0565135</v>
+        <v>0.0567582</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984009</v>
+        <v>0.0987219</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533758</v>
+        <v>0.0534167</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500337</v>
+        <v>0.0503598</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551953</v>
+        <v>0.0551651</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570501</v>
+        <v>0.0573287</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102276</v>
+        <v>0.102299</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537835</v>
+        <v>0.0539782</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0503463</v>
+        <v>0.050666</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554485</v>
+        <v>0.0557824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0570172</v>
+        <v>0.0571666</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106325</v>
+        <v>0.106478</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543934</v>
+        <v>0.0541606</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510282</v>
+        <v>0.0513003</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556372</v>
+        <v>0.0556768</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0570992</v>
+        <v>0.0572978</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110103</v>
+        <v>0.110314</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0547922</v>
+        <v>0.0546601</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0509818</v>
+        <v>0.0513303</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555719</v>
+        <v>0.0556303</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0570917</v>
+        <v>0.0572427</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114166</v>
+        <v>0.114267</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054725</v>
+        <v>0.0547808</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514247</v>
+        <v>0.051579</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055618</v>
+        <v>0.05599</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573126</v>
+        <v>0.0575293</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118266</v>
+        <v>0.11836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552535</v>
+        <v>0.0552497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0515957</v>
+        <v>0.05184</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557051</v>
+        <v>0.0561273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577077</v>
+        <v>0.0580049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122379</v>
+        <v>0.122417</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557179</v>
+        <v>0.055659</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0519822</v>
+        <v>0.0522987</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558719</v>
+        <v>0.0563261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0581252</v>
+        <v>0.0584271</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125829</v>
+        <v>0.125927</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559483</v>
+        <v>0.0560948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0523521</v>
+        <v>0.0527414</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562297</v>
+        <v>0.0566256</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0581537</v>
+        <v>0.0585076</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12919</v>
+        <v>0.129352</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566734</v>
+        <v>0.0565819</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0533134</v>
+        <v>0.0536713</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566325</v>
+        <v>0.0570146</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582222</v>
+        <v>0.0584824</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132401</v>
+        <v>0.132418</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575296</v>
+        <v>0.0578069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0544527</v>
+        <v>0.05429</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567244</v>
+        <v>0.0569092</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585812</v>
+        <v>0.0590826</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931403</v>
+        <v>0.09333519999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606524</v>
+        <v>0.0606355</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0581598</v>
+        <v>0.0576231</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579338</v>
+        <v>0.0583458</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0601447</v>
+        <v>0.0600213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955546</v>
+        <v>0.0953788</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0664445</v>
+        <v>0.0667123</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06445969999999999</v>
+        <v>0.0644656</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605106</v>
+        <v>0.0604923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06313680000000001</v>
+        <v>0.062986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0976178</v>
+        <v>0.0977444</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590445</v>
+        <v>0.0587073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0535276</v>
+        <v>0.0537734</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061463</v>
+        <v>0.0598315</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636135</v>
+        <v>0.0633847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100446</v>
+        <v>0.100645</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0574488</v>
+        <v>0.0572956</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0538241</v>
+        <v>0.0540304</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.060147</v>
+        <v>0.0599452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639787</v>
+        <v>0.06355619999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103364</v>
+        <v>0.103416</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0578294</v>
+        <v>0.05801</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0540959</v>
+        <v>0.0543272</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603414</v>
+        <v>0.0602913</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06405760000000001</v>
+        <v>0.0636857</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106625</v>
+        <v>0.106679</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0585477</v>
+        <v>0.0583375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0544441</v>
+        <v>0.0547242</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605495</v>
+        <v>0.059901</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0642286</v>
+        <v>0.06391289999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11031</v>
+        <v>0.110263</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591438</v>
+        <v>0.0585222</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549241</v>
+        <v>0.0547215</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606603</v>
+        <v>0.0604656</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640911</v>
+        <v>0.0638368</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113872</v>
+        <v>0.11398</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0597062</v>
+        <v>0.0589335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551815</v>
+        <v>0.0553886</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607052</v>
+        <v>0.0605587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06432640000000001</v>
+        <v>0.0640242</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117738</v>
+        <v>0.117753</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598578</v>
+        <v>0.0594824</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0555353</v>
+        <v>0.055789</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608055</v>
+        <v>0.0606329</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0645878</v>
+        <v>0.06427099999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121387</v>
+        <v>0.12154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0606236</v>
+        <v>0.0597595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0559141</v>
+        <v>0.0561757</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061007</v>
+        <v>0.0608839</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0647992</v>
+        <v>0.0644778</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125391</v>
+        <v>0.125543</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0612943</v>
+        <v>0.0604392</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566346</v>
+        <v>0.0563943</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061313</v>
+        <v>0.0611304</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0651297</v>
+        <v>0.0648048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129279</v>
+        <v>0.129392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0612577</v>
+        <v>0.0614672</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574873</v>
+        <v>0.0574344</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061551</v>
+        <v>0.0614333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0655097</v>
+        <v>0.0652056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132363</v>
+        <v>0.132493</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623429</v>
+        <v>0.0622564</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585498</v>
+        <v>0.0583336</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061578</v>
+        <v>0.0617469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.0656998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13586</v>
+        <v>0.135977</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06452040000000001</v>
+        <v>0.064372</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612556</v>
+        <v>0.0610598</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621648</v>
+        <v>0.06256200000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0658374</v>
+        <v>0.06625499999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139016</v>
+        <v>0.139072</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679212</v>
+        <v>0.0688097</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0646786</v>
+        <v>0.0650728</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645255</v>
+        <v>0.0642768</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684633</v>
+        <v>0.0684259</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973888</v>
+        <v>0.0974559</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0727101</v>
+        <v>0.07384880000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0700505</v>
+        <v>0.07025000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0677104</v>
+        <v>0.0676958</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.0719598</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09968929999999999</v>
+        <v>0.0997788</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0617937</v>
+        <v>0.0608885</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0565977</v>
+        <v>0.0567898</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.072035</v>
+        <v>0.0722177</v>
       </c>
       <c r="C52" t="n">
-        <v>0.077149</v>
+        <v>0.07743079999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102056</v>
+        <v>0.102295</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611771</v>
+        <v>0.0611626</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569705</v>
+        <v>0.0570981</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0674907</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0711485</v>
+        <v>0.0710397</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105467</v>
+        <v>0.105372</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618582</v>
+        <v>0.0618256</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574304</v>
+        <v>0.0576172</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673551</v>
+        <v>0.0676216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711507</v>
+        <v>0.07136430000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108418</v>
+        <v>0.108404</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621909</v>
+        <v>0.0621885</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579579</v>
+        <v>0.0579507</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678165</v>
+        <v>0.0680335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07125620000000001</v>
+        <v>0.0713786</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11183</v>
+        <v>0.112028</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626467</v>
+        <v>0.062949</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0583696</v>
+        <v>0.0584655</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676182</v>
+        <v>0.0675472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715219</v>
+        <v>0.0716126</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115461</v>
+        <v>0.115673</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630502</v>
+        <v>0.06312810000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058718</v>
+        <v>0.0588505</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679245</v>
+        <v>0.0679367</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0714403</v>
+        <v>0.0717525</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119594</v>
+        <v>0.119644</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635468</v>
+        <v>0.0638439</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0592846</v>
+        <v>0.0607317</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06835529999999999</v>
+        <v>0.0680847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0715956</v>
+        <v>0.0718776</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123225</v>
+        <v>0.123314</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06438000000000001</v>
+        <v>0.064592</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0612002</v>
+        <v>0.0618875</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06824089999999999</v>
+        <v>0.0683829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0720398</v>
+        <v>0.0722993</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127117</v>
+        <v>0.127106</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06493309999999999</v>
+        <v>0.06526510000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0621119</v>
+        <v>0.0628512</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684545</v>
+        <v>0.0683484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07275760000000001</v>
+        <v>0.0730751</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131041</v>
+        <v>0.131338</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0662929</v>
+        <v>0.0661974</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638517</v>
+        <v>0.0640891</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06869840000000001</v>
+        <v>0.06879300000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0735697</v>
+        <v>0.07308199999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135099</v>
+        <v>0.135087</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06792570000000001</v>
+        <v>0.0680794</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0657039</v>
+        <v>0.06585630000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956900000000001</v>
+        <v>0.06960139999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0749084</v>
+        <v>0.0742263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138501</v>
+        <v>0.139316</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0701854</v>
+        <v>0.0704058</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0686645</v>
+        <v>0.0687265</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704283</v>
+        <v>0.0702623</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07568709999999999</v>
+        <v>0.07544579999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142199</v>
+        <v>0.142775</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731004</v>
+        <v>0.0733641</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724373</v>
+        <v>0.0725543</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720678</v>
+        <v>0.0722151</v>
       </c>
       <c r="C64" t="n">
-        <v>0.077707</v>
+        <v>0.07810549999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105271</v>
+        <v>0.105646</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0767965</v>
+        <v>0.0769907</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07700600000000001</v>
+        <v>0.0772074</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747599</v>
+        <v>0.0748046</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08154210000000001</v>
+        <v>0.0815119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109339</v>
+        <v>0.109507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834685</v>
+        <v>0.0836958</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0841364</v>
+        <v>0.0840537</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07876279999999999</v>
+        <v>0.0792115</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0860635</v>
+        <v>0.08627020000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113168</v>
+        <v>0.113814</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0654932</v>
+        <v>0.0672543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635366</v>
+        <v>0.0635498</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0806291</v>
+        <v>0.0786838</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790433</v>
+        <v>0.0789258</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117383</v>
+        <v>0.117482</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0658498</v>
+        <v>0.0676702</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06349390000000001</v>
+        <v>0.06397650000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817252</v>
+        <v>0.0788494</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0788948</v>
+        <v>0.0789863</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121468</v>
+        <v>0.122232</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0663763</v>
+        <v>0.06588339999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06469179999999999</v>
+        <v>0.065064</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0807778</v>
+        <v>0.08048619999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802451</v>
+        <v>0.0799409</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127426</v>
+        <v>0.129049</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0665089</v>
+        <v>0.0689849</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0658255</v>
+        <v>0.0657017</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0812206</v>
+        <v>0.0793469</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0798971</v>
+        <v>0.07991719999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133366</v>
+        <v>0.134343</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669299</v>
+        <v>0.0693796</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668377</v>
+        <v>0.06669310000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808204</v>
+        <v>0.0796664</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08044030000000001</v>
+        <v>0.0805482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.140357</v>
+        <v>0.141205</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0680009</v>
+        <v>0.067815</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0675308</v>
+        <v>0.0676664</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0810881</v>
+        <v>0.07975989999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815232</v>
+        <v>0.0812802</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147978</v>
+        <v>0.14853</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0687173</v>
+        <v>0.0685299</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0688807</v>
+        <v>0.0687509</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812137</v>
+        <v>0.0789612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08229210000000001</v>
+        <v>0.0819619</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156211</v>
+        <v>0.156443</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0696736</v>
+        <v>0.0694173</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705572</v>
+        <v>0.0705586</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08283219999999999</v>
+        <v>0.0839434</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0832642</v>
+        <v>0.0828282</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163893</v>
+        <v>0.164067</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07122439999999999</v>
+        <v>0.07063319999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730147</v>
+        <v>0.07291309999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834811</v>
+        <v>0.08445900000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0845571</v>
+        <v>0.0841124</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170038</v>
+        <v>0.171686</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0730475</v>
+        <v>0.0725341</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07569339999999999</v>
+        <v>0.075895</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0840316</v>
+        <v>0.08517139999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858091</v>
+        <v>0.0852218</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179615</v>
+        <v>0.181452</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0750516</v>
+        <v>0.07540819999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.078754</v>
+        <v>0.0792775</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08393879999999999</v>
+        <v>0.0867841</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0878895</v>
+        <v>0.08853560000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186648</v>
+        <v>0.188447</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0767034</v>
+        <v>0.0764087</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08268540000000001</v>
+        <v>0.0830545</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592329999999999</v>
+        <v>0.0883304</v>
       </c>
       <c r="C78" t="n">
-        <v>0.090882</v>
+        <v>0.09029860000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184715</v>
+        <v>0.183775</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0814744</v>
+        <v>0.0815133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08807189999999999</v>
+        <v>0.0881908</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0889548</v>
+        <v>0.0871509</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.09443459999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192422</v>
+        <v>0.194444</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08723599999999999</v>
+        <v>0.0871893</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0958498</v>
+        <v>0.09604119999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0916088</v>
+        <v>0.0907563</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100669</v>
+        <v>0.0999357</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201096</v>
+        <v>0.200631</v>
       </c>
       <c r="E80" t="n">
-        <v>0.112138</v>
+        <v>0.110032</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103538</v>
+        <v>0.10703</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180858</v>
+        <v>0.18214</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148122</v>
+        <v>0.152092</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20553</v>
+        <v>0.206106</v>
       </c>
       <c r="E81" t="n">
-        <v>0.116196</v>
+        <v>0.113376</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104344</v>
+        <v>0.105122</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183018</v>
+        <v>0.182536</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149595</v>
+        <v>0.149575</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215659</v>
+        <v>0.215781</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118768</v>
+        <v>0.116325</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106831</v>
+        <v>0.106879</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182621</v>
+        <v>0.183374</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150161</v>
+        <v>0.150467</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227367</v>
+        <v>0.227173</v>
       </c>
       <c r="E83" t="n">
-        <v>0.119456</v>
+        <v>0.116548</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107662</v>
+        <v>0.106582</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183463</v>
+        <v>0.182323</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150971</v>
+        <v>0.151643</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237111</v>
+        <v>0.236778</v>
       </c>
       <c r="E84" t="n">
-        <v>0.121166</v>
+        <v>0.118216</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108529</v>
+        <v>0.107009</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18434</v>
+        <v>0.183164</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151937</v>
+        <v>0.152502</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24572</v>
+        <v>0.245358</v>
       </c>
       <c r="E85" t="n">
-        <v>0.123349</v>
+        <v>0.122318</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111698</v>
+        <v>0.109977</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184418</v>
+        <v>0.183611</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152422</v>
+        <v>0.152413</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25749</v>
+        <v>0.257127</v>
       </c>
       <c r="E86" t="n">
-        <v>0.124949</v>
+        <v>0.12458</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113112</v>
+        <v>0.111406</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183416</v>
+        <v>0.186279</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15365</v>
+        <v>0.153333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267129</v>
+        <v>0.266883</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123333</v>
+        <v>0.127926</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112091</v>
+        <v>0.114359</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183817</v>
+        <v>0.186427</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153242</v>
+        <v>0.156176</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275315</v>
+        <v>0.275903</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12801</v>
+        <v>0.127927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113268</v>
+        <v>0.116689</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184445</v>
+        <v>0.18598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154406</v>
+        <v>0.156959</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282332</v>
+        <v>0.283527</v>
       </c>
       <c r="E89" t="n">
-        <v>0.128448</v>
+        <v>0.131245</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115878</v>
+        <v>0.116965</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184638</v>
+        <v>0.185703</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.156121</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294438</v>
+        <v>0.294341</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131486</v>
+        <v>0.133608</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118946</v>
+        <v>0.119802</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186529</v>
+        <v>0.187452</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157982</v>
+        <v>0.159803</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302141</v>
+        <v>0.303115</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133313</v>
+        <v>0.135636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216</v>
+        <v>0.121836</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187038</v>
+        <v>0.187733</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161603</v>
+        <v>0.161341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.286777</v>
+        <v>0.287298</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137441</v>
+        <v>0.139949</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128664</v>
+        <v>0.128705</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188371</v>
+        <v>0.190321</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165988</v>
+        <v>0.167406</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29353</v>
+        <v>0.29433</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142467</v>
+        <v>0.144321</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13495</v>
+        <v>0.137509</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190631</v>
+        <v>0.192457</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171302</v>
+        <v>0.171738</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298656</v>
+        <v>0.299369</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212319</v>
+        <v>0.212829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201064</v>
+        <v>0.201775</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24915</v>
+        <v>0.250198</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236857</v>
+        <v>0.2375</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307271</v>
+        <v>0.307632</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21519</v>
+        <v>0.21512</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202077</v>
+        <v>0.202462</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250035</v>
+        <v>0.250429</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236908</v>
+        <v>0.236862</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314094</v>
+        <v>0.314963</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216037</v>
+        <v>0.217009</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203116</v>
+        <v>0.203496</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249322</v>
+        <v>0.25042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237281</v>
+        <v>0.237279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32133</v>
+        <v>0.321879</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21824</v>
+        <v>0.218742</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204189</v>
+        <v>0.204825</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249604</v>
+        <v>0.250343</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237632</v>
+        <v>0.237587</v>
       </c>
       <c r="D98" t="n">
-        <v>0.33232</v>
+        <v>0.333009</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21981</v>
+        <v>0.220734</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205052</v>
+        <v>0.205777</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25008</v>
+        <v>0.250533</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238018</v>
+        <v>0.238149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339219</v>
+        <v>0.339959</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222386</v>
+        <v>0.2231</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20663</v>
+        <v>0.206747</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25102</v>
+        <v>0.250477</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238434</v>
+        <v>0.238311</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346426</v>
+        <v>0.347328</v>
       </c>
       <c r="E100" t="n">
-        <v>0.223902</v>
+        <v>0.224985</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207886</v>
+        <v>0.208073</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249792</v>
+        <v>0.250924</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.23919</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358009</v>
+        <v>0.358858</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227255</v>
+        <v>0.227574</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209254</v>
+        <v>0.209376</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250257</v>
+        <v>0.250891</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239341</v>
+        <v>0.239903</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366745</v>
+        <v>0.367038</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228804</v>
+        <v>0.229368</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211074</v>
+        <v>0.212309</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.249717</v>
+        <v>0.251108</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24053</v>
+        <v>0.240698</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375311</v>
+        <v>0.377237</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231674</v>
+        <v>0.23199</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21249</v>
+        <v>0.214357</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250965</v>
+        <v>0.252084</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24201</v>
+        <v>0.242116</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38574</v>
+        <v>0.387272</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233628</v>
+        <v>0.234708</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214793</v>
+        <v>0.21565</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251752</v>
+        <v>0.25193</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243934</v>
+        <v>0.244461</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393883</v>
+        <v>0.395601</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236437</v>
+        <v>0.237265</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21829</v>
+        <v>0.219861</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252332</v>
+        <v>0.252872</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246011</v>
+        <v>0.246709</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405546</v>
+        <v>0.407591</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239817</v>
+        <v>0.24084</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222402</v>
+        <v>0.223149</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254521</v>
+        <v>0.254558</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249125</v>
+        <v>0.249656</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347177</v>
+        <v>0.347372</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244413</v>
+        <v>0.24441</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227499</v>
+        <v>0.228771</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256719</v>
+        <v>0.2572</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254196</v>
+        <v>0.255057</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3512</v>
+        <v>0.351716</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262147</v>
+        <v>0.262851</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250687</v>
+        <v>0.251513</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260667</v>
+        <v>0.261772</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262238</v>
+        <v>0.262835</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356327</v>
+        <v>0.357028</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26383</v>
+        <v>0.265262</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252722</v>
+        <v>0.253008</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285589</v>
+        <v>0.286419</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297043</v>
+        <v>0.297704</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366108</v>
+        <v>0.36649</v>
       </c>
       <c r="E110" t="n">
-        <v>0.265997</v>
+        <v>0.266733</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253514</v>
+        <v>0.254888</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285935</v>
+        <v>0.287188</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297472</v>
+        <v>0.300012</v>
       </c>
       <c r="D111" t="n">
-        <v>0.373984</v>
+        <v>0.374266</v>
       </c>
       <c r="E111" t="n">
-        <v>0.267974</v>
+        <v>0.269178</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255815</v>
+        <v>0.255609</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286208</v>
+        <v>0.287082</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299694</v>
+        <v>0.299649</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381012</v>
+        <v>0.38147</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263853</v>
+        <v>0.265635</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256801</v>
+        <v>0.257021</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286736</v>
+        <v>0.286914</v>
       </c>
       <c r="C113" t="n">
-        <v>0.298988</v>
+        <v>0.300309</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38723</v>
+        <v>0.388063</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264728</v>
+        <v>0.265517</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258623</v>
+        <v>0.259211</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286038</v>
+        <v>0.287805</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301134</v>
+        <v>0.30051</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394753</v>
+        <v>0.394978</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267436</v>
+        <v>0.267845</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261037</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286785</v>
+        <v>0.288234</v>
       </c>
       <c r="C115" t="n">
-        <v>0.299851</v>
+        <v>0.300806</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406726</v>
+        <v>0.407464</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269955</v>
+        <v>0.270875</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263984</v>
+        <v>0.263769</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286261</v>
+        <v>0.287686</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302022</v>
+        <v>0.302563</v>
       </c>
       <c r="D116" t="n">
-        <v>0.417659</v>
+        <v>0.418448</v>
       </c>
       <c r="E116" t="n">
-        <v>0.27311</v>
+        <v>0.274157</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265884</v>
+        <v>0.26634</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287732</v>
+        <v>0.288004</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302366</v>
+        <v>0.304904</v>
       </c>
       <c r="D117" t="n">
-        <v>0.424252</v>
+        <v>0.425223</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276374</v>
+        <v>0.277395</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269373</v>
+        <v>0.27008</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287004</v>
+        <v>0.289948</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304029</v>
+        <v>0.304118</v>
       </c>
       <c r="D118" t="n">
-        <v>0.434494</v>
+        <v>0.435586</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279707</v>
+        <v>0.281075</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273631</v>
+        <v>0.27398</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287258</v>
+        <v>0.289948</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306266</v>
+        <v>0.306512</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441325</v>
+        <v>0.442823</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283317</v>
+        <v>0.284518</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27831</v>
+        <v>0.279443</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288975</v>
+        <v>0.290122</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306358</v>
+        <v>0.308444</v>
       </c>
       <c r="D120" t="n">
-        <v>0.456527</v>
+        <v>0.457906</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287546</v>
+        <v>0.288365</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284356</v>
+        <v>0.284664</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291749</v>
+        <v>0.290777</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310582</v>
+        <v>0.310637</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374766</v>
+        <v>0.375777</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292373</v>
+        <v>0.293679</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293035</v>
+        <v>0.293319</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292928</v>
+        <v>0.293654</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316502</v>
+        <v>0.315689</v>
       </c>
       <c r="D122" t="n">
-        <v>0.37909</v>
+        <v>0.380281</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297789</v>
+        <v>0.298577</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305585</v>
+        <v>0.304651</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298078</v>
+        <v>0.299492</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323491</v>
+        <v>0.324999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386739</v>
+        <v>0.387869</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285912</v>
+        <v>0.286393</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283661</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365714</v>
+        <v>0.36666</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386584</v>
+        <v>0.388229</v>
       </c>
       <c r="D124" t="n">
-        <v>0.393563</v>
+        <v>0.394528</v>
       </c>
       <c r="E124" t="n">
-        <v>0.28802</v>
+        <v>0.288786</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284799</v>
+        <v>0.285654</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366947</v>
+        <v>0.366897</v>
       </c>
       <c r="C125" t="n">
-        <v>0.386448</v>
+        <v>0.388172</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401019</v>
+        <v>0.4019</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290386</v>
+        <v>0.291241</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287006</v>
+        <v>0.287832</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368039</v>
+        <v>0.3666</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387032</v>
+        <v>0.388167</v>
       </c>
       <c r="D126" t="n">
-        <v>0.406979</v>
+        <v>0.407862</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293443</v>
+        <v>0.293859</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289966</v>
+        <v>0.289774</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368839</v>
+        <v>0.367535</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387162</v>
+        <v>0.388206</v>
       </c>
       <c r="D127" t="n">
-        <v>0.416836</v>
+        <v>0.417539</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296484</v>
+        <v>0.296571</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292175</v>
+        <v>0.292418</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367961</v>
+        <v>0.365803</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388779</v>
+        <v>0.389238</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4248</v>
+        <v>0.425391</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299098</v>
+        <v>0.299653</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294956</v>
+        <v>0.29537</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367294</v>
+        <v>0.367822</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389207</v>
+        <v>0.390547</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43289</v>
+        <v>0.433422</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302277</v>
+        <v>0.302727</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297727</v>
+        <v>0.299017</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367853</v>
+        <v>0.367794</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390563</v>
+        <v>0.392436</v>
       </c>
       <c r="D130" t="n">
-        <v>0.441179</v>
+        <v>0.442124</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305582</v>
+        <v>0.305965</v>
       </c>
       <c r="F130" t="n">
-        <v>0.30149</v>
+        <v>0.302011</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366968</v>
+        <v>0.368833</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390905</v>
+        <v>0.392208</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450575</v>
+        <v>0.451083</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309349</v>
+        <v>0.309718</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305945</v>
+        <v>0.306611</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.367194</v>
+        <v>0.368769</v>
       </c>
       <c r="C132" t="n">
-        <v>0.391812</v>
+        <v>0.392862</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459705</v>
+        <v>0.460578</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313418</v>
+        <v>0.313942</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304423</v>
+        <v>0.304941</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3678</v>
+        <v>0.37114</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394</v>
+        <v>0.394409</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47334</v>
+        <v>0.474273</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318261</v>
+        <v>0.31883</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311059</v>
+        <v>0.311381</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370409</v>
+        <v>0.371281</v>
       </c>
       <c r="C134" t="n">
-        <v>0.396976</v>
+        <v>0.398465</v>
       </c>
       <c r="D134" t="n">
-        <v>0.479849</v>
+        <v>0.480827</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323365</v>
+        <v>0.323994</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318466</v>
+        <v>0.320307</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369477</v>
+        <v>0.371924</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399802</v>
+        <v>0.40123</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390567</v>
+        <v>0.39128</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330082</v>
+        <v>0.330797</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329199</v>
+        <v>0.330156</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371162</v>
+        <v>0.373396</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405467</v>
+        <v>0.406409</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39491</v>
+        <v>0.395658</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339113</v>
+        <v>0.340199</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344001</v>
+        <v>0.345345</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375096</v>
+        <v>0.37658</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412447</v>
+        <v>0.413364</v>
       </c>
       <c r="D137" t="n">
-        <v>0.400628</v>
+        <v>0.401635</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310079</v>
+        <v>0.310404</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303777</v>
+        <v>0.304324</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430235</v>
+        <v>0.431654</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443374</v>
+        <v>0.443671</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409041</v>
+        <v>0.409935</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311947</v>
+        <v>0.312704</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305776</v>
+        <v>0.306499</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430913</v>
+        <v>0.43194</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444188</v>
+        <v>0.444422</v>
       </c>
       <c r="D139" t="n">
-        <v>0.417183</v>
+        <v>0.418301</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313967</v>
+        <v>0.314919</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307955</v>
+        <v>0.308898</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431058</v>
+        <v>0.431706</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444158</v>
+        <v>0.444945</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423589</v>
+        <v>0.424767</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316332</v>
+        <v>0.316908</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310451</v>
+        <v>0.311193</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43147</v>
+        <v>0.431815</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445084</v>
+        <v>0.445474</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432597</v>
+        <v>0.433694</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318336</v>
+        <v>0.319204</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313484</v>
+        <v>0.313693</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431461</v>
+        <v>0.431584</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446073</v>
+        <v>0.446689</v>
       </c>
       <c r="D142" t="n">
-        <v>0.436432</v>
+        <v>0.437233</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320464</v>
+        <v>0.321182</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316285</v>
+        <v>0.316566</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431888</v>
+        <v>0.432139</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446672</v>
+        <v>0.447669</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445038</v>
+        <v>0.445797</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322616</v>
+        <v>0.323186</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319626</v>
+        <v>0.320244</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0426473</v>
+        <v>0.0433921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0442511</v>
+        <v>0.043734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0684251</v>
+        <v>0.0690968</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0451451</v>
+        <v>0.0448885</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424134</v>
+        <v>0.0426618</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043472</v>
+        <v>0.0430213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0441514</v>
+        <v>0.0447973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07541580000000001</v>
+        <v>0.0761505</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451709</v>
+        <v>0.0451621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0427777</v>
+        <v>0.0431765</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0434293</v>
+        <v>0.0432404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0440601</v>
+        <v>0.0444079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0834858</v>
+        <v>0.0834741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0452542</v>
+        <v>0.0449645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0428822</v>
+        <v>0.0431396</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0436464</v>
+        <v>0.0435161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441924</v>
+        <v>0.0452646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0903147</v>
+        <v>0.0914437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0455135</v>
+        <v>0.0453858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0432622</v>
+        <v>0.0434216</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0433506</v>
+        <v>0.0445958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0444409</v>
+        <v>0.0444558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0970237</v>
+        <v>0.0984911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0456757</v>
+        <v>0.0464441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0436054</v>
+        <v>0.0439586</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0438314</v>
+        <v>0.0436337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0445864</v>
+        <v>0.0449411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0616556</v>
+        <v>0.0623851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0467205</v>
+        <v>0.0471696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0447761</v>
+        <v>0.0446894</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0438201</v>
+        <v>0.0450683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0452092</v>
+        <v>0.04507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0632397</v>
+        <v>0.0652438</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0481609</v>
+        <v>0.0482255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0470851</v>
+        <v>0.0470249</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0442414</v>
+        <v>0.0455675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0459445</v>
+        <v>0.0461131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0684126</v>
+        <v>0.0686624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0469058</v>
+        <v>0.0488705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0443199</v>
+        <v>0.0442114</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0498931</v>
+        <v>0.0512588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0492113</v>
+        <v>0.0500503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07339909999999999</v>
+        <v>0.073072</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0471076</v>
+        <v>0.0490357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0443785</v>
+        <v>0.044348</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.049802</v>
+        <v>0.0510706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0492765</v>
+        <v>0.0504513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0793872</v>
+        <v>0.0794339</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0476034</v>
+        <v>0.0492081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0445328</v>
+        <v>0.0450244</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05025</v>
+        <v>0.0517141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0501948</v>
+        <v>0.0503414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08392769999999999</v>
+        <v>0.083658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0476119</v>
+        <v>0.0500649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0448119</v>
+        <v>0.0449421</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0502047</v>
+        <v>0.05184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0499167</v>
+        <v>0.0506426</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0888111</v>
+        <v>0.089254</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0483603</v>
+        <v>0.0494921</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0450182</v>
+        <v>0.0450609</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0501185</v>
+        <v>0.0514451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0501027</v>
+        <v>0.0510048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0939546</v>
+        <v>0.094231</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485651</v>
+        <v>0.0501129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0455147</v>
+        <v>0.0456161</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0503883</v>
+        <v>0.0516672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0501938</v>
+        <v>0.0509452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09859809999999999</v>
+        <v>0.0988985</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048714</v>
+        <v>0.0507234</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0458724</v>
+        <v>0.0459743</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0505591</v>
+        <v>0.0518339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0503598</v>
+        <v>0.0510083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103637</v>
+        <v>0.103439</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0493406</v>
+        <v>0.0504585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0461397</v>
+        <v>0.0462616</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0508951</v>
+        <v>0.0523259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503919</v>
+        <v>0.0514744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108504</v>
+        <v>0.108693</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0497547</v>
+        <v>0.0508728</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0464297</v>
+        <v>0.046534</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0509401</v>
+        <v>0.0520998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0510493</v>
+        <v>0.0519468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113241</v>
+        <v>0.113458</v>
       </c>
       <c r="E18" t="n">
-        <v>0.049618</v>
+        <v>0.0511013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0467392</v>
+        <v>0.0467407</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.050953</v>
+        <v>0.0519522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0506548</v>
+        <v>0.0518023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117929</v>
+        <v>0.11808</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0502916</v>
+        <v>0.0517942</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0470917</v>
+        <v>0.0471484</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0512918</v>
+        <v>0.0527324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.051228</v>
+        <v>0.0521329</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121429</v>
+        <v>0.121557</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0512489</v>
+        <v>0.0525584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.048241</v>
+        <v>0.0480079</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515533</v>
+        <v>0.0530545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0512847</v>
+        <v>0.0516176</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0851831</v>
+        <v>0.08528289999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0524654</v>
+        <v>0.0553343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0498179</v>
+        <v>0.0497509</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0523454</v>
+        <v>0.053556</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522015</v>
+        <v>0.0527237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0879462</v>
+        <v>0.0884663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0560632</v>
+        <v>0.0577369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0540219</v>
+        <v>0.0549966</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0532895</v>
+        <v>0.0548441</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0535728</v>
+        <v>0.0536162</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09167699999999999</v>
+        <v>0.0922004</v>
       </c>
       <c r="E23" t="n">
-        <v>0.053471</v>
+        <v>0.054001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0501755</v>
+        <v>0.0505672</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552463</v>
+        <v>0.0553161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.056639</v>
+        <v>0.0585054</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0948852</v>
+        <v>0.09538530000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0528409</v>
+        <v>0.0537762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0501345</v>
+        <v>0.0507031</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552964</v>
+        <v>0.055339</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0567582</v>
+        <v>0.0584501</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0987219</v>
+        <v>0.09894210000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0534167</v>
+        <v>0.0542526</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0503598</v>
+        <v>0.0510766</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551651</v>
+        <v>0.0558705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0573287</v>
+        <v>0.0587839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102299</v>
+        <v>0.102787</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0539782</v>
+        <v>0.0543836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.050666</v>
+        <v>0.0512116</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0557824</v>
+        <v>0.0558663</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0571666</v>
+        <v>0.0587343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106478</v>
+        <v>0.106919</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0541606</v>
+        <v>0.0548672</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0513003</v>
+        <v>0.0512481</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556768</v>
+        <v>0.0558474</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0572978</v>
+        <v>0.0588839</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110314</v>
+        <v>0.110697</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0546601</v>
+        <v>0.0552021</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0513303</v>
+        <v>0.0518952</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556303</v>
+        <v>0.055873</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0572427</v>
+        <v>0.0590448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114267</v>
+        <v>0.114672</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0547808</v>
+        <v>0.0550839</v>
       </c>
       <c r="F29" t="n">
-        <v>0.051579</v>
+        <v>0.0524466</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05599</v>
+        <v>0.0562472</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0575293</v>
+        <v>0.059126</v>
       </c>
       <c r="D30" t="n">
-        <v>0.11836</v>
+        <v>0.119021</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552497</v>
+        <v>0.0555109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05184</v>
+        <v>0.0525099</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0561273</v>
+        <v>0.056265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0580049</v>
+        <v>0.0583603</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122417</v>
+        <v>0.12311</v>
       </c>
       <c r="E31" t="n">
-        <v>0.055659</v>
+        <v>0.0564758</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0522987</v>
+        <v>0.0529127</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0563261</v>
+        <v>0.0565227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0584271</v>
+        <v>0.0586033</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125927</v>
+        <v>0.126446</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0560948</v>
+        <v>0.057481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0527414</v>
+        <v>0.0533343</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0566256</v>
+        <v>0.0568259</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0585076</v>
+        <v>0.058981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129352</v>
+        <v>0.129811</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0565819</v>
+        <v>0.0571673</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0536713</v>
+        <v>0.0536431</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0570146</v>
+        <v>0.0570714</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0584824</v>
+        <v>0.060307</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132418</v>
+        <v>0.132977</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0578069</v>
+        <v>0.0597718</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05429</v>
+        <v>0.0551225</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569092</v>
+        <v>0.0570725</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0590826</v>
+        <v>0.0595763</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09333519999999999</v>
+        <v>0.0932881</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606355</v>
+        <v>0.061075</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0576231</v>
+        <v>0.0583044</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0583458</v>
+        <v>0.0581504</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0600213</v>
+        <v>0.059851</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0953788</v>
+        <v>0.0955737</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0667123</v>
+        <v>0.0671017</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0644656</v>
+        <v>0.065148</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0604923</v>
+        <v>0.0605764</v>
       </c>
       <c r="C37" t="n">
-        <v>0.062986</v>
+        <v>0.0636201</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0977444</v>
+        <v>0.0977639</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0587073</v>
+        <v>0.0580495</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0537734</v>
+        <v>0.053828</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0598315</v>
+        <v>0.0606648</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0633847</v>
+        <v>0.064542</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100645</v>
+        <v>0.100412</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0572956</v>
+        <v>0.0573355</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0540304</v>
+        <v>0.0541752</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0599452</v>
+        <v>0.0600801</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06355619999999999</v>
+        <v>0.0646606</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103416</v>
+        <v>0.103524</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05801</v>
+        <v>0.0578735</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0543272</v>
+        <v>0.0544303</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0602913</v>
+        <v>0.060569</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0636857</v>
+        <v>0.0647443</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106679</v>
+        <v>0.106711</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0583375</v>
+        <v>0.0580899</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0547242</v>
+        <v>0.054851</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.059901</v>
+        <v>0.060194</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06391289999999999</v>
+        <v>0.0648716</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110263</v>
+        <v>0.110217</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0585222</v>
+        <v>0.0588451</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0547215</v>
+        <v>0.0552448</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0604656</v>
+        <v>0.0606654</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638368</v>
+        <v>0.0652175</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11398</v>
+        <v>0.113815</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0589335</v>
+        <v>0.0591423</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0553886</v>
+        <v>0.055461</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0605587</v>
+        <v>0.0606752</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0640242</v>
+        <v>0.0653579</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117753</v>
+        <v>0.117743</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0594824</v>
+        <v>0.0595969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.055789</v>
+        <v>0.0558578</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0606329</v>
+        <v>0.0606759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06427099999999999</v>
+        <v>0.0653623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12154</v>
+        <v>0.121402</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0597595</v>
+        <v>0.0601283</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0561757</v>
+        <v>0.0562818</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0608839</v>
+        <v>0.0609775</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0644778</v>
+        <v>0.065611</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125543</v>
+        <v>0.125524</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0604392</v>
+        <v>0.0604663</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0563943</v>
+        <v>0.0564096</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0611304</v>
+        <v>0.0611926</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0648048</v>
+        <v>0.06600549999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129392</v>
+        <v>0.129336</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0614672</v>
+        <v>0.0614743</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574344</v>
+        <v>0.057695</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0614333</v>
+        <v>0.0614314</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0652056</v>
+        <v>0.06625689999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132493</v>
+        <v>0.132467</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0622564</v>
+        <v>0.06268990000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0583336</v>
+        <v>0.0589193</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0617469</v>
+        <v>0.0630526</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0656998</v>
+        <v>0.0667006</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135977</v>
+        <v>0.136023</v>
       </c>
       <c r="E48" t="n">
-        <v>0.064372</v>
+        <v>0.0648301</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0610598</v>
+        <v>0.0615634</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06256200000000001</v>
+        <v>0.0632221</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06625499999999999</v>
+        <v>0.0672145</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139072</v>
+        <v>0.139014</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0688097</v>
+        <v>0.068108</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0650728</v>
+        <v>0.06511309999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0642768</v>
+        <v>0.0637957</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684259</v>
+        <v>0.0674592</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0974559</v>
+        <v>0.0974443</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07384880000000001</v>
+        <v>0.0732322</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07025000000000001</v>
+        <v>0.07060809999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0676958</v>
+        <v>0.0676085</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0719598</v>
+        <v>0.0721793</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0997788</v>
+        <v>0.0997687</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0608885</v>
+        <v>0.0632127</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0567898</v>
+        <v>0.0565508</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0722177</v>
+        <v>0.0727165</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07743079999999999</v>
+        <v>0.0776874</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102295</v>
+        <v>0.102091</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611626</v>
+        <v>0.061373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0570981</v>
+        <v>0.0568298</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0674907</v>
+        <v>0.0674032</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0710397</v>
+        <v>0.071039</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105372</v>
+        <v>0.105311</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618256</v>
+        <v>0.0617501</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0576172</v>
+        <v>0.0577683</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0676216</v>
+        <v>0.0675949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07136430000000001</v>
+        <v>0.07159359999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108404</v>
+        <v>0.108519</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621885</v>
+        <v>0.0620599</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579507</v>
+        <v>0.0579501</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0680335</v>
+        <v>0.0680238</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0713786</v>
+        <v>0.0717102</v>
       </c>
       <c r="D55" t="n">
-        <v>0.112028</v>
+        <v>0.112097</v>
       </c>
       <c r="E55" t="n">
-        <v>0.062949</v>
+        <v>0.0627683</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0584655</v>
+        <v>0.0584523</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0675472</v>
+        <v>0.0679292</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0716126</v>
+        <v>0.0714379</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115673</v>
+        <v>0.115546</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06312810000000001</v>
+        <v>0.06322179999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0588505</v>
+        <v>0.0588482</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679367</v>
+        <v>0.06797980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0717525</v>
+        <v>0.07181419999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119644</v>
+        <v>0.119675</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0638439</v>
+        <v>0.0636316</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0607317</v>
+        <v>0.0594377</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0680847</v>
+        <v>0.0677922</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0718776</v>
+        <v>0.0722032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123314</v>
+        <v>0.123294</v>
       </c>
       <c r="E58" t="n">
-        <v>0.064592</v>
+        <v>0.0648526</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0618875</v>
+        <v>0.0613441</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0683829</v>
+        <v>0.06847399999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0722993</v>
+        <v>0.0723631</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127106</v>
+        <v>0.127272</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06526510000000001</v>
+        <v>0.0650068</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0628512</v>
+        <v>0.06277000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0683484</v>
+        <v>0.0688947</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0730751</v>
+        <v>0.0731813</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131338</v>
+        <v>0.131268</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0661974</v>
+        <v>0.0661426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0640891</v>
+        <v>0.0641041</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06879300000000001</v>
+        <v>0.0685501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07308199999999999</v>
+        <v>0.07315099999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135087</v>
+        <v>0.135519</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0680794</v>
+        <v>0.06846439999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06585630000000001</v>
+        <v>0.06600259999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06960139999999999</v>
+        <v>0.0699226</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0742263</v>
+        <v>0.0747902</v>
       </c>
       <c r="D62" t="n">
-        <v>0.139316</v>
+        <v>0.138981</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0704058</v>
+        <v>0.0708018</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0687265</v>
+        <v>0.0688711</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0702623</v>
+        <v>0.0701311</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07544579999999999</v>
+        <v>0.07594579999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142775</v>
+        <v>0.142373</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0733641</v>
+        <v>0.073778</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0725543</v>
+        <v>0.072755</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0722151</v>
+        <v>0.0719992</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07810549999999999</v>
+        <v>0.07836120000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105646</v>
+        <v>0.106689</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0769907</v>
+        <v>0.0769763</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0772074</v>
+        <v>0.07680819999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0748046</v>
+        <v>0.0745169</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0815119</v>
+        <v>0.0817899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109507</v>
+        <v>0.108991</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0836958</v>
+        <v>0.0839266</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0840537</v>
+        <v>0.0843544</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0792115</v>
+        <v>0.0793999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08627020000000001</v>
+        <v>0.0868046</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113814</v>
+        <v>0.111818</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0672543</v>
+        <v>0.067038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635498</v>
+        <v>0.0636017</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0786838</v>
+        <v>0.0765734</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0789258</v>
+        <v>0.0783491</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117482</v>
+        <v>0.116412</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0676702</v>
+        <v>0.065223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.0641007</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0788494</v>
+        <v>0.07741240000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0789863</v>
+        <v>0.07898719999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.122232</v>
+        <v>0.121818</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06588339999999999</v>
+        <v>0.067799</v>
       </c>
       <c r="F68" t="n">
-        <v>0.065064</v>
+        <v>0.0650558</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08048619999999999</v>
+        <v>0.07850559999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0799409</v>
+        <v>0.0790317</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129049</v>
+        <v>0.128723</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0689849</v>
+        <v>0.0684922</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0657017</v>
+        <v>0.06596349999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0793469</v>
+        <v>0.0773032</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07991719999999999</v>
+        <v>0.0800149</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134343</v>
+        <v>0.133837</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0693796</v>
+        <v>0.0666021</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06669310000000001</v>
+        <v>0.0668026</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0796664</v>
+        <v>0.07749490000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0805482</v>
+        <v>0.0805746</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141205</v>
+        <v>0.139933</v>
       </c>
       <c r="E71" t="n">
-        <v>0.067815</v>
+        <v>0.0693994</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0676664</v>
+        <v>0.0674985</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07975989999999999</v>
+        <v>0.0781015</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0812802</v>
+        <v>0.0810271</v>
       </c>
       <c r="D72" t="n">
-        <v>0.14853</v>
+        <v>0.146446</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0685299</v>
+        <v>0.0692962</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0687509</v>
+        <v>0.0686445</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0789612</v>
+        <v>0.0777954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0819619</v>
+        <v>0.0816233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156443</v>
+        <v>0.155003</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0694173</v>
+        <v>0.07017909999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705586</v>
+        <v>0.0702845</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0839434</v>
+        <v>0.0814715</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0828282</v>
+        <v>0.0827724</v>
       </c>
       <c r="D74" t="n">
-        <v>0.164067</v>
+        <v>0.162144</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07063319999999999</v>
+        <v>0.0700889</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07291309999999999</v>
+        <v>0.0729563</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08445900000000001</v>
+        <v>0.0818049</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0841124</v>
+        <v>0.08391029999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.171686</v>
+        <v>0.168742</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0725341</v>
+        <v>0.07202939999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.075895</v>
+        <v>0.0756131</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08517139999999999</v>
+        <v>0.08219609999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0852218</v>
+        <v>0.08605309999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181452</v>
+        <v>0.179872</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07540819999999999</v>
+        <v>0.0740629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0792775</v>
+        <v>0.0786644</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0867841</v>
+        <v>0.0833319</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08853560000000001</v>
+        <v>0.0887024</v>
       </c>
       <c r="D77" t="n">
-        <v>0.188447</v>
+        <v>0.187906</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0764087</v>
+        <v>0.0766119</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0830545</v>
+        <v>0.08285919999999999</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0883304</v>
+        <v>0.0841914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09029860000000001</v>
+        <v>0.0906867</v>
       </c>
       <c r="D78" t="n">
-        <v>0.183775</v>
+        <v>0.184443</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0815133</v>
+        <v>0.0805469</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0881908</v>
+        <v>0.08853709999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0871509</v>
+        <v>0.08534799999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09443459999999999</v>
+        <v>0.0952411</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194444</v>
+        <v>0.193015</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0871893</v>
+        <v>0.0862516</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09604119999999999</v>
+        <v>0.09607300000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0907563</v>
+        <v>0.08971170000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0999357</v>
+        <v>0.100187</v>
       </c>
       <c r="D80" t="n">
-        <v>0.200631</v>
+        <v>0.200564</v>
       </c>
       <c r="E80" t="n">
-        <v>0.110032</v>
+        <v>0.112092</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10703</v>
+        <v>0.105058</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18214</v>
+        <v>0.182674</v>
       </c>
       <c r="C81" t="n">
-        <v>0.152092</v>
+        <v>0.149848</v>
       </c>
       <c r="D81" t="n">
-        <v>0.206106</v>
+        <v>0.206122</v>
       </c>
       <c r="E81" t="n">
-        <v>0.113376</v>
+        <v>0.114769</v>
       </c>
       <c r="F81" t="n">
-        <v>0.105122</v>
+        <v>0.104838</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182536</v>
+        <v>0.18385</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149575</v>
+        <v>0.149758</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215781</v>
+        <v>0.21729</v>
       </c>
       <c r="E82" t="n">
-        <v>0.116325</v>
+        <v>0.118092</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106879</v>
+        <v>0.105962</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183374</v>
+        <v>0.183625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150467</v>
+        <v>0.151492</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227173</v>
+        <v>0.22749</v>
       </c>
       <c r="E83" t="n">
-        <v>0.116548</v>
+        <v>0.117363</v>
       </c>
       <c r="F83" t="n">
-        <v>0.106582</v>
+        <v>0.108498</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182323</v>
+        <v>0.185099</v>
       </c>
       <c r="C84" t="n">
-        <v>0.151643</v>
+        <v>0.152416</v>
       </c>
       <c r="D84" t="n">
-        <v>0.236778</v>
+        <v>0.237263</v>
       </c>
       <c r="E84" t="n">
-        <v>0.118216</v>
+        <v>0.120603</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107009</v>
+        <v>0.109392</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183164</v>
+        <v>0.186165</v>
       </c>
       <c r="C85" t="n">
-        <v>0.152502</v>
+        <v>0.152999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245358</v>
+        <v>0.244967</v>
       </c>
       <c r="E85" t="n">
-        <v>0.122318</v>
+        <v>0.123692</v>
       </c>
       <c r="F85" t="n">
-        <v>0.109977</v>
+        <v>0.108226</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.183611</v>
+        <v>0.1862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152413</v>
+        <v>0.153277</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257127</v>
+        <v>0.257989</v>
       </c>
       <c r="E86" t="n">
-        <v>0.12458</v>
+        <v>0.128582</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111406</v>
+        <v>0.109427</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.186279</v>
+        <v>0.18702</v>
       </c>
       <c r="C87" t="n">
-        <v>0.153333</v>
+        <v>0.154801</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266883</v>
+        <v>0.268561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.127926</v>
+        <v>0.127606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114359</v>
+        <v>0.111901</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186427</v>
+        <v>0.187438</v>
       </c>
       <c r="C88" t="n">
-        <v>0.156176</v>
+        <v>0.154993</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275903</v>
+        <v>0.277134</v>
       </c>
       <c r="E88" t="n">
-        <v>0.127927</v>
+        <v>0.12683</v>
       </c>
       <c r="F88" t="n">
-        <v>0.116689</v>
+        <v>0.114527</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18598</v>
+        <v>0.187197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.156959</v>
+        <v>0.155482</v>
       </c>
       <c r="D89" t="n">
-        <v>0.283527</v>
+        <v>0.284206</v>
       </c>
       <c r="E89" t="n">
-        <v>0.131245</v>
+        <v>0.131863</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116965</v>
+        <v>0.117723</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185703</v>
+        <v>0.187607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.156121</v>
+        <v>0.157818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294341</v>
+        <v>0.294468</v>
       </c>
       <c r="E90" t="n">
-        <v>0.133608</v>
+        <v>0.134109</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119802</v>
+        <v>0.118287</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187452</v>
+        <v>0.188972</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159803</v>
+        <v>0.158576</v>
       </c>
       <c r="D91" t="n">
-        <v>0.303115</v>
+        <v>0.303956</v>
       </c>
       <c r="E91" t="n">
-        <v>0.135636</v>
+        <v>0.136533</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121836</v>
+        <v>0.122371</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187733</v>
+        <v>0.189022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161341</v>
+        <v>0.161532</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287298</v>
+        <v>0.288582</v>
       </c>
       <c r="E92" t="n">
-        <v>0.139949</v>
+        <v>0.140099</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128705</v>
+        <v>0.127169</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190321</v>
+        <v>0.190196</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167406</v>
+        <v>0.165368</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29433</v>
+        <v>0.295382</v>
       </c>
       <c r="E93" t="n">
-        <v>0.144321</v>
+        <v>0.147197</v>
       </c>
       <c r="F93" t="n">
-        <v>0.137509</v>
+        <v>0.133273</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192457</v>
+        <v>0.192144</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171738</v>
+        <v>0.169672</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299369</v>
+        <v>0.300208</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212829</v>
+        <v>0.213506</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201775</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250198</v>
+        <v>0.250577</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2375</v>
+        <v>0.238061</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307632</v>
+        <v>0.308669</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21512</v>
+        <v>0.215719</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202462</v>
+        <v>0.2029</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250429</v>
+        <v>0.250539</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236862</v>
+        <v>0.237709</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314963</v>
+        <v>0.316072</v>
       </c>
       <c r="E96" t="n">
-        <v>0.217009</v>
+        <v>0.217452</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203496</v>
+        <v>0.204521</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25042</v>
+        <v>0.251566</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237279</v>
+        <v>0.238092</v>
       </c>
       <c r="D97" t="n">
-        <v>0.321879</v>
+        <v>0.323432</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218742</v>
+        <v>0.219176</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204825</v>
+        <v>0.204864</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250343</v>
+        <v>0.250978</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237587</v>
+        <v>0.238461</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333009</v>
+        <v>0.334238</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220734</v>
+        <v>0.221541</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205777</v>
+        <v>0.206405</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250533</v>
+        <v>0.251391</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238149</v>
+        <v>0.238905</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339959</v>
+        <v>0.3413</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2231</v>
+        <v>0.223316</v>
       </c>
       <c r="F99" t="n">
-        <v>0.206747</v>
+        <v>0.207942</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.250477</v>
+        <v>0.251493</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238311</v>
+        <v>0.239308</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347328</v>
+        <v>0.348615</v>
       </c>
       <c r="E100" t="n">
-        <v>0.224985</v>
+        <v>0.225032</v>
       </c>
       <c r="F100" t="n">
-        <v>0.208073</v>
+        <v>0.208182</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250924</v>
+        <v>0.251367</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23919</v>
+        <v>0.240343</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358858</v>
+        <v>0.359969</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227574</v>
+        <v>0.227674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209376</v>
+        <v>0.209618</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250891</v>
+        <v>0.25166</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239903</v>
+        <v>0.241083</v>
       </c>
       <c r="D102" t="n">
-        <v>0.367038</v>
+        <v>0.368332</v>
       </c>
       <c r="E102" t="n">
-        <v>0.229368</v>
+        <v>0.230496</v>
       </c>
       <c r="F102" t="n">
-        <v>0.212309</v>
+        <v>0.211241</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251108</v>
+        <v>0.251277</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240698</v>
+        <v>0.241613</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377237</v>
+        <v>0.377596</v>
       </c>
       <c r="E103" t="n">
-        <v>0.23199</v>
+        <v>0.232617</v>
       </c>
       <c r="F103" t="n">
-        <v>0.214357</v>
+        <v>0.213429</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252084</v>
+        <v>0.252006</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242116</v>
+        <v>0.243004</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387272</v>
+        <v>0.38778</v>
       </c>
       <c r="E104" t="n">
-        <v>0.234708</v>
+        <v>0.236004</v>
       </c>
       <c r="F104" t="n">
-        <v>0.21565</v>
+        <v>0.216007</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25193</v>
+        <v>0.252792</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244461</v>
+        <v>0.245535</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395601</v>
+        <v>0.395756</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237265</v>
+        <v>0.237851</v>
       </c>
       <c r="F105" t="n">
-        <v>0.219861</v>
+        <v>0.218747</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252872</v>
+        <v>0.254063</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246709</v>
+        <v>0.247396</v>
       </c>
       <c r="D106" t="n">
-        <v>0.407591</v>
+        <v>0.407948</v>
       </c>
       <c r="E106" t="n">
-        <v>0.24084</v>
+        <v>0.241807</v>
       </c>
       <c r="F106" t="n">
-        <v>0.223149</v>
+        <v>0.222719</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254558</v>
+        <v>0.255365</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249656</v>
+        <v>0.250232</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347372</v>
+        <v>0.348829</v>
       </c>
       <c r="E107" t="n">
-        <v>0.24441</v>
+        <v>0.245698</v>
       </c>
       <c r="F107" t="n">
-        <v>0.228771</v>
+        <v>0.22792</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2572</v>
+        <v>0.257771</v>
       </c>
       <c r="C108" t="n">
-        <v>0.255057</v>
+        <v>0.255001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.351716</v>
+        <v>0.352929</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262851</v>
+        <v>0.263421</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251513</v>
+        <v>0.252014</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261772</v>
+        <v>0.262227</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262835</v>
+        <v>0.26395</v>
       </c>
       <c r="D109" t="n">
-        <v>0.357028</v>
+        <v>0.358154</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265262</v>
+        <v>0.265053</v>
       </c>
       <c r="F109" t="n">
-        <v>0.253008</v>
+        <v>0.253604</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286419</v>
+        <v>0.288571</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297704</v>
+        <v>0.299204</v>
       </c>
       <c r="D110" t="n">
-        <v>0.36649</v>
+        <v>0.367412</v>
       </c>
       <c r="E110" t="n">
-        <v>0.266733</v>
+        <v>0.267512</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254888</v>
+        <v>0.254878</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287188</v>
+        <v>0.287123</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300012</v>
+        <v>0.300537</v>
       </c>
       <c r="D111" t="n">
-        <v>0.374266</v>
+        <v>0.375272</v>
       </c>
       <c r="E111" t="n">
-        <v>0.269178</v>
+        <v>0.269581</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255609</v>
+        <v>0.256403</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.287082</v>
+        <v>0.286769</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299649</v>
+        <v>0.300212</v>
       </c>
       <c r="D112" t="n">
-        <v>0.38147</v>
+        <v>0.382727</v>
       </c>
       <c r="E112" t="n">
-        <v>0.265635</v>
+        <v>0.266604</v>
       </c>
       <c r="F112" t="n">
-        <v>0.257021</v>
+        <v>0.25798</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286914</v>
+        <v>0.286202</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300309</v>
+        <v>0.301194</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388063</v>
+        <v>0.389371</v>
       </c>
       <c r="E113" t="n">
-        <v>0.265517</v>
+        <v>0.26645</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259211</v>
+        <v>0.25991</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287805</v>
+        <v>0.287138</v>
       </c>
       <c r="C114" t="n">
-        <v>0.30051</v>
+        <v>0.301752</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394978</v>
+        <v>0.397159</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267845</v>
+        <v>0.268568</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2616</v>
+        <v>0.262317</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288234</v>
+        <v>0.28822</v>
       </c>
       <c r="C115" t="n">
-        <v>0.300806</v>
+        <v>0.303485</v>
       </c>
       <c r="D115" t="n">
-        <v>0.407464</v>
+        <v>0.408814</v>
       </c>
       <c r="E115" t="n">
-        <v>0.270875</v>
+        <v>0.272037</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263769</v>
+        <v>0.265066</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287686</v>
+        <v>0.288672</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302563</v>
+        <v>0.302751</v>
       </c>
       <c r="D116" t="n">
-        <v>0.418448</v>
+        <v>0.419842</v>
       </c>
       <c r="E116" t="n">
-        <v>0.274157</v>
+        <v>0.274772</v>
       </c>
       <c r="F116" t="n">
-        <v>0.26634</v>
+        <v>0.267501</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288004</v>
+        <v>0.288528</v>
       </c>
       <c r="C117" t="n">
-        <v>0.304904</v>
+        <v>0.303386</v>
       </c>
       <c r="D117" t="n">
-        <v>0.425223</v>
+        <v>0.426453</v>
       </c>
       <c r="E117" t="n">
-        <v>0.277395</v>
+        <v>0.278428</v>
       </c>
       <c r="F117" t="n">
-        <v>0.27008</v>
+        <v>0.270989</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289948</v>
+        <v>0.289524</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304118</v>
+        <v>0.305546</v>
       </c>
       <c r="D118" t="n">
-        <v>0.435586</v>
+        <v>0.43683</v>
       </c>
       <c r="E118" t="n">
-        <v>0.281075</v>
+        <v>0.281518</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27398</v>
+        <v>0.274685</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.289948</v>
+        <v>0.288736</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306512</v>
+        <v>0.305131</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442823</v>
+        <v>0.444237</v>
       </c>
       <c r="E119" t="n">
-        <v>0.284518</v>
+        <v>0.285549</v>
       </c>
       <c r="F119" t="n">
-        <v>0.279443</v>
+        <v>0.279825</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290122</v>
+        <v>0.290172</v>
       </c>
       <c r="C120" t="n">
-        <v>0.308444</v>
+        <v>0.309379</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457906</v>
+        <v>0.459012</v>
       </c>
       <c r="E120" t="n">
-        <v>0.288365</v>
+        <v>0.289819</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284664</v>
+        <v>0.286173</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.290777</v>
+        <v>0.292836</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310637</v>
+        <v>0.312207</v>
       </c>
       <c r="D121" t="n">
-        <v>0.375777</v>
+        <v>0.377203</v>
       </c>
       <c r="E121" t="n">
-        <v>0.293679</v>
+        <v>0.294338</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293319</v>
+        <v>0.295485</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.293654</v>
+        <v>0.29533</v>
       </c>
       <c r="C122" t="n">
-        <v>0.315689</v>
+        <v>0.318906</v>
       </c>
       <c r="D122" t="n">
-        <v>0.380281</v>
+        <v>0.381098</v>
       </c>
       <c r="E122" t="n">
-        <v>0.298577</v>
+        <v>0.299686</v>
       </c>
       <c r="F122" t="n">
-        <v>0.304651</v>
+        <v>0.306958</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.299492</v>
+        <v>0.299421</v>
       </c>
       <c r="C123" t="n">
-        <v>0.324999</v>
+        <v>0.324338</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387869</v>
+        <v>0.388966</v>
       </c>
       <c r="E123" t="n">
-        <v>0.286393</v>
+        <v>0.286983</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2836</v>
+        <v>0.284899</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36666</v>
+        <v>0.368197</v>
       </c>
       <c r="C124" t="n">
-        <v>0.388229</v>
+        <v>0.388679</v>
       </c>
       <c r="D124" t="n">
-        <v>0.394528</v>
+        <v>0.396278</v>
       </c>
       <c r="E124" t="n">
-        <v>0.288786</v>
+        <v>0.289844</v>
       </c>
       <c r="F124" t="n">
-        <v>0.285654</v>
+        <v>0.286505</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366897</v>
+        <v>0.367713</v>
       </c>
       <c r="C125" t="n">
-        <v>0.388172</v>
+        <v>0.38912</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4019</v>
+        <v>0.403241</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291241</v>
+        <v>0.292273</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287832</v>
+        <v>0.288878</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3666</v>
+        <v>0.368513</v>
       </c>
       <c r="C126" t="n">
-        <v>0.388167</v>
+        <v>0.389404</v>
       </c>
       <c r="D126" t="n">
-        <v>0.407862</v>
+        <v>0.409014</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293859</v>
+        <v>0.294695</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289774</v>
+        <v>0.291042</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367535</v>
+        <v>0.367749</v>
       </c>
       <c r="C127" t="n">
-        <v>0.388206</v>
+        <v>0.389664</v>
       </c>
       <c r="D127" t="n">
-        <v>0.417539</v>
+        <v>0.418645</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296571</v>
+        <v>0.297352</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292418</v>
+        <v>0.294208</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365803</v>
+        <v>0.369104</v>
       </c>
       <c r="C128" t="n">
-        <v>0.389238</v>
+        <v>0.390396</v>
       </c>
       <c r="D128" t="n">
-        <v>0.425391</v>
+        <v>0.427065</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299653</v>
+        <v>0.302053</v>
       </c>
       <c r="F128" t="n">
-        <v>0.29537</v>
+        <v>0.296201</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367822</v>
+        <v>0.368481</v>
       </c>
       <c r="C129" t="n">
-        <v>0.390547</v>
+        <v>0.391249</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433422</v>
+        <v>0.434592</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302727</v>
+        <v>0.303413</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299017</v>
+        <v>0.299371</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367794</v>
+        <v>0.369416</v>
       </c>
       <c r="C130" t="n">
-        <v>0.392436</v>
+        <v>0.391989</v>
       </c>
       <c r="D130" t="n">
-        <v>0.442124</v>
+        <v>0.444005</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305965</v>
+        <v>0.306687</v>
       </c>
       <c r="F130" t="n">
-        <v>0.302011</v>
+        <v>0.30349</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.368833</v>
+        <v>0.37009</v>
       </c>
       <c r="C131" t="n">
-        <v>0.392208</v>
+        <v>0.393758</v>
       </c>
       <c r="D131" t="n">
-        <v>0.451083</v>
+        <v>0.452912</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309718</v>
+        <v>0.310101</v>
       </c>
       <c r="F131" t="n">
-        <v>0.306611</v>
+        <v>0.307266</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368769</v>
+        <v>0.369522</v>
       </c>
       <c r="C132" t="n">
-        <v>0.392862</v>
+        <v>0.395736</v>
       </c>
       <c r="D132" t="n">
-        <v>0.460578</v>
+        <v>0.46261</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313942</v>
+        <v>0.314595</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304941</v>
+        <v>0.306329</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37114</v>
+        <v>0.370886</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394409</v>
+        <v>0.396774</v>
       </c>
       <c r="D133" t="n">
-        <v>0.474273</v>
+        <v>0.475857</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31883</v>
+        <v>0.319305</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311381</v>
+        <v>0.312736</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.371281</v>
+        <v>0.369811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.398465</v>
+        <v>0.399735</v>
       </c>
       <c r="D134" t="n">
-        <v>0.480827</v>
+        <v>0.482808</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323994</v>
+        <v>0.324536</v>
       </c>
       <c r="F134" t="n">
-        <v>0.320307</v>
+        <v>0.320234</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371924</v>
+        <v>0.372006</v>
       </c>
       <c r="C135" t="n">
-        <v>0.40123</v>
+        <v>0.403131</v>
       </c>
       <c r="D135" t="n">
-        <v>0.39128</v>
+        <v>0.391968</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330797</v>
+        <v>0.331623</v>
       </c>
       <c r="F135" t="n">
-        <v>0.330156</v>
+        <v>0.330904</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373396</v>
+        <v>0.373747</v>
       </c>
       <c r="C136" t="n">
-        <v>0.406409</v>
+        <v>0.408506</v>
       </c>
       <c r="D136" t="n">
-        <v>0.395658</v>
+        <v>0.396674</v>
       </c>
       <c r="E136" t="n">
-        <v>0.340199</v>
+        <v>0.340465</v>
       </c>
       <c r="F136" t="n">
-        <v>0.345345</v>
+        <v>0.346063</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.37658</v>
+        <v>0.376444</v>
       </c>
       <c r="C137" t="n">
-        <v>0.413364</v>
+        <v>0.415525</v>
       </c>
       <c r="D137" t="n">
-        <v>0.401635</v>
+        <v>0.402094</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310404</v>
+        <v>0.310193</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304324</v>
+        <v>0.304618</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.431654</v>
+        <v>0.433522</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443671</v>
+        <v>0.444474</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409935</v>
+        <v>0.410112</v>
       </c>
       <c r="E138" t="n">
-        <v>0.312704</v>
+        <v>0.312867</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306499</v>
+        <v>0.306915</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.43194</v>
+        <v>0.43285</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444422</v>
+        <v>0.444687</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418301</v>
+        <v>0.418471</v>
       </c>
       <c r="E139" t="n">
-        <v>0.314919</v>
+        <v>0.315861</v>
       </c>
       <c r="F139" t="n">
-        <v>0.308898</v>
+        <v>0.30901</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431706</v>
+        <v>0.432665</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444945</v>
+        <v>0.445759</v>
       </c>
       <c r="D140" t="n">
-        <v>0.424767</v>
+        <v>0.425313</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316908</v>
+        <v>0.316913</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311193</v>
+        <v>0.311154</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.431815</v>
+        <v>0.432656</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445474</v>
+        <v>0.446276</v>
       </c>
       <c r="D141" t="n">
-        <v>0.433694</v>
+        <v>0.434145</v>
       </c>
       <c r="E141" t="n">
-        <v>0.319204</v>
+        <v>0.321274</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313693</v>
+        <v>0.31397</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431584</v>
+        <v>0.433278</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446689</v>
+        <v>0.446677</v>
       </c>
       <c r="D142" t="n">
-        <v>0.437233</v>
+        <v>0.438208</v>
       </c>
       <c r="E142" t="n">
-        <v>0.321182</v>
+        <v>0.321208</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316566</v>
+        <v>0.316749</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.432139</v>
+        <v>0.432511</v>
       </c>
       <c r="C143" t="n">
-        <v>0.447669</v>
+        <v>0.447829</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445797</v>
+        <v>0.446781</v>
       </c>
       <c r="E143" t="n">
-        <v>0.323186</v>
+        <v>0.323818</v>
       </c>
       <c r="F143" t="n">
-        <v>0.320244</v>
+        <v>0.320852</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0442261</v>
+        <v>0.0436487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433395</v>
+        <v>0.0437483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674421</v>
+        <v>0.069091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044811</v>
+        <v>0.0455948</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424842</v>
+        <v>0.0424376</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428765</v>
+        <v>0.0443147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439113</v>
+        <v>0.0437197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745835</v>
+        <v>0.075299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451219</v>
+        <v>0.0455125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428918</v>
+        <v>0.0429667</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
+        <v>0.0446092</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.044065</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0828446</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0460213</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.0430063</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0441392</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.082624</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.045062</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0433083</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432025</v>
+        <v>0.0448295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442308</v>
+        <v>0.0441498</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898258</v>
+        <v>0.0902922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0456372</v>
+        <v>0.0455089</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0435502</v>
+        <v>0.043532</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443379</v>
+        <v>0.043926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0445874</v>
+        <v>0.0443066</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0971081</v>
+        <v>0.0968624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0464122</v>
+        <v>0.0459288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0441455</v>
+        <v>0.043841</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043242</v>
+        <v>0.0455627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448458</v>
+        <v>0.0444761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0615178</v>
+        <v>0.0617567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046965</v>
+        <v>0.046909</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0449868</v>
+        <v>0.0447129</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0448323</v>
+        <v>0.0442716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451777</v>
+        <v>0.0449125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0633457</v>
+        <v>0.06369909999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483883</v>
+        <v>0.0483625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0466535</v>
+        <v>0.0461191</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0453542</v>
+        <v>0.0449551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460115</v>
+        <v>0.0459654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682676</v>
+        <v>0.06890689999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463742</v>
+        <v>0.0473748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445529</v>
+        <v>0.045856</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501731</v>
+        <v>0.0506276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.048742</v>
+        <v>0.049917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073044</v>
+        <v>0.073713</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0468686</v>
+        <v>0.0476264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0445993</v>
+        <v>0.0455292</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501373</v>
+        <v>0.0502152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489502</v>
+        <v>0.0503525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07894329999999999</v>
+        <v>0.07917449999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0472224</v>
+        <v>0.0477557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044705</v>
+        <v>0.0457539</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502896</v>
+        <v>0.0509522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493674</v>
+        <v>0.0501642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840211</v>
+        <v>0.0837441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0474163</v>
+        <v>0.0482158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0449327</v>
+        <v>0.0460638</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0501174</v>
+        <v>0.0507711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495586</v>
+        <v>0.0500845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0885949</v>
+        <v>0.089223</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0480089</v>
+        <v>0.048666</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0452642</v>
+        <v>0.0461749</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500999</v>
+        <v>0.0502516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494627</v>
+        <v>0.0502587</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0937648</v>
+        <v>0.09451560000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485301</v>
+        <v>0.0489502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0456506</v>
+        <v>0.0465489</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506307</v>
+        <v>0.0506161</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0497843</v>
+        <v>0.0503381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09862269999999999</v>
+        <v>0.0990086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048384</v>
+        <v>0.0493279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0460584</v>
+        <v>0.0469647</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507079</v>
+        <v>0.0509067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05004</v>
+        <v>0.0503654</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103508</v>
+        <v>0.103868</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492264</v>
+        <v>0.0498238</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0463861</v>
+        <v>0.0472614</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0507012</v>
+        <v>0.0508808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503345</v>
+        <v>0.0507389</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108515</v>
+        <v>0.108861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0494649</v>
+        <v>0.0499089</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466076</v>
+        <v>0.0477345</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050956</v>
+        <v>0.0513039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507402</v>
+        <v>0.0513813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113271</v>
+        <v>0.113546</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498593</v>
+        <v>0.0502992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468609</v>
+        <v>0.0477973</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0510159</v>
+        <v>0.0511123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504641</v>
+        <v>0.050844</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117907</v>
+        <v>0.117761</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0501626</v>
+        <v>0.0506155</v>
       </c>
       <c r="F19" t="n">
-        <v>0.047385</v>
+        <v>0.0483277</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514044</v>
+        <v>0.0513777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508687</v>
+        <v>0.0515337</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121464</v>
+        <v>0.12141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0509812</v>
+        <v>0.0511184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0483732</v>
+        <v>0.0491016</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516981</v>
+        <v>0.0516658</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0513741</v>
+        <v>0.0517753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849673</v>
+        <v>0.0850963</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0521421</v>
+        <v>0.0522908</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494408</v>
+        <v>0.0504414</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521486</v>
+        <v>0.0519836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522376</v>
+        <v>0.0523393</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08790530000000001</v>
+        <v>0.0878666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0559189</v>
+        <v>0.0561251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0536981</v>
+        <v>0.0542568</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534345</v>
+        <v>0.0533696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0536667</v>
+        <v>0.0541373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917898</v>
+        <v>0.0917444</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0537226</v>
+        <v>0.0536895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0495406</v>
+        <v>0.0499913</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548668</v>
+        <v>0.0549438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564583</v>
+        <v>0.0564847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09493600000000001</v>
+        <v>0.0948794</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0529843</v>
+        <v>0.0530894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498194</v>
+        <v>0.0496813</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552181</v>
+        <v>0.0552232</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0565135</v>
+        <v>0.0567578</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984009</v>
+        <v>0.09846290000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533758</v>
+        <v>0.0535659</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500337</v>
+        <v>0.0499443</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551953</v>
+        <v>0.0551845</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570501</v>
+        <v>0.0577665</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102276</v>
+        <v>0.102194</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537835</v>
+        <v>0.0539379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0503463</v>
+        <v>0.0502334</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554485</v>
+        <v>0.0553862</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0570172</v>
+        <v>0.0574294</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106325</v>
+        <v>0.106421</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543934</v>
+        <v>0.0544096</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510282</v>
+        <v>0.0508579</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556372</v>
+        <v>0.0557985</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0570992</v>
+        <v>0.0571973</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110103</v>
+        <v>0.110389</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0547922</v>
+        <v>0.0546367</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0509818</v>
+        <v>0.0508337</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555719</v>
+        <v>0.0557311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0570917</v>
+        <v>0.0573236</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114166</v>
+        <v>0.114095</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054725</v>
+        <v>0.0552718</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514247</v>
+        <v>0.0511216</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055618</v>
+        <v>0.0561449</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573126</v>
+        <v>0.0573823</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118266</v>
+        <v>0.118333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552535</v>
+        <v>0.0554394</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0515957</v>
+        <v>0.0514133</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557051</v>
+        <v>0.056238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577077</v>
+        <v>0.0587413</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122379</v>
+        <v>0.122435</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557179</v>
+        <v>0.0558233</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0519822</v>
+        <v>0.0518639</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558719</v>
+        <v>0.0564733</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0581252</v>
+        <v>0.059133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125829</v>
+        <v>0.125868</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559483</v>
+        <v>0.0562065</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0523521</v>
+        <v>0.052273</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562297</v>
+        <v>0.0567915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0581537</v>
+        <v>0.059368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12919</v>
+        <v>0.12923</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566734</v>
+        <v>0.056694</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0533134</v>
+        <v>0.0531816</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566325</v>
+        <v>0.0571015</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582222</v>
+        <v>0.0583383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132401</v>
+        <v>0.132412</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575296</v>
+        <v>0.0575642</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0544527</v>
+        <v>0.0546462</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567244</v>
+        <v>0.0568354</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585812</v>
+        <v>0.0588546</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931403</v>
+        <v>0.0932661</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606524</v>
+        <v>0.0604831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0581598</v>
+        <v>0.0579302</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579338</v>
+        <v>0.0583127</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0601447</v>
+        <v>0.0604706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955546</v>
+        <v>0.09553680000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0664445</v>
+        <v>0.06709759999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06445969999999999</v>
+        <v>0.0646287</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605106</v>
+        <v>0.0605747</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06313680000000001</v>
+        <v>0.0631964</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0976178</v>
+        <v>0.09759909999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590445</v>
+        <v>0.0590207</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0535276</v>
+        <v>0.0537589</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061463</v>
+        <v>0.0613027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636135</v>
+        <v>0.0635015</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100446</v>
+        <v>0.100394</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0574488</v>
+        <v>0.0573379</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0538241</v>
+        <v>0.0540021</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.060147</v>
+        <v>0.0602892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639787</v>
+        <v>0.0639416</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103364</v>
+        <v>0.103502</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0578294</v>
+        <v>0.0579473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0540959</v>
+        <v>0.0543189</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603414</v>
+        <v>0.0606641</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06405760000000001</v>
+        <v>0.0640656</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106625</v>
+        <v>0.10665</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0585477</v>
+        <v>0.0589668</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0544441</v>
+        <v>0.0546741</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605495</v>
+        <v>0.0600892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0642286</v>
+        <v>0.06410399999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11031</v>
+        <v>0.110238</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591438</v>
+        <v>0.0590458</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549241</v>
+        <v>0.0549037</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606603</v>
+        <v>0.0606491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640911</v>
+        <v>0.0640038</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113872</v>
+        <v>0.113781</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0597062</v>
+        <v>0.0595313</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551815</v>
+        <v>0.0553424</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607052</v>
+        <v>0.0608623</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06432640000000001</v>
+        <v>0.0642346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117738</v>
+        <v>0.117595</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598578</v>
+        <v>0.0598091</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0555353</v>
+        <v>0.0557319</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608055</v>
+        <v>0.0609248</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0645878</v>
+        <v>0.0642677</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121387</v>
+        <v>0.121441</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0606236</v>
+        <v>0.0602393</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0559141</v>
+        <v>0.0561629</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061007</v>
+        <v>0.0610995</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0647992</v>
+        <v>0.0646192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125391</v>
+        <v>0.125315</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0612943</v>
+        <v>0.0607252</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566346</v>
+        <v>0.0566595</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061313</v>
+        <v>0.0613718</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0651297</v>
+        <v>0.06480519999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129279</v>
+        <v>0.129329</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0612577</v>
+        <v>0.0613613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574873</v>
+        <v>0.0576928</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061551</v>
+        <v>0.0616371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0655097</v>
+        <v>0.06522260000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132363</v>
+        <v>0.132573</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623429</v>
+        <v>0.0623747</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585498</v>
+        <v>0.0585347</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061578</v>
+        <v>0.0617643</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.0658073</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13586</v>
+        <v>0.135927</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06452040000000001</v>
+        <v>0.0645811</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612556</v>
+        <v>0.0612048</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621648</v>
+        <v>0.0624396</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0658374</v>
+        <v>0.0664839</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139016</v>
+        <v>0.139012</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679212</v>
+        <v>0.06800630000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0646786</v>
+        <v>0.0651549</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645255</v>
+        <v>0.0644917</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684633</v>
+        <v>0.0685106</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973888</v>
+        <v>0.0973757</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0727101</v>
+        <v>0.0728299</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0700505</v>
+        <v>0.07009890000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0677104</v>
+        <v>0.067326</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.0720056</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09968929999999999</v>
+        <v>0.099552</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0617937</v>
+        <v>0.0631404</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0565977</v>
+        <v>0.0567017</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.072035</v>
+        <v>0.0720605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.077149</v>
+        <v>0.07705480000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102056</v>
+        <v>0.102027</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611771</v>
+        <v>0.0613079</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569705</v>
+        <v>0.0570334</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0676264</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0711485</v>
+        <v>0.0710093</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105467</v>
+        <v>0.105466</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618582</v>
+        <v>0.0616978</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574304</v>
+        <v>0.057359</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673551</v>
+        <v>0.067755</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711507</v>
+        <v>0.0710271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108418</v>
+        <v>0.108411</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621909</v>
+        <v>0.0622152</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579579</v>
+        <v>0.0578561</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678165</v>
+        <v>0.0672775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07125620000000001</v>
+        <v>0.0717708</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11183</v>
+        <v>0.111886</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626467</v>
+        <v>0.0628408</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0583696</v>
+        <v>0.0582806</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676182</v>
+        <v>0.0675404</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715219</v>
+        <v>0.0715785</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115461</v>
+        <v>0.115484</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630502</v>
+        <v>0.0630303</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058718</v>
+        <v>0.0585908</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679245</v>
+        <v>0.0680055</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0714403</v>
+        <v>0.0712758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119594</v>
+        <v>0.11954</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635468</v>
+        <v>0.06355230000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0592846</v>
+        <v>0.0591541</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06835529999999999</v>
+        <v>0.0684997</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0715956</v>
+        <v>0.0720977</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123225</v>
+        <v>0.123111</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06438000000000001</v>
+        <v>0.064317</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0612002</v>
+        <v>0.0619626</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06824089999999999</v>
+        <v>0.06815740000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0720398</v>
+        <v>0.0724405</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127117</v>
+        <v>0.127072</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06493309999999999</v>
+        <v>0.0649092</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0621119</v>
+        <v>0.06259770000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684545</v>
+        <v>0.0682603</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07275760000000001</v>
+        <v>0.0728678</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131041</v>
+        <v>0.130923</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0662929</v>
+        <v>0.0663464</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638517</v>
+        <v>0.06409529999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06869840000000001</v>
+        <v>0.06877560000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0735697</v>
+        <v>0.07286810000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135099</v>
+        <v>0.135365</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06792570000000001</v>
+        <v>0.068035</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0657039</v>
+        <v>0.066202</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956900000000001</v>
+        <v>0.0691051</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0749084</v>
+        <v>0.0739784</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138501</v>
+        <v>0.139</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0701854</v>
+        <v>0.0704056</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0686645</v>
+        <v>0.0688279</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704283</v>
+        <v>0.07044350000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07568709999999999</v>
+        <v>0.0762019</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142199</v>
+        <v>0.142552</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731004</v>
+        <v>0.073435</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724373</v>
+        <v>0.0724761</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720678</v>
+        <v>0.07210370000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.077707</v>
+        <v>0.0781864</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105271</v>
+        <v>0.105294</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0767965</v>
+        <v>0.0772118</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07700600000000001</v>
+        <v>0.07741629999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747599</v>
+        <v>0.07487389999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08154210000000001</v>
+        <v>0.0813497</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109339</v>
+        <v>0.107127</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834685</v>
+        <v>0.0835109</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0841364</v>
+        <v>0.08399189999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07876279999999999</v>
+        <v>0.0793451</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0860635</v>
+        <v>0.0865066</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113168</v>
+        <v>0.111564</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0654932</v>
+        <v>0.06552230000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635366</v>
+        <v>0.0629552</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0806291</v>
+        <v>0.079822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790433</v>
+        <v>0.0783026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117383</v>
+        <v>0.114848</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0658498</v>
+        <v>0.0660236</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06349390000000001</v>
+        <v>0.0633605</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817252</v>
+        <v>0.0807498</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0788948</v>
+        <v>0.07865659999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121468</v>
+        <v>0.119727</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0663763</v>
+        <v>0.066774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06469179999999999</v>
+        <v>0.0640862</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0807778</v>
+        <v>0.0791444</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802451</v>
+        <v>0.07945530000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127426</v>
+        <v>0.126067</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0665089</v>
+        <v>0.0669719</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0658255</v>
+        <v>0.065402</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0812206</v>
+        <v>0.08034810000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0798971</v>
+        <v>0.0797283</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133366</v>
+        <v>0.130527</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669299</v>
+        <v>0.0678387</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668377</v>
+        <v>0.0662877</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808204</v>
+        <v>0.0808619</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08044030000000001</v>
+        <v>0.080096</v>
       </c>
       <c r="D71" t="n">
-        <v>0.140357</v>
+        <v>0.137217</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0680009</v>
+        <v>0.0684287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0675308</v>
+        <v>0.06765400000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0810881</v>
+        <v>0.0809565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815232</v>
+        <v>0.0812404</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147978</v>
+        <v>0.14435</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0687173</v>
+        <v>0.06917760000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0688807</v>
+        <v>0.0691142</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812137</v>
+        <v>0.08227420000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08229210000000001</v>
+        <v>0.08181769999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156211</v>
+        <v>0.152274</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0696736</v>
+        <v>0.0700292</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705572</v>
+        <v>0.0707873</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08283219999999999</v>
+        <v>0.0797948</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0832642</v>
+        <v>0.0829294</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163893</v>
+        <v>0.160212</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07122439999999999</v>
+        <v>0.0707425</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730147</v>
+        <v>0.0726343</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834811</v>
+        <v>0.08017589999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0845571</v>
+        <v>0.0844935</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170038</v>
+        <v>0.1675</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0730475</v>
+        <v>0.0721301</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07569339999999999</v>
+        <v>0.07548539999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0840316</v>
+        <v>0.0807363</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858091</v>
+        <v>0.0862605</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179615</v>
+        <v>0.179173</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0750516</v>
+        <v>0.0738205</v>
       </c>
       <c r="F76" t="n">
-        <v>0.078754</v>
+        <v>0.07913729999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08393879999999999</v>
+        <v>0.08124530000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0878895</v>
+        <v>0.08899319999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186648</v>
+        <v>0.185855</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0767034</v>
+        <v>0.07686709999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08268540000000001</v>
+        <v>0.0831819</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592329999999999</v>
+        <v>0.08237269999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.090882</v>
+        <v>0.0908624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184715</v>
+        <v>0.18207</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0814744</v>
+        <v>0.080292</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08807189999999999</v>
+        <v>0.0882786</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0889548</v>
+        <v>0.08672100000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.0950344</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192422</v>
+        <v>0.191459</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08723599999999999</v>
+        <v>0.0860373</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0958498</v>
+        <v>0.0957528</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0916088</v>
+        <v>0.09066100000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100669</v>
+        <v>0.100122</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201096</v>
+        <v>0.199517</v>
       </c>
       <c r="E80" t="n">
-        <v>0.112138</v>
+        <v>0.107143</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103538</v>
+        <v>0.105457</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180858</v>
+        <v>0.180271</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148122</v>
+        <v>0.149543</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20553</v>
+        <v>0.205965</v>
       </c>
       <c r="E81" t="n">
-        <v>0.116196</v>
+        <v>0.10797</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104344</v>
+        <v>0.102484</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183018</v>
+        <v>0.178934</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149595</v>
+        <v>0.14737</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215659</v>
+        <v>0.216096</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118768</v>
+        <v>0.113384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106831</v>
+        <v>0.10469</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182621</v>
+        <v>0.179172</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150161</v>
+        <v>0.15019</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227367</v>
+        <v>0.227035</v>
       </c>
       <c r="E83" t="n">
-        <v>0.119456</v>
+        <v>0.115363</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107662</v>
+        <v>0.107517</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183463</v>
+        <v>0.182175</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150971</v>
+        <v>0.151107</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237111</v>
+        <v>0.237483</v>
       </c>
       <c r="E84" t="n">
-        <v>0.121166</v>
+        <v>0.117951</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108529</v>
+        <v>0.108019</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18434</v>
+        <v>0.183546</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151937</v>
+        <v>0.151901</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24572</v>
+        <v>0.245413</v>
       </c>
       <c r="E85" t="n">
-        <v>0.123349</v>
+        <v>0.120225</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111698</v>
+        <v>0.107886</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184418</v>
+        <v>0.183285</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152422</v>
+        <v>0.151915</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25749</v>
+        <v>0.257008</v>
       </c>
       <c r="E86" t="n">
-        <v>0.124949</v>
+        <v>0.122819</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113112</v>
+        <v>0.109393</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183416</v>
+        <v>0.183887</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15365</v>
+        <v>0.152129</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267129</v>
+        <v>0.266866</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123333</v>
+        <v>0.124689</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112091</v>
+        <v>0.111173</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183817</v>
+        <v>0.184077</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153242</v>
+        <v>0.152824</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275315</v>
+        <v>0.275638</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12801</v>
+        <v>0.127552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113268</v>
+        <v>0.11337</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184445</v>
+        <v>0.183635</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154406</v>
+        <v>0.153926</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282332</v>
+        <v>0.283443</v>
       </c>
       <c r="E89" t="n">
-        <v>0.128448</v>
+        <v>0.130584</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115878</v>
+        <v>0.11589</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184638</v>
+        <v>0.186446</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.156323</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294438</v>
+        <v>0.294293</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131486</v>
+        <v>0.133027</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118946</v>
+        <v>0.117893</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186529</v>
+        <v>0.188629</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157982</v>
+        <v>0.158917</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302141</v>
+        <v>0.302838</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133313</v>
+        <v>0.136089</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216</v>
+        <v>0.120963</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187038</v>
+        <v>0.187733</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161603</v>
+        <v>0.160285</v>
       </c>
       <c r="D92" t="n">
-        <v>0.286777</v>
+        <v>0.28732</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137441</v>
+        <v>0.139159</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128664</v>
+        <v>0.127417</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188371</v>
+        <v>0.188639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165988</v>
+        <v>0.165204</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29353</v>
+        <v>0.294694</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142467</v>
+        <v>0.143183</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13495</v>
+        <v>0.134917</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190631</v>
+        <v>0.190347</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171302</v>
+        <v>0.171021</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298656</v>
+        <v>0.299601</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212319</v>
+        <v>0.213154</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201064</v>
+        <v>0.201473</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24915</v>
+        <v>0.250002</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236857</v>
+        <v>0.237476</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307271</v>
+        <v>0.308083</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21519</v>
+        <v>0.214753</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202077</v>
+        <v>0.202291</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250035</v>
+        <v>0.250679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236908</v>
+        <v>0.237203</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314094</v>
+        <v>0.314961</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216037</v>
+        <v>0.216741</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203116</v>
+        <v>0.203195</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249322</v>
+        <v>0.250377</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237281</v>
+        <v>0.237618</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32133</v>
+        <v>0.322297</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21824</v>
+        <v>0.219146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204189</v>
+        <v>0.204294</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249604</v>
+        <v>0.250728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237632</v>
+        <v>0.238033</v>
       </c>
       <c r="D98" t="n">
-        <v>0.33232</v>
+        <v>0.333479</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21981</v>
+        <v>0.221497</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205052</v>
+        <v>0.205186</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25008</v>
+        <v>0.251184</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238018</v>
+        <v>0.238349</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339219</v>
+        <v>0.340801</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222386</v>
+        <v>0.222971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20663</v>
+        <v>0.206781</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25102</v>
+        <v>0.251044</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238434</v>
+        <v>0.238773</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346426</v>
+        <v>0.346769</v>
       </c>
       <c r="E100" t="n">
-        <v>0.223902</v>
+        <v>0.225484</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207886</v>
+        <v>0.208831</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249792</v>
+        <v>0.251007</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.240077</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358009</v>
+        <v>0.358186</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227255</v>
+        <v>0.227431</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209254</v>
+        <v>0.210387</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250257</v>
+        <v>0.250902</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239341</v>
+        <v>0.24065</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366745</v>
+        <v>0.367065</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228804</v>
+        <v>0.229605</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211074</v>
+        <v>0.211296</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.249717</v>
+        <v>0.251344</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24053</v>
+        <v>0.241633</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375311</v>
+        <v>0.376277</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231674</v>
+        <v>0.231952</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21249</v>
+        <v>0.212434</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250965</v>
+        <v>0.251595</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24201</v>
+        <v>0.242944</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38574</v>
+        <v>0.38702</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233628</v>
+        <v>0.234651</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214793</v>
+        <v>0.215166</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251752</v>
+        <v>0.251822</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243934</v>
+        <v>0.245373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393883</v>
+        <v>0.394791</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236437</v>
+        <v>0.237997</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21829</v>
+        <v>0.217675</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252332</v>
+        <v>0.253121</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246011</v>
+        <v>0.247051</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405546</v>
+        <v>0.406624</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239817</v>
+        <v>0.240476</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222402</v>
+        <v>0.221995</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254521</v>
+        <v>0.254856</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249125</v>
+        <v>0.249151</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347177</v>
+        <v>0.348687</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244413</v>
+        <v>0.244915</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227499</v>
+        <v>0.229049</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256719</v>
+        <v>0.25765</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254196</v>
+        <v>0.254059</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3512</v>
+        <v>0.352085</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262147</v>
+        <v>0.262884</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250687</v>
+        <v>0.250853</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260667</v>
+        <v>0.261641</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262238</v>
+        <v>0.262901</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356327</v>
+        <v>0.357416</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26383</v>
+        <v>0.264404</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252722</v>
+        <v>0.252489</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285589</v>
+        <v>0.287285</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297043</v>
+        <v>0.30126</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366108</v>
+        <v>0.366977</v>
       </c>
       <c r="E110" t="n">
-        <v>0.265997</v>
+        <v>0.267198</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253514</v>
+        <v>0.254259</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285935</v>
+        <v>0.286535</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297472</v>
+        <v>0.297565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.373984</v>
+        <v>0.374662</v>
       </c>
       <c r="E111" t="n">
-        <v>0.267974</v>
+        <v>0.269124</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255815</v>
+        <v>0.255972</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286208</v>
+        <v>0.286429</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299694</v>
+        <v>0.297987</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381012</v>
+        <v>0.38176</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263853</v>
+        <v>0.264806</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256801</v>
+        <v>0.258011</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286736</v>
+        <v>0.287268</v>
       </c>
       <c r="C113" t="n">
-        <v>0.298988</v>
+        <v>0.299806</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38723</v>
+        <v>0.388261</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264728</v>
+        <v>0.265329</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258623</v>
+        <v>0.259928</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286038</v>
+        <v>0.287197</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301134</v>
+        <v>0.303225</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394753</v>
+        <v>0.395469</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267436</v>
+        <v>0.267959</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261037</v>
+        <v>0.261401</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286785</v>
+        <v>0.286261</v>
       </c>
       <c r="C115" t="n">
-        <v>0.299851</v>
+        <v>0.300688</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406726</v>
+        <v>0.407547</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269955</v>
+        <v>0.270586</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263984</v>
+        <v>0.263986</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286261</v>
+        <v>0.287027</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302022</v>
+        <v>0.302325</v>
       </c>
       <c r="D116" t="n">
-        <v>0.417659</v>
+        <v>0.418585</v>
       </c>
       <c r="E116" t="n">
-        <v>0.27311</v>
+        <v>0.273762</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265884</v>
+        <v>0.267096</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287732</v>
+        <v>0.287975</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302366</v>
+        <v>0.302738</v>
       </c>
       <c r="D117" t="n">
-        <v>0.424252</v>
+        <v>0.425151</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276374</v>
+        <v>0.276899</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269373</v>
+        <v>0.269882</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287004</v>
+        <v>0.287409</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304029</v>
+        <v>0.304321</v>
       </c>
       <c r="D118" t="n">
-        <v>0.434494</v>
+        <v>0.435361</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279707</v>
+        <v>0.280575</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273631</v>
+        <v>0.27388</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287258</v>
+        <v>0.317452</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306266</v>
+        <v>0.336834</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441325</v>
+        <v>0.485656</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283317</v>
+        <v>0.331701</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27831</v>
+        <v>0.310988</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288975</v>
+        <v>0.317686</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306358</v>
+        <v>0.340108</v>
       </c>
       <c r="D120" t="n">
-        <v>0.456527</v>
+        <v>0.500198</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287546</v>
+        <v>0.33694</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284356</v>
+        <v>0.317875</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291749</v>
+        <v>0.317626</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310582</v>
+        <v>0.343353</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374766</v>
+        <v>0.411986</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292373</v>
+        <v>0.342778</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293035</v>
+        <v>0.326937</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292928</v>
+        <v>0.320732</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316502</v>
+        <v>0.34812</v>
       </c>
       <c r="D122" t="n">
-        <v>0.37909</v>
+        <v>0.414954</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297789</v>
+        <v>0.350524</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305585</v>
+        <v>0.339146</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298078</v>
+        <v>0.327587</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323491</v>
+        <v>0.354485</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386739</v>
+        <v>0.424651</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285912</v>
+        <v>0.338971</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283661</v>
+        <v>0.318009</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365714</v>
+        <v>0.407144</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386584</v>
+        <v>0.431011</v>
       </c>
       <c r="D124" t="n">
-        <v>0.393563</v>
+        <v>0.432264</v>
       </c>
       <c r="E124" t="n">
-        <v>0.28802</v>
+        <v>0.340163</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284799</v>
+        <v>0.320652</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366947</v>
+        <v>0.406874</v>
       </c>
       <c r="C125" t="n">
-        <v>0.386448</v>
+        <v>0.431065</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401019</v>
+        <v>0.439806</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290386</v>
+        <v>0.343412</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287006</v>
+        <v>0.322766</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368039</v>
+        <v>0.407089</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387032</v>
+        <v>0.432833</v>
       </c>
       <c r="D126" t="n">
-        <v>0.406979</v>
+        <v>0.446168</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293443</v>
+        <v>0.349287</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289966</v>
+        <v>0.326314</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368839</v>
+        <v>0.406397</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387162</v>
+        <v>0.43309</v>
       </c>
       <c r="D127" t="n">
-        <v>0.416836</v>
+        <v>0.45651</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296484</v>
+        <v>0.353736</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292175</v>
+        <v>0.328926</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367961</v>
+        <v>0.408832</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388779</v>
+        <v>0.43364</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4248</v>
+        <v>0.46458</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299098</v>
+        <v>0.355518</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294956</v>
+        <v>0.332399</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367294</v>
+        <v>0.406262</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389207</v>
+        <v>0.433172</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43289</v>
+        <v>0.473792</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302277</v>
+        <v>0.360386</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297727</v>
+        <v>0.337049</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367853</v>
+        <v>0.406408</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390563</v>
+        <v>0.435263</v>
       </c>
       <c r="D130" t="n">
-        <v>0.441179</v>
+        <v>0.483485</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305582</v>
+        <v>0.366249</v>
       </c>
       <c r="F130" t="n">
-        <v>0.30149</v>
+        <v>0.341242</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366968</v>
+        <v>0.407988</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390905</v>
+        <v>0.435952</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450575</v>
+        <v>0.493972</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309349</v>
+        <v>0.370491</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305945</v>
+        <v>0.344914</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.367194</v>
+        <v>0.407307</v>
       </c>
       <c r="C132" t="n">
-        <v>0.391812</v>
+        <v>0.437371</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459705</v>
+        <v>0.504479</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313418</v>
+        <v>0.374978</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304423</v>
+        <v>0.351728</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3678</v>
+        <v>0.408451</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394</v>
+        <v>0.439124</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47334</v>
+        <v>0.5186809999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318261</v>
+        <v>0.38381</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311059</v>
+        <v>0.359141</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370409</v>
+        <v>0.412129</v>
       </c>
       <c r="C134" t="n">
-        <v>0.396976</v>
+        <v>0.443103</v>
       </c>
       <c r="D134" t="n">
-        <v>0.479849</v>
+        <v>0.526199</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323365</v>
+        <v>0.38589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318466</v>
+        <v>0.368034</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369477</v>
+        <v>0.411682</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399802</v>
+        <v>0.447731</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390567</v>
+        <v>0.428563</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330082</v>
+        <v>0.393263</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329199</v>
+        <v>0.379857</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371162</v>
+        <v>0.412682</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405467</v>
+        <v>0.450513</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39491</v>
+        <v>0.433675</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339113</v>
+        <v>0.406271</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344001</v>
+        <v>0.396779</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375096</v>
+        <v>0.415774</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412447</v>
+        <v>0.459861</v>
       </c>
       <c r="D137" t="n">
-        <v>0.400628</v>
+        <v>0.43998</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310079</v>
+        <v>0.361709</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303777</v>
+        <v>0.345565</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430235</v>
+        <v>0.478265</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443374</v>
+        <v>0.493974</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409041</v>
+        <v>0.449753</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311947</v>
+        <v>0.364122</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305776</v>
+        <v>0.348515</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430913</v>
+        <v>0.478192</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444188</v>
+        <v>0.495022</v>
       </c>
       <c r="D139" t="n">
-        <v>0.417183</v>
+        <v>0.459567</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313967</v>
+        <v>0.365115</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307955</v>
+        <v>0.350775</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431058</v>
+        <v>0.479619</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444158</v>
+        <v>0.495487</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423589</v>
+        <v>0.464851</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316332</v>
+        <v>0.370139</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310451</v>
+        <v>0.353458</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43147</v>
+        <v>0.478835</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445084</v>
+        <v>0.495488</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432597</v>
+        <v>0.475586</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318336</v>
+        <v>0.372094</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313484</v>
+        <v>0.359012</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431461</v>
+        <v>0.480156</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446073</v>
+        <v>0.49722</v>
       </c>
       <c r="D142" t="n">
-        <v>0.436432</v>
+        <v>0.479879</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320464</v>
+        <v>0.371074</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316285</v>
+        <v>0.361655</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431888</v>
+        <v>0.481271</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446672</v>
+        <v>0.498364</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445038</v>
+        <v>0.48903</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322616</v>
+        <v>0.379078</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319626</v>
+        <v>0.365463</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436487</v>
+        <v>0.0423571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0437483</v>
+        <v>0.0435321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.069091</v>
+        <v>0.06833889999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0455948</v>
+        <v>0.0451876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424376</v>
+        <v>0.042867</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0443147</v>
+        <v>0.0442425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0437197</v>
+        <v>0.0439214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.075299</v>
+        <v>0.0748542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0455125</v>
+        <v>0.0453996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0429667</v>
+        <v>0.0432125</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0446092</v>
+        <v>0.0442783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.044065</v>
+        <v>0.0441307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0828446</v>
+        <v>0.0822682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0460213</v>
+        <v>0.0459034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0430063</v>
+        <v>0.0433512</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0448295</v>
+        <v>0.0444819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441498</v>
+        <v>0.0442422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0902922</v>
+        <v>0.08993669999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0455089</v>
+        <v>0.0453733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.043532</v>
+        <v>0.0433617</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.043926</v>
+        <v>0.0430975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0443066</v>
+        <v>0.0439935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0968624</v>
+        <v>0.0965845</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0459288</v>
+        <v>0.0457094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.043841</v>
+        <v>0.0439666</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0455627</v>
+        <v>0.0445677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0444761</v>
+        <v>0.0445426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0617567</v>
+        <v>0.061864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046909</v>
+        <v>0.0466419</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0447129</v>
+        <v>0.0448326</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0442716</v>
+        <v>0.0436492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0449125</v>
+        <v>0.0446191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06369909999999999</v>
+        <v>0.0636673</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483625</v>
+        <v>0.0479994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0461191</v>
+        <v>0.0462045</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0449551</v>
+        <v>0.0441002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0459654</v>
+        <v>0.0454231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06890689999999999</v>
+        <v>0.06868249999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0473748</v>
+        <v>0.0480043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045856</v>
+        <v>0.0445549</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0506276</v>
+        <v>0.0504076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.049917</v>
+        <v>0.0496571</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073713</v>
+        <v>0.07289030000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0476264</v>
+        <v>0.0479232</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0455292</v>
+        <v>0.0447535</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0502152</v>
+        <v>0.0501887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0503525</v>
+        <v>0.0501304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07917449999999999</v>
+        <v>0.07888770000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0477557</v>
+        <v>0.0481703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0457539</v>
+        <v>0.0448988</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0509522</v>
+        <v>0.0503605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0501642</v>
+        <v>0.0501758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0837441</v>
+        <v>0.0834242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0482158</v>
+        <v>0.0486053</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0460638</v>
+        <v>0.0451923</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0507711</v>
+        <v>0.0502943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0500845</v>
+        <v>0.0501338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.089223</v>
+        <v>0.0886035</v>
       </c>
       <c r="E13" t="n">
-        <v>0.048666</v>
+        <v>0.0495616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0461749</v>
+        <v>0.0453729</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0502516</v>
+        <v>0.050767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0502587</v>
+        <v>0.0502363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09451560000000001</v>
+        <v>0.0936705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0489502</v>
+        <v>0.0501161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0465489</v>
+        <v>0.0458283</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506161</v>
+        <v>0.0506419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0503381</v>
+        <v>0.0504207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0990086</v>
+        <v>0.098398</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0493279</v>
+        <v>0.0495348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0469647</v>
+        <v>0.046325</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0509067</v>
+        <v>0.0509423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0503654</v>
+        <v>0.0505468</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103868</v>
+        <v>0.103538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0498238</v>
+        <v>0.0508714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0472614</v>
+        <v>0.0465113</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0508808</v>
+        <v>0.0509402</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0507389</v>
+        <v>0.0509864</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108861</v>
+        <v>0.108643</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0499089</v>
+        <v>0.0506726</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0477345</v>
+        <v>0.0468998</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0513039</v>
+        <v>0.0513906</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0513813</v>
+        <v>0.0514082</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113546</v>
+        <v>0.113585</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0502992</v>
+        <v>0.0518662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0477973</v>
+        <v>0.0471638</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0511123</v>
+        <v>0.0515022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.050844</v>
+        <v>0.0510604</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117761</v>
+        <v>0.118032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0506155</v>
+        <v>0.0512168</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0483277</v>
+        <v>0.0475611</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0513777</v>
+        <v>0.0514334</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0515337</v>
+        <v>0.0514509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12141</v>
+        <v>0.121528</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0511184</v>
+        <v>0.0517938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0491016</v>
+        <v>0.0484035</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516658</v>
+        <v>0.0516921</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0517753</v>
+        <v>0.0514411</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0850963</v>
+        <v>0.0854094</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0522908</v>
+        <v>0.0527011</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0504414</v>
+        <v>0.0501903</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0519836</v>
+        <v>0.0520261</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0523393</v>
+        <v>0.0529386</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0878666</v>
+        <v>0.08798019999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0561251</v>
+        <v>0.056369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0542568</v>
+        <v>0.0544008</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0533696</v>
+        <v>0.0536372</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0541373</v>
+        <v>0.0539758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917444</v>
+        <v>0.0917806</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0536895</v>
+        <v>0.0536819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0499913</v>
+        <v>0.0501433</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0549438</v>
+        <v>0.0548563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564847</v>
+        <v>0.0565929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0948794</v>
+        <v>0.0947977</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0530894</v>
+        <v>0.0534882</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0496813</v>
+        <v>0.0502451</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552232</v>
+        <v>0.0550854</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0567578</v>
+        <v>0.0570292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09846290000000001</v>
+        <v>0.0986293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0535659</v>
+        <v>0.0538378</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0499443</v>
+        <v>0.0505905</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551845</v>
+        <v>0.0551483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0577665</v>
+        <v>0.057668</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102194</v>
+        <v>0.102272</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0539379</v>
+        <v>0.0542114</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0502334</v>
+        <v>0.0508499</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0553862</v>
+        <v>0.0554013</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0574294</v>
+        <v>0.0573754</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106421</v>
+        <v>0.106395</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0544096</v>
+        <v>0.0545321</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0508579</v>
+        <v>0.0510271</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0557985</v>
+        <v>0.0557991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0571973</v>
+        <v>0.0574354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110389</v>
+        <v>0.110396</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0546367</v>
+        <v>0.0548756</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0508337</v>
+        <v>0.0514863</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0557311</v>
+        <v>0.0556398</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0573236</v>
+        <v>0.0575428</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114095</v>
+        <v>0.114238</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0552718</v>
+        <v>0.0552761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0511216</v>
+        <v>0.0516941</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0561449</v>
+        <v>0.0557749</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573823</v>
+        <v>0.0577129</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118333</v>
+        <v>0.118509</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0554394</v>
+        <v>0.0555649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0514133</v>
+        <v>0.0520871</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.056238</v>
+        <v>0.0558109</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0587413</v>
+        <v>0.0577337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122435</v>
+        <v>0.122698</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0558233</v>
+        <v>0.0561089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0518639</v>
+        <v>0.0525509</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0564733</v>
+        <v>0.0560886</v>
       </c>
       <c r="C32" t="n">
-        <v>0.059133</v>
+        <v>0.0581946</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125868</v>
+        <v>0.126002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0562065</v>
+        <v>0.0564523</v>
       </c>
       <c r="F32" t="n">
-        <v>0.052273</v>
+        <v>0.0529562</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0567915</v>
+        <v>0.0564284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.059368</v>
+        <v>0.0583162</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12923</v>
+        <v>0.12944</v>
       </c>
       <c r="E33" t="n">
-        <v>0.056694</v>
+        <v>0.0568739</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0531816</v>
+        <v>0.0533868</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0571015</v>
+        <v>0.0567617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0583383</v>
+        <v>0.0586444</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132412</v>
+        <v>0.132654</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575642</v>
+        <v>0.0577226</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0546462</v>
+        <v>0.0550587</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0568354</v>
+        <v>0.0568144</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0588546</v>
+        <v>0.058742</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0932661</v>
+        <v>0.0931905</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0604831</v>
+        <v>0.0606993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0579302</v>
+        <v>0.0578696</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0583127</v>
+        <v>0.0578369</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0604706</v>
+        <v>0.0603211</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09553680000000001</v>
+        <v>0.0956669</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06709759999999999</v>
+        <v>0.0670712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0646287</v>
+        <v>0.0654124</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605747</v>
+        <v>0.0606163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0631964</v>
+        <v>0.06314599999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09759909999999999</v>
+        <v>0.09756629999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590207</v>
+        <v>0.0585601</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0537589</v>
+        <v>0.054065</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0613027</v>
+        <v>0.0608067</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0635015</v>
+        <v>0.0640739</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100394</v>
+        <v>0.100366</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0573379</v>
+        <v>0.0572925</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0540021</v>
+        <v>0.0543317</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0602892</v>
+        <v>0.0599339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639416</v>
+        <v>0.0646391</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103502</v>
+        <v>0.103322</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0579473</v>
+        <v>0.0580265</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0543189</v>
+        <v>0.054614</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0606641</v>
+        <v>0.0600523</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0640656</v>
+        <v>0.0645387</v>
       </c>
       <c r="D40" t="n">
-        <v>0.10665</v>
+        <v>0.106798</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0589668</v>
+        <v>0.0580739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0546741</v>
+        <v>0.0550102</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0600892</v>
+        <v>0.0597236</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06410399999999999</v>
+        <v>0.0644766</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110238</v>
+        <v>0.110411</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0590458</v>
+        <v>0.0584656</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549037</v>
+        <v>0.0548108</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606491</v>
+        <v>0.060407</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640038</v>
+        <v>0.0645382</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113781</v>
+        <v>0.113925</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0595313</v>
+        <v>0.0589682</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0553424</v>
+        <v>0.0556544</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0608623</v>
+        <v>0.0603435</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0642346</v>
+        <v>0.0643677</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117595</v>
+        <v>0.11768</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598091</v>
+        <v>0.0595638</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0557319</v>
+        <v>0.0560514</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0609248</v>
+        <v>0.0604114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0642677</v>
+        <v>0.0645728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121441</v>
+        <v>0.121435</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0602393</v>
+        <v>0.0597957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0561629</v>
+        <v>0.0564763</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0610995</v>
+        <v>0.060587</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0646192</v>
+        <v>0.06479989999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125315</v>
+        <v>0.125337</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0607252</v>
+        <v>0.0602752</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566595</v>
+        <v>0.0564577</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0613718</v>
+        <v>0.0608709</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06480519999999999</v>
+        <v>0.0652769</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129329</v>
+        <v>0.12935</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0613613</v>
+        <v>0.0615259</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0576928</v>
+        <v>0.057475</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0616371</v>
+        <v>0.0611423</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06522260000000001</v>
+        <v>0.0655787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132573</v>
+        <v>0.132558</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623747</v>
+        <v>0.0620882</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585347</v>
+        <v>0.0590862</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0617643</v>
+        <v>0.0636734</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0658073</v>
+        <v>0.06602710000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135927</v>
+        <v>0.135982</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0645811</v>
+        <v>0.0643528</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612048</v>
+        <v>0.0616674</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0624396</v>
+        <v>0.06287760000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0664839</v>
+        <v>0.0666315</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139012</v>
+        <v>0.139002</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06800630000000001</v>
+        <v>0.06778530000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0651549</v>
+        <v>0.06523329999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0644917</v>
+        <v>0.06473080000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0685106</v>
+        <v>0.0688791</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973757</v>
+        <v>0.0975297</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0728299</v>
+        <v>0.0726912</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07009890000000001</v>
+        <v>0.0700456</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.067326</v>
+        <v>0.0676079</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0720056</v>
+        <v>0.0722203</v>
       </c>
       <c r="D51" t="n">
-        <v>0.099552</v>
+        <v>0.0996286</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0631404</v>
+        <v>0.06321300000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0567017</v>
+        <v>0.0568497</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0720605</v>
+        <v>0.072001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07705480000000001</v>
+        <v>0.07719380000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102027</v>
+        <v>0.102192</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0613079</v>
+        <v>0.0613221</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0570334</v>
+        <v>0.05712</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0676264</v>
+        <v>0.067579</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0710093</v>
+        <v>0.07094449999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105466</v>
+        <v>0.105454</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0616978</v>
+        <v>0.0618018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.057359</v>
+        <v>0.0576652</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.067755</v>
+        <v>0.0676925</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0710271</v>
+        <v>0.0710595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108411</v>
+        <v>0.108514</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0622152</v>
+        <v>0.0623591</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0578561</v>
+        <v>0.0579287</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0672775</v>
+        <v>0.0674602</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0717708</v>
+        <v>0.0711798</v>
       </c>
       <c r="D55" t="n">
-        <v>0.111886</v>
+        <v>0.111838</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0628408</v>
+        <v>0.0628205</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0582806</v>
+        <v>0.0584829</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0675404</v>
+        <v>0.0679062</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715785</v>
+        <v>0.0714294</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115484</v>
+        <v>0.115594</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630303</v>
+        <v>0.063291</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0585908</v>
+        <v>0.0587752</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680055</v>
+        <v>0.068051</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0712758</v>
+        <v>0.0712129</v>
       </c>
       <c r="D57" t="n">
-        <v>0.11954</v>
+        <v>0.119694</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06355230000000001</v>
+        <v>0.0637844</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0591541</v>
+        <v>0.0593609</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0684997</v>
+        <v>0.0678705</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0720977</v>
+        <v>0.0716247</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123111</v>
+        <v>0.123214</v>
       </c>
       <c r="E58" t="n">
-        <v>0.064317</v>
+        <v>0.0645341</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0619626</v>
+        <v>0.059902</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06815740000000001</v>
+        <v>0.06823419999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0724405</v>
+        <v>0.0718381</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127072</v>
+        <v>0.127149</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0649092</v>
+        <v>0.0650959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06259770000000001</v>
+        <v>0.0610717</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0682603</v>
+        <v>0.0688643</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0728678</v>
+        <v>0.0725565</v>
       </c>
       <c r="D60" t="n">
-        <v>0.130923</v>
+        <v>0.131122</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0663464</v>
+        <v>0.0663711</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06409529999999999</v>
+        <v>0.0620574</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06877560000000001</v>
+        <v>0.0686715</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07286810000000001</v>
+        <v>0.0724865</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135365</v>
+        <v>0.134974</v>
       </c>
       <c r="E61" t="n">
-        <v>0.068035</v>
+        <v>0.0678515</v>
       </c>
       <c r="F61" t="n">
-        <v>0.066202</v>
+        <v>0.0641188</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0691051</v>
+        <v>0.0697487</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0739784</v>
+        <v>0.0735595</v>
       </c>
       <c r="D62" t="n">
-        <v>0.139</v>
+        <v>0.138399</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0704056</v>
+        <v>0.0701277</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0688279</v>
+        <v>0.0683594</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07044350000000001</v>
+        <v>0.0706664</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0762019</v>
+        <v>0.0747686</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142552</v>
+        <v>0.141851</v>
       </c>
       <c r="E63" t="n">
-        <v>0.073435</v>
+        <v>0.07312399999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724761</v>
+        <v>0.071649</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07210370000000001</v>
+        <v>0.0724643</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0781864</v>
+        <v>0.07689169999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105294</v>
+        <v>0.104979</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0772118</v>
+        <v>0.0770544</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07741629999999999</v>
+        <v>0.076527</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07487389999999999</v>
+        <v>0.0746646</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0813497</v>
+        <v>0.0812981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107127</v>
+        <v>0.108414</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0835109</v>
+        <v>0.0839121</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08399189999999999</v>
+        <v>0.08441650000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0793451</v>
+        <v>0.0792209</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0865066</v>
+        <v>0.0860549</v>
       </c>
       <c r="D66" t="n">
-        <v>0.111564</v>
+        <v>0.110841</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06552230000000001</v>
+        <v>0.06715989999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0629552</v>
+        <v>0.06304419999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.079822</v>
+        <v>0.0770067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0783026</v>
+        <v>0.0783877</v>
       </c>
       <c r="D67" t="n">
-        <v>0.114848</v>
+        <v>0.115462</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0660236</v>
+        <v>0.0676177</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0633605</v>
+        <v>0.0637144</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0807498</v>
+        <v>0.0773167</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07865659999999999</v>
+        <v>0.078415</v>
       </c>
       <c r="D68" t="n">
-        <v>0.119727</v>
+        <v>0.120296</v>
       </c>
       <c r="E68" t="n">
-        <v>0.066774</v>
+        <v>0.0656538</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0640862</v>
+        <v>0.064614</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0791444</v>
+        <v>0.0769677</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07945530000000001</v>
+        <v>0.0792746</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126067</v>
+        <v>0.125996</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0669719</v>
+        <v>0.0667343</v>
       </c>
       <c r="F69" t="n">
-        <v>0.065402</v>
+        <v>0.0651379</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08034810000000001</v>
+        <v>0.0777635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0797283</v>
+        <v>0.0795136</v>
       </c>
       <c r="D70" t="n">
-        <v>0.130527</v>
+        <v>0.131734</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0678387</v>
+        <v>0.0667725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0662877</v>
+        <v>0.0662769</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808619</v>
+        <v>0.07774440000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.080096</v>
+        <v>0.0799938</v>
       </c>
       <c r="D71" t="n">
-        <v>0.137217</v>
+        <v>0.138294</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0684287</v>
+        <v>0.0673554</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06765400000000001</v>
+        <v>0.06743780000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0809565</v>
+        <v>0.078302</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0812404</v>
+        <v>0.0808789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.14435</v>
+        <v>0.145696</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06917760000000001</v>
+        <v>0.0680627</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0691142</v>
+        <v>0.06884990000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08227420000000001</v>
+        <v>0.0790117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08181769999999999</v>
+        <v>0.0817726</v>
       </c>
       <c r="D73" t="n">
-        <v>0.152274</v>
+        <v>0.153864</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0700292</v>
+        <v>0.0688182</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0707873</v>
+        <v>0.0703946</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0797948</v>
+        <v>0.0791999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0829294</v>
+        <v>0.082417</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160212</v>
+        <v>0.161442</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0707425</v>
+        <v>0.0729098</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0726343</v>
+        <v>0.0730011</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08017589999999999</v>
+        <v>0.07955130000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0844935</v>
+        <v>0.0835239</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1675</v>
+        <v>0.167953</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0721301</v>
+        <v>0.0744985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07548539999999999</v>
+        <v>0.0754654</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0807363</v>
+        <v>0.08014449999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0862605</v>
+        <v>0.085068</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179173</v>
+        <v>0.178637</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0738205</v>
+        <v>0.0740106</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07913729999999999</v>
+        <v>0.07864790000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08124530000000001</v>
+        <v>0.0817392</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08899319999999999</v>
+        <v>0.0879776</v>
       </c>
       <c r="D77" t="n">
-        <v>0.185855</v>
+        <v>0.185648</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07686709999999999</v>
+        <v>0.076973</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0831819</v>
+        <v>0.08282630000000001</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08237269999999999</v>
+        <v>0.0840443</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0908624</v>
+        <v>0.0904978</v>
       </c>
       <c r="D78" t="n">
-        <v>0.18207</v>
+        <v>0.184747</v>
       </c>
       <c r="E78" t="n">
-        <v>0.080292</v>
+        <v>0.08050400000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0882786</v>
+        <v>0.0882447</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08672100000000001</v>
+        <v>0.0844661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0950344</v>
+        <v>0.0938141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.191459</v>
+        <v>0.1938</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0860373</v>
+        <v>0.0862219</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0957528</v>
+        <v>0.09573520000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09066100000000001</v>
+        <v>0.08829190000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100122</v>
+        <v>0.0998937</v>
       </c>
       <c r="D80" t="n">
-        <v>0.199517</v>
+        <v>0.200601</v>
       </c>
       <c r="E80" t="n">
-        <v>0.107143</v>
+        <v>0.112294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.105457</v>
+        <v>0.104485</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180271</v>
+        <v>0.182695</v>
       </c>
       <c r="C81" t="n">
-        <v>0.149543</v>
+        <v>0.149215</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205965</v>
+        <v>0.206235</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10797</v>
+        <v>0.111102</v>
       </c>
       <c r="F81" t="n">
-        <v>0.102484</v>
+        <v>0.109201</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.178934</v>
+        <v>0.181423</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14737</v>
+        <v>0.152929</v>
       </c>
       <c r="D82" t="n">
-        <v>0.216096</v>
+        <v>0.215501</v>
       </c>
       <c r="E82" t="n">
-        <v>0.113384</v>
+        <v>0.113543</v>
       </c>
       <c r="F82" t="n">
-        <v>0.10469</v>
+        <v>0.110452</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179172</v>
+        <v>0.182435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.15019</v>
+        <v>0.151253</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227035</v>
+        <v>0.227183</v>
       </c>
       <c r="E83" t="n">
-        <v>0.115363</v>
+        <v>0.115789</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107517</v>
+        <v>0.108255</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182175</v>
+        <v>0.183045</v>
       </c>
       <c r="C84" t="n">
-        <v>0.151107</v>
+        <v>0.152218</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237483</v>
+        <v>0.236469</v>
       </c>
       <c r="E84" t="n">
-        <v>0.117951</v>
+        <v>0.119284</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108019</v>
+        <v>0.108245</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183546</v>
+        <v>0.184379</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151901</v>
+        <v>0.15309</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245413</v>
+        <v>0.245519</v>
       </c>
       <c r="E85" t="n">
-        <v>0.120225</v>
+        <v>0.122042</v>
       </c>
       <c r="F85" t="n">
-        <v>0.107886</v>
+        <v>0.109718</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.183285</v>
+        <v>0.184753</v>
       </c>
       <c r="C86" t="n">
-        <v>0.151915</v>
+        <v>0.153402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257008</v>
+        <v>0.257247</v>
       </c>
       <c r="E86" t="n">
-        <v>0.122819</v>
+        <v>0.124783</v>
       </c>
       <c r="F86" t="n">
-        <v>0.109393</v>
+        <v>0.111285</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183887</v>
+        <v>0.184733</v>
       </c>
       <c r="C87" t="n">
-        <v>0.152129</v>
+        <v>0.15427</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266866</v>
+        <v>0.267118</v>
       </c>
       <c r="E87" t="n">
-        <v>0.124689</v>
+        <v>0.125501</v>
       </c>
       <c r="F87" t="n">
-        <v>0.111173</v>
+        <v>0.111997</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.184077</v>
+        <v>0.184957</v>
       </c>
       <c r="C88" t="n">
-        <v>0.152824</v>
+        <v>0.154152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275638</v>
+        <v>0.276235</v>
       </c>
       <c r="E88" t="n">
-        <v>0.127552</v>
+        <v>0.128922</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11337</v>
+        <v>0.113921</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.183635</v>
+        <v>0.185242</v>
       </c>
       <c r="C89" t="n">
-        <v>0.153926</v>
+        <v>0.155735</v>
       </c>
       <c r="D89" t="n">
-        <v>0.283443</v>
+        <v>0.284456</v>
       </c>
       <c r="E89" t="n">
-        <v>0.130584</v>
+        <v>0.130114</v>
       </c>
       <c r="F89" t="n">
-        <v>0.11589</v>
+        <v>0.115757</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186446</v>
+        <v>0.187267</v>
       </c>
       <c r="C90" t="n">
-        <v>0.156323</v>
+        <v>0.159036</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294293</v>
+        <v>0.295602</v>
       </c>
       <c r="E90" t="n">
-        <v>0.133027</v>
+        <v>0.13284</v>
       </c>
       <c r="F90" t="n">
-        <v>0.117893</v>
+        <v>0.118204</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188629</v>
+        <v>0.187817</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158917</v>
+        <v>0.158097</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302838</v>
+        <v>0.303505</v>
       </c>
       <c r="E91" t="n">
-        <v>0.136089</v>
+        <v>0.135691</v>
       </c>
       <c r="F91" t="n">
-        <v>0.120963</v>
+        <v>0.12518</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187733</v>
+        <v>0.188017</v>
       </c>
       <c r="C92" t="n">
-        <v>0.160285</v>
+        <v>0.162178</v>
       </c>
       <c r="D92" t="n">
-        <v>0.28732</v>
+        <v>0.287686</v>
       </c>
       <c r="E92" t="n">
-        <v>0.139159</v>
+        <v>0.139033</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127417</v>
+        <v>0.128946</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188639</v>
+        <v>0.18926</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165204</v>
+        <v>0.166821</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294694</v>
+        <v>0.294566</v>
       </c>
       <c r="E93" t="n">
-        <v>0.143183</v>
+        <v>0.146073</v>
       </c>
       <c r="F93" t="n">
-        <v>0.134917</v>
+        <v>0.136452</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190347</v>
+        <v>0.191458</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171021</v>
+        <v>0.171918</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299601</v>
+        <v>0.299713</v>
       </c>
       <c r="E94" t="n">
-        <v>0.213154</v>
+        <v>0.214009</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201473</v>
+        <v>0.202013</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250002</v>
+        <v>0.250054</v>
       </c>
       <c r="C95" t="n">
-        <v>0.237476</v>
+        <v>0.237672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308083</v>
+        <v>0.308389</v>
       </c>
       <c r="E95" t="n">
-        <v>0.214753</v>
+        <v>0.215011</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202291</v>
+        <v>0.2028</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250679</v>
+        <v>0.250103</v>
       </c>
       <c r="C96" t="n">
-        <v>0.237203</v>
+        <v>0.237472</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314961</v>
+        <v>0.315355</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216741</v>
+        <v>0.216603</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203195</v>
+        <v>0.203906</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250377</v>
+        <v>0.250032</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237618</v>
+        <v>0.237768</v>
       </c>
       <c r="D97" t="n">
-        <v>0.322297</v>
+        <v>0.322668</v>
       </c>
       <c r="E97" t="n">
-        <v>0.219146</v>
+        <v>0.219047</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204294</v>
+        <v>0.205204</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250728</v>
+        <v>0.250873</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238033</v>
+        <v>0.238193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333479</v>
+        <v>0.333693</v>
       </c>
       <c r="E98" t="n">
-        <v>0.221497</v>
+        <v>0.220338</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205186</v>
+        <v>0.206003</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.251184</v>
+        <v>0.250552</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238349</v>
+        <v>0.238668</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340801</v>
+        <v>0.340631</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222971</v>
+        <v>0.222639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.206781</v>
+        <v>0.208173</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251044</v>
+        <v>0.250909</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238773</v>
+        <v>0.238885</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346769</v>
+        <v>0.348081</v>
       </c>
       <c r="E100" t="n">
-        <v>0.225484</v>
+        <v>0.225348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.208831</v>
+        <v>0.207834</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251007</v>
+        <v>0.250658</v>
       </c>
       <c r="C101" t="n">
-        <v>0.240077</v>
+        <v>0.240138</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358186</v>
+        <v>0.359539</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227431</v>
+        <v>0.226778</v>
       </c>
       <c r="F101" t="n">
-        <v>0.210387</v>
+        <v>0.209354</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250902</v>
+        <v>0.250603</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24065</v>
+        <v>0.24061</v>
       </c>
       <c r="D102" t="n">
-        <v>0.367065</v>
+        <v>0.36743</v>
       </c>
       <c r="E102" t="n">
-        <v>0.229605</v>
+        <v>0.230038</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211296</v>
+        <v>0.212152</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251344</v>
+        <v>0.251167</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241633</v>
+        <v>0.241199</v>
       </c>
       <c r="D103" t="n">
-        <v>0.376277</v>
+        <v>0.376713</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231952</v>
+        <v>0.232151</v>
       </c>
       <c r="F103" t="n">
-        <v>0.212434</v>
+        <v>0.213014</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.251595</v>
+        <v>0.251752</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242944</v>
+        <v>0.242511</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38702</v>
+        <v>0.387125</v>
       </c>
       <c r="E104" t="n">
-        <v>0.234651</v>
+        <v>0.235236</v>
       </c>
       <c r="F104" t="n">
-        <v>0.215166</v>
+        <v>0.215917</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251822</v>
+        <v>0.252588</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245373</v>
+        <v>0.245033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394791</v>
+        <v>0.395039</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237997</v>
+        <v>0.237373</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217675</v>
+        <v>0.218927</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253121</v>
+        <v>0.253447</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247051</v>
+        <v>0.246891</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406624</v>
+        <v>0.40686</v>
       </c>
       <c r="E106" t="n">
-        <v>0.240476</v>
+        <v>0.240635</v>
       </c>
       <c r="F106" t="n">
-        <v>0.221995</v>
+        <v>0.222778</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254856</v>
+        <v>0.25508</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249151</v>
+        <v>0.249353</v>
       </c>
       <c r="D107" t="n">
-        <v>0.348687</v>
+        <v>0.348036</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244915</v>
+        <v>0.245463</v>
       </c>
       <c r="F107" t="n">
-        <v>0.229049</v>
+        <v>0.229146</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.25765</v>
+        <v>0.257139</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254059</v>
+        <v>0.254736</v>
       </c>
       <c r="D108" t="n">
-        <v>0.352085</v>
+        <v>0.35213</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262884</v>
+        <v>0.262315</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250853</v>
+        <v>0.251128</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261641</v>
+        <v>0.261879</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262901</v>
+        <v>0.263688</v>
       </c>
       <c r="D109" t="n">
-        <v>0.357416</v>
+        <v>0.357244</v>
       </c>
       <c r="E109" t="n">
-        <v>0.264404</v>
+        <v>0.264628</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252489</v>
+        <v>0.252606</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287285</v>
+        <v>0.284803</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30126</v>
+        <v>0.299596</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366977</v>
+        <v>0.366706</v>
       </c>
       <c r="E110" t="n">
-        <v>0.267198</v>
+        <v>0.266674</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254259</v>
+        <v>0.253961</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286535</v>
+        <v>0.286894</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297565</v>
+        <v>0.301777</v>
       </c>
       <c r="D111" t="n">
-        <v>0.374662</v>
+        <v>0.374702</v>
       </c>
       <c r="E111" t="n">
-        <v>0.269124</v>
+        <v>0.269258</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255972</v>
+        <v>0.256253</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286429</v>
+        <v>0.286401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.297987</v>
+        <v>0.299112</v>
       </c>
       <c r="D112" t="n">
-        <v>0.38176</v>
+        <v>0.381644</v>
       </c>
       <c r="E112" t="n">
-        <v>0.264806</v>
+        <v>0.264591</v>
       </c>
       <c r="F112" t="n">
-        <v>0.258011</v>
+        <v>0.257619</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287268</v>
+        <v>0.287048</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299806</v>
+        <v>0.299226</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388261</v>
+        <v>0.388337</v>
       </c>
       <c r="E113" t="n">
-        <v>0.265329</v>
+        <v>0.264709</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259928</v>
+        <v>0.259631</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287197</v>
+        <v>0.287458</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303225</v>
+        <v>0.299385</v>
       </c>
       <c r="D114" t="n">
-        <v>0.395469</v>
+        <v>0.395704</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267959</v>
+        <v>0.267972</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261401</v>
+        <v>0.26166</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286261</v>
+        <v>0.286608</v>
       </c>
       <c r="C115" t="n">
-        <v>0.300688</v>
+        <v>0.301364</v>
       </c>
       <c r="D115" t="n">
-        <v>0.407547</v>
+        <v>0.407601</v>
       </c>
       <c r="E115" t="n">
-        <v>0.270586</v>
+        <v>0.270787</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263986</v>
+        <v>0.263902</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287027</v>
+        <v>0.286901</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302325</v>
+        <v>0.301833</v>
       </c>
       <c r="D116" t="n">
-        <v>0.418585</v>
+        <v>0.418928</v>
       </c>
       <c r="E116" t="n">
-        <v>0.273762</v>
+        <v>0.273584</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267096</v>
+        <v>0.267024</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287975</v>
+        <v>0.287768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302738</v>
+        <v>0.303578</v>
       </c>
       <c r="D117" t="n">
-        <v>0.425151</v>
+        <v>0.425354</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276899</v>
+        <v>0.277117</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269882</v>
+        <v>0.270042</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287409</v>
+        <v>0.287579</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304321</v>
+        <v>0.305414</v>
       </c>
       <c r="D118" t="n">
-        <v>0.435361</v>
+        <v>0.435398</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280575</v>
+        <v>0.28085</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27388</v>
+        <v>0.273517</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.317452</v>
+        <v>0.288727</v>
       </c>
       <c r="C119" t="n">
-        <v>0.336834</v>
+        <v>0.307332</v>
       </c>
       <c r="D119" t="n">
-        <v>0.485656</v>
+        <v>0.442656</v>
       </c>
       <c r="E119" t="n">
-        <v>0.331701</v>
+        <v>0.283833</v>
       </c>
       <c r="F119" t="n">
-        <v>0.310988</v>
+        <v>0.279294</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.317686</v>
+        <v>0.289955</v>
       </c>
       <c r="C120" t="n">
-        <v>0.340108</v>
+        <v>0.308474</v>
       </c>
       <c r="D120" t="n">
-        <v>0.500198</v>
+        <v>0.458339</v>
       </c>
       <c r="E120" t="n">
-        <v>0.33694</v>
+        <v>0.287984</v>
       </c>
       <c r="F120" t="n">
-        <v>0.317875</v>
+        <v>0.28444</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317626</v>
+        <v>0.290833</v>
       </c>
       <c r="C121" t="n">
-        <v>0.343353</v>
+        <v>0.312056</v>
       </c>
       <c r="D121" t="n">
-        <v>0.411986</v>
+        <v>0.37615</v>
       </c>
       <c r="E121" t="n">
-        <v>0.342778</v>
+        <v>0.292666</v>
       </c>
       <c r="F121" t="n">
-        <v>0.326937</v>
+        <v>0.293112</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.320732</v>
+        <v>0.295622</v>
       </c>
       <c r="C122" t="n">
-        <v>0.34812</v>
+        <v>0.316892</v>
       </c>
       <c r="D122" t="n">
-        <v>0.414954</v>
+        <v>0.379837</v>
       </c>
       <c r="E122" t="n">
-        <v>0.350524</v>
+        <v>0.298908</v>
       </c>
       <c r="F122" t="n">
-        <v>0.339146</v>
+        <v>0.304667</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.327587</v>
+        <v>0.298406</v>
       </c>
       <c r="C123" t="n">
-        <v>0.354485</v>
+        <v>0.323242</v>
       </c>
       <c r="D123" t="n">
-        <v>0.424651</v>
+        <v>0.387844</v>
       </c>
       <c r="E123" t="n">
-        <v>0.338971</v>
+        <v>0.28654</v>
       </c>
       <c r="F123" t="n">
-        <v>0.318009</v>
+        <v>0.284673</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.407144</v>
+        <v>0.366562</v>
       </c>
       <c r="C124" t="n">
-        <v>0.431011</v>
+        <v>0.387</v>
       </c>
       <c r="D124" t="n">
-        <v>0.432264</v>
+        <v>0.394645</v>
       </c>
       <c r="E124" t="n">
-        <v>0.340163</v>
+        <v>0.288825</v>
       </c>
       <c r="F124" t="n">
-        <v>0.320652</v>
+        <v>0.285979</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.406874</v>
+        <v>0.367575</v>
       </c>
       <c r="C125" t="n">
-        <v>0.431065</v>
+        <v>0.388593</v>
       </c>
       <c r="D125" t="n">
-        <v>0.439806</v>
+        <v>0.401761</v>
       </c>
       <c r="E125" t="n">
-        <v>0.343412</v>
+        <v>0.291563</v>
       </c>
       <c r="F125" t="n">
-        <v>0.322766</v>
+        <v>0.287568</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.407089</v>
+        <v>0.367007</v>
       </c>
       <c r="C126" t="n">
-        <v>0.432833</v>
+        <v>0.38823</v>
       </c>
       <c r="D126" t="n">
-        <v>0.446168</v>
+        <v>0.40819</v>
       </c>
       <c r="E126" t="n">
-        <v>0.349287</v>
+        <v>0.294074</v>
       </c>
       <c r="F126" t="n">
-        <v>0.326314</v>
+        <v>0.29018</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.406397</v>
+        <v>0.366419</v>
       </c>
       <c r="C127" t="n">
-        <v>0.43309</v>
+        <v>0.389674</v>
       </c>
       <c r="D127" t="n">
-        <v>0.45651</v>
+        <v>0.417583</v>
       </c>
       <c r="E127" t="n">
-        <v>0.353736</v>
+        <v>0.297258</v>
       </c>
       <c r="F127" t="n">
-        <v>0.328926</v>
+        <v>0.292782</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.408832</v>
+        <v>0.368915</v>
       </c>
       <c r="C128" t="n">
-        <v>0.43364</v>
+        <v>0.390006</v>
       </c>
       <c r="D128" t="n">
-        <v>0.46458</v>
+        <v>0.425654</v>
       </c>
       <c r="E128" t="n">
-        <v>0.355518</v>
+        <v>0.299742</v>
       </c>
       <c r="F128" t="n">
-        <v>0.332399</v>
+        <v>0.294857</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.406262</v>
+        <v>0.367504</v>
       </c>
       <c r="C129" t="n">
-        <v>0.433172</v>
+        <v>0.389744</v>
       </c>
       <c r="D129" t="n">
-        <v>0.473792</v>
+        <v>0.433841</v>
       </c>
       <c r="E129" t="n">
-        <v>0.360386</v>
+        <v>0.303021</v>
       </c>
       <c r="F129" t="n">
-        <v>0.337049</v>
+        <v>0.298688</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.406408</v>
+        <v>0.367135</v>
       </c>
       <c r="C130" t="n">
-        <v>0.435263</v>
+        <v>0.392794</v>
       </c>
       <c r="D130" t="n">
-        <v>0.483485</v>
+        <v>0.442338</v>
       </c>
       <c r="E130" t="n">
-        <v>0.366249</v>
+        <v>0.306289</v>
       </c>
       <c r="F130" t="n">
-        <v>0.341242</v>
+        <v>0.30265</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.407988</v>
+        <v>0.367957</v>
       </c>
       <c r="C131" t="n">
-        <v>0.435952</v>
+        <v>0.392533</v>
       </c>
       <c r="D131" t="n">
-        <v>0.493972</v>
+        <v>0.45129</v>
       </c>
       <c r="E131" t="n">
-        <v>0.370491</v>
+        <v>0.310027</v>
       </c>
       <c r="F131" t="n">
-        <v>0.344914</v>
+        <v>0.306567</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.407307</v>
+        <v>0.367716</v>
       </c>
       <c r="C132" t="n">
-        <v>0.437371</v>
+        <v>0.39278</v>
       </c>
       <c r="D132" t="n">
-        <v>0.504479</v>
+        <v>0.461048</v>
       </c>
       <c r="E132" t="n">
-        <v>0.374978</v>
+        <v>0.313751</v>
       </c>
       <c r="F132" t="n">
-        <v>0.351728</v>
+        <v>0.30552</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.408451</v>
+        <v>0.369796</v>
       </c>
       <c r="C133" t="n">
-        <v>0.439124</v>
+        <v>0.395108</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5186809999999999</v>
+        <v>0.474921</v>
       </c>
       <c r="E133" t="n">
-        <v>0.38381</v>
+        <v>0.319113</v>
       </c>
       <c r="F133" t="n">
-        <v>0.359141</v>
+        <v>0.311698</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.412129</v>
+        <v>0.368163</v>
       </c>
       <c r="C134" t="n">
-        <v>0.443103</v>
+        <v>0.397016</v>
       </c>
       <c r="D134" t="n">
-        <v>0.526199</v>
+        <v>0.48159</v>
       </c>
       <c r="E134" t="n">
-        <v>0.38589</v>
+        <v>0.32422</v>
       </c>
       <c r="F134" t="n">
-        <v>0.368034</v>
+        <v>0.319889</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.411682</v>
+        <v>0.370924</v>
       </c>
       <c r="C135" t="n">
-        <v>0.447731</v>
+        <v>0.402259</v>
       </c>
       <c r="D135" t="n">
-        <v>0.428563</v>
+        <v>0.391429</v>
       </c>
       <c r="E135" t="n">
-        <v>0.393263</v>
+        <v>0.330995</v>
       </c>
       <c r="F135" t="n">
-        <v>0.379857</v>
+        <v>0.330242</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.412682</v>
+        <v>0.373301</v>
       </c>
       <c r="C136" t="n">
-        <v>0.450513</v>
+        <v>0.406953</v>
       </c>
       <c r="D136" t="n">
-        <v>0.433675</v>
+        <v>0.395691</v>
       </c>
       <c r="E136" t="n">
-        <v>0.406271</v>
+        <v>0.340062</v>
       </c>
       <c r="F136" t="n">
-        <v>0.396779</v>
+        <v>0.344873</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.415774</v>
+        <v>0.37625</v>
       </c>
       <c r="C137" t="n">
-        <v>0.459861</v>
+        <v>0.413613</v>
       </c>
       <c r="D137" t="n">
-        <v>0.43998</v>
+        <v>0.401478</v>
       </c>
       <c r="E137" t="n">
-        <v>0.361709</v>
+        <v>0.309761</v>
       </c>
       <c r="F137" t="n">
-        <v>0.345565</v>
+        <v>0.303788</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.478265</v>
+        <v>0.430661</v>
       </c>
       <c r="C138" t="n">
-        <v>0.493974</v>
+        <v>0.443137</v>
       </c>
       <c r="D138" t="n">
-        <v>0.449753</v>
+        <v>0.409863</v>
       </c>
       <c r="E138" t="n">
-        <v>0.364122</v>
+        <v>0.311834</v>
       </c>
       <c r="F138" t="n">
-        <v>0.348515</v>
+        <v>0.306011</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.478192</v>
+        <v>0.430869</v>
       </c>
       <c r="C139" t="n">
-        <v>0.495022</v>
+        <v>0.443504</v>
       </c>
       <c r="D139" t="n">
-        <v>0.459567</v>
+        <v>0.4177</v>
       </c>
       <c r="E139" t="n">
-        <v>0.365115</v>
+        <v>0.314199</v>
       </c>
       <c r="F139" t="n">
-        <v>0.350775</v>
+        <v>0.307691</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.479619</v>
+        <v>0.429791</v>
       </c>
       <c r="C140" t="n">
-        <v>0.495487</v>
+        <v>0.444679</v>
       </c>
       <c r="D140" t="n">
-        <v>0.464851</v>
+        <v>0.424057</v>
       </c>
       <c r="E140" t="n">
-        <v>0.370139</v>
+        <v>0.316237</v>
       </c>
       <c r="F140" t="n">
-        <v>0.353458</v>
+        <v>0.311038</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.478835</v>
+        <v>0.429802</v>
       </c>
       <c r="C141" t="n">
-        <v>0.495488</v>
+        <v>0.445239</v>
       </c>
       <c r="D141" t="n">
-        <v>0.475586</v>
+        <v>0.433214</v>
       </c>
       <c r="E141" t="n">
-        <v>0.372094</v>
+        <v>0.318581</v>
       </c>
       <c r="F141" t="n">
-        <v>0.359012</v>
+        <v>0.312997</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.480156</v>
+        <v>0.431439</v>
       </c>
       <c r="C142" t="n">
-        <v>0.49722</v>
+        <v>0.445994</v>
       </c>
       <c r="D142" t="n">
-        <v>0.479879</v>
+        <v>0.436527</v>
       </c>
       <c r="E142" t="n">
-        <v>0.371074</v>
+        <v>0.319629</v>
       </c>
       <c r="F142" t="n">
-        <v>0.361655</v>
+        <v>0.316372</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.481271</v>
+        <v>0.431229</v>
       </c>
       <c r="C143" t="n">
-        <v>0.498364</v>
+        <v>0.446953</v>
       </c>
       <c r="D143" t="n">
-        <v>0.48903</v>
+        <v>0.445251</v>
       </c>
       <c r="E143" t="n">
-        <v>0.379078</v>
+        <v>0.322024</v>
       </c>
       <c r="F143" t="n">
-        <v>0.365463</v>
+        <v>0.319395</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0442261</v>
+        <v>0.0436712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433395</v>
+        <v>0.044069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674421</v>
+        <v>0.0688657</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044811</v>
+        <v>0.0420859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424842</v>
+        <v>0.0423512</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428765</v>
+        <v>0.0436431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439113</v>
+        <v>0.044874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745835</v>
+        <v>0.0748988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451219</v>
+        <v>0.0421587</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428918</v>
+        <v>0.0424749</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430063</v>
+        <v>0.0439667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0441392</v>
+        <v>0.0447787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.082624</v>
+        <v>0.0834688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.045062</v>
+        <v>0.043266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433083</v>
+        <v>0.0428781</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432025</v>
+        <v>0.0438151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442308</v>
+        <v>0.0439727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898258</v>
+        <v>0.0922926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0456372</v>
+        <v>0.0441161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0435502</v>
+        <v>0.0433951</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443379</v>
+        <v>0.0442217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0445874</v>
+        <v>0.0445584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0971081</v>
+        <v>0.09847450000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0464122</v>
+        <v>0.0447756</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0441455</v>
+        <v>0.045051</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043242</v>
+        <v>0.0441575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448458</v>
+        <v>0.0446774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0615178</v>
+        <v>0.0619581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046965</v>
+        <v>0.0443574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0449868</v>
+        <v>0.0444831</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0448323</v>
+        <v>0.0447776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451777</v>
+        <v>0.0455158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0633457</v>
+        <v>0.0628732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483883</v>
+        <v>0.0437019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0466535</v>
+        <v>0.0449238</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0453542</v>
+        <v>0.0456463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460115</v>
+        <v>0.0464869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682676</v>
+        <v>0.0681345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463742</v>
+        <v>0.0440277</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445529</v>
+        <v>0.044722</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501731</v>
+        <v>0.0495931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.048742</v>
+        <v>0.0491545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073044</v>
+        <v>0.0733366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0468686</v>
+        <v>0.0443149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0445993</v>
+        <v>0.044959</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501373</v>
+        <v>0.0500714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489502</v>
+        <v>0.0491915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07894329999999999</v>
+        <v>0.0787429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0472224</v>
+        <v>0.044702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044705</v>
+        <v>0.0450018</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502896</v>
+        <v>0.0499213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493674</v>
+        <v>0.0491833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840211</v>
+        <v>0.0832976</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0474163</v>
+        <v>0.0449902</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0449327</v>
+        <v>0.0452517</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0501174</v>
+        <v>0.0500115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495586</v>
+        <v>0.0495096</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0885949</v>
+        <v>0.08818769999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0480089</v>
+        <v>0.0454479</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0452642</v>
+        <v>0.0456046</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500999</v>
+        <v>0.0502482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494627</v>
+        <v>0.0495854</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0937648</v>
+        <v>0.0936531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485301</v>
+        <v>0.0465217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0456506</v>
+        <v>0.045893</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506307</v>
+        <v>0.0506395</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0497843</v>
+        <v>0.0500213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09862269999999999</v>
+        <v>0.09869310000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048384</v>
+        <v>0.0460284</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0460584</v>
+        <v>0.0462795</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507079</v>
+        <v>0.0503945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05004</v>
+        <v>0.0499228</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103508</v>
+        <v>0.103397</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492264</v>
+        <v>0.0472009</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0463861</v>
+        <v>0.0464553</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0507012</v>
+        <v>0.0508772</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503345</v>
+        <v>0.05028</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108515</v>
+        <v>0.10826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0494649</v>
+        <v>0.0476667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466076</v>
+        <v>0.0467708</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050956</v>
+        <v>0.0509612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507402</v>
+        <v>0.0506603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113271</v>
+        <v>0.113081</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498593</v>
+        <v>0.047524</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468609</v>
+        <v>0.0473954</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0510159</v>
+        <v>0.0511666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504641</v>
+        <v>0.0510688</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117907</v>
+        <v>0.117866</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0501626</v>
+        <v>0.0472176</v>
       </c>
       <c r="F19" t="n">
-        <v>0.047385</v>
+        <v>0.0483379</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514044</v>
+        <v>0.051579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508687</v>
+        <v>0.0510881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121464</v>
+        <v>0.120986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0509812</v>
+        <v>0.0504634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0483732</v>
+        <v>0.0502282</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516981</v>
+        <v>0.0520124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0513741</v>
+        <v>0.0514448</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849673</v>
+        <v>0.0848343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0521421</v>
+        <v>0.0487657</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494408</v>
+        <v>0.0483979</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521486</v>
+        <v>0.0524309</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522376</v>
+        <v>0.0521633</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08790530000000001</v>
+        <v>0.08795310000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0559189</v>
+        <v>0.04855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0536981</v>
+        <v>0.0486817</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534345</v>
+        <v>0.0540939</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0536667</v>
+        <v>0.0533229</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917898</v>
+        <v>0.09193170000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0537226</v>
+        <v>0.0502055</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0495406</v>
+        <v>0.0489934</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548668</v>
+        <v>0.054905</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564583</v>
+        <v>0.0564215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09493600000000001</v>
+        <v>0.0949168</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0529843</v>
+        <v>0.0504209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498194</v>
+        <v>0.049603</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552181</v>
+        <v>0.0552408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0565135</v>
+        <v>0.0567343</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984009</v>
+        <v>0.098603</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533758</v>
+        <v>0.050859</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500337</v>
+        <v>0.0496226</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551953</v>
+        <v>0.0550058</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570501</v>
+        <v>0.0569338</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102276</v>
+        <v>0.102257</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537835</v>
+        <v>0.0500643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0503463</v>
+        <v>0.0497641</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554485</v>
+        <v>0.0554198</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0570172</v>
+        <v>0.0567581</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106325</v>
+        <v>0.10651</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543934</v>
+        <v>0.0501434</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510282</v>
+        <v>0.0504441</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556372</v>
+        <v>0.0551087</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0570992</v>
+        <v>0.0569153</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110103</v>
+        <v>0.110306</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0547922</v>
+        <v>0.0519748</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0509818</v>
+        <v>0.0504857</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555719</v>
+        <v>0.0552923</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0570917</v>
+        <v>0.0572293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114166</v>
+        <v>0.114175</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054725</v>
+        <v>0.0522137</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514247</v>
+        <v>0.0507753</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055618</v>
+        <v>0.0554744</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573126</v>
+        <v>0.0573723</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118266</v>
+        <v>0.118254</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552535</v>
+        <v>0.0518422</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0515957</v>
+        <v>0.051047</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557051</v>
+        <v>0.0568345</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577077</v>
+        <v>0.0575189</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122379</v>
+        <v>0.122473</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557179</v>
+        <v>0.0520251</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0519822</v>
+        <v>0.0518993</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558719</v>
+        <v>0.0560948</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0581252</v>
+        <v>0.0576628</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125829</v>
+        <v>0.12577</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559483</v>
+        <v>0.0528406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0523521</v>
+        <v>0.0527151</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562297</v>
+        <v>0.0564584</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0581537</v>
+        <v>0.0582296</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12919</v>
+        <v>0.129344</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566734</v>
+        <v>0.0542723</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0533134</v>
+        <v>0.0545326</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566325</v>
+        <v>0.056686</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582222</v>
+        <v>0.0584582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132401</v>
+        <v>0.132553</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575296</v>
+        <v>0.0581015</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0544527</v>
+        <v>0.0593365</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567244</v>
+        <v>0.0573223</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585812</v>
+        <v>0.0590136</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931403</v>
+        <v>0.0933046</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606524</v>
+        <v>0.0660998</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0581598</v>
+        <v>0.0682246</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579338</v>
+        <v>0.0579123</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0601447</v>
+        <v>0.0599028</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955546</v>
+        <v>0.09554020000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0664445</v>
+        <v>0.0556873</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06445969999999999</v>
+        <v>0.0529152</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605106</v>
+        <v>0.0607072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06313680000000001</v>
+        <v>0.0629281</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0976178</v>
+        <v>0.0977726</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590445</v>
+        <v>0.0544051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0535276</v>
+        <v>0.0531821</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061463</v>
+        <v>0.0606165</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636135</v>
+        <v>0.0631299</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100446</v>
+        <v>0.100414</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0574488</v>
+        <v>0.0537626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0538241</v>
+        <v>0.0534182</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.060147</v>
+        <v>0.0601241</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639787</v>
+        <v>0.06327380000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103364</v>
+        <v>0.103365</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0578294</v>
+        <v>0.0540732</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0540959</v>
+        <v>0.0536534</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603414</v>
+        <v>0.0620787</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06405760000000001</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106625</v>
+        <v>0.106637</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0585477</v>
+        <v>0.0554844</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0544441</v>
+        <v>0.0541846</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605495</v>
+        <v>0.0602732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0642286</v>
+        <v>0.0633729</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11031</v>
+        <v>0.110303</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591438</v>
+        <v>0.0547649</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549241</v>
+        <v>0.0544545</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606603</v>
+        <v>0.0607828</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640911</v>
+        <v>0.0633951</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113872</v>
+        <v>0.113881</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0597062</v>
+        <v>0.0555549</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551815</v>
+        <v>0.054987</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607052</v>
+        <v>0.0602355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06432640000000001</v>
+        <v>0.0639344</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117738</v>
+        <v>0.117514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598578</v>
+        <v>0.0570906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0555353</v>
+        <v>0.0554049</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608055</v>
+        <v>0.0602275</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0645878</v>
+        <v>0.06395339999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121387</v>
+        <v>0.121497</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0606236</v>
+        <v>0.0579138</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0559141</v>
+        <v>0.0558985</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061007</v>
+        <v>0.060721</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0647992</v>
+        <v>0.0642324</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125391</v>
+        <v>0.125197</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0612943</v>
+        <v>0.0577316</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566346</v>
+        <v>0.0569421</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061313</v>
+        <v>0.0607578</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0651297</v>
+        <v>0.0646544</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129279</v>
+        <v>0.129304</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0612577</v>
+        <v>0.06026</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574873</v>
+        <v>0.0588768</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061551</v>
+        <v>0.0610577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0655097</v>
+        <v>0.0649161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132363</v>
+        <v>0.132518</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623429</v>
+        <v>0.0623858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585498</v>
+        <v>0.0618436</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061578</v>
+        <v>0.0615847</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.0654357</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13586</v>
+        <v>0.135934</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06452040000000001</v>
+        <v>0.06644419999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612556</v>
+        <v>0.0662773</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621648</v>
+        <v>0.06280819999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0658374</v>
+        <v>0.066464</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139016</v>
+        <v>0.139074</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679212</v>
+        <v>0.0718061</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0646786</v>
+        <v>0.0726888</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645255</v>
+        <v>0.0634532</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684633</v>
+        <v>0.0682063</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973888</v>
+        <v>0.0974299</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0727101</v>
+        <v>0.0603908</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0700505</v>
+        <v>0.0563544</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0677104</v>
+        <v>0.0674989</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.071881</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09968929999999999</v>
+        <v>0.09957390000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0617937</v>
+        <v>0.0581649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0565977</v>
+        <v>0.0567205</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.072035</v>
+        <v>0.0724142</v>
       </c>
       <c r="C52" t="n">
-        <v>0.077149</v>
+        <v>0.0778625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102056</v>
+        <v>0.101897</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611771</v>
+        <v>0.0586001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569705</v>
+        <v>0.0565576</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0679921</v>
       </c>
       <c r="C53" t="n">
         <v>0.0711485</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105467</v>
+        <v>0.105257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618582</v>
+        <v>0.0581021</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574304</v>
+        <v>0.0570238</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673551</v>
+        <v>0.067424</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711507</v>
+        <v>0.07091210000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108418</v>
+        <v>0.10826</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621909</v>
+        <v>0.0595354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579579</v>
+        <v>0.0574624</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678165</v>
+        <v>0.0678467</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07125620000000001</v>
+        <v>0.071173</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11183</v>
+        <v>0.111788</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626467</v>
+        <v>0.0599028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0583696</v>
+        <v>0.0595297</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676182</v>
+        <v>0.068178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715219</v>
+        <v>0.0712149</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115461</v>
+        <v>0.115616</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630502</v>
+        <v>0.0606531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058718</v>
+        <v>0.060194</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679245</v>
+        <v>0.06772830000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0714403</v>
+        <v>0.0714861</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119594</v>
+        <v>0.119657</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635468</v>
+        <v>0.0611776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0592846</v>
+        <v>0.0611632</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06835529999999999</v>
+        <v>0.0679423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0715956</v>
+        <v>0.0715537</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123225</v>
+        <v>0.123383</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06438000000000001</v>
+        <v>0.0631303</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0612002</v>
+        <v>0.0618151</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06824089999999999</v>
+        <v>0.06799620000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0720398</v>
+        <v>0.0726811</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127117</v>
+        <v>0.127149</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06493309999999999</v>
+        <v>0.0638436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0621119</v>
+        <v>0.06341049999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684545</v>
+        <v>0.0683463</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07275760000000001</v>
+        <v>0.0732541</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131041</v>
+        <v>0.131149</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0662929</v>
+        <v>0.0653055</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638517</v>
+        <v>0.0656446</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06869840000000001</v>
+        <v>0.0688732</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0735697</v>
+        <v>0.07336189999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135099</v>
+        <v>0.135142</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06792570000000001</v>
+        <v>0.0671354</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0657039</v>
+        <v>0.0689681</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956900000000001</v>
+        <v>0.06904150000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0749084</v>
+        <v>0.074249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138501</v>
+        <v>0.138558</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0701854</v>
+        <v>0.0713428</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0686645</v>
+        <v>0.0732918</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704283</v>
+        <v>0.06981469999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07568709999999999</v>
+        <v>0.0751932</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142199</v>
+        <v>0.142336</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731004</v>
+        <v>0.07637149999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724373</v>
+        <v>0.07898760000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720678</v>
+        <v>0.0724639</v>
       </c>
       <c r="C64" t="n">
-        <v>0.077707</v>
+        <v>0.07829510000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105271</v>
+        <v>0.104797</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0767965</v>
+        <v>0.0605346</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07700600000000001</v>
+        <v>0.061703</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747599</v>
+        <v>0.07491</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08154210000000001</v>
+        <v>0.08150549999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109339</v>
+        <v>0.107285</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834685</v>
+        <v>0.0606963</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0841364</v>
+        <v>0.062229</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07876279999999999</v>
+        <v>0.0791341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0860635</v>
+        <v>0.0866094</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113168</v>
+        <v>0.111587</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0654932</v>
+        <v>0.0611274</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635366</v>
+        <v>0.06261750000000001</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0806291</v>
+        <v>0.07685740000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790433</v>
+        <v>0.0788196</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117383</v>
+        <v>0.116396</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0658498</v>
+        <v>0.0615422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06349390000000001</v>
+        <v>0.0635526</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817252</v>
+        <v>0.07897469999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0788948</v>
+        <v>0.0796922</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121468</v>
+        <v>0.121044</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0663763</v>
+        <v>0.0618156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06469179999999999</v>
+        <v>0.06447120000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0807778</v>
+        <v>0.0777004</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802451</v>
+        <v>0.080258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127426</v>
+        <v>0.127655</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0665089</v>
+        <v>0.063498</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0658255</v>
+        <v>0.0657775</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0812206</v>
+        <v>0.080055</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0798971</v>
+        <v>0.0808767</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133366</v>
+        <v>0.132892</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669299</v>
+        <v>0.0641033</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668377</v>
+        <v>0.0665951</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808204</v>
+        <v>0.0801859</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08044030000000001</v>
+        <v>0.0813271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.140357</v>
+        <v>0.138758</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0680009</v>
+        <v>0.06729159999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0675308</v>
+        <v>0.0682243</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0810881</v>
+        <v>0.0805637</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815232</v>
+        <v>0.08219990000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147978</v>
+        <v>0.147103</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0687173</v>
+        <v>0.0684013</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0688807</v>
+        <v>0.0701652</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812137</v>
+        <v>0.0787963</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08229210000000001</v>
+        <v>0.08290459999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156211</v>
+        <v>0.153398</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0696736</v>
+        <v>0.0697294</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705572</v>
+        <v>0.0724731</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08283219999999999</v>
+        <v>0.08097219999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0832642</v>
+        <v>0.0836773</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163893</v>
+        <v>0.161167</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07122439999999999</v>
+        <v>0.06926889999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730147</v>
+        <v>0.07507079999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834811</v>
+        <v>0.081369</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0845571</v>
+        <v>0.08386780000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170038</v>
+        <v>0.170955</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0730475</v>
+        <v>0.07145550000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07569339999999999</v>
+        <v>0.0779292</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0840316</v>
+        <v>0.0824816</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858091</v>
+        <v>0.08617809999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179615</v>
+        <v>0.178233</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0750516</v>
+        <v>0.0749421</v>
       </c>
       <c r="F76" t="n">
-        <v>0.078754</v>
+        <v>0.0828207</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08393879999999999</v>
+        <v>0.08336780000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0878895</v>
+        <v>0.08788509999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186648</v>
+        <v>0.190141</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0767034</v>
+        <v>0.0788872</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08268540000000001</v>
+        <v>0.0890775</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592329999999999</v>
+        <v>0.0841467</v>
       </c>
       <c r="C78" t="n">
-        <v>0.090882</v>
+        <v>0.0911564</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184715</v>
+        <v>0.184671</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0814744</v>
+        <v>0.0862581</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08807189999999999</v>
+        <v>0.098269</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0889548</v>
+        <v>0.08758929999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.0943879</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192422</v>
+        <v>0.193146</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08723599999999999</v>
+        <v>0.0994573</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0958498</v>
+        <v>0.100978</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0916088</v>
+        <v>0.0901922</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100669</v>
+        <v>0.100406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201096</v>
+        <v>0.199236</v>
       </c>
       <c r="E80" t="n">
-        <v>0.112138</v>
+        <v>0.109445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103538</v>
+        <v>0.101825</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180858</v>
+        <v>0.183344</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148122</v>
+        <v>0.152023</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20553</v>
+        <v>0.205844</v>
       </c>
       <c r="E81" t="n">
-        <v>0.116196</v>
+        <v>0.111096</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104344</v>
+        <v>0.102638</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183018</v>
+        <v>0.183468</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149595</v>
+        <v>0.152311</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215659</v>
+        <v>0.217271</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118768</v>
+        <v>0.105394</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106831</v>
+        <v>0.103365</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182621</v>
+        <v>0.184042</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150161</v>
+        <v>0.152772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227367</v>
+        <v>0.227239</v>
       </c>
       <c r="E83" t="n">
-        <v>0.119456</v>
+        <v>0.107654</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107662</v>
+        <v>0.104215</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183463</v>
+        <v>0.184925</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150971</v>
+        <v>0.153438</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237111</v>
+        <v>0.239448</v>
       </c>
       <c r="E84" t="n">
-        <v>0.121166</v>
+        <v>0.109778</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108529</v>
+        <v>0.105452</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18434</v>
+        <v>0.187959</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151937</v>
+        <v>0.154173</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24572</v>
+        <v>0.246217</v>
       </c>
       <c r="E85" t="n">
-        <v>0.123349</v>
+        <v>0.117997</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111698</v>
+        <v>0.106993</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184418</v>
+        <v>0.18575</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152422</v>
+        <v>0.155051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25749</v>
+        <v>0.255645</v>
       </c>
       <c r="E86" t="n">
-        <v>0.124949</v>
+        <v>0.119774</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113112</v>
+        <v>0.108089</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183416</v>
+        <v>0.186298</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15365</v>
+        <v>0.156014</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267129</v>
+        <v>0.267462</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123333</v>
+        <v>0.118271</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112091</v>
+        <v>0.11089</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183817</v>
+        <v>0.185743</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153242</v>
+        <v>0.154452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275315</v>
+        <v>0.277854</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12801</v>
+        <v>0.118107</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113268</v>
+        <v>0.110698</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184445</v>
+        <v>0.186535</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154406</v>
+        <v>0.156388</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282332</v>
+        <v>0.283064</v>
       </c>
       <c r="E89" t="n">
-        <v>0.128448</v>
+        <v>0.125397</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115878</v>
+        <v>0.113971</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184638</v>
+        <v>0.186959</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.157638</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294438</v>
+        <v>0.292538</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131486</v>
+        <v>0.128293</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118946</v>
+        <v>0.118371</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186529</v>
+        <v>0.189669</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157982</v>
+        <v>0.159497</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302141</v>
+        <v>0.305992</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133313</v>
+        <v>0.131952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216</v>
+        <v>0.124807</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187038</v>
+        <v>0.189264</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161603</v>
+        <v>0.161681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.286777</v>
+        <v>0.284593</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137441</v>
+        <v>0.132698</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128664</v>
+        <v>0.132874</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188371</v>
+        <v>0.190639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165988</v>
+        <v>0.165596</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29353</v>
+        <v>0.294518</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142467</v>
+        <v>0.210073</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13495</v>
+        <v>0.196943</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190631</v>
+        <v>0.192788</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171302</v>
+        <v>0.171123</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298656</v>
+        <v>0.298554</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212319</v>
+        <v>0.211694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201064</v>
+        <v>0.197837</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24915</v>
+        <v>0.250403</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236857</v>
+        <v>0.238089</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307271</v>
+        <v>0.306173</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21519</v>
+        <v>0.21322</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202077</v>
+        <v>0.198552</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250035</v>
+        <v>0.250683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236908</v>
+        <v>0.238154</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314094</v>
+        <v>0.31354</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216037</v>
+        <v>0.215124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203116</v>
+        <v>0.19965</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249322</v>
+        <v>0.250709</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237281</v>
+        <v>0.238565</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32133</v>
+        <v>0.323746</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21824</v>
+        <v>0.208639</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204189</v>
+        <v>0.200667</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249604</v>
+        <v>0.250792</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237632</v>
+        <v>0.238841</v>
       </c>
       <c r="D98" t="n">
-        <v>0.33232</v>
+        <v>0.33158</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21981</v>
+        <v>0.210585</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205052</v>
+        <v>0.201649</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25008</v>
+        <v>0.250526</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238018</v>
+        <v>0.23936</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339219</v>
+        <v>0.339592</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222386</v>
+        <v>0.212497</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20663</v>
+        <v>0.202976</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25102</v>
+        <v>0.250781</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238434</v>
+        <v>0.239849</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346426</v>
+        <v>0.347937</v>
       </c>
       <c r="E100" t="n">
-        <v>0.223902</v>
+        <v>0.221964</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207886</v>
+        <v>0.205016</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249792</v>
+        <v>0.251237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.240066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358009</v>
+        <v>0.358012</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227255</v>
+        <v>0.223462</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209254</v>
+        <v>0.206798</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250257</v>
+        <v>0.251141</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239341</v>
+        <v>0.241255</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366745</v>
+        <v>0.367736</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228804</v>
+        <v>0.226606</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211074</v>
+        <v>0.206988</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.249717</v>
+        <v>0.251111</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24053</v>
+        <v>0.241564</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375311</v>
+        <v>0.376599</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231674</v>
+        <v>0.222015</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21249</v>
+        <v>0.21057</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250965</v>
+        <v>0.251626</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24201</v>
+        <v>0.243194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38574</v>
+        <v>0.386579</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233628</v>
+        <v>0.225612</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214793</v>
+        <v>0.213641</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251752</v>
+        <v>0.252606</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243934</v>
+        <v>0.245185</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393883</v>
+        <v>0.395015</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236437</v>
+        <v>0.229329</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21829</v>
+        <v>0.218078</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252332</v>
+        <v>0.253052</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246011</v>
+        <v>0.247472</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405546</v>
+        <v>0.405741</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239817</v>
+        <v>0.239066</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222402</v>
+        <v>0.225299</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254521</v>
+        <v>0.25597</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249125</v>
+        <v>0.249483</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347177</v>
+        <v>0.345369</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244413</v>
+        <v>0.258139</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227499</v>
+        <v>0.247294</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256719</v>
+        <v>0.257189</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254196</v>
+        <v>0.255946</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3512</v>
+        <v>0.354392</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262147</v>
+        <v>0.259854</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250687</v>
+        <v>0.24912</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260667</v>
+        <v>0.262204</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262238</v>
+        <v>0.262995</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356327</v>
+        <v>0.357612</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26383</v>
+        <v>0.261532</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252722</v>
+        <v>0.250734</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285589</v>
+        <v>0.286836</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297043</v>
+        <v>0.298045</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366108</v>
+        <v>0.367367</v>
       </c>
       <c r="E110" t="n">
-        <v>0.265997</v>
+        <v>0.262258</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253514</v>
+        <v>0.251652</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285935</v>
+        <v>0.286754</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297472</v>
+        <v>0.30006</v>
       </c>
       <c r="D111" t="n">
-        <v>0.373984</v>
+        <v>0.371405</v>
       </c>
       <c r="E111" t="n">
-        <v>0.267974</v>
+        <v>0.260408</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255815</v>
+        <v>0.2537</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286208</v>
+        <v>0.286872</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299694</v>
+        <v>0.300437</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381012</v>
+        <v>0.383009</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263853</v>
+        <v>0.259186</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256801</v>
+        <v>0.255242</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286736</v>
+        <v>0.28763</v>
       </c>
       <c r="C113" t="n">
-        <v>0.298988</v>
+        <v>0.299143</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38723</v>
+        <v>0.388295</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264728</v>
+        <v>0.262011</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258623</v>
+        <v>0.25754</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286038</v>
+        <v>0.286102</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301134</v>
+        <v>0.300373</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394753</v>
+        <v>0.397159</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267436</v>
+        <v>0.265025</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261037</v>
+        <v>0.260273</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286785</v>
+        <v>0.28762</v>
       </c>
       <c r="C115" t="n">
-        <v>0.299851</v>
+        <v>0.301493</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406726</v>
+        <v>0.405622</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269955</v>
+        <v>0.267553</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263984</v>
+        <v>0.263172</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286261</v>
+        <v>0.288541</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302022</v>
+        <v>0.303556</v>
       </c>
       <c r="D116" t="n">
-        <v>0.417659</v>
+        <v>0.415886</v>
       </c>
       <c r="E116" t="n">
-        <v>0.27311</v>
+        <v>0.271208</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265884</v>
+        <v>0.266099</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287732</v>
+        <v>0.287291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302366</v>
+        <v>0.304356</v>
       </c>
       <c r="D117" t="n">
-        <v>0.424252</v>
+        <v>0.426064</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276374</v>
+        <v>0.274668</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269373</v>
+        <v>0.270875</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287004</v>
+        <v>0.288308</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304029</v>
+        <v>0.304261</v>
       </c>
       <c r="D118" t="n">
-        <v>0.434494</v>
+        <v>0.435693</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279707</v>
+        <v>0.278026</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273631</v>
+        <v>0.276436</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287258</v>
+        <v>0.289614</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306266</v>
+        <v>0.307052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441325</v>
+        <v>0.447962</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283317</v>
+        <v>0.283158</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27831</v>
+        <v>0.283696</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288975</v>
+        <v>0.290913</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306358</v>
+        <v>0.307515</v>
       </c>
       <c r="D120" t="n">
-        <v>0.456527</v>
+        <v>0.454121</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287546</v>
+        <v>0.288515</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284356</v>
+        <v>0.292733</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291749</v>
+        <v>0.291654</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310582</v>
+        <v>0.311831</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374766</v>
+        <v>0.376674</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292373</v>
+        <v>0.280639</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293035</v>
+        <v>0.278638</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292928</v>
+        <v>0.293888</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316502</v>
+        <v>0.31599</v>
       </c>
       <c r="D122" t="n">
-        <v>0.37909</v>
+        <v>0.381595</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297789</v>
+        <v>0.28239</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305585</v>
+        <v>0.280078</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298078</v>
+        <v>0.298084</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323491</v>
+        <v>0.324335</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386739</v>
+        <v>0.388653</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285912</v>
+        <v>0.281934</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283661</v>
+        <v>0.28196</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365714</v>
+        <v>0.366154</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386584</v>
+        <v>0.388082</v>
       </c>
       <c r="D124" t="n">
-        <v>0.393563</v>
+        <v>0.395285</v>
       </c>
       <c r="E124" t="n">
-        <v>0.28802</v>
+        <v>0.284022</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284799</v>
+        <v>0.284278</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366947</v>
+        <v>0.368029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.386448</v>
+        <v>0.389153</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401019</v>
+        <v>0.401611</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290386</v>
+        <v>0.287093</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287006</v>
+        <v>0.286541</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368039</v>
+        <v>0.366695</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387032</v>
+        <v>0.390162</v>
       </c>
       <c r="D126" t="n">
-        <v>0.406979</v>
+        <v>0.408697</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293443</v>
+        <v>0.290584</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289966</v>
+        <v>0.289024</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368839</v>
+        <v>0.368022</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387162</v>
+        <v>0.390175</v>
       </c>
       <c r="D127" t="n">
-        <v>0.416836</v>
+        <v>0.416062</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296484</v>
+        <v>0.293137</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292175</v>
+        <v>0.292434</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367961</v>
+        <v>0.367619</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388779</v>
+        <v>0.390204</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4248</v>
+        <v>0.425494</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299098</v>
+        <v>0.296274</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294956</v>
+        <v>0.295503</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367294</v>
+        <v>0.368051</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389207</v>
+        <v>0.391909</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43289</v>
+        <v>0.432976</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302277</v>
+        <v>0.299723</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297727</v>
+        <v>0.29893</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367853</v>
+        <v>0.369178</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390563</v>
+        <v>0.392117</v>
       </c>
       <c r="D130" t="n">
-        <v>0.441179</v>
+        <v>0.444263</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305582</v>
+        <v>0.303622</v>
       </c>
       <c r="F130" t="n">
-        <v>0.30149</v>
+        <v>0.303338</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366968</v>
+        <v>0.361752</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390905</v>
+        <v>0.392751</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450575</v>
+        <v>0.454074</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309349</v>
+        <v>0.307845</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305945</v>
+        <v>0.302125</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.367194</v>
+        <v>0.36881</v>
       </c>
       <c r="C132" t="n">
-        <v>0.391812</v>
+        <v>0.39499</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459705</v>
+        <v>0.458417</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313418</v>
+        <v>0.306963</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304423</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3678</v>
+        <v>0.36893</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394</v>
+        <v>0.395317</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47334</v>
+        <v>0.472405</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318261</v>
+        <v>0.318316</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311059</v>
+        <v>0.317868</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370409</v>
+        <v>0.371453</v>
       </c>
       <c r="C134" t="n">
-        <v>0.396976</v>
+        <v>0.39919</v>
       </c>
       <c r="D134" t="n">
-        <v>0.479849</v>
+        <v>0.479589</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323365</v>
+        <v>0.325747</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318466</v>
+        <v>0.331126</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369477</v>
+        <v>0.371897</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399802</v>
+        <v>0.402068</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390567</v>
+        <v>0.392581</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330082</v>
+        <v>0.301948</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329199</v>
+        <v>0.298619</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371162</v>
+        <v>0.373969</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405467</v>
+        <v>0.407534</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39491</v>
+        <v>0.396411</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339113</v>
+        <v>0.299248</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344001</v>
+        <v>0.300304</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375096</v>
+        <v>0.377182</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412447</v>
+        <v>0.413595</v>
       </c>
       <c r="D137" t="n">
-        <v>0.400628</v>
+        <v>0.399915</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310079</v>
+        <v>0.306597</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303777</v>
+        <v>0.302353</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430235</v>
+        <v>0.425279</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443374</v>
+        <v>0.438538</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409041</v>
+        <v>0.409022</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311947</v>
+        <v>0.308646</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305776</v>
+        <v>0.305368</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430913</v>
+        <v>0.426204</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444188</v>
+        <v>0.445369</v>
       </c>
       <c r="D139" t="n">
-        <v>0.417183</v>
+        <v>0.417246</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313967</v>
+        <v>0.31126</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307955</v>
+        <v>0.306876</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431058</v>
+        <v>0.431837</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444158</v>
+        <v>0.445534</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423589</v>
+        <v>0.421106</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316332</v>
+        <v>0.312684</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310451</v>
+        <v>0.309458</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43147</v>
+        <v>0.426447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445084</v>
+        <v>0.446265</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432597</v>
+        <v>0.431248</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318336</v>
+        <v>0.314994</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313484</v>
+        <v>0.313423</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431461</v>
+        <v>0.426752</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446073</v>
+        <v>0.44716</v>
       </c>
       <c r="D142" t="n">
-        <v>0.436432</v>
+        <v>0.440064</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320464</v>
+        <v>0.317668</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316285</v>
+        <v>0.316756</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431888</v>
+        <v>0.432472</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446672</v>
+        <v>0.44824</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445038</v>
+        <v>0.446458</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322616</v>
+        <v>0.320422</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319626</v>
+        <v>0.320928</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0442261</v>
+        <v>0.0423977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433395</v>
+        <v>0.044012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674421</v>
+        <v>0.0692287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044811</v>
+        <v>0.0448681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424842</v>
+        <v>0.0424881</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428765</v>
+        <v>0.0432897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439113</v>
+        <v>0.0438429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745835</v>
+        <v>0.0752757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451219</v>
+        <v>0.0449514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428918</v>
+        <v>0.0428881</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430063</v>
+        <v>0.0434494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0441392</v>
+        <v>0.0439866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.082624</v>
+        <v>0.083024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.045062</v>
+        <v>0.0447887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433083</v>
+        <v>0.0428344</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432025</v>
+        <v>0.0435517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442308</v>
+        <v>0.0441936</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898258</v>
+        <v>0.09188250000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0456372</v>
+        <v>0.0450272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0435502</v>
+        <v>0.0431125</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443379</v>
+        <v>0.043415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0445874</v>
+        <v>0.0443979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0971081</v>
+        <v>0.09761599999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0464122</v>
+        <v>0.0455948</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0441455</v>
+        <v>0.0436184</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043242</v>
+        <v>0.0433686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448458</v>
+        <v>0.0441981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0615178</v>
+        <v>0.060876</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046965</v>
+        <v>0.0460465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0449868</v>
+        <v>0.0441783</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0448323</v>
+        <v>0.0438211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451777</v>
+        <v>0.044972</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0633457</v>
+        <v>0.0635676</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483883</v>
+        <v>0.0478579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0466535</v>
+        <v>0.045779</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0453542</v>
+        <v>0.0442468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460115</v>
+        <v>0.0458649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682676</v>
+        <v>0.0677624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463742</v>
+        <v>0.0473605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445529</v>
+        <v>0.0444148</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501731</v>
+        <v>0.0499305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.048742</v>
+        <v>0.0484759</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073044</v>
+        <v>0.07253220000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0468686</v>
+        <v>0.0475165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0445993</v>
+        <v>0.0441981</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501373</v>
+        <v>0.0498384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489502</v>
+        <v>0.0487546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07894329999999999</v>
+        <v>0.0786599</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0472224</v>
+        <v>0.0476885</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044705</v>
+        <v>0.0444919</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502896</v>
+        <v>0.0502703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493674</v>
+        <v>0.0489529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840211</v>
+        <v>0.083444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0474163</v>
+        <v>0.048099</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0449327</v>
+        <v>0.0446922</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0501174</v>
+        <v>0.0504209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495586</v>
+        <v>0.0491799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0885949</v>
+        <v>0.088209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0480089</v>
+        <v>0.0483025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0452642</v>
+        <v>0.0449633</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500999</v>
+        <v>0.0504543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494627</v>
+        <v>0.0492224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0937648</v>
+        <v>0.09364310000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485301</v>
+        <v>0.0484708</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0456506</v>
+        <v>0.045319</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506307</v>
+        <v>0.0506728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0497843</v>
+        <v>0.0495968</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09862269999999999</v>
+        <v>0.0979579</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048384</v>
+        <v>0.0490251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0460584</v>
+        <v>0.0456641</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507079</v>
+        <v>0.0507802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05004</v>
+        <v>0.0497308</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103508</v>
+        <v>0.103458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492264</v>
+        <v>0.0492529</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0463861</v>
+        <v>0.0459714</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0507012</v>
+        <v>0.050737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503345</v>
+        <v>0.0497708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108515</v>
+        <v>0.108441</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0494649</v>
+        <v>0.0496896</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466076</v>
+        <v>0.0463093</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050956</v>
+        <v>0.0510928</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507402</v>
+        <v>0.0502906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113271</v>
+        <v>0.113354</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498593</v>
+        <v>0.049515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468609</v>
+        <v>0.0464791</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0510159</v>
+        <v>0.051115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504641</v>
+        <v>0.050203</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117907</v>
+        <v>0.117694</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0501626</v>
+        <v>0.0498871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.047385</v>
+        <v>0.0469183</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514044</v>
+        <v>0.0510236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508687</v>
+        <v>0.0507796</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121464</v>
+        <v>0.121298</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0509812</v>
+        <v>0.0501652</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0483732</v>
+        <v>0.0475278</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516981</v>
+        <v>0.0512665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0513741</v>
+        <v>0.0512724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849673</v>
+        <v>0.0849775</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0521421</v>
+        <v>0.0523769</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494408</v>
+        <v>0.0492451</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521486</v>
+        <v>0.0518896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522376</v>
+        <v>0.0520903</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08790530000000001</v>
+        <v>0.0878901</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0559189</v>
+        <v>0.0558134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0536981</v>
+        <v>0.0538464</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534345</v>
+        <v>0.0530183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0536667</v>
+        <v>0.0534134</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917898</v>
+        <v>0.0915547</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0537226</v>
+        <v>0.0536327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0495406</v>
+        <v>0.0494469</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548668</v>
+        <v>0.0552159</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564583</v>
+        <v>0.0562233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09493600000000001</v>
+        <v>0.09461990000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0529843</v>
+        <v>0.0530338</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498194</v>
+        <v>0.0496331</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552181</v>
+        <v>0.0551491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0565135</v>
+        <v>0.056526</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984009</v>
+        <v>0.0984071</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533758</v>
+        <v>0.0534515</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500337</v>
+        <v>0.0499259</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551953</v>
+        <v>0.0551557</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570501</v>
+        <v>0.0567807</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102276</v>
+        <v>0.102191</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537835</v>
+        <v>0.0535459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0503463</v>
+        <v>0.050183</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554485</v>
+        <v>0.0553671</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0570172</v>
+        <v>0.056721</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106325</v>
+        <v>0.106381</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543934</v>
+        <v>0.054416</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510282</v>
+        <v>0.0508213</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556372</v>
+        <v>0.0556548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0570992</v>
+        <v>0.0569901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110103</v>
+        <v>0.110194</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0547922</v>
+        <v>0.0548069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0509818</v>
+        <v>0.0508241</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555719</v>
+        <v>0.0555243</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0570917</v>
+        <v>0.0569567</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114166</v>
+        <v>0.114127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054725</v>
+        <v>0.0547982</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514247</v>
+        <v>0.0513789</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055618</v>
+        <v>0.0559646</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573126</v>
+        <v>0.0571906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118266</v>
+        <v>0.118402</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552535</v>
+        <v>0.0553726</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0515957</v>
+        <v>0.0514223</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557051</v>
+        <v>0.0561474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577077</v>
+        <v>0.0577703</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122379</v>
+        <v>0.122298</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557179</v>
+        <v>0.0557155</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0519822</v>
+        <v>0.0518368</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558719</v>
+        <v>0.0563638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0581252</v>
+        <v>0.0582537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125829</v>
+        <v>0.125778</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559483</v>
+        <v>0.0558645</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0523521</v>
+        <v>0.0522373</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562297</v>
+        <v>0.0566576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0581537</v>
+        <v>0.0583703</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12919</v>
+        <v>0.129178</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566734</v>
+        <v>0.0566139</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0533134</v>
+        <v>0.0532249</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566325</v>
+        <v>0.056921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582222</v>
+        <v>0.0581665</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132401</v>
+        <v>0.132331</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575296</v>
+        <v>0.05747</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0544527</v>
+        <v>0.0542382</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567244</v>
+        <v>0.0567584</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585812</v>
+        <v>0.0590427</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931403</v>
+        <v>0.093207</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606524</v>
+        <v>0.060299</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0581598</v>
+        <v>0.0575052</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579338</v>
+        <v>0.0578701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0601447</v>
+        <v>0.0597654</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955546</v>
+        <v>0.0954159</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0664445</v>
+        <v>0.06636400000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06445969999999999</v>
+        <v>0.064347</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605106</v>
+        <v>0.0609042</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06313680000000001</v>
+        <v>0.0635353</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0976178</v>
+        <v>0.09764</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590445</v>
+        <v>0.0583884</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0535276</v>
+        <v>0.0537513</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061463</v>
+        <v>0.0609735</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636135</v>
+        <v>0.06397419999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100446</v>
+        <v>0.100418</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0574488</v>
+        <v>0.0572314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0538241</v>
+        <v>0.0541374</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.060147</v>
+        <v>0.0596039</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639787</v>
+        <v>0.06403929999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103364</v>
+        <v>0.103317</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0578294</v>
+        <v>0.0573684</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0540959</v>
+        <v>0.0544413</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603414</v>
+        <v>0.0597976</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06405760000000001</v>
+        <v>0.0641142</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106625</v>
+        <v>0.106774</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0585477</v>
+        <v>0.0579105</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0544441</v>
+        <v>0.0547713</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605495</v>
+        <v>0.0604896</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0642286</v>
+        <v>0.0644668</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11031</v>
+        <v>0.110205</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591438</v>
+        <v>0.0582633</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549241</v>
+        <v>0.0550644</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606603</v>
+        <v>0.0601461</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640911</v>
+        <v>0.06431679999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113872</v>
+        <v>0.113832</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0597062</v>
+        <v>0.05894</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551815</v>
+        <v>0.0555434</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607052</v>
+        <v>0.0602671</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06432640000000001</v>
+        <v>0.06454120000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117738</v>
+        <v>0.117763</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598578</v>
+        <v>0.0594183</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0555353</v>
+        <v>0.055956</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608055</v>
+        <v>0.0603311</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0645878</v>
+        <v>0.0647345</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121387</v>
+        <v>0.121492</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0606236</v>
+        <v>0.0597713</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0559141</v>
+        <v>0.0563598</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061007</v>
+        <v>0.0605907</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0647992</v>
+        <v>0.0650573</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125391</v>
+        <v>0.125411</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0612943</v>
+        <v>0.0600844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566346</v>
+        <v>0.0565168</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061313</v>
+        <v>0.0607932</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0651297</v>
+        <v>0.0653523</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129279</v>
+        <v>0.129236</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0612577</v>
+        <v>0.0609486</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574873</v>
+        <v>0.0576804</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061551</v>
+        <v>0.0610702</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0655097</v>
+        <v>0.0658371</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132363</v>
+        <v>0.132426</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623429</v>
+        <v>0.0619424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585498</v>
+        <v>0.0586676</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061578</v>
+        <v>0.061571</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.06623279999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13586</v>
+        <v>0.136028</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06452040000000001</v>
+        <v>0.0642678</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612556</v>
+        <v>0.0612474</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621648</v>
+        <v>0.0625459</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0658374</v>
+        <v>0.06636640000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139016</v>
+        <v>0.139178</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679212</v>
+        <v>0.0676481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0646786</v>
+        <v>0.0650066</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645255</v>
+        <v>0.0643748</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684633</v>
+        <v>0.06818589999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973888</v>
+        <v>0.09744220000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0727101</v>
+        <v>0.0736391</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0700505</v>
+        <v>0.0706816</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0677104</v>
+        <v>0.0685456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.0726729</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09968929999999999</v>
+        <v>0.09975820000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0617937</v>
+        <v>0.0623548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0565977</v>
+        <v>0.0567988</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.072035</v>
+        <v>0.0725606</v>
       </c>
       <c r="C52" t="n">
-        <v>0.077149</v>
+        <v>0.0772649</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102056</v>
+        <v>0.102181</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611771</v>
+        <v>0.0610939</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569705</v>
+        <v>0.0571469</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0673173</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0711485</v>
+        <v>0.07120990000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105467</v>
+        <v>0.105385</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618582</v>
+        <v>0.0614806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574304</v>
+        <v>0.057393</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673551</v>
+        <v>0.0675564</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711507</v>
+        <v>0.0713467</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108418</v>
+        <v>0.108585</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621909</v>
+        <v>0.0620379</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579579</v>
+        <v>0.0578015</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678165</v>
+        <v>0.0675147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07125620000000001</v>
+        <v>0.0713626</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11183</v>
+        <v>0.111863</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626467</v>
+        <v>0.0625652</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0583696</v>
+        <v>0.0582008</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676182</v>
+        <v>0.06778430000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715219</v>
+        <v>0.07165680000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115461</v>
+        <v>0.115716</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630502</v>
+        <v>0.0630684</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058718</v>
+        <v>0.058541</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679245</v>
+        <v>0.06769600000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0714403</v>
+        <v>0.072254</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119594</v>
+        <v>0.119736</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635468</v>
+        <v>0.0634016</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0592846</v>
+        <v>0.0606484</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06835529999999999</v>
+        <v>0.06845759999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0715956</v>
+        <v>0.07160909999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123225</v>
+        <v>0.123415</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06438000000000001</v>
+        <v>0.0645165</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0612002</v>
+        <v>0.0599006</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06824089999999999</v>
+        <v>0.0680578</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0720398</v>
+        <v>0.07254919999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127117</v>
+        <v>0.127414</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06493309999999999</v>
+        <v>0.0647467</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0621119</v>
+        <v>0.0627119</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684545</v>
+        <v>0.0689893</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07275760000000001</v>
+        <v>0.0722226</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131041</v>
+        <v>0.131074</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0662929</v>
+        <v>0.0660835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638517</v>
+        <v>0.06383170000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06869840000000001</v>
+        <v>0.0686794</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0735697</v>
+        <v>0.0726652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135099</v>
+        <v>0.135016</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06792570000000001</v>
+        <v>0.0679795</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0657039</v>
+        <v>0.06589399999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956900000000001</v>
+        <v>0.0697373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0749084</v>
+        <v>0.0738684</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138501</v>
+        <v>0.138565</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0701854</v>
+        <v>0.07032869999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0686645</v>
+        <v>0.06841129999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704283</v>
+        <v>0.07004829999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07568709999999999</v>
+        <v>0.0749659</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142199</v>
+        <v>0.142356</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731004</v>
+        <v>0.07325039999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724373</v>
+        <v>0.0722777</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720678</v>
+        <v>0.072001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.077707</v>
+        <v>0.0778686</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105271</v>
+        <v>0.105965</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0767965</v>
+        <v>0.0770113</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07700600000000001</v>
+        <v>0.07719719999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747599</v>
+        <v>0.0747627</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08154210000000001</v>
+        <v>0.081793</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109339</v>
+        <v>0.108691</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834685</v>
+        <v>0.0834126</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0841364</v>
+        <v>0.0842504</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07876279999999999</v>
+        <v>0.0792722</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0860635</v>
+        <v>0.0863786</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113168</v>
+        <v>0.113671</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0654932</v>
+        <v>0.0650068</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635366</v>
+        <v>0.0634542</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0806291</v>
+        <v>0.0798044</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790433</v>
+        <v>0.0790213</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117383</v>
+        <v>0.116626</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0658498</v>
+        <v>0.0653859</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06349390000000001</v>
+        <v>0.064055</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817252</v>
+        <v>0.0792752</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0788948</v>
+        <v>0.0798061</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121468</v>
+        <v>0.122548</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0663763</v>
+        <v>0.06585679999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06469179999999999</v>
+        <v>0.0649397</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0807778</v>
+        <v>0.0793865</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802451</v>
+        <v>0.0802438</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127426</v>
+        <v>0.127675</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0665089</v>
+        <v>0.0662469</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0658255</v>
+        <v>0.0654658</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0812206</v>
+        <v>0.0798759</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0798971</v>
+        <v>0.0800992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133366</v>
+        <v>0.134248</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669299</v>
+        <v>0.06711490000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668377</v>
+        <v>0.0664821</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808204</v>
+        <v>0.08036939999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08044030000000001</v>
+        <v>0.0811373</v>
       </c>
       <c r="D71" t="n">
-        <v>0.140357</v>
+        <v>0.141399</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0680009</v>
+        <v>0.06759900000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0675308</v>
+        <v>0.06792810000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0810881</v>
+        <v>0.07996880000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815232</v>
+        <v>0.08185580000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147978</v>
+        <v>0.146699</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0687173</v>
+        <v>0.0684432</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0688807</v>
+        <v>0.0692468</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812137</v>
+        <v>0.0803643</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08229210000000001</v>
+        <v>0.0825549</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156211</v>
+        <v>0.15465</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0696736</v>
+        <v>0.0693005</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705572</v>
+        <v>0.0709371</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08283219999999999</v>
+        <v>0.0817798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0832642</v>
+        <v>0.0834859</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163893</v>
+        <v>0.162266</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07122439999999999</v>
+        <v>0.0702253</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730147</v>
+        <v>0.0730214</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834811</v>
+        <v>0.08213959999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0845571</v>
+        <v>0.0846015</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170038</v>
+        <v>0.171002</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0730475</v>
+        <v>0.07178089999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07569339999999999</v>
+        <v>0.07543130000000001</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0840316</v>
+        <v>0.0827835</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858091</v>
+        <v>0.0858534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179615</v>
+        <v>0.180532</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0750516</v>
+        <v>0.0737941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.078754</v>
+        <v>0.0787861</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08393879999999999</v>
+        <v>0.0854205</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0878895</v>
+        <v>0.088797</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186648</v>
+        <v>0.18805</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0767034</v>
+        <v>0.076361</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08268540000000001</v>
+        <v>0.0830562</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592329999999999</v>
+        <v>0.0857415</v>
       </c>
       <c r="C78" t="n">
-        <v>0.090882</v>
+        <v>0.09125610000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184715</v>
+        <v>0.185098</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0814744</v>
+        <v>0.0804218</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08807189999999999</v>
+        <v>0.08850860000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0889548</v>
+        <v>0.086684</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.0946988</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192422</v>
+        <v>0.193347</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08723599999999999</v>
+        <v>0.0860916</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0958498</v>
+        <v>0.09579940000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0916088</v>
+        <v>0.0906583</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100669</v>
+        <v>0.10087</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201096</v>
+        <v>0.201482</v>
       </c>
       <c r="E80" t="n">
-        <v>0.112138</v>
+        <v>0.113557</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103538</v>
+        <v>0.104049</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180858</v>
+        <v>0.18053</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148122</v>
+        <v>0.149351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20553</v>
+        <v>0.205834</v>
       </c>
       <c r="E81" t="n">
-        <v>0.116196</v>
+        <v>0.112933</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104344</v>
+        <v>0.10908</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183018</v>
+        <v>0.182209</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149595</v>
+        <v>0.153249</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215659</v>
+        <v>0.216244</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118768</v>
+        <v>0.11689</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106831</v>
+        <v>0.110426</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182621</v>
+        <v>0.183684</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150161</v>
+        <v>0.153641</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227367</v>
+        <v>0.226451</v>
       </c>
       <c r="E83" t="n">
-        <v>0.119456</v>
+        <v>0.117849</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107662</v>
+        <v>0.11024</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183463</v>
+        <v>0.183712</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150971</v>
+        <v>0.154665</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237111</v>
+        <v>0.236762</v>
       </c>
       <c r="E84" t="n">
-        <v>0.121166</v>
+        <v>0.120214</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108529</v>
+        <v>0.110778</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18434</v>
+        <v>0.185434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151937</v>
+        <v>0.155044</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24572</v>
+        <v>0.244811</v>
       </c>
       <c r="E85" t="n">
-        <v>0.123349</v>
+        <v>0.124165</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111698</v>
+        <v>0.11271</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184418</v>
+        <v>0.185091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152422</v>
+        <v>0.15553</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25749</v>
+        <v>0.257113</v>
       </c>
       <c r="E86" t="n">
-        <v>0.124949</v>
+        <v>0.126678</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113112</v>
+        <v>0.114055</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183416</v>
+        <v>0.185492</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15365</v>
+        <v>0.15515</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267129</v>
+        <v>0.266815</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123333</v>
+        <v>0.127614</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112091</v>
+        <v>0.114485</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183817</v>
+        <v>0.185795</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153242</v>
+        <v>0.155602</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275315</v>
+        <v>0.275694</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12801</v>
+        <v>0.128475</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113268</v>
+        <v>0.116049</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184445</v>
+        <v>0.185947</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154406</v>
+        <v>0.157538</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282332</v>
+        <v>0.284004</v>
       </c>
       <c r="E89" t="n">
-        <v>0.128448</v>
+        <v>0.13045</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115878</v>
+        <v>0.116916</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184638</v>
+        <v>0.187044</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.157572</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294438</v>
+        <v>0.295167</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131486</v>
+        <v>0.133309</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118946</v>
+        <v>0.119557</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186529</v>
+        <v>0.188498</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157982</v>
+        <v>0.159496</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302141</v>
+        <v>0.303995</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133313</v>
+        <v>0.13614</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216</v>
+        <v>0.121528</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187038</v>
+        <v>0.188309</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161603</v>
+        <v>0.162536</v>
       </c>
       <c r="D92" t="n">
-        <v>0.286777</v>
+        <v>0.287785</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137441</v>
+        <v>0.139709</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128664</v>
+        <v>0.12751</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188371</v>
+        <v>0.190972</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165988</v>
+        <v>0.166255</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29353</v>
+        <v>0.294487</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142467</v>
+        <v>0.142977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13495</v>
+        <v>0.135959</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190631</v>
+        <v>0.192764</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171302</v>
+        <v>0.17136</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298656</v>
+        <v>0.299438</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212319</v>
+        <v>0.212204</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201064</v>
+        <v>0.202024</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24915</v>
+        <v>0.250091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236857</v>
+        <v>0.237174</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307271</v>
+        <v>0.30777</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21519</v>
+        <v>0.214225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202077</v>
+        <v>0.202943</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250035</v>
+        <v>0.250169</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236908</v>
+        <v>0.237894</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314094</v>
+        <v>0.315361</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216037</v>
+        <v>0.217295</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203116</v>
+        <v>0.203778</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249322</v>
+        <v>0.250434</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237281</v>
+        <v>0.238026</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32133</v>
+        <v>0.322755</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21824</v>
+        <v>0.21874</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204189</v>
+        <v>0.205124</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249604</v>
+        <v>0.249995</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237632</v>
+        <v>0.238341</v>
       </c>
       <c r="D98" t="n">
-        <v>0.33232</v>
+        <v>0.333786</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21981</v>
+        <v>0.220694</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205052</v>
+        <v>0.205888</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25008</v>
+        <v>0.250157</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238018</v>
+        <v>0.238924</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339219</v>
+        <v>0.340189</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222386</v>
+        <v>0.222463</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20663</v>
+        <v>0.207955</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25102</v>
+        <v>0.250266</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238434</v>
+        <v>0.239041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346426</v>
+        <v>0.34767</v>
       </c>
       <c r="E100" t="n">
-        <v>0.223902</v>
+        <v>0.226412</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207886</v>
+        <v>0.2076</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249792</v>
+        <v>0.250564</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.239921</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358009</v>
+        <v>0.359395</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227255</v>
+        <v>0.226615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209254</v>
+        <v>0.208952</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250257</v>
+        <v>0.250962</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239341</v>
+        <v>0.240519</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366745</v>
+        <v>0.367531</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228804</v>
+        <v>0.229828</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211074</v>
+        <v>0.21202</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.249717</v>
+        <v>0.25086</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24053</v>
+        <v>0.24139</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375311</v>
+        <v>0.376688</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231674</v>
+        <v>0.23236</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21249</v>
+        <v>0.21321</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250965</v>
+        <v>0.251532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24201</v>
+        <v>0.243061</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38574</v>
+        <v>0.387608</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233628</v>
+        <v>0.234401</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214793</v>
+        <v>0.216087</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251752</v>
+        <v>0.252078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243934</v>
+        <v>0.244742</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393883</v>
+        <v>0.395463</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236437</v>
+        <v>0.237308</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21829</v>
+        <v>0.218862</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252332</v>
+        <v>0.25318</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246011</v>
+        <v>0.246931</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405546</v>
+        <v>0.407407</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239817</v>
+        <v>0.240234</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222402</v>
+        <v>0.22286</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254521</v>
+        <v>0.25458</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249125</v>
+        <v>0.249347</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347177</v>
+        <v>0.347562</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244413</v>
+        <v>0.244424</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227499</v>
+        <v>0.228668</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256719</v>
+        <v>0.257102</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254196</v>
+        <v>0.254591</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3512</v>
+        <v>0.351906</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262147</v>
+        <v>0.262378</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250687</v>
+        <v>0.250731</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260667</v>
+        <v>0.261725</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262238</v>
+        <v>0.263488</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356327</v>
+        <v>0.357194</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26383</v>
+        <v>0.264215</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252722</v>
+        <v>0.252649</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285589</v>
+        <v>0.286085</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297043</v>
+        <v>0.297821</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366108</v>
+        <v>0.366713</v>
       </c>
       <c r="E110" t="n">
-        <v>0.265997</v>
+        <v>0.266325</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253514</v>
+        <v>0.254508</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285935</v>
+        <v>0.286581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297472</v>
+        <v>0.298267</v>
       </c>
       <c r="D111" t="n">
-        <v>0.373984</v>
+        <v>0.374504</v>
       </c>
       <c r="E111" t="n">
-        <v>0.267974</v>
+        <v>0.268004</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255815</v>
+        <v>0.255614</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286208</v>
+        <v>0.286831</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299694</v>
+        <v>0.29972</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381012</v>
+        <v>0.381624</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263853</v>
+        <v>0.2638</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256801</v>
+        <v>0.257965</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286736</v>
+        <v>0.28591</v>
       </c>
       <c r="C113" t="n">
-        <v>0.298988</v>
+        <v>0.300055</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38723</v>
+        <v>0.388067</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264728</v>
+        <v>0.264652</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258623</v>
+        <v>0.259849</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286038</v>
+        <v>0.287113</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301134</v>
+        <v>0.300785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394753</v>
+        <v>0.395399</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267436</v>
+        <v>0.267409</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261037</v>
+        <v>0.261888</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286785</v>
+        <v>0.288402</v>
       </c>
       <c r="C115" t="n">
-        <v>0.299851</v>
+        <v>0.300241</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406726</v>
+        <v>0.407553</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269955</v>
+        <v>0.269686</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263984</v>
+        <v>0.26423</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286261</v>
+        <v>0.28735</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302022</v>
+        <v>0.301646</v>
       </c>
       <c r="D116" t="n">
-        <v>0.417659</v>
+        <v>0.418901</v>
       </c>
       <c r="E116" t="n">
-        <v>0.27311</v>
+        <v>0.273591</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265884</v>
+        <v>0.266519</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287732</v>
+        <v>0.289433</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302366</v>
+        <v>0.302367</v>
       </c>
       <c r="D117" t="n">
-        <v>0.424252</v>
+        <v>0.425432</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276374</v>
+        <v>0.27626</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269373</v>
+        <v>0.27016</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287004</v>
+        <v>0.289656</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304029</v>
+        <v>0.304038</v>
       </c>
       <c r="D118" t="n">
-        <v>0.434494</v>
+        <v>0.435712</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279707</v>
+        <v>0.279626</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273631</v>
+        <v>0.274005</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287258</v>
+        <v>0.290354</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306266</v>
+        <v>0.307248</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441325</v>
+        <v>0.442556</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283317</v>
+        <v>0.283982</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27831</v>
+        <v>0.278073</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288975</v>
+        <v>0.289896</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306358</v>
+        <v>0.306687</v>
       </c>
       <c r="D120" t="n">
-        <v>0.456527</v>
+        <v>0.457819</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287546</v>
+        <v>0.287528</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284356</v>
+        <v>0.284792</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291749</v>
+        <v>0.291378</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310582</v>
+        <v>0.311194</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374766</v>
+        <v>0.375897</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292373</v>
+        <v>0.292632</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293035</v>
+        <v>0.293514</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292928</v>
+        <v>0.294051</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316502</v>
+        <v>0.315868</v>
       </c>
       <c r="D122" t="n">
-        <v>0.37909</v>
+        <v>0.380154</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297789</v>
+        <v>0.297561</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305585</v>
+        <v>0.305453</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298078</v>
+        <v>0.297698</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323491</v>
+        <v>0.324555</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386739</v>
+        <v>0.387625</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285912</v>
+        <v>0.285897</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283661</v>
+        <v>0.283783</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365714</v>
+        <v>0.366968</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386584</v>
+        <v>0.387108</v>
       </c>
       <c r="D124" t="n">
-        <v>0.393563</v>
+        <v>0.394593</v>
       </c>
       <c r="E124" t="n">
-        <v>0.28802</v>
+        <v>0.288187</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284799</v>
+        <v>0.285077</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366947</v>
+        <v>0.366793</v>
       </c>
       <c r="C125" t="n">
-        <v>0.386448</v>
+        <v>0.389015</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401019</v>
+        <v>0.401715</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290386</v>
+        <v>0.29116</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287006</v>
+        <v>0.287507</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368039</v>
+        <v>0.366669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387032</v>
+        <v>0.387388</v>
       </c>
       <c r="D126" t="n">
-        <v>0.406979</v>
+        <v>0.407869</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293443</v>
+        <v>0.293625</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289966</v>
+        <v>0.289789</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368839</v>
+        <v>0.366928</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387162</v>
+        <v>0.389212</v>
       </c>
       <c r="D127" t="n">
-        <v>0.416836</v>
+        <v>0.417548</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296484</v>
+        <v>0.29611</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292175</v>
+        <v>0.292583</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367961</v>
+        <v>0.367137</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388779</v>
+        <v>0.389005</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4248</v>
+        <v>0.425935</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299098</v>
+        <v>0.29882</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294956</v>
+        <v>0.295281</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367294</v>
+        <v>0.367585</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389207</v>
+        <v>0.389574</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43289</v>
+        <v>0.433541</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302277</v>
+        <v>0.30239</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297727</v>
+        <v>0.298024</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367853</v>
+        <v>0.368198</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390563</v>
+        <v>0.391428</v>
       </c>
       <c r="D130" t="n">
-        <v>0.441179</v>
+        <v>0.442484</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305582</v>
+        <v>0.305432</v>
       </c>
       <c r="F130" t="n">
-        <v>0.30149</v>
+        <v>0.301869</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366968</v>
+        <v>0.367547</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390905</v>
+        <v>0.392764</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450575</v>
+        <v>0.451421</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309349</v>
+        <v>0.308991</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305945</v>
+        <v>0.305965</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.367194</v>
+        <v>0.368011</v>
       </c>
       <c r="C132" t="n">
-        <v>0.391812</v>
+        <v>0.392606</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459705</v>
+        <v>0.460776</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313418</v>
+        <v>0.312987</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304423</v>
+        <v>0.304985</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3678</v>
+        <v>0.368448</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394</v>
+        <v>0.395657</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47334</v>
+        <v>0.475289</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318261</v>
+        <v>0.318431</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311059</v>
+        <v>0.311447</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370409</v>
+        <v>0.369174</v>
       </c>
       <c r="C134" t="n">
-        <v>0.396976</v>
+        <v>0.397562</v>
       </c>
       <c r="D134" t="n">
-        <v>0.479849</v>
+        <v>0.480845</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323365</v>
+        <v>0.323088</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318466</v>
+        <v>0.319297</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369477</v>
+        <v>0.371196</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399802</v>
+        <v>0.401172</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390567</v>
+        <v>0.390887</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330082</v>
+        <v>0.330339</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329199</v>
+        <v>0.32968</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371162</v>
+        <v>0.371501</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405467</v>
+        <v>0.406135</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39491</v>
+        <v>0.395585</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339113</v>
+        <v>0.339206</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344001</v>
+        <v>0.344579</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375096</v>
+        <v>0.376004</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412447</v>
+        <v>0.412262</v>
       </c>
       <c r="D137" t="n">
-        <v>0.400628</v>
+        <v>0.401248</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310079</v>
+        <v>0.309937</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303777</v>
+        <v>0.303955</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430235</v>
+        <v>0.430831</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443374</v>
+        <v>0.443444</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409041</v>
+        <v>0.410064</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311947</v>
+        <v>0.311817</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305776</v>
+        <v>0.306007</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430913</v>
+        <v>0.43159</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444188</v>
+        <v>0.444147</v>
       </c>
       <c r="D139" t="n">
-        <v>0.417183</v>
+        <v>0.418334</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313967</v>
+        <v>0.314405</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307955</v>
+        <v>0.308192</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431058</v>
+        <v>0.431439</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444158</v>
+        <v>0.444665</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423589</v>
+        <v>0.424509</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316332</v>
+        <v>0.316498</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310451</v>
+        <v>0.310738</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43147</v>
+        <v>0.431684</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445084</v>
+        <v>0.445217</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432597</v>
+        <v>0.433299</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318336</v>
+        <v>0.318357</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313484</v>
+        <v>0.313234</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431461</v>
+        <v>0.431909</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446073</v>
+        <v>0.446603</v>
       </c>
       <c r="D142" t="n">
-        <v>0.436432</v>
+        <v>0.437152</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320464</v>
+        <v>0.320291</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316285</v>
+        <v>0.316298</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431888</v>
+        <v>0.431877</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446672</v>
+        <v>0.447232</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445038</v>
+        <v>0.445839</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322616</v>
+        <v>0.323233</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319626</v>
+        <v>0.320011</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0423977</v>
+        <v>0.0432077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.044012</v>
+        <v>0.0436451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0692287</v>
+        <v>0.0718727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0448681</v>
+        <v>0.0440483</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424881</v>
+        <v>0.0424004</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0432897</v>
+        <v>0.0423998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0438429</v>
+        <v>0.0438588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0752757</v>
+        <v>0.0778563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0449514</v>
+        <v>0.0442686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428881</v>
+        <v>0.0427051</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0434494</v>
+        <v>0.0426256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0439866</v>
+        <v>0.0442179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.083024</v>
+        <v>0.0858053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0447887</v>
+        <v>0.0445596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0428344</v>
+        <v>0.0430195</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0435517</v>
+        <v>0.0428139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441936</v>
+        <v>0.0441792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09188250000000001</v>
+        <v>0.0932086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0450272</v>
+        <v>0.0449492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0431125</v>
+        <v>0.0431386</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.043415</v>
+        <v>0.0436366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0443979</v>
+        <v>0.0441789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09761599999999999</v>
+        <v>0.09851500000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0455948</v>
+        <v>0.0451278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0436184</v>
+        <v>0.0439428</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0433686</v>
+        <v>0.04322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0441981</v>
+        <v>0.0445339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.060876</v>
+        <v>0.0620408</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0460465</v>
+        <v>0.046212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0441783</v>
+        <v>0.0444042</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0438211</v>
+        <v>0.0441331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.044972</v>
+        <v>0.0448184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0635676</v>
+        <v>0.0647561</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0478579</v>
+        <v>0.0476245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045779</v>
+        <v>0.0463624</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0442468</v>
+        <v>0.0449163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0458649</v>
+        <v>0.0458719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0677624</v>
+        <v>0.06996719999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0473605</v>
+        <v>0.0463493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0444148</v>
+        <v>0.0440111</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0499305</v>
+        <v>0.0493728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0484759</v>
+        <v>0.0479214</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07253220000000001</v>
+        <v>0.0740403</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0475165</v>
+        <v>0.0465609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0441981</v>
+        <v>0.0440998</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0498384</v>
+        <v>0.0494302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0487546</v>
+        <v>0.0483361</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0786599</v>
+        <v>0.0801243</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0476885</v>
+        <v>0.0469781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0444919</v>
+        <v>0.044374</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502703</v>
+        <v>0.0497081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0489529</v>
+        <v>0.0484276</v>
       </c>
       <c r="D12" t="n">
-        <v>0.083444</v>
+        <v>0.0855842</v>
       </c>
       <c r="E12" t="n">
-        <v>0.048099</v>
+        <v>0.0472204</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0446922</v>
+        <v>0.0447701</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0504209</v>
+        <v>0.0498636</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0491799</v>
+        <v>0.0488432</v>
       </c>
       <c r="D13" t="n">
-        <v>0.088209</v>
+        <v>0.0902551</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0483025</v>
+        <v>0.0478585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0449633</v>
+        <v>0.0449897</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0504543</v>
+        <v>0.0495364</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0492224</v>
+        <v>0.048534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09364310000000001</v>
+        <v>0.09543649999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0484708</v>
+        <v>0.0483258</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045319</v>
+        <v>0.0453144</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506728</v>
+        <v>0.0498682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0495968</v>
+        <v>0.0492122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0979579</v>
+        <v>0.100563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0490251</v>
+        <v>0.0484484</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0456641</v>
+        <v>0.0456555</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507802</v>
+        <v>0.050177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0497308</v>
+        <v>0.0491002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103458</v>
+        <v>0.105477</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492529</v>
+        <v>0.0490578</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0459714</v>
+        <v>0.0458605</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.050737</v>
+        <v>0.0500996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0497708</v>
+        <v>0.0495127</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108441</v>
+        <v>0.110938</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0496896</v>
+        <v>0.0490301</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0463093</v>
+        <v>0.0461931</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0510928</v>
+        <v>0.050717</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0502906</v>
+        <v>0.049884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113354</v>
+        <v>0.11514</v>
       </c>
       <c r="E18" t="n">
-        <v>0.049515</v>
+        <v>0.0494024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0464791</v>
+        <v>0.0465159</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.051115</v>
+        <v>0.0509404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.050203</v>
+        <v>0.0501748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117694</v>
+        <v>0.120157</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0498871</v>
+        <v>0.0495875</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0469183</v>
+        <v>0.0469806</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0510236</v>
+        <v>0.0513002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0507796</v>
+        <v>0.0504496</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121298</v>
+        <v>0.123591</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0501652</v>
+        <v>0.0500419</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0475278</v>
+        <v>0.0478922</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0512665</v>
+        <v>0.0515777</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0512724</v>
+        <v>0.050976</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849775</v>
+        <v>0.0867928</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0523769</v>
+        <v>0.0519976</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0492451</v>
+        <v>0.050069</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0518896</v>
+        <v>0.0522269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0520903</v>
+        <v>0.0520172</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0878901</v>
+        <v>0.0900595</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0558134</v>
+        <v>0.0552856</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0538464</v>
+        <v>0.0534797</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0530183</v>
+        <v>0.053419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0534134</v>
+        <v>0.0527344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0915547</v>
+        <v>0.09359049999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0536327</v>
+        <v>0.0530475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0494469</v>
+        <v>0.049593</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552159</v>
+        <v>0.0548271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0562233</v>
+        <v>0.0559932</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09461990000000001</v>
+        <v>0.0972063</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0530338</v>
+        <v>0.0528077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0496331</v>
+        <v>0.0498581</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551491</v>
+        <v>0.0551374</v>
       </c>
       <c r="C25" t="n">
-        <v>0.056526</v>
+        <v>0.0564787</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984071</v>
+        <v>0.101136</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0534515</v>
+        <v>0.053177</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0499259</v>
+        <v>0.0500842</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551557</v>
+        <v>0.05483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0567807</v>
+        <v>0.05652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102191</v>
+        <v>0.104704</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0535459</v>
+        <v>0.0537353</v>
       </c>
       <c r="F26" t="n">
-        <v>0.050183</v>
+        <v>0.0504269</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0553671</v>
+        <v>0.0549567</v>
       </c>
       <c r="C27" t="n">
-        <v>0.056721</v>
+        <v>0.056335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106381</v>
+        <v>0.108721</v>
       </c>
       <c r="E27" t="n">
-        <v>0.054416</v>
+        <v>0.0540508</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0508213</v>
+        <v>0.0508098</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556548</v>
+        <v>0.055084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0569901</v>
+        <v>0.0566229</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110194</v>
+        <v>0.112654</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0548069</v>
+        <v>0.0543466</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0508241</v>
+        <v>0.0510679</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555243</v>
+        <v>0.0551445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0569567</v>
+        <v>0.0568976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114127</v>
+        <v>0.116571</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0547982</v>
+        <v>0.0549216</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0513789</v>
+        <v>0.0514485</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0559646</v>
+        <v>0.0554721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0571906</v>
+        <v>0.0571797</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118402</v>
+        <v>0.120627</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0553726</v>
+        <v>0.0550707</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0514223</v>
+        <v>0.0516584</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0561474</v>
+        <v>0.0556055</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577703</v>
+        <v>0.0569405</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122298</v>
+        <v>0.124542</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557155</v>
+        <v>0.0553569</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0518368</v>
+        <v>0.0520692</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0563638</v>
+        <v>0.0559151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0582537</v>
+        <v>0.0574045</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125778</v>
+        <v>0.12787</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0558645</v>
+        <v>0.0558674</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0522373</v>
+        <v>0.0525781</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0566576</v>
+        <v>0.0564261</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0583703</v>
+        <v>0.0576629</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129178</v>
+        <v>0.131336</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566139</v>
+        <v>0.0563831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0532249</v>
+        <v>0.05315</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.056921</v>
+        <v>0.05669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0581665</v>
+        <v>0.0582161</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132331</v>
+        <v>0.134416</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05747</v>
+        <v>0.057641</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0542382</v>
+        <v>0.0545303</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567584</v>
+        <v>0.0572667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0590427</v>
+        <v>0.0585309</v>
       </c>
       <c r="D35" t="n">
-        <v>0.093207</v>
+        <v>0.0954458</v>
       </c>
       <c r="E35" t="n">
-        <v>0.060299</v>
+        <v>0.0604767</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0575052</v>
+        <v>0.0575768</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578701</v>
+        <v>0.0578695</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0597654</v>
+        <v>0.0594068</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0954159</v>
+        <v>0.0975336</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06636400000000001</v>
+        <v>0.0667783</v>
       </c>
       <c r="F36" t="n">
-        <v>0.064347</v>
+        <v>0.0643238</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609042</v>
+        <v>0.0604835</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0635353</v>
+        <v>0.0635541</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09764</v>
+        <v>0.0998078</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0583884</v>
+        <v>0.0584757</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0537513</v>
+        <v>0.0537428</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0609735</v>
+        <v>0.0603408</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06397419999999999</v>
+        <v>0.0626154</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100418</v>
+        <v>0.102801</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0572314</v>
+        <v>0.0572883</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0541374</v>
+        <v>0.054015</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0596039</v>
+        <v>0.0594754</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06403929999999999</v>
+        <v>0.06309960000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103317</v>
+        <v>0.105953</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0573684</v>
+        <v>0.0573471</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0544413</v>
+        <v>0.0543543</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0597976</v>
+        <v>0.0596318</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0641142</v>
+        <v>0.0633649</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106774</v>
+        <v>0.109359</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0579105</v>
+        <v>0.0581289</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0547713</v>
+        <v>0.054764</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0604896</v>
+        <v>0.0599659</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0644668</v>
+        <v>0.0631767</v>
       </c>
       <c r="D41" t="n">
-        <v>0.110205</v>
+        <v>0.112807</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0582633</v>
+        <v>0.0585591</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0550644</v>
+        <v>0.0550743</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0601461</v>
+        <v>0.0598843</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06431679999999999</v>
+        <v>0.063127</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113832</v>
+        <v>0.116411</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05894</v>
+        <v>0.0588128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0555434</v>
+        <v>0.0554061</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0602671</v>
+        <v>0.0599138</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06454120000000001</v>
+        <v>0.0632752</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117763</v>
+        <v>0.120183</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0594183</v>
+        <v>0.0593197</v>
       </c>
       <c r="F43" t="n">
-        <v>0.055956</v>
+        <v>0.0558458</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0603311</v>
+        <v>0.0600388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0647345</v>
+        <v>0.0633919</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121492</v>
+        <v>0.12389</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0597713</v>
+        <v>0.0598557</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0563598</v>
+        <v>0.0562986</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0605907</v>
+        <v>0.0602145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0650573</v>
+        <v>0.06371889999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125411</v>
+        <v>0.127947</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0600844</v>
+        <v>0.0600565</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0565168</v>
+        <v>0.056736</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0607932</v>
+        <v>0.0605921</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0653523</v>
+        <v>0.0640133</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129236</v>
+        <v>0.131558</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0609486</v>
+        <v>0.0608742</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0576804</v>
+        <v>0.0574763</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0610702</v>
+        <v>0.0608867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0658371</v>
+        <v>0.0646365</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132426</v>
+        <v>0.134648</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0619424</v>
+        <v>0.0619311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0586676</v>
+        <v>0.0587654</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061571</v>
+        <v>0.061904</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06623279999999999</v>
+        <v>0.06522650000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136028</v>
+        <v>0.138219</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0642678</v>
+        <v>0.0641567</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612474</v>
+        <v>0.0614407</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0625459</v>
+        <v>0.0624169</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06636640000000001</v>
+        <v>0.0661301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139178</v>
+        <v>0.141494</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0676481</v>
+        <v>0.0679179</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0650066</v>
+        <v>0.0651337</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0643748</v>
+        <v>0.0633976</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06818589999999999</v>
+        <v>0.0677085</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09744220000000001</v>
+        <v>0.09958119999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0736391</v>
+        <v>0.0737333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0706816</v>
+        <v>0.07034120000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0685456</v>
+        <v>0.0678459</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0726729</v>
+        <v>0.07237209999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09975820000000001</v>
+        <v>0.101931</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0623548</v>
+        <v>0.0620438</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0567988</v>
+        <v>0.0566952</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0725606</v>
+        <v>0.07236040000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0772649</v>
+        <v>0.07702580000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102181</v>
+        <v>0.104699</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0610939</v>
+        <v>0.06111</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0571469</v>
+        <v>0.0569554</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0673173</v>
+        <v>0.0679883</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07120990000000001</v>
+        <v>0.0707947</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105385</v>
+        <v>0.10779</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0614806</v>
+        <v>0.0616641</v>
       </c>
       <c r="F53" t="n">
-        <v>0.057393</v>
+        <v>0.0572413</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0675564</v>
+        <v>0.0679324</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0713467</v>
+        <v>0.0705759</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108585</v>
+        <v>0.111066</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0620379</v>
+        <v>0.0619639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0578015</v>
+        <v>0.0579111</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0675147</v>
+        <v>0.06830310000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0713626</v>
+        <v>0.0709809</v>
       </c>
       <c r="D55" t="n">
-        <v>0.111863</v>
+        <v>0.114527</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0625652</v>
+        <v>0.0624914</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0582008</v>
+        <v>0.0597598</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06778430000000001</v>
+        <v>0.06746050000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07165680000000001</v>
+        <v>0.0711205</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115716</v>
+        <v>0.118399</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630684</v>
+        <v>0.0629397</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058541</v>
+        <v>0.0601845</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06769600000000001</v>
+        <v>0.06813520000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.072254</v>
+        <v>0.07094789999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119736</v>
+        <v>0.122122</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0634016</v>
+        <v>0.06343890000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0606484</v>
+        <v>0.0608943</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06845759999999999</v>
+        <v>0.0680837</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07160909999999999</v>
+        <v>0.07144449999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123415</v>
+        <v>0.125803</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0645165</v>
+        <v>0.06427239999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0599006</v>
+        <v>0.0599764</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0680578</v>
+        <v>0.0685061</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07254919999999999</v>
+        <v>0.0717609</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127414</v>
+        <v>0.130221</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0647467</v>
+        <v>0.0648454</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0627119</v>
+        <v>0.0610228</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0689893</v>
+        <v>0.0684176</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0722226</v>
+        <v>0.0721106</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131074</v>
+        <v>0.133823</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0660835</v>
+        <v>0.0660206</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06383170000000001</v>
+        <v>0.0639304</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0686794</v>
+        <v>0.0689594</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0726652</v>
+        <v>0.0723842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135016</v>
+        <v>0.13773</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0679795</v>
+        <v>0.0678971</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06589399999999999</v>
+        <v>0.06590559999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0697373</v>
+        <v>0.0693252</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0738684</v>
+        <v>0.0733617</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138565</v>
+        <v>0.141116</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07032869999999999</v>
+        <v>0.070198</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06841129999999999</v>
+        <v>0.0684068</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07004829999999999</v>
+        <v>0.0704693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0749659</v>
+        <v>0.0747921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142356</v>
+        <v>0.144613</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07325039999999999</v>
+        <v>0.0731639</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0722777</v>
+        <v>0.0717164</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072001</v>
+        <v>0.07214719999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0778686</v>
+        <v>0.07761990000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105965</v>
+        <v>0.107277</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0770113</v>
+        <v>0.0771787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07719719999999999</v>
+        <v>0.07631309999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747627</v>
+        <v>0.075076</v>
       </c>
       <c r="C65" t="n">
-        <v>0.081793</v>
+        <v>0.0810727</v>
       </c>
       <c r="D65" t="n">
-        <v>0.108691</v>
+        <v>0.110008</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834126</v>
+        <v>0.08376400000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0842504</v>
+        <v>0.0835225</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0792722</v>
+        <v>0.0792305</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0863786</v>
+        <v>0.0865515</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113671</v>
+        <v>0.114039</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0650068</v>
+        <v>0.06480710000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0634542</v>
+        <v>0.0633389</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0798044</v>
+        <v>0.079557</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790213</v>
+        <v>0.078262</v>
       </c>
       <c r="D67" t="n">
-        <v>0.116626</v>
+        <v>0.118428</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0653859</v>
+        <v>0.0653191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.064055</v>
+        <v>0.0638474</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0792752</v>
+        <v>0.0799105</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0798061</v>
+        <v>0.0784301</v>
       </c>
       <c r="D68" t="n">
-        <v>0.122548</v>
+        <v>0.122867</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06585679999999999</v>
+        <v>0.06582689999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0649397</v>
+        <v>0.0646412</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0793865</v>
+        <v>0.0781738</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802438</v>
+        <v>0.0792713</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127675</v>
+        <v>0.128892</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0662469</v>
+        <v>0.06624679999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0654658</v>
+        <v>0.06562850000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0798759</v>
+        <v>0.078929</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0800992</v>
+        <v>0.0797036</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134248</v>
+        <v>0.135288</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06711490000000001</v>
+        <v>0.0669231</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0664821</v>
+        <v>0.06660969999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08036939999999999</v>
+        <v>0.080153</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0811373</v>
+        <v>0.0803183</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141399</v>
+        <v>0.142609</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06759900000000001</v>
+        <v>0.06777560000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06792810000000001</v>
+        <v>0.0678713</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07996880000000001</v>
+        <v>0.08011989999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08185580000000001</v>
+        <v>0.0808077</v>
       </c>
       <c r="D72" t="n">
-        <v>0.146699</v>
+        <v>0.149262</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0684432</v>
+        <v>0.0685231</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0692468</v>
+        <v>0.06907050000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0803643</v>
+        <v>0.0829386</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0825549</v>
+        <v>0.0814771</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15465</v>
+        <v>0.156335</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0693005</v>
+        <v>0.06952700000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0709371</v>
+        <v>0.0708614</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0817798</v>
+        <v>0.0807882</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0834859</v>
+        <v>0.0824713</v>
       </c>
       <c r="D74" t="n">
-        <v>0.162266</v>
+        <v>0.163012</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0702253</v>
+        <v>0.0705407</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730214</v>
+        <v>0.07301870000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08213959999999999</v>
+        <v>0.0810772</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0846015</v>
+        <v>0.0837493</v>
       </c>
       <c r="D75" t="n">
-        <v>0.171002</v>
+        <v>0.170906</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07178089999999999</v>
+        <v>0.07192270000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07543130000000001</v>
+        <v>0.0754435</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0827835</v>
+        <v>0.08160729999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858534</v>
+        <v>0.08581560000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.180532</v>
+        <v>0.179067</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0737941</v>
+        <v>0.0739277</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0787861</v>
+        <v>0.0788015</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0854205</v>
+        <v>0.0825159</v>
       </c>
       <c r="C77" t="n">
-        <v>0.088797</v>
+        <v>0.08834839999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.18805</v>
+        <v>0.188371</v>
       </c>
       <c r="E77" t="n">
-        <v>0.076361</v>
+        <v>0.0775184</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0830562</v>
+        <v>0.0829834</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0857415</v>
+        <v>0.0845732</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09125610000000001</v>
+        <v>0.09096129999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185098</v>
+        <v>0.184317</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0804218</v>
+        <v>0.08015319999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08850860000000001</v>
+        <v>0.0883892</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.086684</v>
+        <v>0.0865659</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0946988</v>
+        <v>0.094662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.193347</v>
+        <v>0.194155</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0860916</v>
+        <v>0.08591360000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09579940000000001</v>
+        <v>0.0959004</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0906583</v>
+        <v>0.09061329999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.10087</v>
+        <v>0.100047</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201482</v>
+        <v>0.202055</v>
       </c>
       <c r="E80" t="n">
-        <v>0.113557</v>
+        <v>0.111024</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104049</v>
+        <v>0.107539</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18053</v>
+        <v>0.182299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.149351</v>
+        <v>0.152512</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205834</v>
+        <v>0.207172</v>
       </c>
       <c r="E81" t="n">
-        <v>0.112933</v>
+        <v>0.11673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10908</v>
+        <v>0.104352</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182209</v>
+        <v>0.183791</v>
       </c>
       <c r="C82" t="n">
-        <v>0.153249</v>
+        <v>0.14853</v>
       </c>
       <c r="D82" t="n">
-        <v>0.216244</v>
+        <v>0.217021</v>
       </c>
       <c r="E82" t="n">
-        <v>0.11689</v>
+        <v>0.11921</v>
       </c>
       <c r="F82" t="n">
-        <v>0.110426</v>
+        <v>0.105574</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183684</v>
+        <v>0.182632</v>
       </c>
       <c r="C83" t="n">
-        <v>0.153641</v>
+        <v>0.152277</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226451</v>
+        <v>0.229936</v>
       </c>
       <c r="E83" t="n">
-        <v>0.117849</v>
+        <v>0.117152</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11024</v>
+        <v>0.110538</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183712</v>
+        <v>0.183807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.154665</v>
+        <v>0.152993</v>
       </c>
       <c r="D84" t="n">
-        <v>0.236762</v>
+        <v>0.239753</v>
       </c>
       <c r="E84" t="n">
-        <v>0.120214</v>
+        <v>0.119573</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110778</v>
+        <v>0.112017</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.185434</v>
+        <v>0.184873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155044</v>
+        <v>0.153763</v>
       </c>
       <c r="D85" t="n">
-        <v>0.244811</v>
+        <v>0.248279</v>
       </c>
       <c r="E85" t="n">
-        <v>0.124165</v>
+        <v>0.121503</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11271</v>
+        <v>0.110962</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185091</v>
+        <v>0.185116</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15553</v>
+        <v>0.154091</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257113</v>
+        <v>0.260712</v>
       </c>
       <c r="E86" t="n">
-        <v>0.126678</v>
+        <v>0.127536</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114055</v>
+        <v>0.11224</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185492</v>
+        <v>0.185817</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15515</v>
+        <v>0.154542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266815</v>
+        <v>0.269318</v>
       </c>
       <c r="E87" t="n">
-        <v>0.127614</v>
+        <v>0.126752</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114485</v>
+        <v>0.112373</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185795</v>
+        <v>0.186041</v>
       </c>
       <c r="C88" t="n">
-        <v>0.155602</v>
+        <v>0.155152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275694</v>
+        <v>0.277961</v>
       </c>
       <c r="E88" t="n">
-        <v>0.128475</v>
+        <v>0.12888</v>
       </c>
       <c r="F88" t="n">
-        <v>0.116049</v>
+        <v>0.116283</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185947</v>
+        <v>0.186396</v>
       </c>
       <c r="C89" t="n">
-        <v>0.157538</v>
+        <v>0.156464</v>
       </c>
       <c r="D89" t="n">
-        <v>0.284004</v>
+        <v>0.285375</v>
       </c>
       <c r="E89" t="n">
-        <v>0.13045</v>
+        <v>0.131964</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116916</v>
+        <v>0.116219</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187044</v>
+        <v>0.186715</v>
       </c>
       <c r="C90" t="n">
-        <v>0.157572</v>
+        <v>0.157492</v>
       </c>
       <c r="D90" t="n">
-        <v>0.295167</v>
+        <v>0.296715</v>
       </c>
       <c r="E90" t="n">
-        <v>0.133309</v>
+        <v>0.134252</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119557</v>
+        <v>0.11789</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188498</v>
+        <v>0.187206</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159496</v>
+        <v>0.15837</v>
       </c>
       <c r="D91" t="n">
-        <v>0.303995</v>
+        <v>0.304798</v>
       </c>
       <c r="E91" t="n">
-        <v>0.13614</v>
+        <v>0.137006</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121528</v>
+        <v>0.122585</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188309</v>
+        <v>0.187696</v>
       </c>
       <c r="C92" t="n">
-        <v>0.162536</v>
+        <v>0.162436</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287785</v>
+        <v>0.288296</v>
       </c>
       <c r="E92" t="n">
-        <v>0.139709</v>
+        <v>0.140076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12751</v>
+        <v>0.127642</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190972</v>
+        <v>0.19025</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166255</v>
+        <v>0.164576</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294487</v>
+        <v>0.295259</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142977</v>
+        <v>0.144244</v>
       </c>
       <c r="F93" t="n">
-        <v>0.135959</v>
+        <v>0.133456</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192764</v>
+        <v>0.192016</v>
       </c>
       <c r="C94" t="n">
-        <v>0.17136</v>
+        <v>0.17018</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299438</v>
+        <v>0.300845</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212204</v>
+        <v>0.213344</v>
       </c>
       <c r="F94" t="n">
-        <v>0.202024</v>
+        <v>0.201673</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250091</v>
+        <v>0.249965</v>
       </c>
       <c r="C95" t="n">
-        <v>0.237174</v>
+        <v>0.236624</v>
       </c>
       <c r="D95" t="n">
-        <v>0.30777</v>
+        <v>0.308978</v>
       </c>
       <c r="E95" t="n">
-        <v>0.214225</v>
+        <v>0.214213</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202943</v>
+        <v>0.202654</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250169</v>
+        <v>0.249897</v>
       </c>
       <c r="C96" t="n">
-        <v>0.237894</v>
+        <v>0.236811</v>
       </c>
       <c r="D96" t="n">
-        <v>0.315361</v>
+        <v>0.316647</v>
       </c>
       <c r="E96" t="n">
-        <v>0.217295</v>
+        <v>0.215984</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203778</v>
+        <v>0.20368</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250434</v>
+        <v>0.249833</v>
       </c>
       <c r="C97" t="n">
-        <v>0.238026</v>
+        <v>0.237284</v>
       </c>
       <c r="D97" t="n">
-        <v>0.322755</v>
+        <v>0.324057</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21874</v>
+        <v>0.218154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.205124</v>
+        <v>0.204955</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249995</v>
+        <v>0.249769</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238341</v>
+        <v>0.237678</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333786</v>
+        <v>0.335033</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220694</v>
+        <v>0.220227</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205888</v>
+        <v>0.205745</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250157</v>
+        <v>0.249913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238924</v>
+        <v>0.238023</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340189</v>
+        <v>0.341567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222463</v>
+        <v>0.221528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.207955</v>
+        <v>0.20648</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.250266</v>
+        <v>0.251463</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239041</v>
+        <v>0.238456</v>
       </c>
       <c r="D100" t="n">
-        <v>0.34767</v>
+        <v>0.34879</v>
       </c>
       <c r="E100" t="n">
-        <v>0.226412</v>
+        <v>0.22431</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2076</v>
+        <v>0.20809</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250564</v>
+        <v>0.250316</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239921</v>
+        <v>0.238872</v>
       </c>
       <c r="D101" t="n">
-        <v>0.359395</v>
+        <v>0.359786</v>
       </c>
       <c r="E101" t="n">
-        <v>0.226615</v>
+        <v>0.226552</v>
       </c>
       <c r="F101" t="n">
-        <v>0.208952</v>
+        <v>0.209617</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250962</v>
+        <v>0.250233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240519</v>
+        <v>0.239358</v>
       </c>
       <c r="D102" t="n">
-        <v>0.367531</v>
+        <v>0.368795</v>
       </c>
       <c r="E102" t="n">
-        <v>0.229828</v>
+        <v>0.228575</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21202</v>
+        <v>0.21107</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.25086</v>
+        <v>0.250402</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24139</v>
+        <v>0.240546</v>
       </c>
       <c r="D103" t="n">
-        <v>0.376688</v>
+        <v>0.377778</v>
       </c>
       <c r="E103" t="n">
-        <v>0.23236</v>
+        <v>0.231565</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21321</v>
+        <v>0.212058</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.251532</v>
+        <v>0.251205</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243061</v>
+        <v>0.241606</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387608</v>
+        <v>0.387762</v>
       </c>
       <c r="E104" t="n">
-        <v>0.234401</v>
+        <v>0.233822</v>
       </c>
       <c r="F104" t="n">
-        <v>0.216087</v>
+        <v>0.215857</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252078</v>
+        <v>0.251373</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244742</v>
+        <v>0.244071</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395463</v>
+        <v>0.395537</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237308</v>
+        <v>0.236979</v>
       </c>
       <c r="F105" t="n">
-        <v>0.218862</v>
+        <v>0.218253</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25318</v>
+        <v>0.252197</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246931</v>
+        <v>0.246012</v>
       </c>
       <c r="D106" t="n">
-        <v>0.407407</v>
+        <v>0.407525</v>
       </c>
       <c r="E106" t="n">
-        <v>0.240234</v>
+        <v>0.240448</v>
       </c>
       <c r="F106" t="n">
-        <v>0.22286</v>
+        <v>0.221664</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25458</v>
+        <v>0.254126</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249347</v>
+        <v>0.248328</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347562</v>
+        <v>0.348265</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244424</v>
+        <v>0.244818</v>
       </c>
       <c r="F107" t="n">
-        <v>0.228668</v>
+        <v>0.228162</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257102</v>
+        <v>0.256247</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254591</v>
+        <v>0.253661</v>
       </c>
       <c r="D108" t="n">
-        <v>0.351906</v>
+        <v>0.352432</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262378</v>
+        <v>0.262334</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250731</v>
+        <v>0.251176</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261725</v>
+        <v>0.261867</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263488</v>
+        <v>0.262543</v>
       </c>
       <c r="D109" t="n">
-        <v>0.357194</v>
+        <v>0.358056</v>
       </c>
       <c r="E109" t="n">
-        <v>0.264215</v>
+        <v>0.263965</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252649</v>
+        <v>0.253047</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286085</v>
+        <v>0.286305</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297821</v>
+        <v>0.299184</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366713</v>
+        <v>0.367665</v>
       </c>
       <c r="E110" t="n">
-        <v>0.266325</v>
+        <v>0.266376</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254508</v>
+        <v>0.253824</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286581</v>
+        <v>0.286375</v>
       </c>
       <c r="C111" t="n">
-        <v>0.298267</v>
+        <v>0.29976</v>
       </c>
       <c r="D111" t="n">
-        <v>0.374504</v>
+        <v>0.375418</v>
       </c>
       <c r="E111" t="n">
-        <v>0.268004</v>
+        <v>0.268213</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255614</v>
+        <v>0.255608</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286831</v>
+        <v>0.286224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.29972</v>
+        <v>0.298348</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381624</v>
+        <v>0.382715</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2638</v>
+        <v>0.264679</v>
       </c>
       <c r="F112" t="n">
-        <v>0.257965</v>
+        <v>0.256772</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28591</v>
+        <v>0.287863</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300055</v>
+        <v>0.300695</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388067</v>
+        <v>0.389469</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264652</v>
+        <v>0.264519</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259849</v>
+        <v>0.258794</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287113</v>
+        <v>0.286543</v>
       </c>
       <c r="C114" t="n">
-        <v>0.300785</v>
+        <v>0.301627</v>
       </c>
       <c r="D114" t="n">
-        <v>0.395399</v>
+        <v>0.396848</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267409</v>
+        <v>0.267276</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261888</v>
+        <v>0.261209</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288402</v>
+        <v>0.287298</v>
       </c>
       <c r="C115" t="n">
-        <v>0.300241</v>
+        <v>0.30017</v>
       </c>
       <c r="D115" t="n">
-        <v>0.407553</v>
+        <v>0.408599</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269686</v>
+        <v>0.27024</v>
       </c>
       <c r="F115" t="n">
-        <v>0.26423</v>
+        <v>0.263472</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28735</v>
+        <v>0.286897</v>
       </c>
       <c r="C116" t="n">
-        <v>0.301646</v>
+        <v>0.30198</v>
       </c>
       <c r="D116" t="n">
-        <v>0.418901</v>
+        <v>0.419757</v>
       </c>
       <c r="E116" t="n">
-        <v>0.273591</v>
+        <v>0.273343</v>
       </c>
       <c r="F116" t="n">
-        <v>0.266519</v>
+        <v>0.26605</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.289433</v>
+        <v>0.288311</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302367</v>
+        <v>0.302533</v>
       </c>
       <c r="D117" t="n">
-        <v>0.425432</v>
+        <v>0.426123</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27626</v>
+        <v>0.277215</v>
       </c>
       <c r="F117" t="n">
-        <v>0.27016</v>
+        <v>0.269637</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289656</v>
+        <v>0.286462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304038</v>
+        <v>0.304448</v>
       </c>
       <c r="D118" t="n">
-        <v>0.435712</v>
+        <v>0.436459</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279626</v>
+        <v>0.280214</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274005</v>
+        <v>0.273795</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.290354</v>
+        <v>0.288581</v>
       </c>
       <c r="C119" t="n">
-        <v>0.307248</v>
+        <v>0.304935</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442556</v>
+        <v>0.44329</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283982</v>
+        <v>0.283494</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278073</v>
+        <v>0.278938</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289896</v>
+        <v>0.290112</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306687</v>
+        <v>0.307549</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457819</v>
+        <v>0.458459</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287528</v>
+        <v>0.287943</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284792</v>
+        <v>0.285341</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291378</v>
+        <v>0.292569</v>
       </c>
       <c r="C121" t="n">
-        <v>0.311194</v>
+        <v>0.311544</v>
       </c>
       <c r="D121" t="n">
-        <v>0.375897</v>
+        <v>0.376432</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292632</v>
+        <v>0.293186</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293514</v>
+        <v>0.293426</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294051</v>
+        <v>0.294822</v>
       </c>
       <c r="C122" t="n">
-        <v>0.315868</v>
+        <v>0.315572</v>
       </c>
       <c r="D122" t="n">
-        <v>0.380154</v>
+        <v>0.380756</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297561</v>
+        <v>0.29731</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305453</v>
+        <v>0.304859</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.297698</v>
+        <v>0.29754</v>
       </c>
       <c r="C123" t="n">
-        <v>0.324555</v>
+        <v>0.323651</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387625</v>
+        <v>0.389162</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285897</v>
+        <v>0.285416</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283783</v>
+        <v>0.283525</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366968</v>
+        <v>0.366505</v>
       </c>
       <c r="C124" t="n">
-        <v>0.387108</v>
+        <v>0.386467</v>
       </c>
       <c r="D124" t="n">
-        <v>0.394593</v>
+        <v>0.396043</v>
       </c>
       <c r="E124" t="n">
-        <v>0.288187</v>
+        <v>0.287977</v>
       </c>
       <c r="F124" t="n">
-        <v>0.285077</v>
+        <v>0.285704</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366793</v>
+        <v>0.36712</v>
       </c>
       <c r="C125" t="n">
-        <v>0.389015</v>
+        <v>0.387477</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401715</v>
+        <v>0.403608</v>
       </c>
       <c r="E125" t="n">
-        <v>0.29116</v>
+        <v>0.290451</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287507</v>
+        <v>0.287549</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.366669</v>
+        <v>0.367172</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387388</v>
+        <v>0.387335</v>
       </c>
       <c r="D126" t="n">
-        <v>0.407869</v>
+        <v>0.409885</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293625</v>
+        <v>0.293389</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289789</v>
+        <v>0.289858</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.366928</v>
+        <v>0.367124</v>
       </c>
       <c r="C127" t="n">
-        <v>0.389212</v>
+        <v>0.387894</v>
       </c>
       <c r="D127" t="n">
-        <v>0.417548</v>
+        <v>0.41908</v>
       </c>
       <c r="E127" t="n">
-        <v>0.29611</v>
+        <v>0.29602</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292583</v>
+        <v>0.292097</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367137</v>
+        <v>0.367001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.389005</v>
+        <v>0.388417</v>
       </c>
       <c r="D128" t="n">
-        <v>0.425935</v>
+        <v>0.426988</v>
       </c>
       <c r="E128" t="n">
-        <v>0.29882</v>
+        <v>0.298685</v>
       </c>
       <c r="F128" t="n">
-        <v>0.295281</v>
+        <v>0.295253</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367585</v>
+        <v>0.36829</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389574</v>
+        <v>0.388611</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433541</v>
+        <v>0.434408</v>
       </c>
       <c r="E129" t="n">
-        <v>0.30239</v>
+        <v>0.302074</v>
       </c>
       <c r="F129" t="n">
-        <v>0.298024</v>
+        <v>0.298384</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368198</v>
+        <v>0.36713</v>
       </c>
       <c r="C130" t="n">
-        <v>0.391428</v>
+        <v>0.390369</v>
       </c>
       <c r="D130" t="n">
-        <v>0.442484</v>
+        <v>0.443011</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305432</v>
+        <v>0.305493</v>
       </c>
       <c r="F130" t="n">
-        <v>0.301869</v>
+        <v>0.301605</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.367547</v>
+        <v>0.367124</v>
       </c>
       <c r="C131" t="n">
-        <v>0.392764</v>
+        <v>0.391657</v>
       </c>
       <c r="D131" t="n">
-        <v>0.451421</v>
+        <v>0.452405</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308991</v>
+        <v>0.309226</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305965</v>
+        <v>0.306291</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368011</v>
+        <v>0.36753</v>
       </c>
       <c r="C132" t="n">
-        <v>0.392606</v>
+        <v>0.392214</v>
       </c>
       <c r="D132" t="n">
-        <v>0.460776</v>
+        <v>0.461678</v>
       </c>
       <c r="E132" t="n">
-        <v>0.312987</v>
+        <v>0.313248</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304985</v>
+        <v>0.30472</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.368448</v>
+        <v>0.369809</v>
       </c>
       <c r="C133" t="n">
-        <v>0.395657</v>
+        <v>0.394151</v>
       </c>
       <c r="D133" t="n">
-        <v>0.475289</v>
+        <v>0.475167</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318431</v>
+        <v>0.317918</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311447</v>
+        <v>0.311479</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369174</v>
+        <v>0.370267</v>
       </c>
       <c r="C134" t="n">
-        <v>0.397562</v>
+        <v>0.397507</v>
       </c>
       <c r="D134" t="n">
-        <v>0.480845</v>
+        <v>0.481615</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323088</v>
+        <v>0.323241</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319297</v>
+        <v>0.319666</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371196</v>
+        <v>0.370951</v>
       </c>
       <c r="C135" t="n">
-        <v>0.401172</v>
+        <v>0.400491</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390887</v>
+        <v>0.392227</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330339</v>
+        <v>0.330053</v>
       </c>
       <c r="F135" t="n">
-        <v>0.32968</v>
+        <v>0.329836</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371501</v>
+        <v>0.373204</v>
       </c>
       <c r="C136" t="n">
-        <v>0.406135</v>
+        <v>0.405706</v>
       </c>
       <c r="D136" t="n">
-        <v>0.395585</v>
+        <v>0.396795</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339206</v>
+        <v>0.339638</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344579</v>
+        <v>0.344678</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.376004</v>
+        <v>0.376225</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412262</v>
+        <v>0.413566</v>
       </c>
       <c r="D137" t="n">
-        <v>0.401248</v>
+        <v>0.40249</v>
       </c>
       <c r="E137" t="n">
-        <v>0.309937</v>
+        <v>0.30935</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303955</v>
+        <v>0.303843</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430831</v>
+        <v>0.431404</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443444</v>
+        <v>0.44341</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410064</v>
+        <v>0.411332</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311817</v>
+        <v>0.311502</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306007</v>
+        <v>0.305792</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.43159</v>
+        <v>0.43055</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444147</v>
+        <v>0.443514</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418334</v>
+        <v>0.419878</v>
       </c>
       <c r="E139" t="n">
-        <v>0.314405</v>
+        <v>0.313854</v>
       </c>
       <c r="F139" t="n">
-        <v>0.308192</v>
+        <v>0.308248</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431439</v>
+        <v>0.431191</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444665</v>
+        <v>0.44405</v>
       </c>
       <c r="D140" t="n">
-        <v>0.424509</v>
+        <v>0.426288</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316498</v>
+        <v>0.31625</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310738</v>
+        <v>0.310764</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.431684</v>
+        <v>0.431017</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445217</v>
+        <v>0.4446</v>
       </c>
       <c r="D141" t="n">
-        <v>0.433299</v>
+        <v>0.435258</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318357</v>
+        <v>0.318048</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313234</v>
+        <v>0.313264</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431909</v>
+        <v>0.431141</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446603</v>
+        <v>0.445384</v>
       </c>
       <c r="D142" t="n">
-        <v>0.437152</v>
+        <v>0.438912</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320291</v>
+        <v>0.32028</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316298</v>
+        <v>0.316398</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431877</v>
+        <v>0.431402</v>
       </c>
       <c r="C143" t="n">
-        <v>0.447232</v>
+        <v>0.446409</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445839</v>
+        <v>0.447561</v>
       </c>
       <c r="E143" t="n">
-        <v>0.323233</v>
+        <v>0.322689</v>
       </c>
       <c r="F143" t="n">
-        <v>0.320011</v>
+        <v>0.319998</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0432077</v>
+        <v>0.0477849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0436451</v>
+        <v>0.047654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0718727</v>
+        <v>0.0791042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0440483</v>
+        <v>0.0447118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424004</v>
+        <v>0.04361</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0423998</v>
+        <v>0.0438432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0438588</v>
+        <v>0.0467897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0778563</v>
+        <v>0.0825999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0442686</v>
+        <v>0.0447091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0427051</v>
+        <v>0.0434483</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0426256</v>
+        <v>0.0438893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0442179</v>
+        <v>0.0457076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0858053</v>
+        <v>0.09029230000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0445596</v>
+        <v>0.0450535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0430195</v>
+        <v>0.0441946</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0428139</v>
+        <v>0.0440689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441792</v>
+        <v>0.0461293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0932086</v>
+        <v>0.0967942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0449492</v>
+        <v>0.0462644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0431386</v>
+        <v>0.0448813</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0436366</v>
+        <v>0.0454565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0441789</v>
+        <v>0.0479113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09851500000000001</v>
+        <v>0.104995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0451278</v>
+        <v>0.0465395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0439428</v>
+        <v>0.0441387</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04322</v>
+        <v>0.0441805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0445339</v>
+        <v>0.0467825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0620408</v>
+        <v>0.06939389999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046212</v>
+        <v>0.0471893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0444042</v>
+        <v>0.0468134</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0441331</v>
+        <v>0.0459322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0448184</v>
+        <v>0.0488359</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0647561</v>
+        <v>0.07066790000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0476245</v>
+        <v>0.0485679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0463624</v>
+        <v>0.0471254</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0449163</v>
+        <v>0.0464914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0458719</v>
+        <v>0.0494483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06996719999999999</v>
+        <v>0.07510509999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463493</v>
+        <v>0.047222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0440111</v>
+        <v>0.0448999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0493728</v>
+        <v>0.0497266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0479214</v>
+        <v>0.0488805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0740403</v>
+        <v>0.078136</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0465609</v>
+        <v>0.0470083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0440998</v>
+        <v>0.044965</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0494302</v>
+        <v>0.0498645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0483361</v>
+        <v>0.0488891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0801243</v>
+        <v>0.08162030000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0469781</v>
+        <v>0.047562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044374</v>
+        <v>0.0450756</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0497081</v>
+        <v>0.0499406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0484276</v>
+        <v>0.0495004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0855842</v>
+        <v>0.0859124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0472204</v>
+        <v>0.0476699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0447701</v>
+        <v>0.0453572</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0498636</v>
+        <v>0.0501351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0488432</v>
+        <v>0.0493314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0902551</v>
+        <v>0.09085500000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0478585</v>
+        <v>0.0477791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0449897</v>
+        <v>0.0457647</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0495364</v>
+        <v>0.05008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.048534</v>
+        <v>0.049546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09543649999999999</v>
+        <v>0.09569809999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0483258</v>
+        <v>0.0482358</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0453144</v>
+        <v>0.0460937</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0498682</v>
+        <v>0.0501829</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0492122</v>
+        <v>0.0497642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.100563</v>
+        <v>0.100138</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0484484</v>
+        <v>0.0487379</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0456555</v>
+        <v>0.0465664</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.050177</v>
+        <v>0.0504462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0491002</v>
+        <v>0.0498512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105477</v>
+        <v>0.106036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0490578</v>
+        <v>0.0492055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0458605</v>
+        <v>0.0467917</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0500996</v>
+        <v>0.0510942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0495127</v>
+        <v>0.0502514</v>
       </c>
       <c r="D17" t="n">
-        <v>0.110938</v>
+        <v>0.110249</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0490301</v>
+        <v>0.0494272</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0461931</v>
+        <v>0.0470905</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050717</v>
+        <v>0.0508252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.049884</v>
+        <v>0.0505464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11514</v>
+        <v>0.115587</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0494024</v>
+        <v>0.0497469</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0465159</v>
+        <v>0.0470867</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0509404</v>
+        <v>0.0510822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0501748</v>
+        <v>0.0501547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120157</v>
+        <v>0.119717</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0495875</v>
+        <v>0.0502864</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0469806</v>
+        <v>0.0476736</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0513002</v>
+        <v>0.0527007</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0504496</v>
+        <v>0.0508178</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123591</v>
+        <v>0.12329</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0500419</v>
+        <v>0.0519698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0478922</v>
+        <v>0.0482645</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515777</v>
+        <v>0.0528827</v>
       </c>
       <c r="C21" t="n">
-        <v>0.050976</v>
+        <v>0.0530206</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0867928</v>
+        <v>0.08618919999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0519976</v>
+        <v>0.0547977</v>
       </c>
       <c r="F21" t="n">
-        <v>0.050069</v>
+        <v>0.0504525</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0522269</v>
+        <v>0.0535832</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0520172</v>
+        <v>0.0514359</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0900595</v>
+        <v>0.0891357</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0552856</v>
+        <v>0.0577572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0534797</v>
+        <v>0.0535072</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.053419</v>
+        <v>0.0544125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0527344</v>
+        <v>0.0541984</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09359049999999999</v>
+        <v>0.0925897</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0530475</v>
+        <v>0.0529138</v>
       </c>
       <c r="F23" t="n">
-        <v>0.049593</v>
+        <v>0.0501383</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548271</v>
+        <v>0.0549266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0559932</v>
+        <v>0.0587805</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0972063</v>
+        <v>0.0954955</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0528077</v>
+        <v>0.0524508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498581</v>
+        <v>0.0505871</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551374</v>
+        <v>0.0549417</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0564787</v>
+        <v>0.0591826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101136</v>
+        <v>0.09982340000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.053177</v>
+        <v>0.0527273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500842</v>
+        <v>0.050761</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05483</v>
+        <v>0.0549404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05652</v>
+        <v>0.0592198</v>
       </c>
       <c r="D26" t="n">
-        <v>0.104704</v>
+        <v>0.103045</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537353</v>
+        <v>0.0532498</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0504269</v>
+        <v>0.0511098</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0549567</v>
+        <v>0.0550532</v>
       </c>
       <c r="C27" t="n">
-        <v>0.056335</v>
+        <v>0.0594515</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108721</v>
+        <v>0.107968</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0540508</v>
+        <v>0.0535309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0508098</v>
+        <v>0.0510754</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055084</v>
+        <v>0.0552327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0566229</v>
+        <v>0.0594543</v>
       </c>
       <c r="D28" t="n">
-        <v>0.112654</v>
+        <v>0.112531</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0543466</v>
+        <v>0.053966</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0510679</v>
+        <v>0.0517029</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0551445</v>
+        <v>0.0552308</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0568976</v>
+        <v>0.0597426</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116571</v>
+        <v>0.116471</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0549216</v>
+        <v>0.0543196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514485</v>
+        <v>0.0521521</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0554721</v>
+        <v>0.0554548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0571797</v>
+        <v>0.0598022</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120627</v>
+        <v>0.120978</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0550707</v>
+        <v>0.0545959</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0516584</v>
+        <v>0.0524596</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0556055</v>
+        <v>0.055665</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0569405</v>
+        <v>0.0574794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.124542</v>
+        <v>0.124988</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0553569</v>
+        <v>0.0549689</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0520692</v>
+        <v>0.0527335</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559151</v>
+        <v>0.0559305</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0574045</v>
+        <v>0.0575028</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12787</v>
+        <v>0.128784</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0558674</v>
+        <v>0.0556163</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0525781</v>
+        <v>0.053238</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564261</v>
+        <v>0.0560845</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0576629</v>
+        <v>0.0578947</v>
       </c>
       <c r="D33" t="n">
-        <v>0.131336</v>
+        <v>0.133043</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0563831</v>
+        <v>0.0562437</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05315</v>
+        <v>0.0537059</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05669</v>
+        <v>0.0564546</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582161</v>
+        <v>0.0608555</v>
       </c>
       <c r="D34" t="n">
-        <v>0.134416</v>
+        <v>0.134831</v>
       </c>
       <c r="E34" t="n">
-        <v>0.057641</v>
+        <v>0.0580291</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0545303</v>
+        <v>0.0547491</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0572667</v>
+        <v>0.0567728</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585309</v>
+        <v>0.0589081</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0954458</v>
+        <v>0.0930728</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0604767</v>
+        <v>0.0604605</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0575768</v>
+        <v>0.0583404</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578695</v>
+        <v>0.0578434</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0594068</v>
+        <v>0.060326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0975336</v>
+        <v>0.095931</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0667783</v>
+        <v>0.0661876</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0643238</v>
+        <v>0.0644923</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0604835</v>
+        <v>0.0605816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0635541</v>
+        <v>0.0631747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0998078</v>
+        <v>0.09806090000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0584757</v>
+        <v>0.0582716</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0537428</v>
+        <v>0.0534604</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0603408</v>
+        <v>0.0614531</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0626154</v>
+        <v>0.0629324</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102801</v>
+        <v>0.101213</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0572883</v>
+        <v>0.0572484</v>
       </c>
       <c r="F38" t="n">
-        <v>0.054015</v>
+        <v>0.0538068</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0594754</v>
+        <v>0.0602934</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06309960000000001</v>
+        <v>0.0631867</v>
       </c>
       <c r="D39" t="n">
-        <v>0.105953</v>
+        <v>0.104599</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0573471</v>
+        <v>0.0576021</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0543543</v>
+        <v>0.0540202</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0596318</v>
+        <v>0.0603791</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0633649</v>
+        <v>0.0633061</v>
       </c>
       <c r="D40" t="n">
-        <v>0.109359</v>
+        <v>0.108606</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0581289</v>
+        <v>0.0581179</v>
       </c>
       <c r="F40" t="n">
-        <v>0.054764</v>
+        <v>0.0543933</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0599659</v>
+        <v>0.060394</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0631767</v>
+        <v>0.06336459999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.112807</v>
+        <v>0.11232</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0585591</v>
+        <v>0.0580709</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0550743</v>
+        <v>0.05488</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0598843</v>
+        <v>0.0605657</v>
       </c>
       <c r="C42" t="n">
-        <v>0.063127</v>
+        <v>0.0635435</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116411</v>
+        <v>0.116186</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0588128</v>
+        <v>0.0585449</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0554061</v>
+        <v>0.0551115</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0599138</v>
+        <v>0.0606351</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0632752</v>
+        <v>0.0637354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.120183</v>
+        <v>0.12012</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0593197</v>
+        <v>0.0591906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0558458</v>
+        <v>0.0555307</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0600388</v>
+        <v>0.0607646</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0633919</v>
+        <v>0.0638914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12389</v>
+        <v>0.123938</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0598557</v>
+        <v>0.0615615</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0562986</v>
+        <v>0.0559557</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0602145</v>
+        <v>0.0610047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06371889999999999</v>
+        <v>0.0640314</v>
       </c>
       <c r="D45" t="n">
-        <v>0.127947</v>
+        <v>0.12778</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0600565</v>
+        <v>0.0602808</v>
       </c>
       <c r="F45" t="n">
-        <v>0.056736</v>
+        <v>0.056707</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0605921</v>
+        <v>0.0613383</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0640133</v>
+        <v>0.0644319</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131558</v>
+        <v>0.131862</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0608742</v>
+        <v>0.0612394</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574763</v>
+        <v>0.0576508</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0608867</v>
+        <v>0.0616124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0646365</v>
+        <v>0.0647215</v>
       </c>
       <c r="D47" t="n">
-        <v>0.134648</v>
+        <v>0.134951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0619311</v>
+        <v>0.0623346</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0587654</v>
+        <v>0.058746</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061904</v>
+        <v>0.0622914</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06522650000000001</v>
+        <v>0.0651653</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138219</v>
+        <v>0.138712</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0641567</v>
+        <v>0.0643997</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0614407</v>
+        <v>0.0612038</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0624169</v>
+        <v>0.0634895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0661301</v>
+        <v>0.0674482</v>
       </c>
       <c r="D49" t="n">
-        <v>0.141494</v>
+        <v>0.141977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679179</v>
+        <v>0.067804</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0651337</v>
+        <v>0.0649155</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0633976</v>
+        <v>0.06361899999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0677085</v>
+        <v>0.06746340000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09958119999999999</v>
+        <v>0.0985747</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0737333</v>
+        <v>0.0743033</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07034120000000001</v>
+        <v>0.0698442</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0678459</v>
+        <v>0.0682363</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07237209999999999</v>
+        <v>0.0730388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.101931</v>
+        <v>0.100764</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0620438</v>
+        <v>0.0628693</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0566952</v>
+        <v>0.056806</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07236040000000001</v>
+        <v>0.071925</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07702580000000001</v>
+        <v>0.07678740000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104699</v>
+        <v>0.10407</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06111</v>
+        <v>0.0610148</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569554</v>
+        <v>0.0570792</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0679883</v>
+        <v>0.0678048</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0707947</v>
+        <v>0.070829</v>
       </c>
       <c r="D53" t="n">
-        <v>0.10779</v>
+        <v>0.106923</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0616641</v>
+        <v>0.0614638</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0572413</v>
+        <v>0.0574267</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0679324</v>
+        <v>0.06729830000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0705759</v>
+        <v>0.0708693</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111066</v>
+        <v>0.11076</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0619639</v>
+        <v>0.061719</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579111</v>
+        <v>0.0580282</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06830310000000001</v>
+        <v>0.0680318</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0709809</v>
+        <v>0.0711464</v>
       </c>
       <c r="D55" t="n">
-        <v>0.114527</v>
+        <v>0.11398</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0624914</v>
+        <v>0.0623089</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0597598</v>
+        <v>0.0581528</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06746050000000001</v>
+        <v>0.06787650000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0711205</v>
+        <v>0.0711319</v>
       </c>
       <c r="D56" t="n">
-        <v>0.118399</v>
+        <v>0.117567</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0629397</v>
+        <v>0.0628388</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0601845</v>
+        <v>0.0587131</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06813520000000001</v>
+        <v>0.06846629999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07094789999999999</v>
+        <v>0.0722332</v>
       </c>
       <c r="D57" t="n">
-        <v>0.122122</v>
+        <v>0.121964</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06343890000000001</v>
+        <v>0.06343020000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0608943</v>
+        <v>0.0592669</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0680837</v>
+        <v>0.0678407</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07144449999999999</v>
+        <v>0.0724224</v>
       </c>
       <c r="D58" t="n">
-        <v>0.125803</v>
+        <v>0.125513</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06427239999999999</v>
+        <v>0.06411409999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0599764</v>
+        <v>0.0616278</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0685061</v>
+        <v>0.0686553</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0717609</v>
+        <v>0.0728505</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130221</v>
+        <v>0.129549</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0648454</v>
+        <v>0.0648135</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0610228</v>
+        <v>0.06263390000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684176</v>
+        <v>0.06841469999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0721106</v>
+        <v>0.0731966</v>
       </c>
       <c r="D60" t="n">
-        <v>0.133823</v>
+        <v>0.133557</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0660206</v>
+        <v>0.0658256</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0639304</v>
+        <v>0.0639801</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0689594</v>
+        <v>0.0691061</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0723842</v>
+        <v>0.07386379999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.13773</v>
+        <v>0.137348</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0678971</v>
+        <v>0.06761440000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06590559999999999</v>
+        <v>0.0661349</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0693252</v>
+        <v>0.0693038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0733617</v>
+        <v>0.0742917</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141116</v>
+        <v>0.142229</v>
       </c>
       <c r="E62" t="n">
-        <v>0.070198</v>
+        <v>0.0698771</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0684068</v>
+        <v>0.0687894</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704693</v>
+        <v>0.070405</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0747921</v>
+        <v>0.0759136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.144613</v>
+        <v>0.146405</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731639</v>
+        <v>0.07292079999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0717164</v>
+        <v>0.0727912</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07214719999999999</v>
+        <v>0.0725658</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07761990000000001</v>
+        <v>0.0783358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.107277</v>
+        <v>0.107941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0771787</v>
+        <v>0.0767144</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07631309999999999</v>
+        <v>0.0768485</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.075076</v>
+        <v>0.0753043</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0810727</v>
+        <v>0.0817214</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110008</v>
+        <v>0.112967</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08376400000000001</v>
+        <v>0.0831691</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0835225</v>
+        <v>0.08442189999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0792305</v>
+        <v>0.0789509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0865515</v>
+        <v>0.0865612</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114039</v>
+        <v>0.116917</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06480710000000001</v>
+        <v>0.06581910000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0633389</v>
+        <v>0.06370099999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.079557</v>
+        <v>0.07978250000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.078262</v>
+        <v>0.0796092</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118428</v>
+        <v>0.121689</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0653191</v>
+        <v>0.0658388</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0638474</v>
+        <v>0.0639479</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0799105</v>
+        <v>0.0817302</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0784301</v>
+        <v>0.0801181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.122867</v>
+        <v>0.12672</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06582689999999999</v>
+        <v>0.0666345</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0646412</v>
+        <v>0.06514880000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0781738</v>
+        <v>0.08018790000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0792713</v>
+        <v>0.0798719</v>
       </c>
       <c r="D69" t="n">
-        <v>0.128892</v>
+        <v>0.131904</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06624679999999999</v>
+        <v>0.0670111</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06562850000000001</v>
+        <v>0.0661337</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.078929</v>
+        <v>0.0815174</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0797036</v>
+        <v>0.0807909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.135288</v>
+        <v>0.136865</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669231</v>
+        <v>0.0675499</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06660969999999999</v>
+        <v>0.0671055</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.080153</v>
+        <v>0.0806649</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0803183</v>
+        <v>0.0813744</v>
       </c>
       <c r="D71" t="n">
-        <v>0.142609</v>
+        <v>0.144526</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06777560000000001</v>
+        <v>0.06771430000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0678713</v>
+        <v>0.0686191</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08011989999999999</v>
+        <v>0.0817664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0808077</v>
+        <v>0.08206280000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.149262</v>
+        <v>0.15157</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0685231</v>
+        <v>0.06843340000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06907050000000001</v>
+        <v>0.06991310000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0829386</v>
+        <v>0.0840982</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0814771</v>
+        <v>0.0826761</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156335</v>
+        <v>0.161718</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06952700000000001</v>
+        <v>0.0694361</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0708614</v>
+        <v>0.0716605</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0807882</v>
+        <v>0.0816192</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0824713</v>
+        <v>0.0840204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163012</v>
+        <v>0.170234</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0705407</v>
+        <v>0.0703284</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07301870000000001</v>
+        <v>0.07341250000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0810772</v>
+        <v>0.0819773</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0837493</v>
+        <v>0.0862805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170906</v>
+        <v>0.177252</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07192270000000001</v>
+        <v>0.0721388</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0754435</v>
+        <v>0.0763925</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08160729999999999</v>
+        <v>0.0824797</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08581560000000001</v>
+        <v>0.08742560000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179067</v>
+        <v>0.188183</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0739277</v>
+        <v>0.0738275</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0788015</v>
+        <v>0.0790801</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0825159</v>
+        <v>0.0826949</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08834839999999999</v>
+        <v>0.08844970000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.188371</v>
+        <v>0.195583</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0775184</v>
+        <v>0.0778006</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0829834</v>
+        <v>0.08297060000000001</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0845732</v>
+        <v>0.0838836</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09096129999999999</v>
+        <v>0.09185450000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184317</v>
+        <v>0.185349</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08015319999999999</v>
+        <v>0.08015600000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0883892</v>
+        <v>0.0887582</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0865659</v>
+        <v>0.0872531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.094662</v>
+        <v>0.096078</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194155</v>
+        <v>0.195439</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08591360000000001</v>
+        <v>0.08589579999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0959004</v>
+        <v>0.09607839999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09061329999999999</v>
+        <v>0.09101620000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100047</v>
+        <v>0.101738</v>
       </c>
       <c r="D80" t="n">
-        <v>0.202055</v>
+        <v>0.204206</v>
       </c>
       <c r="E80" t="n">
-        <v>0.111024</v>
+        <v>0.11061</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107539</v>
+        <v>0.106216</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.182299</v>
+        <v>0.181349</v>
       </c>
       <c r="C81" t="n">
-        <v>0.152512</v>
+        <v>0.149534</v>
       </c>
       <c r="D81" t="n">
-        <v>0.207172</v>
+        <v>0.210769</v>
       </c>
       <c r="E81" t="n">
-        <v>0.11673</v>
+        <v>0.112737</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104352</v>
+        <v>0.106275</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183791</v>
+        <v>0.183707</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14853</v>
+        <v>0.152298</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217021</v>
+        <v>0.220688</v>
       </c>
       <c r="E82" t="n">
-        <v>0.11921</v>
+        <v>0.112306</v>
       </c>
       <c r="F82" t="n">
-        <v>0.105574</v>
+        <v>0.10853</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182632</v>
+        <v>0.183355</v>
       </c>
       <c r="C83" t="n">
-        <v>0.152277</v>
+        <v>0.151977</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229936</v>
+        <v>0.228737</v>
       </c>
       <c r="E83" t="n">
-        <v>0.117152</v>
+        <v>0.117056</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110538</v>
+        <v>0.10957</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183807</v>
+        <v>0.183715</v>
       </c>
       <c r="C84" t="n">
-        <v>0.152993</v>
+        <v>0.152578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239753</v>
+        <v>0.238793</v>
       </c>
       <c r="E84" t="n">
-        <v>0.119573</v>
+        <v>0.118316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.112017</v>
+        <v>0.110168</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184873</v>
+        <v>0.184053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.153763</v>
+        <v>0.153452</v>
       </c>
       <c r="D85" t="n">
-        <v>0.248279</v>
+        <v>0.247305</v>
       </c>
       <c r="E85" t="n">
-        <v>0.121503</v>
+        <v>0.120799</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110962</v>
+        <v>0.108868</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185116</v>
+        <v>0.183974</v>
       </c>
       <c r="C86" t="n">
-        <v>0.154091</v>
+        <v>0.153701</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260712</v>
+        <v>0.259609</v>
       </c>
       <c r="E86" t="n">
-        <v>0.127536</v>
+        <v>0.12293</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11224</v>
+        <v>0.110028</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185817</v>
+        <v>0.185147</v>
       </c>
       <c r="C87" t="n">
-        <v>0.154542</v>
+        <v>0.15363</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269318</v>
+        <v>0.270076</v>
       </c>
       <c r="E87" t="n">
-        <v>0.126752</v>
+        <v>0.123597</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112373</v>
+        <v>0.110637</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186041</v>
+        <v>0.185299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.155152</v>
+        <v>0.153181</v>
       </c>
       <c r="D88" t="n">
-        <v>0.277961</v>
+        <v>0.279011</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12888</v>
+        <v>0.129607</v>
       </c>
       <c r="F88" t="n">
-        <v>0.116283</v>
+        <v>0.113395</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186396</v>
+        <v>0.185748</v>
       </c>
       <c r="C89" t="n">
-        <v>0.156464</v>
+        <v>0.155422</v>
       </c>
       <c r="D89" t="n">
-        <v>0.285375</v>
+        <v>0.288047</v>
       </c>
       <c r="E89" t="n">
-        <v>0.131964</v>
+        <v>0.127235</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116219</v>
+        <v>0.115202</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186715</v>
+        <v>0.187311</v>
       </c>
       <c r="C90" t="n">
-        <v>0.157492</v>
+        <v>0.158746</v>
       </c>
       <c r="D90" t="n">
-        <v>0.296715</v>
+        <v>0.298519</v>
       </c>
       <c r="E90" t="n">
-        <v>0.134252</v>
+        <v>0.12978</v>
       </c>
       <c r="F90" t="n">
-        <v>0.11789</v>
+        <v>0.118196</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187206</v>
+        <v>0.1862</v>
       </c>
       <c r="C91" t="n">
-        <v>0.15837</v>
+        <v>0.15832</v>
       </c>
       <c r="D91" t="n">
-        <v>0.304798</v>
+        <v>0.308068</v>
       </c>
       <c r="E91" t="n">
-        <v>0.137006</v>
+        <v>0.134617</v>
       </c>
       <c r="F91" t="n">
-        <v>0.122585</v>
+        <v>0.124213</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187696</v>
+        <v>0.186417</v>
       </c>
       <c r="C92" t="n">
-        <v>0.162436</v>
+        <v>0.162713</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288296</v>
+        <v>0.289316</v>
       </c>
       <c r="E92" t="n">
-        <v>0.140076</v>
+        <v>0.136196</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127642</v>
+        <v>0.127487</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19025</v>
+        <v>0.18862</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164576</v>
+        <v>0.165507</v>
       </c>
       <c r="D93" t="n">
-        <v>0.295259</v>
+        <v>0.296302</v>
       </c>
       <c r="E93" t="n">
-        <v>0.144244</v>
+        <v>0.139353</v>
       </c>
       <c r="F93" t="n">
-        <v>0.133456</v>
+        <v>0.134791</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192016</v>
+        <v>0.190594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.17018</v>
+        <v>0.172599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.300845</v>
+        <v>0.301454</v>
       </c>
       <c r="E94" t="n">
-        <v>0.213344</v>
+        <v>0.214306</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201673</v>
+        <v>0.202677</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249965</v>
+        <v>0.251066</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236624</v>
+        <v>0.238439</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308978</v>
+        <v>0.311012</v>
       </c>
       <c r="E95" t="n">
-        <v>0.214213</v>
+        <v>0.215303</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202654</v>
+        <v>0.204307</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249897</v>
+        <v>0.251837</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236811</v>
+        <v>0.238263</v>
       </c>
       <c r="D96" t="n">
-        <v>0.316647</v>
+        <v>0.317872</v>
       </c>
       <c r="E96" t="n">
-        <v>0.215984</v>
+        <v>0.21867</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20368</v>
+        <v>0.204659</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249833</v>
+        <v>0.251159</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237284</v>
+        <v>0.238463</v>
       </c>
       <c r="D97" t="n">
-        <v>0.324057</v>
+        <v>0.325798</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218154</v>
+        <v>0.219442</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204955</v>
+        <v>0.20637</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249769</v>
+        <v>0.251198</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237678</v>
+        <v>0.238871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.335033</v>
+        <v>0.336362</v>
       </c>
       <c r="E98" t="n">
-        <v>0.220227</v>
+        <v>0.221407</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205745</v>
+        <v>0.206595</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.249913</v>
+        <v>0.251237</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238023</v>
+        <v>0.239402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.341567</v>
+        <v>0.343136</v>
       </c>
       <c r="E99" t="n">
-        <v>0.221528</v>
+        <v>0.222983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20648</v>
+        <v>0.207276</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251463</v>
+        <v>0.25214</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238456</v>
+        <v>0.23975</v>
       </c>
       <c r="D100" t="n">
-        <v>0.34879</v>
+        <v>0.350798</v>
       </c>
       <c r="E100" t="n">
-        <v>0.22431</v>
+        <v>0.225706</v>
       </c>
       <c r="F100" t="n">
-        <v>0.20809</v>
+        <v>0.209887</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250316</v>
+        <v>0.252001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238872</v>
+        <v>0.240414</v>
       </c>
       <c r="D101" t="n">
-        <v>0.359786</v>
+        <v>0.362501</v>
       </c>
       <c r="E101" t="n">
-        <v>0.226552</v>
+        <v>0.22845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209617</v>
+        <v>0.211326</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250233</v>
+        <v>0.252266</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239358</v>
+        <v>0.240995</v>
       </c>
       <c r="D102" t="n">
-        <v>0.368795</v>
+        <v>0.371786</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228575</v>
+        <v>0.229939</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21107</v>
+        <v>0.212452</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250402</v>
+        <v>0.252223</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240546</v>
+        <v>0.242144</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377778</v>
+        <v>0.380677</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231565</v>
+        <v>0.23205</v>
       </c>
       <c r="F103" t="n">
-        <v>0.212058</v>
+        <v>0.213693</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.251205</v>
+        <v>0.252427</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241606</v>
+        <v>0.243297</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387762</v>
+        <v>0.391416</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233822</v>
+        <v>0.235309</v>
       </c>
       <c r="F104" t="n">
-        <v>0.215857</v>
+        <v>0.217047</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251373</v>
+        <v>0.253301</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244071</v>
+        <v>0.245068</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395537</v>
+        <v>0.399585</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236979</v>
+        <v>0.237597</v>
       </c>
       <c r="F105" t="n">
-        <v>0.218253</v>
+        <v>0.219442</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252197</v>
+        <v>0.254084</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246012</v>
+        <v>0.247542</v>
       </c>
       <c r="D106" t="n">
-        <v>0.407525</v>
+        <v>0.411628</v>
       </c>
       <c r="E106" t="n">
-        <v>0.240448</v>
+        <v>0.241759</v>
       </c>
       <c r="F106" t="n">
-        <v>0.221664</v>
+        <v>0.223657</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254126</v>
+        <v>0.255387</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248328</v>
+        <v>0.250653</v>
       </c>
       <c r="D107" t="n">
-        <v>0.348265</v>
+        <v>0.350036</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244818</v>
+        <v>0.245731</v>
       </c>
       <c r="F107" t="n">
-        <v>0.228162</v>
+        <v>0.229674</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256247</v>
+        <v>0.258075</v>
       </c>
       <c r="C108" t="n">
-        <v>0.253661</v>
+        <v>0.255386</v>
       </c>
       <c r="D108" t="n">
-        <v>0.352432</v>
+        <v>0.354272</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262334</v>
+        <v>0.263636</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251176</v>
+        <v>0.25257</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261867</v>
+        <v>0.263058</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262543</v>
+        <v>0.263385</v>
       </c>
       <c r="D109" t="n">
-        <v>0.358056</v>
+        <v>0.359649</v>
       </c>
       <c r="E109" t="n">
-        <v>0.263965</v>
+        <v>0.265205</v>
       </c>
       <c r="F109" t="n">
-        <v>0.253047</v>
+        <v>0.253592</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286305</v>
+        <v>0.286034</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299184</v>
+        <v>0.299904</v>
       </c>
       <c r="D110" t="n">
-        <v>0.367665</v>
+        <v>0.369534</v>
       </c>
       <c r="E110" t="n">
-        <v>0.266376</v>
+        <v>0.268055</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253824</v>
+        <v>0.255034</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286375</v>
+        <v>0.287852</v>
       </c>
       <c r="C111" t="n">
-        <v>0.29976</v>
+        <v>0.300604</v>
       </c>
       <c r="D111" t="n">
-        <v>0.375418</v>
+        <v>0.377332</v>
       </c>
       <c r="E111" t="n">
-        <v>0.268213</v>
+        <v>0.269425</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255608</v>
+        <v>0.257632</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286224</v>
+        <v>0.287731</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298348</v>
+        <v>0.302561</v>
       </c>
       <c r="D112" t="n">
-        <v>0.382715</v>
+        <v>0.384897</v>
       </c>
       <c r="E112" t="n">
-        <v>0.264679</v>
+        <v>0.265861</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256772</v>
+        <v>0.258434</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287863</v>
+        <v>0.289032</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300695</v>
+        <v>0.302949</v>
       </c>
       <c r="D113" t="n">
-        <v>0.389469</v>
+        <v>0.391734</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264519</v>
+        <v>0.266016</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258794</v>
+        <v>0.260325</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286543</v>
+        <v>0.287291</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301627</v>
+        <v>0.301522</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396848</v>
+        <v>0.399191</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267276</v>
+        <v>0.268472</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261209</v>
+        <v>0.262652</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287298</v>
+        <v>0.286973</v>
       </c>
       <c r="C115" t="n">
-        <v>0.30017</v>
+        <v>0.30331</v>
       </c>
       <c r="D115" t="n">
-        <v>0.408599</v>
+        <v>0.411364</v>
       </c>
       <c r="E115" t="n">
-        <v>0.27024</v>
+        <v>0.27174</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263472</v>
+        <v>0.264785</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286897</v>
+        <v>0.288179</v>
       </c>
       <c r="C116" t="n">
-        <v>0.30198</v>
+        <v>0.305438</v>
       </c>
       <c r="D116" t="n">
-        <v>0.419757</v>
+        <v>0.423207</v>
       </c>
       <c r="E116" t="n">
-        <v>0.273343</v>
+        <v>0.274522</v>
       </c>
       <c r="F116" t="n">
-        <v>0.26605</v>
+        <v>0.267592</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288311</v>
+        <v>0.288439</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302533</v>
+        <v>0.30475</v>
       </c>
       <c r="D117" t="n">
-        <v>0.426123</v>
+        <v>0.429934</v>
       </c>
       <c r="E117" t="n">
-        <v>0.277215</v>
+        <v>0.278267</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269637</v>
+        <v>0.271228</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286462</v>
+        <v>0.289765</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304448</v>
+        <v>0.303902</v>
       </c>
       <c r="D118" t="n">
-        <v>0.436459</v>
+        <v>0.440152</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280214</v>
+        <v>0.281538</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273795</v>
+        <v>0.274818</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288581</v>
+        <v>0.289419</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304935</v>
+        <v>0.307306</v>
       </c>
       <c r="D119" t="n">
-        <v>0.44329</v>
+        <v>0.448213</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283494</v>
+        <v>0.285367</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278938</v>
+        <v>0.279756</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.290112</v>
+        <v>0.291988</v>
       </c>
       <c r="C120" t="n">
-        <v>0.307549</v>
+        <v>0.308897</v>
       </c>
       <c r="D120" t="n">
-        <v>0.458459</v>
+        <v>0.462984</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287943</v>
+        <v>0.289198</v>
       </c>
       <c r="F120" t="n">
-        <v>0.285341</v>
+        <v>0.285484</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292569</v>
+        <v>0.292723</v>
       </c>
       <c r="C121" t="n">
-        <v>0.311544</v>
+        <v>0.313464</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376432</v>
+        <v>0.378501</v>
       </c>
       <c r="E121" t="n">
-        <v>0.293186</v>
+        <v>0.293627</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293426</v>
+        <v>0.294626</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294822</v>
+        <v>0.293953</v>
       </c>
       <c r="C122" t="n">
-        <v>0.315572</v>
+        <v>0.316705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.380756</v>
+        <v>0.383085</v>
       </c>
       <c r="E122" t="n">
-        <v>0.29731</v>
+        <v>0.299016</v>
       </c>
       <c r="F122" t="n">
-        <v>0.304859</v>
+        <v>0.305882</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29754</v>
+        <v>0.298746</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323651</v>
+        <v>0.326429</v>
       </c>
       <c r="D123" t="n">
-        <v>0.389162</v>
+        <v>0.390863</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285416</v>
+        <v>0.287357</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283525</v>
+        <v>0.285071</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366505</v>
+        <v>0.36883</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386467</v>
+        <v>0.388069</v>
       </c>
       <c r="D124" t="n">
-        <v>0.396043</v>
+        <v>0.398581</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287977</v>
+        <v>0.289911</v>
       </c>
       <c r="F124" t="n">
-        <v>0.285704</v>
+        <v>0.286838</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.36712</v>
+        <v>0.367771</v>
       </c>
       <c r="C125" t="n">
-        <v>0.387477</v>
+        <v>0.390132</v>
       </c>
       <c r="D125" t="n">
-        <v>0.403608</v>
+        <v>0.40603</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290451</v>
+        <v>0.292059</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287549</v>
+        <v>0.288857</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367172</v>
+        <v>0.368772</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387335</v>
+        <v>0.389847</v>
       </c>
       <c r="D126" t="n">
-        <v>0.409885</v>
+        <v>0.411626</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293389</v>
+        <v>0.294974</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289858</v>
+        <v>0.291426</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367124</v>
+        <v>0.369938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387894</v>
+        <v>0.390377</v>
       </c>
       <c r="D127" t="n">
-        <v>0.41908</v>
+        <v>0.421606</v>
       </c>
       <c r="E127" t="n">
-        <v>0.29602</v>
+        <v>0.297653</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292097</v>
+        <v>0.294059</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367001</v>
+        <v>0.368676</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388417</v>
+        <v>0.391167</v>
       </c>
       <c r="D128" t="n">
-        <v>0.426988</v>
+        <v>0.429611</v>
       </c>
       <c r="E128" t="n">
-        <v>0.298685</v>
+        <v>0.300825</v>
       </c>
       <c r="F128" t="n">
-        <v>0.295253</v>
+        <v>0.296337</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.36829</v>
+        <v>0.36839</v>
       </c>
       <c r="C129" t="n">
-        <v>0.388611</v>
+        <v>0.392887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.434408</v>
+        <v>0.437937</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302074</v>
+        <v>0.303402</v>
       </c>
       <c r="F129" t="n">
-        <v>0.298384</v>
+        <v>0.300374</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.36713</v>
+        <v>0.370536</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390369</v>
+        <v>0.393775</v>
       </c>
       <c r="D130" t="n">
-        <v>0.443011</v>
+        <v>0.446451</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305493</v>
+        <v>0.306772</v>
       </c>
       <c r="F130" t="n">
-        <v>0.301605</v>
+        <v>0.303988</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.367124</v>
+        <v>0.369043</v>
       </c>
       <c r="C131" t="n">
-        <v>0.391657</v>
+        <v>0.393907</v>
       </c>
       <c r="D131" t="n">
-        <v>0.452405</v>
+        <v>0.456092</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309226</v>
+        <v>0.310758</v>
       </c>
       <c r="F131" t="n">
-        <v>0.306291</v>
+        <v>0.307532</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36753</v>
+        <v>0.371013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.392214</v>
+        <v>0.395079</v>
       </c>
       <c r="D132" t="n">
-        <v>0.461678</v>
+        <v>0.465774</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313248</v>
+        <v>0.31441</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30472</v>
+        <v>0.306032</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369809</v>
+        <v>0.371528</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394151</v>
+        <v>0.396776</v>
       </c>
       <c r="D133" t="n">
-        <v>0.475167</v>
+        <v>0.479856</v>
       </c>
       <c r="E133" t="n">
-        <v>0.317918</v>
+        <v>0.319576</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311479</v>
+        <v>0.312998</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370267</v>
+        <v>0.372367</v>
       </c>
       <c r="C134" t="n">
-        <v>0.397507</v>
+        <v>0.400057</v>
       </c>
       <c r="D134" t="n">
-        <v>0.481615</v>
+        <v>0.486515</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323241</v>
+        <v>0.324671</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319666</v>
+        <v>0.320377</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.370951</v>
+        <v>0.372077</v>
       </c>
       <c r="C135" t="n">
-        <v>0.400491</v>
+        <v>0.402036</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392227</v>
+        <v>0.394105</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330053</v>
+        <v>0.331304</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329836</v>
+        <v>0.331393</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373204</v>
+        <v>0.373776</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405706</v>
+        <v>0.407496</v>
       </c>
       <c r="D136" t="n">
-        <v>0.396795</v>
+        <v>0.398845</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339638</v>
+        <v>0.340705</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344678</v>
+        <v>0.345774</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.376225</v>
+        <v>0.377771</v>
       </c>
       <c r="C137" t="n">
-        <v>0.413566</v>
+        <v>0.415782</v>
       </c>
       <c r="D137" t="n">
-        <v>0.40249</v>
+        <v>0.404934</v>
       </c>
       <c r="E137" t="n">
-        <v>0.30935</v>
+        <v>0.311377</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303843</v>
+        <v>0.305539</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.431404</v>
+        <v>0.433661</v>
       </c>
       <c r="C138" t="n">
-        <v>0.44341</v>
+        <v>0.445751</v>
       </c>
       <c r="D138" t="n">
-        <v>0.411332</v>
+        <v>0.413547</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311502</v>
+        <v>0.313392</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305792</v>
+        <v>0.307662</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.43055</v>
+        <v>0.433881</v>
       </c>
       <c r="C139" t="n">
-        <v>0.443514</v>
+        <v>0.446122</v>
       </c>
       <c r="D139" t="n">
-        <v>0.419878</v>
+        <v>0.421801</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313854</v>
+        <v>0.315658</v>
       </c>
       <c r="F139" t="n">
-        <v>0.308248</v>
+        <v>0.30991</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431191</v>
+        <v>0.434249</v>
       </c>
       <c r="C140" t="n">
-        <v>0.44405</v>
+        <v>0.446731</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426288</v>
+        <v>0.428938</v>
       </c>
       <c r="E140" t="n">
-        <v>0.31625</v>
+        <v>0.318299</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310764</v>
+        <v>0.312342</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.431017</v>
+        <v>0.434184</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4446</v>
+        <v>0.447381</v>
       </c>
       <c r="D141" t="n">
-        <v>0.435258</v>
+        <v>0.437874</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318048</v>
+        <v>0.319872</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313264</v>
+        <v>0.314818</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431141</v>
+        <v>0.434603</v>
       </c>
       <c r="C142" t="n">
-        <v>0.445384</v>
+        <v>0.449333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438912</v>
+        <v>0.441837</v>
       </c>
       <c r="E142" t="n">
-        <v>0.32028</v>
+        <v>0.322415</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316398</v>
+        <v>0.317968</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431402</v>
+        <v>0.434704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446409</v>
+        <v>0.449909</v>
       </c>
       <c r="D143" t="n">
-        <v>0.447561</v>
+        <v>0.450735</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322689</v>
+        <v>0.32516</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319998</v>
+        <v>0.321507</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0442261</v>
+        <v>0.0506544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433395</v>
+        <v>0.0488965</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674421</v>
+        <v>0.06854250000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044811</v>
+        <v>0.0494772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424842</v>
+        <v>0.0461854</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428765</v>
+        <v>0.0515323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439113</v>
+        <v>0.0487189</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745835</v>
+        <v>0.0732</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0451219</v>
+        <v>0.0498899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0428918</v>
+        <v>0.0464964</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430063</v>
+        <v>0.0515607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0441392</v>
+        <v>0.0491919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.082624</v>
+        <v>0.08212179999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.045062</v>
+        <v>0.0487123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433083</v>
+        <v>0.0462546</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432025</v>
+        <v>0.0525494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442308</v>
+        <v>0.0498276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898258</v>
+        <v>0.0907357</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0456372</v>
+        <v>0.0479381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0435502</v>
+        <v>0.0464251</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0443379</v>
+        <v>0.0527965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0445874</v>
+        <v>0.0512504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0971081</v>
+        <v>0.09902320000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0464122</v>
+        <v>0.0493348</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0441455</v>
+        <v>0.0458631</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043242</v>
+        <v>0.0531025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448458</v>
+        <v>0.0524468</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0615178</v>
+        <v>0.0567047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.046965</v>
+        <v>0.0475556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0449868</v>
+        <v>0.0483341</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0448323</v>
+        <v>0.0530609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0451777</v>
+        <v>0.0522424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0633457</v>
+        <v>0.0602789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0483883</v>
+        <v>0.0525869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0466535</v>
+        <v>0.050214</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0453542</v>
+        <v>0.0536571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460115</v>
+        <v>0.0536981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0682676</v>
+        <v>0.06651170000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0463742</v>
+        <v>0.0474447</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445529</v>
+        <v>0.0515332</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501731</v>
+        <v>0.0552532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.048742</v>
+        <v>0.0557694</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073044</v>
+        <v>0.0742435</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0468686</v>
+        <v>0.0472042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0445993</v>
+        <v>0.0520265</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501373</v>
+        <v>0.0553231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489502</v>
+        <v>0.0560119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07894329999999999</v>
+        <v>0.0794517</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0472224</v>
+        <v>0.0477223</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044705</v>
+        <v>0.0521407</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0502896</v>
+        <v>0.0554318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493674</v>
+        <v>0.0561666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840211</v>
+        <v>0.0849828</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0474163</v>
+        <v>0.0477764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0449327</v>
+        <v>0.0523709</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0501174</v>
+        <v>0.0553559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495586</v>
+        <v>0.0562986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0885949</v>
+        <v>0.091183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0480089</v>
+        <v>0.0486323</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0452642</v>
+        <v>0.0527618</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500999</v>
+        <v>0.0559877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494627</v>
+        <v>0.056556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0937648</v>
+        <v>0.0963783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485301</v>
+        <v>0.0485412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0456506</v>
+        <v>0.0532988</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506307</v>
+        <v>0.055846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0497843</v>
+        <v>0.0568906</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09862269999999999</v>
+        <v>0.101275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048384</v>
+        <v>0.0491777</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0460584</v>
+        <v>0.0535391</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0507079</v>
+        <v>0.0559564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05004</v>
+        <v>0.0570955</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103508</v>
+        <v>0.106194</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0492264</v>
+        <v>0.0497626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0463861</v>
+        <v>0.0539834</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0507012</v>
+        <v>0.0560739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503345</v>
+        <v>0.0574248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108515</v>
+        <v>0.11042</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0494649</v>
+        <v>0.0499594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466076</v>
+        <v>0.0542083</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.050956</v>
+        <v>0.0563374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507402</v>
+        <v>0.0577181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113271</v>
+        <v>0.114424</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498593</v>
+        <v>0.0499839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0468609</v>
+        <v>0.0545014</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0510159</v>
+        <v>0.0564804</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504641</v>
+        <v>0.0581553</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117907</v>
+        <v>0.120361</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0501626</v>
+        <v>0.050242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.047385</v>
+        <v>0.0548965</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514044</v>
+        <v>0.0559708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508687</v>
+        <v>0.058833</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121464</v>
+        <v>0.123943</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0509812</v>
+        <v>0.0495724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0483732</v>
+        <v>0.0558096</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516981</v>
+        <v>0.0563545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0513741</v>
+        <v>0.0601969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849673</v>
+        <v>0.0820911</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0521421</v>
+        <v>0.0515369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494408</v>
+        <v>0.0526945</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521486</v>
+        <v>0.0568331</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522376</v>
+        <v>0.0622716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08790530000000001</v>
+        <v>0.0849583</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0559189</v>
+        <v>0.0552026</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0536981</v>
+        <v>0.0578964</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534345</v>
+        <v>0.057983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0536667</v>
+        <v>0.0635901</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0917898</v>
+        <v>0.0889099</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0537226</v>
+        <v>0.0513285</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0495406</v>
+        <v>0.051932</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548668</v>
+        <v>0.0600999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564583</v>
+        <v>0.0596515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09493600000000001</v>
+        <v>0.0925851</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0529843</v>
+        <v>0.0513707</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0498194</v>
+        <v>0.0523031</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552181</v>
+        <v>0.0599111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0565135</v>
+        <v>0.0598087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0984009</v>
+        <v>0.0966122</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533758</v>
+        <v>0.0517288</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0500337</v>
+        <v>0.0525472</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0551953</v>
+        <v>0.0601069</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570501</v>
+        <v>0.0599159</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102276</v>
+        <v>0.100014</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0537835</v>
+        <v>0.0519855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0503463</v>
+        <v>0.0528882</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554485</v>
+        <v>0.0604049</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0570172</v>
+        <v>0.0598661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106325</v>
+        <v>0.104136</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0543934</v>
+        <v>0.0532799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510282</v>
+        <v>0.0532629</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0556372</v>
+        <v>0.0601458</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0570992</v>
+        <v>0.0601209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110103</v>
+        <v>0.108061</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0547922</v>
+        <v>0.0527185</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0509818</v>
+        <v>0.0534764</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0555719</v>
+        <v>0.0606701</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0570917</v>
+        <v>0.0603796</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114166</v>
+        <v>0.112112</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054725</v>
+        <v>0.0533547</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0514247</v>
+        <v>0.0538567</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055618</v>
+        <v>0.060708</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0573126</v>
+        <v>0.0605185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118266</v>
+        <v>0.116466</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0552535</v>
+        <v>0.0537006</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0515957</v>
+        <v>0.0541368</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557051</v>
+        <v>0.0608489</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0577077</v>
+        <v>0.0609292</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122379</v>
+        <v>0.120623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0557179</v>
+        <v>0.0538831</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0519822</v>
+        <v>0.0546227</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558719</v>
+        <v>0.0609833</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0581252</v>
+        <v>0.061531</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125829</v>
+        <v>0.123828</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0559483</v>
+        <v>0.0544585</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0523521</v>
+        <v>0.0550878</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562297</v>
+        <v>0.0612507</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0581537</v>
+        <v>0.0620077</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12919</v>
+        <v>0.128665</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0566734</v>
+        <v>0.0549714</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0533134</v>
+        <v>0.0555276</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566325</v>
+        <v>0.0615291</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0582222</v>
+        <v>0.0629295</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132401</v>
+        <v>0.131219</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0575296</v>
+        <v>0.0562095</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0544527</v>
+        <v>0.05701</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0567244</v>
+        <v>0.062281</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585812</v>
+        <v>0.0637813</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0931403</v>
+        <v>0.0904484</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0606524</v>
+        <v>0.0591078</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0581598</v>
+        <v>0.0606544</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579338</v>
+        <v>0.06258859999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0601447</v>
+        <v>0.0647966</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0955546</v>
+        <v>0.09356730000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0664445</v>
+        <v>0.0648764</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06445969999999999</v>
+        <v>0.0695152</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605106</v>
+        <v>0.0663639</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06313680000000001</v>
+        <v>0.0685191</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0976178</v>
+        <v>0.0951048</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0590445</v>
+        <v>0.0575655</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0535276</v>
+        <v>0.056858</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061463</v>
+        <v>0.0655337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636135</v>
+        <v>0.06653480000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.100446</v>
+        <v>0.09813280000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0574488</v>
+        <v>0.0556156</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0538241</v>
+        <v>0.0569496</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.060147</v>
+        <v>0.0658866</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0639787</v>
+        <v>0.06683409999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.103364</v>
+        <v>0.101253</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0578294</v>
+        <v>0.0560622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0540959</v>
+        <v>0.0570944</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603414</v>
+        <v>0.0655626</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06405760000000001</v>
+        <v>0.0668087</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106625</v>
+        <v>0.104658</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0585477</v>
+        <v>0.0563884</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0544441</v>
+        <v>0.0579829</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605495</v>
+        <v>0.0655208</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0642286</v>
+        <v>0.0669063</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11031</v>
+        <v>0.108105</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591438</v>
+        <v>0.0567687</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0549241</v>
+        <v>0.0579808</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606603</v>
+        <v>0.0659141</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0640911</v>
+        <v>0.0670964</v>
       </c>
       <c r="D42" t="n">
-        <v>0.113872</v>
+        <v>0.111506</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0597062</v>
+        <v>0.0570821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0551815</v>
+        <v>0.0583513</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607052</v>
+        <v>0.0656277</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06432640000000001</v>
+        <v>0.0672546</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117738</v>
+        <v>0.115575</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0598578</v>
+        <v>0.0579308</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0555353</v>
+        <v>0.0590082</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0608055</v>
+        <v>0.06602280000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0645878</v>
+        <v>0.06756719999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.121387</v>
+        <v>0.119269</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0606236</v>
+        <v>0.0579073</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0559141</v>
+        <v>0.0592557</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061007</v>
+        <v>0.06630659999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0647992</v>
+        <v>0.0680664</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125391</v>
+        <v>0.123074</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0612943</v>
+        <v>0.0585597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0566346</v>
+        <v>0.0600608</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061313</v>
+        <v>0.06723179999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0651297</v>
+        <v>0.06848029999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129279</v>
+        <v>0.126606</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0612577</v>
+        <v>0.0594573</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0574873</v>
+        <v>0.0607738</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061551</v>
+        <v>0.0667722</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0655097</v>
+        <v>0.0688703</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132363</v>
+        <v>0.130668</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0623429</v>
+        <v>0.0605334</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0585498</v>
+        <v>0.0619979</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.061578</v>
+        <v>0.0687799</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.06949660000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13586</v>
+        <v>0.134506</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06452040000000001</v>
+        <v>0.0625201</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0612556</v>
+        <v>0.06376329999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621648</v>
+        <v>0.0695909</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0658374</v>
+        <v>0.07109119999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139016</v>
+        <v>0.137872</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0679212</v>
+        <v>0.066012</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0646786</v>
+        <v>0.0678554</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645255</v>
+        <v>0.0705499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0684633</v>
+        <v>0.0733094</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0973888</v>
+        <v>0.09452770000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0727101</v>
+        <v>0.07039380000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0700505</v>
+        <v>0.0731034</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0677104</v>
+        <v>0.0756797</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.0762982</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09968929999999999</v>
+        <v>0.0970009</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0617937</v>
+        <v>0.0603818</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0565977</v>
+        <v>0.0594318</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.072035</v>
+        <v>0.0787076</v>
       </c>
       <c r="C52" t="n">
-        <v>0.077149</v>
+        <v>0.08153870000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102056</v>
+        <v>0.0998532</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0611771</v>
+        <v>0.0591048</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0569705</v>
+        <v>0.0597451</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757349999999999</v>
+        <v>0.0725307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0711485</v>
+        <v>0.0756107</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105467</v>
+        <v>0.101666</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0618582</v>
+        <v>0.0596648</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0574304</v>
+        <v>0.0598784</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0673551</v>
+        <v>0.07319000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0711507</v>
+        <v>0.07572470000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108418</v>
+        <v>0.10607</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0621909</v>
+        <v>0.0600424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0579579</v>
+        <v>0.0605497</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678165</v>
+        <v>0.0726451</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07125620000000001</v>
+        <v>0.0757468</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11183</v>
+        <v>0.109675</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626467</v>
+        <v>0.0607497</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0583696</v>
+        <v>0.0599048</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676182</v>
+        <v>0.07276489999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0715219</v>
+        <v>0.0759553</v>
       </c>
       <c r="D56" t="n">
-        <v>0.115461</v>
+        <v>0.113509</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0630502</v>
+        <v>0.0612263</v>
       </c>
       <c r="F56" t="n">
-        <v>0.058718</v>
+        <v>0.0603396</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679245</v>
+        <v>0.0729219</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0714403</v>
+        <v>0.07616290000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.119594</v>
+        <v>0.117165</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0635468</v>
+        <v>0.0617029</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0592846</v>
+        <v>0.0609542</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06835529999999999</v>
+        <v>0.0709535</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0715956</v>
+        <v>0.07590189999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.123225</v>
+        <v>0.121352</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06438000000000001</v>
+        <v>0.0620815</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0612002</v>
+        <v>0.0627945</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06824089999999999</v>
+        <v>0.07306360000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0720398</v>
+        <v>0.07513640000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.127117</v>
+        <v>0.125483</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06493309999999999</v>
+        <v>0.06285010000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0621119</v>
+        <v>0.0625236</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684545</v>
+        <v>0.0736517</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07275760000000001</v>
+        <v>0.0759557</v>
       </c>
       <c r="D60" t="n">
-        <v>0.131041</v>
+        <v>0.129158</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0662929</v>
+        <v>0.0639744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0638517</v>
+        <v>0.0651173</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06869840000000001</v>
+        <v>0.0737336</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0735697</v>
+        <v>0.0762601</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135099</v>
+        <v>0.133234</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06792570000000001</v>
+        <v>0.065701</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0657039</v>
+        <v>0.0669415</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956900000000001</v>
+        <v>0.0733302</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0749084</v>
+        <v>0.07585459999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138501</v>
+        <v>0.137182</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0701854</v>
+        <v>0.0679434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0686645</v>
+        <v>0.0694423</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0704283</v>
+        <v>0.0733304</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07568709999999999</v>
+        <v>0.0761585</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142199</v>
+        <v>0.139582</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0731004</v>
+        <v>0.0708602</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0724373</v>
+        <v>0.0728756</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720678</v>
+        <v>0.07690900000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.077707</v>
+        <v>0.07965319999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105271</v>
+        <v>0.102063</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0767965</v>
+        <v>0.0745265</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07700600000000001</v>
+        <v>0.0757771</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747599</v>
+        <v>0.0782631</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08154210000000001</v>
+        <v>0.0838295</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109339</v>
+        <v>0.104647</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0834685</v>
+        <v>0.0808532</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0841364</v>
+        <v>0.08418340000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07876279999999999</v>
+        <v>0.08399520000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0860635</v>
+        <v>0.08819150000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.113168</v>
+        <v>0.106048</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0654932</v>
+        <v>0.06274109999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0635366</v>
+        <v>0.0647163</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0806291</v>
+        <v>0.0834334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790433</v>
+        <v>0.08200929999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.117383</v>
+        <v>0.110885</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0658498</v>
+        <v>0.0632214</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06349390000000001</v>
+        <v>0.0652882</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0817252</v>
+        <v>0.08728669999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0788948</v>
+        <v>0.08275200000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121468</v>
+        <v>0.11574</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0663763</v>
+        <v>0.0632461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06469179999999999</v>
+        <v>0.0664699</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0807778</v>
+        <v>0.087122</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0802451</v>
+        <v>0.0829264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127426</v>
+        <v>0.121447</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0665089</v>
+        <v>0.06379899999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0658255</v>
+        <v>0.0675891</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0812206</v>
+        <v>0.0842678</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0798971</v>
+        <v>0.0834526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133366</v>
+        <v>0.126154</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0669299</v>
+        <v>0.0643025</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668377</v>
+        <v>0.06829399999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0808204</v>
+        <v>0.0844422</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08044030000000001</v>
+        <v>0.0842405</v>
       </c>
       <c r="D71" t="n">
-        <v>0.140357</v>
+        <v>0.135353</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0680009</v>
+        <v>0.0646722</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0675308</v>
+        <v>0.0701174</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0810881</v>
+        <v>0.0846523</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0815232</v>
+        <v>0.0850161</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147978</v>
+        <v>0.142272</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0687173</v>
+        <v>0.06529069999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0688807</v>
+        <v>0.0715652</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812137</v>
+        <v>0.08779820000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08229210000000001</v>
+        <v>0.0855779</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156211</v>
+        <v>0.150588</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0696736</v>
+        <v>0.0662398</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0705572</v>
+        <v>0.0731245</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08283219999999999</v>
+        <v>0.0884694</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0832642</v>
+        <v>0.08672240000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163893</v>
+        <v>0.156443</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07122439999999999</v>
+        <v>0.06823510000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0730147</v>
+        <v>0.0750445</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834811</v>
+        <v>0.0891936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0845571</v>
+        <v>0.0886692</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170038</v>
+        <v>0.171469</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0730475</v>
+        <v>0.06895999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07569339999999999</v>
+        <v>0.0778399</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0840316</v>
+        <v>0.09011189999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0858091</v>
+        <v>0.08947919999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179615</v>
+        <v>0.175978</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0750516</v>
+        <v>0.0722217</v>
       </c>
       <c r="F76" t="n">
-        <v>0.078754</v>
+        <v>0.0805419</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08393879999999999</v>
+        <v>0.09002</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0878895</v>
+        <v>0.0920835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186648</v>
+        <v>0.188604</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0767034</v>
+        <v>0.0748912</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08268540000000001</v>
+        <v>0.0846966</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592329999999999</v>
+        <v>0.09273579999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.090882</v>
+        <v>0.09411890000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184715</v>
+        <v>0.182127</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0814744</v>
+        <v>0.0778436</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08807189999999999</v>
+        <v>0.08925130000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0889548</v>
+        <v>0.0946024</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.0985581</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192422</v>
+        <v>0.193045</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08723599999999999</v>
+        <v>0.0833742</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0958498</v>
+        <v>0.0971548</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0916088</v>
+        <v>0.0973313</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100669</v>
+        <v>0.104297</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201096</v>
+        <v>0.203933</v>
       </c>
       <c r="E80" t="n">
-        <v>0.112138</v>
+        <v>0.106921</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103538</v>
+        <v>0.113183</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180858</v>
+        <v>0.197164</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148122</v>
+        <v>0.161815</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20553</v>
+        <v>0.213613</v>
       </c>
       <c r="E81" t="n">
-        <v>0.116196</v>
+        <v>0.109975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104344</v>
+        <v>0.113904</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183018</v>
+        <v>0.197719</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149595</v>
+        <v>0.1611</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215659</v>
+        <v>0.217837</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118768</v>
+        <v>0.110025</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106831</v>
+        <v>0.113782</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182621</v>
+        <v>0.196514</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150161</v>
+        <v>0.16172</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227367</v>
+        <v>0.229419</v>
       </c>
       <c r="E83" t="n">
-        <v>0.119456</v>
+        <v>0.111007</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107662</v>
+        <v>0.114744</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183463</v>
+        <v>0.196807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150971</v>
+        <v>0.162592</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237111</v>
+        <v>0.242222</v>
       </c>
       <c r="E84" t="n">
-        <v>0.121166</v>
+        <v>0.113447</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108529</v>
+        <v>0.115313</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18434</v>
+        <v>0.197444</v>
       </c>
       <c r="C85" t="n">
-        <v>0.151937</v>
+        <v>0.163117</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24572</v>
+        <v>0.252727</v>
       </c>
       <c r="E85" t="n">
-        <v>0.123349</v>
+        <v>0.117068</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111698</v>
+        <v>0.113496</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184418</v>
+        <v>0.198325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152422</v>
+        <v>0.163324</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25749</v>
+        <v>0.260011</v>
       </c>
       <c r="E86" t="n">
-        <v>0.124949</v>
+        <v>0.119551</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113112</v>
+        <v>0.114573</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183416</v>
+        <v>0.199236</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15365</v>
+        <v>0.164567</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267129</v>
+        <v>0.268031</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123333</v>
+        <v>0.122638</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112091</v>
+        <v>0.115502</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183817</v>
+        <v>0.201517</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153242</v>
+        <v>0.162589</v>
       </c>
       <c r="D88" t="n">
-        <v>0.275315</v>
+        <v>0.28283</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12801</v>
+        <v>0.127006</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113268</v>
+        <v>0.120709</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184445</v>
+        <v>0.200908</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154406</v>
+        <v>0.163606</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282332</v>
+        <v>0.288807</v>
       </c>
       <c r="E89" t="n">
-        <v>0.128448</v>
+        <v>0.130977</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115878</v>
+        <v>0.120181</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184638</v>
+        <v>0.202898</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.165474</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294438</v>
+        <v>0.299915</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131486</v>
+        <v>0.132354</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118946</v>
+        <v>0.125249</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186529</v>
+        <v>0.204106</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157982</v>
+        <v>0.170201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302141</v>
+        <v>0.308919</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133313</v>
+        <v>0.134069</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216</v>
+        <v>0.129218</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187038</v>
+        <v>0.204704</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161603</v>
+        <v>0.172787</v>
       </c>
       <c r="D92" t="n">
-        <v>0.286777</v>
+        <v>0.28818</v>
       </c>
       <c r="E92" t="n">
-        <v>0.137441</v>
+        <v>0.139601</v>
       </c>
       <c r="F92" t="n">
-        <v>0.128664</v>
+        <v>0.133631</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188371</v>
+        <v>0.205896</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165988</v>
+        <v>0.178317</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29353</v>
+        <v>0.296409</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142467</v>
+        <v>0.145028</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13495</v>
+        <v>0.141531</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190631</v>
+        <v>0.208457</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171302</v>
+        <v>0.183193</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298656</v>
+        <v>0.301165</v>
       </c>
       <c r="E94" t="n">
-        <v>0.212319</v>
+        <v>0.213042</v>
       </c>
       <c r="F94" t="n">
-        <v>0.201064</v>
+        <v>0.211723</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24915</v>
+        <v>0.278009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236857</v>
+        <v>0.263604</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307271</v>
+        <v>0.313364</v>
       </c>
       <c r="E95" t="n">
-        <v>0.21519</v>
+        <v>0.221066</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202077</v>
+        <v>0.214045</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250035</v>
+        <v>0.277681</v>
       </c>
       <c r="C96" t="n">
-        <v>0.236908</v>
+        <v>0.262824</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314094</v>
+        <v>0.321342</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216037</v>
+        <v>0.221052</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203116</v>
+        <v>0.213974</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249322</v>
+        <v>0.27812</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237281</v>
+        <v>0.26304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32133</v>
+        <v>0.33025</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21824</v>
+        <v>0.222576</v>
       </c>
       <c r="F97" t="n">
-        <v>0.204189</v>
+        <v>0.215641</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249604</v>
+        <v>0.278339</v>
       </c>
       <c r="C98" t="n">
-        <v>0.237632</v>
+        <v>0.264148</v>
       </c>
       <c r="D98" t="n">
-        <v>0.33232</v>
+        <v>0.340595</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21981</v>
+        <v>0.228614</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205052</v>
+        <v>0.216321</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25008</v>
+        <v>0.278438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238018</v>
+        <v>0.26329</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339219</v>
+        <v>0.344132</v>
       </c>
       <c r="E99" t="n">
-        <v>0.222386</v>
+        <v>0.231158</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20663</v>
+        <v>0.220078</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.25102</v>
+        <v>0.278159</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238434</v>
+        <v>0.263416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.346426</v>
+        <v>0.359936</v>
       </c>
       <c r="E100" t="n">
-        <v>0.223902</v>
+        <v>0.232394</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207886</v>
+        <v>0.218609</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249792</v>
+        <v>0.278742</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.264344</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358009</v>
+        <v>0.368167</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227255</v>
+        <v>0.235054</v>
       </c>
       <c r="F101" t="n">
-        <v>0.209254</v>
+        <v>0.222446</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250257</v>
+        <v>0.278881</v>
       </c>
       <c r="C102" t="n">
-        <v>0.239341</v>
+        <v>0.264541</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366745</v>
+        <v>0.373463</v>
       </c>
       <c r="E102" t="n">
-        <v>0.228804</v>
+        <v>0.237711</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211074</v>
+        <v>0.224078</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.249717</v>
+        <v>0.278971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24053</v>
+        <v>0.267887</v>
       </c>
       <c r="D103" t="n">
-        <v>0.375311</v>
+        <v>0.387756</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231674</v>
+        <v>0.239484</v>
       </c>
       <c r="F103" t="n">
-        <v>0.21249</v>
+        <v>0.226066</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250965</v>
+        <v>0.279432</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24201</v>
+        <v>0.267389</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38574</v>
+        <v>0.399531</v>
       </c>
       <c r="E104" t="n">
-        <v>0.233628</v>
+        <v>0.243839</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214793</v>
+        <v>0.230185</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251752</v>
+        <v>0.278263</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243934</v>
+        <v>0.269403</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393883</v>
+        <v>0.409223</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236437</v>
+        <v>0.246358</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21829</v>
+        <v>0.231237</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252332</v>
+        <v>0.280722</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246011</v>
+        <v>0.272641</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405546</v>
+        <v>0.420549</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239817</v>
+        <v>0.248953</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222402</v>
+        <v>0.237798</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254521</v>
+        <v>0.282593</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249125</v>
+        <v>0.276015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.347177</v>
+        <v>0.352703</v>
       </c>
       <c r="E107" t="n">
-        <v>0.244413</v>
+        <v>0.255744</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227499</v>
+        <v>0.241057</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256719</v>
+        <v>0.284919</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254196</v>
+        <v>0.279653</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3512</v>
+        <v>0.367315</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262147</v>
+        <v>0.272988</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250687</v>
+        <v>0.26818</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260667</v>
+        <v>0.289858</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262238</v>
+        <v>0.288227</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356327</v>
+        <v>0.367344</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26383</v>
+        <v>0.271929</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252722</v>
+        <v>0.268894</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285589</v>
+        <v>0.314121</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297043</v>
+        <v>0.331249</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366108</v>
+        <v>0.36924</v>
       </c>
       <c r="E110" t="n">
-        <v>0.265997</v>
+        <v>0.276248</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253514</v>
+        <v>0.274749</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285935</v>
+        <v>0.318848</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297472</v>
+        <v>0.332727</v>
       </c>
       <c r="D111" t="n">
-        <v>0.373984</v>
+        <v>0.382454</v>
       </c>
       <c r="E111" t="n">
-        <v>0.267974</v>
+        <v>0.280632</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255815</v>
+        <v>0.270575</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286208</v>
+        <v>0.312678</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299694</v>
+        <v>0.332478</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381012</v>
+        <v>0.392632</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263853</v>
+        <v>0.283094</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256801</v>
+        <v>0.278581</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286736</v>
+        <v>0.317342</v>
       </c>
       <c r="C113" t="n">
-        <v>0.298988</v>
+        <v>0.334478</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38723</v>
+        <v>0.405651</v>
       </c>
       <c r="E113" t="n">
-        <v>0.264728</v>
+        <v>0.285848</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258623</v>
+        <v>0.279915</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286038</v>
+        <v>0.319144</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301134</v>
+        <v>0.335107</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394753</v>
+        <v>0.413398</v>
       </c>
       <c r="E114" t="n">
-        <v>0.267436</v>
+        <v>0.277372</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261037</v>
+        <v>0.281796</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286785</v>
+        <v>0.316533</v>
       </c>
       <c r="C115" t="n">
-        <v>0.299851</v>
+        <v>0.332556</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406726</v>
+        <v>0.419</v>
       </c>
       <c r="E115" t="n">
-        <v>0.269955</v>
+        <v>0.283315</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263984</v>
+        <v>0.284803</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286261</v>
+        <v>0.318468</v>
       </c>
       <c r="C116" t="n">
-        <v>0.302022</v>
+        <v>0.334883</v>
       </c>
       <c r="D116" t="n">
-        <v>0.417659</v>
+        <v>0.430602</v>
       </c>
       <c r="E116" t="n">
-        <v>0.27311</v>
+        <v>0.283995</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265884</v>
+        <v>0.28802</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287732</v>
+        <v>0.315402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.302366</v>
+        <v>0.334557</v>
       </c>
       <c r="D117" t="n">
-        <v>0.424252</v>
+        <v>0.431061</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276374</v>
+        <v>0.290719</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269373</v>
+        <v>0.291413</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287004</v>
+        <v>0.313945</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304029</v>
+        <v>0.334901</v>
       </c>
       <c r="D118" t="n">
-        <v>0.434494</v>
+        <v>0.452792</v>
       </c>
       <c r="E118" t="n">
-        <v>0.279707</v>
+        <v>0.29494</v>
       </c>
       <c r="F118" t="n">
-        <v>0.273631</v>
+        <v>0.295888</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287258</v>
+        <v>0.313663</v>
       </c>
       <c r="C119" t="n">
-        <v>0.306266</v>
+        <v>0.337778</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441325</v>
+        <v>0.459734</v>
       </c>
       <c r="E119" t="n">
-        <v>0.283317</v>
+        <v>0.297541</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27831</v>
+        <v>0.29926</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288975</v>
+        <v>0.319325</v>
       </c>
       <c r="C120" t="n">
-        <v>0.306358</v>
+        <v>0.337576</v>
       </c>
       <c r="D120" t="n">
-        <v>0.456527</v>
+        <v>0.469473</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287546</v>
+        <v>0.299979</v>
       </c>
       <c r="F120" t="n">
-        <v>0.284356</v>
+        <v>0.307953</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291749</v>
+        <v>0.320438</v>
       </c>
       <c r="C121" t="n">
-        <v>0.310582</v>
+        <v>0.345108</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374766</v>
+        <v>0.383306</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292373</v>
+        <v>0.3071</v>
       </c>
       <c r="F121" t="n">
-        <v>0.293035</v>
+        <v>0.315331</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.292928</v>
+        <v>0.325875</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316502</v>
+        <v>0.347824</v>
       </c>
       <c r="D122" t="n">
-        <v>0.37909</v>
+        <v>0.39081</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297789</v>
+        <v>0.310607</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305585</v>
+        <v>0.327582</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298078</v>
+        <v>0.330887</v>
       </c>
       <c r="C123" t="n">
-        <v>0.323491</v>
+        <v>0.357326</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386739</v>
+        <v>0.391421</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285912</v>
+        <v>0.301294</v>
       </c>
       <c r="F123" t="n">
-        <v>0.283661</v>
+        <v>0.309714</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365714</v>
+        <v>0.3929</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386584</v>
+        <v>0.423329</v>
       </c>
       <c r="D124" t="n">
-        <v>0.393563</v>
+        <v>0.40251</v>
       </c>
       <c r="E124" t="n">
-        <v>0.28802</v>
+        <v>0.304084</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284799</v>
+        <v>0.309718</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366947</v>
+        <v>0.401039</v>
       </c>
       <c r="C125" t="n">
-        <v>0.386448</v>
+        <v>0.423664</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401019</v>
+        <v>0.412977</v>
       </c>
       <c r="E125" t="n">
-        <v>0.290386</v>
+        <v>0.306462</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287006</v>
+        <v>0.311267</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368039</v>
+        <v>0.402856</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387032</v>
+        <v>0.424215</v>
       </c>
       <c r="D126" t="n">
-        <v>0.406979</v>
+        <v>0.424531</v>
       </c>
       <c r="E126" t="n">
-        <v>0.293443</v>
+        <v>0.309581</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289966</v>
+        <v>0.316694</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368839</v>
+        <v>0.403887</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387162</v>
+        <v>0.426567</v>
       </c>
       <c r="D127" t="n">
-        <v>0.416836</v>
+        <v>0.424481</v>
       </c>
       <c r="E127" t="n">
-        <v>0.296484</v>
+        <v>0.312667</v>
       </c>
       <c r="F127" t="n">
-        <v>0.292175</v>
+        <v>0.318497</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367961</v>
+        <v>0.394293</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388779</v>
+        <v>0.426009</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4248</v>
+        <v>0.44253</v>
       </c>
       <c r="E128" t="n">
-        <v>0.299098</v>
+        <v>0.310884</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294956</v>
+        <v>0.322088</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.367294</v>
+        <v>0.401057</v>
       </c>
       <c r="C129" t="n">
-        <v>0.389207</v>
+        <v>0.421297</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43289</v>
+        <v>0.445468</v>
       </c>
       <c r="E129" t="n">
-        <v>0.302277</v>
+        <v>0.319413</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297727</v>
+        <v>0.323072</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367853</v>
+        <v>0.406675</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390563</v>
+        <v>0.427356</v>
       </c>
       <c r="D130" t="n">
-        <v>0.441179</v>
+        <v>0.457539</v>
       </c>
       <c r="E130" t="n">
-        <v>0.305582</v>
+        <v>0.323529</v>
       </c>
       <c r="F130" t="n">
-        <v>0.30149</v>
+        <v>0.328471</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366968</v>
+        <v>0.399958</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390905</v>
+        <v>0.420111</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450575</v>
+        <v>0.46794</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309349</v>
+        <v>0.321606</v>
       </c>
       <c r="F131" t="n">
-        <v>0.305945</v>
+        <v>0.333089</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.367194</v>
+        <v>0.403941</v>
       </c>
       <c r="C132" t="n">
-        <v>0.391812</v>
+        <v>0.431384</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459705</v>
+        <v>0.475121</v>
       </c>
       <c r="E132" t="n">
-        <v>0.313418</v>
+        <v>0.332276</v>
       </c>
       <c r="F132" t="n">
-        <v>0.304423</v>
+        <v>0.338569</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3678</v>
+        <v>0.404244</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394</v>
+        <v>0.427682</v>
       </c>
       <c r="D133" t="n">
-        <v>0.47334</v>
+        <v>0.484954</v>
       </c>
       <c r="E133" t="n">
-        <v>0.318261</v>
+        <v>0.337512</v>
       </c>
       <c r="F133" t="n">
-        <v>0.311059</v>
+        <v>0.344065</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370409</v>
+        <v>0.408032</v>
       </c>
       <c r="C134" t="n">
-        <v>0.396976</v>
+        <v>0.436866</v>
       </c>
       <c r="D134" t="n">
-        <v>0.479849</v>
+        <v>0.50305</v>
       </c>
       <c r="E134" t="n">
-        <v>0.323365</v>
+        <v>0.342803</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318466</v>
+        <v>0.348503</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369477</v>
+        <v>0.411212</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399802</v>
+        <v>0.440633</v>
       </c>
       <c r="D135" t="n">
-        <v>0.390567</v>
+        <v>0.401707</v>
       </c>
       <c r="E135" t="n">
-        <v>0.330082</v>
+        <v>0.349266</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329199</v>
+        <v>0.362988</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371162</v>
+        <v>0.41093</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405467</v>
+        <v>0.438257</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39491</v>
+        <v>0.402103</v>
       </c>
       <c r="E136" t="n">
-        <v>0.339113</v>
+        <v>0.359455</v>
       </c>
       <c r="F136" t="n">
-        <v>0.344001</v>
+        <v>0.376349</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375096</v>
+        <v>0.415551</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412447</v>
+        <v>0.453419</v>
       </c>
       <c r="D137" t="n">
-        <v>0.400628</v>
+        <v>0.411421</v>
       </c>
       <c r="E137" t="n">
-        <v>0.310079</v>
+        <v>0.323394</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303777</v>
+        <v>0.329629</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430235</v>
+        <v>0.460278</v>
       </c>
       <c r="C138" t="n">
-        <v>0.443374</v>
+        <v>0.474609</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409041</v>
+        <v>0.421227</v>
       </c>
       <c r="E138" t="n">
-        <v>0.311947</v>
+        <v>0.32941</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305776</v>
+        <v>0.331886</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430913</v>
+        <v>0.461992</v>
       </c>
       <c r="C139" t="n">
-        <v>0.444188</v>
+        <v>0.469668</v>
       </c>
       <c r="D139" t="n">
-        <v>0.417183</v>
+        <v>0.432926</v>
       </c>
       <c r="E139" t="n">
-        <v>0.313967</v>
+        <v>0.332343</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307955</v>
+        <v>0.336504</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.431058</v>
+        <v>0.462032</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444158</v>
+        <v>0.476585</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423589</v>
+        <v>0.434671</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316332</v>
+        <v>0.335112</v>
       </c>
       <c r="F140" t="n">
-        <v>0.310451</v>
+        <v>0.33881</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43147</v>
+        <v>0.460935</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445084</v>
+        <v>0.477043</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432597</v>
+        <v>0.446321</v>
       </c>
       <c r="E141" t="n">
-        <v>0.318336</v>
+        <v>0.336008</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313484</v>
+        <v>0.341379</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.431461</v>
+        <v>0.462512</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446073</v>
+        <v>0.477948</v>
       </c>
       <c r="D142" t="n">
-        <v>0.436432</v>
+        <v>0.459824</v>
       </c>
       <c r="E142" t="n">
-        <v>0.320464</v>
+        <v>0.338466</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316285</v>
+        <v>0.34495</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.431888</v>
+        <v>0.462699</v>
       </c>
       <c r="C143" t="n">
-        <v>0.446672</v>
+        <v>0.478614</v>
       </c>
       <c r="D143" t="n">
-        <v>0.445038</v>
+        <v>0.469549</v>
       </c>
       <c r="E143" t="n">
-        <v>0.322616</v>
+        <v>0.341844</v>
       </c>
       <c r="F143" t="n">
-        <v>0.319626</v>
+        <v>0.347019</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0506544</v>
+        <v>0.0466434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0488965</v>
+        <v>0.0478374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06854250000000001</v>
+        <v>0.0707827</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0494772</v>
+        <v>0.0437059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0461854</v>
+        <v>0.0446725</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0515323</v>
+        <v>0.0467315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0487189</v>
+        <v>0.0477441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0732</v>
+        <v>0.07744959999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0498899</v>
+        <v>0.0439186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0464964</v>
+        <v>0.0445785</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0515607</v>
+        <v>0.0467457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0491919</v>
+        <v>0.0479051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08212179999999999</v>
+        <v>0.08510719999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0487123</v>
+        <v>0.0438205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0462546</v>
+        <v>0.0445677</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525494</v>
+        <v>0.0466586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0498276</v>
+        <v>0.0477763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0907357</v>
+        <v>0.0941116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0479381</v>
+        <v>0.0436489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0464251</v>
+        <v>0.0462335</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0527965</v>
+        <v>0.0472317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0512504</v>
+        <v>0.0497625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09902320000000001</v>
+        <v>0.100621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0493348</v>
+        <v>0.0447785</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0458631</v>
+        <v>0.0490983</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0531025</v>
+        <v>0.0474091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0524468</v>
+        <v>0.0496649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0567047</v>
+        <v>0.0523377</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0475556</v>
+        <v>0.0447054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0483341</v>
+        <v>0.0469335</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0530609</v>
+        <v>0.0469809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0522424</v>
+        <v>0.0506043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0602789</v>
+        <v>0.0557913</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0525869</v>
+        <v>0.0465917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.050214</v>
+        <v>0.0488587</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0536571</v>
+        <v>0.0478211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0536981</v>
+        <v>0.0521918</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06651170000000001</v>
+        <v>0.0631075</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0474447</v>
+        <v>0.0456083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0515332</v>
+        <v>0.0466414</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0552532</v>
+        <v>0.0533864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0557694</v>
+        <v>0.052242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0742435</v>
+        <v>0.06974279999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0472042</v>
+        <v>0.0455099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0520265</v>
+        <v>0.0470512</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0553231</v>
+        <v>0.053277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0560119</v>
+        <v>0.0524571</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0794517</v>
+        <v>0.07555099999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0477223</v>
+        <v>0.0456669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0521407</v>
+        <v>0.0471684</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0554318</v>
+        <v>0.0537091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0561666</v>
+        <v>0.0526372</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0849828</v>
+        <v>0.0808851</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0477764</v>
+        <v>0.0466089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0523709</v>
+        <v>0.0474562</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0553559</v>
+        <v>0.0538099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0562986</v>
+        <v>0.0528231</v>
       </c>
       <c r="D13" t="n">
-        <v>0.091183</v>
+        <v>0.0865023</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0486323</v>
+        <v>0.0463257</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0527618</v>
+        <v>0.0478751</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0559877</v>
+        <v>0.0540749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.056556</v>
+        <v>0.05309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0963783</v>
+        <v>0.09182120000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0485412</v>
+        <v>0.0472965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0532988</v>
+        <v>0.0482652</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.055846</v>
+        <v>0.054337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0568906</v>
+        <v>0.0534322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.101275</v>
+        <v>0.0965969</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0491777</v>
+        <v>0.0470102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0535391</v>
+        <v>0.0486265</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0559564</v>
+        <v>0.0544642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0570955</v>
+        <v>0.0535844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106194</v>
+        <v>0.101738</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0497626</v>
+        <v>0.0474774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0539834</v>
+        <v>0.0490589</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0560739</v>
+        <v>0.0547289</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0574248</v>
+        <v>0.0539585</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11042</v>
+        <v>0.107024</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0499594</v>
+        <v>0.0477964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0542083</v>
+        <v>0.0493507</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0563374</v>
+        <v>0.0547466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0577181</v>
+        <v>0.0544533</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114424</v>
+        <v>0.112242</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0499839</v>
+        <v>0.048236</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0545014</v>
+        <v>0.0497775</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0564804</v>
+        <v>0.0552015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0581553</v>
+        <v>0.0547983</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120361</v>
+        <v>0.117327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.050242</v>
+        <v>0.0484494</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0548965</v>
+        <v>0.0501518</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0559708</v>
+        <v>0.0551346</v>
       </c>
       <c r="C20" t="n">
-        <v>0.058833</v>
+        <v>0.055537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123943</v>
+        <v>0.120932</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0495724</v>
+        <v>0.0486218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0558096</v>
+        <v>0.0509841</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0563545</v>
+        <v>0.0554185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0601969</v>
+        <v>0.0556635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0820911</v>
+        <v>0.0815429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0515369</v>
+        <v>0.0498666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0526945</v>
+        <v>0.0540227</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0568331</v>
+        <v>0.0559863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0622716</v>
+        <v>0.0569427</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0849583</v>
+        <v>0.085255</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0552026</v>
+        <v>0.0539162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0578964</v>
+        <v>0.058529</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.057983</v>
+        <v>0.057175</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0635901</v>
+        <v>0.0606709</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0889099</v>
+        <v>0.0885326</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0513285</v>
+        <v>0.0525027</v>
       </c>
       <c r="F23" t="n">
-        <v>0.051932</v>
+        <v>0.0526887</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0600999</v>
+        <v>0.0607058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0596515</v>
+        <v>0.0601714</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0925851</v>
+        <v>0.092456</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0513707</v>
+        <v>0.0522803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0523031</v>
+        <v>0.0529203</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0599111</v>
+        <v>0.0610746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0598087</v>
+        <v>0.0601193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0966122</v>
+        <v>0.09662279999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0517288</v>
+        <v>0.052487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0525472</v>
+        <v>0.0533547</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0601069</v>
+        <v>0.0606349</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0599159</v>
+        <v>0.060279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.100014</v>
+        <v>0.100237</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0519855</v>
+        <v>0.0531545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0528882</v>
+        <v>0.0536857</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0604049</v>
+        <v>0.0613818</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0598661</v>
+        <v>0.0603422</v>
       </c>
       <c r="D27" t="n">
-        <v>0.104136</v>
+        <v>0.10403</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0532799</v>
+        <v>0.0533542</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0532629</v>
+        <v>0.0556023</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0601458</v>
+        <v>0.0607364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0601209</v>
+        <v>0.0604688</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108061</v>
+        <v>0.108083</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0527185</v>
+        <v>0.0536393</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0534764</v>
+        <v>0.0543276</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0606701</v>
+        <v>0.0611847</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0603796</v>
+        <v>0.0607692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.112112</v>
+        <v>0.112227</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0533547</v>
+        <v>0.0534425</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0538567</v>
+        <v>0.0561539</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.060708</v>
+        <v>0.0613525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0605185</v>
+        <v>0.0609021</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116466</v>
+        <v>0.116184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0537006</v>
+        <v>0.0538026</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0541368</v>
+        <v>0.0564463</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0608489</v>
+        <v>0.0615289</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0609292</v>
+        <v>0.0612567</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120623</v>
+        <v>0.120585</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0538831</v>
+        <v>0.0544887</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0546227</v>
+        <v>0.0553668</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0609833</v>
+        <v>0.0617546</v>
       </c>
       <c r="C32" t="n">
-        <v>0.061531</v>
+        <v>0.0643449</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123828</v>
+        <v>0.123363</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0544585</v>
+        <v>0.0551353</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0550878</v>
+        <v>0.0558569</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0612507</v>
+        <v>0.0619868</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0620077</v>
+        <v>0.06479790000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.128665</v>
+        <v>0.127712</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0549714</v>
+        <v>0.055119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0555276</v>
+        <v>0.0580079</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615291</v>
+        <v>0.0661451</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0629295</v>
+        <v>0.06316190000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.131219</v>
+        <v>0.131059</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0562095</v>
+        <v>0.0587219</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05701</v>
+        <v>0.0584572</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.062281</v>
+        <v>0.06766900000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0637813</v>
+        <v>0.0637065</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0904484</v>
+        <v>0.0903576</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0591078</v>
+        <v>0.0620983</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0606544</v>
+        <v>0.0601004</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06258859999999999</v>
+        <v>0.0685022</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0647966</v>
+        <v>0.0734301</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09356730000000001</v>
+        <v>0.09320349999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0648764</v>
+        <v>0.0666469</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0695152</v>
+        <v>0.0671139</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0663639</v>
+        <v>0.0683965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0685191</v>
+        <v>0.07305399999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0951048</v>
+        <v>0.0950786</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0575655</v>
+        <v>0.0586769</v>
       </c>
       <c r="F37" t="n">
-        <v>0.056858</v>
+        <v>0.0576095</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0655337</v>
+        <v>0.06659959999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06653480000000001</v>
+        <v>0.06745329999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09813280000000001</v>
+        <v>0.0982165</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0556156</v>
+        <v>0.0558361</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0569496</v>
+        <v>0.0566092</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0658866</v>
+        <v>0.07238749999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06683409999999999</v>
+        <v>0.0677126</v>
       </c>
       <c r="D39" t="n">
-        <v>0.101253</v>
+        <v>0.101743</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0560622</v>
+        <v>0.0559134</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0570944</v>
+        <v>0.0569417</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0655626</v>
+        <v>0.0666672</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0668087</v>
+        <v>0.0676819</v>
       </c>
       <c r="D40" t="n">
-        <v>0.104658</v>
+        <v>0.10456</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0563884</v>
+        <v>0.0567565</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0579829</v>
+        <v>0.0585666</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0655208</v>
+        <v>0.07232280000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0669063</v>
+        <v>0.0678544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.108105</v>
+        <v>0.108149</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0567687</v>
+        <v>0.0569984</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0579808</v>
+        <v>0.0577351</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0659141</v>
+        <v>0.0658806</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0670964</v>
+        <v>0.06799910000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.111506</v>
+        <v>0.11149</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0570821</v>
+        <v>0.0576628</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0583513</v>
+        <v>0.0584068</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0656277</v>
+        <v>0.0707544</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0672546</v>
+        <v>0.0682224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115575</v>
+        <v>0.115487</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0579308</v>
+        <v>0.0574844</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0590082</v>
+        <v>0.0598078</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06602280000000001</v>
+        <v>0.0671451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06756719999999999</v>
+        <v>0.068499</v>
       </c>
       <c r="D44" t="n">
-        <v>0.119269</v>
+        <v>0.119235</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0579073</v>
+        <v>0.0584818</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0592557</v>
+        <v>0.0592742</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06630659999999999</v>
+        <v>0.067119</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0680664</v>
+        <v>0.0690041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.123074</v>
+        <v>0.123273</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0585597</v>
+        <v>0.0588967</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0600608</v>
+        <v>0.0608645</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06723179999999999</v>
+        <v>0.0691894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06848029999999999</v>
+        <v>0.06938999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.126606</v>
+        <v>0.126677</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0594573</v>
+        <v>0.0595382</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0607738</v>
+        <v>0.0619359</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0667722</v>
+        <v>0.06792330000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0688703</v>
+        <v>0.0697517</v>
       </c>
       <c r="D47" t="n">
-        <v>0.130668</v>
+        <v>0.129655</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0605334</v>
+        <v>0.0600648</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0619979</v>
+        <v>0.062356</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0687799</v>
+        <v>0.0717378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06949660000000001</v>
+        <v>0.0704796</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134506</v>
+        <v>0.134661</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0625201</v>
+        <v>0.06309720000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06376329999999999</v>
+        <v>0.0642166</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0695909</v>
+        <v>0.0685186</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07109119999999999</v>
+        <v>0.07866430000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137872</v>
+        <v>0.136705</v>
       </c>
       <c r="E49" t="n">
-        <v>0.066012</v>
+        <v>0.0656446</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0678554</v>
+        <v>0.069326</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0705499</v>
+        <v>0.0763243</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0733094</v>
+        <v>0.07871160000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09452770000000001</v>
+        <v>0.09543649999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07039380000000001</v>
+        <v>0.0703317</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0731034</v>
+        <v>0.0727729</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0756797</v>
+        <v>0.0742955</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0762982</v>
+        <v>0.08115799999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0970009</v>
+        <v>0.0976752</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0603818</v>
+        <v>0.0593441</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0594318</v>
+        <v>0.0596329</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0787076</v>
+        <v>0.08015600000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08153870000000001</v>
+        <v>0.0885184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0998532</v>
+        <v>0.100583</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0591048</v>
+        <v>0.059694</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0597451</v>
+        <v>0.0598948</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0725307</v>
+        <v>0.07313699999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0756107</v>
+        <v>0.07669049999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.101666</v>
+        <v>0.102666</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0596648</v>
+        <v>0.0599018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0598784</v>
+        <v>0.0605126</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07319000000000001</v>
+        <v>0.073619</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07572470000000001</v>
+        <v>0.07698380000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.10607</v>
+        <v>0.105917</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0600424</v>
+        <v>0.060281</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0605497</v>
+        <v>0.0606975</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0726451</v>
+        <v>0.0732438</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0757468</v>
+        <v>0.0769779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.109675</v>
+        <v>0.109303</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0607497</v>
+        <v>0.0609794</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0599048</v>
+        <v>0.0615326</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07276489999999999</v>
+        <v>0.0734937</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0759553</v>
+        <v>0.0771157</v>
       </c>
       <c r="D56" t="n">
-        <v>0.113509</v>
+        <v>0.113195</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0612263</v>
+        <v>0.0613883</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0603396</v>
+        <v>0.0621428</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0729219</v>
+        <v>0.0734993</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07616290000000001</v>
+        <v>0.07736510000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.117165</v>
+        <v>0.116981</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0617029</v>
+        <v>0.0618364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0609542</v>
+        <v>0.0628418</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0709535</v>
+        <v>0.0763788</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07590189999999999</v>
+        <v>0.07646020000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.121352</v>
+        <v>0.120696</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0620815</v>
+        <v>0.0626621</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0627945</v>
+        <v>0.0632392</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07306360000000001</v>
+        <v>0.0740928</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07513640000000001</v>
+        <v>0.0765793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.125483</v>
+        <v>0.124729</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06285010000000001</v>
+        <v>0.06317300000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0625236</v>
+        <v>0.0637566</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0736517</v>
+        <v>0.07427010000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0759557</v>
+        <v>0.0768911</v>
       </c>
       <c r="D60" t="n">
-        <v>0.129158</v>
+        <v>0.128936</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0639744</v>
+        <v>0.0643021</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651173</v>
+        <v>0.0655365</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0737336</v>
+        <v>0.0746787</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0762601</v>
+        <v>0.07762960000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.133234</v>
+        <v>0.134208</v>
       </c>
       <c r="E61" t="n">
-        <v>0.065701</v>
+        <v>0.0659448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0669415</v>
+        <v>0.0679338</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0733302</v>
+        <v>0.0765551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07585459999999999</v>
+        <v>0.0797833</v>
       </c>
       <c r="D62" t="n">
-        <v>0.137182</v>
+        <v>0.137628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0679434</v>
+        <v>0.0681292</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0694423</v>
+        <v>0.07096570000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0733304</v>
+        <v>0.076598</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0761585</v>
+        <v>0.0801409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.139582</v>
+        <v>0.143064</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0708602</v>
+        <v>0.0712315</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0728756</v>
+        <v>0.0737124</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07690900000000001</v>
+        <v>0.07781589999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07965319999999999</v>
+        <v>0.0816881</v>
       </c>
       <c r="D64" t="n">
-        <v>0.102063</v>
+        <v>0.106971</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0745265</v>
+        <v>0.0751188</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0757771</v>
+        <v>0.077765</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0782631</v>
+        <v>0.0810917</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0838295</v>
+        <v>0.0849698</v>
       </c>
       <c r="D65" t="n">
-        <v>0.104647</v>
+        <v>0.110274</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0808532</v>
+        <v>0.0806912</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08418340000000001</v>
+        <v>0.0863357</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08399520000000001</v>
+        <v>0.0851981</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08819150000000001</v>
+        <v>0.0904633</v>
       </c>
       <c r="D66" t="n">
-        <v>0.106048</v>
+        <v>0.112047</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06274109999999999</v>
+        <v>0.062888</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0647163</v>
+        <v>0.067636</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0834334</v>
+        <v>0.0912145</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08200929999999999</v>
+        <v>0.08663220000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.110885</v>
+        <v>0.118401</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0632214</v>
+        <v>0.0636168</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0652882</v>
+        <v>0.06826309999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08728669999999999</v>
+        <v>0.087002</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08275200000000001</v>
+        <v>0.0882652</v>
       </c>
       <c r="D68" t="n">
-        <v>0.11574</v>
+        <v>0.125329</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0632461</v>
+        <v>0.06476750000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0664699</v>
+        <v>0.0699929</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.087122</v>
+        <v>0.0866528</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0829264</v>
+        <v>0.0885209</v>
       </c>
       <c r="D69" t="n">
-        <v>0.121447</v>
+        <v>0.132994</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06379899999999999</v>
+        <v>0.0648696</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0675891</v>
+        <v>0.0704029</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0842678</v>
+        <v>0.0898955</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0834526</v>
+        <v>0.08863989999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.126154</v>
+        <v>0.136277</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0643025</v>
+        <v>0.06529509999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06829399999999999</v>
+        <v>0.0708879</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0844422</v>
+        <v>0.0899937</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0842405</v>
+        <v>0.089688</v>
       </c>
       <c r="D71" t="n">
-        <v>0.135353</v>
+        <v>0.145078</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0646722</v>
+        <v>0.06699670000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0701174</v>
+        <v>0.0720331</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0846523</v>
+        <v>0.0909966</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0850161</v>
+        <v>0.08993230000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.142272</v>
+        <v>0.153714</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06529069999999999</v>
+        <v>0.0680296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0715652</v>
+        <v>0.073336</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08779820000000001</v>
+        <v>0.0886636</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0855779</v>
+        <v>0.0907271</v>
       </c>
       <c r="D73" t="n">
-        <v>0.150588</v>
+        <v>0.163223</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0662398</v>
+        <v>0.06917479999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0731245</v>
+        <v>0.07490529999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0884694</v>
+        <v>0.08855349999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08672240000000001</v>
+        <v>0.09216240000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.156443</v>
+        <v>0.171635</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06823510000000001</v>
+        <v>0.0690685</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0750445</v>
+        <v>0.0777195</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0891936</v>
+        <v>0.0888053</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0886692</v>
+        <v>0.0906436</v>
       </c>
       <c r="D75" t="n">
-        <v>0.171469</v>
+        <v>0.178845</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06895999999999999</v>
+        <v>0.0705561</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0778399</v>
+        <v>0.0790752</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09011189999999999</v>
+        <v>0.0895049</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08947919999999999</v>
+        <v>0.09440270000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.175978</v>
+        <v>0.185387</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0722217</v>
+        <v>0.07246519999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0805419</v>
+        <v>0.0829111</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09002</v>
+        <v>0.0907689</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0920835</v>
+        <v>0.09434919999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.188604</v>
+        <v>0.198626</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0748912</v>
+        <v>0.0750928</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0846966</v>
+        <v>0.0880614</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09273579999999999</v>
+        <v>0.09198820000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09411890000000001</v>
+        <v>0.0997369</v>
       </c>
       <c r="D78" t="n">
-        <v>0.182127</v>
+        <v>0.18393</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0778436</v>
+        <v>0.0784938</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08925130000000001</v>
+        <v>0.0927134</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0946024</v>
+        <v>0.0937668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0985581</v>
+        <v>0.101742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.193045</v>
+        <v>0.194749</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0833742</v>
+        <v>0.0839937</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0971548</v>
+        <v>0.100362</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0973313</v>
+        <v>0.100372</v>
       </c>
       <c r="C80" t="n">
-        <v>0.104297</v>
+        <v>0.107774</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203933</v>
+        <v>0.204511</v>
       </c>
       <c r="E80" t="n">
-        <v>0.106921</v>
+        <v>0.106273</v>
       </c>
       <c r="F80" t="n">
-        <v>0.113183</v>
+        <v>0.111843</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.197164</v>
+        <v>0.196454</v>
       </c>
       <c r="C81" t="n">
-        <v>0.161815</v>
+        <v>0.159041</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213613</v>
+        <v>0.212391</v>
       </c>
       <c r="E81" t="n">
-        <v>0.109975</v>
+        <v>0.113632</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113904</v>
+        <v>0.112371</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.197719</v>
+        <v>0.203481</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1611</v>
+        <v>0.165753</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217837</v>
+        <v>0.218286</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110025</v>
+        <v>0.117794</v>
       </c>
       <c r="F82" t="n">
-        <v>0.113782</v>
+        <v>0.117395</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.196514</v>
+        <v>0.203096</v>
       </c>
       <c r="C83" t="n">
-        <v>0.16172</v>
+        <v>0.165203</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229419</v>
+        <v>0.231638</v>
       </c>
       <c r="E83" t="n">
-        <v>0.111007</v>
+        <v>0.120052</v>
       </c>
       <c r="F83" t="n">
-        <v>0.114744</v>
+        <v>0.117481</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.196807</v>
+        <v>0.20418</v>
       </c>
       <c r="C84" t="n">
-        <v>0.162592</v>
+        <v>0.165868</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242222</v>
+        <v>0.244026</v>
       </c>
       <c r="E84" t="n">
-        <v>0.113447</v>
+        <v>0.122572</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115313</v>
+        <v>0.118866</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.197444</v>
+        <v>0.204909</v>
       </c>
       <c r="C85" t="n">
-        <v>0.163117</v>
+        <v>0.166918</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252727</v>
+        <v>0.253767</v>
       </c>
       <c r="E85" t="n">
-        <v>0.117068</v>
+        <v>0.124426</v>
       </c>
       <c r="F85" t="n">
-        <v>0.113496</v>
+        <v>0.119708</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.198325</v>
+        <v>0.205016</v>
       </c>
       <c r="C86" t="n">
-        <v>0.163324</v>
+        <v>0.167883</v>
       </c>
       <c r="D86" t="n">
-        <v>0.260011</v>
+        <v>0.260918</v>
       </c>
       <c r="E86" t="n">
-        <v>0.119551</v>
+        <v>0.126672</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114573</v>
+        <v>0.120589</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.199236</v>
+        <v>0.205212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.164567</v>
+        <v>0.168976</v>
       </c>
       <c r="D87" t="n">
-        <v>0.268031</v>
+        <v>0.270079</v>
       </c>
       <c r="E87" t="n">
-        <v>0.122638</v>
+        <v>0.128331</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115502</v>
+        <v>0.121684</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.201517</v>
+        <v>0.204852</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162589</v>
+        <v>0.16886</v>
       </c>
       <c r="D88" t="n">
-        <v>0.28283</v>
+        <v>0.282762</v>
       </c>
       <c r="E88" t="n">
-        <v>0.127006</v>
+        <v>0.129504</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120709</v>
+        <v>0.125404</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200908</v>
+        <v>0.206043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.163606</v>
+        <v>0.171648</v>
       </c>
       <c r="D89" t="n">
-        <v>0.288807</v>
+        <v>0.290134</v>
       </c>
       <c r="E89" t="n">
-        <v>0.130977</v>
+        <v>0.129077</v>
       </c>
       <c r="F89" t="n">
-        <v>0.120181</v>
+        <v>0.124662</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202898</v>
+        <v>0.203357</v>
       </c>
       <c r="C90" t="n">
-        <v>0.165474</v>
+        <v>0.171304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.299915</v>
+        <v>0.301408</v>
       </c>
       <c r="E90" t="n">
-        <v>0.132354</v>
+        <v>0.133667</v>
       </c>
       <c r="F90" t="n">
-        <v>0.125249</v>
+        <v>0.128867</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.204106</v>
+        <v>0.204745</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170201</v>
+        <v>0.173589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308919</v>
+        <v>0.312752</v>
       </c>
       <c r="E91" t="n">
-        <v>0.134069</v>
+        <v>0.137053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129218</v>
+        <v>0.133558</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204704</v>
+        <v>0.205736</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172787</v>
+        <v>0.176727</v>
       </c>
       <c r="D92" t="n">
-        <v>0.28818</v>
+        <v>0.291716</v>
       </c>
       <c r="E92" t="n">
-        <v>0.139601</v>
+        <v>0.140022</v>
       </c>
       <c r="F92" t="n">
-        <v>0.133631</v>
+        <v>0.134409</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205896</v>
+        <v>0.206672</v>
       </c>
       <c r="C93" t="n">
-        <v>0.178317</v>
+        <v>0.182287</v>
       </c>
       <c r="D93" t="n">
-        <v>0.296409</v>
+        <v>0.299663</v>
       </c>
       <c r="E93" t="n">
-        <v>0.145028</v>
+        <v>0.142944</v>
       </c>
       <c r="F93" t="n">
-        <v>0.141531</v>
+        <v>0.140291</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.208457</v>
+        <v>0.209029</v>
       </c>
       <c r="C94" t="n">
-        <v>0.183193</v>
+        <v>0.183097</v>
       </c>
       <c r="D94" t="n">
-        <v>0.301165</v>
+        <v>0.30394</v>
       </c>
       <c r="E94" t="n">
-        <v>0.213042</v>
+        <v>0.211748</v>
       </c>
       <c r="F94" t="n">
-        <v>0.211723</v>
+        <v>0.214689</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.278009</v>
+        <v>0.277833</v>
       </c>
       <c r="C95" t="n">
-        <v>0.263604</v>
+        <v>0.264275</v>
       </c>
       <c r="D95" t="n">
-        <v>0.313364</v>
+        <v>0.314375</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221066</v>
+        <v>0.216977</v>
       </c>
       <c r="F95" t="n">
-        <v>0.214045</v>
+        <v>0.215935</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.277681</v>
+        <v>0.277803</v>
       </c>
       <c r="C96" t="n">
-        <v>0.262824</v>
+        <v>0.264585</v>
       </c>
       <c r="D96" t="n">
-        <v>0.321342</v>
+        <v>0.322277</v>
       </c>
       <c r="E96" t="n">
-        <v>0.221052</v>
+        <v>0.224535</v>
       </c>
       <c r="F96" t="n">
-        <v>0.213974</v>
+        <v>0.216242</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.27812</v>
+        <v>0.278021</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26304</v>
+        <v>0.264814</v>
       </c>
       <c r="D97" t="n">
-        <v>0.33025</v>
+        <v>0.33448</v>
       </c>
       <c r="E97" t="n">
-        <v>0.222576</v>
+        <v>0.226519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.215641</v>
+        <v>0.217898</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.278339</v>
+        <v>0.278328</v>
       </c>
       <c r="C98" t="n">
-        <v>0.264148</v>
+        <v>0.265235</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340595</v>
+        <v>0.343283</v>
       </c>
       <c r="E98" t="n">
-        <v>0.228614</v>
+        <v>0.226474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.216321</v>
+        <v>0.218814</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.278438</v>
+        <v>0.278353</v>
       </c>
       <c r="C99" t="n">
-        <v>0.26329</v>
+        <v>0.265625</v>
       </c>
       <c r="D99" t="n">
-        <v>0.344132</v>
+        <v>0.347987</v>
       </c>
       <c r="E99" t="n">
-        <v>0.231158</v>
+        <v>0.231327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.220078</v>
+        <v>0.220125</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.278159</v>
+        <v>0.278795</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263416</v>
+        <v>0.265996</v>
       </c>
       <c r="D100" t="n">
-        <v>0.359936</v>
+        <v>0.361275</v>
       </c>
       <c r="E100" t="n">
-        <v>0.232394</v>
+        <v>0.233408</v>
       </c>
       <c r="F100" t="n">
-        <v>0.218609</v>
+        <v>0.221326</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.278742</v>
+        <v>0.278812</v>
       </c>
       <c r="C101" t="n">
-        <v>0.264344</v>
+        <v>0.266346</v>
       </c>
       <c r="D101" t="n">
-        <v>0.368167</v>
+        <v>0.373055</v>
       </c>
       <c r="E101" t="n">
-        <v>0.235054</v>
+        <v>0.235448</v>
       </c>
       <c r="F101" t="n">
-        <v>0.222446</v>
+        <v>0.222958</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.278881</v>
+        <v>0.278665</v>
       </c>
       <c r="C102" t="n">
-        <v>0.264541</v>
+        <v>0.266967</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373463</v>
+        <v>0.379411</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237711</v>
+        <v>0.235613</v>
       </c>
       <c r="F102" t="n">
-        <v>0.224078</v>
+        <v>0.224905</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.278971</v>
+        <v>0.279184</v>
       </c>
       <c r="C103" t="n">
-        <v>0.267887</v>
+        <v>0.268266</v>
       </c>
       <c r="D103" t="n">
-        <v>0.387756</v>
+        <v>0.385219</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239484</v>
+        <v>0.240573</v>
       </c>
       <c r="F103" t="n">
-        <v>0.226066</v>
+        <v>0.226465</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.279432</v>
+        <v>0.279975</v>
       </c>
       <c r="C104" t="n">
-        <v>0.267389</v>
+        <v>0.267174</v>
       </c>
       <c r="D104" t="n">
-        <v>0.399531</v>
+        <v>0.400918</v>
       </c>
       <c r="E104" t="n">
-        <v>0.243839</v>
+        <v>0.244464</v>
       </c>
       <c r="F104" t="n">
-        <v>0.230185</v>
+        <v>0.228269</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.278263</v>
+        <v>0.280755</v>
       </c>
       <c r="C105" t="n">
-        <v>0.269403</v>
+        <v>0.267769</v>
       </c>
       <c r="D105" t="n">
-        <v>0.409223</v>
+        <v>0.410241</v>
       </c>
       <c r="E105" t="n">
-        <v>0.246358</v>
+        <v>0.246563</v>
       </c>
       <c r="F105" t="n">
-        <v>0.231237</v>
+        <v>0.233932</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.280722</v>
+        <v>0.280838</v>
       </c>
       <c r="C106" t="n">
-        <v>0.272641</v>
+        <v>0.270325</v>
       </c>
       <c r="D106" t="n">
-        <v>0.420549</v>
+        <v>0.423182</v>
       </c>
       <c r="E106" t="n">
-        <v>0.248953</v>
+        <v>0.250909</v>
       </c>
       <c r="F106" t="n">
-        <v>0.237798</v>
+        <v>0.237632</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.282593</v>
+        <v>0.282541</v>
       </c>
       <c r="C107" t="n">
-        <v>0.276015</v>
+        <v>0.276643</v>
       </c>
       <c r="D107" t="n">
-        <v>0.352703</v>
+        <v>0.357281</v>
       </c>
       <c r="E107" t="n">
-        <v>0.255744</v>
+        <v>0.24734</v>
       </c>
       <c r="F107" t="n">
-        <v>0.241057</v>
+        <v>0.243038</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.284919</v>
+        <v>0.285189</v>
       </c>
       <c r="C108" t="n">
-        <v>0.279653</v>
+        <v>0.281177</v>
       </c>
       <c r="D108" t="n">
-        <v>0.367315</v>
+        <v>0.367643</v>
       </c>
       <c r="E108" t="n">
-        <v>0.272988</v>
+        <v>0.270332</v>
       </c>
       <c r="F108" t="n">
-        <v>0.26818</v>
+        <v>0.269648</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.289858</v>
+        <v>0.287943</v>
       </c>
       <c r="C109" t="n">
-        <v>0.288227</v>
+        <v>0.290206</v>
       </c>
       <c r="D109" t="n">
-        <v>0.367344</v>
+        <v>0.368167</v>
       </c>
       <c r="E109" t="n">
-        <v>0.271929</v>
+        <v>0.276502</v>
       </c>
       <c r="F109" t="n">
-        <v>0.268894</v>
+        <v>0.272652</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314121</v>
+        <v>0.316013</v>
       </c>
       <c r="C110" t="n">
-        <v>0.331249</v>
+        <v>0.332003</v>
       </c>
       <c r="D110" t="n">
-        <v>0.36924</v>
+        <v>0.374906</v>
       </c>
       <c r="E110" t="n">
-        <v>0.276248</v>
+        <v>0.278431</v>
       </c>
       <c r="F110" t="n">
-        <v>0.274749</v>
+        <v>0.272722</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.318848</v>
+        <v>0.31295</v>
       </c>
       <c r="C111" t="n">
-        <v>0.332727</v>
+        <v>0.33135</v>
       </c>
       <c r="D111" t="n">
-        <v>0.382454</v>
+        <v>0.387362</v>
       </c>
       <c r="E111" t="n">
-        <v>0.280632</v>
+        <v>0.280686</v>
       </c>
       <c r="F111" t="n">
-        <v>0.270575</v>
+        <v>0.276548</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.312678</v>
+        <v>0.308141</v>
       </c>
       <c r="C112" t="n">
-        <v>0.332478</v>
+        <v>0.331732</v>
       </c>
       <c r="D112" t="n">
-        <v>0.392632</v>
+        <v>0.399862</v>
       </c>
       <c r="E112" t="n">
-        <v>0.283094</v>
+        <v>0.283314</v>
       </c>
       <c r="F112" t="n">
-        <v>0.278581</v>
+        <v>0.275742</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.317342</v>
+        <v>0.313808</v>
       </c>
       <c r="C113" t="n">
-        <v>0.334478</v>
+        <v>0.333118</v>
       </c>
       <c r="D113" t="n">
-        <v>0.405651</v>
+        <v>0.406687</v>
       </c>
       <c r="E113" t="n">
-        <v>0.285848</v>
+        <v>0.286305</v>
       </c>
       <c r="F113" t="n">
-        <v>0.279915</v>
+        <v>0.280474</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.319144</v>
+        <v>0.321605</v>
       </c>
       <c r="C114" t="n">
-        <v>0.335107</v>
+        <v>0.334551</v>
       </c>
       <c r="D114" t="n">
-        <v>0.413398</v>
+        <v>0.406999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.277372</v>
+        <v>0.282624</v>
       </c>
       <c r="F114" t="n">
-        <v>0.281796</v>
+        <v>0.273425</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.316533</v>
+        <v>0.317698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.332556</v>
+        <v>0.325214</v>
       </c>
       <c r="D115" t="n">
-        <v>0.419</v>
+        <v>0.414006</v>
       </c>
       <c r="E115" t="n">
-        <v>0.283315</v>
+        <v>0.28432</v>
       </c>
       <c r="F115" t="n">
-        <v>0.284803</v>
+        <v>0.277309</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.318468</v>
+        <v>0.317895</v>
       </c>
       <c r="C116" t="n">
-        <v>0.334883</v>
+        <v>0.335214</v>
       </c>
       <c r="D116" t="n">
-        <v>0.430602</v>
+        <v>0.423686</v>
       </c>
       <c r="E116" t="n">
-        <v>0.283995</v>
+        <v>0.284505</v>
       </c>
       <c r="F116" t="n">
-        <v>0.28802</v>
+        <v>0.286743</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.315402</v>
+        <v>0.316279</v>
       </c>
       <c r="C117" t="n">
-        <v>0.334557</v>
+        <v>0.338539</v>
       </c>
       <c r="D117" t="n">
-        <v>0.431061</v>
+        <v>0.438698</v>
       </c>
       <c r="E117" t="n">
-        <v>0.290719</v>
+        <v>0.292278</v>
       </c>
       <c r="F117" t="n">
-        <v>0.291413</v>
+        <v>0.290239</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.313945</v>
+        <v>0.310797</v>
       </c>
       <c r="C118" t="n">
-        <v>0.334901</v>
+        <v>0.339002</v>
       </c>
       <c r="D118" t="n">
-        <v>0.452792</v>
+        <v>0.452859</v>
       </c>
       <c r="E118" t="n">
-        <v>0.29494</v>
+        <v>0.29506</v>
       </c>
       <c r="F118" t="n">
-        <v>0.295888</v>
+        <v>0.298523</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.313663</v>
+        <v>0.32468</v>
       </c>
       <c r="C119" t="n">
-        <v>0.337778</v>
+        <v>0.339537</v>
       </c>
       <c r="D119" t="n">
-        <v>0.459734</v>
+        <v>0.453837</v>
       </c>
       <c r="E119" t="n">
-        <v>0.297541</v>
+        <v>0.297807</v>
       </c>
       <c r="F119" t="n">
-        <v>0.29926</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.319325</v>
+        <v>0.32192</v>
       </c>
       <c r="C120" t="n">
-        <v>0.337576</v>
+        <v>0.340236</v>
       </c>
       <c r="D120" t="n">
-        <v>0.469473</v>
+        <v>0.472208</v>
       </c>
       <c r="E120" t="n">
-        <v>0.299979</v>
+        <v>0.302467</v>
       </c>
       <c r="F120" t="n">
-        <v>0.307953</v>
+        <v>0.308934</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.320438</v>
+        <v>0.315621</v>
       </c>
       <c r="C121" t="n">
-        <v>0.345108</v>
+        <v>0.343963</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383306</v>
+        <v>0.384502</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3071</v>
+        <v>0.309456</v>
       </c>
       <c r="F121" t="n">
-        <v>0.315331</v>
+        <v>0.318722</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.325875</v>
+        <v>0.325792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.347824</v>
+        <v>0.349933</v>
       </c>
       <c r="D122" t="n">
-        <v>0.39081</v>
+        <v>0.391471</v>
       </c>
       <c r="E122" t="n">
-        <v>0.310607</v>
+        <v>0.315529</v>
       </c>
       <c r="F122" t="n">
-        <v>0.327582</v>
+        <v>0.329285</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.330887</v>
+        <v>0.327499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357326</v>
+        <v>0.357593</v>
       </c>
       <c r="D123" t="n">
-        <v>0.391421</v>
+        <v>0.392227</v>
       </c>
       <c r="E123" t="n">
-        <v>0.301294</v>
+        <v>0.301231</v>
       </c>
       <c r="F123" t="n">
-        <v>0.309714</v>
+        <v>0.30981</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3929</v>
+        <v>0.392451</v>
       </c>
       <c r="C124" t="n">
-        <v>0.423329</v>
+        <v>0.424048</v>
       </c>
       <c r="D124" t="n">
-        <v>0.40251</v>
+        <v>0.403076</v>
       </c>
       <c r="E124" t="n">
-        <v>0.304084</v>
+        <v>0.304504</v>
       </c>
       <c r="F124" t="n">
-        <v>0.309718</v>
+        <v>0.312187</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.401039</v>
+        <v>0.403113</v>
       </c>
       <c r="C125" t="n">
-        <v>0.423664</v>
+        <v>0.423093</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412977</v>
+        <v>0.413309</v>
       </c>
       <c r="E125" t="n">
-        <v>0.306462</v>
+        <v>0.307143</v>
       </c>
       <c r="F125" t="n">
-        <v>0.311267</v>
+        <v>0.313926</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.402856</v>
+        <v>0.40257</v>
       </c>
       <c r="C126" t="n">
-        <v>0.424215</v>
+        <v>0.418713</v>
       </c>
       <c r="D126" t="n">
-        <v>0.424531</v>
+        <v>0.424839</v>
       </c>
       <c r="E126" t="n">
-        <v>0.309581</v>
+        <v>0.310344</v>
       </c>
       <c r="F126" t="n">
-        <v>0.316694</v>
+        <v>0.316417</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.403887</v>
+        <v>0.406626</v>
       </c>
       <c r="C127" t="n">
-        <v>0.426567</v>
+        <v>0.426896</v>
       </c>
       <c r="D127" t="n">
-        <v>0.424481</v>
+        <v>0.428706</v>
       </c>
       <c r="E127" t="n">
-        <v>0.312667</v>
+        <v>0.313484</v>
       </c>
       <c r="F127" t="n">
-        <v>0.318497</v>
+        <v>0.318784</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.394293</v>
+        <v>0.405341</v>
       </c>
       <c r="C128" t="n">
-        <v>0.426009</v>
+        <v>0.419936</v>
       </c>
       <c r="D128" t="n">
-        <v>0.44253</v>
+        <v>0.442976</v>
       </c>
       <c r="E128" t="n">
-        <v>0.310884</v>
+        <v>0.316437</v>
       </c>
       <c r="F128" t="n">
-        <v>0.322088</v>
+        <v>0.321526</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.401057</v>
+        <v>0.403381</v>
       </c>
       <c r="C129" t="n">
-        <v>0.421297</v>
+        <v>0.422295</v>
       </c>
       <c r="D129" t="n">
-        <v>0.445468</v>
+        <v>0.448726</v>
       </c>
       <c r="E129" t="n">
-        <v>0.319413</v>
+        <v>0.319631</v>
       </c>
       <c r="F129" t="n">
-        <v>0.323072</v>
+        <v>0.324342</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.406675</v>
+        <v>0.404119</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427356</v>
+        <v>0.429256</v>
       </c>
       <c r="D130" t="n">
-        <v>0.457539</v>
+        <v>0.455916</v>
       </c>
       <c r="E130" t="n">
-        <v>0.323529</v>
+        <v>0.318501</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328471</v>
+        <v>0.33018</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.399958</v>
+        <v>0.402079</v>
       </c>
       <c r="C131" t="n">
-        <v>0.420111</v>
+        <v>0.429469</v>
       </c>
       <c r="D131" t="n">
-        <v>0.46794</v>
+        <v>0.468144</v>
       </c>
       <c r="E131" t="n">
-        <v>0.321606</v>
+        <v>0.32766</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333089</v>
+        <v>0.331765</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.403941</v>
+        <v>0.396435</v>
       </c>
       <c r="C132" t="n">
-        <v>0.431384</v>
+        <v>0.431078</v>
       </c>
       <c r="D132" t="n">
-        <v>0.475121</v>
+        <v>0.478002</v>
       </c>
       <c r="E132" t="n">
-        <v>0.332276</v>
+        <v>0.332102</v>
       </c>
       <c r="F132" t="n">
-        <v>0.338569</v>
+        <v>0.338886</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.404244</v>
+        <v>0.406026</v>
       </c>
       <c r="C133" t="n">
-        <v>0.427682</v>
+        <v>0.433135</v>
       </c>
       <c r="D133" t="n">
-        <v>0.484954</v>
+        <v>0.488304</v>
       </c>
       <c r="E133" t="n">
-        <v>0.337512</v>
+        <v>0.336862</v>
       </c>
       <c r="F133" t="n">
-        <v>0.344065</v>
+        <v>0.346209</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.408032</v>
+        <v>0.407404</v>
       </c>
       <c r="C134" t="n">
-        <v>0.436866</v>
+        <v>0.428373</v>
       </c>
       <c r="D134" t="n">
-        <v>0.50305</v>
+        <v>0.498977</v>
       </c>
       <c r="E134" t="n">
-        <v>0.342803</v>
+        <v>0.342859</v>
       </c>
       <c r="F134" t="n">
-        <v>0.348503</v>
+        <v>0.351424</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.411212</v>
+        <v>0.408882</v>
       </c>
       <c r="C135" t="n">
-        <v>0.440633</v>
+        <v>0.439442</v>
       </c>
       <c r="D135" t="n">
-        <v>0.401707</v>
+        <v>0.399898</v>
       </c>
       <c r="E135" t="n">
-        <v>0.349266</v>
+        <v>0.350354</v>
       </c>
       <c r="F135" t="n">
-        <v>0.362988</v>
+        <v>0.365576</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.41093</v>
+        <v>0.411347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.438257</v>
+        <v>0.445088</v>
       </c>
       <c r="D136" t="n">
-        <v>0.402103</v>
+        <v>0.404457</v>
       </c>
       <c r="E136" t="n">
-        <v>0.359455</v>
+        <v>0.359445</v>
       </c>
       <c r="F136" t="n">
-        <v>0.376349</v>
+        <v>0.379442</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.415551</v>
+        <v>0.414795</v>
       </c>
       <c r="C137" t="n">
-        <v>0.453419</v>
+        <v>0.45378</v>
       </c>
       <c r="D137" t="n">
-        <v>0.411421</v>
+        <v>0.414067</v>
       </c>
       <c r="E137" t="n">
-        <v>0.323394</v>
+        <v>0.327298</v>
       </c>
       <c r="F137" t="n">
-        <v>0.329629</v>
+        <v>0.332589</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.460278</v>
+        <v>0.460613</v>
       </c>
       <c r="C138" t="n">
-        <v>0.474609</v>
+        <v>0.474989</v>
       </c>
       <c r="D138" t="n">
-        <v>0.421227</v>
+        <v>0.420434</v>
       </c>
       <c r="E138" t="n">
-        <v>0.32941</v>
+        <v>0.329725</v>
       </c>
       <c r="F138" t="n">
-        <v>0.331886</v>
+        <v>0.334435</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139"